--- a/quoted_boq.xlsx
+++ b/quoted_boq.xlsx
@@ -18,7 +18,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="33">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -26,17 +26,337 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="25"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="26"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="27"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="28"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="29"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="30"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="31"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="32"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="33">
     <bk>
       <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
+    </bk>
+    <bk>
+      <rc t="1" v="14"/>
+    </bk>
+    <bk>
+      <rc t="1" v="15"/>
+    </bk>
+    <bk>
+      <rc t="1" v="16"/>
+    </bk>
+    <bk>
+      <rc t="1" v="17"/>
+    </bk>
+    <bk>
+      <rc t="1" v="18"/>
+    </bk>
+    <bk>
+      <rc t="1" v="19"/>
+    </bk>
+    <bk>
+      <rc t="1" v="20"/>
+    </bk>
+    <bk>
+      <rc t="1" v="21"/>
+    </bk>
+    <bk>
+      <rc t="1" v="22"/>
+    </bk>
+    <bk>
+      <rc t="1" v="23"/>
+    </bk>
+    <bk>
+      <rc t="1" v="24"/>
+    </bk>
+    <bk>
+      <rc t="1" v="25"/>
+    </bk>
+    <bk>
+      <rc t="1" v="26"/>
+    </bk>
+    <bk>
+      <rc t="1" v="27"/>
+    </bk>
+    <bk>
+      <rc t="1" v="28"/>
+    </bk>
+    <bk>
+      <rc t="1" v="29"/>
+    </bk>
+    <bk>
+      <rc t="1" v="30"/>
+    </bk>
+    <bk>
+      <rc t="1" v="31"/>
+    </bk>
+    <bk>
+      <rc t="1" v="32"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="192">
   <si>
     <t>_id</t>
   </si>
@@ -59,6 +379,9 @@
     <t>price</t>
   </si>
   <si>
+    <t>total price</t>
+  </si>
+  <si>
     <t>remarks</t>
   </si>
   <si>
@@ -68,30 +391,687 @@
     <t>HSN</t>
   </si>
   <si>
-    <t>66ce75034aec4a5e3e0911ef</t>
+    <t>66ceca8d3406ad69286ed633</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e0911b7</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e0911b9</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed636</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed63d</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e0911c0</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e0911c3</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e0911c6</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed643</t>
+  </si>
+  <si>
+    <t>66ce42405e8f3bab7b1441b1</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e0911e5</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed662</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e0911db</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed658</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e0911dc</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed659</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed65a</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e0911dd</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e0911ed</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed668</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e0911f0</t>
+  </si>
+  <si>
+    <t>66ce42405e8f3bab7b1441ae</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed674</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e0911f7</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed675</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e0911f8</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed67f</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed67e</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e091201</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e091207</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed684</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed689</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e09120c</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e091215</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed69b</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e09121e</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e091221</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed69e</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed6a6</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e091229</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e091230</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed6ad</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e091232</t>
+  </si>
+  <si>
+    <t>66ce42405e8f3bab7b1441a6</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed6b1</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e091234</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed6b3</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e091236</t>
+  </si>
+  <si>
+    <t>66ceca8d3406ad69286ed6b6</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e091239</t>
+  </si>
+  <si>
+    <t>66ce75034aec4a5e3e09123b</t>
+  </si>
+  <si>
+    <t>66ce42275e8f3bab7b14419d</t>
+  </si>
+  <si>
+    <t>66ce42275e8f3bab7b14419b</t>
+  </si>
+  <si>
+    <t>66ce425d5e8f3bab7b1441b2</t>
+  </si>
+  <si>
+    <t>Room Dustbin</t>
+  </si>
+  <si>
+    <t>Dock Station without Bluetooth</t>
+  </si>
+  <si>
+    <t>Alarm Clock</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>Luggage Rack</t>
+  </si>
+  <si>
+    <t>Kettle</t>
+  </si>
+  <si>
+    <t>BIG TRAY</t>
+  </si>
+  <si>
+    <t>TEA TRAY(SACHET HOLDER)</t>
+  </si>
+  <si>
+    <t>MEDIUM TRAY</t>
   </si>
   <si>
     <t>Coffee Plunger</t>
   </si>
   <si>
+    <t>Ice Bucket with Tong</t>
+  </si>
+  <si>
+    <t>Bottle Opener</t>
+  </si>
+  <si>
+    <t>Coffee Machine</t>
+  </si>
+  <si>
+    <t>Iron Board</t>
+  </si>
+  <si>
+    <t>Organiser</t>
+  </si>
+  <si>
+    <t>Laundry Basket</t>
+  </si>
+  <si>
+    <t>Hair Dryer</t>
+  </si>
+  <si>
+    <t>Hair Dryer Bag</t>
+  </si>
+  <si>
+    <t>Personal Scale</t>
+  </si>
+  <si>
+    <t>Waste Bins</t>
+  </si>
+  <si>
+    <t>TROUSER HANGERS 12 MM</t>
+  </si>
+  <si>
+    <t>SKIRT HANGERS CLIP 12 MM</t>
+  </si>
+  <si>
+    <t>Satin Hanger</t>
+  </si>
+  <si>
+    <t>SATIN HANGERS</t>
+  </si>
+  <si>
+    <t>COAT HANGERS - 45 MM</t>
+  </si>
+  <si>
+    <t>WOODEN COAT BRUSH 10"</t>
+  </si>
+  <si>
+    <t>WOODEN SHOE HORN 10"</t>
+  </si>
+  <si>
+    <t>SOAP DISH</t>
+  </si>
+  <si>
+    <t>AMENITY TRAY</t>
+  </si>
+  <si>
+    <t>MAID ROOM TROLLEY</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAI4AAAB7CAIAAAAtwC/1AAA4LUlEQVR4nO29eZBkZ3UveL7lbrlUZm1dXerq7lJ1t6SW1Gp1S+IJSRgJZBOgMdiW8fMM8kPGPP4A6y+/N2CPwzPhP2xjRzwcDgdgh8PhcEw8EGME4gkZC8sSknCABI/R0qglel+qurbc827fcuaPk/fW7aruRqDKQs9vTmRUZN28efPe73znnN9ZvvMxay0AAABjDDJCRNgkMgaF4IVrgzFGCGGMAQAhWH4kSRLP84wCIThk52tlDFoppUUGACCg14+OHz9+5OirjVbTcZy0HzHGtNZJkqg0RUSOwBiTUnLOXdf1PA8EZ4wJIVzXHZ+Y2L9//9zVu5SynHOllCsk58wYLbIb5RyMQTRWOsJYwxijMx3HAYA4jj3PKz4jDVdxAIdBcqhXBwApeZpq15VaW2ut60p6MCEEAGid0hMiImMMkQnJ0IJKFWMsTdPFxcXXfvT6qVOnur2w0WhcWF5qtVrtTqcb9pVSjDEBjHMOANZaQOScCxhcEAAYY4wxyyCfkVyI8fHxbZOTo6Oj09PTo6Ojk2Pj9Xr9hhv2B0HgSEn3RuwBBCGE1ppz7jgO3aTv+9Za+tEi5Q8ypJFk9AzDmxHEp+IRek6SJDqSSZgIw3B+/sKZM2eWlpaazebx48dfe+21RqNhjHG9wFqbGm2tFVJyR1prlVImVWvMBuCccwRElFIiYs4wzrlGSz/tuq4QwnEcY0yapiZVruteffXu3bt3XzU9PTY2Njs7u2/fvrH6KAAAR0QkxoRhGASBUsp13SEN1xVo6KwCAERgDLS2AFZKqbWmaRvHMeecMZYkyeuvv37q1KkLFy4cO3bixRdfXFpaqlardDJJRhgljuMwxhKtjDEIYK01xvi+j4jWWmstZ4wxRqyy1uYsHMgEZ1prY4zrurkSDoKAIziOo3XqeZ41BhGnpqb27du3a2ZnrVY7cPDG66+/PgzDcrk8vCF6IzR0VtGgaK2llMaY4khZa+fnL3z3u99tNpvHjh178cUXwzB0PS8MQ7IZcRyTfKRpKoWrjFZKabRkeDjnwFiapiRPLCOyVSRJiGiMQUQhBKnBTPFqz/NQG9d10zS11pZKvjGGAUgp6baDIBgfH7/ttlump6dnZ2enpqauvfbaXKS2xj4VieWzb0hETEqShDHmuq5SCgCstd/4xjcuXLiwtLTy/PPPLywsjIyMAIAxRhuTpikDsNaSkRBCKKU4k8YYCwNdlBo9UJtSAgDJE10ZjIXM3tCRgSHkjI6nacoY8zxPxYm11nXdcrnc7bZd1+WMGWPIII2Pj4+Pj8/O7pqZmWGM1ev1fr9/4MCBG2+8kRVoeEO3jobOKgAbx7Hvl4hn3W730UcfbTQaq6vN73znO61Wy/O8XjekkTXG+CUvShPURggBmUwwxozOZjFnpO4YY9yRcZLkUgXGkpIQQgjGrbXIgHNOapbuhiTb933GmFJKSrlz587Jycl9e+dqtRpBBq11FEWNRqPb7YZhT2uttU7TtFKptFqtz372s1NTU8aY4mW3gLaCVdbaJFGu637rW9966aWXOOdPPPHE4uJyEAQrKyuc88AvI2IURaVKOY5D4TpgrFJKCkFqUynlSM9mhAwYGzCMO9JmgEIAE0J4nud5XrvZStPUoBVCkLIlKWSM7dix49ChQ9PT06VSiWxhr9eLo/7CwsKFCxcQ0XGcOI7jOBZC9Hqd++677/d///e73a7jOL7vA4BSat0M2AKSkAHlN3+t/Do5lk3TVAghhFxZWSCN12g0nnvuX3NA5XslRCStKKUkoGGMQW1IvZBUOY6jktR1XWutlDIMQ8/zHCF7Sd9z5Nvf/vZbDh8OgkDFCQA4QtL8azabzzzzzOLi4ki9tnfv3oMHDyqlXFeGYbiysvL660ejKOr3+512O45jrSyx0xhTq9V6vZ4xxvMdxvCGG25AxHK5TLdN9/Pmh+snpc30q2im09+Bd+m61tqnnnrqhRdeUEqdOnXqe9/7nhCOlFIpGpv1jkicJo7vOY6jtSbPCRG11r4bJElirJVSkjQcOHDg3T9/L3ckJ0caoBKUEDHqh/1+31pbr9fvvfdex3EM2k6nMz8/Pz8/32isKKU6nU6v16O5xRkTQgjuEAyhg67rIqLrScbY2NgYzRv6aCslqUibxirS+zTvjDFSShrur3zl0WPHjgHA17/+j67rBkFZKdXr9UgpISACAg40CdlzY0yqDbm0juMIxgXjaZpyzl3HIUz44IMPuq7barWIrySLJlVaazTWWjs1NbW8vHzq1Kl2u93pdJrNZpTESZIYnQZB4DhOtVLJISJjDC0r6jSSG8cRjLHt27dv1ii9Gdo0VuVBFyml53kUffnSl7507NiJIAieffZZMs6dTsf3fXI/yfsBAMiALyICAnHFcRxrTBzHYBERXdcnXO667sTExPLy8vT0NDlnZDkAwBVSStnqNFdWVl544YXV1dVer0dBJmJwqVRqtxqu6xIiJwVAuN8akFISlCdXjG5PCDE+Pk56YrMsxU9Hm8YqehiyugT2nnjiiRMnTvi+/8MjR5cWV1RqkiSpVmpR3CeurLEKLGRaEDUyAM6YNUanyhpDsbs0VZ7nxUkCjC0sLDz77LPv/6UPIKJl4DgOR2g2m+fPn79w4UK72UqSZH5+nnNer9fL5TLBSwvoeV65XKZZRSiDeCyl1GDpNFJ9nHNrrTGaMVatVrfei9pIm8YqzrnWGjIXMkmSb3/7247jhf34tddei6JICDE2NtZsNj3fpX/XXYGGg4w2GSrJheM4OXpGxDAMS6XS3XffPTs7G6dJEATtXvf48eNnT51eXV1tt9thGHqOW6vV6ExiM0VXE5XGcUy+GuecZIgunqap4AOkQBJPgRJADgCe560LFPxMxGvTWEWSRHDOcZw///M/J+adOzvv+0EYhgDQbrcZY2miGYjcgCMiAMkWIqLWVgiBxhKfoihSSlWrVdd1t2/f/qsf/GCn06mN1rXWp06d6na7x0+dXF1dTcLI8zzBuOe4juNIKUtB4HsDfA8AjDHHcZRSQRBILowxVg+w+8Cl06i1Jj1Jeg8RWSGKuFkD9VPTprGKQJ3jOI7j9Pv9xcXF0dFRxsTZs2fPnz9fr9eiKMpBB2PMGJ1jP8YYokFkiDAIwipNKiiO45mZmbvuumt2dm55ebnX60VR9PKRV8IwXFpaokjuYGSNjXVKQklpESGElJLiQOQ2SC4yFCeAbGA2YwAGjgEwCwCMI2OMATNG0Q3ntwo/I85tLlgXAJCm+tVXX7MWlDKOw9vt9vj4GEE+Qha+7/f7/VKp1O12afICIOMsjlLXkwQjDWfA2aHDhw8dOkSaaqWxvNpcOXfuXKvVojnhuZKBVWkMAI7joNWOlOPj477vt9ttwaVWxmprlPEcDwRorYUjEVEbA8Ck42URQoq9oyul1jqK+o7jJUlkLSCa97znPZzzOI4ppk7qkaZRHk4knT9s2szfIKFhjB05cmRkZERrTTme1dXVkZERpZRSyvf9KIpc122327VardPpDOLlSeI4DlqI06her99111033HCDUkpr3W63jx071mg0SBl6nuf7PmlXz/PiMJqent6/f3+1Wj179vzCwkKv16MYB8FIKeVaeFBpZbTjOEIIa41SisAFMJskCSKShxaGIcXAPM+bmpqK45iQSI4bSW2maUpgstfrBUFAAeJNHM91tJmRdUQwxkrJ/8t/+fOVlRXCWo9//Rurq6uEqoMgoKEhAEI/naapMaZUKkVRtH379ltvOzw3N0eqr9/vnzp1anV1NUkS3/fDMNRal8vlQYbX8dM0ndl51euvv754YZkQBM33JEnCMPR9PwiCSqVSqVQGQRBEwhFJkgw0pMMpa+U4ThT1HccJw5Bz8H0/juNqtXrq5EljzLve9a6HHnro7W9/OynMtVQO50ZrkUsVIrD1cGmzaHMVICWKwPd9Go4wDK21nuf1er1qtdpqtUiqIPNdGGPlcrnb7e7bt+/22293HIcLSNP09OnT586do6+7rkvRVdKEJKlpmqrUhGF49txprbUQDgXgaWrnsZKcN4gYx3FujdAyBJMqFUbaGGOMYllMPUmiarUaRVEcx+12O47jUqnUarX+4R/+4fz583v37qUMzk033cQ47/d6pVIJrR3wbAOs3UTaTFZhlt7et2/fysoKzbsDBw48++yzjuOQrqNIqOd5YRgSKD948OBNN92EiEmSSClf/H9fOXv2LAC4rouWlYIKnWaM8b0S55ygs5FGKZWmqe+VwANjTJIkSidSSskkMDRWIRjG0aKOk5CgoJACLCRJqpQBsEqpJEk4537gkve9srxYr4/cdOCGm2++eXZ2FgDIpo6Pj7darUajce7cGXLOnnzym6Ojo2/7d/8ue3orJAcYItzYRLBupRy4k7feeusjjzwyPT0thNi5cydZb2JPt9ulYKjrurt3777jjjvq9Xq321VKLS4uHj9+nBhMLKcIabvdrlQqpKINxS+ydJS1ttfrkSKlsDdpTq01JTDzRLPWaZIoxrDTalvUjvRcT6apVjoplUojIyPvfOc79+3bg4hjY2PdbhcRl5aWSKpIUikp2uv1lpeXJyYmrr322n6//8Q//dNdd91VKpfTJHE9z+hUSBdgKBZr02wVZeWtBbKsn/zk7xJGssiEEF//+tfJhpNCu/POO6enp2u1GimZM2fOLCwsTE9Pnz592nU9z/M8x03TFNF6nkfIOw+VEmhExCSOFxYWuByUKyEioxCDVWQaKSFSrVYdxwnDXr8fcUAphEmT8fHJQ4cOHjp0y8TEmFIqiqJKpZKq5OTJkxTmp1milGJCtFotznkQBLnXRSB2bm7uhhtu6Pf7s7Ozs1dfbbQW0gHgb3VWWUu2CjiHNNVnzpz567/+61KpBGyQjV1dXR0dHSW/h4KES0tLq6uri4uLABDH8eTkZJqmiMAYU0nqeR4AEuRTSg3Cu5R6txYRtVLLy4urzQax0xjDOAdmSVsSbHNd13EEAHDOJycnd++aufvn3ukK6XmeECKKomaz2e12jdWEFDzP6/f7ZD4J76Vau67LGKPcMQUMyUesVCqUxR8ZGalWqzMzM35QGh6rNk0BMjZ4aW1dV87NzfV6vXK5nCpFke+xsTHP8yhz3+v1Tpw4sbS0RKND/CBlBQBaay6FBRSMkWedO54IRkipI4WInEOSJEIIxpAcaoaYxEm5Wmk2VzkHIZjvuxMTY3e/+13XX399q9WqVaqedPrdzo+OvU4mkFCDsVbrFBGjqA9g+/0u52CtZowBs6mKGWOMM2uNShIA4JyTCTxz9pR0+LXXXtvrd/zAnZnZjYjWrk8Qb0ogajPBOtWRkSakv5/4xEMTk1OUH6FoHqG7RqNBkxpggEQg81o4F/kt0eTMER3jSN6MUYPUba/XCeOIBEgIppThHLQ1xpi777779ttvHxmpeJ7X6naq1aoQgiNIxs6dOROGYavVqlQqxgzwRa5XiyVpAKDR5g+Yh6nIJajX63Ec1+v16667bmJiQkq5e9fVU9t3FKUqD569tVhlzMCF1NoKwaMoZox98lO/VyqVRkdHwzA8deoU/dy5c+cIeVOFV541zlVc7ksiIlpNxymAq3VKvI/juNFoKKWMVb7vt1qNWn3sgd/436655hrHcZI0DYKg2WyePHnyiSee2L9//7t/4ecrQUkyVin53W7329/+Nhkea22lUqEMS86nnOiG6TjliPOwIbnSvu+PjIy87W1vQ0THC246eNjzgvzrmxjY3eTisryQltAgAJw6ff7v/u7vLly4AADlcnl5eZkGpd1uU8BbKUXPQ3dCYKQQwzZGazpHCJbGCflJFPtoNFc8zwOwDzzwwJ133tlqtSojVQCgyH0/DB9//PHDhw/ffPPNURT931/4r/f/8i9tn9h25tSJc+fOdbtdirITNM2T8RtZRRPFGENWkKLyxOZKpULa4s4776zX63Gq9+y5Zmbn7uzmNzMAv5l+VRQlQeABgJTcWkjT1PfdiYmJl19+GRFnZ2c557Vard1ut9ttekISqSy+DpxzKptFo7NUFomaCcMQEdHYJI3SNE2SxHfc/ddc++EP/0Z1pOK6bqfTrtdrWuswDKu1kSiK6rWRmZkZpdTHP/7xe+65J+r1Hcd57rnnhGQgeKxSay2zTKO1gBYH0gMXFzOzTJ5ofpD/SwwgTEjhpfn5ed/3pesvLCxMXzVDvnAeJ3zLKUAAMAYJW+fFzw/8xm+Wy+VWqzU1NRUEQbfbbbfbaUak+nJtzjk3gMYY1IoYmaapSmMKiS4uLo5Uy81mc2Zm5oEHHti1Y6bVakxum2g0Gp1OJwzDyshIuVweHx9HxKBc0lpT9WYYhufPn280Gtqobz351OLSwnvf+15CkkmS5OEouJhJA4tlMZdjumGK1pMCp4w2ANRqtTvuuAOZSBJ99z3vXhfJtZeqcf9JadOkilQf2SrSgYyxhYWFU6dO3XvvvcvLywBAklQqlQgHAhXsCUEGgCKwyiqllFWa4hdhGFqjOOfdbnt0tPa/3Hff4cOHjVFSyijqr6ysLFyYZwwJFHTbzTQOtdZBEJw5d5Zzvrq6WqlUTp85+8wzz5w8ebLdaW2f2DY2Xq9Wq6urq6VSKQiCMAyLKjenAduMzUWKSnfy2+73++QPUBVwEATdfgRZHQAVm8Im8Qk2kVUkRkoZxxH5Qp1/+Zd/oRwgTW3f9z3P63Q6eaqewuoEx40xcRxyzlWcxHGsdJLGSus0CIKRkcp73/trNx880O9HxqgkSY4efbXkBcAQwCICxVvJ5+10OkmSaKNXVla++tWvnjlz1lpLxZye4yVJQqFhWs1AocXcUuaUa0LCEpS+IZNJkQtyMIwxURR5nhcEAcWopGSkV3K8vs74/dS0aawiDZahCau1dRznW996Kk3jF195cf/+G6I0ka6nLWptHMdFBERIkjTPunY7LWttu91GNAAQRX2G/Jd++f0HDhwYIWvUaq4sr0ZxyBgr+a61RqUJADCG1tooSh3HY4wJx0vTtNvt/etz/3ruzDmtrOu6WsXWIBPM9/000Y704igF5IgAjMdxQilsYGuLEgZk0FqwFvr9iGJLWlshrDHK8wJERh/Nze2lcEocR8SnfGRyi/UmaZNZxQZLyXi+zgIAVlZWSAl0u10AqFQqzWYzr3AOw36n09E6dR2n1+t4jtsPw+np6Q996CEqZC+V/Ndff10wyCtkEU2aDoAZ8TW7mjDGWBjMfcdxrAXBuTFIMmOMAWCUKiQDSXkymi4AgJkXRWyy1lplkyRJkoQQEJkfKopuNBrbtm1TSo2Ojk5MTCilmBjE/osjM8j9v2k0sInRirW62vz9gQMHnnn220sLFxrLS7t37w481xjTafUdRyYRNJrNNE25gDjqB4GnVNLrda45dOijH/1oo9FgDCuV0pEjR5RS9Xq9sbJMvjAiWqsJN5LatJbW2iBjWmvNkFlrHcctlUo0RsYozpAJbi0gYq1Wy3WalJJxjJMwh2q56qOpwIFTDQEdJJfOWtvv96vVapJEo6Oj1WrZGOW6stXpRVFKA5IXtRNmeYuyio4IIe69997/8//6w4mJiXPnzpXLZQBeqVSUUr1ep9vuAbNxEgrBlEqWlxfuv//+e3/+Xc3VVqnkr6zos2fPLi4uUrRpdXXV9zwaX2stlc3kfpi11hiLiDT6ggkyjdZarVPPC0jm0No4SdI0KZVKlJwk88MzgSsi9Vz/qZTwhKJfp5V05P9GUeQ4Io7ju+66iyyf53ndbpgrGJpJRY/+zdAmFwUU74lzvmfPnnqtZq3ttNtpkggOaRIxsHHU7/U77XbTc9x2q/2xj310z549iKjTNI7D73//e0opxkAIjmi1NpTlykeTcyDGZOu0kGQLkQmhfS6l42ittKaLsDBMksSMjJQmJ6Z/6zcftFYvLy8PqszAKmVIWKEAAdZMlVHGKK3TbJmpQDTWorWyXK4qpe67777c31i8cGHXrqtzKwCZoXprKcB8+hSjRJzzD33oQ5/5zGc8zzt9+jQA+L574cIFa22/3y2Xg4/9x/84OTmuVOp57rlz51ZXVymDTMir2WySVeh0OpLTGipGH+XuIAFokjZjkMwkgTRK7a+stHbu3P4Lv/AL1123Pwz7q8uLZEtIm6VpqtFSZrn4OLkCBACaE1QYwjmnpGgcx5VK5ROf+EQURZRzieP4ueee+z9+/92QVWUV8fqbRxabWbJJb4rPnKbptdfucxzheU6jsaLTpFav0oO9/xfvu/32txES7rRaZ06dSJIErY1ig9naEAAwVqUq5gIYIF3bGJNZJiaEoHCP1lRiBpTYRcR+t71tYuxjH/3I9PS0tXZ1dfXMqZNJEjHGrNUAQMEkx3GY1kkYDfjHB3PfWms0WmuVTnpRqI0Okxg502iTJNk5sbNUKv3yr97fjxIp3Xa377ruk099a3l5hRI9+TjQsLy1FOA6vWyyAuaZmZmbb7756aefHh8fb7ZWe/3OJz/5ye3btwVBEEWh4zgvvvSS77hJkmiduq6rtE7TlBYZWGupqpBzTnAv+7XBsgByZQgZYla9THF68kz7/f6JEyfoBIoyGKPSNBXCIY1EAUmKXDDGrB0Ewsn+EaCg7+Zusu/7e/bsed/73ud5XhQm9FuPPPLIyy+/PDe3h0D/unjSpgSDNtNW0f3lYQga2b1ze3zXm921u9Vqze2Z+5M/+ZN+v0sJda1VHIYcYWlpqVwOoigyxqTGEijIA4MAoLVmtmjzWQ7VKNhDMW9rNedkyUyeCUREAMsYap0CAANAaw2mgkOqUsdxtB5UBCMiWORCWMaiKCqXqq1Wy6JJ05SSOGmazs7OfuQ3P0qB5jTRjLHl5eVHH/3aiRMnqDaU87UKi02M1cIW9K2YmJjgnI+MjNACtE6nMz09dfbsWSE4AIyN1Xfs2NFqNaIoklJ2u3038AmUp2lKYJreu0LmtgoKAe9MAggcDkI+eSlZZnIGNc90SwNopxR5S4wJSgGbrNMJkwKy8LwjBMUjlpaW/v7v/951Xd8rtdttcofb7fZ/+k//mULs5XI5CMpDSgHD8K679gNSOJ5rrY2iqNfrfepTn+r1emNjo4hYr9dTo3ddPfvv//3/etNNN6epdhzPGmg1O81G2xpgIFRqklhpZeM4TRKltTVmgMoyYJZaq+lFZAakjFHWKGsUWpu/dBKbNLFWS8l9z5NCoNVoB9XqFCxHywR3yE0O+/Hc1Xv/+I8+/fRTz3AmpXDjODHGdru9559/4f77f3V1tcm5lNKdnt4xPj4+vJEculQh4vbt2+fPnZ+amlpavrC8vPyhD33o137tg7/4i7/IOa+NjFrU3W5/dnbuuuuuX15efvHlVzhfoaojirlRcE9mdogUHWRVrmmaQrYYG7IVeYQM6eehGCVC9KTQWqtYpWlKNo/0m3Q8qt7lWY+F8fHxW2+99e677yaJbzablLBGhLNnz/7lX/7l+fPnfb/k+z7JIue8VCoNbySHzirG2NTUtEFr0DJC0pL/wyOPPPzwlz72sY/dc8891Wot8E2apkzIsYnJu+9+F+fQbrdfffXVY8eOpWkKwJTSyhpSjEIIziFP9CGaPEkBg/ZI0hhmMwVIt7Hm0qIFAMm4ZdwAIlryZ7UxFPjfvXv3HXf93OzsLKGDJEnK5bIQstvtNputZrP56U//2fnz5z3PU8p4biCFC8hLQQWQ77hq5/BGcuisSlN92223PfnkN5vNJuG6JEmstb7rfe5zn3v88ccfeOCBd73rXZ4XpGlaqZTiOHZdV0r31lvLd9xxB2Nsfn7++PHjp04cJ+cmZ08WErRUskE4IocS5GmtlWlkcJkq5in4rdEKIYIgGBsb23/9jYcPH65Wq71ezyCjqndr7cjIyNLSUrfb63Q6f/M3f/P973/f90uu60ZRVCqVpHApLVCr1aiUc3gjOXRWua6cmpqiVadh2FNKAYNSqaSUKlXK7Xb3s5/9/Be+8PA77nrnvffee9VVV1kTkxrJ61KuuuqqmZmZd77jrjzZ2G43FxYWzp8/v7Ky0myuIhguQDqcMcY40jm5VHHOGQhABtZaq3fv3r1jx46ZmZlqtVqpjQgh0lT7vs+FY63NAsrVcrlMVW/n5ucfeeSRf/zHf/Q8D5D7QRkAgDHH9bXBJI1HR0cNojK2PjZ+/Y0HhjeSQ2eV1nb79u3j4+ONRoM8G4p1uo6vUuNK8DxPpeaFF144ceJEpVIJguDOO+/cu3evdLjnBtLhSZLAIJqegraO51911cxVM7tuucUao6gELHdfGGOIzFpr9aBeJa/DVcoolQBAuRIAQJIkjuNxIYxmCNxaEMIZGQlWGo3u4mK/3//Sl/6fF198URnd7/dHqvU0TVOV5tImhEREz3OttbVajWK41Wp1eCM5RFZloTCs10fIzHheoJRJ09R1fM4lIhgL2mB1JOBSGLT9KGx12l/92qP9fr9Wq91xx1033ni953mIWC6XXc9BR2tSg0ozsADMEV5uk6wly4QAzPUDOq7twCBxIX3pWAapQWstcC813OHS8x2NNoyidrvdaDSefPLJV155xQJ2O/0gCFJlfK+ktQXgUrrGGArG0i9KyREN5+C60vOcWq26ub5UkbZiDRfZAyphYIMuVWvuEc8WTlMlEEUcHMdrNtuPPfbYN77xDQCgVT379u276aYbqRReKcU5eJ7X6fU86VCNA0nPIC2ibTFGPsgXcpYkmi6YJEmr2Tx9+vTRo0fPnj1LSXda9JEqTeW3FAJGZHkeKw+Z021TdkpKSQluWnsyJG5tBVgXQtTrdd/3KTxDuoKOY9Z2gPxWqqUl1ZSn3qkMdnFxcWlp6bnnnqFV1nEcp2lsjKmNVCqVyvj4+OjoaLVaJZ7ldk4pRdWZq6urjUYjDEPXC3KtSP3RCEmWy2Uq5aA0x7oAay64edScpl3OqiAIKDpsLu69tImc2wpWMca2b99OrMp7JtHTAgCxKn9PFdHFykiKLlLEXWtD1RC+7wvBlFLdbrfX6y0uLuaYsDimuQTQVGCMGQtU484Ys9mZFDTCrFEFGpPjSb6hXUUOMnNuUdiXDFWe89z0kRw6q4gHu3btovme5/Lz5yl6PwCQJMp1fRIdoOofA470kjRijAnhWAtaJ2maWmsYY4xTm8FBXphzKbLsUYbmkSMyzgSX+SpuQtiu49AtISKVv0Ohryn50Tzr5lPE/UVNQMrAcZyJiYl1tTSbS1vEqrm5OVLluaDklpmiDPQXABhjhCMoiECVQpiV35qsWR/nPI5DOif/ImRZKNJCNC3yAaWPKIBEHIKstpfKQOhHjTGYlVIBgFKD+GGefswNVb6KknqlzczMFOsVNp22AlYAwMzMDK0TpeYRuS0h5QYAeTpx4JxqDQAMhOCM2icJ7jAY+FVJEpG4eJ7X70eISOaDfosxy5gge2Ot1drS9JDSIfUrhCOEAwDWIGPMcVzfE1prY6wULmfWAtKyn7wlUHblgaEibpE+pyV4nuft3LmTjq/Tlps1hkMP1wKAMaZer+cWmGedWFhWIkLnkNDQ5M2TDlTcSTozr0MOgoBWB5NU0aUwK1cmTUjZYcIIJEMU1KB8Es0Mkjlqz5VPFLoZOmEQvS1gipwgAxeUlpNSjo2NDU+kYGtYRSprcnKS4ABmVSKD0jsAMku5PsS8bTDnud6DrGYN1oKzXAjHAtILGTDBuRRcCiY4cEav/FPgjEuRR5sgy6QQrNBas6z9IE0OEkEK/tJsyFcVYKFpDH1arVZHR0eHxyfYGlbRjLbW0uzLG4RBNk8BALMlMcVE1MZLFQ/m4/JmENe6X9l4fertRAZv0FwDkVpskQdCljVXD8OjobMKs0oS6sJHs7WoRogKmVwC3YCWFX3YDbfNs3eMITBce3PlV/HG8utf7uYZY+VymbojW2vHx8epq0O3252amvrt3/7tbrdLNdhsyP1FYGukimhubo5sFZmrixdRYVGY1lF+ziXHdCPXi8fXHYG1OOHaZeFibuXv6UxiUhAEnue1221aBH7nnXfeeeed8/PzY2Njvu9Tt64rsHxTaOisYlnTykOHDrmuSy3fcnzBskLPYvad5KnAKrbWDwI5NX7Lxx1+Ek1Y/HSjVK3TfkS01iNJEqVUuVxWSs3MzOzatWvXrl0//OEPx8bGyuVyGIY7d+6EKwrom6etkCoy3Xv27CEO5Y4wLywUzGN31kDRYsEbfv51DCuy7XJm75Kyu+6aZESpN4IQolar3X///Y899thrr702NTXVbDYBgHNOTVOHCiu2wq8iZFUqlTzPIwWY+x/5gOZF5AxYzqeMWVe8OFhEy8ACYHGgEJEBA4Bs5T+9YN3sxMvH6Fih9Iry8Wmattvtr33tawBw9OhR8r6pQWu5XKYyrJ96lH4sbRFYpyFfp/pywkLV0cU40GYh7QLH2BsCWlee4G9cXknmaJIlSVKr1W699dZf//Vft9ZSlJYx1u/3x8fHhypSsAWsIghLnunk+ARDsNp4jiu5cISUXAg2CNnl4CL/ojEGwQAgMLv2AgAAqhcDAATOuGRcAhO0Ls6CQWYNamQWOCKzg+OIxlqK9RG8Bs4czzVohSNTrahZRqfXJTYwxg4ePPif//dPHbz5MK1sFBzQ6sf+26P/7Wtf7bSbnisD33UkJ5ecSjOGN5LDLy7LQuac89nZWYJSRanKOUQK0GaE1GIMEcFsmP5XGpF1WAMutl6lUokcW6odo7gttTmjBdi1Wm10dPSDH/zgDTfccOTIkWPHjo2Ojn7mM5+RUo6Ojs7MzFD1oBCCWlIjInlX+cMOibYIrNPAXXfddaQDWZY7yG2VLbQ4WOcIY6HSH36c1so5lGOWdViRoojGmG3btpHDRDlPetPtdl3Xfeihhx5++OGjR4/2er1qpTS1beI73/kOffGaa64hR95xnG63S0GyarVarVYpFjW8MdyicC2N1K5du1iWRMgJAGiPj4HFYgoxv6u8DzHAZVyr/ATGMky/oc8sK/R+8zzvD/7gD2q12iuvvPLwww+XSiVawkWtIefm5vbv35/nO0ql0sTEBDUy0VpXK6XJyclerzcyMnLo0KHTp0+Xy2WWbQNzBYSyKbRFUkXxtGq1Suyh8q5cpFgWWxrELKxCMEW9V4DU9grabx1GLx6hrzPG2u321Vdfffbs2b179x46dIiiwI7jJElSr9cPHTr07LPPfu5zn2u32xRWr1artNyhWq1aa+fm5urVyr333I1a9dotasWLW7IBxRZJFQzKKBjVLBSdquJfay2Nqi3s6Va8yDo3CDKpKoYYsCBqgyN2sH7GcZz/8B8e/N3f/d3FxcVqtfrAAw8sLCzMz89TRF8pdf78eWNMt9utVCpUrzk2NkbLfmlV60svvfTQQw89/fTTR48eLZVK/X5/27Zto6Oj9FumsCvhptNWsCrPYVtr6/X60tISy8q+eKG3xzqHFHGd9jOIPwZfZVOb5d/NGAmMMapF7PV6x48fr1arYRguLy+XSiXBeBzHvu+rJI3DyGpjra2WK1EUbZuYXFleXLwwPzo62m61to1PPPPUvzz1z98MgoDCtcgFIk5OThKThscn2EpbJaVEYykaTUFbYhUiArt07AB+Egfokj+aX4Rlm83u3bs3b1T8tre97eWXX46iKAiCOI7zNoCu61KpehRFx44dazabr7zyiu/7+XJxcuTb7fb0zE5r7dTUVA6OhgcCt8JWFU3Ozp07aXeWPLWY1XCtyZAtEC0mQFxfi5ETB8aBCcY5DD6mKDtYJB+OIQjOHSnTJHEdh1wF2jVpcXExr4gCgDAMb7vttk984hOzu3aVfB+srY+MLCwsfOc73zl/5rQnRZqmVEIDAJxzwv2+709NTXHOTaFz/jBoiwJL9IZzvmvXLuqVQwzL64Hyoc8rZIqGmmV7wL1xH/Oi9SDZ4lxEzNPKvV7vq1/9KiFvyg5zzr/yla/ce++973nPe+bn55977jlrNZMiiqLJsVEAoO+Suc1TwFJKqtweNrLYClbxbC23tXb37t25U7yRJdZaACo8ohCGYYyTTF4sS4agIGOXtV8228bIFrrWOY7z3//792666cYf/OAHQrBOp1Uqlbq9dqlU0loBE1an//rcM09+858QcWRkpNOJQKlKMOjAzwDRGsZ5msT5GkXGGK0qsJi7C8MZxqFd+dJUr9fzMpIibZyPuZVa5wK/QcoCvmt92ehH8/APYyzfhCcXEd/3O50OAEgp+/0+YywIPCEE9awm9hA8KV6TWv0P1f+FLSuDGUiSEFwICrHnHFonW4iGXsXtVXAt6EALey8xd9ddJ9dRRROYJAl1bBRCUDOr1dVVz/PSNHW46He6iFgqlcjaWW0kF1TKyRm4jqSlcCSmOREMwazqdHi0dbYKERkwlabkshQDSxezqlho/kaXpw/OGVxhLfZB3LJ20JkijuOPfOQjP/zhD6+//vq9e/d+97vf/eY3v1mtVCigNTIyYrL9nskmWWsZMNd1Adfa+iFimqaeP9gEJN/RmQ/XA94qW5W/R8TR0VFeqEwuflTEirmauiT2K15/7SKDN2vFoJlUDYY4iqIHH3yQZ6XXDKBaqfR6vVKpxNig1pMKQKiPiOM4gFarNP9Kvo4BsgoqUqF0j9aCGJpobV0ShB7P9Tzat+hyJqroDNmLaR2TLidzxNpiwSHBfTA2DEPMWjoT0b5WFF+31pZKJdJ45PxZ1ITCRbYXCa1+YFnJJpXWEqRka9HHodBWJEEo/QMAwEBptWfv1amKGUcugF6CD17kUyEDZGBhTQeaQQslZEwwJmghDQDnXOZ1gGvbNQJnTICxknEw1irtOy5Yw8BKBowhWg1oYGAODSXlAawQLE1j15UGNb0QAAGEdLSxxiIwDoxLx2VckDvoOM7u3butUYyhMWaoOnCL6gDz91LKbdu2UR1dEf4NRCSDv3BxiWAuT+vevEHQxQAZAgACQ77hG8Vf2fhdA8wUWobk94aIJLLj4+NDjSfltEWBpSJopjLbPLCUO8IDGWJrOYuiCwyXt1VrJwyKKX5c4vFSOvNyrCqim3Uql3Ts9PQ0GzL2I9qiks38r9Y6z8Ouy1oRFdmzbozgUnO/+Om6H113QSJ7GR21sQpx3QkbTSMl/vO2Im8Eqb4Z2qI6wCJLGOeEsi4ZsFj33Y3cWvfR5cgyblnWTA0YAgPGAS8NOOHyGvVy4CX32DzPy6HKlYfiTdKWJuyB1ihau3379rxuaaMvvO4rxfdv0Dht/OLl6JLcWidbl5wldNuUI/1J7+qnoy2KVuRvyCzt3bu3iClyVnHO15We5yEL+AmhBFFRtnJax4kfe8F1bCMi+E4bcefyNFSebV0WGPL9PjifmZkpsid/Y62Fix8WETE7dMlZfzmBu6RQrqN89IsTYJ1x3fjNXKSEEIOmSkO2UkRbASvIBYFsz3FgbHJykgqyeGFRbW4VcqtGnKDkE2Y7UcCG9e7rWA4bLJkBZhlHLihpmx8vKtv8ePHKRSEuShX9K6VstVrUQEYrBUNGFltkq3i2xEoIkSbJk08+mTWzQvKOSUnKbOPd/IuXNB7raJ292Xjwckcu99HGC7JLESLOz88vLi4CoqRZOEza0iRIPh+ffvppkipKohelSlBAgl1kYRARLBbt1kUfrXsDHIFbZPSif7Mjl/julQ3MRivFsmQKALz66qvPP/980WscHm0FWKd0+BozhKDtZKmTBcuSflSAtvGBi5gCLlVBBpcf7nVyAAD0yOss3CW/XlSnG2+AEOzrr7/+9NNPcyFwmFUVkN/3sCkfCCq6AwDatRQRKQZaLPe5aPJefH/rx51W+2YfrfvRInvWQYwrsHmjjBbPX2cjhRCtVuvkyZNw8XLmIdFWsCpvLQEAtLhKKfX6669TDUne9fxNlvsUAcVGDsGlmLTx63D5Gl5WwCD0vtPpUMcKa0zeN+Wnvv8fS1uRBGEZvsrXxwdBQK12ctRL5wzCGW9gam4E67BhQPNB/7GA4seekN9nMWj58ssv+75PO4/Ii7dsGQZtEawo6sAwDPOipbyNBxktV0iwlw7tbLzaOuNRPJ+x9ZXu2ck/8fMya/LKnGJgBRF/8IMfWGuL+4/9j60ALSACUIIOAJIkqdXrvu8HQfDiiy8KYMxitVRGbSTjDIFySIXyCoPkF21wdNjFmB4udnqKH1F+izHBGLO41ueieJGB84fIGZNCoLUi2yHHKk1Zx/e///1UE5em6elzZ0Hwer0+MjJCF6Gs1fBGcujRCsGFRSvYoDQzCAK0ZmVlpVQqnTx58tq9+2j1i+M4gvF+0ueDVkYDOeCcZxtWXvYnNjBmY9hiIAdZBcYljBblqX3fp4J1ROx2u9u3b09UcuONN956y21XX331n/3ZnwFAGIajo6MvHXlFSrl3794PfOAD0nGSOPZ8f9NG7VK01QiQMWatveaaayYmJowxR48eBYAgCKIoEo70SwETnImLlgnnFynyYOMJcCX8RutHLF5+XQ3BUVr00ev1AGDbtm3dbndmx85rr7nuRz/60Z/+6Z9yzj3Pc3zvyNFXFxcXS6XS4uLi+9//fmsM8Uml6WYN2kYaOquMNYIPNsggaI6IH/3oR2u12rZt206cOHHu3Dmap0qpfr+Pl6IrFNW+EfNQYI+91EEAACllt9slOa5UKlEUjY+Pf+ADH7jnnnueffbZH/zgB7SLutZ6eXn55MmTruvOzs5SbzXOuTUGAJxhLtve5M1mNxL5TLk201oDGuk4+6+7btu2bSdPnkzT9Ibr9ueTOu+xhIgaB2WX1lpAjohUcAEFIdtYzXk5uAEABBAYz5ZDFSCMJ538t6QQn/70p3/0ox8JIf7rF76QJIOdGKnc89TZM1EU1Wqju3bt+vKXvzw6NkZXoFXGUg6LW0OXqjxWy7Nmr/Tm05/+NHlUxhhqfU84kL51sbN7USi2SJcyS1fynxhjxQX6RWRP21ARPz7+8Y9/7nOf++53v/vlL3+ZNlpERPKcjhw5Qu8p5Vav19MkodQilb9vwpBdhoYuVQBAywJhrU7BpmkqON+xY8fs7OzCwgJtfbd79+4kSWgR4Drth4jGrhVFwxXrLIpStW6JI2MMwTDGaFl/8TgACCHSKHYc56qrrjpz5gw1MBxsCoTWWruwsKCU6vXCgwcPhmH4ta997aodO4iF9HWllON4QxrGrYtWFO2N67pCyr/9279tNBqTk5PUZvHYsWO04+kl6ZIg4nIw4Y0fLB6nek3f9xuNBok4ae8oiuI4Pn78OK2tv+222+I4vummm2ZmZkhn5H0FnWE6wlshVRvIAgCtk7nvfe87e/ZsuVw+d+4c57zb7c7NzVH9fr6+KlVKSqn1emHKC1eKMaG1B2PrwxAD9cgRqN9ZFs6ggc5TGOVymVhVq1S11gYwiqLl5WXf9zud3sGDB1dWVhhjL770ElurNtiK4rKfGasAoNlsjlSr73jHOxqNBrXq9jxvZWWlXq+Pj493u916vW6tTQddSXm2Mu4izE1he9gQIqLVc8VfHWg5ybTWYJFi+ZA17843CvE8j64pGY/juN3rxnFMEjY3t3d+fn50dPSf//mfxycmYC1dsCVNdX6GUkVJYWPMzTffTE2IaTV1EARnzpyhPRJp4IQQJFVFZUVsK4YnMhM1KFhnedYYTM5dwda6BedCSZlPL9vPlhrsxnHcarWkpH5r7uTk5OLiopTyqaefpp4XW8Ykop+lVFG4Nk1TpdTP/dzPWWsnJyeXlpbI00zTlBru1Wq1MAyFcHKpGtw6YyQHuUrMECDmFyd+WBxIHuccLOahPDPY3UPQGlOyT2EYUjdbYoaULjUs63a7jUbjyJEjE5OTheH6n4NVOdHC6V/5lV85ceIEDZxSKggCzvnS0hItSRsZqQ/uuBDoIwZZS2HDNdS3xja+ZtsGiB8HQDTf5ICWTHme12g0kEHeGIGWeFTLI7T4YGpq6ulvfcsawwf7/K63T6R5hzeOP0tWkWbLXWMp5Re/+MU/+qM/UkqNj4/HcdzpdMbGxqjZd6vVYVn1J3GLGCAlNenW+dWJbYMnYmsiSH85sNxrJuRCCnB5eblarY7Ua7SxT945P41Vr9d77LHHDh48iIh+EJDqzuVpDdTQv0MbtbeEVKVaOdKxaI0xvV7vlltuGR8fT9N0fHQsiqKVlZVyucyYIPtBeWRCiVLKNCUFaFhhBfGa6WJr2z5Ya6y1HAacpp5JiOh4Li0iklISLqd/u91urVZjyJ9//nkhhOt5AEBTCgCKqq/o2f0bZFXeOEVrLaQEgCiOAj8AAGPNo48++qlPfUpyAQAUkaPeOPR90lrU94g27WEMebZRDylAGNQQmlwE6XyyVY7j+b4rpQtgLTLGUaXGcYVW1vVkEqt2p3nzwcN/+Id/eMvhw0JKijiJDDFKKf8nYdWVqNj75uGHH/6Lv/iLpaUlay1pJMpJkltaLpf7/b6UrtbaGEXbiJCTpLWmCcEK5ZV5DtdxHCEca7W1hOkFgEVkaRpzLhHN7t1Xf/7zn92379rLudg/E3rLsYqIwm7UTezxxx//4z/+4wsXLlCkJ+/zkSRJEARhGCulkiSiOjUK2UkpL8kqCqfmKEMIQQFi6jYnhDhw4MDv/M7v3HbbbeRIbM3CqTdIbzlWFfcPQERa3kNban/xi1/87Gc/22w2aRBpxTx1bCaNR+NLCkrr1GZNdgjlU68D2o4l34tbKVUqlXbs2PF7v/d7t99+O8XOKQ1fqVSGHSv6iegtx6oiEURkjJGTRGygMsLHHnvsr/7qr/r9vu/7Fy5c8H2/Vqv1ej3OObX4S5KoUqlwzsMwxGx3j36/X6+PdTodKeU999zz4IMP3nrrrVQzioj5diGUV3urjclbkVVZ4meQUMj5JIQgeKa1TpLE8zyyW+Vy+amnnvr85z///PPPdzoda221Ws0yGsJaG4bh9PT0hz/84d/6rd/yvGAtdCQloUrqzb2OPW8pkYK3IKuK1YCXtBadTmdkZAQAiFtQGNOcAXQmItL+pheXF3IAIBNFgfwih6h9bQGRv4XoLccqyLA4lZvlEIAO5plJYg9mO2Bt5OjFB23u9jIm1hWGknXMq/toKKgq5v+HFVeiXKow2wmuuNCMjmC2pWaRT0XDlru9WZSvKFhr3T3pDX2U/xDpWLjI231L0FuOVT85FWMfW93dayvp3/Kz/Rujf2OsulK/6P/R6f8DbSfisLYCYq8AAAAASUVORK5CYII='</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAALAAAACYCAIAAADLKvRSAABlNklEQVR4nO39eZBlx3UfDJ6TmXd5+1J7VVf1hkYDaDQaa2NrACQaCxdRFChKJLVYpGhLofASX4znG8eENZ5wzHjiiy8cE1/Yn23JtsbaZj5TliJM06IlUgtFkQRJkAQBkEBj60Zv1bW//W6Zec78ke+9el1dVUA3Gwtln+iovnUr33333jx51t85icwM7x1iADs4AAAc+RMCADBeNhYQcHTMZVdyl6At5wXs8AH3qcHbGB4gSkR0Z5iZiAAIEaWUzAxICMjAzIyICAig3vwx38P03rt7McKgjIAAPMINo9y728wC9v+866ARIiJExAF/jTKB+9WREMIxWZZlAABIOEJv8bvey4TvLQkBBEAj0775ihncjYotHxiseDdP4kqRcAVtvcK2xMzWWmb2PA8AmIGIme3wdXme3LxpNm4wMwd+4a1c/z1L7z0JATwytZdN8LYLcCjiAQlGmPtq16u1dvhBR0ptfTlbxIAxRmvNzJ4vPeUBwFvktvcyvYsSYvulTGAHSmL4E2BTBbjjEeKhucHb8czIDLEAABBvwijGGKL+vSEionQHUm5+kIiEEADgZIY71lr3er1qtb779d/j9B5kCHc/W4Q/IQtAAvcTAABwIByuuMbolL9VhrhSQmwZwAzWUpqmURSlaSylrFaruVwAAFprIYSUcus3/hjS268yduK3y174cO4Fshx8RI4MlsgALAEGP92VkQH1kEX6U77NPVx2fts7IkYh3FJ3v4LWxhiTxlmr1VpaWjp//vy5c+fOnjtz8eLFZrPp++ree+89efLkrbfeWq/XASDLkjiOK5XaDg/840Fvv4TYkSEuEwCDAwEk3EQzblEN216EAQ2gBRid9eHnxOXngREQcac7spa73e7a2tqFCxfOnDlz4cKFRqNx8fyi1toYg4hBEPi+rzwBAN/5znd8X+Vyuenp6dtvv/3hhx8+duxotVr9cZcQ77LKIKLLXH9mgaovsZ3QZmZriUhKxXagsIUAxL4hKYGsISJmEP01LgAAhWALzIwoB1cCy6SksAzu8lrzysrK6dOnFxcXf/jDH25sbCwtLXW7XSllPp/P5/NKKWTs9XpJknQ6nW63o5Sy1m401hYXFz3PKxQKpVIpCLxKpXLo0KFDhw791E/91MTERK1WQ0RjDAAgIhE5bwUArLXOfWXmLMt83wcAN9KNcRbMprB6Z+ldYwhjMvdeRrS16LudTEC0GRhABBBsLUq5GYciYiLD5HmeGzA4TUBIwEoqBgACRkAGy2S1MWTPvHFuaWnp9OnT586dW19f73Q6URQlSTI2NubCTUopROz1ehsbG61Wq1QoZVlGRGmaxnHkeZ4xZnV1tdvtWtJSSjeLQkC9Xp+cnDTGHD169MEHHzx27Nj8/LzjDABIksTzPCGEc1CllI4n0jQNggCxPxH9ANe7F9J4l+MQLvY3IAAwQcAoCAAQkNkxBjEjESmlhPR4EBVEIQAwTS2CFAPmcu4mAxitk1R3252VtdUL586ffuPM2TNvrK6vGWMZUQjh+77v+863ZOZWqxVFURRFLuKEiNZatjaJUiJSShBRlmVSyjRNV1aWsyxzPqfyBDMbY5RSuVyuXC76vh8EQalUOnDgwH333XfixIlDhw6FYTh8ZEdZlmVZVqlUmLnX61lr8/m853kuBHKl0/vO0LsoIYwYteL6RAwZgAHHEC62wEggJErnWDAggCAABiaGAAUAIEOUmFajcWFx8cK5cytra6defLHT63Xb7ThLAuWXquV6pZorFlaWV90bT9O01+tFUZSmqbXWzXSSJNZa5zK4FaxADhkiTVMhRBzHy8vL1hrnmHieh8KFtEFKGce9MAzz+XwYhoVCoVarjY+Pl8vlp556amFhYf/+/eVymZm11lJKKWWr1SqVSqPv4W+4ytjp6sbQkB94EIZEBEK2pLUxzCiEQiUFCgRILRABCJASiKHV1e121yTxqedfWF689MbpM8urK2kSMQCTMWT3zM75YZAPc9ITWaLXNlaXLy01m81isWyt1VonSZJlmYtFep7XbredyvA8z+UpsiwzxuT9wLGIMSZJEiFEliUrKyuDqDYDABFZawFJSpnLBS5g5Tg+n89Xq9VyuRwEwfT09LFjx+67775jx45NT08jYpZlnuchotY6TVPP83zfdzbHf3cM4YgIiICZhUApgQCIweJmQMoAxAkkGaQpXFxcOnfh4sVLS2fPXTh//nya6mJONRbPoE4RsVjK12q1XC40xqRp2misJ0kSRVGmEwDwPM/3lZSy0+oqpZyhYK01xgxD1NZaa62bDCckENEkqdZ6dM6MydbW1pzfAcBDbSckCCHSNB58nQ8DE9LJ/2KxWC6Xi8Xi2NjY0aNHT548effddzs14UY6i8rJD/fxd57edoYg4BH/cjTY1/990/UnIIbMQLsHjYZZ22gsr65fWlpeWlndaLalCoNcfm7PvvHJqUvLK88999za2kY5hytnvktZy6lzKSUAGWO0Tj1fEZmB+IW+1UYEhM5wcZaImwP3V8cHw7RW3/oj0Fqj4C0MkaaplH3/ZahiiA0iOyNUCEFEjpmc1MmyDBGr1erExES5XA7DUCn1vve97+67777jjjtcMMMOPKl3UUJYBsAdvWe64kBs99fRPwkYEQx25Hg4mgGI+qygGVpNuHRp5cKFC2uN6MLFTieyvSRWXlAfm5yamR+fmC7kpVDQ64Ex0GrF3/r2N77+jb+yWXzDvsm5MdS99Waz3Wq1er2eMQaIEZnBAhsAEpKFAIns+EOJgCwQG2eVohTM1s3cgHOkYIGIAgQAWLZap4iodZpEqVSYZdnq6jL00yU8dBmMMZlOcrmcMZkQKgg8AJFlCTMqJQAEs0V0LEuIXCpVKpVSPl8slQrT07O33XbryZOP33nn7b7vO9fj6mfzOhAaSglBggQAdMFBBgAgY4QE7E8uAVgAYgBDcuAXEQJBP9+IzAQgABWCZBDWrUYAlEAMxIACCCAz0OlClPKrr59bWm28cXbx0tJaZrhcGZuZmanWp6Zm9qgQ/BBQQhTD6hqsrNh2U3daMVggHZmstb766muvPNNuni2XpC9oenJ8fHySDa6tbTTWm2ys78m42/E8Fmgy3cnSNlPsBzLnBzoTZNGwRWFRAii2bJgZGQCEIClJIUtpFbJghBRiDdZk2pJGQmt13IuiuOuAEe5l8UiQbeAxjibnBAA5VrjyfDFf8nxZyJcKxVyxUF7Yu+fBBx46fu/dx2673ZIhC0KCkkpIYAJLNEypbHFNLw+fA0DfQbtabwU1ZwhIAAIEMBhjfOUTsftiazWDJbJERkiQSgEEDAhA7IQvWwchQRCWJZFgxziD0AAjrDfthfOXzl+8tLS8vtrobLSiKKWxyblKbXJqZu/YRM3PgTbQ7UIvgsWlZmZsnKZxppPMWqOYC2hzaH2wBFnXpmuN9VOnX3+60zxdKLIQAljk/PxYfWq8PqFQNjdaG+urWRRZ3SOKpNCBT4BpmnayOCnmy8CCkQiJkUkQDQMALASjsBJZSJJAyEgJGsvaGLImQ0IiE/eiXtRh5i0MQUgAQo5G3Edf9A6hBZNpAPB932mQMAxnZmbm5uaq1erx48dPnjy5f/88AMSxFkIEoWS+DBM0dGIdK2wBcFwVK/TvM0p6QRDEcZzP5QFEkiZhEBpDxhhmBil832MAYhYICJhm5GAi7utc3IgBejGgAEaIE1jZyM6eW3zj3MX1tcbFxfNK+sViuT45NTM7Pzk7X60pL4RGE9o9WF2H9Y3WRruXpIYsIEpr2VqbGp0aY1kiBlIUJedsKsAazjo2XW01Xjl35jut5mu5HHmel6YpWMzni+P1ibHqWOAFyGx12mlvtJurSdwGzKS0bFOyiQSNaEFI69gBEEES9k0HwQTMSBaQgBgANAMRaW3ZaGYkq5Mo7vU6/fnAUYYAABA75FN2sgkCz0/T1MXFpZRaawBQSs3PzzNzuVw+cuTIiRMn7rnnnvn5+SDc5DbeDMggDAA7Q8PIWcTXxBBRFOaCTrdTKpYARC/qFfKFKM3CwLfch6wxQKqBCASCEuCEEAPEMTTattWOulHy2utvrDW7yysb7U7qhaWJqdk98/vH6vXZGTAGkhS6MbQ7sNHorG60291YyMCS1Ba1Yc2CGFyiOe70pJRCSaEko2essFqxcfNoTNLQ6Uqv9frFC99vNV/zfaOU9DxPMKap1qkJw3B2anZyfCIX+kg2S+Nma73VWI3jrkD2PGviVYaUSVpABIXgEYt+RByJmQANgAUkYA0sjAGwbIyx2jAzW4qiqBd1EQRg3yAfZYirlRC+8pIkMca4QJkzZgGAiOr1eqVSccPm5uaOHz9+9LYjDz74YBj6xWLRGRluPBFt8UqcJ0xEV2uLIBMDgrOfLZs0TXP5Eju/n4EBLIFFJxmBGc6e0etrjQsXLly8tNTu9ECofKEcFMrTM3vCQrVYzYU50BY2GrC4lDYb7dWlFQAgFFJ4QnkoJKNHLIQKLYGxoAktAQEiokTUUYLAzEzMhMigkCSAQgNoMx2vZ8lS0j23vPSDVvO0lCmR8X0v9Fwa2lptEKUnZK1Wq1WrY7W67/tR1G02m912U2cdNusm62mtgVAIKYQiC5Y0IjJaACJhGAwAMRpkARrRgNaaHCbK2CiKoqgrhCKk4YJxzwgAcgfQ3k4MIQAdAmOAz4MhPMedccvd+bHKE7feeuuhQwfvu+++O++8c8+ePe4jfXE+oilGD66SIawLCQGDdWogs5RptugRw0bLXFhsXlpqXFppXrywsry0NjU1V67WZ2ZmJyanC0UwAFECiYZGi9Zb3eXlxvpGO9WkvFyQzwd+QScaQCCiSy+jUIAeC0EWGAWisAzacJrqLMusNhPlat/sJ8vMBIykBABlBilJ47UsWsqSc+urrzQbZwAiAEIEJfrEzGTIGlZKhV5YLlfHxyerlZpSftxLol6z0Thnkm4UdXWWAFvBxGCArecJBkugDbvvtcQGGZRBJrLaGGOQmMhJiI6SPgAQAuNlDCF28OJ3YQiXQAEAt6bdeTfHwwBoGIa5XC4IAm3SXC6o1+tzc3OHDx++66677r777r17945e02mTa3NckTPqRL1SuegYQhv9Z3/xlRdfOf3CD1/1czXLBQuFmbkbb7317pnZEjH0UohiaDZhbb210Wq1e2mmSbMQ0idQKHwhJIJnCbJMa209lUOpXJgWES0DERmCXE5mBrKUtdbcDxEKJSDrgAQQcmCyWkPaEJEAgxQn3SUdXcqyS+2N15uNs2R7nicBmZmNyZxRHYb5IAiy1GaZsQbDoDBWn67XJwv5kpQqieJMx0mv2WmvJr01sh1PGk8Z32NyjGhMZq02ZC0DsaIMrDEmM8YgMxHFvajX60jPB2dVouMBMVAZVych4ijyvc2Uijvp+CCXy+VyOWttr9dzUXPP88Kc7wJrLtc6OTk5Nzc3Pj7+mc98plwu1+v1UqnoMsHGOJXhXSVDWG5urFfHa9ZkKMVrr5/5x/+3//sfff6Pb7rlrunZGypje/1wcmziwPTsjToT55c22C9aUMxsGYklo0ThofAZlbVsLTM5A0ogsQVE4QMjITAQQl9GCAFawzDFTQTWgrWWDfgosQ+jY2YrgBAZQeukg9RLustJdMnqS+3m2cbGeTJd5UkhhJR9nMNAd4KnQkaPSekMycpcrlivTZZKE4duOmaMSXobzY1zjfVzOlsLPV0ImTkGykymM2OzlJJMGwNgDZseUGqMMcYIIGtt3Ov2ej3lewBAIBgBWDHCtTGEgH4q3IU+XUbUMYQLpDr10Rd+RJa0YwhnP4ZhWKlUisWiUurGG2+8//77jx8/fuDAgUqlcm2RLWRiYDY2IzIoBTF//Gd/7vkfviZUKbPhbcceKVX2dBN/evbGcnGqk2LiFSMSRAwomaVlEOgr5WttAUCQ8zlAMCAQgyAhnCxF5Ctfy9BN6ks5Fkiij5ZFQGRiQzYhG6fxBthuGi/bdBWp0W6e39g4RzZWQiIiIyEyIDEzATAjgoeojBZayzAoTU/NL8wfqI7N58t7CRSbXhKtdBrnG+tnuq0LWbwhIfUlCzBaayk9X3nGULfb7nXXlORerycEFvLh+vpqY2M9FwZuzi5jCEAAkDuo7B11OfHogOGwHQU+0rana7Wa7/suLn7gwIG77rrr/vvvv/HGG5USzhwZBmcBwIlSGsEYDG0OBcwgWIKU0oUrxfvf//5nv//DUmnq/KuLPxAvHD6cL9UXdJStx6uyMGk8z4JHiIiSUZEla6UhFKyGGQgBjEwIAhDYAksWDMPgzOaTM8GmJ21dLA9IkEtlIiEQgyabMiVAMXOPOQJIiGOGlEEDEDhbH5n7cExGBgY2NpMCXNQ4CLww5/mB8jzVy7IoTUzaVSBz1blcvtSrTSWdlXZz2SRtayLlgRJkrWbmYrHIoEvlfNBqX7x4PoriQr6AY9hpNYYThuy8jEHBxo9Gwzm7Wmq320oph/g6e/bsc88998UvfrFerz/55JP79i0cPnzYhcaHqidN02H2vy//nLNqrR08Gjmp/vKrr334Jz5u2G93OQimhKrPzt10w413osxnskzl+VTkGYQQPoNkEoaACDwByCAZFAACSyYEZoAMyCKKPkph82GFEMgWLmcIZEFWkkVgYiTgjDghExN1dboO1ErjFcrWgTqt1sXGxjKZxJM+ogutEQwDAwxpolEGCD6AyoXl8bGpifGZsDgV1vdZCAAAjOYsI5sJ1hLS1tpip7mcxmu+ygRHadpQwuYLIcpgdXVVpz0hsNdtd1rradLTaTIaExyaEbtM2I4rnjat0OHbuYawkkucuqSJ80qCIPADNTMzE4bh/v37T5w48cADD8zPzwuBWhvPU0Q8ZIUgCIQAZkBDFt1qJd1nTxYf/amPf/d7p8q1Gc+rvXFuI8xP3HLL3dXadH78QBbMZqrI6AEqECGKgBisATFgCMkgmARYgchIBtAOmWCzAIcEKgbbr4LbVBwIVnC/LMYwaEuJMW2mbpqsIneyZJXMBthuq7ncbqxYSpXwgEV/RoD6DIZgtQWUZKW1rGSYK5aKYQm8UnX6YL4yPVad8L2cMWAyKxiU5FBBr7PcWj/Xbp6PoyXSLSW1J4WQfqvVmZmenBivvXLqBy88/6zJosCXzIyDtB33I/y7McTuKmOUFd5k/M7XH5Jb60opKWWc9AqFQrVaLRaL+Xz+wIEDJ0+efOihh0qlkjM/AcBalhKZIcu0YhQu/mSJpBAAICQ88fjJU6de7bZWcjk9Xg0MdV5/9Zvl8uRtd4cIfoAoVaCtIraIAOBrHL4cIATsr1YHZ0ExqMgcgbcKJgZEGoh7ZmACBJBIliwzMWUMGmwMNiHbY4rY9qzpsk2ANYN1NRHMLNiis+j6DiAzgycFAQAbJgZIdGY7pqtpNc7isLAY1afr9dl8YQylnyQ27aWW9ES9PlUp5FvltDfOttVsLC4vniedLCwsHLzxUKe1vtHqoQoKgZclEYJlvLyOiAEurz596zTUFKMHV3UFKeUwGAUAw0Su53kb683GRqtUKhWLxbXVjVdefu3/+P997q677rr33nvvv//+cjnPhFGSCSGkVMpFIYgIpHLxW6P1Yyff/+//7W91WusZglR5X+ZAmF6r++L3xfzh94dl9ooVAYG2GhFIgGBkkASCGRkZXfkEMqNAEIBi+Hj9g35AZwgkxL6QYGJhEAyBZjBsE7KZNQnZmGwKnBKnzBlyP4eK2OepwXscRvI507qf1EbwFPhKMBskTNuXbByZqN1srJbK02OT81Nze6u1MQs8MVbVafPsaYIAC+FUZXwqzI9F7Xam7Q9ffj2JWmlmQcgoTinTfqBwO5vhquEEO7DC1UoI549syW8NbUkAICIXz/B9n4i+//3vW2t937/jjjuq1aJSvrUgBKjMgpKQaZMPAodxlVIc2LtwcP9clnQzo7O0AditjY0nYC6ee46xPD4bT07vlX5JyQKjQJCWFAmX1BMCwCIQsGAGRkRnKiAAuMDe6AP32YMcaIoRtSQLlAEZtpqsNiYxJiFKiDLkjPvp9P4iABLDqzEPKr2YgZmMS89aIQCBgS2RYc1oCQxmlCVJV9usNlXZs6926MjU/F7Y2IDvfBNePn9+ZfHC7NTYwvTMgZtndGft7OlTF86f8xRNzuyxZFYunfPzRbDpsFJsRHdci4i4UjzAboy1i1uLRM45JeesDuHj5XLZYXOCIGDmLMvW1ta//OU/e+ONsxsbjfe9733VallrS0SKtBbSy7IsHwTGGmDrKU9Kefz48VdffTWKuvX6ZK8XN9YuCiEmx2bPn/42gi3nbK4yDV7VU4KkJMwZkBb6GALsJ3gIAMgCACMLAkYGAkZGBhACGADJqf3BUzEQE5Bla5gyppQ5ZYrIJggZg0Y2xBb7uQOBSJYJEYFdKY9zOJmZPc9j0NayQAtsyFqjtY6zaj5nbTfpdo0MWcjVS4svPPeDpdW2H+bbnea5N16+eP5cu7Fm4nba6ZRywcLMxB13PTK359L5s68BJEG+nC+Wkl5zeemiZCMc8wMIIAAiFrhpJfbBngAASDioL2LcMqmbYOu3ykA4qFsZ+clEw2Pf94vlUr1aK5SKubBQLpddgMto7bDBaZru2bPn3Llz3W4XAPL5vJQAIKWUKhd6AFAtlQSAkL57PC+X/+jHfvpf/+a/LVdqLnDne6JQKCxeen1u5sbVxW9FvbOHj9w7NnNzt5cZjPPlOUDPk6HREKWZBAwCDwGTJHHlCEw0sBuEU/TMI7WYfWuALGvhAoZWWxszRWC7gmPmxFLMNkYmZKsHkKQkIwkIDIguKUMAgESAbI0BtGwJBUoQYLnb6vZWVhtiuVypl+pTUnmUakyVSMvxmjI+ZIlNN7q6vYbpWmJ4sXVRYa7bODg5MTsxOXvoyFSjcWl1+VxtUhFFM3v2Ly+eXVm8YNMop4SSKBgIqZMmMvR86TOh0doaq5RSUhjjKscFAwK4fLFEZFBEZImIR3S/EMIVgAyTFJteLqKDFhkiJAYpfKlQyTSK/VxYLZUr9dpYtVYol4q5vPBUlhljTLPTNcYIBqWEH+QKxXKn180V8lpnjcZGLqeSNAsDP05SJQaNNwbs2q99nJ2bv+3YHadefMnzPERmtkJAtZKPuhfHKmOJXXv2e382Pb925PZHg6K/tLHMsiI87XmlUuj3rXfE0M8RuUca+J0DPG3fK3AJRDT9qlkyRJqsZqOBNVMKFDMlxAlQSqSBdB+yz4NQPypEZ6Swyz5iX94SWQBjjeDAU1JKJRQoBSbTJkqzjgDfkyBAopacyiwjmxmbJqRTYSMgw4AWzIXzb2w02432xPTMZLU+UyxVN9aXmo1LZ187NbPnyPz8oaXzZ1aXzmc6EWATrcu1ci+Jo14PEPNhwQtzWusk0b5U5CIvTnkyIhIDpUkqRD8W6cKR7rmiKBryxzCXzcwgPAnAzIKAgIDZMEnCI7cdDcOwVCrl83kppTGm1e1kWRaERSGEkr6nAkByxQRJkihPZFlGxiwsLAACEQGC53k7wmmq1eojjzzy/Pefc9zqigiUEsiU6raxKXJxffWNH/7gG3N7bx+buLHZ67JGRoFeSSAYy4TCU2hYuiJdZgZEZosgmG3fvWDnLFgiJyQ0UAY2tZRZTolSZkNsiDVZTWzIWmu1tWZQr8HY7yNCw1fmrFNnVZC1wslYKaSUIAQwpWkq4thH7YcsJTLoLIu0ddiqntWxyVIUFggRrZVptLrUagfr61N7Zhcmxqfq9T216vRdtz/y7LPfOnfmVGnihqm5G5aXzy4vnWPptVo94ctcOWQycZJEEUnhe16BLDAAgwUwgJaFcZ6i56lhntP5CLZfqSZHMZ7D5wXRt8SVUi554WD+Q2SUw3w7M8LzvEF6TAkhGJiIrDHWWuUFRFSt148cOTJ4b6CU2A1fdeLEid/7nd91JUcOkZxmcalSaDSbwivW6/Uo65555Tu9Xu/IbSqfnyWhtMVEp0LkAy9PAHECQgkAHJj/3J91AAACMAyEYJkMkAFmZkM2Y8qIU6YMSBNrd8xg2TrmcIV7fU5iQHYqg20/MeJMvAG2H0EKoTYB/wCk0zSNZaClEkoQkzZZnGRxZrvGpsSa2RIZsAiYeV4KYNMEL5zfWFm+NDG2Z2HhwOTEzHozvf3uR2688baXXnp2ffVCZeZQrj6ztHTGRM006cVRBARC5bycZMOpNp7nMVvnYkNfVxKz8DxJ1GcFZ0m4sNKQv92bh36kQQghyuXy5OTkxMREqVQKgsAxTbvddipmaFH6vq+Un2aGmR2LMFgcVKdZa8MweOCBB+bmppz54LBYOzIEMx89evS222771re+hYi+70spMx0laTdfkIayjcY5geVaZdxEF7/99c/feuzhcn1/PpjuxJqJvSBPBD1tfSnJ5TFcRd0AnimQmQ2yBbbAGsAAMIImTpgTppQ4BUiJEwbDYJjdTw1EwBaIBYN0sXHov2Ecojb6VguMyFunVRikACJLBtAIQSjIUkIMRveIemRjYC2QBFpAgWCiXivM+cVcQRuMotbFRdPtRhcqi5PTe1Y2GvPz8yce++iFc69/57tPxyRuueP96xdPRc21jdV2r9slQ5lgJbVUGXHsNIWzJBBQECFikmTu5oUQA6EgEDGKomEsIQhCV/YThuGehX25XKFYLDrv0YEz0jQNw1ApPwzzTu9orbNMR1HiBzlrLVntRIVzPaSU7U5vdnbmiSeecLzpDAMA3E1ClEqlBx988Omnn3YFLUEQKN8DSJUnhWWtI2CWVjJpSrzTL31tfn80NQs5r25Iku1YyHnK4dKAAZmJ+3kGBrAMhI4VSAMZJANMwJptYikmTohT4JTJJTIyYA1kmJyEMMyWwTLYYXG3YOpznTMgBjbaUC4JIcBToE1fciAAakux1T3D2pqUIAFOkTMGjeiMVVBSWp0xCRBhLpSWdDdabXcbrW5zYnImSnpnF/Nzc3Mf+dgvXFpaPPXcd3O5+VI4Xa9ljeb6+upir7NmjAFlhURmQHLxOGfteMxANsEBih8AtNbWWmCWSgVBUCgU8vl8oVCoVCrVarWQLwX5gqsyajabDuPv+76rBmNmJyGGeoeZkyRBRCn6edS+8mFDZG+55ZZbjtwUx2kQBEPs7m4MQUSPPPLIb/7mb1prO52Oqznx/DBOIqVUvVowGbc7l6QqT9TmGs0zF08bkyXjs7eokJNEgyjkwnpqJPXdin6EgIEBmJiQDbAFMkyayYA1DBlRRBSzTRhSpoQ4tZQxp5YyosxaY622VgNZthao/2oRB4k19w3ARITIlsla9rQWQig/KBRKvaYGtCC4D82xcaY7BIG1qaGu0V1rYrYZoRAgBGPglbWJ08QSxp4ioTRihiyI+dXXL/p+ae/CDcy8utIoFEr33PPk2rkLvfZKq3VBhkF1stjpVleWLvTWlkn6gMRogBkQkBWwAgDpC2ZLAESAiNILvEAIIcbHx4vFogs5uyyU53lKqbNnzzr01LAWyL1bZzo4r9JZD25ML4pcIFsIgciuLMpaMzY29sgjj0iJTtsCSOe47cYQaZoeufXWqakpVwZJRMDCaEKQJrOJ7fq+Xy8FSRa1Vk/XavNLq6/EceznwomZkGyHbLFQCIzJAfsEjH1IHjgpAWwAHDcYJgOUMVnGxFJMEDMklhKAhCkBSpgyoIxYE2dsDVCf/fvIM3CtAZww6CfMAMjVCjOzMdK9nTCf67X62hiAiIw1sbUxoSWbMMVkY2MTplQZBewxqqinlR+EoWC2mc10EqMUQohuuxsEeWA489oLixfPT03umZ5asL10fs/+XqeWL+Y3mmc7PZkv4vy+Eu879PILzwNZAAlgXCZsgJAlawmsBcRcoeCMxGKxKKUslUrVatX3/SzLOp3OxsZGlmX1+tjQH3GWvrMPAEBKmcvlisWiC1C6CjbHNNyHahIACCQhxOzs7N133wkAYej3U/m7M4SzPgDggx/84O/8zu84T0Yqj4ikkCgsgqFME2Q+oAr81sbZ8dpsnG1855tfmF44e9e9j+VKxfOXXikUDhoTCCl8L9Rad+JICSgW851uwmTQZggGWTMZMonlCETMFFlKiFPmhCixlFiTGh05NJPWKWnDlgCcI9GvqYCRuC+zFUI4W0wpBUJpy1KKQqGwDiIoV8N8TkqJglBYhlQAMqVJ0tQ6RrDMWiACe2maChVaA9a69pSsBABrsBAqstoiJD4GNk6XzjUbS2dzYbGz/8ZCoTw5Obf34KH19dXXXv/hRuO8EMm9Dz6+tnZxZXEx7nZML2KyhCaXD3u9XlAojI2N1ev1crnsqoSdps+ybGV13RVcBEFQrY0FQbC+unF5OhCU9EH2QVbWsDVmcw5BYr9SFOI4rlQqrVZrYqzWaDR+/ud/vtVq5XOTm6yghNbpbhJCSslEd9555+/93u+5kGeqjRQeMiBmAkBwBggIVkCGYG3ayOWVDFW38eo3v9E+cMPtC/vvvHDxfKmyR6DXbG9Yg6VSmQk21td8Xw1quQnYIGuADDgjTgli4syZlsApkybOmAnYOhDMMEnGBAKJmSTIYcjYCYlRfOJAologCoqFXC7n+QqlBCBibbIeo5M9CXOKnCIRkxUDYUMIol/Xi4NQBytEdOhN0MyCQFqINEavnIknJxe6SRz4hfHxyeP3PdHprJ5949Ty0lmi6vRswWMtIF1ZPMcUSyluvPlOQOn7fqlUKpVKnue5SKLDsDhR4QrPG42G1jr0c6MMMVwDO5ExxvM8stoJiUIht7i4eM89d99ww4FarTa8AjMjwm4SwrnCWZLec889Y2NjKysrQojMWETl3ohLaiIZB0gvFoJu3EYCP09gextLG75M86Gql2/ReinTIkCFuYLgJNMkmJAskwOyZgAZcEqcEMeWIoKUObWUAGdkU0tp34pkyy6Uxa57jAvfMwpC6GeaEAZpEWLBwKLv4hORMZZM5ns5qTwQEgQDW7Kp0RFxBmi1jYyOmDSwJpJoLRKwTN31wIXk2RMAANRrpIAkJXqeFQDG6ihb70W5yBQvrazX6/XpqbnYRO1ooloaO3z4/bMzG2vLb6Tx0rkz36tXxPRsZaw+laap5xXLlYlqtSqE6PV6rVbHlWaUy2VXDxLHqatItpYAhFOCQyceroBabSFrredLN5tExvd9Y8xjjz02OTk+nGj3hlz8dDeGcN+RLxTuvPPOz3/+84VCIfB86xLNLAAEgnSwGmBQKJSwSdIyZP2w4hfDtHfhue/+6W3HVJCbLYRlS36c6ixVhGE+lEZbIgvWMGiElCBmipkjhpQgIXZuRUZsmS2Qi1UwWOKtZJGYXZspEDzgd1fST4O35Fw4lp7WqbRMaBCAyBJp4sySITI6jayOyUVEjCVXg8bGpeocEAzZhXZFMRdkWZqZzJjUWameh+jDeKGy3kyXL51bbWz46mwhP3b40LGjR24vFGqFfb5Jy6+9+gyimJmZOnJkYW11A7Cyuto5deqUMcYFmvL5vBCi1Wq5jndJkjCz53m5XM73/SxJh3P0VsATQgitNTC7otNer3fbbUfvu+8+ALCWEWhY8tX3S3e6kBvk+7415rHHHvv85z+fZZkQwg7dOQYCKRx+H6AXp0GY8wIZp1onDS8ogI0y3fn+M1+85dhDCws39bqoY1JBXSiVpBkCImvLKXOMEBNEDD3imDEFNmwNsQbWzHpTPLiUhyUkFiyQBbrEAFlEZBdzZwZmBBBCDV2vfnW2kkIIkxomZCIkco6rtcZasDbTWax1CmSALbErW0cmw2iAhWABoJiIQQiGmAhAeH4BFRLrVCe91JLW1DwryxP5WtXzy3sXbjp66x0T45Nk9N133KrT5vpS8LW/DhuN1cZaO1C8vr6e6nBsfObmm2/xfb/b7bZarWazBQBxHLvbzucLbr6tpSiKPemmbCsSc6gft8yh7/u9qOMr6fsqTeM4jj/0oQ9NTtb7fYEHwD8XtpJS7mZUuoxqFEX33HPP3Nzc+fPnpZQoJPQ9BQQQNGgyHoa+C7t4AsEaE7W9MCjnvMisvvTCXzbXLx48dOfe+X2tDnR6HSlCY5jBALuJT1hEzDFBTGSIDYMhNsiW2ABZYsOWiImtgz+4qMZAezjJ2a/07//qfHFDdljwj1IwiCDIoUJm3cdqGWsgzbQVyFan1mROPTAREEnhg7UsnOlgHaRLkLAo4igBIUF5QnoWBHFBekGQC6ZmZ2rj0zPTC5NTeyYnZicmJsqVvO+J7373Ly6dP91aWcx0b++ehWKAe2bG6tWen6tuNJvnzp2L43gIpx52Kxv2vBr2rrisWePlNTnbkhMAQ2DE9MzUAw88YAwpJaREHGn9JqTAXQJTQxvC9/0gDO+6666LFy8CAKJlZkAARu5HABEA/CDf7Xa1zoIgcJ252GQguvVa/vVzr7Waa7lcLrihhFgUwvO9fEenwJo4I84QM+KUIWbIiI21/cwFkCUyRMbFaobzD+wwNejA/sN2dcgWAazLkZDmAWzC5TWsJmb20ANABu36VlmrGbIszQJPGpNZ209nu+9CFmBdEwhX4mcArUEAEIVaPtOYGmnYC8L6+NTCgYM3zczNV6qFcqVw4MDC9Nz40uqFZ77z1fMXTkthbRp1Gxsy0/v2z85NTEFm1pa6641WKzorfOl5nlAqMyYzJgiCfLHopt9Yq9MUBiHX0POsHjoRbwle5VAwCJwkiR94jz766MzMRJpqKYUDCriOFEopF07eLXQNAN1utz42xkS33HLLl770JdflG5GZHa4VBtMB3W7XRTN9XwkhJHKapnHU6kbR/tl5a4Pnn/2zi+fPHrvrsanJQ2sbDQmSmAQQkSU0jIYwIdBkidjSUHJQ2o89MKIVTFKwsmyRGcAgmwFar/9qXAqJkRGQBUsBUrJUDOjsBEYEwcJaSxLZMBMxaCADTEwGiZlYACMYhBSFAhLECtAwSEAmJAZgFL1mlB+buXHvDfPzh+qTeyrVybHx2XqtMj8z0VhbfOkHz/znP/z+RnvZC4hZJ1Fnol7bNzfmgeo1WmfOnKZEK/akJwvFsuHM3b9rR0dE3W7XCbZRBBQRaWtHQblDdh9IiAFEaPPPpLMsCDxjdZom47X6ww8+AM4V71dFIG72AsQ0i3fsIONu0TVXc715nnjiiajXAQBfCtcfwxjjKnSHFqi785HLKJ2xF+RZYJSR5rA2ecO+A/fN7DnW7YVJplqdroUYZHOt8Zqm1ZnpsXbLJbi7DAlwj2xqE2MyBuORC3NbbW1qbaxNl22KZvPraIDidSokMwaQ/CCQCo1bB+AHnGOSWmuDnC9WqrUxz89lVse9DnAWRevtjRWycd73A88z1jNqLM0Uo6d8PzPA2gal8vjU9K23HR2fGs/lQt9XNxw6cOCG/ZcuXnzmm1+9+PIPKY3TNLaUKiUKhXyxFOZyuTOnXyMiNpaMZUsSZN/O7W8QspV2R2kPOeAyu/Ly1s9utCchCLzz58+Pj48//NBD//gf/1937VdEu9kQTg27vBki3nHHHU8//XVB7KJgjgmkHMAht+smhUzlXHFjYwN8npiaNCjW1l8+TYSIe/fee2k1qpfzqcXFlYu5sDReDputFUE+WwNkGFJmDWRQsFLCGBrFuQ/RtCxY8GV/GowQgkW/KttKQQ5fKbIs8lUuCLxAKuVJa7VNKU7TYrG4sbbS6RjpV4p+FShL4jizRttMhHnSbDPec+DQ8eMnZucXtKFcPrjhhv0LC5ON5uq3nv7KH/7Bb8VJa7yYS1qr9WJ+fmq8WCwSUaPRWF681Gw28/m862WE7PwVcjmNHepu3oT4SoSVu1D/ciN9f5jjKK1WSsVC7vHHTwKAqzHfwezYNXQNQ3NDiCAITp48+cwz31KAWqc8SNS6ujPeqbQUMTFJrpQDYXtRy6LwvDCNV1568Wtk5fjkIc8PGx0er0+kJui2122a8zwWgojQkrJGEisk7rcwFkwCmKyzHwg8i0ZARGgBcJDlEsCu5EiAFR5ITwSSPCIiAiEpNU3iNqFgkB7kwZehX8z55XYctxLSkAu8ILacRpEU1VK9nAp74MbDtx29c3Z2D6BSMpyampqbm+v1es98++nP/d73et0GQMI2LRWDejG//9C93VZzeXn59OnTTo36vsrn8y66AFuF/I9KO0/tJrkA9t69e48fP/6mn3oThnDz7YTb8ePHy+Vy2ouYXaYEeSRbv+MdIwVhkNmk022DwHxJoYp70dL3vvPf7rwznZq5sZwvVCqTS2tyY70rsYrUkYAWFbMiVmCt7budhoAJLaG1yIRAKHhg0g6y3gIABbGr/JIkEFGQECjYomIGBKWUERkTgEL0fIuoARgYvFCERchEmiGIoDg+vbBn78LemYO3zPXiTr0+duvRw+NjkxcuLL7w3HN//VdfbG40Ws01k0RjtdLc9EKp6GVJnESdb37jaYR+fZzjA2OyJEmclB1Ow9AVUrh9P4kd7cQRUPHQmh6eHw4aPXDr9v7773ffvnsDq928DFfzBYPUyN69e2+++eZvf+NpAHI5ddeN0dmoO/jBlC8VGo2GpaxaKRBwq70qvV69vrCyuvTcs39yU9rZf8MdRkO1WAv21i4tnbZpbFlYQiIElgCKyRATCSIXgkDL6Mr12bIADgTIQTB7s7wOwCC6BqiE4AlBQMwCUHgoPCU9FeakXzAsu504M7ElVF6utmdycmL24P5DBw7cUK+OCZkevHHMC8ylS8tf/rP/+tJLL+k085VibRXwgbm52clDrLPWxvql5fVup9Xr9YIwTIx2PS6FgDAMXZPKRqMBw3Q89d/wrjOwG7klPhqp3IlcRdeBAwdOnDjh+rOO4vSvpDdhCNHfJoSdUnjkkUe+9fVvOLgbDHhTCOEap21zEeROr6UCCEUOEYU1Od9jNnFzcbxSW2+tvnrq60mSzO+9s1zfHwZ5X95w/uyGNpk2mSUEFAwCBA4NLwEOyQQIFlELsMwMLLmvNd1dOW8TCIxAJoEoyLJFtAx+YmSsLTBjLIJ8EBTyxVI5yBdmZ+YrtbF6vV4qVSbqY2PjNU+qNG39/u/+B4AkjnudTkcAzE5V56Yma9Vyr9leX17+/jOn2hvrlGklMfB85Xs6y6SnyuWyEILIZFnmgAvFYnE4l29lIneiUVdz09/GLc7BpoSIer2ZmakHH3xwdnaWB621kyQZtlreQjsyhEuwDnJlwnkcDzzwwNjYWLvdjOPYjXFQvl2erRu3JibGlVDt9RYQVisVrfXq6ioCTdXGV5prr73yLSlz2krhjdfr40bvb7Vztgm9yLBIAZmALQMTokUglAREWnAqKQWwCDCsDKN+TXHfsLLCWCQhBUuyYFkwCyARShn6Xr5QrBSr4/Xx2fmFvTOze4QQE5P1qema78HKyrnnn//zN06/srG+UikUu+1WuVK87/bbqpXSpQsXzrzy4gudhklS1loJWauWfCF1mgFAkAt7aWpMFmfJEMpWzOdd6nIYSBEjzt4uXt5Or/RynriMOa4kz/P27dvnYtUOOwND4bQd7cYQzssYGoydTmffvn1TU1NEJkkSl45z6LwdvwCpXq90u20yUAjKEmXa1URmsj52cXlJCLFnem6tlb3wwl/t7UWHb3qg27Ezc/MiEL0s7mWxpQzYWvYsZYgCwAoGApIOVgOpAOsy/CNehqvPF4TCuEAehBKkQWJAhFy+PFutz+xdODC3Z6Fcrga5/Pj4+PjkeLEQnHr5ha/82V+vrlzodlaTpFkshHunxw7vv1kJr9VunHn55bXlZeJMSRQ2y3loGIFMknZJ+sBorU1amQoDF1uEQYLAsYLLrTjqB06l7Cca3k4aGxu76aab9u3bBwBZluVyOQDI5/M7jd9Ngw1VhqNarQZAJ0+e/O3f/v9IKQuFgsvSJklSq9WcaTnk66FUNDZTnkAZkEG0SoAvBSPp2YmZ9eaGNjQ+e0AF8uVTX2131u598In1RjYxPSdDoV/PoghT3abMBn6ZbGINAWoPwbLOsphNjAjMmgiEVEGQA+GnGSepMQReULQomdCkHnphuTo+P793ZmbvzOwNnheEOTVRrxw8tFCu5F55+fk///J/O3vmNU9SlnTB6L3zC8duO1EtlTut9l9++a91liVJZClFsAotG0KyqNCTiMoHAMuMQqDwBIJl2hJZECOdo0bPD/fI2ESQj+Qtd1pj4vKLDF+4QMyyLJ/PR1FULhfX1taq1aqUWKvVfvInf3KAqg2dGTHcp+NKutrWxvTi8y/8/b//d9fW1pxt4vDBToOM3mLfihaWZAwAYEJhfWlyAqRABtRBHtpxu5cl4OWCwiTKcqL9bhq8/8lfaHTSgwf35wvB17/xl+fPvR762GwuFUKgLAKbCJuQjkwaCyY/UK1eF6XSljNNAgMvV/S8gkW/007CUq0+Njc1vWd2z97xiRnfD4ngyM03TU7VJdJLp5773ve+ceniG4hpzsOo17j50A233nxjKcwvLV567dVXF89ebLc742PTWlutYwYr+21JLJFxLS/AxeVQIAhXAw5kt40o7aRV00Fk2hXzj0T8th9/+Ua0m3MXhF6z2azValmWWavd1Fir/9bPf/Lnfu6TYRg6FdaHR+zcXP2qbdxbjh6dnp52NrPr110sFlut1haO27SBebDPEQtCIdhlKGWn3Q1LefRVq9vJ4rVyXSEkG83sz778fxx/8MnGxnJjQ9xx9N5KcfyF554p5sdN2gL0vIA8QJOgSa3OTKZVvrjfWCCwggxZTDOPsSC98J57T4xPzdXqE36+VK1NTM/NVco1hOjMa8/86Ze+sbS4WCoVfeUVfNgzt++Oo0cm67XvfftbX/r8nyTdrq8EGe0LnJ+o96IECRQBIAoUiEyMiDistCK3aYMQbkXvZsFvzuPmZLhkt/PjHCDW87x8Pj+6xi776PbGYx8E5BLlUdSt1WpxHI+N1U+ePBmGofM1YBBY2sXmuxan5/jx46dPn3ZbCiRJopQa+rVb3CEJSKxcnghRIrJFloAoMDZGWZkPQwLb7fUaK+eKpdrB+amzq2vf+cafLCzctG/v4UTlDu69sZwrPvf8twNPRZHtdns2i0hnpIUvisorLi32AAK/UKpPjFfrtVq1Pj03OzU9G+ZzKL2Zudm5hb3NZvO73/ve+fPnlUrXl16QKpkaK87PT9508HDo514+deoLf/RHxTDXaWwwZfVyRQC3mxtplghAtpIRhUQnDVwf7X4ZorMTsN8whIconTedSB6dyH7Dc6cjmNk58ztdZ8tOZEPKsiwMQ631UNIw84kTJ+bn52GQ4ho23HcZie2vf7Uqw6bZiy/+4Nd+7dcAIE1TF8MuFAqu9Ay2mBHDrRRJMEmAYZ9sloqNSUhYREyzLI5TpbygMFYcW3jtjbUwGD980z3TszeVShOMsNFa++uvf0nbjoA0DFABJlHc66VZghNTN0xM7pmZmSqVC4VCbny8PjM7WauXarXy+sbyK6++dOrUi43mKgBnWRZ319//yB37FmYEqpdeeun0y6eNIV/6VptOoxn6Qc4PiE0SxUanYRgWi8VOtytE30gEYjtIu4NAAgDBhMBIJJEBEFhaHulMeMXkXdHn1tgMBo0HgyAgojiO4zjeScfvpDK0SWu1mmss5HnSWhsEwf/6v/4vR246JAQ4RsmyzNUM7mJDXLWEkJ53yy23TE1NvfLKK65kwG09MioYRg4AUTqAAQomMC6Gj4jaakBAQhQiF+RDFaRJFjVXo2509OCRpeX4+We+SkdxZh6EX9g/f6j6kdrrZ0+9+vIPVlYXAXisPnHTofnJiT2FYq1UrJVKhXqttG///FitdP7c69/+9l+devH7gY9J1G531qcm63ffdfv+A3sVwvPPfudrX/6z1dXVXK5QCHM9nbbXN4wx4/UxY0w3blpry4VyoTAWRd1LK5fypQIII4QESxaYGJAFonAswSwEkKtOJHQ14FcXXXB1Wm6S2u02EQVBUCwW+3uLX0E7qQxEDMPQqfIg8LIsO3LkyOHDh6y1QshhgNGZDjtmzq5FZSBK3z958uQrr7ziUl9ucyLYygruQCL5wMyoAQwI6xgCEOM4DoKc7/lAiCQ8GXhBEIi0l8QXXnthavqQIP9bX//S0dvTOx94//nzF8JiaWL8YLk6w4JQWCkxDMN8ITi4f252bqpSKS1duvjVp7/w0ovPs4lrpTzbDbD4wL23PvLg/TqL/uLPv/QHf/VfgYVOMJ8vVcJqt9PprjaVEoV8KGW40VguFovFSphlWSfrRJ1IKb8wUdY6FUIIYECwSMzC1WL2K8PAucHMLrvS93q3ed3bBZjd+wRjzLBXrTMFto3yDYbvkINQamiCEFGtVvvQhz4kJQxvhgcN0p202PH6V6kyQGcJsz3/xtlPf/rTTk04w3j4rcMDBGdL+szMwjBrEtolHxAx8AtxnOrESlSelEAsAYUAIbnZ7lmbm5g5RKL66pnV0tj8ySc+4hcqqTWEpAIR5oPaeGV+Yc/sdO38uRef/sZfvHLq5cBDgWCS3oF9e+8/ftfC7FSnsf7DH3z/ue9+p93aqJQKQkC72Qv9Wi/SEqFUKUqBnV6byIRhqElbay0TISDIPqQC0bIRQghAtsAGmNCTvpTSak0A0iEkkBHZdcNHGp2wzeMBQ2zlFT9QURQVi8Vjx47dfvvtzPz0008//fTTw8jmFhJbGcI5O6SUckZlsZg3abb/hv3/9jf+pTGgJACwsx6cYIiiaJc4xDXsqEPdbrdYLP7cpz71gx/8IJ/P2yxl5st7DDpAAhMCgur3D2IL6Kq+hy/IFfqNJiBAKaW1zTJh0ROiyKoAImfRf+TRJ71cfnJ6auHA/lKleGll+bnnnz39yg9sbyX0yFpbLOSO33X33ffcGXU7zz///He/8wzYfrU4kBnE8hDYJ0DBYIEEgOV+V4lNVh6+eQAAMIPuMGJYo9v3m9wD0CBM2v9ckqTlctnZ2gCgtQ6CoNVqKaUqlcra2porv1lbWwvDsN1uF4vFqampj370o3feeWej0RgbG/vt3/7tL3/5yzuFlh1uGGFQL9vf+oayLJubm1leXtYmnZma/p/+T//TwyfuTzN9tZ1sr8XLyOfzzHz7HXe88MILQogoTT3PG+XbfrPhyzL07mlQDlhwhA9H+vH0ezwDCgLKiDpIxlPGV/nvffNPpufndbKwtHhqZX1tZXXVMJVDMVYJbjm0f2FhIY7j82fP/d6/+3cbjbVut1ur1ZgZiZGQWQD3AUJuE2ByLQT6X7xZGA5XmADDuPgmOQbq94PfPOv+y+VyrozC5fyklK6fqIPSV6tVrfXp06eZuVAo1Ov1XC73a7/2a71e74033jh+/Hiz2Tx37ly5XN7Jhhi9NddfA/rhLO71elIAodi3b+/B/QcY4Gq5Aa6BIZzHkqbpI4888of/6T/BEC41fKGD49GTcIWFsZMrjEjSNUY2YKxFC2SlkOD7KuptnDsbZ8ZkRperlQM33HjD/jndXl8898affPG/9Xo9YgMASqnx8fF+gRsZB8e9XviDN6Xh5npBEGitO51OkiQA4KI1xWIxDENXpNVut9vt9ic+8YlvfetbURT94i/+4r//9//+1ltvbTQauyMKHF2e3ALf9zudThh4QogTJ07MzExd2xNfNUMM3eVbb711fn7+jTfe6HdiJr4y7TaM127ngGynqpCdeywYEBkRjE1STWB6ng/czQr5qZuP3riwd29q9Isv/uD/+9dfnCiV0zgSgKVSKQg9t/dmFEX95NxbKGW5vpTL5Qa5b4GIroV9LpdrNpsOJNDpdNymnVEU3X///bfcckuz2Ww2m7/+679+7733+r6fJEm3291RZfTLFtEVr7owNzMEgZ9mMZGcmZl+6KGH3LA0fftVhqss8zwvDMPbb7/9tdde8z2PiHBk6fc5d+RT2zql21wdiZGZCRCVJ1BJYVjrOMtYcG7v/Nz07GRnY/G/Pvs1p333zo7bxOSDsta622s3W8Z1cJVS6iS+HG/6DpHLDw/byUop4ziOoiiXy42NjTUaDc/zqtUqIq6srBw4cODLX/7y6dOnb7zxxieffHJjY+N73/vehQsXbrjhhlartcu3MNvNlYYAg8RVGicPPPDAxEQtSTOp/Ks3EK+JIVyCBADuu+++L37xizZLrbVKii0SwqmMt8oKg88Yk7mu2FKiJ1EqFMgAptfdWF06a02MiKVQFPwyACSdhjVCKd/NQbFYzOVyURStra1VigUYweBf7WNeMzlzslAoxHHc6/Vc36disfjII4/Mz89/9atffeWVV9bX133fn56evueeew4fPnzmzJmVlZV/+S//5ac//elvfOMbd9xxx6lTpwqFwrbXd0FfuFxlAFCcJGNjY8V8/uTJk8Tg+z4RBMFVb/55LUblECrh9jt/4/XXhgm9UW7gEVl9pabYQUJIBIGDHbCQWDAGnpDSzzKdxd1eEx0II/A8IoozI2WY8z0hRLvdXlteklKWy+WFudlOpwNwWRjnnWEL1wBQa93r9SqVyi233FKr1Uql0le+8pV/+A//4Wc/+9lLly795m/+5oULF0ql0ssvv/wHf/AHExMTL7744uTk5Pz8fKvVWlxc3Lt3b7vd3v4LkEbC5pu2kctnPvn444cOHUzTNJcLiAjxqrdIuGqGcFFP93Nyamp2dvaN11/zfd/o3azit75MPRUM879uywUpZeB5npTlYqGYL1hrrTEgyBMCfY+F58IhhUKhXC67phmtVmsLUOydFBJRFPm+PzExceedd95www3f//73//zP/3xycvLs2bMug7WxsbGwsLBv377XX38dEV966aV9+/Yh4sWLF7XWe/fuXVpa2iVUAKOIGOzvlFsoFOI4evzxx4UEKaWrzbqGm7/qzzigh+/7bhp+8Rd/cdiwwtEQCyRGaMuvm+V1WwiENcJoNBqZlJSeUr4AyZattmw5F+SRhS/80M/p2CoZMrPnS+UJbdIkjYzNhASp+guIB5v4Dm9sp+favIUBuY879IDzrVydnbuatbZSqTBzFEW1Ws0lI5x3UC6Xm83mbbfddtddd/3gBz84d+5cLpc7cODA4uKi41djzIULF44cOfLiiy8qpXq9nusU+93vftflMlzzhZ1IKYXYz1sOEUxZlr3//e8/fPgQDJSIa0p6tXTVDCEG+734vm+0npub27dvn2vsNZz10YPh695ysOstKUTPAeqB0bn4CJIsIKEECaAEKwQPWfT/+rZ5EDzYLZ4HHZzcrHiet7q6Ojc396u/+qtOXF+6dCmfz7sxH//4x++8805mvnTpkuv8cvDgQRcaee2116y1Y2Njbu8kANizZ8/4+Hi3293Y2Ijj2O1Sv8stDe9ByD4eBQUXi4WHHnpISEhTTWRcb4ldsqY70bXYEEPwbtTrTc/M3H333V/4wheGi4+ZhUAAYHBVspva7s2NShBAgChh6FwNAoWIYAxZQEbP4a0ZFYNE7u+m2g89AdIgmguuM+TQ1dhhR803fdjhZu0wUjuLiDfddNM//+f/3PO8lZWVb3/723Nzc6dPn3ZYsrm5uT/+4z9eWVmJ4zifz7fbbdfGTyl14cIFF4pwIjbLsg984AMHDhz4xje+cebMGc/zxsbGXCOAHe6o/0REJKUnpcx0plDdfPPNDzzwgLtPpZy6pGvY0uWqGcIJqNHY+IMPPvhf/st/6TOBcztHDlx0fAsT7Bwp2szdbBEqiOSCfSgFkWEQKFX/S3DIcJvjdzQaXL3b1T8vEbnaCrd8S6XS3Nxco9FIkuR973vfX/zFX6ysrIyPjwNAoVC4cOHCysqK67KCiPPz87lcLk1TrfXy8nI+n5+ZmTl69Ojc3Nx999331a9+9Q//8A9feukl3/fz+fzq6mqapjt5GZvpSiREZLaZTkrlsfe///1hqJIkC0NfCJEkidtc6a0/qaNrYYhhHiWXzydxfPvtt9fr9VazsdNHRtykEabZniGYgQUTi34xMWI/pI2ImUktEUhlM7aAIBQNtlIdhEAG19g2AoH0FgFNoyQG3QKdZ2uMceijOI7vueeef/Ev/sXi4uIv/MIvPPTQQ3/6p3/qzMnDhw+fO3cOEYvFomtAf9NNN+VyuVar1e12HRB+dXX11VdfrVar/+gf/aPl5eVWqzU1NVUul9fW1rTWY2NjLr65LTGzUgK00x1WCLFnz577778/y8xwlSJeoxF9TWUiADAo3IiiqD42duzYsb/+6l9trnt3MJAQWx5md30vkQH7e+UOnooQEVClOjWQedJtgUcohYvPvNUw6DWR0xFD9Hocx8aY8fHxp5566s///M+//vWvP/jgg0eOHPnCF75QKpWklJ1OZ3p6+pvf/GaSJM7RqNVqk5OTLkZ54cKFfD5vrT116tSZM2esta4vTD6fX1lZWVpact3yducGa23gh048uEz38eP3VCqFVqtTrZSstVmWOHS11trzrm5n36tmCES3TVe/MawDzz366KNf++uvbgr5wUbAQ4YY2hBvYv25ZrdIAggRCd2+mAgAjGgos2w8wQRECCjQbcIjkF3O8TIz5TrxhOvOCQP3Kk3TUql00003zc/P/87v/M7NN988MzMTx/G5c+cWFha++tWv3nzzzVLKgwcP3nDDDZOTk65UOo7jpaWlpaWlV1991WWCnCrJskxKuby8LKWcnp52JTTODdmFp4nM0DMXQkxPTz/88MMwwrvDz+5Sf7ETXTVDCCGGxYE6ywrFIjDfddddKAY5TgaQiMQIChAM2f42KtsUGG1HODSF+u0+nGEA/UclRAYg4XZFRNNHXlzV7ONmmZezfXcZ67oCumiYm4ZqtXr48OGJiYkgCJaWlh5++GFneL7yyiu33HILMx84cODmm2+O43h1dXV9fV0p9aUvfanRaLjxe/bsiaLIGZiu8qVSqfi+3263O52O29ui3W67JX4lSRSGB047sZKiXq/feOMBazmXDwDA8zyl+kbe1W78DdekMkQQ9O/V80MAAsSxqem7jt/7gx88v76+HiivVqvFUW99fX1sbIxMH5U/CK71rzJsKTFqAzI7NpeuVhABXL9iRlDKl6izJFMyDQNPChtFPQdCZADG0d5s/ZDNaJyUmZmQgUZ4Z8AQmwFg97m+P+I+ng9zWZYxkQVDxo7V6s2NxrGjt51742zoBwAwP7fnuWe/T8aSsWmcREn8W7/1W0ePHp2fn19eXn7mmWcWFxddX+o4jl2S08UzXLwBiBk4jRMlZK1SBYAsSQu5/E4rx2pTzBXYcBYn+UqpXC7+6t/5O7Yfhuo7F9jvMXotXtW12xAD6netOvHQQ99+5plKpbKxsSHbbQAoFApSSjAaLrcrR53PUVeir1D6noIcDHO9goAJBCMNdAQCCbQA5uofeyhFefBZd2Z7XTZqArtbKhQKQoj19fVer9ftdr/2ta/Nz8+HYWiMieMYBV66dKnVaoVh2Ov1NjY2hBDObrjK+9zh7g0rKZMkrpYrROb+++8fHx8fCUr+qFuHXtN2wNvRI488opTK5/OIqLVmZveORiOA20cn3xrBwHwZiAEebivytpJjiNGi53q9LoRwkNKJiYnx8fFnn3320qVLSZK4zUuIqNlsDoMQhUJhiBkYXnPLwVsnt3NMHMdu7+9HH320Uilfv8e9fgwxMTFx+PDhOI6LxaJbQw44NJzRHcPVb5kceHPIENfgZF8DDSXEkPkmJycB4NZbby2VSmma3nzzza+++urU1FQYhkmSOKyDw9Tn83kHjWy1Wjtxw07x6Z3ux/d9aw0ApGl6xx133HzzTUKAMT+qYBjSdWMIAHjsscdcCVcYhoiotR7uHLRlXndhjuGftj1wDIGIPMAQv920JU2DiFNTU8aY7373u+vr68NMh7NmkiRxMVwi6vV6rVbLFWCNtq2HARNc2/2EYaC1zufzvu9/4AMfKBZDxCGsfnir4ppn9roxhNb6oYceKhaLLvnrAnxOg+wkJLZkPa7kgC085KAY7lU6j+sa3KqrpeEUDm9sfHw8SZJWq3XzzTffdddd3/72t/P5/KVLl+I4disBR/pLuhr5QqEwYvNuSohrYAtjTJrGuVxw6MaDd911h7O9B72JrwNdN4aQUs7MzNx+++2ImKapA5fSFZvPXykS3Md3HwaDRo1DJ9td+ToGoHYhHtTZOb50oOpPfvKTd999tzHma1/7mtv+ysFrXd0VEYVh6Epsoyi6MjGxhS3euspwoYtcLvf444/ncsqYy5jsR6frpoZdqOrYsWMvvfRSlGZBEABTHMde4MPlwNptvQwYBjHZ+YuXxS2GQoKtgZG1xTs3yri+NGpJOPTs5z73ueXlZXdjKysrxWIxTdNcLueHgWsIASOBMsfKcB1mjqXEXL5QKhcefvgE0TDRb68BC7MtXZdF1hdWxphLixc++9nPxt1ePp+Pel1ElJ4aFZVDPtix/wFZACAQWwSsJfY8r9npzs7OKqVKpdLGxkahWLQW+XIWGcYhYGT9waCiwQ66NzD33c6ByIHN8zy6N/XgTY1w8Oj9b7lPerMY2ZbxO+Ucoiian59fWVkZ9nUoFoutVjPnqTjp/ZN/8k8++MEnEIGBrB0iaYftGTefC69yxVxPo9IZDTfeeOPw1yG0bnTY7rc4qkRgBLe9ZSb4TaPgbydds9/41scLIXq9HjO7cI7bPAcAsiw7duzowYP7lQIUoJTwvGGy+zrQdWMIZ+UVi8X77rvPhf2dbbXFShg93pau/OvoGedo4KDz1TtjQ4zSqIK/WrbYdvxONkQQBN1u11XPuhYziOh5HiA9/PDDhw7dMAykicHeQVcQ7hRt24Wumw3hZigIgjvuuKNYLDozSkppeSvnbjEnt1AfwTvyJH37w92uUq4p0zvPEKMSeBe24LemMjYvuMMwV+gHAFmWuc6jUkprxfTs7J133uH5qLWVcrMl3I/6eAO6nioDAJh5YWFhYWFhaJbDdrIBBgrlSsIdIhDuUq45Jg5qH67vzb/FB7zuQmJbcg/o8MwOm+M448SJB1wHMVcL5JA7O0NFr5qu25XcNFtrS6XSHXfc4fv+KDdcSbswxC7axDEEDGB877DK2Mk5fCvTvNP4ncilyF260iE63S5qjz76aLEUWsueJ10ea6f26ddG15khmBkQ7733Xrd7GFxuJOLlBuNO19mFHGbpXbEhtszitudh5zneafwuX8cDyLjrwKGUOnHixOHDh90AZ1tIKaW4npLyOjOEu+ANh2/K5/NCqoEP5jLdl4GgdvpJIAi2g2sL9yuPehl4TbjZa3quPu00i1fLmm82nn3fY6Y0TbTOBHCWpdVy6eT7H8rllNbWvUaXKgIQxpofJVw9StflhQoAgSizzHh+aAyFucIjj56M0oxR+L6yVjNbIcCYzPNkoZDTOh1ggrf8A5QCpQCBKAVKAMEoASVYq5UnA+VJQCQGC0g4xIddqYx2v+PhwqUBDc9fMZJcrBI2MdwMwETW/WOm0b8KQAGIroE/uz3qGIjZkvvnfh0OIHb1rO4fMzMyIdu41wk8iazzobImqlbCA/vnjt9zJyB4Xn9f6Fyu4F6+kv6AITbZAhGuwda8nm6nU3XMKIS49eixMFfw/JCZlVJB4IVh6Hmy1+t1Oi3P83YWEgBDwPZWjcMAIMQgiHRZ+Oid9j/fNuo/SC4XpGlcLhU67abnKSXEE0+eDMKdtMN1m8frdiGHPeRB2P/o0aMTExMOrMzMLi/sYOwu9La7rQBXGB/DXx3mGwc4KPjR4AWjtJOReLU+xTUYm1eSk1sOCZem6cGDBx1w8u2m62xD4CB6XywWjx496tCXLvIax7Hbz9o1THzT62zhj34ug9k5YDDIOW379q+BM66WG3aayKsdP3ILNHqQJEm+EG5sbIyPjxHRBz7wgXq9dh1xDzvRdWMIBybGAbhIa/3YY4/Nz89rbT0vqFRqYZi3lhGllF6aakS53b+t4eot/AEAvu+7UMRQGsH1FhJXstRO56/2OjvT1pl27SWyLEPEgwcPPvK+h5hByrfdiL6eX0CDPeoBwFp7zz33PProo1EUuUaWrrWK67jTr0jcXltcFoqAATeIwWYC7jXB5WvO3cCPwhbD62yRNLuf32XdX9X4AQ33LbaeL6Mo8jzVbrcfed9D9XpdiGsxEq+WridDOEybS/W64/e9730nTpxQSrl+KMzsbM/dDYhRG2LLSRjYEMOrDb/9R+GGK2mni1ztxd98PBJstxGbMSZJEiHE+Pi4K9qEQQP9t5WuG0MM26wDgEOSRVG0f//+X/mVX9m/f7/rxOn7vkOg71ypPnSZtqIlRo0JumxXyMvoR+SGd44PtvsQwGZZSpZlrv/L0duO7Nu3Twhg5rfQmu5HpeuW3HIiwRkQrtlFPp8HoIV9B5566qezzDz33HMHDhzIskxrWypVdroO9zcqHcAFRnwNF9J3SLVOp1PIl1DgUGGMCGqGy7U4j+AhCEbNjs1pG37RFkmz+687PsUVw4Zu0egZAECBWmsxeIHaGMHkwGauKcVP/MRPuPfJzDvvt3nd6G03UtiYxx577Oabb77lllvW19dx164db4WcqBh9s3CVs3XZ7W038roonbf41a680/O8KIqSNHJw7V7UmZycyLLs/gfuvfHGG93mSEJcSzX31dLbH/pVylr72c9+ds+ePYiYZZkYtKi6Wurf8cC63MWI23IAb41jrhx/bbT7nVzxK3e7nSRJcrmcA/JnWVYoFBYXF5n5sccem5qaMMZorbMscTujvK309pc2MLfb7fGpqY997GOnTp1SSrmAxI7jceTnFagIwM2AhLUWEdDtVXHZKx6tDdyRJ7accad/dJ7YiRtGVZg7cE/kWkH4ysu0axxDlm3ajffv33/77bc9+OCDsOmCJjtZTteR3m7gMuk4co3ac8XiH37uc7//+78fBIGrb9z+A85xuCwHBgCAiFprT4WIGEWZMSYM8sJTIDZRiYP35RCFV5gRLGCAqRw89WjwewSDSdu0HHmLWmmUsUbHXGlDuJPVenVtbS1Nolwuh4hap/Vqec+ePb/yK3/n5psPT06Mud6GDguDiLjDxq/Xi952CeF5AUj0fZ+N+fgnPvHss8++/PLLu0gIvKypBG49D5dLCCWHECXcROVvwrW3mVTcfhFvmd/RdXxVz/um+mJ4xt3k4uIiADjcQ5YlMzMzH//YT/3Mz3y8Wi0hgst6I3Kn092pp8z1pbfdhoBBJwNUCqz91V/91fHx8UKhcA02hHuP29oQWxbftpL/rZsaVx5fM2254BYJAQD5fD6XC9yGer/4i7/4u7/7u7/yK58JgsBaSJKMmYMgEIM2Qu+Ayni7GUIQsDHaC4IsS0HKhQP7P/nJT162WeUwE4y8Iyh9hIYG5uXv1wn/7TEBl8/BEKi+/bNfEx/gyD93kW1njkf/MROgJZtKAY8/fvJ/+9/+3/+X//Pfr1VK7XaUz/tK9fddiqKIB41Zduksc73obS9+YrbOhAaANImCMNxYX//Lv/zLf/2v/9X09PTa2pqQkM/nnaYkIsECGAdbF1zWDEUpZY0r2vHb7XaWmmKlbCyDQES3n+VmLAEvjyv0r8PCwmXWw+j1YTuxcdl5HsVojdoZm+edJ4Ugw5zrUJa4tnDWWoZ+5x1j3N5XoLW+/bajTz310Q984ANB4KVJJqUcwOrfHXrbbQhEdJlcIQRKAQD1sbF77j3+xGuv/vEf/3GlWqpUKsvLl4IgwM0g0zYNo7ZIy6GQGFmXWyNLcOVyRwKW25y/dhoRM+z2P+5OTEwopVbXlnu9XqGQy+dzzNyLOvl83qXktE6jqHvr0SMf/OCTH/vJj1arZQclUUq4joK774L0ttI7UFEvEGUfAknoGvYvzC/81E/91HPPPddorgOAS3dJKbW2KBAAGdwS36Yt1WhYwjHEKBuNjtzJrHvr57fhp5EWRLwZFXWGMDFzrV5pNNfdbutTU1NSYhxHURRVq1VjjBCYJFGpVPrwhz/887/wc/v3zUsAt62GUmq4JcK7xQ3wjqgM1lq7tgBa6zRNPV8GfgBMX/rSl/7tv/uNVqs1MTGRprEQIkkyT3hMfbeT2Y5eRwhhNAshlArb7XYcpbligVgM86Ojg3GHULRlue35nTLp25ii3HdrR4Ztls55npemqbX9ogmtsyAIiqV8q9XSOlVKPPTQQ3/37/7dw4cPEINAsJlxGsSFpa21w76w128SroLedgnh9op0s+MkAbFxAuCJJ5986aWX/ssX/nOv1/M8zxi7Wfp3udvJI4XCbu7dSCICFFukyC4uxls8/yaLxCUnGUfGbzJuq9Uol8tKhXEcAbBL+p8/f75er992262f/exnTpy4DxF6UVrIB0maFQLf9xWMcKTL3v2NZYhBA41+v08hhEBhrAFi5amf/umfXlxc/M53v12pVIwxngqQ+lbBlUwwnKehA9YX2lcYHLtM/07s8ub64nLabjwAcLlcbrdbAFAqF4QQ3V67UCgc3X/kl37pl+69956ZmfEozvI5P58PiCEf+C7H7VJZzq14B3zLXeidYAgAcG6eQ865t+8p1ev29szPf/zjH+90OouLi1J4Q8F/pQ0x+pqGCoKIRosStp3CqxUSu5y8jDZBDEMWFIDkSZELPCGEQuil8Vi18tGPfvTnf+FTMzPj7XYsAIo53xhoNNZrtRooMaxoGr4ZHoRb3uQG3h562xli2DMkCALXeVUIITHoh6UZ7jl+/LXXXvvc5z7n+i7goLv9lkW/hXZZRlc1wTtxyVuky8YjAUCzuVGplLIs0yZ97LFHP/PLv3TLLYeyjLWGcjkHAK1Wr1IpTEyMAUAUJbnQd5hhVxjt1sw70z5rW3onjMqR30ZyEwDM1m3E0uv1fuM3fuPLX/7y+Ph4t9WuVCrdXicMwySJ4jiemJhYWVmpVCpJkkjhCyGMAUTMUrOyvlYoVpxRKS7f1Wcno9KQ2O7GthqVw78akznjP0kSFyBynY0Q0TWuLpfLpVKp2+12Oh3f93N+kKTRkSNHPv3pX3r00YcBIElMGO44we+metiO3jVOJCJryfd9FKJYLD766KNJknzta1+rlSsA4Az1YjHPzK6/65aPb3ErYGBqvBVJMKqDdrIqhlQul6Mocr3DlFJDzJIr1K9Wq1EUvf766+VycXJystttT0yO/dzP/b2f+ImfyOd9a0FKCALV68WFwvadad9r9A4zxGazNEQ0xnh+HpgB8M677kmS5Pnnn3eIareJmVM0jUZjenra/Tpkgi3RiJ00yE7qZtQKGVZubWtVdDod5yiVSiWXtnWw0I2NtVwut7x8CQCmpiaSNFZK/PTHP/aJj//M1OR4Pu8DgEBgIgCRzwXvNUmwE717umokVZOmaRCGN91004c+9KEv/OfPdzqdmdlph8rM5XJDVO0oQwzr9Zj7XsZOnidcrgWGXuuWhMhOXgYR5fN5z/OMMa1WK4oiRPR9VSqVWq1WrVYD5CiKHn300U9/+tP79i2U8zkASFMthMMDWyL9DkDfrhe9KwzhtlZG3wuBGVxjFIByufrRjz61eP7CV77yFbeTaRR1AaBQKDjfbOh84hVbOMFVuhg70ZXjnduste52u0RUKpU8T1pr2+12pVru9XqHDx/+e3/v7z1w/3EXaNrY2KjVKkHgahVd0b4k2tIU7N3xIN4KvWsSwhojlTImlVIKKclarXWtXn/qqafOnj179twb4+PjYRgys1udMIKmhIGE6P/K2zsd2y56FJsBJacstkiILeOzLHOWv+d5DuUWx71ut+sHXr1e/wf/4B985CMfEQLiJM2FQRRH9XqViKKog4gO8wLvng95DfQOexmblCVpEIY6yxDReVm9qBOGoZTii1/4wn/6wz9ot9uFQs4ZccMAhhS+tdZazOVyWWouXFr0g/zQyxiJVu3oZaAMhr/yoIRy18BUv8ASEdM0di3sK5XKJz75sx/84Af37d3jBAMAGGuUVDqJgtBDQOJ+cSYTOgzcDm/ovcUr75qEcOSc7yzL/CBwiCAieuKDHzh16tRX/vqvXCyLGYVwjCtQAFgAIERGMWI3uPwCIQoGFv2Ntfrba9mR4z4NmWCn7ojM1jX6R2RrtUSlPD9LqD5W+4kPfuinf/ZnDt+wXxMDgRBAhligJ2WWpZ7noevYjyyFhyBR/ahA83eS3tFtkN8CEQD0er12q/Wv/s3//p1vP5PLhfl8wVrjNjJxUt41Dk6iuN2JegkrL1DKZ3as47ZWsMw46Ns4+hOEp0YEgx0+fpqmzn0QQjiwq1K+tTpL4vHxehLH3V7vgfvv/+zf/tv33H2nS7pf+XPkKTa/8ceL3mUJcQUJa3WhUEjT9Kc/9jPnz593G0+srq56nnKKAfptaEgIUMpJjCEIaph43ETbXv4TRo2GUU3hdjZoNptEVKtVkiTp9brVWqWUDy5eOLd///7/+X/+hx/96EeFEM7gVUqNojAuN2Eu+8YfL3qvSQjQOnXqlpn/6I/+6Pd///cr5WKr1VJKSilFPxbOiGi1SVKzsh55fn7YgMwp+12aohP2t1PbwhBEJkmSsbExALh48WIulyuXy0vLl/ZMT33mM7/01FNPFYvFJElGUw9/I+m9JiHABYadbfGBD3zghz/84bPf+06xWEzTxIUcEBGANxt5vlnScgvxIPQw2lvCfW+lUlleXhZCTE9PNxoNAPjlX/7lj/3kR+bmZgqFgrXWcYO1ttvtViqVt/dFvEv0nmMIlwvudDqlUqlYLP7Mz/zM0qWLzWZTys2Grszo8</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAMAAAACSCAIAAACc+FKsAABlo0lEQVR4nO39d7Cl13EfivYKX945nHzOnMkzmBkMwiAHAQwiZVG85KVZ19SVaKWrYPvaoqV6Lunp+tlXtp/tskv2Y5UslXTNJ8n0FaWSRT2JAQxgBEAQGAQCg8Hkk8PO6csrvD/67A+HAyIRIAFS01M1tc8+++y9v/X16v519697EaUUXJNr8t0KfbO/wDX5wZZrCnRNXpdcU6Br8rrkmgJdk9cl1xTomrwuuaZA1+R1yTUFuiavS35oFYgQorXWWgOA1lpKqZTCJ8lYAEBKKaXEV+5+Hv8weyb7UQgRhiG+FQCEYZgkSfa3fwuTaj+015zpBKVXbxKlFF41pTT7rVJKCCGlpJRyzgkhSZKkaYrvgG/FGMN3Ru2xLAv/NkmSOI5N0+Scv/jjfrjlh1aBMrMBAFprIYQQQinFOTcMA1UBAPBJrTXee/wrtEmUUsaYlDJ7cRzHhBDDMFC9pJRJkliWZZomAKDqZB/6t0R+aBUocyvZjyioDZkFyl4fhiHqTaZhSil0cGEYAoBlWYwx0zQppUIItF74KUqpJEnwr/62KRB/s7/A90N2KxN6JTQzaZpmlsa27d0v832/1+sNh8O1tbVut2sYxsLCwtzcXKlU4pxLKYMgcF2Xc47vj25xt8r+LZEfWguU3cgMPuOPeMtRMjQDAEqpdru9vLx88eLFlZWVVquFNmkwGARBQCktl8u1Wm3v3r2nTp267rrrbNtWSoVhiEYLLRNcc2E/NLJbOXYrk9ba9330SkqpTqdz5cqVtbW1ra2t0Wg0HA6FEIwxQkgcx3EcA4Bt25ZlSSlHo5HWes+ePUeOHHn3u99drVYty8K4DAA8z/vbZn7gDVEg/bKLRvQLLyAaCCjQO3+lCSgAAErxVxoAQNHxmxJNNAHQAN/N/3gvlQIAhWAlipIw9Nc3tprN5vLS0tLlK41GIw5iooGYXFAQUiopuSaMUgZaKyWVsm1bESWUxHAsDiMhhG3bUzPTt99++y233DI1MSmlFEJYlgWU7L7eV7lEVy3XD5a8ZgUi49uP/2ut8e93r9HuVeCECg2CSArU1IoIAUIBJTGRyuSjNLIN2wFThrHFTKV1oIWkYHOLUwAFIk0Z4YyRKE6BKKWJYTBKGaVAAZSGNJGpiC3TAaIIMG5AEishE87MOAnTRK6uLS8vrTZb28tLq61Oc21zSwjhcDNnu5BqGUuHmuBaHVMJCpYES4ApFdeKAiEMFIOUSEG00ppqYEAoIUCIpMA4n5yYuP7osVtuvGnfkUNAQAipheSWSQgopRXsZKKYwZQGSiBJEwDAcI9RlqQJM/juFWOZ1XyRJuEKv9U07I0B0XhtmSbSXSZHa1BKSaY1CK0JkRKSVGmlPWMYjgzHS7VgkhiUBsORWyzYnAmAIIxVklrcMBjXoJUilFIpNRCI49TzGCEwGkaEEM+zKHUYI3GswtCPoqjRaAwGg/PnzyP+HQwGo9EoSZIoiihn5VqVEMI1VbEkEjzTtakxSIS0mKDAJWhQAJQoykBTgBiEZhoIIDwmQKgGRYAxFgTB1taWitPt1fX6I/Uf/fEfq9brYDJQWhGgjFBC4kQopQhno8B3XZcZXCkVxbEQwvM8wzAFqGzFCH72G3JLvl/yei0QACgADaDh6q2Br+SESgABmoA2AYhWECVaydgkYFidZOSYVh5cIiUjzB+MfK2YbTJCXdM0KKSxiqPIsizTYgAgFDAGUSSEEHnPjmO5tbW1sbGxurq6tLS0vb3t+36/30fYm6ap53m2badpmiQJpdTL5zQlSZIkfpQGiUXNWqFiM7OXhh2XpAxsAZYAS2quwNSaUkioSJmSFIAQqoEozTQI0GCwOEmkEFwTi7B8Pj+7uHDdsWN33313qVQSWg2HQ2bwfCEHAGGSYuwWxoFhGJhJYoSmUhDGAIACENgxPnTX6u2Wt6YFemMUCGAMbb79lRRACa0BEq4I0ZYiTEqSCqlVZJCUAWVmlISOtjzDSoOEmUaktaRgEkYJgVRKKRmlhsGBQJKIOE3a7XYURVtbW0+efiIIgsFgEMcx5gMBgDGWpmkURWmaSikJIRiFYXJZaqUp4Zx7pkM0hINAxsLhNvGcrqXRhZlSGxIMpUxNKIWUCkGVpKABiNJUA1UaFYhxniYJU5C3HMdxljfWcvn8wsLCTTfddOq2W6dnptBeSqUM20JQr7WkFHeCYIRqrQmlmdX5W61A3zF8pQCMUA2QAgAoCpopSbQG0JKxoQgJN7SUFlgm0GgYuvmcZBApbVOiNaRBYpkmIdDvD/qDQRzH3X5PCNHv97XW87Nz6AgQw2K6GT83juNut4tBeKPRaDQavu8HQdDt98Ik1lqXvEKhUNAS4iBmCsCyBoaSBLgCrpShgCswFeFUSapTIiUFxEBUA9MgCUgKhFIlJVNQdLw0Te1CbqvZCEf+5OTkoaNHTp06dezE8UqljHrR7w+5ZRKiDcPALJRlWjDeeC+vOm9leQMUCHahn6uEAuhUAyWSaQmSaaBaUa2lVqModHN5BaC0hIToVFBgqRRX1taHge9ZtmvZoR8oKU3T1FpLpbTWiCHK5bJpmr1O1zTNrETFGMN6BaU0juOJiQnbtimlSZJsb2+jDvm+f3npytra2tbGVpqmpuW4jsM1CVMRGSAJMA1EK6Yo18pShBOQoCRVggIAIIjmQBQBQYFQCloTobgCpRR3bcJZ3vW63W6n38vn8ydvvOHmm29eWFhwPa9Wq2gNI3+oAGzTZIbBCRVaUbKDeTTovxUK9KI3eIUIlWgAAhIQnAIBBSDjOLYspzvs5dxcr9fTgowGwy9/+avbjQa3nUK5tDAzOz0xaZuWSFPGmOu6lDH0QYyxMAzTNHVtJ4ljpTWWHTjnWKlAmzQcDrEW4XmeYRiUUsuykiSJkrjT6ayvrp2/eOHCpcv9bpcCoZRrg0mysyREUaaVrQgnVGslKQgKJMNAChQBYhnM4JwyqrQMY9M0N1qN6kSdaqW11pQopaIo0gQOHDhw8uTJU6dOVatV2zY1QBxFUivHsoESAi8sIPkBzEO+XgXaIT+8RDYGAEABEFBEK1AARELqD4ej0Wh7c3NtZbWx1VhdXT33/KWNrc3Jyek77rzztrvunp+fV1J2mi3HtBzHSZJECCGVIoRQzrBaToGINAUAqRSaGaxDUUrz+TyaIrRAnHOsq3POgyDQBIrFYiGXb7Zbjzz6zcdOP95ttkApUKCJloRIqjUhTIGtiAFUaAmUZBaICAVSSdCCglLKsW1OqI5TKWWxXh34I4MSwzCA0RfoIlpxzsvl8m233Xbq1E2Tk5NCiDRNHcfZSV7DC0r0w6NAyH3BxD/iUHTemL/P5XIAEASBUsrzPK01KK1Ag9JACSOUMLqTMExVFEWtbmt9e/3K6srllcsrV650Gk2/PxRRXPIKm5ubs3v2FauVn/r7P1Molygz4jgWaTo9MQlSbW5uOo7jeV6CNSwChBAKBLJFH5efrqpDXUXrwdonISSKIs65bdupFNQ0BoPBZ/76b5rr6+31Rhj6xLF53k4ARJI6AqjUsUht15GMpGkKUrmGtb6yOrsw3xkNtNaVcjkeBTnb2bt374XlK9y24ijQWjuOk8vlhBC+7ydJgl/Atu1arXL48OEbb7zxyNGjUgi0kZqAyQ0F2jAM/JNisQjjsh2mxRE2oZX9HqrDa5eXUyApJQBkZIZut4tLbxhGkiRBENi2bdt2Y2s7n8/bto2FAvzDXq+3sbHRabWe/daZjY2NK8uXt9uNUCSSKpMxi/GS4VChVJQ2ms13/PhP/Mi73lGZmKxOTiSpjMIw8oNCLs8Z830ftylBrsV3pUAAgBVTLKTjM8zgkkCSRlyTz33yr5588GEl04l9i41w2I5GlUqFjWIigJpGlMSDKAiCYH5mdqY+uTi/UK1WQy26vd7mxsbmylp7u/HkU0/d+SP3FCrlYiFnGAaWxpIkGY1Gvu9LKamGYeBzTicmJubn5ycmJu6///5yucwNA79PEseMMU0ArWkURZZl4aoKIVAF34IK9HKJRGTDJEmCXJlyuQwAGiCMI6KhVCqBhnazNTE5CVKur61tbGxcuHAB8zHNZrPRaPR6Pdt0GGOua5fzBRtkEPlKCKYJSxVLpE7U4sT0LdffcPK642eXrgBnluUQoJZlS6k45eVCKU7TMAwJJXpHP8iO8ujxT99JstJ6RuQAAEKIYZhCCJEmAKBNYlnGnunZW06eHD5zeX1lWfSHjApIUy1SoiRuMG6ZNqj5+fkbrz95w7ET+xf3GoZhFm0p4cyzZ0bd/uXzFy5fufLoo48eOHL42HVHLMvSWsdxTJQ2KDMoY0A4Y0qpIBxtbWz0u13XdS+eP3/w4MHjx4/Pzc3lSyXTsqQQoDQqTS6XQ2yHBgzJa8h3e8Nu/hshL6lAaZoiwQUt0Gg0yuVyq6urXj6Xy+U4ZWmaXjh3/tlnn33oa19LkmQwGAyHw263GwQBANi27ThOvV7XEoQQaRRLmSqTccok01Rqk1EdRQXLm1vcMz896w9HhVw+lVIr4JRqxkeDYaC167qakFdfS8ok0xgYk4Fgx0pRLRUnNI5D23JNk6+uLF1/6OjwyLnh8vr5M2crRxbzjuv3B3kwOGMiSZW5Q/ao1WqVSuXMs8+WK5XCRHVyqnZo/wHLMKdq9Ycefvj/+/E/cfK5WrWMKyClNBmXUqaIz5TKeR5nJJXCNE3G2DPPPLO+vt5utg4fPrx///7p2RnDsjAoSWQihDAMQymFzhcffHf3+HsqL6lAhmEAQJqmaPwR6ExNTRFGGWVPPvHEJz7xice/+dja2tr05KTv+wbjnHPbsvJebgcbEgCAOEm11iCVUIIwy7IMMDgPBYlSj1v1fJHGYtjqeNVSbbLe6HXiMNSmaXLDsiwlBN75N2TtxmqkCSEECANCAZiCOE65Je1UzuQKq50tngrDNFPQTANTYDhOBLLZ625sbJw/+3zOcv7+//pTQRgO0yhOkoLrbW1sPvHEE81m884778yXS2h7UF+phjiO0ySxbRukigGEEFopRmjoB3v37u31eo8//vj58+cnJyePX3/i6NGjk9PTXi5HNPT6fc/zTNPEgv9oNHIs2zDNF2f831x5SQVCKicmcNEdXLx48cCBA2Ec/fkn//zjf/LfHnrooWDk7927d3l5OZ/P23krM1cYZSQiVUqVS1XTMJiUURKGIKUQAJpKySSt54sO4U8/dpoUCj82VTMqJcMwhJKgtEyFbdsUQCkltX5xmhsA6E6E98qS2SGlFCHAOZdpYtt2mqRUq+l67cIjT1x+9rkDU7ORza7EvWjo54p5PUrjOFEKtMULhcKm76swWttq/vN//s+LpZLh2tPzc8cOHxFJurW2LqU8dPRIFMemscObNk3T4obWmhJiWRYDgqQzrTUS2QaDASMUpOq1O8g6ajabe/fuPXDo0PT09NTUFABEUaSUQiakYRig9au64O+jvKQCoSoQQvBqTdOs1+ta609/+tP//t//+zPPPIt2tdFo7Jmfl6mI/MDGmJZSoZXW2uQGpTQMQ380giShFJhnm5ZFtDZEalIQUZwmemnpYucBYdVLJ+66Y+7gvmq1GodRv9tjjFEAIYRp25rsfB8FwF7dhV0VhcG4N4MQbXKDGyZlkMZpEkbPXrpy4ZuPt9e3Tu0/vBYP1LBBbaqVIErIVCgmqGkY3FyY36PDuFYsN7a288VCe9AzTWt5ecUfjlzL3rt3ny8SN+dpJeI4BqWRpU8ATMYZEADgnHvUYYwBo47jrK+vVyqViWotSZIoTXq93unTp5999tmpmZmjR4+eOHl9pVJBIgqgQyBECkH5q1yA75O8pALhfs1aFLTWxWLxgQce+Lf/9t9+61vfqpTKtm132x2t9YULF/JeLpfLeUoCALCdSMdxHMMyDW5JKSFJhEziNE77kWtYFuOjQTfym4cX9tfc0sba8p/94cea241T9951/albJQFNwM65nPMoCC3LSZIEgIAmQEABIcAIKNCUgtKajHO3u7AS0RmpXhNFNAAlGqTWoBQxTcOxLRlFDrAoCD753z9RisC0DF7IrzW2U6mKxXIvCh2TM8qoZSVKEAG+71OhOGeO54ZhmM/nHcdtNRrByK8ulFMlhRBMctO0RZImMomDMNIatKaUxiI1GacGd0wLGAih+v3+3r374zhs97rD4TAIguHQD6Oo1+v1R8NqtXrLbbe+733vu/POOxljQRBFUVCpVAh7y8Ggl0skYkCedSYIId7znvc88PnPcc4NxsMwdCybc86R3cKY4zie41qObVkWUtABINUAAIyAZTCDU66BpbERS09oR1OWQq/d2W53wjTJV6vTB/ftu+u2/TedXDx4KF8pJ0mSRiLv5KimBuMaSKJlmqZagkHAAA5Kak6VkgDAOTcY5ktSDZIQkFICKGDACFEAhGrKmJ3Li1jQKN66vHzhmee2l1ajXr/i5fdMznRHg+e3Vpe6DSg4PJ/bCb8pJ5QCo5RShhBXEarBMAxQGgCUUgblmpJIpIQQqQTVO6uHrgcTH4xQoaSWSoGUUvv+sNcbDIf90WjU7/cZY5blFIsl13WHfkgpTaVYWVn5xV/8hV//9Y9oDX4wKhRyuCO+D2rx6uVV8YHQBTz33HPb29toVFHttNZJkugx9EnTNGLxTtEYHT9jDIgmAEQLrUAAaEU1UZSknJJUG0QDZ7ZlaCXAH/mNxhNf/erS+vLMwp49+w9Mz8yVyxXGLCl1pIlhWZZpGjYHqbCkQCjRWqUalFKapIJyygkzuCYclGKUE6IpEAqKAuGEEkK6W61w5LdXNravrHSX1mEU1J2C6+SuNLb6UeCDMnM56jna4GByBpwqrYSUcRIrSYA5tu04jmPZ/sAnGrSQwGh/NEylsF03SZJiPodxE+ccM0/YttHtd5GoPxqNsGCHkNE0zcnJSa2J67pa0TSRhUKp3+/blru4Z9+Xv/zVUqn0i7/4szkvpzQopd9qNujlXFgGHXAJHnrooY2NDcuy0jTF1BYAJGmiJeOcYz1cKZWmaZqmyGM3TZMRCoQoDUqTRGsBVFBqGIYSkGhhgBKuw0ExToIoEr02g5RrDdvd/vOXz9u2lyvUpqadYjFfLnnlUqla8fI5kxsGZYRQSghVmoHWBtUmkUxFoFKdSgDbtgxKidI6SnSYqDjVcUqiNOkMwnavcf5iOBiWiGFVJwqFQiCS9qg/DHw/CQJI034sKKRa2aZFhHKYwV2HMCqFTpJk1O33ZccybKTTg5QTExOmbXX7/WKxCEqicgAAZjd6vZ7v+1n7h+u6qFioWwDKcZw4TgEgTRT2uebz+SAMa7Xak0+d/tjHPnbHHXecOHFEKLwjPzgWKOsLRqvz3HPP+b7vuq7v+1ES4iaLk1gqqRKFmBqrH9h0p5RyLNs2OGOMmKYGAoQJQglQQikQSBVJuaKOYha3bSPpd1MtIQz9rS3V7IaGyZmpGTlncGFwcC3u2V4u57qu4zg5z8vlcq5lU6G4ado5l3uOcgxtMGJwanLLdGzLsoDRRJBEUqFSP5TDgPaCsDuQo9AizDTNJE2vrK9udFsJ0b00lDZ3LS/lRBKdCGEx7jAKQkajIElTBYRwZhiGbVmMGlijdTx3NPIHgV+tVsMwRN5Iv98fjUZpmmYBFNZ0LcvC/EjWCKu1xBqw7/uW6XLOR0FQq9U63W4YhvPz80tLl//kT/7kN3/zN7y8yxh5i+nPyyrQ7uIApdT3fcMwXNcVQiRRzBgzDIMzTrSWSkol0QJhIRNb8mIzcE3Dtm0TPGa5wCgBKgkDIIRSwZVSmhJtMeAWNZkkUsRDH8KI69h1vLzHGDcDrSORyEQpnQRxEPdYTyMXW1IgnuU6jpPL551Czsy5Tr6QLxVz+QK1Uu44jFtMAdOUSioEiFj02q1Rtx+mke/7fhIFSTwMfGFQbRshCApUyxQ0AUpJKpMwiUcRI4RyblsmN21mcE1AgubMkFppDY12yzSsNE0ffvhhALBNA7t8pqamsNRjWVa2qTDBIceCiE0pxbmJSRPTNGMhO51OoVAYDoezc9NCJJ/97Gc/+MG/e9OpG996UfyrwEBZEi+fzyOssW07iWIY95ZzSlW8M7cAsZEYlwkjRlPLTJLEBeIAJwYQxghhQIjmDChXRChNmUGZSQkkTMpyPseD1ExUOgq3trYUgdSkxLOVyajBXdd2XM+2LFAa74NrObZWLuic0pYAJxFeqDwmTJXSlEhI/DhOEhFFUb8/HPZ7g0bDH44opXGaJEpKDoHL7JwnGVEJBEkU9APGmOe4VAMn1M3nGaHcNLhpctOSBISSqZJBGAVx1O12hRCjoW9Z1t69ew3GGKOoCjA2MziMIZOszR6BAVogKaVhGFicdl33+eefv/nUqSiKhsNhpVJZXV194oknTt16o5Q/OBhodx4FL7tWqyHrz7Zt4e4AHa11ZpOz1YFxAV8QACWkVkCYUtQyHdO0mAGMGiZjmoDWRABIApozaViSyyhJuUkKtsMdywNuMBqniaJEKaWEgK4f9yNgzGDcYMw02ChsxrYlB4FwPddyI8MYGQ1mmQpAcSMlZCTiUZqGMvXjKIoinSZKKW4a3DEZtxMt/SDpBn1mcEIIMbibyxW9XM5ypBAm4zY3sCA1Go2GfmMQ+EEUxiI1TNuwrVKp5HleqVg2GOv1egBACGTcyN1cAFyc3Q2shBDOOWNEKRXHadZGzS3tOA6u82AwcF27Xq9/4xvf+MVf/nlKf3Aw0FXVbClloVBI0xQoyefzjuMopWQqstkD2ZJlJUyllCYkTiVQQVisqU+UZkQbDBgFAkwTCVQD1YpQoFRRrjTkynkQilCehLFQ2qA0CQG0JIoAEGaYhFFJqNIK6aCKszBJfdHvjXyTmZQQqhlhzLBMYpiK8ZioGEAyojk1TZPlnVTJdreTBgMFQDnLFwu2NrXWnDIKhGhtcSOKIr8/oJQGQYDXIkEzahSLxdnFBS+X0+OgnlKqhEqSJOd6UkqhdoKJbCkQQSKvEg3zDotj52USNSlN02KxGMdxp9fbu3dvo9EwTdM0Td/38/n8c889J6V+K2KgDCmjZNSZ7DGCaCRycM6LxWIQBHEUYcq4WCz6w+Fum5wxlHH5IkEFCKFGURIPWd9xnEKhkC94iY4xtySlthixuOO6hR2rznUftHJsAGBEm47NQVNCqFaCgGQEGM12M6WUE8YpU4ynjJmEccoMakRSKiGliAGbrRIVx3EgEmVxK+95ps3dHDU4pXToj/L5PAUyHA4ZZUqp5fWtKIoIIdV67bobrk+kSKOYMbZv34GNjQ0n5/lBECapYZpxHG9ubnLK9+9ZNBlfXl7mlmF7ru/72GrIGOt0Oq7rKqUGg0GxWCSE9Pt9ACgWiwi0gyAAoPl8fmtra2Zmxk0FhvpSSsZJPp/v9/thGH7uc5/7sR971+bmZq1WQ8WK47hSqeAivFk0j9fQF4YpadgFrrPQFNln42bQnYiMEKKAEk2kglSDlokEohIFMZGBcHOeSW1iEE2JJDQVCpRiwABAEpJyKjgmkEEqYgJwIESDYlpRopkWWilCAIjJzUQDIYSDploRpVQUqjRxLdti3OCGFlLFKQXium7Jqw6SMCWgFdim5bqulDLxw0GzA1qPRiPG2PzCwoF9+0uVcrlWNSzTyec4551Wu9NqRWkyPTfbaDTa7fb03Pzs3Jyb8zbXN1qNVqfT6TRbUspcMe/mvCRJcKHiOLZtG/k9pVLJNM0gCAqFwmg0On/+fK/X0xrnNOQWFxex5o+Z23Em/QXW0/r6OgBkPEYYF7zfXHlVCoTajQzR3ZYJFQjJU5RSvGwAQGXSWGXQWkoJqRJKaakJpGGYDiEsmMqjyqAWJ4yBllKRhGgtOOGEU81AA5cEQCvQFLTmmjKthdSaEk2JwSjnnBp0XK8ARUBpSTillsWZl0oVCwkiogQsjzmmBdyQDEzuMCmDNGhsbw+HQ5Bqenq65ObmZ2er9XqpVJqYnTZsqzccMMvs+0PmWPWJCcdzq9VqY7Pxtvvvv3jxoh8EEohpWZeuXO73+8PhMAqCPXv2CCESmfb7fbTZyGVwXXc4HGJaf319fXl5eTAYhGHYaDRs29ZahlFYrdRnZ2c9txAEgR4nssedQDug+8yZM1qD53kwHk9jmuabPtrgFRQoA8WEEMyAodJkkygopdm8pt2kCwQBTNNEKq21EFJLoagGTRIQXAvBWJgox0hc5jLD5EAoEA6MEyoJVUC1VgAa1I5vVUoRDYSM++kJYYowQkeBrylhjBFGFSVaailjAPA8x/Ncx7INxrVMEz/s+KM4jIZDnzHm5XILe/ZMT0/XqtU9c/PddqdWqdRqNT8MB6FPKQVKpFbY/2V6jhnFhVz+yoXL/U734rnzmpL9Bw6FabK5uXnpwsXZ6dnp2Zles00pNWwTdxrGYpubm5cuXWo0Gq1WKwgCHFEFAJZlYSJRSqVBZ6OJWq2W5XqYaURGKN4CzvnZs2d7vX65VMBECYYvbzpP6JUtUFaV9DwPOXJXWSDC2O6aK/5JFpRxBUIrJYUCDRSwliGIHqgw9kVo2KmprbxpmYZFDJNxCtoghANhGmKldtSI0kRJgzFKCSFEg05lmogUACzX0VoTAtw0bNvG3iul1HA4HA76jWgjiiKiwTGtXM71Cvnb77q7Uq/VJuqO4yDf0isW/TgSjJiuoyhpD/tTlbJTKqRaFmXVyrmcc9/3BWGj/mB9dS0c+m7OM7nBTMM2rUqtGkRhFEXT05PD/mAwGmDJIkmSs2fPbmxtzE7Pbm1twTguwUTauNBGOedc7AwcqpTrGS0426JaA75sc3PzypUrlZtuwHXerWRvorwGDIQKpHdNYQJclF2TK3daJijNFEhrjQ2hCrTSQBSF1CCEy1hGHFKiwNKOMkyPM64p15wSygjTzJRagxSgCQfNABhIojQQqjUhxOSmpviJhHODMZaIuNPpRFGAa5omieu61WplemJyZmZmsj5RLpcdxxmMhoZtKdCjIFBKWZZles7s4oKMkkKl7KTpVqcVJXF3OGAG1yZnUgZBwDmnUh8+eCjvuNP1iUSky5cuJ6AAwHEc1/U6rfaXvvKVMAyb21vdbjefzzcaDc759OR0s9n0PO/kyZOHDx8uFouO46yurj788MMbGxuMsSSJtNbD0bDVas3N7nFdl4xxAu5DNGbIQ3/mmWduuvEkFo5234I3C0HDq3Fh+IAQgpY5lTvjc3a/JkM/uG/QPmG8anKmtFaUgNYEDFBEC6YlEYToBBTIOI5HekQTnRiWZRu2xU3NTeCUUa4VMABGtUEVpUpprjRo4JQSuhP3hUEQJ5AKEcWBkuDknOmJ6Wq1OjM1VatUJyamco4rkjQKQpUIPxlYlHEJsZQGgRRAJEmn06mWK+1Bn26sc86dnFeqVASFUqXSD0b5UrHdaBqMLV+8WLbzyxcvj0ajURhstdpdf7jZbg5Gw42Nze3tbc45KK2VzDlup9MBAM/zbr755nvuuQfZvfl8HruOnn766aeffpoxNhwOKQXTNMM47na7SZLYth0Lma2kUkprgmVXy7LOnDkTRRHiaARVdDzX8XujHq8srxZEoxverTcoZNxxko0H3O2SCSFaUsIY0ZpoSjXVGqQCBWAxKoiWUikVh/4IRJqYhp2aOeLZxCDM4oQTAhSIJoRSKrRilDLGmSZE6SRJwijCxhfXcWq12uzc9NzcXLVez3veDvtMSCnTfr9LgRGiKOdEy51OUK0pY0yDAi2lLFXK2TfOFwuEsEF/lCuUms224zgbq2s2NU+ffnKmOvHkY4+HYRjGUd8P1hrbAz9OlOamYTlFKVPKtAFKaJUvFdNE3H7nPb/ws7/gOI5hGLlcbnV1Wcggl8ttNRsXr1zWGrhpUUZc1xZ9SNM0SSPTsKVMGbN3Vk9pAMoIUEod297c2EAFQvCAjT6vXwlej/BdvvYFQU+MtyGDcqZpep7nt5pJknC607CRJAkoRceUoN1bYYfjwZhMBZbotZBKq1RJHDQFQBhjqUhoKjVJIkGnClM9v29LO1csUMMQUng5j3IOlDSbTUmpn0iqgVJaKJROnDg8OTlZrVYdxzFNU2sJAIyTNE5iJWA8zU5qKZOYEG2atgYpiVIi5ZxrqglQqjUAbG5uTk/NKgJLS0uUUtPJT9QmZSLTILnw3Pnli0ut7da3njnzP85/0ss5W1sbYRgaTi6fr0epLFWn5hbmL1x6ftRt1+YnO63t6Xq93W7PTc0fOXp9r58WCnP9fj/0R/1esNVa/etP//UXv/RgKiRlluk4Ig0bzTahWmt5aenyzTffrLQArbUmpmFoQaWQAIoAWIZ5+eKlYX9QzBeUlGmc2I6jlQINoMbUie97qew16G9GeYax4Xl5/J85NcUoUZRqJokERagkSimpJKMMiOacKi2CKJVSCpWWSqU4TWzX8TyPUsriOBn4YRhOTU3lcrlisTwzM1OtVk3TNAxTKYVZFgCtlAKNui6VUtk2BQC35GJDtGN7WfoxjmPHy7FxCcJ2+1prQjmhdHl5ud/vt7tdyzJFGj/80EPD/mhtY7M7GjR7LS9nHT98slyZPHr0xurEnrmFA9MzM089c/q//vHv9/rbjLE4Sebm59923zsOH7kuTtIvfvFLm5ubS5fPbbVW292NRPi93sAwXc55IhTZIVqCJiBlKkQCAECUVpRqkABEaQ2EAoAEmaSXL19eWFhA3r7CwSO7IOn3X16tAqEFwrgxK+7sYOpdr8len5V7EANmkQXePCklVRQAUpECAKMMc9yGYXQ6Haz5m6ZZLpcXFhZmpufy+bxhGI7jmKaNowiTJFFj3nEURVIKADAMZtu2aRqMeUkUEkKwOanXGwgh6vW6EJJSMAyDEOY4XpwmUsp6bRLnxfR6vSCMOefNZjMIAqW049hKC8wmN5vNfD5/4MC+D3zg/TMzMzOzi6aVl6lRLNeB6pUVD9LQpjQAEgbBwQMHfvQdb1ucP3j+3KWHHn7woYce4obmppTK9/JOoeikQhEqDSBCAqWUwA7ZPgxDAjs+gbxIM6SUjz/++H33359hBnyAYx5evzZ8F/JytbCroBkyE7JOJaT+ZAqUlURgl/aQXYPi6XhuNz7AWgEAUEJx7bDbNYqjifrE9PT0sWPHFhcXp6amXCeXpbyTRIRhGIahEMLzcqZpIrvPMGzDMCiFNE2D/kgIYRkmgDIMw/f9SqViWVar1bJtW2saRRFjRrffc103juNHv/EYIURo5fu+6+UnJiYcx+GcT0xMLi1diZNoamqKaPr0t75VKhff/vZ3njp1inPTtFwplBRxEg0vX778lc9/enP5om1b9XKl3+93W22ZppSp6Zna9FwdWCJUwikbjkJqCNO0tQZKtCJEC80Y05IoJbFkm3cLmIPOqoqEkDGBkT355JNSCIzL3kTDk8lrsEDIbsnSP0opyzCllLsHdGSXtDt8Q3iEoRnWv7LSNKJgqSQARFEkpKjX6qdOnbr11lv37t1bKBRwxkXW5agUMMby+bzWmnMDO/aVUlrjW2lCiGN7jO8k63CDDkejUeBPTs34wbDb7fZ6vVaz4/t+o9HwoxBLS56XNwyLEIJtgVrrOI4R5zHGNre28vnCietPzi8s1CYmO52OSNLNze3Tj39rMBhduPD8k6cfzVlMq9Ti3DXtbqu9tb0xMTFBKD1wcLFSL/a6DW5orSGKU8YoAJcyBW0AenmllSRxHKMCwYuK2RjEWJa1tLTU6XQqlQrjHF4JRXwf5FUxEvFibNvG3HlWbcWExEtNeEFVy37cbZbQD2bHD2AJk3PuOM6BAwduu+22I0eOIExJ09Q07Hq9jk3yafpC3gwnhePYDdM0OOcwzluniaKUxhBTwnu9Nmg68EcPff0RpAtGUYRVpHKtWq5VoyiampqilKPBRBq853nNZqtWq8WJ9/jjj2utb7755ve+972Tk1MPfPbzjz76aBqnzWb77LNnQWmZhlE4mp6p9vv9XrNt2jalTEtlWnzQH7k5RymlQLu5fJ0IpVPQREqphbBMO9UppQwopCKN43Q0CmACr0+hcSeE4XVRSi3L2tjeunz5cn1iAld4J6XyFgzjd9di8BlkF2QWCL/9izMQ5EXt6Lv9Wuba0zQFABzXDQBxHGMWZM+ePfPz84ZhYOuMUirwI0yrGIYhpUIeEqUUXZiUAunrWepSaCWEGPUHrVZjZWWt3W62210hZa1aRUPo5PK5XK5cLnueV6vVDh46NDMz0+12W61Wt9vFiZy2bRMMni077+XSND1+/MQ9994HALlc7tOf/sznPveAY1ie4+ZdV3Kes700GOVsO4gV0TpN4u2NTZNbjqP2LOyfnprf3NhoNPthEIAC11WFXEkCI4Rh3kOBBADEQNmSKiUwDY0cBwDNGEvT9OzZs7fddhvuPdM0gRC9a5L691legwtDH7xbLb5jWih7faZqL34BbiacbYhYCpkPs7OzBw4cmJ+fR1oxEoqzTzcMwzQZJtBw+ZIkweJGmqaDwaDdbjcajbXNjXa7jcaGEOJ6nud5pmWFUeR53uTU1MzMzNEjR2bn5iYnJlzPU0rl8269Xi8UCkEQdDqd7e1tIcTU1NSlS5ekSJAu6Pt+t9s1TbNYLMdxOj05y4jmlPY7TS2iuZmZ5tZapT5t2XYQJ93h8NKlS1EYm4ZbyBOD5ygv2JZrG66GtOjl8/litzkIkxQwoU4EwM517V5A2BkOC5iqpZQopdbW1tC3YmTz3d/8N0JeGBeSYX495kMhXslCdylltVrVWnueF0WRaZrdbtd13Z0O9u9kRXcbsN0fBGNQhQ6IUpokiWmapVJp//7929vb1Wo1l8uZphmGIbYmaq0Hg8Hc3AL6Ms55FMWU0mefPXPlyhXTNJvN5vmLl3K5nG3bw+GwXK2YlpqZmWl3O5bjeJ4Xx3GcpqVK5QMf/CAonS8W+t2ekMrzvNEoevrppycmJmZmZg4cOPDMM89cunRJSum6brMxIIR4ntdsNjnnrutGQXz3Xfd+4+FHJutVbtCJyVpjY41Qnc8VwzBsdlqlaq1UKgVB1G73q1UXtHXk0I2ra60DBxdPHDs0M1uvlSuLi4t//Zd/898/8WeEqDAamQYrl8q9XqfRaHQ67Xp9wjSMwWCgNcFIBZvLosgvlUqnT5+Oogi5KFprKUTGB9qdB/r+JKlfwQJdZWOys0XId/rtq5TdAWpW+sCYAifiAAA6ODIuymY0kiiKcILMaDQaDkcbGxsAGuFwFEUHDx8plUqDwWDfgf2U0ma71R8OUE07vV4wGh09enR6ehqtFyGkUCr6vn/p0qV2ux1F4dzcnOd5qCU4XYVSOjU1tbKysrS0ZJrmyB/YtpvLFebn91QqtTAMojB1bQ6Mbm41DMaLpWqlZkdCBMPg7Nnnl5dW9+491us1Thy/6eZb7pyeniiXHJEGYehHoTx44NiHf/pnWt3tJ556/Py5s0ghklJGUaSUZPTbuD5aIWRUhJDBYLC1tbVv3743ncsBrwZEZ4LlMNhRoJ2W1u/uGjIUhbYEABDEYKAnhEDaA24+fB79iBDi/PnzX/rSlyilhmFubm7atjU1NbV//34AWFjce8MNNxw9dnxxcVEI8aef+MRTTz2lgIAm5WplcXHf29/+9pmZmVEQnT17ttlsYgupVClq8OGjRznnpkmLxSJjDOH2qVOnhNRPP/OtwI+2NjbzbikKYrRzrVFPq8gwcsVKxbHsi1eWDLeimZFzPU2IH8af+synt7Z79fqegwcPFwtlylQcDQmYnmtsbm0Uy7VbJic1jYNodPHCuSRNOGWUUjzkhTNECC8gUSEkOoRut3v+/Hm8ZDUuA3yvLc1LyStwondjGkKI67r4WO/i29NdkdqrF0wnZtltxDG4EJzzMAzxV/i2OKUbrZSUstvt1ut1zvns7GyxWHj3u99977335vP5Yrnium4QxZ7nSaUW9i5OzkwLJZ944olGo7F3794TJ6/PuV6/31dKXbp0iWpwHMe0uG3buVxuOBz2ej2ctoZ5y8XFxdtvv71SqXzms5964oknnnjiietP3DQaBblc3uCWYViO68WJT6hNJL3/be+5cOFSu9WhLDJNbrvOo48++tg3n7rl5nvf/g5x9533+H6wtr52+cr51dXl8+fP33vvfW97232apgsLi/lcsdNNGWWEQBAEaZqaBlITr45kTdPs97vPP//8j/7oj2bsmtd82984eQ1hPEIB2NF6ppSiY77Bd/3xdKc7c4fyEoZhv99Hnm+mWDCmp6Hjm5ycrFQqtm13Ot1isfgTP/ETH/7wT0mpOeeE8TiOZ2frz59d2mpsHzp05NZbbyEUfu/3/uBP//zPGq2OJiyXz0sF1dqEaTmWySuVitY6DENCiO/7aSqEkOhJMdW5srJ66dIlmQolZGNre6JezXvFVqM1tzC/sHd2z+JMfbJ2/Nj1x667YXOj85f/46+//tBXL126EMRBIlLO+aDfeeiRB7u95le//PmtxubG5mq32wYAKfXBg4fDOOKGnpqaqlar7W4zFSljNAiCMAw9t5CxYmA8GsswDEYYY+zSpUuj0ahYLL6JbGiUV1CgF9CZ1gCAFkgpBZRprWHXwbbfnZCxCmIeqN1ub21t1Wo1NEVok2AMifCjJycnXdcdDAaMsX379l533XWMMdu2Ll++bLue74f/v7/+zNAf+VH4tre9rdPtJUnCLXNqakpKub29PVWv42EDURQFfmrbtuu6aNiSJHEchzHGGM3n8+vr6+12e3V17amnnkySxLKM9Y21p556av++I6Zp/+zP/lypUtizOJOqNElVL4wPHb/h1sZwZmHfxvryg1/6zKULz01PTRimFmJw4cLTV66YaRoTApZNKWUa6NAfKKWCIKxWq9VqnV+5SEEbJk+SBIN5TJxmIAF9eqpSz/OWl5e3traKxSKhFJR6E3XoNZQydmMghCacM6UUvFJJ9TteXvYkVvullLZtN5vN9fX148ePY4pyJ0YjPFNljAQ9z2u1Wvff/7b3vOfHfd//kz/5E8v1RqPRmWefu3x5yQ+i2kT9yHXHJyemXTcXBK1arVYul4GS5eXlg/sOOo49NTU1NzfXbrWkxAvhO0OAtQ7D0DB4uVwuFYtxFG1sbo1GoySJgiB45plnfvd3f/dt97+rVKpMz04Vy/neaGjYliQcKPvLv3mgWpm4/Y4fKZdcZuhma2Mw6sXJaKJWFyIRcaAJKC3TVDFmEmouLy+lSog0zefzhULBNE1QEjTJTm7AfC1ko7FAU0rSNHVdd2tra3V1dd++fcY4M/dWzAO9+MZ/R/YJHrbCYOekmav+R+entb5KyzLDlp1oQSkdDAbdbhfGY+exUsGZiaYoFqkWolgpT0xMbLeat9955z33/Uh9ovLfP/5//8Ef/F/NZtN1vFyuMDU11Wg0nnriiaXLl+dmJmenp1qteX8wVEplvX+cc8/zBv1+lgHXUg0Ggyz6Y+NdIdKkXCpsrOpKqQSaP/7oNy+fX56e3fOPf/V/tyynsdFodZbPnL1w/sLlp556/u9/+OerBReYdfS6Q+VKYW2lUa0VCJcqjTWTtuUQwpRmnFlRLNc3VoNglHNtw6ScU6VUEkcaFMVdB5JQQojeSa+DBAmEsDRNczl3MBg1m800lYYJby4M+g4KQXbNJs64z5xz9McmN4iGKIps2w7D0DRNBVpppTXRBJQG/B8oASCajE/xwScBYNdxRui/sMJqmmYURfV6fX19NQhGhDBCCGemFFJqqTSA1oTyJE3TweC6E8dPP/0U5dTL5TY3m3fedc/nv/AgHqDh2uaw2yl6bj6X63faFoe19WbecY8cOLi8tsy0SpOon0SObU9PTa2vrfm+n8vl0lQWvFypWFlf3zywb28QBKtLKyoVfr+XhoPYH7i21W52PLfgWLmL5y/5w+j//X/+G27QKI2a7Wan19VaK4DW9vMLe+5qNle4GVMuNVWaKKkF5RCnQsUBo1YcxWk6mpqebzW7Vy5dOH78OqXU/v37v/jg5z3XS0WiUrG8fKVer3LuxUlgO/ZoNPJcb2dUHDNtwy7lS3/zV3/zoQ/9pEokNwwh5ItPiZJagAZy9c59SfnuorlXS2lFwXkU2a+ydA58++kZSHBRO8cOAsDOuYVXnQKRGd4sdQkASZL0er1qtZ5RRzSCaAAM4w3DKBSLjuO0Ou3+cEA5s5njuq7SOm/b3W6XAaem5Q9HW6vr/Y5vW1bByzmW7dnO5tp6HMdTUxOtVkdKOTk5yRjDkzfmpmfq9TrVqtPpjQY93/fTODEMY6o+sbm+2mt3qAaLG/1O17E41Wp7a8P3fT8cSSVM2/Y8c+gPVq6cb2yvWY555Mih644dWV1Z6g99mYpisaA1uE6uWp0M/HhttbG1sWVa3vr6+j333smYrlRLnucMB32lBAWI4zgVsVQmpaDUTp4wCyyEUEqp4dBvbDar1ap6U8e+vMJ0jquecV2X7jrr+mUsZ5a9GOehX/h/PI/u2wB4ljD0fX99fb1WmzBNMwoTzrkiREppWhZ25QFAqVSqVqvr6+tSSoS9U1NTjuOUy+Vms+m6bqFQaLe7zWaz2+2WqhXTNHO5XBRFrVZrMBjs2TNBKS2XyxMTE+Vy2bbtfD5fyucsC5pbva2tLcQlSgjXdftRGPiR74ecU8PgUkWu5w39lgIqpTRMajNHU6IURFGyvLTWbPTmFuY9N18uTkvBcjk3ViGjtsHp1lansd0vFqpzc/O16tT8wt5crnDlyqX1jeVvfvNR3x9RSjk3OaGMkzAMkVWys4s0CCENw6SUokPv9/tnzpy57777lFaUUqymff/l5QZM4YOs7KWUyuVyOKkkUyB88DLv8IoKlAXqiKaDIFhZWTl+/HrXdQM/opQqvRMPZqXcXC43PT197tw5rBwlSbKwsIDkDXwNpdS2bSzQFouu4ziTk5PIJn7kkUfCMDQMo1wuz8zM1Gq5bjcUQsRxOhqlcRyXy+Vi3lNKXTh3bmNjo9lsl8vVm2+++fHHH2+3G4xr1zNGoxS0JhQIgzRJgjixLMs0XKWoksy28mEQEDBBG5XyZGyHQRBwah89snj9iZuOHTs+UZ9x7FyhVI4ifxQ0T58+/cQTp5VSOc8ZjUaxiE3DHI1G+XzedawoSjBpsjOBknGlpGma2DZ0/9vv+26maL9x8goWaDe811rn83nOeRzHO6zCV8oAvYwFyqqtsAtQCyEA1MbGBvb/Zm+CVWgAwHDJsqz5+fnHnzjdaDRyuVyapvv27bNtu9VqGYbRH/U556Zpd7vd5eXlYqUspWy1WhiuP/HEE9vb2wcPHpyfnx8MBsXizkS6dru9trYmk3hqairn2kg9SJJEK/KOd/zoyZMnPvrRj/63//bHrmfHia90LBUoBZxaubxXKJcYtfrDYWO73W4NXadkcGfv4qFKeTLwBSgWBnJuZuree95++213lko1kUrDcJQiQshWq3Pu3Lmt7a1ioTg3N9fpdIb9bhiGw4Ffrynqca1jSneIeGMiosLtceXKFS2BGgRZ5m+KvLICwa7yZz6fz/ip6JKvSlhn8opYTI2nLOpxLwcqEGNmu93u9/vVajWD8IZhCCnFuGpICJmdnWWMra2tHTp0yHGc+fn5arU67PYdxzGZhZq9sbHxhS984blzz2utv/jgg7PzM6ZpDro90zQXFxfr9frm5ubzzz+PmV+i9GAwmKhW9u7dWy4XgQGSr5tb27Vabf/+/fV61TAM27ajKKSUGJwqCRogTROVSpGGfhiGkbhw4eL1J28olgqTk9PlUv3ipfOe7diWd/DAkXvveduJEyf9UdBsdv1ReHlpeXt7/VvPPrK2umGZbpKkjUZru7FtEKI1GQ6HWbMURqmWZcdJaFlmVuRZXl7u9Xrlekm/eZOnXhuIRsCx+1cvD4PgpV3Y7pdl4V6apq5rI5cjjmNM1WsNpmkqrTE1jMtaKpWmpqaeffbZO+64w3VdHGdRKBQIIeVaZTQaEUKEEBcuXGj3unv37sXkJKV0enr69ttvP3bsmBBiaWnp3LlzO1OzDBNN1GAwaLcd27aRL0Go/spXvvLUU0984QtfiOPYiBjnhmVZQqs0kf1BIGVkWE6lPHHsxIliqVKv19bWV595tnv69GNBEFDCx0THqNlsP/nEty5fXnr6qWfOnDnbane4QQbDppfLv/3H7nddezjofe5zn0vj0DR5EERKZRQJrZS0bGM46pvmC0XWlZWV9fX1YqVICHmzJti/8pDN3c9gNeqqEkeGl19TNmI3+sFlQguEbGu0CrZlCCGAUM55FMdJkmTzKBhjhULhqaee2tzcpJQ+++yzq6urOdsdDoeendve3t6zZ2+5XDYs88iRIx/84AeHo9HH/ui/pmlquV42BB5PRcFPNL1ctVrlBGDMDsjlcsVi0XXdhx762vr6+srKSj6fHw6HjDGfhsC46+YWFhYPHz5y4uSN+/YdmJ6ZMy2bmdbZ55///Oc/86UvfSkMglKpZDLebneff/75P/zDP1xd2QjD2DTsNJXXHbv+xPXXra1f9v3Bwvz+qakJRuHSxeWL558L44ACvQojGgZP00QpR4+bNtvtdqvV2jkG6jXe+DdKXsECsfGQaACglFYqFUIIgmhMmJbL5SRJkGz/Hd/hxRaIjPMNuxkd2KuLfeOmaZ4+ffro0aMGtxhjQkgMvjK/GccxzqzsdDr/6B/9o+PHjz/95FOj0ahSKFmWFQTB1NRUHMemaRaLxXe/+92u61aq1WPHjj388MNeoTgcDofDoeu69Xod40os0YxGI9vg/X6/VMjhsYeuZyslCoXc6qryPE8IkcuVKKWmYbd7PcfO/dzP/m/vfve7UyWjKMrlixcvX5qcmd63f/5bz5yOk9Hk5EQcx91uH7vrt7a25ufnlYKN9S3DsN773vcKkRw6dGBp6XKtOv0v/l//5z/4lV+cnV1YXV6O0kSDXFlZxabEIBi5ruP7Qzx0kTHmeR7ivwceeOC+d/xI4IcKZC6XC4LAdd0wDDnnUgsM4q66Iy+V73mtxAp8n5dEwWRXy2l26JNlWQhNcHAJejSsZL3U++z+opnpuupBdgGZPUBeKQZWGe5ByIVoWil1/Pjx5eXlK1euTExMvPe97z158mSj0cAafhzHWMDHswqx8oUVEhwJVauVsd6ODf9YHcucKaa7KpUK59y2TcaJlGmSJFJqJSFNVBSlkxPT73j7u6+//gbbdhG0bTc2GSNf/OLnf+v/+M3txqaXc5I06nRb1x07WioVCNH/4B/88j/+x//o/e//n44fP/53/s7fcV37d3/3dzc2trRmTz7xTLlc/frXH+l1BwQoJ5wAQ0Km4ziWZY03285+w/mvhmG0Wq0kTjNSQ2a0MqP+mnTiu5CXq4VhbgZRc4Z5ccgLtjljW0U2COcl3gi0ztLRoLWGXY4vexVeOeprkiSdTmc4HO5ddEajEbdstNhs13AZxtjRo0c557feeut73vOeo4ePPPbYY//6X/42G5+fijwyPO/NsqyR79frdcdxCCHNZhMAhsOhaZoTExMXL17knBNuaK0ZaCEENhgVSjnDMDRIGGfnGTNAUyG0kpAkApXvmWeeWVlfabVan/rM3wgln3jqKcdzTZNLmdartZ/7uZ+75aZblpdWfuc//qdPf/rTQRC9+10/dvS6gwDUMOnI73/5y18+efKkbdsHDx7e2lj/2Z/78L9//jmhFQMWxzH6WSRtIm8JLxD7ArTWq6ur29vbMzMzCnBk544CUUqV2hnR9Aaqy4vl5TBQphOZguNJn1prVKDBYCCEwPltLwWArnJhuyFU9kH4IEsFJUkSx2m73c4aEREbZd8KT4YXSlYqlbvuuguTQDfffPPi4uLy8rIW4LououDRaNRut/H98SjJVOnRaNRqdYfDYbVaLZfLeDMsbliW5dgW9rAahqGESJIE9M6kH611kiQEGFJLfD/5oz/62Gce+HShULi8vLSxtVEoFIWUoPXMzMxw6EdRdPDg4YMHD/7rf/2v3/++//m666772tceEkLccccdURh/4hOf+Ps/+3PXXXeEELZnzzyj0O01p2cmtZYAyrXcIB4MBoNms0kpZYwwxggwMu6zw1ISIQRnvszNzY2PdoBd9I831QJldyvDQMPh0LKsEydOPPLII71er1Qqoe15+YTQTrAGJLNDetfzsAuDq11zTJNEbG1tRVGUvfPuFUGnlvfcarWKRfuLFy8uLCwsLi5euXLFNFg2/URKubW1FYYhANi2XalUmp1ut9vFgXMYdk1OTnqeVy2VC4WCZ1umaVoGMwwDO7CSRKA3UUrEMbYQmYZh9oaDYBRFq0G9PpHP5/c7+wnlfhjsP3j0ve/7n/bt2//ss8+ePfNcmqg4EsvLq/l80TCMarX69NNPXn/9DUeOHi4Wc4eP7Hv88dNJOuKU3Xrbja5jffzjfxInQRj7ACpJYpwuzbmlNdGaANAsYsVgPgzDs2fP3nnnndxkiE13Z4CVUt/r6P7lXFh26C4AoFXP5/Pvfve7H3rooUcffVQp5boudpR+x/4eFA36KquTve4qDITPIDWYMbaxsdFut3Ec7O60EzJcAWB2fq5er589e9a2bU4ZEhQZY67rRuPBHYZhbG5u9no9x3UXFhbq9frqxibC/1qtEAQCsZRlWeVCMZ/PcwKEECUSrXW73e60e0EQCaHQg1EWAxFK6yRNcnnTNKkfRuvra7brMWYJqf/z/+ejkzOzZ5573nOLp26+/TN/87mHvv7o6somJafv+5EfQTtKKT106IDjGKkI77v/7n37F86cOfPAZz5bLOXrtfLZc2cYENexDYMbhlEqlXK5nBqPLgUAnN2JCA9B0pkzZ+I45qabbfWd3QiakO/5VNdXG8ZjI46U8oYbbvjwhz9MCDl79mwcx8gEfbEqvCAvjYGy/3d/EKJ1w+CNRqPRaBw8eDCIkwwVov/CDE2z2VxcXPzsZz/bbDbnZ+eSJJmcnMRZC9iUyBgzDY4VsVq9nqZprVbDG3DhwgXO+Wg0KpVK5XKZMWYyTilNk1gIEYc+DkkVQmhFlKTjRiKpIYn8OIqU5RqFfMkBo1otDEeJELJQKF++vKKJ/Y1HTk9NrWut263BieM3nX32+QMHDszNzrturtFoTExMfO1rX3nm2adX1lbuuOMO27affPJ0Iv3hKB30G/v3LcZBODs7iwPIy+WyYRhBEI7beXdQhGVZaFZLpdLFixfDMPTybsb63VEg8j33X/DyCoR2BYVznsvl2u12vV7/4Ac/2Gg0zp071+12MVTJcqbf8X1enE968WswJkSzh2UEDLYNw1BhhPwyRSnDk4uV0gDLV5Zuu+XWr3zpy5vrG6VCkVE6OztbrVb9UUgYFUriwRSj0cgPglzOOnP2XKFQMCir1mrPPPX0cDjkhL7znW9PkgSkHga+Vir0R2EYBqMhGjzDMAhnQqsoSmKRmoZh5zyQwo/CJEnCyLfsXJIkGpRS0Nja/su/+B/Hjp88e+aslurw4cMmp3Hof+B/fv/Zs2evLF2en5997kzn/IXnnnz60cmJqb17Fh555Ou2ZSZJNDM9NT8363lekkT1ShVh5XA45NxMkiSKIhhvM1zqzALlcrlWq4VMjwy2ogKR78vJdK/cmQq7ShmlUilNU8/zPvShD3me9/GPf/yRRx45fPjw8vJyrVYLw3AwGMzMzKRp2uv1diYxfPsJe7sjzN2lkmxqpOc5vu/3+8PJycnLly/fcMMNRGmVCkYIZYwBSbWkQKjBpyYn0ySpVatPP/XUDSdPyiQ9efJkFEW9Xo+Zhu3lZubnarXa/MJCkiQPPPCg49lf+MIXtNZXLl7at7h3Y3XNNNhXv/KlPXv2aK0Hg34cRUkScUJ3mrDiIEkjxokCCQwMy9RahpGgQBh3beZIKQM/ViomYHDKrJyztbnyE+9592S95Pt+NGovLkw+8JlPvu997ysWrNOnv7m6egF0rJWerJQtk1Iirzt8sFwuO66dy+UsbmBUK6UaDn2llNY7x0XatpUBxFwu5/s+Ywyn2cdxPBgMPvnJT/7KP/xl0zQ559g5H0URJfQ7YqDvLt/zUnmjVwjjYTwnSo8Pvk+ShFI6Pz//9/7e3yOEFIvFz372s4uLi5ubm0g2XV1drdfrdDwsEUdhZoKu7sWZ6+wZTPPgoVJYD6Lj6VVxFEtKHccBAGxELJZKM5NTaRQTpTnnGxsbt956a6vTs2375lO3zszM4GC5fr///PPPP/jgg3Ec16sTpUIRAHrd9uTkZBiGly9dTNOUc0oIsQzGTU4ZAFGUgmEwhVExZ5ybUqZSpnGaIFXSMCzLNKSUIkWzqkAlK0tXOOdLS0vD4fDChXMDf3Dh3HO+70uZKlCVcqler1cqlXw+b5oG3vIslxbHMezqIPiO9+Wq4AMADMPAtjh8Ho1TBrTfNAyUfUUyHv2MZAksPNm2Xa1W3//+9y8uLjLGvvzlL+OG0FoXCoV2u10qlXZIzVi72RXGw7cDoEzws3ARXddLkqTZbIZhaFk7o7WxjpEkCX4ZAAiCYGZmpt1ua63r9dpXvvK1qampD/4vH3IcJxU7SZFerxdFEWNse3u7WCxiWX7Pnj2WvYcQ0ut1DI5TZh3TNF3Hys5JAQDGGFbKlFJCCABtWQ42HwZBhJBfCKEVU0rFURil0YMPPmiaZqfTwmigXChbllEoTGLrdLlSxKQl5zxNk2w18P2zFM7LYcrxQuEKIDZdWlryfd/zPKUU7j3DMFKZvJ6GmVcpr9yZml0V3TXpJwgC7Nr8sR/7sb179/7mb/7mX//1X8/Nzdm2vbKyksvlsFt5Z4BQpjQvCuOz/zNflqW8gyBotVqdTmd2dh5TQbtBAEYiQohKpfLYY499/OMfv/322y9dunTfffcRQqIosh0Px3csLS1dvnx5eXk5SZJ8Pj8a+LZtFwqFaq0cx/Fw2MdWVNPkmIDOOml2O9lxA6QCABwJQimLoiiKEtCUc2aapmXZeZUfDvv4bbHVv16vF4v5arXquq5hGEqL0WgEAEqpIAiyOVHZ5Wfkw5eManeFHahJtm2vra1FUZTL5bJTfyzL0uLNBtF0PCgUE4m4NTGKwaIVpuD27t37H//jf1xcXPzDP/zD0WhUq9XiOMa2eUqpQB6UfuHiMwXKFOuqDYct31rrwWCwtrY2N7cAAOg9McuM7hVpSSdPnvzMZz7ze7/3e08++eT09Mx99923sGfqa199dGl5dWVlZXt7u9Pp4IUQBljisG373Llz9oo5Pz/vOE6axEmSaC2FEFpyvNLdGwZeyEKBUipNRZqmlHKlFGcmISRJ0tFoRClzbK9SqUxPTxcKhXzeO3ToUKfTCcPQtm0hkySNcKoknjqCpVw1Pn4l20v4zEu5sOzuZI9xksmYuPhCJ9b3R15ZgfBeZjlQvFrcrIwx5FHs27fvt3/7tzudzic/+Ul8MpfLAUAcx8zgV4XxGQbKBDc9GbelJkmCrc1pml65cuW22+5Q4/OjMZzO4rUkSXzfv/HGG5HYsLKymiRJbzBSSg1HAVbvZ2dnjx49ms/ntxqbm5ubw/6oVqu5rlufqNq2DaA4wwBwx8zgJD9CSBxG2RhvvVMAF7gOlmWlqdTjM+FLpUqhUJiYmKzX67bl4gvQHWPfQRRFtmPiN0erjCpimiZOO8wWIcsjv8w92w1plVKEEiS/ZquKPS3fB/8FryYKy9QIMRDnfDAYYCodx6PiaJU4jv/gD/7g7rvv/o3f+I1qtWpZ1mg0siwrlQJ2ZaJ3W53ss7IftdaY4fB93zRN0HRlZQUAsCyanReJLsx13SRJVldXkXfBOXdd68EHHyxVaouLi0eOHMHM2969e/fu3Sul3H9w36c+9Smi6eLi4uTk5Ozc9PLychyHWCAjBCfI8MyJ4FaJk1DpnQSglERrwGlzlmnkcrlabaJer5dKZQRGqB+DwcC0OKV0a2vLtu1SqdDv93GQDTbiRlGI759VyzMdwnXAAvbL3Bc1HjihlAICuOCZi8fuA26+ZHb3DZSXUyD00Fn5Fy8JuQR4I7GG2ul0kDfDOf/Jn/xJ0zT/xb/4F0tLS3j6FYbxu2MHeFENFXaBIRxcF8ex4zigaafTwWXCRcHcq5TS933ELgsLC6Zp9vv9brd7882n9uzZ4+WL99xzz8kbblpbW2s0GoVCYXl5+fTp07/8D36JEFKv16emplqtVrO13W63LcugBCiltm0yxrRMs8vPesS01hgwYxRdq9VKxcrk5GS5XEUKm5QKxhPTsENSKYX4Gg+N2/UrF/ckRhioPXR8svP4FNWXQ9AoWYcGbkvsSyRj5hCSDgzC30wFusqbIhkZf8TRlpxzvKmTk5Mw1gDDMD70oQ8VCoVf//VfX1pa8jzPdd3t7W1GaLFYFEmKE0oydJVFeXifoigKQ9+2bUygGdyK4/ib3/zmHXfcgZHFaDTCvZ7B6k6nU6/X9+3bd+HCBUppGIbctL/4xS9+9oHPX3/99adOnWq320mSeJ731a9+tVQqbaxtXrhwgRCyZ3F+NBopJTRotKyEEK0VesY4jkWSok/hnE9MTNTr9UK+hE2uluUIIZTSQsjsEtBgJzuISmutLcsMAh9ZzFEUAgCeO5tdcmZFsu3KxuNHsx2FyXel1GAwKBQKePYPHpyNc9aePfvsRz7yERyApLXGNEfmN17sC7M83CsqR5a0g5f2qq95znmWmMmeSdMUT3OW4yNn3ve+91UqlX/yT/5Js9nc2Nyo1eucMlSjfD5PAaIoeqkR61ddm9a62+1qpEWPA92sBwjbxAghtVptdXV1OBzScQe047gHDx7sdDpXrlxxXbfRaNx1z52DwUAJjTAfFYVSAK183+/1OpRSTgHGms0ZM01zYWEBOdeUUkbx3mOKhe7GLujvlJKGwZRC5d45kgcvBNcHfTE+yO5NdqW7oz8EeZjdwbAR8d/q6mqhUKjX69jkdPbs2dtvv312djZ7N7RkL9z1b0+dZGrxWu/7S8lrVqCsRTXDvACAQbVpmkhGllLefffdf/RHf/SLv/iLzXar2+1qqarV6mgwDMOQvWim/W4h44Yh/BSt9draWhzHpVKp3+9n9h8AkDgWx/HExMTExATeRc/zfN/fu3fv/W97hxDiz//8z++///577rnniSeeiOPYsizEClmeLY6jOAqVUlpLwzCwHQMHTBXzBdd1wzjyPG9zYzsIgiQRSZJiLGZwS2tAIyRVKoTQGhOAlBsUdg5UIEkSY1kXA1khKA5/VS+a67PbMCDIAwBkNeGphsjgQwYBztSSUuZyuQ996EMHDhzIwBO+P7Y3EULIriPrrlrnl1r/1+T4vpuTFvSYDyTHx3/6vo/3O5/Po3VJkuTAgQOf+tSn/vd/8o//4i/+Ip8vtFotz3EJIYwQpKG9+Ivi3rgqQFtfX+/3+7VaTX17J1pGZBNCILNHKRWGIWPGu971Lg3005/+dL/f932/1Wp94AMfoJx0Op1ut/vcc8/1+/1SuRAEAWPE4My27Vwu73leuZhHF8kY45Shou8MsI4ivCP4rXCAxg5eIQhpQWspVaq1TtMUR8yORiORKsuyEDgyxpEIhoAyi1R2+8Fs2sR4hrpEtIDIulgsYpmZEDI/P3/ffffdcMMN2OWDEB6xGqVUaUkp3U0ou+qzvqO8egeH8poVaHecme0hx3HwCBnkWmDFOI7jarX60Y9+NJfL/dc//L9c1wUNWuskTbGwv/tL775IGNtz1M5Op7O5ubm4uAg7I5Vf4N1h1IZzemu12tLScr1eV0BXVlbyhdLdd989HA6/9a1vraysvP3tb794+XKr1dpY23QcJ01TqSZLpVK1Wi6Xip7neZ5jGIZtcvQdmZVN0xhdJwAwxgihWhFGZRxj/VJSSinD/FAihIziIE3jwWDg+76UGvGQIxxcmRfPxNxd/oRdjgZLuVkXHn6rTqdz5swZDB3uu+++++677/a7bgMCURhjbQdNHS6pVvoqF0Z2ycurSHZHXlGTXrMCZcg68yMA4Hke2lhcIMwRo32qVqr/6T/9p5zrfexjH4uCEMM6LKi91DcmOweqawDAcGZ1dfWGG27I1pHsqtMh8CoUCsg/N02z1ek9/PDDb3v7O6enpxuNxnA47HQ6f/EXf6FAOo5TLBb3799fr9eLpbxpmq5ru46dZQ21TBEeEUKYaeG3ZYwgsS6KUkKIwS30JlJKIRKsgEZR5PujMPSDcJQkEdon07Rxq8RxnMQ7CVjDMLTemUaym8isx2fI6fEAbozj4jgeDodhGM7NzR04cOC9733vbbfddvTo0dnZGWAAAIP+EACA7tya7G13LM1LQOBXCYNeUdW+GwuEi430rjiO+/0+ojxcNdwKWmvMVg+Gg0K+8B/+w384ePDg//H//C2ttRqPQCS7SqrZAzWe10HGaTHO+draGlKbswoJjNuMKKVYm6vVahsbm91uVymdy+W+/vWvb25ulsvlfD4PABMTE7WJKud8bmZ+fn4+l8uFkR/HsdYSE9wAijFmcjoeYCAClDDAkjjnHO+1UkpKrbWIoigMwzD0kzSK4zgMgzSNhYyUEoQgbVxTSpJEjkajMIgdx6lUKqVSiTGeGVHYVZ2g4+5KIUSz2cRhSAcOHKjX68Vi8fbbbz906FC5XHZytojlYDDE0Bi5H0A1misyJntQRgmQLGmy212+1pv+MvKaFWi3q8Z8PEJOzJpgIIqDAbCxppAvpCI1GP/lX/7lYr7wS7/0S5iEBKWk1owQqTUD0ITg/1prTYlKd+ZW4b7sdrtxHGejxDALhTeVUjoYDHK5HJYSHccxtX766adrtdrkVH1manpiarJUKM7Oz+GX1FoH4WjQ76ZS5FzHtDChFSNozaCJaZoG44wxwsAwLA14ljlRSisl0kTiwbnD4dAPhmmaAiClSVuWBbCThh4MBlrrNJXD4XDQHxUKhVwux0zDtewwiWUiFVGEEGBANZUgpZRhEvY6vVjE+/bsO3b9sfvuue/o8aOTtQkJijEahpHJzNHId0ynUMmrRMci1lIbhkE5AQBMvu+wyF/UcvPGqs7Oe75WdshLvtF3wjHZj6hVURR1u92bbropCAJOGeXMYLw36Odczw8D27Q0AVCamwaOgzG5AQCmaefz+b/7d//uHXfc4Q98AKjVas1m07XdJEk00ehNNjY2HnvssYsXLx48eHBiYnJubq42MZH3PKDU5FwTAuNjjpVSoBRhzHNsNJZ47qTSAsefj5UJw5+o1Wptbm52u93RMBgOh3iKO579julTnGhuGIaQSSplFEXIqdXjbiRK6XA4dBwnn89fd/xY6AdePjca+IbFtYRRMOx1+kKlFJhh8fvuvf/6G07ceftdxXLBMuwwDkARN+cQIEIKTrkm3/bvDbl937W8YefdfceQCg0y5o4dx0mSpFKpPPLIIz/90z99+vTpieIEpbRIIEmSQqEwGAxM0yR0ZygMASL1TsI+jmOcP4d1Jdxn6O/jdOeMhJmZmbvuuuvYsWOzs7P5fB5pjWhRUCGiKIrDoFqtIq5CvhGl1LIMy7KETDjheszDtG07SbRSqtFobGxsLC0tNRoN3/cxqJZSpiI1DAOIkiqNkxDLmfi7nQNAGEMvj2ARY1WghDFWLJcAYHN7w3EctFKu695w4tQdd9yxb9++o0ePIlSCsZWF8f7MQlfUmzdde+ANtED6JThQWMPC7KplWVjkO3fu3K/92q99/etf1+Pugm63m8vlcK0RDWRLZjBTa/2ud73rfe97n2d7nU4HQ2KZSgBIZYr0PL2TCE6QFo1pWTQDmKYiu/JPZHx4mVKKEE0pzeVdjACEEN1u1/f9ixfPN5vN7e0mDt7DnF72xTC8wsQg4u4d1D9eiizTgZnDcrmcy+WYwRcXF5vNZq/X6/f7k5OTp06dOnTo0PHjxw8ePDg5OYkOOtsk2LsDY9/6/amPviZ5wyzQS/lX1B4MSrEc0e12jx49+rGPfezXf/3X//RP/xQzHAsLC1tbW1lVKKv8U0olyDRNt7e3R6NRuVBGg2TbdhIlMF5TvE+muTN/Kes0YuOmbCyiWZY1GAwwujEMo1AoeJ5HiE7TVMhkc3Nze3t7c3NzbW2t0+msrCwNh0PLcjKFyHQCJYoiJCOYppmpppIya3WFnZ72nQLw5uamHwatVqtQKJTL5d/5nd8plUrz8/OlUgkAwjDsdDrYb0QpzVQHxjkhOj667426ZW+IvMFHtu6O+vABFhe11ti2DQB4gvXk5OS/+Tf/plwu/97v/R7Cjgx9613VZiklBaa1brVa7XZ7fmYe7Qr2ZiilDGtn3AIGIOPAmyEjG4MOvAEYVOG0sozhFMdxu91sNpura8urq6ubm5tbW1u43U2TV6tVIVRmadCFZW2yaHVQsaSUYRjGcZxKiYEFxlkZBx5t8A033PBTP/VT999//969e9vtNp49gt/fMIxarbZ7MTEbiegqw/hvNSP0xlugqzIHOFfA87ydk1MMA8+s9H1/enr63/27f7ewsPDbv/3b29vbuVwu82J6zG2QUjKiTNPs9Xrb29vRwQhZO1jjzGL+jIElx83RmH/D3Bp23GV0C8yy4Ejh1dXVlZWlZrMZRj42gQAAzrZijHDOkyRAYxMEwc7Al3G8jSmoJEmGwyHmnYUUOKgHO9eyshQhBJPFt9122zvf+c75+fnt7e16vZ4lvcaMR0AaOGYdyZggpl7fNPfvqXwPQXQmnuehf4FxqQvNOFJnfvqnf3phYeHDH/4wpnPg28cnSik10zgRttFoBEGQMTrwVA2hdmAT0nrSNEWWFm5WjGkz5Y6iqNlsdjqdlZWV5eXl9fX1Xq+HVTDLNizLymCQEGI47MdxTCmHMY0OLRyqBVpBBM5BEGjQGDZr2BnPgHYXC2Gc8+FwSAg5cODA7OwsAORyO+d44sfh2+K8h6vKzGhr0zRFI/1D68JeDKLxR8z64Lg4vD1hGE5OTmqt8USwSqVy7733fvzjH/+Zn/mZ3Yf07H6A9DTf97FdkBAShqHJTax10HHbBhatcDILKhMOOsGAa21t7cqVK6urq51OZzQaoQvzPI8xYtt2nIQAgJRTZCOhh5LjU8/xorDffqf2p5VjO7vBShiGjFI6HpaFGerMOk5MTBw8eBATV4VCAQ0zAGA2K0tgoiZlKUGEU6+SrPj9lzcsCnvNHzxWDoS9hmE88sgjv/ALv/Dcc8+VSqXxsboeAIAiWms89vs3/h+/IYQYDAZ79uxpNVqe56EFyuZvoj6ZplmtVsMwvHz58pkzZ1ZXV1utVr/fx+IrRvioIlJKw2C+7w9HaG9eOBl45wjfIMICPiEE68RocpIkSUVaKpampqaUUlEUKaW63W4Yx5zzYrFo2zYWQHq93rFjx+6///7bb7/91K23TE1NoXphJuKtphCvVd5MBcIhN5g2RRbi008//c/+2T87ffp0HMeFQoExFgRBGovp6enhcKiU+rVf/bU777xz51RK006SxLAMLG7gxiWE5HK5b33rWzj8EOf6ZtRKNj5CDzEWYhfDYGEYCpkopZAQjYE3gErT1DAspRTW2iileJxPs9lsNpumaWKHV7PZbLVayJ4TY3bY7OxssVicmZn5yEc+MjExkc/ny+Uy5UxrHUUR5n7gVVQr3+LypilQBg8RDsPYO6ytrf3qr/7qQw89hEucJInBzEKh0Ov1HMd5/3vf/8EPfnB7e7vf79erdSklNzkW/zOKWRiGf/zHf/yNb3zDtu16vV6tVg3DQMCLvg+RLzo4IYRp8jRNlRYZcQJ2EkU4vRqQJei6LrbLZMOdMPBGNIZhV6/Xc3O5+fn5e+655x3veMeNN964sGcPACRxbBgGoRS5FWrXKK2XItb9oMib9u3RvMPYqeONLxQK+/bt+8QnPvEP/+E//Mu//EscVtdqtLvdbhiGi4uL6DsAYHp6WiTCMIxs+gdiW875hQsX2u12GIf4QUjA7fV6WeoPxiVhzAxpLaWUSbzDZMWzngzDwC4wzE0Xi8UkSZCT1Ov1Op2OH/ilYqlWq+FheJzzI0eOnDhx4t777rvxxhtzuZztOAAg0rTX63met0OBIpDlhzLc8wMtb5oCoe1BHKDGM8Uwxi6VSn/8x3/88z//81/84hc3NjYMZqIJieP48uXLjUYDkwIiEUIIwnYKJhjIMMYee+yxMAwZYVEctdttdF54DKAen5ON+x6V2PdHcRxHcaDHJyjiG0qZKqVM06aU+r4PANidePDgQQAolUqYGZqdnX3nO9959913Hz9+fGpqKhHCsm2Rpv5oRAgZjUYTk5PZVQspYBzeI3b+QXdhb5oC6V2Ni7gdDcPAwMT3fULIxz/+8V/5lV/5sz/7s26nh86o1+vJRGLf9NraWrlYFkJwutNnmDHtL1++jFPJKNkZ+JoVznanrUejEapUGPmUUA0y+y3stKJi8+vOcT5pmk5NTVFKz549e/jw4UOHDr3zne+8/fbb5+bmKpUK4RwAwtFIE7K5sYGDZrTWE5OTSP6Asa3FHObutoI36xa8IfKmKRAbD5/PeEWUUjT1nueFYRgEwX/5L/+lVqv9xZ//j+fPPY9VyYJXWFtb279/P45q1Dunsilkf+KNOXz48Pnz51GlsH6S9dCw8cDQOI7jNLZN23EcQjTOQsSENb6naZoAinOepnG73R4Oh7lcDoHw7//+7x88ePCWW25Bu4hILhmNUM80IaZpdjodxMjcMAghdOyqlBTq25nz1yzQdylYjcLCOGIRjHiLx</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAIIAAACDCAIAAADOPVQPAAA1CklEQVR4nO1dWY9cx3Wuqrv1vs4+wyFpihJNSrKgKDYcCwiQB2Wxn4P8vvyBGHmSEARRECuC5UBA5FimRHHE4Qxn7Z5e736rKg9f12FNz8JFlEwYrAei2dN9u+7Zz3fOqcuVUuzV+lMv8afewKvF2Cs2vCTrFRteivWKDS/FesWGl2K9YsNLsV6x4aVY7vf9A1przjnn3H5Hay2EYIwppbTWeBN/FULgw/iX/mpfYe5q9s/Rn/C+/clzP/+SrB+CDcQJoi+R2H4Tn78onbTpi8+AoI7j0PvMor5N7rPMeNnW984GSD07Q4uiKOj9OU6cu86S9ayG2f89qzEX6cfLsL53NsxZiYvenyPc2SWltJXp7IfpnXMNEfHp5WQD/74xpbP0PSvFc5J+rm+w93mufeenl5TSvtpLvn4IbThXPMMwnPsMlu/7517HcRwwQyklpcQLm4X8guU4Dty+zdeXbX3vbGBG5KWURVFkWZbneVEUYRgKIYQQrut6nue6ruu6QoiL2IAFatpkLYriXJVyXZcxJoRAVEafJ5f+Uq3vnQ1ZlimliqJI0zSO4+l0GkVRlmWlUslxHM/zgiBgjDmOA8m96DpKKZJu13XtyIq05FwfQH9ijGmtq9Xq933Lz7G+ExvmDAJsBYwAY6woiqIoJuE0iqLxeDydTrMsoyDV04ozwR3heK5wHamV1MpzBFwxRJ5+iHOe5znpgb0H+8PgB7aBSMz+E7QwyzLHcYIg8H2fXIjrukVRXOT8f4D1zC763MiHc66UohvOsiwMw+l0mqbpcb8npQRxIfue5wkhgiCA6fB9XwgBYXccJ/B8oiwWKYG9DRJ8GJ+zFn84HOZ5nqaplBKmD/JRFAWUA//1PK9cLlcqFdDh7N39MFx5Tm04u0vSgCiKRqPRaDSaTqd5nis2y5k9z4MP4JxrreM4BudAR4gqY0zmhX1xcrCdTsdxHNgxLPoTM/kavoidVCqVJEmKosjz3NZC/BbEwnEc3/fx0+Vy2VYsfjoB/L7X8wSsc4kxgRNxHI9Go8FgMJlM0jTFZ+rNhp33aq2LopBSpmkKDQiCwHEcKWWe51rrwPNhWKSUuIKtEL7vl0qlUqlULpd933ccp9lsQmnmNga7BB6kaZokSRzHaZo6jkOaBwcOZ9PtdnF9XJbu9MWS+6L1/L6BhAtUC8NwMpmcnJxMp1MpJcTWcRwQnZwkMz4TxgFhKAgNoniOCy3Bf0lCIdHg33Q6hWYIIZaWlnzfh6237Vgcx/giGOb7PgxgkiTM+AxwC8HbYDDwfb9SqTDGgiD4gXXieXyDHYoURZEkSZZl+/v7kDilFGLQmQWQBUSbmZvH1+M4BgNAIFKpJIrtaIfoRT6A/kTMK5VK1WoV5PY8D//aWQXUEcYHkUKWZXRH0IY8z13XhZ8olUrYlR0mfK/r+X0DlCCO48lkAocMWiP0hOKTVWFGwSmSIWsG00F+AgaBWwv/xcWxhBCkDfhdJCJQwXK5HARBo9EgG0VmDdePooh8NbOYrZSK4zjP8yRJKpVKuVyGM/vORH7yeubfoDAc6hyG4Wg0mkwmICJZZMYYKJUXxVwgj+96nqcNzkGhi+u6Mi/s36KICJ+3F7kWhLNxHCMoAhuiKHJdNwgCUBNUxu+C6BS/QlnL5TJ2nqYp9k/Z5Qsh9OXrQqMEaUVQASPDGMMWEd71er3BYJBlGVIzkAmeFoIGmdWc2bQjAbdVBAuvXTHThrNbOtdMEy/5aQwKnrzRaNRqtVKpJISAFlarVdA9SRKEc67rViqVOI6hx7gFxhjs29raGm6EojK6ke9G+dPUvogNCOnIj0EwoddJkhwfH/d6vSRJYEMoqsFruOUZaQTXFoZKNmoOeqMXWp6/H5LKOc7NqRp9QEoJA1WtVmu1Giw+fABuCsYH4RPFCwgZcDugfr1ex0UgiBRrvFi3caHGzYkYJUFKqaOjo4cPH8ZxjPid7soOuhkVcDS3r0aLgGubfMSMixZxlP57VkXICaVpmqZpFEVRFDWbzUajUS6XpZSwY4yxIAiCIIBdpajadmZFUfT7/WazCchrLjx5getCNkAuINeIZ7TWWZbdv3//+Ph4PB4jnMB2KQ224xNy0big7RvgCeaoNtuQOCdm16crbuyMgaIfovdLpRLMS5Ik9CIIgna7HQQB7C3nvFKpIJOYTqdQem7hKKBAFEX4TBAECJ9eeCB7mf+hYAb6OJ1O9/f3v/322zzPPc8DNkdmlGzXXPjBxLzIz9lW21Ww0/Ju/zsngHbWctHmSX211rA8sP5w7PQx3/fhMJDr2agG/loUxWg0yrKsXq/XajX67gtcF7KhKAp4ZnLOjx492traKooC0BDuDZkaiaqd+s78CtO2HjDDCXwF1KcMgDHG1IxJF8n7XCA7hwXRF5MkwTVBemZivOPjYyllu92GnaE9VyqVNE0ZY0jm6dc9z0MeDqwFWwVNXuC6TBvACcZYGIa7u7uPHj1KkqTVasGeQKnxGjUc8roEsiqlwAabdlg2VGczhuvH7xA5tD51ETvrtn2YvWzbaP96FEWwSK1Wq1arEdJHlOWcn838YaKRmTPGKpXK5XWRZ10XssF13TRNsfvBYLCzszOZTOr1eqlUgkNGDF4qlZIkmU6npVKJdkyRH7HBLrxAYKFPlM3RbWt5Kvul17B73EJeiUZz0QSuD2dmY1NYjuOEYQhb6roubgful5J5fBHak+c5sBBYLaQjwEVeJBuonEKeAFIJa+M4DngwnU6BeRUmHYPZnU6n0GgK48AAuh/4NFBNq9lnHNdVhUTOAR5A5aEi+AmyJCCQUqrf71cqlXa7fXJyUq/XO53OZDIB7di5KYjrkvfCFZD3eJ6HEEhKubi4WKvV6CccxwGsBOipWq1CMxDm4rcA4ANEASipDd4OROR52DBnuJkpHILb0+l0d3f36OhIa410lEhs6yzRi5hKLhe2NcsyRPGMsTAMB4NBFEXMqA6+jq+QN6Jr4v7zPF9dXT04OBgMBqurq0qp3d3dxcVFKu+w01mIba9sA8WM8cTdwdogIdVa496hJWSvbDZTCgU7TIEWIefPwQPGmDuT09NmFPeANG13d3c8HrdarSAIqPALnSW2nd0B2QG6GUR+eZ6jEgdHB4HlJlgCJ2zXwgyChL+COs1mk3OepulkMiFjaJsm23UjmMa2UfYgUAv7Ad1hJ0FTz/Oq1SrgcSKILXBFUYzHY4CYgGPhKUk1n5kNRDV2WpqQpu3u7sZxDGAAQF6pVLKlw8aWSUVsv4q7YozFcdzv90kJarUahY823elq3CBxjDFgPnt7e+vr61EU9fv9arW6ubk5mUzmeEC+gf617S0UCwYHBjaKIs/zKpUKoAtSaHAX6DpJg+1+gBDDbZxl1fOzgZ9Or/I839/f39vb8zyv2Wx6nge3TB51zovOpVdEF2BNAAGx9VKpVKlUcMO4JoB+wD64K1yTIOg0Tbe2tg4PD8vl8uHhYb/fF0K8+eabnU6HLAyxn6hm4yXainmo2sMYg9cdDAatVgsOgNQIfhiQOImpnagmSTKZTIIgqFarcBL403OyYY52ULrRaIQaTrfbDYKAojoICJbNOZTUbVkmQzwej8fjcVEUwDsJFbCdMHAFcJesLTO5SJZl33zzDfxBr9d7/fXXd3Z2Pv/88zt37qyurrLzAlxIEgwOYe/0c8ygQ5zzPM+HwyHVM7A9fAywK3Zrxx0gBZRpPB7DNEG9ntNFz7kvbVDSra2tMAwrlQrkFJumAg4tWxW4tSijHo/HcRwnSYKkj4AEAG1BEMRxTIUd13UHg0GlUiEji/eDIFhZWRmNRsvLy+12+yc/+YlS6tGjR+w8b2zfBQVadHd5npOhA04DZR0OhyBis9l0HAdKUCqVwEtlQe50TcYY6hzAdZ5PDx6zAa/oKpDEb7/9ljHWbDbR2IPtJkmCn+enUwHGGGF8zOgToPzhcOj7fqvVwgcoF2WMgTqA3hhjWZYJIcbjMWwReI/6ged5V65c6fV6GxsbSZLcv39/e3t7bW1tcXHxrBnEf6lNBp6J2MAMWItIFDZKSgk302g0oD1gAxIjadaccdOmKAvY6rtU62Y0zbKM4BfG2P/+7/8iIEEkh44jGHFt4dW28cGeQGIY/TAMoyiCewAPQALKJIIgmEwmw+Hw66+/fuutt0gFf/azn62trVFHBWOsXC73+/1bt26NRqP9/X3GWKvV+tGPfrSysjIej0GULMviOPZ9v1wuK6XiOF5eXkbVEzQC1+22DMLyKEJ99OiRlHJtbQ0WEptHYjGZTIjWWZZNJhM49jiOT05OfN9vNpvMRMNEHNKhyznkIurCbeDF0dHRYDBAQZ+ZSFmdaRhlZ/pTyRxlWZYkCdQZtTCKSsnO4pbK5XK3263X69VqFYUBbQptQNlQVQb2sLOzs7Oz4zjOu+++W6vVPM/b2tpqt9vaRKL4iel0OhwOHzx48Nprr3U6nXK5DFWGjSKvZi/4Nm3AqDRNkeKQWZuVsE4bcKK41jqO43K5jDDSdpk2uS5ZM0jA8zxAF3CDg8EAoC4zZRxSFHv389cSAluHHiDwsMFhwgoJViuVSkDzHcdpNBqE7IOXYAMSySiKOp3O+vq667q///3vP/vss8PDQ3S1MJN4YwNJkgwGg+3tbSrN0m7V6QZLylTAJFxnMplA8OmyUGIbRbbBAkITUOKmIIVZdbonGit3Tq5Ho9Hu7m6e5yCfNpkaMZYKO3OcEKamliQJeECpDX0AXhriQ4xHgAHPWa1W5xBTcqe3b98GGlEul0FfahrDB6B8YDa6NKCFc3VcCjGIOhR9ADiaTqeQQmTIECY0G8DhMaPTcOn4TBiG5XK53W5TS8Oc6jyBDRRmAaTb2dnp9/vwitxkZDbuNLfoQpAOlBUhWbgTZYrS9lJWpyWyJ6g8elvgon3fh1vC10Ej13Vff/11bmqxaKGAAIITAIXa7Xar1UIKJk2XKjPFWnYmXSXzLYSI43g4HIKFjUaD2hvQ3wcdFVYdl2KtOI6jKKpWqzZl9NPldDPlwkYHg8HDhw+llLgWM46Bnc6WzzVKMCNxHGdZxjkHQQnnIM9M0gdwH87jypUrnU4H31paWiqXy5A+13XRb8AYG41GjDEketRpWavVkiTRWoPlpVIJKoJOWVwfFCQlxjZs00T0IpNF3QIUHXETT9vYjzbTAvgAol64E1sJnoYTs1wDQnd0dIRMFZLIrBwHPJgTIm5FgaAXeiapXxodkhQa2d8SQqCw5TgOsoEsy+B4gyAAL4Fi4Qqrq6tZlh0fH8OC1ev1KIqwbduC2SYb+7SdB/JQmCl1umwHiaYvohMXtTbQncJom3+UqAOqGo1G7XabW2HkWX6frw3M5P15no9GI9g4WzqYMaNzicKcNlBrDDcRKtJ9hEwUb5CdrVarlUoFGTLYxhiDPWGMoemIWvCCINjb20vTtFKp1Gq1PM+n02kYhlprsuAAsemGIUxkMYAj4cNkD+e0AeyZtVfleRRFYRja92sX8rQBTqCX8KNhGNoMfnqFmA3DBEFwcHDw1Vdfcc5brRaoCRpRHkRCxK0xG9j06XQ6mUxAO9JfrDAMFxcXGWOj0Yhz/vDhw6+//ho0JRiqVquNRiN40XK5jE1XKpX79+9DzcMwbDQa4/F4MBiMRqNyuby0tASvNh6PkQyT14Ghe+utt9Cx6vs+WpU452hGAsshyChw2pKOdAysGgwG0B7qK6SgwA6HIIJYR0dH+BOsJWW7l7PhMaY0mUwgmLZDFqZWPBeEEXvJPlJ6TLgpnPzm5mav18vz/MGDBz/96U+3t7ebzWav15NSrq6uwhVTfpdl2Xg8rtfrv/71r//6r//6n//5n//xH//xd7/73Y0bNxqNxt7e3oMHD1ZWVo6Pj2/fvh1F0Z07d2q1Gu3EjtkRdEBvEIMhVUYQiDZ66BM8kK0f2D8YQE35EM0gCMj2EsrELGgdJgGK+DQx0ik2FEVxdHSUpmm329WXpnxzoRjtFYA7NX1ChSHde3t70Kosy8rl8tWrV7Ms29vbW1paIvgIsiyl3Nzc3NnZef/99//93//9gw8++OKLLzY2No6Pj7/99lvAD2trawiI9/b2FhcX6/U6s7Se9gZhohaeKIr29/d3dnZQ8rty5crm5ma1WkUAOp1OyQeQ8MEtTadTwJGwV0C2UWwgibSD4DiOkcoRxkdO4hI2zDiWJMnR0ZGUEndFGaM2ASstYgOuLq1uSW5VCKDCcNQrKyvVanV5eXl7exvd15ubm9ThgZ5w3CTn/OjoKAxDTC289tprjUaj2+0igK7VahsbG9VqFe8Ag6M70VbKShFtmqZIgEajUb/fT5LkF7/4BWNsf38/jmOEFQBpmBXFEhuyLBsMBogjtEnxHGtqCL9oV7wRtlJQ+5TQ92xccjweD4dDx3EA7ZKRtaVszuFwM8pBqSZSVlhYCrGKomg0GkiL0jQtlUqQOypekjRpA17euHEjiqJf/epX9Xr97//+76fT6Y0bN8DyWq0WRdHGxka5XH7nnXcajcbJyYkdllAwRgymtrDr169fvXq1Xq/X63V8gABjmJGzEY5SajgctlotJBBgA5QM5Wg7FsJPp2kahiH0npleuqeNlE5OThAjkWW3pUyfrvDQgjTBaDqm2fZsehHHcRAEJycnV69ehfY8fPhQm5ZAiuuB7GZZhhRBmcZ9OA/8BNrl6/U6fu7k5IR+hVm5vRAiSZJSqVSv1+GuQErG2EcffRTHMRQUFRvEmqQHc1EmBXvaDEkoU0+co4YyvQ1InpjVyqYu6Gl7rA0IM05OTvI8b7fbFL2ARtI01RK3SWYZY+hIpIIP0QIRBaULQog8z2u12sLCwjfffPPVV1+Nx+PFxcVSqUQ5NqWQkMooihYXFw8PDzudDhqWfd+PomgymWiDt6N1Bfuf44TWOssy4BkU/+zu7j548KDb7S4sLCB4U6Z9uNVq2WVnLIM4qSSJwnDiuq4QDBGJ1pIxpTVTyp4F5krNqnJUs+MmwL0cVprV/JAx4q6wCeggfK+9lDWkT1GsrUDcSpsdx4miCJD9W2+9tbCwcOXKFZidK1euNBoNmBppJnlRPzk5OalWqyj8TSYTGCIQKEmSbrcLtAp231Y7WyFarRYUC9vu9XqHh4fT6XRtba3b7QIP73Q64C4SdfouqQLMbJZlURRRcUKbMpey26u0phyC6gKkBE80Sq7ruv1+//DwEDlLEATD4RAeAlwFTYnE+A3I7Hg8Btbmed5kMgGkjM9Df/F6PB5fu3bt6OhoMplcuXLl9ddfp/gEl0UyDKSvKIp2uw1dRBsSrCU60oD5gBztdhvdU8rqEaF7xikEaKDCQDyE5ssvv6zVaktLS1BH4ICoOBHhqA6a53kch5zzer0OlRLmWANkLYT0kZtxHG80Gh0dHbVaLZBRm961y9jAGINF5lZ/Bzc9dxQpERsg/sIgvRRBYXM08w3zgqonOlmiKELQgjidLJv9LzMdm7BC2jRYKKXQwIuWJ26i+EvuDSEmNLVarV67dm1lZQXxvtYaQRp+BZun0UR2ZmxCmclUijvIdM95TXpNluppwiQGoBuJO6GY2oxpUF5ux8WQUyjvXNuSNgE7+A9CaFPGQd+nbcRsj0JftENesAo7IfagVw4R5CU3Bn8DKwGiox0PeAPexGcgJTSMpU+jOIwxqfK8SAsZaK2V5pxzqXKlC82k0rMRMamk0oppwbmiFljazJONEjMz5QBhCFO0U0TbVoL0uBPKt/FhgjqQMUgpe73e0dHR8vIyWtIZY5BHYRUthNUZBvEB3akBC1xBgA8GUIjMGLuozd2YiFligeZzXMEWeapbMKv/xbq12egGwQTMROq2yFs2QzImyGVqk109mQ34RJqm9XodoRv9DLOQE1r8dPZAXgtoBNHXcZzpdLq1tQXvsrOzA7PAT4fC9r9Y6JrmVuALm4kyEV4gBoOjlqc7RWjB36DvlpsUhz6c5zk6QmA86/X6ZDKxXT2bxYSaEjdKbkhj5gzG7EZUATbYBcEnWqdZ/6w2Z0jA7iure06Y8TcSLlCZADWoCP6kTaRbLpfDMNzb2/ubv/mboij+53/+p91uI1pnjNFYsjSjVyRftBNmSpKDwWA4HO7s7KRpCiu/ubmJcIBdrO/0V1uK4fDhtEgDkBnYVwMzlFJKSSGEVDmBx0QuiP8cGzjnmknSBmY5myezgcwizD10AiRmVtWTGUCfW81rZFJI34EqN5tN+GdoCfXo25aXKGj/F1EKzDoOBBgOh4PB4Isvvtjf31dK3blz56c//enm5iYCJ6AvFy07cCRlJc2gAhF5GmIDJBJBKmGXeJMCB9sukUPm7LFvmLvBy9hA0mfzDdpAZoeuQh+jZIRkGZ+kujkGxNfX1//zP/9zZWVlOBwqpeI4DsMQxkSfXnQpcgyQ4iAIut1uqVT61a9+9fHHH3/++edff/11p9NpNBrIPEjYzzKAomdtNfWkadrr9R49ejQYDGq12pUrV9rtNgJisxPFueBczwaPmCS2kVPkVpZ3aik+myCwwsunWa7v+71ej8KkyWTS6XQwEuNYvdbEDIgq1WaZyXFgsqWUjUZjeXnZcZyTk5NSqfTzn/8cXT0IHBHOY1iDcuy5THB7exvYZ1EU6+vrQRBgevBnP/vZvXv3Dg8PoSXj8bhWq2VFbgddZNyF4IwxxTTTs/khphlTcjAabn275fv+Wz95+5NPPtm8drVQueM4mivNNHdmwquUVExKlheFVkomSTydThBrZVnhmDaGIp+Fc0oxpTRjUmsOaUMcDJZcnkIzREogMWX/dkDJz4w0kd/nVtrMraNCuAlqkf09ePBAmT4XKSVqAGAkGRycOANBGwwGwhQ51tfXG42G53ndbhdaUqvVDg4O+v0+PH8URcJ9tpEC3/dv3rypTIsqABVYTqiC1lxrpbVWWkopBdNFkSnlEohp4wgk9VAGW2rniPYENpBviOMYKSXU2Y4p7WuBZxTJMGvYjTpWYAoajYbjOAcHB+Vy+datW0qpu3fvolXScZz9/X0MLSOEBbrg+/7169dbrdbh4SFjbHl5OUkSFIJc1/3222+Hw2G9Xu92u4uLi5VKJYqierMxJy6X+8OlpaWiKB4+fLi1tbW9vX3r1q12u0nlUtuag8SFVnmeC6Ep+LGzmbn8gEhE/Q/cggsvY4PWGm4qSRKwBCDEHF7GjJ8hBw7qU1yrTN8qBVrowrt169bBwYHneZ9++umnn35aLpcbjcbq6mq1WgVxoSjkKk9OTlC5XFhY8DxvOBzWajXf97e3t7e2tprN5uuvv/7OO+90Oh1hderZ4sIudYmDwUBrvby87LouplTK5TIwJbpT2xIY58yI4tq0QKjTtQD6FhUTnxggPWYD5xxD28PhEJquDOp59vaYSRSgdFQ+JGWkpjwQF9AFfHWj0bh165YQYm9vbzwew9oAy3NMW66U8t1338U5FlrrDz/88Msvv8QcA/po3nnnnWvXrsGyua5bq9X0M7ZRHx8fHx0d3blzB/qEVnOcPwQOMkuEhRBJkmdZ5jiaABhtUAZtleq0QWThNYGUsKcIVU+xYX19nTGGDjX8QVjAta0NjjkiErQmlcQ7OP8GgoCNnpycwBBNJhOlVK1We+211wAhOObENsoBmTGylUrlwYMHX3zxRZZlm5ub169fn06nGxsbAKippsY5Z5ydKy4XrR/96EdfffXVb3/72yAIer0eEF/AqHPaj/8ay8PsmJVZwSHFity0ujqOQwD7E83RjA2MMd/3r127RvqFMOAi30BhCShITdeAxpDKESTgum4cxwsLC8BNGWN0UItnzRna5hXWaX9//+OPP+73+++9997Kyorv+91uFzeJeYJms4nZIbIF7LTxvGh1Op033nhjNBpJKd977z1UovhjdOtxpxdcscklT00dkCl2hOOcPu1EmA4gO7Z8cvoGui8uLk4mk36/z0zb0kVGCYvYTtwGtgMHA80om9Vqtba2tjDlgGra2etTBoTw98GDB59//nm32/3ggw82NzcHgwHIQQqHlovl5eVcnp83XLR2d3dv376ttT44OFhcXJRS7u8/6na7lNjbeZlSCnG51o9RSEoSOOeCC4Kt5hTClokns4HoCDsOAAedMmfbBbEI40R0j1oYxISMo1IKhX4hRBiG1Wr1t7/9Led8eXn59u3bkGghBHXnQZmazebh4eF4PP6Xf/mXTqfzT//0T6jo0qgW8dtxnIWFBbCcnUnIGWNSSkDlcL9A4KmYEYYhvh7H8eLiIryRlJLzWcAN/EoIwTUaBoRtjoqigAhppkl0YL4YY5gTYFZ3AXuSjs60gSgOwtlxp7A6PsEzYbrVQXGCzCgLo3AW8dLe3t7h4WGr1apWq1tbW+Vy+ebNm4ShovaCOCSKojiO//Vf/zVN0/fff//69eu+70OB2JmefvpXWwVaWwallNAeaU6qgk3jJstBOet0pv1YIfDCnx3XNSuuIcEqiqJUKjuO4zq+7Ypd13Xd2dmY1It9CfVpzRwAOXdczjt9MgJFRyTsCLRxk+g4x+WU6RBlBsOJ47jVauH+cNYDOtLgD1DFBFFQKbt79+5vfvOb69ev/+IXv+h0OjhRxDWH2TpW44HNj7MvCAviVhUB7yNrowjHjnm4AfkpGKVf1FpTdZOZHm8M0SA4RBca5lxRXOFWPfXyNTttEyCXa01DEig2l4gLIcAD2He042NwzP4kN2fEMcaazeZwODw4OEDXAngMDBE+PIoitE30er3//u//XllZ+du//duNjQ10cZHMzinETHTP6AG30kzU0oMgKJVKGKiGYcRYjomSOcmc1ozgI9wIJcwEBs8FppxzZHawKJw70AYi5uVe4RQbHOvYakJuyfnYNo6SBvIEEAej1I/9Le6n0WgcHR1Np9PV1dW1tbWHDx+enJxsbGxAMNECDEW8f//+xx9/fHx8/MEHH7z99tto04fCAZ9hZyqmlywSJrDB87zxePzHP/6RejUpHGKMYf6ZEGw7RTAdKqdwOgINaXQFvAEbqHWRIqUnWqfHxIXInB2Jod+jGN+2AGgVRcXcjvOkOW8FTTRo0qKJEsgOnIHjOOj6+uSTT/7jP/7jjTfeePfdd7XWSHFdc8gL7vNs5GbbcfsFSiCwgcycyfXNN9/QOREkW9LUGXFxCklt8gmDkBOGATvpmFMkaG/2Aa7KVCefKDQuKRqqtZALsoz89MlQ5A8pRsYXG40GXJ+NdtEO8AGcvVEulxcWFkhMGGOe50VR9Nlnn/3+97/vdrvvv/9+q9XCoaoIdWzq2zI1e20Jmv0CnIC9DcPw6OgIiK/v+xQU4NbsPTMrj5n9qJK2gyQH45qpd26GSkEWMJ7iGhLNy5nxGIFCOZCqLucCJswyCOTTPHPmBDPDxswcDUMB5a1bt65eveq6LjAi/AQADyHE7u7uZ599NhwOf/nLX968eZMxBo9HBX3aLj9LdD3PALxwHAd2hjE2Ho/39/eLotjc3IyiCNBvlmU4ZIGxmfGhK8zYwATjWmnNOXccl+qpwjr/nlJlyir8M8cZ44KOcxkS/LjyB0dP6UK1Ws3zHN325PHpLCeQiVQbWS7UX5jjfYFLM9NWg2wDp1wghkEe53ner3/96/v37//d3/3dj3/8Y4gwHdyA79riRtX5GQk0E4zXq7Ukij3HjcNIMK4KyZSulitaqiSK0zipV2uNWv2Pf/hyPByEk3HJ97hWMs8Cz1WF1FK5wimyPA6TLMllrvK0kLnimk+nUbvdXl9f7XbbCwsL3W63Wq3Cevu+Lxwm1axHFvaWQlVbUp8YLD1uTIJdA9oMogurGQmXJl9E1pBSilqtNp1OYfSRl5FfZSZg8Mw0nFIKJ9AqpT7++OP/+7//u3bt2ptvvnnjxg0Mw3LTl88tlI2WNgePaDPtjJm4er2ODUhz9gadbY93SqVSUWTVahXRHQQFYkeYErFZSlnIjLqtlFKO41H06LqzNlYhBEoTFK0Iq3qvLfjvMjYwEy1wzkulEqiJhkPHnLFSFAUAO4yw2w6TGUPcaDRGoxFcLjN+T5p2G7P1WTccWgI9zzs+Pv7oo48YY+vr6+PxmE4L0yZJJAsrrQo7SYAQot1uj0YjtNLipCaIEXLDwvTEw0m02+1qtYySp+2ZyWJIM+CEb6VpVq/XfN/3/dncOZSVYE1YG2UNoVKEzSwL+UQv/fiUC26OwoT1ICOApFGYpnk7KqCFm2y1WhgMJqWxn19BCAGMEgZ7fve7321vb//lX/5lq9Xa3d0FqEAMRrhFHC1OL0gPjhXWWlerVSEEpufW1taoL4/0yXGcer2OM4Q8z8NxINyMaCAKgvxpM/bCOQdZbU+gDQBK6IU2xwWjS9y1DpGxA63LtIHCMjAWHgIQAjMhGmjnnT6+3bZmjLE0TTEbgngf9gQJMJ3aBQnFf6vV6ocffvib3/xmc3Pz5s2bYRjeuHFjZWWlMKel0g1ToGKHDDaOBsQpSZIvv/wSrphz/vOf/xwIIEU4qHxkWaLNCd6MscI80kcIQTwgaw4B97yAnUqeOGPmwGzFBZ99EhE/Df/OKcQT2EC/ihcwstVqFT4WP4ZDqYQ5Ie3cCwENxHwn2mG0mc0jYIqbYUql1P7+/ocffpjn+T/8wz8gDH/jjTcmk4ljVRDJLoGa2uA23Gpoo0kCpVSapsvLy51OB0e0UZsBoibsx7UeREbDCkhlMNRGuguJqdcbFKpR7I7AAVIBw4sHP9inIpCA6qdIpF1bvhDz1Go1SDQ9IQ8hk2uGD+zfYMbwIWUVQqA8idkemvQnCjLGwjAcj8cfffTReDz+q7/6q83NzXv37m1sbMRxPB6PoVLYD5zndDrFECPit3q9Tg2TWmtMjuKc7f39fcxj5XmOsThy72R1OT8FGeEnwIPxeAxpA9t832806pRvmnudUbnIFWOCc0C5pVqtUa83PS+w4yL+TJiSzSthHg4CsIhEA2N1OGvQZgCtcrmMeZBWq+W6LiSrVCqRM3BMD85wONzf3//kk09+/OMf/8Vf/AUGdW/cuDEej69fvz4cDoU1Q8AYm06ne3t7o9GoUqksLCyQSIK1x8fHOK8BtpQxhtaN9957D1uC9Egz8MzYLF7gZnBYaw1cazweJ0mCZAL+o1FvueaUB2ZVGmCr8SdlDn0CXDhnq8nMPIENwip24mvIAw8PDxG8A41AFwWGPoQZkIIblFLCGWD3qKTifB0M50gpwdFqteq67u7u7r/927+1Wi003x0fH3POgfv3ej2bZPhuHMeHh4dvvvkmqgVwP8j2UQLCToqiuH379sLCQhRFn376KWYayuUy4FvEslJKxmYDh1Q3hCACneQG7vU8Dw+qEUKkaSqEg1aaoig4cwR3OQfoKTh3KpVKo9GoVGpaa2HOJH9K5zxjw0V/aLfbUkociAAVxkkSlLVxE3pqc2I9M9aThnDK5TLGtdGmF4bh4eHhvXv3Hj58+Mtf/hIBK6Jkx3Ew0oOfo2y8KIq9vb3d3V3HjJbglCRtVV5xjtX+/j5iLSHEeDym3giqcWKHpVLALDCOMQY9wPgmmRRAA5VKRcrCtaZObMi5KArGBKW9jsORkD8N3Z+WDd1uN03T0WiEkAkEwvkF8EUIfgozf6isejJ8LGKYMAzpGDSo582bNxuNxrvvvgsVoZ4tQKFz8SIzZZk7d+6EYXh8fAyvO51Oa7VaHMedTufk5AQbHo1Gjx49wug1If4EwFFkJc2hGq451hIH0rvmeC/svFqt+r4fxRmd/5EmOdNCzB4MIqRUrssrlUq93iyVKs9B/SezAadTwF0TubXW6EZ1zJEHyvR+U6pF5AYFb9y4cXJyghNYIYPXrl27fft2mqbwIpiwIzNNFhLkQ5S5sLCwsrIymUxwPjLcKc7AwmBapVJBrrC7u+u6LvqLCcMHzoP/5uYAD0pOMegprJ6gIAhQoaL6FcLFopCwBFmWKaUhQ61Wq16vC8Ewkfh8p+1d9jSTWq3W7XYR9mH3Sik8+IOGDOjDwpxOSQgleSec5FatVsfjMWYCcXvoAyM0wnEc9KoSnky8rNVq//Vf/4UwGt1Nnjm8b39/v9VqVSqV8XgshLhz506apjs7Oxj2wscg5lRHEebBSTg6CfM/wnoGU7PZpKNnOXOKXOV5nmc0FMuLQhVFUavVms12s9kOAjxvBkHRMzZOXc4GrXWlUul2u5jIoPNZUEXAlBJOniBHNxecUXzNGIPqIG4BXyuVCryi67qYx4Za0LSeMPBtp9MpimJnZ6dUKq2vrwMuRJshaCGEwBmjlNkSWkyZMDOZGmEBSOP7/T4BG8Ry8FVYjziFPzexiYbZrFarzWYTaSA6dYTgM8j3RbEBlqdarbbbbWBwQFvRAzCZTCC/nnUIGTsNnuDGms0mshBUPXGECCXewPgQSinTAs2MdwEFkZfiGExIN6oRSDCbzSbO2gXhcBDllStXpJT0TGLHzF2Dr0C0kBghoBKmF6JUKrXb7Vqtpsx5vDbKZMwRcxynXm+2212A9kWhhBCCPxcHnoYNqEGiqUSZEUFA9rDIJhifYY0U9ZJyHB8f4wO+7+MhR4D7wUigoTjFB8eDES+lecoLYwyP9yuKotvtUuyLqanj4+NGo4E2SK01kjvQGg6fwChos++7eZHGSRwncV6kms3iKBAaoScGvKQZFC/MQw0QR2jNwa1ms1kq+TBQnucxwZV8Tt9w4QPHkLXCquCo/4ODAxwmQIoPbBkm3rH6REgntDngIDcPUSAcGKNOOIiJHocQBAGMDLfA4bMFKGarnTl1CKrp+74XzLjLOZdGqGFP8iJ1hErTBKPgUG7GZhMJOD2gUqn4XgnGM0mSPJ+h7ogVGWO1Wq3RaLz22mvn7ucFB6zkgUFutFjhXA54CBxtWJjjxGzqz2AvqzLMDQpLBb5Wq0VoFQ7xxnMt0V3pWucsEbrJLD2j63uuJ0yB3rVOuKfOD/wKMydBjIbHcRyG4USpgtyyUrLdbtfrdeoqo3I6oEXIZZ7nAHuWlpaeg9bPwwa6bSRf9Xodprwwc9HMJKIgFk5G8swz6iheYqbCCqg1sB7b7ZjxRcybTCYT6rVB8ozJQDDYNQ1qjqkDQ0Jd4TjmfMRZvqaVlIpzJmUuCyWldFwEcjJNs+FwOJ2OoyhBbIz0E4GAXcrVplsJaiHNgHer1ep0OpAhdloJnohYPA8biIja1ExwxEUYhoV5FLww9c5+v5/nOVIe13Q52hwVpvV4rr0Duy+VSt1ut9Vqaa3hb3NzXAf5JPgqYVqqfHOypZZKOMwRnnAY00LpgknGmHJdP03jNC9cV1Qqdc71YDDq9Y7G43Ech1LOjrEFEIIsgeyqMj0y2pzCrZSq1WrLy8t4CI06r8T/fOboyWxwzLQ+YbkIEwFsINiH80DMB91H1ymzKmXCGo4TZtGpSliUOS8vLytzIo483bbFzyzGGNNSa+BuEgTkXAiHKVV4vuN4Luc6z9M4Dnu9Xq93pGSBUEeYcZhKpdpud2akVBzYNZJWznma5o7jNBqNpaWllZWVZrOpzYDacxP9Gdgw52m5GWIBmZD4wFYiHCTMA77dMQvmiJSADL20jjCybPTjJ+fiK8zCHOcSFK01Y8pxuFKYQiiU0pwzJpjgPE3TarXi+UEYTY8Pj/onvcl4muWpwx93YMJOArSAKODf3Byx57ouY7zdbq+urna7XYwgstPnHRLFCFt9kWywoUHykFLKcrm8srICko3HYxRkHHPWKXws0C4kZTDcgTmpm3Ja2H0sx7TLMWtyXVtTxzZcbKvCDM9nUmvNuOKcM64Y44xpIXiep1ESD4cnJ4OTMJxIJSkAU7MRxApaAuI4doSX5/QYIqU1d10PWAUiKATTynp4A7Madr6LRbqMDcySO+IB4IF6vb6+vk7noXPTEwaYjA66omYvx+oYBxtgl5mxeGR/KDS08w/yDeftUUspNVOMa844E5oxrplijAeBNxqNjnrH8PnlctlxsiiKOHe16SRD2IOiVrk0GwHmnCPqRjciTiSg44Kc0338L2o94Zmgtl0SQgDc11rXarU33njDcZx79+5Np1Pkq8pUs6WU/X4/DMN2uw2rpazODG06GynoJB2nO7SzBNw5kjXHGnJCoOk6XCktred95UWR5/ne3l4cx1ESS/O4TGwvjmPHccvlCtVrs7TgbKa1eS6TJHVdd2FhYW1to91udzotmya0sTlOfJcwiV2Svl2ySJAnk8ne3t729nav18NdoWyAA0aQ1k2nU5yWsbi4CG6RTyZbT8tO0+ZeoCGlsM7I4ZxzrrM0cj3huYHrCVno0XhwdNwfjQbTacS55o4rBOPcQewjpeSaAzlmjCH18dygXC6PRiOllNYc7Z2rq6udzkK5XHbdF/lc6IvWMz8PyE79EWsj3zk+PqbJQEzawlUIITBohqF+PEEbYRI3pdrCPAtRSgk3eNbgIkLDshI6JXg5y9LhdJQkcZKkURROoyhJ4uk09H0vKLlMCK0Y547veSIQnusyxpC3+17Jdfw0TQeDwXA4bjabKysrq6uri4vL9XpdCC4veIb4C1/PrA0UyFInC3DKu3fv7u/vh2HY6XQWFhYAVwABLcxzfnBkTqfToVM458yRNueV0zv0u1QScExbPxILrYrJZNTvD0ajQZYVQjDXCxyXTycRF5pxRwjmOJ7vu0FQ9jxHK0XJvyM8ZUaMOp2FtbW1a9eudbtdA2qB5d/J2jzl+k5sUNaD36fT6R/+8Ic//vGPYRiiJFCv1wF/UoBop9YrKyvCnIlEzVEo45xrl7AIYwAKlCRJlqSFzPJMSpUryRhXSnPGlON4eZ4WSjsOL5UqQeAJ4Wot8zQD7o3iB+d8YWFpcXHxxo0bdPZWns/6RYV48d743PU8voHCJ241OCHBfvDgwd27d/f29rTWKKm7ZhrJM0/pQUDim4cHAuqhqS9Cp+eYgTPNUfkgzKcoCnq+NDPho2Kzd4qi0Hz2tCohBJpFmJKENiINunHj5vr6OowhZtw4546DuPY5EdNnXc/MBm6O2KMmqsKMZyFmPTw8fPjwIbpUJpMJTttEO5udRdOxk3ZQxE6fG2RLoud5mDqloAsIku8GFPLi6443O3gU7p4S5jzP8yL1XQe5Trfb3dzcXF9fbzRanHMpH29j9vxwydIsLZVeZLZ8IVWfgw0EHTPryY9wBtxM1967d+/rr7/u9/tHR0fVahUFW3RsgLiw9cJqOjobJtlscK2TJF3r6CumTj1BWmst9ayPRGstjSdgaC3whMPF0tLCtWvXqJCXZUWe56VSBW5ASk19Do7znZ70+QxUfQ6jdO6iVJ6bZ47BgKBZGF1PeLYYdbrP8UCZ8XRmpSz2vzZ+TpGVY02IKqXIcDmmzQkd87Vard1uV6vVt99+m8wg5TH6u+Gj3329MDawM5xAfjAajfb29nZ2dvA4uTAMAZsjq5jrf+aczz3wjxlVE1Yrn80VZup01LeAD9BBvr7vt9vtjY2Nzc1NFO/IptF19KXPSvgB1gtmw9msmDGWpikGcr/55putrS20UADMIeib/IcdKTFLG6BAWBQyQdipLIPuQmr7WFpaun79+sbGBvKbS/b858MGbrqsbZ0gzYApx0Pl9vb2JpPJ3bt3qZEdTR6IprRp5KL8AAstZQR9awM3Ie5CfVsI0Wq10NS9sbHRaDSQo5AbQ0nOdjy20fsTrhepDcxyrSTRjmmHpsgKHQVbW1uj0ajX6w2Hw+l0iqJ0FEWtVstGA8l6wEUX1mFS0jx0CJYHR59fuXLl6tWreE4KN9O1yvSNzcUCtqz8MK74ovXC2CCtrlBmDXIxq4BsQ8TMoFLgQb/fPzg4GAwGONEQmS0Sdeq5g+mgYTQUwPFkjG63i2IyWjHRUm47AGZ8iWsNjj+mwp8rGyj2KMyTrJU5Vx/v24cCC6vmHgRBGIbot8SJ+NqcSeo4DpJzPOQQT8Ag0SYBd6yTdSjGpS6/s+vPKlJSZmjADj2F6feHJFKFB2U7fJEQU8cci2xrD7cmQdXp+X1mTmRglnFXpoxMnThEYm26u2nRV/58XPSr9V3Wn1IEXi1ar9jwUqxXbHgp1is2vBTrFRteivWKDS/FesWGl2K9YsNLsV6x4aVYr9jwUqz/Bxb9rCpySzLlAAAAAElFTkSuQmCC'</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAATgAAADUCAIAAACH7KhwAAB5nklEQVR4nO39d5zc53Xfi5+nfdvU7RVlASwWvZMAexFFUc2SI0uyHXcn9o2dXMeOHef+buI4eb1uknvv62X7Om5JXCLLRbZsKlazCiVLYgeJ3ttiF4vts9PnW576++OZHSxJkALFBhDzll4kOJiZ7+zMfuY8z3nO+RxkjIE2bdrc3OB3+gW0adPmu9MWaps2twBtobZpcwvQFmqbNrcAbaG2aXML0BZqmza3AG2htmlzC9AWaps2twBtobZpcwvQFmqbNrcAbaG2aXML0BZqmza3AG2htmlzC9AWaps2twBtobZpcwvQFmqbNrcAbaG2aXML0BZqmza3AG2htmlzC0Df6RfQps0bZWpqanx8PIqi8+fPz83PJ3GstXI9f9OmTcNDQ/39/Rs2bPA8751+mW8I1DY3a3OLEsfx+fPn5+fnDx069MQ3niiXKl2dHVJJzrlUGgA8h2FK4yj5qZ/6yd27dm/estn3/Xf6VX+PtIXa5uaFc764uHj16lUllZCCUtrZ0ZnJZT3PO3z48He+851z587WKtV6o8Ecls/lL09MGK2FEFIqrRUAYIRWr11zZWKyq6fnfY8++sADDzzwwAMY33o7vrZQ29xEVKvVEydOvHjoUEc+TwiZmJg8f/7cpUsX/SCVzWYG+gf7+3q5ELV6/erVKR4n2mjCnEpxaWZ2XkqRTqe11lprpbRWUhtjjJmenh4ZGXE9r1wqbRobe/8HPvjggw/s3Lnznf5ZXx9toba5KVhcXPz3v/7rpVKxr7evr7fn+MmT589dkFLkO/IDAwOe5zuO4zqu0qqwVFhaXPR9v1ar1WoNzhNjjOt6jsuKhaXWE1qVaq07O7sWFxe4kPlcLgiCVMrftn3HBz7wgQ9/6EPv4M/7emknk9q8wxw5cuQrX/nKpfHxJI6lUseOHysulfzAS2dSjuMySoUQ6VTaYc784vzS4qKUUmtdrzeU0kopAFBKl0pFKRWlZGXgQQhhjJeWCqlUKkcp56JarSilThw/5jCnt6dn//7979zP/fpoC7XNO0a9Xv/bxx//00/9z6ViiRLKHBY2QkppNpumhBDG8h357s7uMGzUG/Wr01frtRqhVClVb4Q8SbQ2UgopJaWUMQdjSSkzdtmrlL0EQigIgjAMhVQOoxjjYrEYhY2vfvWrjLGBgYHVq1e/s2/CDdJe+rZ5B5iamjpz5szf/M3fHD58BACMMZwnSilCCKE0l8t2d/f4nqu0llLWajUhRBInYRglSWx/Y5MkeeXTWn0ihAgh9hZjDMIYEGiltdZKK54IpSXGZGTt2nvuuff//D//f12dnW/jj/490o6obd4+tNZHjx174utfe+aZZyrlcrFUbjQaqVQKYey6HnOY4II5zPd9ABPFMU8SIWUURUqqOE6SJJZSvdbzG4MRMsYYYxBqBiGEkAFjjFFaSyGFFEopKaPTZ85U6/WOzvz/8av/htKbXQg3++tr865hbm7uyJEjf/rpT588cQJjEkURANg6BMG5oYYykkr5juv5ni+5iOM4jEIhpRRKKimFEJzrG1gAIoRW/qfRWimllBJCCsGTOEYAnuNgQuqV6uEXD506dermTwK3l75t3g4e/9zn/vgP/3Bmdo4xKoScX1jo6+3FGGOMoiiy+0zX9To6O1yHEUIbYaPRCJM4UUpxnhgDWkmltdYaAF7tIFQpZRNIVqs26yulUkpKIaVWSiktpQIQnGezWWOM57r79u391Kf+tKOj4219R14nbaG2eUtQSp05c+bcuXNLxeKF8+e/9KUvZTIZIeTU1FQ6ndqxfful8XGrIkpJEKR836WMOZRRSrmU1UoljmOtNcak0ai3nvO1axVWxlJjjN2y1up1Y4xRikvZ+luKsVQaI4g5Hx4a+pEf/dF/+Qu/0NXV9da8GW8C7aVvmzefgwcP/sf/+B+7uroYY5fGL10ev9w/0L+4sEgp27Z9K0/48y+82NmR19porRjzM9l04PkAEMZRzJM4isMwlFKi5Q2nfdobrygyxgghhJRaaS2l1loqjXAzLDmUUuaIKHQcRwPMLy5+5zvfphj/u1/7tZu2aKkdUdu8yXz605/+3N/9XRKGs3PzjUaDMaq1lkJgQo0xRiuEieOwKIpSqZTneYwxz/eM1nGcxHEipRBCAIA9feFC4OU42VrQAkArr7sSG0K11lLKhHPJuVTaZUxrLZVCCIwBgjFlLPD8TWMb+wcHoyianLxSWFh46JGHN27a9KM/8iNDQ0Nv35t1w7SF2uZN49SpU1/+8pcf/9zjszOzlFLGmBVbOp2JogiMJpRijJXSUopsNocxdl0HIaS0FlxoravVCizvLWFZk6/cdhpjWnna1n3sf1YqVSk4phS0TjhHABiwMdr+lvuut2fP7t27dm3ZujWVSmezWcHFyVMnnn7q6YWFBTcT7Nmz91f/9b/u7e19+9+916Yt1DZvAufOnftf/+tzf/+Vr0ghFheXoih0HIdSZoxRSmJMmoclRiNMMEaEkFQqhTBCCGulpFScJ1prezpqfyetVuGlcrUqhZeqV0oppNJaVatVozXGmFAqhcQIGGNhI3QdZ2hgaO2a1avXrrlj3x1jG8eiJAKDPc8Boy9fnjz4wgtnz5yuJdHg0NDw0NCv/dqv9fT0vGPv5vVo71HbvCEuXbr093//95//whemr15ljlMpl5XWdqfXKouPk9hzPYSQ0gZr5XiBH/iUEGMgSXiSxFJKJaVeTv8AALYZYYQAgAsBABigpVIAUFobY+wCWEgVRaFSKvB9pbVRigsppGCMub6/e+v23v7+0Q0b1qxe09XdlU5njFYOIqVadXExBDBR1HAdRglmjC0uLCwuLHzrW9/6+Mc//s68oa9CW6htvkeklE888cRnPvOZM2fO1Go1KUSj0QAARqmNn0IpsJJDSGtFiF0OU8YcSqjSWkmZJHGScHvSCS9dx7ZWs3hFLrdVxoAR0sZoIZQ2cRwlcYIRhEIaBIJzAEgHwbr1G3q6u+7bf09nZ66vrz+fyxOMy9XKbKUWJdHMzOzCwoKU0mhVqVXjJEnnMuVymRL61DPPfOhDH7qpmlfbS982rw+t9cWLF48ePfrioRdfeOGFqStTUZykgoAQHEWRLd+zRyPaGIIxoxQAtDGMMd8PHJfZ5W7CuZIySbgQHABs/JRSwkuXtfDSU5lmusgYAFBKiyRRSsYJRxgBQJIkBGPX83q6uw8c2L9n7758LusBBYQAQAhRrVTmZmdLlXIUhaVSuVKuKC0xwkppY7RyKCW4VCq7rvdHf/SHu3btevvf3lejHVHbvA6+/vWvf/7v/q5cqUglL1++PH5xfHB4qLune2ZmNgrDXC6XJHw5NgIhmBCCMEEIgZKEEEoJwcQud4WQWmulpC33e1kUBVumixCsSPAqpbTWShvbFC6FlIJzKRECow1lNJ/LpVKprq7uwcH+1avXMkrLlWpUqvA4KVerlXKpWC5Xy+UkSTAm0PxGQNIWLmk5MTmxes2ayxMTnR2d8/MLb//b+xq0hdrmhqhWq3/8x3904eKlifHxq9PTAKhULmVz2YX5eaW073sd+byQEmEExmCMKaV2dZokMQAEQeC6Hhei0WgIIbVWrYyRVaOVt9XkK7O+0Czc50IIpTVonQjRem3GAGUUAxDKHMdVWk1Pzy4WCpTQOE4CTLRSWhsDgDGmlHiuG0axTU0lcRwniZQ8jhKF9JmzZ1zGcrmszT/fPLSF2ua7oJT61re+9dm/+ezExMTszFypXFJKM0owQlJKx3EAwB6x2AyQfZQxRi0feAZBoLVuNBrWfaF1xALXW+XCsj5bf2tvjxMukli2UsFg17PAmMMYdR0PYZQKAoQQl5JgLCONsQAAzggQYrQxxghtIsEBgCse1aNqtSYF18uXzmQyw0NDURR3dORvtorCtlDbvBZa67/7u7/77//tvxVLpXKp1IhioxVljFIqV1TkvTbKBjRjwOjXvqeUCmFEMCaEKKVsgVEUxdpoo1QiBMVNWOAjQJhgRh3qUEYoJgRjbKsFpVKEEIwdjBGA7XEzQgghOOdcKRWGkZAiiROEESHEc710OtXd3R2GYW9vTxQl7eOZNrcMly9f/uY3v/k//+eflMuVwtISj2NMqO97BOMbVykASKnA6JWNLxjjVvDUy8c5Nq5ihOzfSqmSOFZGSylBawBwKMWUUkIJwa7r2lCMMaGUEELso8zyAazRGoxGhtSqNXtRpbQQvFatSSliIRCA53uBH/ie6wdBJpP2gxSllDlMKnndyqd3kLZQ21yHhYWFEyeOf/7zX/zSl75ICI2iUAnpeJ7nuoxSLkTCues4N/hsSn0XVbdqGyglAKCUSjjnnGspuZCe7wEARogy5joOpRRjorXCCAHC9sDGeprZ/NO1QgghJAi7JbZFETyJwyhSUmYymVwu19/fl8vmACEpBOdJ2Gjkc7nZufme7q7Wie5NQluobV7OhQsXjhw58pd/+ZeHDh/OpNO2Pt4LfIex5umlMei7P801WsYL1y15f9kBodY6SbhU0hiDKfUoTQUBIIQRIoRQyjBGGOPm1tJoA1hrMKaZfMIYWSUrJW3fOcY4jKIwDAXnWutUEKS6ukZHN6RT6Ww2SyiN46hWqVbrdZ7w2E84T17W0Xoz0BZqmyac8y9+8UtJEp88eepzn3s8DEPf8wuFJQBwXQcjxIWQQhgARqnrujd+At9c075Upa3SBVg+FwUAKYRSWiqJEaKOY+PnS3K/WimDldIIk5c9P0KgldJApJQAUggRhqEQMoojKYTSmlGazWS379g2sm69Tflyzmu1ar1aa4QNwYXnuaViOZPNajAbN258g+/nm0tbqG1Aa/3Zz37205/+s+6e7uefe25hcbEjn3cYY4z29/cXlpYAIW2M0UabZq61tcm8EVbu914p76ZKmyliirAhBFNKCSGMUkxoksQtkWtjjJYAwAhbjnoIDGCMAJAxoKTiUiohYp5IKY3WUojA97t7eoeGB/v7+wcGBtOp1JWpqUbYqJUr9UY9jrl9IqUVQshx2Lat226qsiRoC7XNxYsXP/e//tf5CxcQModefFEIYZe7CJNao4EAHMfRWgNChGBCHADQWnMubDEQXtHUAt+tZXSlSq91mSKkTfMLwHXYyvsrrZXmrQwwQohRarezRmkFBrShFAMiPI6lVJSxRr0WxrHUyve8wf7BXD7TMzjY39c3PDyUSWeiMLw0MXHp4sViccmavOjmqRICgEq5MjQ8VKvWRkbWvYnv8JtCW6i3NWdOn/6rv/7sV7/21dmZGXuL1ZttIiOYtm4BY1ambRECMMZGWryiTfS6fNdFcqua97r3lFISQmyC16aFtNZYgec6zHWkVJVyyRjDHDo7PccY6+vuXr16za6dO7du297R2WEYCWv1xWJh8sqVycnJudnZJOErT3EBQGuDMXIcx2iNCRkYGLjht/Btoi3U25SFhYXPfe5zTz75naNHj1Vrtc7OzjiKFwuLqSB4I0/byt+u5MZtE6778OaTINSq3SeEZHw3SXilXJFCGtAJF1HU2DK6ccP60Y1jGwcGB9asWZvLZuKETxfm5ufmL166OHN1ulKt2oOllk1hK2+ktWHMieOEYNTf3/e6f/K3mLZQb0cOvfjiH/3Jn1y4cOHy+Hi1UgWABTHvum5HPs85f6df3ctxXU9KEcUJADgOIxgjTIpL5SAd+J5f4uU4ibeMbd44umHz5q2rVg319PQSQhzKlorFK1cmT5w/WyyWioXFRhghhBijCCue6FdqlTISx0k6HdyEhixtod52nDt37g/++3/75je+Wa5UHMfp6+8TQi4uzCecd73hurk32Ix13YcTgjnXSknKGEKICxEnDZ/SQqEQiSTjp9730MN37j+QyaQ5FxgTKaSWSitVWFiYnJiYmJiUPOFCAoBSWspE2ppkALw8yHs5pWyklL7nDw4OvpGf4q2gLdTbhZnZ2UMvvlirVp96+plvfuObCCHGnCRJlpaWcrncwOBgtVYrlyu2uuCmwgZ5x3Fs3WKtXk/iWCBqwPTmu+68Y9/73/8hJfmVqamBwQGjtdYKE1qtVaeuTE1NXZU80cYgBFobqSRG2PPchHMA0EZjhK81oyvNGHvgwQfXrFnzTv7A16Pdj/rup1Kp/OZv/ub09Ew+n3v22WfOnbvg+x4glEmntdaFwlIYhSk/SKVTreTtjYKuJX5fg9cwIrsRlNKEYIRQkiRWYBhhxOXdBw48+OADHV3dVyYmCCG9vb19fX2e57nMSTg/ffb0c88+Nzc3G2Owhr7LeTLiOKxWawDAcuK6WcCotOrp7vqbv/nbXC73Ot6Et4V2RH2X8+STT/7xH/9xvVEvFovjl8a5kB35XK3RwJjYYgbGaE+qGwCUUkobgl9PUY5tVXvFLS/juoU+rYIHvezYAAAuoVEUE0I8z43jRElFCImjkGJsAOI46ers2LJl68i6kQ2rR6rV8uJioVqv9/f29Pb3ZdO5mCdgoFyrXJ26euTI0YXFBW2Mks2WgOVGHF2pVBlzlFJGawAEBADAuh9GUTQ5ObFjx01nnN8W6ruZgwcP/of/+B+KS6V6vV6r15SQzHXjJFFCAgNMMAJAmNhjUowxIHNdpX0XvttDrrtqs+rVevkMFSEAWFwoDA32E4znFwqUEIcyHicUcKVaBYDve/8HH3nve2u12vTU1ampK4zSjq6ugb7+vr4+yhjFSChSKBenrlw5f+7czMw050IqiRixNf+6aUUIjDkYY2200QbhVicdaG1KpfKVK1NtobZ5+5iZmfnMZz4zcXmiEYbWFgFhbLSSGgyAVtqOOQOtFBCMQKO3dROktIZr3trN+U6B5ympIhFhQISQalivR420nxro6V2/ft2O7du1VpVKuVypZDPp/sGBNWtW53OdLmPGGK5UFIdTV66cPHFibn6ec26MIZgI9fLF/HKbDgZyzYVUSqmVjGNRLBbfzvfhBmkL9V2IEOJb3/727//e7x0/fnxxYcHzA0IwcRxr86elBDDG7kWXtaoxwddfor5VqGX9YISMAQRGA/T0dM/PL0ilXMrKtQoXwmXO2OjGrVu2btq8qVqtPPnkU5lsZnj1qqG+vp6+nly2w/rfxzxZKhVnp2fOnzt3+fKEkIJgorVmjK5cmq+M7bYgyWaY4ihuNBpSSc75TXhABW2hvvuYnJz8nd/9naeeetoYvbiwMLpxbHZuDjfXmUpJoY0h6G09J7zuCDajFdiFd7PWF4yWhcKS1dJSrQwAoyPr9u3du3ZkBGNaq1UrpXJfT2/vQG93R8/I+hFKqVGSS00IXlhcGJ+4fP7s+dm5mTAKmeMYBFJLrHErPfay7yGMEULIGB1Hca1eL5dKrufCq6S+3nHaQn33EMfxV7/61f/6X3+7XK7WarXpmenBgcHJycnlKjmtTfOUnzKqlEYYIwR2m4rRO9baZbSyS3GjdZJwlzlcJGk/tW/f3t07d3b19IT1xtzcXLFYHBzo37VrZ3dnN6bE8V2dCK40QtCIokuXLp0+c+bK5KRUilLmMCqFBEBSKb0cUu2p6cpSJCF4HMf1RiMOGxhBKkj5vn8T2uRDW6jvAowxR48ebTTCp5956vN/9/lisTh19SpBaO2aNTOzswghDNiqFAAIxgiQNoAJBmiqlGBkGz61+Z6SSTfwEl9528o+Nd10FzSUUKFk4AUPPvTA3t17MSGzs9MLC4uUsO7ursGhoUwuF2RSnufFNimstTFmYuLyqTOnr16dbsRR4PuEUS6lNgZhLKQ0y3lsjXXrJAYAkiSOoqhaqSZJLLUO/GD16lX5fH716tVv/jvwhmkL9damUCj82r/7d9t3bF9cLPze7/+BljJIBUODQ2EYzs7MpNPpRhg6jiOVtNkj+0srhGSMwnIstSp9m19564qyGe2NUSrhAgDu2r//rgN3xVE8MTm5VCz6rtPX2zO8enigv98lTHCJIcGEEKk00lEcjV+6NDl1hcfcdV3f8wGgGsaADGNMCwX2+AVeOt3YGCFkIwwbUaikJJTmctn+gf6ent58Lv/2vhM3RLvg4RZmcnLyueeem5ub+86TTz799DPZdKpabwCA0do0zyIMAGBMjNYGlq39ABFGKbFCXeGjq21DybX41zo1eR1hdsX97YO0uXY2a8y1/apSyi684ygyxiBCuru6N61bPzw83JHNzS8VjJSpTCaTSq1ZvTqVTmeyOd/3UynfAJIJD5UKw+rl8YkTJ05cvHhBSKmkRJgCALy0ZkMYzRgzxkRRiBByXa/RaBSLS2C9WqRkrrtqeNXWrVswRlGc/Oqv/us777jzxj+Ft4d2RL1VKRaLX/ryl//iz//s9KnT6WxWCF4qr7QmulZLALpVA4QQgFVps/97RSDVyKwMrdcyQG/8qxwhjJBSOoljA8AYdRwnjqPADxphI4yioaGhO+68Y/Omzczg0tLSufPnMpnsuvXrBgcGXc9NZzKpIOV7HqaEYCy44EJcmhg/d/786dMnZ2fntDZBELhBkMSJ/amWL4sAAKSSShrdLHioVivFUsnONVZSpoJg3969u3fvuTJ1pVQqK606Ozrf6M/7FtAW6i1JtVr92te+9ru/8zvVaq2nt2/88vjw0ND84qLvXadSt1X6gwAwpRgTGzYRglY36TWbhZdOfLluwvb1YrRRYBCCZiExQgCQCoIoiuv1+rat2x56+KGerq7FpaXJ8xeR1n4QjG7cuGb16kw2K6VMp9KUUK0kAGhQpUp5qVB48fChqSuTc3PzhBDPc5SSguNXSYghW9hAgNp21iRJXMYwQDqX37Fzx7r1G8rVSnFpSSiZTqXT6fQb/5HfdNpCvfWYmpr6f/7f//ev/+qvM5k0paSwVEgHQRQn3Z2djTC87kMwQggQphSjawrEgFDLaXe59qAlXVhx+xvcwCIEQkqMCaNEG5PEiRQ8lcmUK+U1q1c/8sh7MMLnL1wMo0aS8P6+3tHR0aHBwWw2Swk1RjNCMEYIEwSwVC6eO3v+wsWLZ86crlarxkAqlQIAO8BmpVBXOBtSpZWx042TpFqrIYBao9Hb27dzx/b16zdoo2dmZoQUWqme3t6bzYTF0hbqLcaJEyf+1b/6pUuXxl3PrVaqpUrZdZztO3acPX3ac/Otuy2Lzf7TgC0RRM1cqzGgtTLN1GszZhqttAGMgFL6pjdkGgNSCJEkymjJudJalkpbNm9+4MEHKSXT0zPWG2V07chA/0BfXz/CRGnt+SydTmltiMMoIZVy5eL5i4cPHz518kSCwGiFCU2SRGuNMSEE2yIKY4zSSklpU1SMMSmlEJLzpFqrxVGEEO7q6j5wYP/WLVvKlcrVialG2Aij2HPY4OBgW6ht3iiLhcJ/+s//6fiJU0JwKWUQBKtXrSpXKocOHcpnc6Vi0XHd5fsiBIAwRhgrKTHGmOBmjhdAKamERBgjcy37YxvEFCCAN1mrXEhCCJeSCy6ldF03cN2hwaF7770nl8sfPXoEE5LPdxhjVg+vyufzjDHmUMdxfc9zXCeJYgQobkQnT596/uDzExMTjXpIcynmeEbrMIqo4/iMCqk0aGOMUVpKKYRQWmoDutEw2jSrjpIEEzI4MLhn7+6hoeE4jqenpwuFAkKgpASHpVNp54b9it9O2kK9BTDGnDh+fKlU+tznPvfE15/o7u6+cmXKdVgYhlJIx3HS6bQyGprSQtA8IMUrShowWrHtbKaAraN86yq2QB6MUpqQV6yB3wAiiZ1MpmlcaCCbyfQP9H/iBz4+Ozd3+sypYnHJGEiPjGzbtr0n35lKpbLpjON7DmPGQL1WdxxHS1koLR07cvTEiRMIoc6ujoaWjusYDUpr13EJxtVazXU9raQyRirJBVdSa6OiekMDEISUMVrrdCq9bv3Izu3bL12emJycjMIGAEilMtmMlrKz8+YaOdOifTxzszMxMfG3jz/+nW99a3JqamF+PoljO0tU25EQr5hWaLejVqW2oJeQ68RGfb2PXUsJAIRRu5K8lk+67i/JcixubW4BwE6mUUrb0xdjQEmJjNFKG6M7cvl1o+tXrVqdzWRL5VK9WiuXS9lcdtWqNRvWr+sf6Bdc5PMdBGOEUCqdNkpX67WwXrtw6dKxY8fOnzufxInWWkhBAg/s9xFC9hsKGROGodI6iRMuuNZaSokQwssv3iAUeP6ePbt37Nw5MzM9v7BYrVQYo4xSIRUhmDL2m7/xmzt27PieP6y3jnZEvXlRSl2emPgv/+W/nDh+fHZ2tlgsaoCOfIcUot6oe9dboWF79LkcS2FZqzdI84E30Ave5BUO2kKIIAiqYTURnFLqOI49KWWO88ADDwwPDzfCKGzUeBwvLixenZ5es2bNex56OJ3N+r6XClIQgOs4gBDFWPBkfnFxenrma1/5Sq1eKxXLSRJTRjEihLLWd4/RRiSR7WhLkiRJEvtSCABorbRWAJQxh9Lunt7tO7avGh4+fORwayCNVMoYQAhxITu6ukul0o2/XW8nbaHevExNTd177312O4oBHMaMMfV6jVIa+IG+/kCX5SRSy5369Ww1m0tlTBC6Aa0uVzW0YikAOK5XrVSZ63q+F0VxtVJVShJA+3fuGhkZKVeqs7MzkvN0OnP6zOm+gf5du3d3dHeBAUIoY47WWipFKaWuW1wqnDl56sUXD12dnlZKSSEQAq20aY6bIcYYY4zWKoqiJI6llMoYZRcFhGJGjVIEYwNgjBkYHLzjzjsHB/rPnD23uFDI57ONRgQAuXSGUWad8u/av/+BBx648bfr7aQt1JuRMAxnZmZ+6//7/zzXEYIncRz4vuv7SshGFAKAy66f8GhtTaG1VX2d4OWiwu96z5eteAHAALiMxmEjxVJSqkYUaiUzmezImtXbd+yYmZkuLZWCdFCN4xdffCGdzu7YsXNsdANG2HGo7wfWIpASKpUaHx+/cOH8i4cPnTt3xnF9QJgwprQ2SgECA8hIYYyxo8LjJOFCaKUAY6U1wZgyKoVUSlJKDcBAf/+WrVv6e/vKlWphcSHfkWOMQSOijDDKoiSuVmtjmzf94A//kBCCMfbaP/g7QluoNx0nTpyIk/gv/vwvvviFL0zPzORz+VQ6DVrzOAaMPc/TUjbC0HNfNTnZ6okBrV5XBsIG0peH01fPYrRU2rqH0poQKqUqloqC857u7l27do2t21BcWoqjuFavXZqYQGB6e/vuuffesbGNQTpljOnIdTqeE0YJwZhQMrcw963vfOvMqVPFpSKmDMBoO/sYAC33oHHOlTZSCKlkEicGQWt8I1hbGSWV1gFjQ8PDO3fuGBwcmpmbHb90kXORSqeiMCIEM0qjJC6Xyow57334kc58582pUmgL9abCGLNYKEzPzP7f//d/PnbkKHPc7u7uJEkIJsqoRAiHUsqcZrf39bgWTpd7U15XTEUr63u/Gytj6fLrhyROEMbVWtVlbGhwaOPGDYNDwzHnU1enXMcJo7hSLo1uWP++x96/evXqdDpFCXVdz3GZfXxDiMLMzMGDB48eO760VAAA1/WEknakBaXU2oUqpWWSKK2VlIkQCAwygAkBAxRhMICMMcZ05ztG1q8b3bgxk8kWi8WpqSvFYikIUmEjVEq7rqO1iaKwu6d7167de/ftrdWqmczNWJYEbaHePFy5cuXChYtHjh7+iz//y6mpK6l0JoxCrLHrutVq1aHUdV1kTBiFLmOvvkd9CQiTlUK6IV5PJ01rxQutlbBWWqkwDEfWrLn7nrt7uruXlornz5/PpLPHjh9njLz//e/ft3dvKp32PE9r7aVTKd9POFdKASL1auXkyRNPPvlkHMeZTCZJeBiGruuYlgEawkrpMAqxAa1UIoQdjUooQQhhhIE2KzpcytatG9mxY6eXCs6fOzc7O8cY7entSZKEEoKwopTU66ExZtOmzR/+4AeGhof6em86g/wWbaHeFMzPzz/++OONRuO3f/u/2p6vRtgArRUoJYXLGNiTNIQ8xzHGKCkIpfbgBNnjE4wpoa7rwIrdoxVSawQbAjDQPDJxXNeWItm0MCbYTvJ+iTngcrqo1VLzsiiaTqVqjQbn3HEcQghPYqV1GIYbR0d37Nzhe/7k1JXFubnu7p6zZ885DjtwYP+999zT09dbr9dz2TymGAHCGIIgKJbLczNXv/30k1emrjQadQAIQ6GUchxmZ88QjLUxjUbNpnYVF5QQjDEiRAHSUiGEhBYpP1Bax0k81D9w5747+vsGvv3sU6VyWSlJKbE/RhxzjNHSUnHNmjVr1q796Ec+2tc/QPHNaOzQon2O+s4zPz//8z//8wbghRdeiMPIAFgrhla7lrVlaNpwIdTUktb2CBEjTCglhKzsJoNXCHVllGzp0zqe2epCQqg9cV05B3Hlb0frCe1tCEAICQCEUqO1VDKOYwywcWzT9h3bAWCpsFiv1bQxhblCT0/Xo48+umbtWocyQrEfpDHBDqYI40bYmJ2dPnni5Llz5+crS/VaI4ljx3ON0sYYTLCQ0n5t8IRHcSwEB0AuokIJrRRCiBCijTFae65LMMlls+vWrd28ZevSYuHi+LhEhlBqjI7jxGjNmAMAhODhVcObN2957NFHpRQj6zesGh6+CSdZtGhH1Heexz/3+PFjx7gQhaWllB+0ioWuKdOO/rTeXPbUDwAIwQhTRtmKcr/Xts+2JYTaGKyVaEbF5p7UHsk0a5NewctSu7AcZjHGrucmcRI26gbAdd2NG0e3bd22uLhYLC5RxmIuFubn9++74/777u/q7ESEZLMZSmgUhpT6jucsFha/9vUnTp88OTe/IDhXFCEEzHONMVIrrTU2GACkUTzhURRp1XwtIQ89ytKptFI64onveblMZnTD6NimsW1btzLG/uHb37p44YIXBKHi9VoNALLZrMNolCQI4bvvvnvT2NiuXTt7+vqUkNlM5mZWKbSF+s6SJMkLB1/4g9//g0KhgAjJpNJ6+TexqUyEUMskRWtjjAbAxiCEfM8nNha+dELpa2OjojbXet9af2VPRFueYy97YEul19pUAQAgCsMoihLOe3v7NmxYd9+99x07dtS+nksXL/X09L730Ue3b94yvHpVvV4DpT3G/HSKYoIpXiqVXnj+hUMvvDA3N4cx8fwgQZJSZkCLRCgwGGONQHIupUg4twVPGCNAKGCuBlOrNxSo3o7Oe++5b93I2oHBwXQ643pupVSqlytxHGNMqMeklBhjSknMhdHmwF13fvD9H8AYkjhxmZPp7Lo5W9tW0hbqO4aU8uy5s//21/6tEKKzq2tufj7VEdg+NWPMct1CqwnGGNSUpfU98lyntZ+0Axtezee+WeoHAMs2YislbbPERiu1rEOEwGjVvPCKdFRLpXbZrLVOBBdSainzufzGjRs2jW1eWFys12qNMKrVaqlUavPmsTvv2JdLZ8NGPZfNpzwXUcK5cAOvsFg4efz4t77zraWlouv6hCAwWhmNtTZGa6UJtdNZVZIkUkoppZ2CgRC2L0QIYQC6Mvl7733gzjv3ZdMZP53SSldKpcsTE6VKFQA4TxABSqnrekqpWrW6Zs2a973vsUw2ncnm1o2MlMvlm1+l0BbqO0WxWHziiSf+2c/9XCadrpTL6Uw28PzZublsNnu9u1+buksZ81yXUQoIa63AqtQYAPiu0yi0AS2lsapsxeLlCxgDWkqEsbHqRYBW5I1W1u7bP0gplJTIQH9//8i6kf7+/iiOLl28AAC1Wq23t2fvvjs2j23yfZ9gTIiT8n038HgULy4tlMvVM2dOnz1zdm523mEOoVQqqaRSRiKEtVYGjDZach5FsZRCSXtUazAhAIZQ4hja09m1du2a9RtGt2zalEpllJJhraGVmJ2Zu3jxYqVU9FzPIBBKu64HAEqb4aGh+++/f2ho8Or0zOo1a2u12s3pOfhK2kJ9B5iZmfnbv/3b3/md3x0eGro6PY0QopSERvd0dyecvyy911z32j9j4rluKpVyHLder8OyLZiNg8S2p7w61kjJFg9gjJtVwcttblrKVkuNvRiga/2s8NLEktGaSwkI5fP5sY0bV4+MRI3GpYsXcrnc+PjldevW3XvP3Rs2bUr7KWMMD8OhoaFqpcYrNUZJsbD0/MEXXjz0QtSIPd/HGEdhqLV2XUcnCoyxJUegTRiGYb1BGTPNqgqEEcIEI4y3bdoyNjq2bfu2js6OKEwoJalMLomiubnS+Qvnz58/n06lUun0wvyCk0sDQJIknuds37Hjvvvvq9XrDz380MLc3E04te3VaGd931bGx8effPLJc+fO/dmf/3lzubrslHntTlprrTGljDm20FdK6XleJp3O5fLpdKpSqViVrsRGRylVc+Gomn0zdlShNqCk1EYbpZQxoLXnB7As3ZbBEgZAsHwUgxABBAgb0IxQjLHSWmkF2ggpEikQQD6bv/e+e3t6eqeuXFkqLqUzmfELl7bv2Pbe9763v78fY6KMJoDSuawBTQhbWCocO3Lk4PPPX7x0yb7sVoOOFSemSGvNOU/iKOFCa62UNtq4LgOEOBfZbHrT5k3rRtbdsXMfodR1XYc5nHOMcSrwr0xPnz595sL5c2GjnnBJEE5n0+VaNZ/PpYLUgw8+cOf+A57r7dm3VwqRyWTe6o/7TaQt1LePc+fO/d7v/f7JUydOnjhlk6XLIe7acIdrJkZKSa1tA0omlXI9z/d9THAURlEYamPsiPuXIeTySnVFhlaJ5nJXai2lpBhjjBlzVmaFmhksALRsRWgLHzAg1/WElFwkBpBWSghuABDA4MDAPffdJxNeWFpsNCKpZMKTHTt23nPgwODw6iQOESHZdDqVTkVxXKyUz5w6deT48XNnzkVhgzlOkiSwIgdmk67EwVEjLFcqxhjU/Aqxne7Kdd3t27fcc++9A/19ru8zzVLplDY6DiM/8KXUi4WFY4ePXpm6srhYcF1GHUdyjil1fX/D6OiB/Xdu27otnc2mU6kNGza8RR/xW0d76fv28ZWvfvVLX/pirVYPAr9SLqMVoxNaTaSwIro6jHXk836QyuezAKCUCsO40WjYNsuXPXnrBKVpqI2p0kYmiTLahmguZMscFBFiru06rzWpGW0QIECAEMIIEGCEIUliW6ZHqaOM5FI4lHV1du3Zs7e4uJhwvrS0JJXctmXrnQcODA0OMurUa+VMLt/f0ye1XJhfKNcr3/zWt48cOhyGDSkVAMjlLxTbemrDqTZmsbCEMcaAtVFCSKUNAOTzmbGxjXv37tu1a4freFJIZaRHfYKwMdr1PYTw+PiFM2fOnDl9RivNHMdxXSk4ZSyTSj/2fR9es2b1nt17l5YKPd3dN+Hs0xuhLdS3A631wYMH//zP/qxSqXR0dFYqlThJvJXePCuFp7UxhlDW2dmZz+copQAQRXGj0bD5T9sSvdIxRBtjVnSC24MWrZVaXutKKa9VPOAVVQ3Xw3ZjN3NJBpRW1jpMaaOUpJT19w2MrFsLCApLS9Vqraene9eundu27ejt7YuSsCuTdj0XIVStVkqV8tWrV4+cOHbw+YPzC4vZdIoyxrlKwrBZo0EoMobzREglksQGWKONENJxWWdHZ2dXx/0P3D84MDgwMOj5Ho+TVDaV8tNxI6rXGpjijlznzOz0qdNnpqeuYEKCdMAoS+JYa71167aNY2Pbtm3v7ekWUvQPDHR0dARB8KZ8pm8zbaG+5SRJ8sQTT/yX//KfFxYWuru7C4WlRqPe3d1dbzRg+by0ueJdnrDGCM1k0h2deUap1qbRiBqNehRFdvY2NIuNXlLrtyIqKrk8JMIsd5E0/wqMrY1YueFZGZwRRmAQsSrF2OimPQshRCkVJpFDWU9X18jImqHh4SuXLyeC79q9a9u2bT09PR35fDrwCCMA4PkeMmapXD569OjRI0cnrk41Go10KgCEOedSSsdhevmMR2vFhYzjSEuJENZKJ1wQjAYGBvbt3Ts6Ojq2aRMgQxBGCNKZFCFMG+0wh7KEUgIYpqenp6cmo5Azlyql4iiJo7Cvr3/vvn17du1CLlu1ao3rMs/zbk4/pBuhLdS3FmPMkSOHP/1nn568MgXGXL58WWk9NDiYcG6VZhBa1qq2/gyB76dSqWYFT5TYMdj2JKZpqoKQw+hLr9LMimJMtFZKSGuPyaUEAwgjow1llLTqEJfPaQ2yFcQvcXIBjDAiGoxtL1NKWbsjh7Lurq6NG0Y7u7rq9brUeu3IyP333b9h3bpKvaq0JoylHbdaqSZJVKs3JiYuv3DwxVOnTjLfo5QxRqWUQnCEEGOOlMIYE8dRHMVKSSml1BqD0VpnU8GmsdGt23ds27qlr6+PEmKMxhh7jo8xjpM4iqJUkPU8Tyk1Oz19/vz5sJFQlxil4ohLJVKpzJ49ezaNbero6irVqnEcpdPBratSaAv1LUVK+cUvfunP//LPn3ryqVQQFEul4eFhKeVCoYARcl23FRWtWmxc9T23o7Mj8L0wisOwIYWIk8RxHNf1jFZxktjT1OuexGCENIABY53gAZb73BAQhOyu2NoiQPPmputS8+GAWi2pYEDbkWdSUEJczwtcb93atcNrV8eNaGJyfHB4+D0PPui4bq3e6OvrBwSlpZKSynHZ9HTx2YPPHj18uFquZrNpQ0ilUhGCEEIJIVLKOI5c15NSRFEchqHdOyOERCJcz9m5a/tj73ts1erVqVSgtSEYM+YwiuNEhlFIMM5lc2E9DIJUKMXU1NSVyUljNMXMYIII91lq3YZ199x398DAQBwnmzZtyqRvUm/BG6ed9X1LUEp9/vNfKJWKf//Vrzz/3PMAwLkQSWz3h/YsQgPYXZrN+nqe77nO6lXDdtywELLRaMRxbFsxW8/cin5RnCAEGDdr8e0ZDOdJs9JQa6k1AFCMoTm0Fy/bFIJRqlVIvPI5kQGXUoJpzOMkSbQxBsBoTSkdWb121apVXuDxJKnWa0kU//iP/9jatetcx0XIIIRjnjTCRne+48lnnv2Hb35jYWGRC4EAYYxK9Vo2k7bHUYwxhJAUAgBK5UoYhmDtS7UmGA/1dW8a2/TeRx9ZO7IOY0wQJpR5jtOII8ETx3EZY1IqA4ZgpxGF58+fP/j88xPjk47HtFJKScLY9u07Pvj+x4ZXrRoaWt3Z3eF63k1ex3sjtCPqW8Kf/umfLhWL//0P/sD1vEqlEgSBktIgRBACQICMAqDNzk9DCU2nU0EQBEEgpDLGCCGShAshX6ZSgGszs1tlSMaAUtLK4CUqNQAAUmt6vV9Ts3we04qotlCJSwlaAEae52ltuOAGoKujc9XqVb39/QsL8/Pzc+tGRu69596+/oF0OhVFcbVeM0ZRTBlmX/na18+dOzczOxeFof0OAASMkuUX2Syl4kKG9RrG2HVYrdEAgIH+/vXrRu6+847evp5169b7XpAksVBSKBknkeO4mXQaDNJaGzBKilrUmJ6eOXb06PlzF1JpnznO9NTVVDq9d/vO7/++j3q+NzS8amjV0Fvy6b4TtIX65iOEuHx54stf/rI2Zvrq1XQ6E8fRCr0t1wMiDGAQoFw209XT4zkMU1opV4UQQnCbdFlZOv+yPC0h1NbQc6W1Vmq5FNZK1J6uGGPAQCuMI61bIVRq3ZQvQsuXQJSSOIqElIxSoQ2XHGO8amjVnt27jDHjFy+k05mPft9HtmzZ4jgOY+7i4iIgoJSWS7Xz5y5cvHT+0sWLjUaslHA9D8D6hGqETKvNXUoZRbHgSSKllhJT2t/Xv3Hjhl2792wc3dCTz1FCGHGQAd/1AwQAECVJynWNhpDHLnNAy1qldvzk6eMnT16ZmKSMxFFitNmxY/v3/6N/1NnRMTA00N3dg2/KweHfM22hvslwzr/0pS89/fSTJ0+e6OjszOXz8/PzvufBchkDLPfEUEYZY6kg6O7uclw3DKOwVNF2ASeEPYbB+OUNovZosdVoqqRUWtkdKbZuveglwxTt7tT+0eaQjF2q2jMYZMsKbNoZkiSWUhLctNqkmIysHdm1e9fczKzBcM+99+7etdPzAmU0xnRxaSGTSi8UCqdPnTpz6tTs/ILkQkhuTHNuGhilhNRaU99TSgKAUroRNniSJJwTjCljGzZseOzR941tGst35BFCeeYoY8BoSgnG2CazujvyUZzUwzrGGBkzOz199uzZF44cL5dKCGHXcaWS++688z0PP+w57pq1azs6OzO5TPbWPC99NdpCfTOJ4/izn/3sp/70U8ePnxwZGbk0Pt7f3+/5/rVdoDH29IUylstmHNdNp1KeH/AkDhthFDZst4qyyZ5XOIw1Z8YYAGiWBFrrWikkwqh5D/u/ZazPkHXWtLcgALD23MsqtdivA8YcMEZIocFk09mOzs5ardo70L9r584tW7b6nluqlJMkUa6UCT928djFS+MXLpybm5kDBOl0xgijAWkhbRUiGAPLW+iE8zgMG1FkjCEYu44zunHssfc/tnP79lQ6AwAJjzHBGAATx9p8Sq0MgOAyiWMwxqV0bm7mxPHjp06dLBWrjufIMC4UCvfed9+HP/ih3t4eTMjo5rFGo/EuUym0hfom0mg0/vTTn3788cdPnzpNGb146dKWzZtPnzkzumHD/MJCs7YeY8dxUkHgum53dxcmBCMUhY1Kpcq50MYonqzclOoVim32i5rmnGIlhVouJLQh1GjzkiJ6BJRSslLty+llAAB8LeyaVgcswhijOI6llB3Z3OaxjX0DAwjQQ/ffv3HTpmKxOD8/l06ntFLj45eLhaVvfesfyuUqRsgPUlLysNGgjNraJm2MURooxQaUknHCoyhM4tgYk0mlOru6Nm/etHnzlqZKEUIAruvHScIoI4QiRBAYRjEA4Zxroyml9Ub9hUOHT506ubhYAOKIJGGMrdq48f777lu3bh1gRBmr12pd3d1v6Qf9jtAW6pvGX/3VX331a187e+as4ziNRrhm9erTZ850dnRemZpyXRcAMMIYY9dxfN9PZzKpVForFSVxsViqNxoYIYexRNq+7WZLi13otkZSNCt4tQYAW8mAMAJjWqkhirHU2sq16ftg29ZsVS1AK61kd8itfa+NuWAMV8oWCa7fsP7AXXfn8/kgFaxavXqpsFQoLgmeiIRHUVgpl7/17X+Ym5t3HEYdVymFAFOHSKUoBm2MlkppDVIBAoWMSGIlpdLadd3evv7169d9+EPfl8tnqcMacZjyU67jAADFQBmjlAForQAhhAlBAhFMMYKpxcKJ48dnZmZSqRRizmKhsGp4+D2PvHfzli2NKBwY6E9ns7dWqf2N0xbqm4Ax5qmnnvrzv/jz8+cuIIyiKFZSFEulbDYrpGCEaCkBY0yI67mZTKa7pzubyZbLJSlVHCdaG+uCr41ZOSfG5ooMAEbXPiYhuORcNrUqXeJQ143CEBNijygBAAxQgmG54dQWVOCVZxRal+vVfC6fSacajVBKjiglCCspY544lO2/4469+/Z19XTls/nO7s5iqRhFCcFYYzI9M3v61Mnx8UuJUk7gaW0iHgPCiCCEUOAH1WrVGEMZJUCUUkrrpbmFfCYVCkER2j66/r2PPjo2OoowRUK4rtuZSmFCkNEAwBGhjleq1RCg3p4ebVShsEQRaSQNDXDqzLmFUtnP5qOY86Q+tHrVR3/gYzu379AYDQwPU4LfrSqFtlDfOIcOHz525Mjv/O7v9XR3Neo1RIhdXtpaPUBWIkQq6fv+6lWr0pm0UbpcLiWcS6E4T6QUrVaYl81QsybaLcUqIY0xVqUIIUwpYCw511p7rhsLgQDANIscmqPdXuWcvCOXB4BqrZbECSCgWkullZQOZZvGxnbv2bN185ZsLgsYUUQVZVrWJ69cvXDh3NXp6VqlroyQWjfPhADAKIyQQfjq1FRffz9CqNFo2PJdIXg68Iu1+siqod179q5bs7a7szOMk76eLKbUZQ4mxPa92q214iKXyyGAMI5kHAOgar06ODT4jW9886mnn/F9f2F+kTrOuvUj/+Rn/ummsc1zc3N79+5FAN71pq2/a2gXPLwhXnjhhf/5qU899+xzxeJStVYz1rzTHodY3xBCrA1nNpsbGOx3mZMkcZQkgssoCrU2VqX6muHgiukxxth9qUgSA0ZprZSSollejwC01oxSqbUQwvf9KIqs0TvFGJqN4eiVfTYWQmiSxFLrwPcRICE4lzLl+Xfecce+fftWr1rFHFcpGUfRwuLipUuXpq9eLZerWmmEdRQmSRIjh8KKc92VF2qEYZIkNhdttEZa37l39+5du3t7erq6u/P5fCqd9h0XE1uvgQFAgwFjMHO1VMx1DEC9VheCM8bm5uZePHT45PHjM3NzxphtW7fu2Llj3/79XV2drusODg329twaLg1vhHZEfUMcPXr00KEXj5843t3dnUmnFwsFz/MwQkprZQylNJVKBX7Q0dmRy2SYw2Zn56uVMiDsOIxzDgDNSkDrnIuQkqI5btgYpaRZrmewfWoYNV0DjTGE0iQMEcYpP6jrehLH6XTarKgrfDWJWqRWhDGPMoRxo1aNOQeA7Vu3Hti/f83akSQOz507e3VqamZmZmZ2jjHmONQYWavVpFTMZZlsOkwSexndckgEIIQWlgqpICWxLNdqAJBJpd730INbt27NZrMdufzqNatd16vWqpjgVlobYSCAAJA2mvleWG8YY3zf40kyPj7+7LPPnTh5glAiOb/nvvs+8fFPSCVSvj+6caNSqufdmDp6JW2hfu+88MILf/mXf3Ho0OG9e/ecOnEyYSzlB1IKBYAISQVBOp3JZrOplN83MNCo1QtLRWOMH6SiKKrX64SQl/kGmuUzUusz1jJ/iDlvLWgBABmDYMXpKBiMMcI4FaQa9drLXuTLau5bIGMwIVprnsQx54zSgYGB9evXx5wfOXL40sVLly5dKpcrXCSBF+Q78lEUSa6AEEYwIVRJA8gelmp7FdtQqpRSShVLRfs1NDQ4eOCuA9s3bqSUDq9a1d3ZBciEYeiw5gwLow0QAACMCABEiXA9z3EcKbhI+NXpq4eOHLl0eZxzUVko7Nu/7/3vf6yru7Onu0cYXa/VV69e9WZ9mjc5baF+jzzzzDP/43/8j5MnTnV3d1+4cHF049iJkyfWrF5dXFoCjD3P7+7qzGYzgR8QSpMwqjfq1UrFNpcCgFLXJGpbyWz8vHaj0lJJ202KAQxuFichuyQGUEo5zAGAKIoQwOrVq8MwRK84jHm112+M0UrFnBuAwPM6u7p6ensmJyYOv/DiUrHYCEOMcS6THRoaDnx3aanYqDcoZelMxvddzpNGPUSMwLKLipDNGkYppJSSc04wXr9+/V13371l06aoUu7p7unu7AKARhhiTLJ+5rpNBQ6jSiqjTaVavTozc+zYsVMnTwgu4ihes2bV933ow5s2bbK2iYzR20el0Bbq98aRI0e++MUvfvnLf08ZtbNhzp4/t3vXrpOnT6f8AGOcCoJ8Rz4dpOyadvzyZYyJTbFYfwbXdbgQ9tmMAamkVtpoTZjd+IHRGuymVGmDADe7bMCAQQA2inm+p6Wsh6HnOCNr1546fbpVuPtqOaQWiBCjFAIQQnjpNKN0fm6+XCxJKQ2YIAiy6YzjunEU1SoV5nq9/b1KynqtUamUCSGe54oVsVQpLYXQWpUrFUap4zi7d+16z3se6e7uKhaLac/rHxrkghOE+3p7EcLlYilIp4w22ix7xxiDEEpl0lEjDJNoYWHh5MmTZ8+cWSosIUxyufQP/tAPrVszkklnUpl0kE69ixO816Ut1NfNwsLCpz/96ccff9z3vVK5nMRx4Afa6Evj45lUWgqey3WObljvBUEcRfVG3ZoDSSlskT0A2LQQIcR20UglAYAyZvO9SkklpdTK9qxiBDb4IgBju88QeIzVGo2hwaHJyQmC8Y/++I9PXZmsVasvW+OuKIgytqAJAyBCCCZxFAKAAUgHAcF4qVSKo1hK4VCW8oNMOut5LgIktQIAqWQYGuvUwhjFlGFCjUgy2Wy5VKrWaggh0DrmfGhwcHpm5tFHHrn7nnsIocViMfD93du2IQBMCcY4CmOMsRd4juNUqxUw4DguF5xgks6kKpWqNSU8dOTwqRMna7Wq57kA8Eu//MvDA0PpbDabzxP6bj6GeTXaQn0d1BuNP/+zPzt58uTzzz9vt48OYxgTG/0AY8rYyLq1qSBwXFdynvBECimF0k1Uy8vLGFBaw0uKkJRetu20Rkf2doMQJURJqZtzihEYkwjR29s3fnkcAB5736MbNmw4d+5stV7PXs9LuukeBgDL0tWthlQDtkFHa40wchjzHM91XESwMaCNBqMxJRiBVtoW1iOErQM4QmhxsRBFoVHKANgV7/TMzPZt23fv3esHASDo6uzMd+YRXCs/tplsMBA2QoKp4ziAEdXaIJMk3E8FU1eujI9fnp2enZmZRQgNDPT/5E/+ZG93b2dXVyaXzXfmW9uH24r28cyNMjs7+yu/8su1au3sufPTM9OdHR1JwoUUSimCkOv7XZ2dPd1dPf39Ssp6tVauVOI4FkLYtrXWRm6lpXWr4M96MpjW3AqtbdVR89MxYBDga6WBYAxQgvv6+n7g45/YsGHdl77899/61rdaXaYvI+acUoqXnf5sdLX6tN3qWkqMMUI4k0oFnk+wHTuOlAGjFCEUAJQUgGxZBNFKKmVqUaNer1OCpdZKSoyx57qjGzd+/BMfHxoaiqM4nUplcnlGCZUCmiZM1xSLADmOI4TQRjuOo5UOw3C+VLp44eJTTz91+fLk2MbRBx98aMvmzR2dHblsrn9woKOr87VT2e9ibscvp++Ber3+pS996fLlicXFwszszPp16y5euhT4PkIom8l2dXcNDQzk8nnP8+fmZrng1Uq1VqsJ2wTT9Ac0SknddMwFAFBC2klqNoS2nFNaJoCwvC+1v9vaAGVUcG4w9hz2wIMPfvCDH6KMfO5vH3/qmWcAIOHiumPIbT9qqzTfRnYpBMbYYKyb1cI45QdBKsAajNFSattngwFpMEZphBBhjGAiJQ8bYZjEkeAIgdBacA4Ao6OjB+6++5GHH9LGEIy7ursCP0AIcS4ouY66HNcBAKmk4zBMcLFUnLg8ceLMuQsXLoxfvPTjP/kT+/bupcwhGI9t3Fht1Du7u96Sj/YWoS3UG+Ly5cuf+tT/PHvuXBLHW7ZsOX36tOc4cRQFqXRnZ0dXV6fjurVadX5hnieJkDJJ7PYSAYAUwvbErPAJXI6ldkX8CpW+7Op2mUoZlUJKpToy2YHBgfe+971d3Z3f/MY/PP/CixghKUQ2l+Vx/MoX3wqkGqBZxG97ZbTGAIxSDRD4vhf4GJAyqhW4rVW+kdIsD6FJhEh4EsaREAKMNhhblQ4MDBy4++4H7r8fAMCYdDrLGJNKE4xTvmeSGABasx/tv6QURoPDHEJIsVi8cO7cmbPnnj14KJvLjm4c/eAHPkAZKxeL995/3/Ts7NqRkTfts7w1aQv1hnjyyScnJq5Uq9WxjRtPnT5tBeb5fldXpx/4SRzPhVG1UilXqr7nWjEQYrs6tTaAtVrh+gd2ZalUU6XWC7+5FLZ5XYRMa9TEcjAEAISR7/t79+7ZuXNn4Pvnzpw9evRwFIWU0oTzru7u6woVEdJKIGMEBkADUMYAgABgSn3meL5HMNZgMEJmWVMGgQFkkEGAjFZc6DCOOOdKSQ0GYyylTAfB6MaNd999966dO7u7umdnZ7L5PGPMwLUduLbNA8hghO2ERwDQyggpjDblauXC+fMnT52anr7a1dkxOXnlN37rNy5eujg8vHrXnr1T09NtlUJbqDfCU0899X/9p/88snb1vffd8/m/+wIXvKuru1atjm3elM/mGmGjWq1FYdiI4jhsVCplZIwGSPkBc12jldHakGtuCgia7mEIY7sjlS0XspdqtfUCtDUN1NoYk8vl9uzZ88ADD166dOHQkcOnz5wVUlJKmeMsLixcN9Fizb0BAGFk51nYHjeEkNbGodTzPcdxjDFGKoywjXvGJjCQRgYwIUqJKImiKBRSAoC9EKV0aHj4wQcffOihh9Op1MJSIZ1KpYKUEMJo47gOQlCrhz4G0AY1HRSt/76hlIRRWK5Uxi9ePH78xOWJ8SiKMfP+7b/7d77n33P3ffV6LRZJW6WWtlC/C0qpv/rrv44a9fHxy1u2bvvpf/LTzzz9TBSFj7znoUwqMz87UyuXsUEOdZy0Q/M5QKiwuFStVzNB0N3TTQmRSp08e7arszOKYjv5NwrDMIpcxpRSUmsDQOwWlGDVdE8BsLVHCNmy91w2u1goAMAnP/GJtWtHpqauHDp8+OSJk416nRCKEbZDHwCaVrmtORGIkCSOm+Ysxti/Ba0Joa7DmOt5rkObAw61RqCQppi0viawQUbKKAzjOIqTRGnlUooRATAS6c0bN/zAxz9+5759oKFSLqYcZhh1kKEulUqDlpggN2ANYXzHIZRIKSIpFRcAMDs709HZcXb88jf+4R8wIYvV+pq1a/7Fv/gXQoj+1cOVRjWXz3V13db70pW0hfpaLC0t/cZv/MazzzyLCFksFP7kT/5kaHDwox/9aH9f35WrVy+dO88FJ5R5rtZKNep1IQRjNAhSGKOFQqFYKnV39fT0dn3ggx/45tefAAAAurS05DlOS6UAQKzDmDFSa4dSbidWGCNtVlZrRulioZDNZnft2tnX3+/5XqlYfO7Z5+YXFjClge87rsuT2GZ9m4li6+ECgJVqqbSlXtsWu2xgeA27m10eQ4rs6p1QBnHCpQCEHMoQsqkp3Nvd+eEPf9/G0VEprbsSYpRqLQFAWhsno4nBmkDgutVanVCa8j2H0kKtVCoUV61Zc/D55y5eulQslpaWlsY2jv6rX/plx2H5fK6zs3Ogr/9dYB34JtIW6vU5efLkhYsX//C///eYJ5OTE6kg0FIiQkbWjSCML166dPjwkbTv12v1WrUKAIQx1/M937eGR0opz/XAmHK1Uq9VJ6am7r333oMvvlitVIPAb0TRSoFosGZHAAYQQmCgWdpgmnW8UmvmOLt27njooYe6OjvjKH722WcvXb5sU0EYE6UUpRSWU7gAQBCyCV6+3FxuwyzGmNghUa6HETSPXpSy6kUY62WvF1tLrKVIhKjUq1wKRhgACCEoIQ5jd9991wP33UcZq1ZrjBDHYVJqgqnNkQmpDBiDgBgTS+MHvtamVKmGUYMngrnsxYPPnzx96syp05yLj37/99+5b18un8uk011dXQ5lbZW+jPY56nU4ePDg5z//+a985atTU1NGa9fzCMG79+zZvWvX4OCQjUPUcZJ6o1Ktjl+6tLBUKJdKS4WlYrGYJNxuAjHCUgkhpBBcIUAIdXZ2Bn6wtFQIowgA8LJRPQCszPfagxPU9AcD12HZXO6+++7bvWtXKp3SWn/ta19/4utfdxzHysx2qHmeZ4xJksQOawMAvWLGcWuUI0bIoZQ5bhD4L/voEUJWqGCMDadSyqjeCKNISkkJwRgrKSml61av2bp168d+8GP5TC5RkiDi+542KmxEhFBllHWmQKgZfSMuhFKS8yiMyqXSwsLiUrl0efzS+XPnt2zefO+9946NjY1t2uT5fk93d0dHx9v6Yd8itCPqy5mfn3/22Wf/8i//cm5+fvWqVUrpSqXS29tDGS2VSg5j+Y684zhRGLqOs37D+tXDq8IoSpJ4fn5hZm725IkTxWJpdnZGCOF5nuu6QeCHPImjuFKpzM7OjqxZs2XL5kOHj2CEmu67K30DVyxclZSZTGZwcPDh97xny6bNzGUAcOzY8a9+/eu+52kpDVK2Q911XVvBx6xEl923EYAtZgCMKSGEEEopY47jMIyx1nqlVm1aCyPEKAUALkSj0eBxrJVilBoDieAUyKbRjR/64IfuPnCXYSC1SgcpbVSlVlFKBV4gpNRGIUAYYQMghZRKlss1IWSSJOVq+eLFSydPnJycnAjD6L777/3Y93/s/gce6OzsiuPI89y2Sl+NtlBfzslTp377t3+7XCptWL9+cXGREDo6un7T5i1PP/XUyeMnACCO42w2t2rV0L7d+3q6u+3wM4qR47q+5x24c//Fy+ONWj1JYuawhPNG2KCu4/leHMfZbPby5OTlycl7777r+PETWGtr87lyGAym1OaWCKVjY2M7d+3aPLbJGGO0kUIePXpES5lJp0vlMihFMcaEaGPiJLFmEvaw1O5yW4ajBAAT4jDGGKOMveps8uW+9ZZKpZAYYwMglACAtatX3X33PZs3b/JSQaVRCXwPE6wSobVdENhp5oCRUaCl5FEj5jwpVqqB583Mzp46eeLS+Hgcx93d3UKIH/jYx9euXaO14jJJp1Ntlb4GbaG+hCiKPvvXfy2E6O3rm5mZ7evrXb9uXSabee7ZZzHGzHFsnV+jUT9z5uwzTz59/333Hdh/1+DQYEdHPp2pEoyqtdrY6ChG6NALh5ZKSwDgul65WnWY47lOFMfZdBowfuqZZ/PLlpYKALTGK20BEaKUpIJg85bNB+7cr4xq1Bue78/PL5w+dSYVBNVKxfcDOw1RGyM5NwC5bJbHsW565C9vSim1xb4OxoQ2VYox5lwgBC/xUVq2VjLGcC4S674LtkgKGGHZVHrf3n137r9zYHCoUau5HpNCCi4wgVTgG2OUPQ0GrQ02Wgoh4yRqhFHaT42Pjz//wvNTV6Y450GQymQyv/LLv9zV1d3T30sIAW3aKn1t2kK9hlLqqaee/Pa3v620WZifXzuybvuO7WEUHj58xLZBJ8sDPO39+/v6n376mQsXLh24+8C+vXv6+gZGN46ePHlaaT02Ouow58jRo1PTV6MkchzHZQww9h3Hji1zXbdWqxFKqd0WYqwBjK0fkhIwDjz/rrvvHhsbC6OGUnpoeGjqytT/+rvPNRr1XL4jatSjRp0QAhgbpaTWjFKtmkcvrRZzu1t1g4AgzFyXUWITuUopO/jQNgbYOIoxBoS00fVaoxFFWkqHOQTAAAgh0l7wAx/72Hvf+6jnOvVyxU8FhmggwIVqhlApoyTRWtrNqVIqiiIhBRh98vSpEyeOnz17LqzXs7n8w+95+K79Bzq7uhzP7e/rv00sGt4gbaE2McYcO3781/79rzcaDaPVnn37BgYGSktLE5NXwjBsuTGs3NQtLhVy2UypWPy7z33umaee2rdv3/YdO7du23Lp4vj4pYvZbGbz5k2Mkdm5+TCJlTEUABNCEAKlpJSYUut71OxiQ0gK4TqOoBQZ6OvvW79uXS6T00Zlc7m52dljx47NTM8gAJEkiRAuY8oYEAIAHEoRQoIndoIbtlEaY2JPaBC2aSRoGQUvY6e/IWiueLUx1WpNCoEMYEo55w6hlJLhgYEHHnxw3759HbkswiiJuZQKgSEOJcYYbQhGBhOCse+mavVqoxETjKWQhfnF6bm58xcuXR6/vGp4GCH00IMPbRwbHRlZm85mV69evbCw0BbqjdAWKgDA7OzsocOH/+iP/uj8+fOpIFi9ZvXatWuU1BOTV2Zmpv0ggFb6dNmxHgAwQkoZACOknJ6Zqf3Dtw8fOfrIe94zunG0t6/v/LlzPd09lBCtYLYwD1obpRBlzXICraXSGoGWshVXldYJ567nrV61ateuXatWraKMSgGe7x06dOipp54uFIseY8pohBBgDEIoY4wxLmPIGM657bBRK85LHcehjGJMVjaarZQrtmUVxmhjuOCcc8G55zgagNiEk8Z33X33Bx97rG9wUMdCSQ0AUghCKUMEIyWNkVILqaSS5XLFdR2jVLlWnZ+bP33m9Jmzp8cnrg4Przp9+vS/+T/+zabNm9etHaGMjYyMEIw3jY293R/2rUn7eAZmZmb+9m8++xef+aviUjFJ4rGNG3t6eyYnJ6emriql7RKRC9k0vwaAZaEGzGmEDQBwXZcgEsZhnCSU0O6e7ofuf7B/cGBycqKwUACAK7NXq9VqpVwGW3kLYNvMpJTWrsGOS/IYo5Rt37Ftz569A0ODnuMSgjEmFy5c+OY3/+HkyROE0sAPeBJTx4nj+JUnMfYctXVY6rie47qEYPzSQn+tNSz3DFiU0kLKJIkTzu2LwQgZY1zmHNi375Of/KH160ZAQxyFCGOXMUSIBA6AojhRSgIgpUUcxUrper12+MjRSxcvLBYW67V6koh0Lj8wOPATP/YT/QMDQ8NDvud1d3ffhs3fb4TbXajVavV3f/d3f/8P/iCTTs/OzW3ftnXVqlWHDh2u1uqe6zDmJElcr9dtCXvTIWXZqx4Z4ziO9eYVUgAgSmnK98u1atoP7nvoga7OrrDRKJfK9SSslKtXp6ejKHzJ5bWmlMacW5OhfEfnY4+9b82aNblMRkjZ09OtpB6/PP6Zz3xmYXHRAKR8nwuRxHEqnY7j2ArGKMWF4EK4jNm6XwPgui6jzHGclY7eL72yxhij5boIa+8QCyE4Rwjlstlaraa0PnDHnb/6y//a8zwlRBAEge9KpWUijNGJ4YkQSglCKAJUrVar1crc3Pzzzz938eLFKEp4EmNCg8BdP7bln/7Mz27ftl1Kkc/lOzs73t0evG8Ft/XSl3P+9See+O3/+l8H+geCwJdSPfjQw08//VSxWHJdx3EcJWWSJAjQdR+OEeKcM8pS6ZTgvB6GjTiUUgwNDi0tLX3j608c2H9nT28/QiClJASnU4EQXEppZzoRhKTS1MHpVLokStoYkcSVchlWr3Ecl3OuNczPzz311JMLi4tggDGqlZJSMkol557j2JNPKaUBwAgJKTGlxoAtsrcev60TmpW8rJNOSim14lIiMAgjikkUx5Sx1f399993X0d3R1SPCKFGSZ4gjZCSkitliBaCG6ONQWEYXp2ampicPHb0yOTkVJDyfd/VWvf0do9uGP2Zf/bznZ1dXCRjG8coIS+7epsb4bYu1Dp27Nhv/eZv9Pb0TF6ZPHfu/AMPPoARmp2ZzefzAFAslirVGqU0k722SLMFQ/afBFNjTKVeXSwUGmHoe15/d08mnV5YmAeEPNc9cvT4qVMnPd+Lo9gY43me6zgEIYSRNkZqjREYY4LAZ4wZYyLOn37q6cXCYpAK0ulMHEUXx8cPHz5KMfZ8j1IaJxwMNFs9m8YL0miNATClSmsCQBklCDPGHMYwuo7Jma2RWB45ZVvTAbTWSgkhc9kcQjhJEt/zHvvAB/bdsa9SKruuk81lDEAjjDSX1HU8hwGA0VopHYVhsVi8eOnS8aNHi6WiMQYjVK3UpJQ7d+z42X/6MxQTQjAjVL+KB0Wb78rtG1EXFxf/w6//+sJCgfPEdZy77r6ru6vz4MGDWmvOE0JIOp3Sy8YoWmnHcZSSCed2zckct5GENl55vocpNQgnWmutqeMYAKE1ZXS+sLhYXFqzds3pU6cHBwfvvf++k8dPXJmaQgBKSup5PEmMMV1dXbOzs1rKcrXyxS98oVopP3D/g5Va9YWDB7ngrpNqdpaDHWVoPNdJktj2l8Jy2HQcx/MDBIAplUIYbQjBlJJXzixXSmUy6cJiIZvLMsYKhULCOXMcx0AKs7oUFKGPf/AjH3zwkcD3AGMZcx7GDiWZdJoQHEdxlHCOEHa8xdn5E6dOnjhx/MrklVq15noecdxEGmnQj//Ej3/iEx9fXFzqz2UxwmPtvNEb4PYV6lNPPTV++XK1VnUdp7Oz0/e8eiNUWhkDjDkAIAQPw0gKbr2FKpUyphQZoARzKeMksaV2tpUMbCep1itmkyJtQEiJACYnJhljjDnVUpkxlgpSQopQSutgVq3VOjs6sul0tV53XXd2bu65557P5TsWC4tXp6YCz0u4WH5KoJRijA1C1lRJLZcfGQCHUlskjBAg3DTdfbUlU61Wl1pxIZpt6wAeY9KI+VIhF2Q+9MEP7LvjTqk1l4oQ4/oeRiC4qJTLShvHcQLPm1+YuXD+wqFDL5w/fzGKIkJwKp1izInjqKur++f/xT8/sH8/QmhoaLC3r6/puN3me+U2FarW+utPPFEqlznnmVRqeGjIcbziUkFwTghOktgYEye83qij5UxvKghs+lc1zRaw1JpijAghdh6UfWZb34Oaxbr20VEY9vUPMIdNTF6J40hIETYadmwMQihsNDo7Ojo6O6v1ujXLn7xy5Vv/8A+1ej2M42w2q+IYEDLa2EmKdj4iRqCW07yAMaWUsmbqqDkUAwDsqMXrrTYJwakgxSit1xtKa4SQWg68+/bued/7HstmswCQSqdEwsNGQynpOV5HV6dUammpNHV16pkjLx4+dHj80sVEiM6OTsdxlZJaq+7unl/8pV8cGRnxvSAIAi/wMul0+nr2iG1unNtRqFrrxx9//PnnnrczOZnjdHR1aqMLiwVbJVupVo1SXEhjdOs0Yt+ePY2wce7c+XKl4jpOOpUOG3WpNbXTYJafGayBQ/NSRmkNWiecx3FUXDKLC/OJEBhAae1TGsUxoRQAqpVqd093PpeLoshzHAMwOTkJCDnMiaMYI9DGUIKbpbxCgGk2rtnLYIQopY7rvqzB1NjZNdfzFqOUUgpSSik4cxxkC+il2Dm2+eGH39PZ2WW08nyfEFwXAiFMCGOeixAqLpWOHz1y6vTpF04cWyosOp7f29dPCG40GtVaDQB+9md/dmRkpNGob960CRDKZbO2HKrNG+F2FOo3vvGNP/uLv5iemclmMvZ3XUoZxZVytcIobTQaIkk0AEYQC8kch1B2910H7rr7nmq12tXVfeb06fn5+UqlzCgFA0YphZvOKS0DTista/+pjAGM5+bmCKW2BEgbyOfyAEaFIQOgjlOuVgijfX19U1evNheingdaJ0IAAF3+RbcF92a5iJdiDAgRhIjtiKFEr9yOGtuOfv03wY6Qq1SrSRxTxsAYqWRfV88P/eN/vG3rNmV0JpfRQhVL5SAIoiguFBYmXrxy7uyZyxMTxVJRJDI2IpPNep5fq9fr9Vp/X/9D+/bef/8DO7dvS6fToxs2dHR0tFNHbxa3nVCVUk8++eTJ48eN1tVajVHqul5Yb8RJHMeJJEpp7fkBAERxxBxn7erVe/bsefDBhzzf40nc19e7cePGgy8cfPHFQ9oAIEiEsK1q1tAEWzmJZgO3XRH7nhdHMQBQgpXWBkEYhWDAcRyltbUaq1erjFJKqeAcMKaEOr5jwkbTtKHp8SkRAoMxBsAIEYSo4zDmMEoRAmV7xFu8tKThZWhb4GtjsjEJ567r/thP/Pju3bul0lKIcrmaJFEjCouXLjz99DNnz5xeKhQpY57vKqmTJAaGlTalUimXzRw4cOfDDz28Y/uOhaXCxk2bwZje3nf/KMS3k9vueGZiYuJrX/saAEglheCOw4LAV0ZzzpWUtVrNcxw/8AFACsEo3bxly3vf+6jrOIRgrYExls/nBwYGVq9aRe2G0FqWISSFBLuJVcogMEbb28FAtVo19j5aO4y5lAKAkMLzPK01QshzXSHl0lIxjuNUKu25bqNRdxw2NDhoixKsSq0MCQDC2GhDCKGEOg6jlABCSkkwphVDX0OlAFBcWqpUKvbolWDMKB1Zu3b9+g1LpaLDSC6fi+KoEYWXLo7/0R/+4bEjR2u1ul2lx3EihAAMxgDn3Pe9u+6++0d/9Efvufdeo9X9996/uLAwODj41n6Ktx+3XUSVSkmpwjC0Pgx2dn0SRbV6I4ljTGgiBBjjeR4CyHd0ZDIZpQRXOu/lcvlsrVqz/u5zs7PqpRMNbQ4WIQCba21aNBiEwNqOWd+yhAsbZlO+nyQJxhiMUUq5niel9BynXCkzx+nId5RLpWq1tmF09MSJE3ZcKteaYEwIpYym05lWxkgpBQi1ptcszztvuh9RSsMwFEI4rpcKAgAoLC4YgCSObR474TyTyRy4++4N60cAcK1eu3zmzLFjx86cOTM7PaO0IphESZLwxHHcTCZjjGk06kkS93T3fPIHP3nH3n35fC4MG+s3bgTQ27dvf5s/09uB206ozz33XL1ej8KQMkdppbUWXBCMlZTazgsHUNowSrK5bJAKkiSenZ3r7OyI44QyAgClUnFmZlZICa9zA3bNeQwAWo0seHmeb7OPFNJBoAHq1YrWGoAfP3689XVAMKaU2iL+17iQPSltXYJz7rqu7/uci6XiUhzFgIBz3tPdnXBerVYdx/nBH/yhx9732NT0zNnTpy+Pj49PTizML9ocOAAkPAl8P5fPh1FUKhYRRpl0OufnP/HJT24a25hOB1KKrZu2aCO7u7vb+9K3gttLqMaYp77zHQDQWlNGVSRsJTosBx+lJAAYrRwnCFKB7/v1Wu3y5ctGay6k73oIo4XFwpUrU/r1bBus/k3T1rp54GPPZvCyeqXWgCCK41QqDWAajYYfBI7jlIrFlomu9XCglBJ0/Ys3a3eNgWbR0XKjKYBSKo7jJEm44IxS62wIAAP9/ffff//I+pETJ0+88OLBicuTi4XFKIwIpQ6j2mgAE8ZRLESn6zCHKqOQRoTRBx588JGHHt60Zeupk8fuvufeUqnc19f3Bj6cNq/F7SXUarV6afwSQkAplUIaY5SQScIBQCltzfgIIZQxQjDBxBhdbzTM3KxUqqe7O5/P57K5UqlYLpdcSsV13UxeHWQMINSsiDDNoU9GG8qufQpCSm00RhhjTAnNZrJKyHoUNi06l7NH+FWC1rJVWvPfhGBrU1ZvhLVaFSFEEAqCIIlj1/OElL29fQ+/5z2DA4Pf+c6TJ44dC6MIASBMstmMdUurNxpCStfzDEAUhUnCmeOuXbtm06ZNH/m+j+Q7Oy6NXzpw191Syr6+dvboLeT2Eqod3FQoFABjKTgAKKOjKNLLE9asiS71f</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAI4AAACGCAIAAACEzCUyAAA7WklEQVR4nO29eXCc13UveO69395f70A3lgaxAyTFnVpoS7IsyZtsydbYkSv2m+S9St6bmspUkqoklaqZl6SmZv70JKlKVf5xvfyRcirPS2I7jmRHiyVZJSkSJZkkSIMEiX1HA43e+9vvnT9O90eQIiCCpARZ0SmUBALob7nn3nPP+Z3fOZdwzmF3Qnb597sV8f5eXdz4+oS83+91u0L3+gE+lpsVafcfeX9n/fstH/7Vs518vKp+beQWVtVu97bdysez58ZyC6r69ZZfX7fiI6Cq3Q3xNpraQVUflr35I6Cq3cl2q+r9D0JuV7ZVFb4SIQSnWxAE+HPGCNzohQkhnHPf9ymlkiRxzjnnkiQJIYIgIIRQSoUQvu8TQvDnlFLf9z3PU1UVf0sIwQtzzoUQnHNKKWOMEBI+T6VSicVirutKkkQI8f2AMUYpfqr5QQCQZeb73LIs27bL5XK1Wq3Vap7nRaPRzs5OTdNs2yaE6LouSRJjLBLRg0BQSgDA9wNJYoSAZTmapoQDsnVMOOf4Ult/K4RgjO0wnrcjZLsQmBASBEH4QKHOLMuiFCRJYYwAUCECzoFznxAcUgbAAWgQeEEgADhjMgDHv2FMliTKObiuzTnIMhOCAHBF0QC46/qEEM/zWEvwjo7jWJYVjUaFEJIkua7LObcsKwgCy7Js26WU6roei8VUVbVtu1Qq1et13/eLxeKFCxd+8YtfrK6u+r7faDSWlpba2toGBwdN08zn85Zl5XK5++6779ixY9FoNBqNdnV1xWKm5wW2bauqqiiSZVmSJMmyfJ1KcPaECghHabuBfh9VBQC4MkhLCQAQBAHOGiGA8wAfmFJGCDiOJ0mUMSaECAJBKeCMq9UasswURQ3fQgggBDgHQoTr+pz7qqoLEXhewBhzXVfXdULAth3XdRVF0TSVECgWy5VKpVAoXLp06ec//3k+n8fRL5eq3d3dg4OD0Wh0fX19dna2UqkwxgqFAj7A/Py8YRiMsUQiUavV6vW6oihCiFgsdvTo0ZMnT+ZyuUgkMjg46DgOYyyVSmWzWcNQPE/UG9VEIoYv7rouLhpJkrZqZasObsE3uXkVbquqIAgopeECBwC0b4QwABCcAOEgKGXAKCUUfA8EBLLEgAAPgDIAAY7rqYoccAGCMAl4AK7nEmCywuo1y3Gt9Xwhv75aLlXz66vLS6v1RtU0zYMHDw4NDXHOl5eX8/k8Gi4AsG3bcZylpaVnnnnG931N0xzH8T0uhMhkMkePHj106FAymfR933EcQogsy+Vy+Qc/+MHi4mK1Vs1154Ig0HVdVVX85uDBg6dOnTp06FBXV1e9Xk8kEpTSRqMhSVIqlUokErJCfJ9LEsUxDTXheR6ametW0g7jvp0Wb15V2+5VuNNAa22h2iRJcR2fMSZJW800BD5IEhQKtSDglJJqtWZZjUbD2tws9PX1a5rKuahWK7gHBAFvNOqMSTMz088//8KLL/58bS3PGJVlhTFaqVQOHTp09913d3d3q6qKs1iRNc/zNNVQZC1iVCSm2JZb961qtTo4OFgqlYrF4tTUlGEYg4ODqVQqGo0mEonOzs7V1dVnnnlG07R9+/YdPHhwbW2tXC6bpum6brVaPXv27JUrV6LRqGmaIyMjBw4cGBwcjMfjQRAsLS01Go19vd24LQVBgJZZVVUAwNUPADgsW/eI2zd0u1YVaoJz7jiOEEJRFEopIaBpUhBArWbZtu37fmi7L1y48NJLL01MTFiWVSwWcbeoVCqPPfbYpz71qQMHDlQqlVKppGmaEKJYLJqmaduOqqqapkciEcMwgiCoVquapler1dXV1Ww2OzAwkEgkhBDoeqiqWqlU5ubmGo2GbdvDw8NdXV2vvvoqjnU+n//pT3+qqmpHR0d7e3tHR0cul4vFYqdOnfrN3/zNEydO4DPgjSqVSqPR8H1/ZWVlbGxsamrq1Vdffe655wghQ0NDo6Ojmqa1tbUdPnz4wMFR0zQ0TWOMBUHg+34QBI7jxGIxHCh0uHA275mq0AdDV40QYtt2vW65TlCt1ovFYq1W45zj/k8p7ejoKper4+OXHMdBLSqK4vv8mWd+Ztuu7/NsNmsYpqIokiTpeoRzrmmGacYaDbtYLEuSIstyEASRSGRpaXl9fWNxcWlxcWl0dLSvr6+trU1V1WQymUym+vr6P/vZz3HOjx8/Pjw8/Fu/9due51Wr1WKxiP+dm5ubmpoeGztfrVY1TcvlcpVKtVqtra9v7Nu3LxqNtbW153I5zgWlRAj4yleelGUSBDAxcfnll18eGxsbGzs/MTFh2/bAQH8yFT9y5NA999zT39+fSqXi8bhhGKqqWpaFvm6ooXCsbjietx96b7tXoWne6nNvbm7m8xsL88tBIHCd6bquKAoABEFQq9X+8i//8he/+EUkElEUBT/luq4kUUmShoeHH3nkEXS00IzUajVK6csvv/z3f//3+Xz+4MGD2WwW12KhUKhWq+jl+75nGEYqlWpvbx8dHT106FAikThy5EhbW1siEQ8CXqvVYrGYJIHrct8POA+KxdLa2ur6+sbExKWLFy8tLy/Nzc2vra1qmt7Tk5Nlpbd339DQ8PDw0P79B7LZjK4bqqpsbha7utp9H5aXl2dn51544fmf/vRnCwvzA4N9nZ3ZeDzZaNQsy0mlEgMDA52dncePH49EIslkMpFIaJqGg+B5nqJou1LVNprdjapwphBC1tbWstksAPz1X//18eMnKZFXV/O2bWcymUwmI0kShkpCiG9961vf//73DcPo6OgolUq2badSCc4DJhEAoJTGYrH+/v79+/fncrl77rnHNM1SqTQ1NQUAIyMjXV1dnHMewMbGRqVSQZ39avz8hQsX1tbWVleXAYAQoapqW1vbyMjIoUOHent79+0b6O3tTSbShAqJUSDgeyDJ4DqcC9+xvXqjWtgozi/MTly6Mr8we/nSlY2NfLFYDgIvEol2dGQGh0b29eYG+odyPV37evu7ujrK5erk5OXXX3/jf/yPby8tLP/Zn/9fv/1b/2WjkC9sFGfnpjc2NtbW1hYWFgqFAgAfHBzMZrNdXV0HDoyaZqx332A0ajIGjhMAgCSxRsMqFApnz57d2NgolUrLy8uO4yiK8tWvfnX//v2arkQiEUrB9zkGi7LMthjSq9rZVlWWZeGuLoSo1Wrf+973CoVCX9/A5YkpQlgikejp6Umn0+i7U0rX19f/6Z/+6Z133tm3b9/+/ftx42GMpNsSs7PT4+PjKysrAKDrOka+kUjk+PHjDz300LFjx/r7+9va2hhjjuNwDozKjFHKgBBwXb9aLddqtdnZ6YsXL7755psTly+WSiWcwq7rtqU7enp60RPZv3+/ruuGYXR0ZDwvkGXGObRCXRUALMtxbadQKExPT4+Pj1+8ePHKlSsLS4ulUimdTluWpRvG4ODgwMBAf39/LBZbX1//y2/91ZNPPvnHf/zHo6ODANBouLqhFAqbjuNIkjQ1deX06dM/+clPrly5cuzYkaGhkUN3Hevq6k6n067rlsvlQqEwNzc3Nzf3q1/96tKlS2iHJEmq1+v33nvvyZMn7r7nxL59+3p7e6PRSLj+wqDoplSFNnRpaam7u/vP//zPf/jDH/7FX/zFz3727JHDx7LZjr6+vo6ODsMwWp6hZBjGwsJCvV7PZrPt7ekgEJ7nMUZdzzYMzXGc8fHxl1566bXXXpuenq7Vaqqq1ut1jKLa29tHRkbuu+++I0eOHDp0JBaLMcbq9TrnPBLRZVlGEMT3XdRQqVSanJw8c+bM1NTU22+frVbqpVJJluVkMmkYRldX1+jo6JEjR/r6+oaGhpLJBIZxAEAIBH4gy4yEZkfA+kZxbW3tzJkz77zzzqXLExga40BLkpSIJarV6he+8IWnnnrq8OFDkUhkbm7uBz/4wauvvWLb9tLSkhACgLuu29nZmU6nN9ZLmUwmmUyqqooxdTqdliSpWCz+3d/9Xa1Ws20bAKrV6tGjR5966qlypXjw4MGTJ0/29fXhfNq1qjD8tG37+eef/9a3vvX1r39dURTPC+65+76Ojo5stkNVGQazuC8GQfN7IZoAD0ZllIHneUEQoA/pOM7s7OzCwsI///M/r6ysLC4ubm5uoocSi8Xa2to6OjoOHmwukc7OLMY6nueFIBOiJJz7nhcEQVCtWMVicWxs7OzZs/Pz8xiKeZ7n+34sFuvp6RkaGurp6enq6hoYGOjp6dE1LRKJSDJxnQAHzrJt27Y9z5uZmSkUN9fW1hqNRr1eX15eVlVVopJlWclk0rKsmZkZAJFOpyuVSj6fL2yuy7LccriqfX193/jGfxodOYBbdWuqRXRdJ4S88847f/u3f0sptW1bURTLsrq6up566ikgHO1QX19fMplUFPlagPjmVIUh5J/92Z+Nj49/+9vffv31148fP97d3WOapqrIfsADXzCJ8ABczzYjBhDwXOF6tsQUVWOCQ8OyJIni+7iuixNKVVVU2/r6+sTExK9+9auJiYmpqamZmZnV1VVd1x3HoZSmUimEIe66667BwcHjx0+ipVUUSdMMWWaUUiGguFlJJmOEgO8D52JlZeXixYvLy8tXrlxZWVmZmppaXV0FgHQ6nc1mY7HYgdH9IyMjo6OjlNLJycm33nrr7Ni55eVl27Y55z4PSqWSqqoDAwOZTMY0zXq1kU6n4/F4Op1Mp9PRaJRSqqrKmTNnvv3tb5fLZSA8Go2iy/4Hf/AHBw8ckmWZUhq675ZlVavVM2fOfPe738V4o6enZ3h4+Pjx41/+8pevTE4YhpFOpzs7O9va2nRdI2SrD3JVO9s666qqcs6np6cbjcaBAwfGxsZyuZxhGKZpyDJDTFVWJEqBU/ADcFxPUSRJJoTKhFAAIBQURcJABL0+jB9RbNtub29vb2+///77cWObmZmZmZl58cUX5ubmFheXa7Xa+Pj4uXPnnn322XQ6Xa9bo6Ojn/zkJ+++++7+/v5EIqEquiRJiUSMc2g0bM/zwl2wp6cHAO655x6cEMViEU2653kykyYnJ8fGxur1uuM4pVJpbW1tenqaEBKLxRq2hXO0v7//61//uqqqndkuSmk+nwdovk6j0ejo6HjjjTcajQalFEFhXdcTicTg4GAymQwBOXxl3/cTiYTjOL//+79/5MgRRVFyuVw8HmeMKYoyvzArhHBdF70zNFGo5us0sq2qGo2GqqrxeFzTtKNHj3Z2dpZKpaGhIcdxEJylFB1NjjPddT3OAQFZz/Nd12VMVhQFgU5E0EPMl3OuaRpGlJxz3GaSyeThw4e/8pUnNjY2FhYWpqenx8cvnTlz5vz582fPnu3u7jl79uw7b5/Bz+ZyuQMHDvb29h47dmxzc3NsbOzChQvlcrnRaFSrVd/38/l8f38/QrGdnZ0INZmmyQjFR9I0rbOz0/O8H//kX1CdhJBGo2EYhud5aKAqlcrMzIxpmoqimKZZrVYjkagsy/V6/fz5C4YRicdjsiwrijIwMHD8+PFPPfhpQoUkSYqiqKqK6KUQ4LreJ+8/5ThOIhGrVuuRSAQHYW5uDrdhdLZxcLYiWDelKlVVcfH29PScPXt2dHR0ZGSkUCgkk/GWwkkQeHhdSZIwinJdV1VVWWayrLf2W1+WZfwDNLbhfMEIGpea4zh4U9tudHR0dHR0nDhxwnV9y7JwS3vjjdPT09MTl65UKpVMJnvo0OHDhw93dXXF43G0NhMTE/l8HgH4arWaSCQWFxe7u7u/9rWvffKTn0RHOZFIbOTXM5kM53xzcxPHhXPeaDQYYwjYt7e3YwifTCYbjcbo6Gi1Wq3X6/Pz8/Pz86dOndq3b9/k5OTv/d7veZ7X3t6WzWYNw4jH47IsO46jajJjlBAIAuF5fqgDxJ0BAFM2juMBQD6fTyQSCCVHIhHGGKYjbhhHb6sqxli1Wg2CoK+vb2xsDOHqdDotRBD+DY5ROBdkWcYJG5pa/CFsyX5t/S1ijPhPDKWFEJqmoX8oy7IkQSKRSKVS+/b1PXD/pyMR9ZVX/v3ll19ub2+PRCKzs/OXL1/u7+8fHBz4z//5t1966cVicdP3vY2NjVQqJQT3PLder8Vi0dnZGcbY5mYhCHzd0PLra7ZtG4YhyWx6ZmFlZTmdTrmuG4lEunJdbW1tJ06cePjhhw1DP3bsmCor5XIVg42/+qv/7w//8A+/+tWvnjp1SpIoelWNhhWN6QDgur6iSowhtguUEkqvDq/n+YxJQgDaTMbY/Px8qVRCrEdRlEgkIknM83wAjjHSzaoKtWUYRpi4sizLcRzGriLKYcIwVNjtS71umabJOdh20wX1fR6LmcXN6ne/+93vfe/7U1NTxWLR87wnn/zqf//v/2dfX6/v+wsLC5ZloXuNwUOpVNJ1PZVK1et1IYRpmvF43DTNaqWSSCTwvVzX7ejoePzxxx999NEjR46YpqkZOr51JKICgOcJAmCaRnd39+rq8uOPP/5v//ZvDz/8cDabQcvGGKiaDIA5HbLDICiKhAk5TVNs252fn19dXUVjg7GgJEmENPG8G0IbOyHraAPT6TSltFQqVSoVSinnAT4QOv7X5bFuXyKRCG4YqqrVavVoNJJf2/zxj/7xH/7hH1577TXcisvl8hNPPPFf/+vvMMZWV1eLpcL58+f9wG3PpGVZVlXVMIyu7o7h4eHHHnvs0OGDGHXilMpm2qLRqCxLnAvOeUdH5ujxI7quVqt1XdeZhCA1uK4fBEEQCEPTGKPZbHt7e9upU/f99KfP/PznLwwN90uyCoIDoYoiCSF830MjsT0XgwBwQmgQBOvrawsLc/V6PRaLGUYkkUjEYjE0P4xRfLBduBUIZmOetKur6/z58wgj4fSBVkJr56l0C+L7XAgCAggBEPTC+Uuvv/76Cy+8MDU1pWka5zyZTD788CNf/OIXE4mE6zqqJkkSNQzj8ce/mEymk8l4V1cuEtFNM5ZKJfr6BhRFchwvCDzDMACaI+m5vhCBoqqSzAIuhBCGYWC2Ggj3fc6Fr6oapUAAPCvQdTWTbatUKvfed/f3vv8/P/f5zxw4sJ8xEgQBYkKc+5QqSE244Xuhl+j7/uLi4vz8vOd5pmnKshyPx5PJpGmalDaTrgjhv/sK26oKXVtKqaZp995779/8zd8cOnSoXC4nEgloRtS+EEKScG2xO8TfI4wS1/FVBWq12rlzY/l8fmLi8k9/+jPHsaPR6Oc///kvfelL/f39vb292WzWsuuEiI6OtoGBgcce+2wkEuXcp1Sy7YamGUgdcBxLCOL7LucaAHdtT1ElSgkXggeBH7h+ICSJKoomRJMLoyiS6/me7zDGZCZJMmUSpNPJjY3YE0986U/+5E/+5V9+lMv9H7GYSYjgIhBCUAYA3Pfd7eDaVk68try8vLm5GY1Gk8kkYyyZTMZiMdz5OBdIXdmdB6goSrVaTaVSm5ubJ0+edF13YWFhYmLixIkTGNJCi6xyZxeW6/JkMnrlyuzS0pIkSefPn//Xf/3XRCJx990nv/nNbw4PD6uqOjQ0RBmgO6ooEgAEgQVAbbshhNA0omlasVhAt54xpmmqLDMhgiAIFFWijAEDJmQgRJFUFgSMsSDwOOeC+JIkEeCK3GS/2LaNOTbDMAYG+iSJHj9+/Ac/+N6nPvXAJ+8/RSkRQAULkCQiIMD58e73UlW1WCwuLS1ZloUxjKZp8Xg8Go0qCnpe0CJt7FJVAEApjUajm5ubiUTiy1/+8uzs7NTU1PDwqGmaiiJRis43XnSHJbW7VJvneZcuzQBAZ2f3888//2//9lx7e/vjjz9+8uSJzs7OXE+XaZpC8CAQqVSKMWJZFpOIokqMMi44JdQPPEJIMhkHANdzPc9zPcBMEg4KiMC2bSGEbhgA4AeuH4CqqJRRz/dtu4F0EkqpEIRzX4jA8zxdV4UwKYWvfOWJ/+f//b//9el/GRjs6+zoBBAtfGHbZBUAIGC4tLTEGIvH46qq6rqOUCG0+Cb48ZBmc706trs051zXdQCIRCK2bX/zm99cX18vlUq1Wg1jIEqvoVZtP/g3XHDvRrMIAAEBFy6MCyEikcjrr7/+k5/85MCB0T/90z996KFPnTx5cl9vzjAMWWayzBRFQsaNruuMMQIMAKyGAwA8AEppuVwFAEXWIkZEllRVUUFQAPBcHwjR9IimaQCUBwGjsqqotu0CgCypqqrKsipLMqMyAGDWOAgCWZZxv7n33nt7enpefumVlZUVP/AxDOFc8Bswy0j4VSgUC4VitVrnHJBfhfAgpcC54FxAK3eFYMe7h2ynDQYpXYlEYm1tLZfLDQ8PT0xMrK+vce4DgOPYnudwjqQDAiBu9LX1iUMlcSDc911CBEYCtVpDcCAAly5NKooUBN7LL7944cLYZz7zyFe/+r8MDQ3ee9/dyVQ0GtVlmQgRAPGB+IQKykAIQYlECBOCGIYpBJFlFQSNxRJCEPwCoEIQSVKEIJKsNn9ImBCEUIkxWQiiqjoICoJQYIxIIAgIIlGZcyCESZLieUEq1dbZ2V0uV/+3//a/b2xsPvP0zxzbI8Dwv5RIgS8IYdVqFf3ywAcCwANYWV5/+60zBKRc976IEVUUrasr197ejmSIFu4jwqW5ReU0/NpWVRiNAgDmOguFwujo6NTU1OLiIqJniJ1gkL89Q+261YapCA4AlDVnkO9zMxIRAhYX1xqNBgCsrq7W6/WhoaGHH/70gw8+mOvpsu1GS+kcCH/XVKDv238BjSFG94qiIPyfyXScPHnyxz/+yczMXKVSMwxTllUAKsuq67qxWEySJMtycMDX14srK2uqqnMOhNB4PB6PJRE9aPn3NyU7qYox5nmeoijJZHJ9ff2+++5zXffy5cvVahWRypu/zbuFADIGAyEEIVCp1KamZiqV2vr6erlczmQyJ0+eHBkZSaVi0WgUHZk7HhjcjIR+Mz4qaiuZTD7wwAMzMzPPPPMMTlMEM8PsbQuxhVKpPj8/XywWMZmA7BpMySKudvNPsu1woyaQyorwcH9//6lTp65cuVIoFDCBhBRX3IG3v0W4ArasPEEBwPc5IUxiSrVqz88vFotFy7IwMDx8+PDo6AgAlCvVIAiuQvKiCT/e/BvepoSEJM/zPM8TQqiqaprm4ODgpz/96R/96EfFYhE5TOgPy7KM+TnD0G3bn5ubW19fb2VfNeRi6IZ8CxN92w8gBwYxVqRFeJ73pS99aXV1dWpqCjNPOINu4q7N/an5JSi0QjGJUUkiy8urS4srmmpITInH411dnV1dnbFYRFVVTdNkmW1F5cMH/GAUhm9HWyJJUiQSaWtri8fjTzzxxPLy8tNPP21ZFq57HCs0RQAwPz+/srJMKUgSlWWGeKaiNJFAtIG7eJLtfoEbPmJLsiynUqmNjY2hoaF4PD42Nra2tuZ5HkYtaMe2v0VLQ9felxDCKOMc6nVvY33TcZxoNI5k/2QyiWkCRZVUVYarVogSQloLK+T7v7+lc/h2IY0OABBajMfjuVzu8OHD3/nOdxYXF1VVDT1sWZYJgdXVtdnZ2SAIEok4YzQej6dSSYQWfT9A13zHcbtedtqr8EJBEEiSZJqm7/uWZT300ENXrly5fPlyoVDAR0cjvs1lrlWSoCDQn0HrB/W6PT8/b1lWNBpHHi1GG4rCPI8DQBAIzHCH1/iAtytCCGZH8b74vaIo6XTaMIzPfe5zS0tLL774IhJACSEIjK2t5WdnZ13Pjph6xNQTyVhHR9aMGoRCwJvbMwDsap7t9KeoANd1cWHpur6xsfHQQw8hLRIJ/pi+fK/t8d2KJK7jCwHVan1xYVkIEovF0HPt6elJJEy8L6XNxb2tjRXv75ICAFmWcTNGwBNzpACAYczBgwdzudzLL7+cz+ex/kAI0Wg05ufn19fXDcNAplB7e3sqHVMUyff5DaHYm5GdDKCu65xzRDkppRgMZjKZz3/+82+//fbi4mK1WvU8zzCMcrm83XWCICBAAMB1Xc/zCGEAxGq4hqGsr5dmZmYIIYZhIAUsFot1dLQJACAQMTWM4Q3DENcKrk4C7ANYYegJh7kJzMEjzoTBzB/90R+9+eabr7zyCiqy0Whcvnx5dXXVMIxIRJckGono8XgUP84YURSJMSoECAGIoN6kbKsqNNBhzEQpxQBrfX39wQcfLJfL4+Pj+XweUd1oNLrtDSjlggshZEmVJCkIAh6Apim2LYrFomN7IZc4EjFSqcQuRnFPxXGcvr6+zs7ORCJx7733/vjHP15eXvZ9f3JyslqtIltL07T29vZMJrOVVHLLstOqCksb0BIisSafzx89ejSbzb7xxhurq6vov+5gACmhnAvBCTpQQSA4F5TCxsbGer5g2zZjTIhAllkqlUi3JQFgG8gjfODrvvZGkDKGifZHHnnkpZdeeuGFF1ZWVtbW1oIgiER0wzBM00ylEpGILkTQdIObX+9+r/eWneIq0iqCCxeWpmmEkGq1+thjjy0sLMzOzpbLZUVRtvdkKABFgA7vxajEubAsvry0WqvVcCoEQWCaZjqdVtUPf0nuVSkUClgP0t/ff/z4cWRcUUplWY5EIolEIh6PIiqPqOltyk4eYPMvWtU7uHpyudyVK1c+85nPZDKZ06dPr6ysbJdgDq/DGKNU8n0uODAGnhesra4XCgXcDgGASSSVTsTisu/f/ht9QNJoNEKcSdO03/3d3x0ZGcEfIlcCo13GGBCuqNKNIpbdyXvsVdBaXtAqd+3u7nYcxzTNBx98cGxs7OLFi4VC4b2wLEoIEZwg8bZSrq2srGDZoa7rmq4kEomwjvN2XuaDFMZYLBazLGv//v2yLGM5l2mayJWIxWLRaFSSJAHBnSKevIezvpVpBC1t9fT0zM/PP/jgg7Isv/7667iwtrtIGI8zRjiHSsVaX1/f2NjQNAN3ONM0s9mspslCgCTT6yGoneQDAixuKEhpRQp3EASbm5tCCEmSLMsyTbO9vR3ROJx8vu8196fbWFjbqgods60/Qc3VarV9+/YtLCxgucS5c+c2N0v1ev1do9bcQjnnrusHPlAKnEO5XMaaRjR9fuDquppMmoSAbWMy5ddDLMvyfd8wzPHxS+Vy1TRjhmG6rr9ZKElMiUajyIhiVGaUEUJvf2K9914VLiy0hKZpCBFkMhnXdT/1qU+7rv+jH/6LZTn1mo0PRwjh3Hc9G0jgBy4hRJElAPB9aDSs5eXlcrmcy+Vsu4F2o62tTYDgIlBU2rrpTfp1t+JH7V44IQK2YOeEEM8LOAdVVa9cnjr95tuu40eMaK3aWFtdr9VqGxsb9ZrDOciyzjkNAkJAbiI1YqvXurvn37Wz6/u+ruumaa6urj700EP7evoWFxfPnT2P25XnBcg4hJZDIQTxfWAMXNdbXFwsl8uIPRNCNF0xTUNVm2RNIYKtfNAPlSBeg0Gk73NJkjRVX1xYbTQayWSSc1Gt1hzH3dgo6Lp+6dIl27YZpYITRgkhrEUTui664LvqLbZrVSEk2NbWhqVUjzz66fPnz7/11lsIt2z1BoUQlFxNaCJZB10SSqmmK/F4PB6PKwoLh2PHxP+eydY3arlaUNjcmJy6jKrCLFRvb6+qqp7nvfPOO1euXLEs1/d9JLfcEVBl16rCnFg8Hk+n02NjY5/97Gfr9fqFCxcWFhZ4AKqqAlDRrPSm6OoTApWKtby8XK/XsbMKk0gymYzHo5rGkENCKWVM/tCqCiskoUXlt20XY0pMUKVSqaGhISycxcK9c+fOIdU3CFDBd+C9dq0qLCMghPT09CwsLGSz2UcfffTChQunT5+uVustqilnVKakWU/AuVhaWlpYWMCAw3YahJC2tjbMdPh+U1XQTGJ9uATNF8bplDIAqFar09PT9XodifWKomQy7dGoqShyd3dXJpM5fPjw4uLiysqKLIeNo/ZCVSiO42A58Pr6+u/8zu+USqUXX3xxcXERAIRAdIMi+QQENBqNQqHgOE4kEsHOV6ZpxONRWUbU8sO4kkLBsUaVCAGNhr2ysoIos6ZpiPJ1d3dj8mloaMgwjH379nme9/bbb5dKVcyeYD+Z25RdX4JzkCQFAAgh/f39hULhyNFDx44f+fc3Xpuculyp1IQQkqQA0CAQhLBGw11eXmk0GqZpyjJjjKRSia6uLllussMpA8ZYy6Z/6Jx1IQhyv7E8eWFhAcviAEDX9fZMOpNtMyIKZaCqSjSq406MvU9mZmZc171Tcf2taFuSJAwAsc2b4ziPPPLI7Ozs8vJypVJBqJ8HEPiCABQKm3Nzc5ZlhYS6ZDLZ1pZA5AKpXJRCEPAdCN97K77vYyCPbWosy0qlUlgU1dnZqeu6ZTlBEBAC1arV2dkpSdKBAwdmZ2exKtnzsInb7cotrKom2hQEQSIRS6eTp0+ffuyxx4aGhr7zne8QYCBopdyQJAAgjhNcvjypKJosyxsbG0Hgd3Z2xGJR2/YoBSY1y7yFAMYoY9Ieog8hzWErVw4blimyRAgsL68uLi5iAk8Ige2BNE0jBBRFkSRGGURMPZtNY7Ohz33ucz/84Q+npqYMQ8P8Q8gbhxZut6upuXveTIsRgAk3rFtyXfcLX/hCuVz+zne+02hYkYjRaASSRH75y7NYvC5JEnKyTNPUdV035A8bgo7qwUg/rHAhhFAi+T4UCptYFoD8LU3TUqkUlm/AteRixwkOHTrUaDTuuuuuc+fOTU1NzczMqaqyldZwayy5W1GV7/sAuMGIeDze3p5uNGpPPvmk7/vPPvtsvV5nDAiw9XxlPV/Qdd3zPHTTM5lMe3u7rBDHcbbPSO2NXBcRhv9UFLq5uTk/t1jYKHpuAIJiu5t4vFnZwLkQIgjfghBimhqWQQwMDGDrQtf1eKv9JwrOhjtDg9lBcMvBb5C+Y1nWXXfdNTw0Ojc3f+nS5UZdqCo8/fRPFxeXNwularVKCMFCIkluhim3cN/3VcI8KhrAlrKI6/KVlZXV1VXsz4DNODs7O1q5IQjRJgAA4LJCS6XawYOjjuM89dRTMzMzs7OzWOKP63XnnNEOcitthvF+AMC5j0WslNJqtfrkk0/+4hevvPLKK12dOULYs88+Z5pmb29uX29ueHiwt7dX13UsSzZNs4UhbZkrYi/zitdVYSBJj3M+OztfLJZ8PzDNaDKZjEajsbhJCHAukMxJSJgE55xzxqgkSa4b9PX1OY7T29v73HPPHThwIBqNhLXPyHPdrQ28lVUVNnLF98H2b+fOnXvkkUd6enomr0zPzs4///wLqqJHo9FIJIok71gsenMM7b1RV0hNCNn92J94enoaKwwVRTEMI5PJRKPRet2ilGAtDLrB0Mq+CgGmqVWr1b6+Ptd1sSZjfHy8UqmEueBwQry/bgU2m8RVxRjzfV+WWTabRffha1/7Wj6fn5iYOHv27MDAwH33fuLw4cP9/f3RaJRzHgSAVd9XywXe97MQdiek1eTZsqx8Pj8zM4MrIBqNIk1TVbEjNsUuReFYixbRWAjBOUQiEVmWu7q6MpnMyMjIa6+9tra2hsmtrRralSW8FVUB4A7JcWNENsj+/fvHxsYeeeSRhYWFycnJWq0GAMlU3DSNVCqRTBqyTD0f+WXkXQweARAup733MrBD0tra2tzcXCqVYoxKEstk2pPJqOcHrhtETBUAOG9u22HGHKsfXc/VDZlJZHCwr6Oj4xOn7j9//nyxWK7XLYymabPb4+4Ap12rStMU17NlmQGA7/uyLANQSZL7egeEgNHRA0ePHv35z39+7NjR+07dQwhPpWOxeAQIBJzLMkPjeaOkwAfmDTZr04S4anxw+BzHQXdpfb0wPn5pc7PU1dVVb1Qz2bbhkcFE0hQAlIIk05YFE3SLEMIwj8OYAOCaptiOc/DgQVVVe/f1v/zSK6VixXODWq3ZzqRarTIm3/xz71ZVrfVLOK4txF08z9d1o62tbWVl5eFHHspm2ymlnZ0d6bZkMplA3jm+GFzrFu+hbN0mkFSk67osy/l8fnl5WQihaZrnedlsezweRb9cCIy9dgLAVFWWZKSiCEVRkql4f3//oUOHn376menpmVqtZkYMy3IolWKxmL8b3s+uV1VTVaKFxrZcGiFEKpVaX19/6KGHIpHIv//7axsbG+l0OpFIhIcZhNvvbm96B+XaSdK0QiGI0GjYq6v5fD7vOA72v+ju7k6lUmGzmvf0BQQIZFvg+0Yika6urtHRkUOHDl24cGFyctKyPITldvvku1VVs4IlBPYppYwRSqnrOq7rYsvloaGhX/7yl2+99VYqlVI1CecszqAPw5K67v74SIqibG5uzszMlEol3/exTXJ3d3csFkPCcwhnhMTIGwruXK2/FEggT6fTTz755MLCwsrKytzcHKWACbA7Uwq347vS8KHDnjDVahUpY6urq48/8cVUOnH+/Lm9XUDbyDVp8tCGCwH5/AaWz+q6Ho/Hk8l4JtMGW8CLrWHydlfHxvAYNhFCGCORSKS9vd11HUWREWuv1y1CCHbMvvnn3rWqti4L3Ht8n2M3v0ajnkzGNzY2hoeHh4aGJiYmLly44DguunwYAN4a/HUH5d1rGt9odXWtVqth5/hoNLpv376Ojg7sJ44csa0f3N4whFRiEELg1SKmnslk2traRkdHX3rppVKphNjHjte50aV385rNj4Rl64QwzpupgZWVlWQyqeu65znlcvnkyZOEitOn30B7EmIqcFNVjh+AXOU7CE4EJ8tLq7blapqWTCbb29OZTFskEuGtYxu2juzOs00IwYMmPN9qW0mMiHbi5LGh4QFN006fPr2xvul73PfgzpRt7ywtPL/ZYX1jY4NSmk6nEe6r1+uPPvrowYMHV1dXi8UiRumh3djzhbVVcPSFENVq1bZtRdba29vb2tpkWRatVoeYQyBbKi12mG0hLoWWkLSIyUjl/MY3vvHOO+8UCoVmW02Am0dndq0q23bx6QuFIgC4rntxfKJSrnV2dm5ubppmJJfrXl1d7ujIJJPxlZXlqamper0OcBWlvSNc+1sWQgR620IIzoXEqOt6c3PzmqZjYVI6ncbCMiECZABeBziJHbPVhDBKJTQ8YWGWJNGuro5cLhdwL2LqFy5cmJiYaDQsziEIOJZ5b53BN7z+LYTAKgA0GnY8HudczM/PY9Ui+kXYLy2dTtdqtXvvvffixYvj4+PovGJdJrZV2UMnMFwZnHPBm8FDKwMnYfej94ONY1kOHsNw4sSJ8+fP1+v1jY0NLMsk13a03E5uIa4CHoDr+LLEatXG7Mw851xRlEajIcsyRiEdHdlCYeOee+52XffVV19dWlpCkhNWn9+wheQHKVs9IyEgCAIs4MUiWlmWb7cjx3Wtb4ADcEohHo/29fWNjIzIsnzu3DnOeb1ub8GZmhvhdh7mbh+KgIAgEKqqOk6wuLiIp5hQShuNRjqdzmRSGEbUajVZlh959NPj4xdeffVVpGKFmbS9c+LDcn8OAITi8oItbau1VgfXoNWG7M48KlamZjIZALj//vtfe+21RqOxvLwc7t9b9/I7oirwPEEI0XV5YWFxfn4eD44QQmD/eSDgB24sbppRY2r6ym/8xm8wxl544QVsdo59sWFPT3alW1q5YjkSetVYHI5dScNAios7NqWECDjnsiwbhtHf3x8E/PXX3yiXK9jfPYzYdnryW7grIWDbAZZtY+sK7F7d1pawbdfzPFlmuVxufX19cHDwxIkTly5dGhsbQ3o+tpC8U91Tb+XhW/Mk3MXRqxZCEMKubhuEv+fYvcd9rhXf9/FQw9HRUcdxT5069dprr9m2jaXvW3es7TzkW1GV5wXT09PlclnXjSDgyATGpR0EgaZprutnMplstn1jI/+Zz3xGCPHqq68uLy9jGLErjPL9kHDRQLhXeRzENc1d36sb0W6kVa+I4E46nYxGo0NDQ9FoFI9HQcd468y44a3pTffru3pn27Yx5xaPx13XUVUVWxF7fiDLsq6reErP0NDI/PzikSPHYrHEhQvjq6t5xG33VlVI5w2VJQRw7gfcIxSdeADMiRCJwB2K/wQFQSmlCCP5Pu/r67Vt+8SJY2fPnrUt993w0jarCrtEXOe3EO66diuwCNlrxLF9SYJf/vJsvW4lEgnP83Rd7+joSLclBQSyzGRZsm03Fo0ySiiRVEUnIH3xsScWF5YvXby8vl4AAMMwLKu+xTtqPt4HUoVIm437AjytGAgFAb6sAJO461mECiHQHpIgEJRIuzc8N2r/BZSxZs2PJNFoLDI8PEQpmZ6echz3VxcugQDBodlFMAhc1762Ih+g+RzXGOTmapVk6geuaJ0Nhy/GGLt0adr3uKqq2NQsFovF4mbrABxs7EnQf9F1PZPJNBr2Jz5xvywrZ86cWV3JU0prtZqu61vKmFuv9IE48EjPxgbnAOB5ruc5nPuMEUmikkSxRJ5SPL/4FgwAf5ffSKHV3xwtmyRJ6bZkui2pqur8/LwkKRsbZSGAURldjJC9Atdd5YbCKAupa+g7CgGWZV26dEkIgaxm9D7j8Xh4CjAyeARwLiASieRyOcuyDh48ePjw4WeffXZ1dbXRaDQtcrOELxTxQfJfwj0cUb7rGieHnNQ76P5ge208SkKW5Ww2m8vl0un0+Pg4nmkGzRPC/bBO/jqhAFtJDdcYza1xGWPMsmw8TAxfQ1XVVCrZ1tYmSVhJ0IwGEPhCVCKVSqiqXK2Wv/SlL128dHFufmZ1NR+LxZB5sSeCo492QrQqakJPHVPp2O0wTPHcEdk6+owx0zQ6OjoGBgYmJydN07RtO2xcC9t0GqDbzWUueOuQeB9txWahNDU1bRgGZt6i0Wgmk9F1bALnhYTskDcqhKAUuru75+bmTpw40ZPrefXVVzHA2lWe5o5LmHxCUjeef4g9ohVFQTMVgmF36qYhCRAzWQCQSCSGh4fz+TweBup5Amc8bKuq1vNf9wvOOdpAJNnYtru2tlYsFnVd9wOXMYLnbgEJ+W9X2yaEZ1sAQC6XQwz+ySeffPPNN2dmZsrlsq7re9VzB0OoEHttnq5eLuPxueg34wqDO9pHIxwQaFIchKqq2WxWkqTJyUnbtlFhYVbvBlfY7tIEGAANAY7CRnF9fQMbC8my3NbWlslkGGO+3zxXDxHrlsJAkiQmEc5B16Xu7u5yufzYY48pivLWW29NT8+28jQ3JC29vyJaxxzjPxVFyWazIyMjeGYcaXX/gzsbWl0b24bpFVmWBwcHL1265DgOnrCFEMF2cRW0Buj6jQqwRRwhIAAnXTwe55zruprJZGIxnQsfg6St+bewsJkxAgR8HzKZjOd5Q0NDBw4cOHv27NraGp7etCcSZvMcx8FGoYODg6dOnbrvvvtGRkawBVsYk95BVaH6wxQlYuq+7w8NDeXzeaTN4LO5rrudqq6dyK12JVjxgUhzrWYvLi5Go1Hk0uI58a7LFUVRFMXzvFbWTTQ9wNa/CAHf97u7O3GBn7rvk1cuT12+fHl+fh6nGGIqQgS23SBEBMEHoUJ8uPD4HfweALB1FWMsEomE+9mduik6LFuRKrzv8PDwAw88gIsJZ1Hojl4nofaudkC/7q2w2AGfGx0/WcaDzwghgO3cd3glSmkQ8MHBwWKx2NfXl81mw4UVHtoTgpUfStrM+yU4G8LT/kK/Y2uOZqvQHXD+MNQIgoBzgb3hI5GIpmmMXYU7W//b2pnratc7yoBJpLMr6wdue3v7Jz7xiQvnx9dW1yvlWtgalDS72e09j/P9lq1zGlXCGNM0zTAMXNlbayavk/e0xYRz7vtNtxXbcmHH45vs7IREQSFENpt1XRfR27m5uc3NzcAXtBVoo86YRD5sBQd3UEI9teDHZskp1lbjqtrBrrRUdaNudbhuMEJsFfVL2HYXtuhfCMGFv/11sHUF37dvXxAEPT09AwODr7/+79ihkxAIS89gGyf1oyRXaVICwtAtjLURltsRrbiRbLWYzUoHEXbh2QoCcQE7NO8GALBt2zTNeDyWSCRKpRIWyU5OTlYqldaNCBe+H/gf4b3q3aPfzF5yHrqaoapueAV67Tq4GtlsHTWxJZd8XbS75TluHBUh4CTLjBBIp9OFQuHgwYOxWOzs2XMrKyuO46H1+3CQA99fefdGxVud9lt7Nmy3pACghZlePWuD4D9FeDCAQIU3XTXOw0RZ05dtNdG++tlrn09gGQUA4GGJuVzuyJFjk5PT+fy6bblCEEqpxJQ7C49+OOW68hMBAWNI+ieEkDBFvZ0H2GpSJ+jWnnWUSowxxw4oZY26K0u673NKJN/3KG02kCOEBIFgTOYBXNvvLsQguOvZkkQ594UQ2Y72gwfvWl5e/cZv/qelxZW3Tp+pVOr1mu25wnW563CESD6YUXvf5MY9q8NKdc45Y4QxgqEkF74fOAICJhGAZk0NkpevuwK99r9Xf9daRnRLGeUOFRDXX3eLCABBKHYqYvF4HLsod3XlJiauXLp42TSjjuMqioTZvDszXB8+CY+yRl4t/pAQEo1GDEOTJBrCcrA9BrhT7pUQEuaidnD5d5Dryt8SiQSmj++5554rV65MTExYlo2X3Vsq5wcgOIBIkAYAz/Ns215ZWdnc3GwdD9dk9t+wWcROHiAANIuTKaaybgVNYIwJaLFZBWCjeN/3T548CcCLxeLs7CyltFF3GbuT+aEPm4hWoTtGO47jbG5urq2tDQ0N9fb2plIpSqlt25iLuZksMId3pfRRQgRot49IoAn+47pSFBKLxSKmHonoiDatra05joMskY9wXLXVtfN9H+uOGWP/+I//+PLLL2P3JuxmTinFNpHXyXsUjQgIhGBCBEA4pUDZzYIUW4VzwWjzzBIASCQSuVzuVxcu3nXXXefGzvi+v7GxkU4PFIvVRHLbs0U+AnIVMeA8Eon09fXpuv7AAw9omoYnb4fpTTwh5rqPv4e7hdtT0xhScQvNtQVcjcOCIBACNI11dnYC4b19PdizrVAoWBbmHXZ7+V8bCRsmQAvzjMViw8PD7e3t4WGSCAZhcuTdV9hJVS2MNxACCfK3EKjSsBoVmj3bAgCIRiOpVAq7/5dKpUajsb6+YRhGi+n20RTWEjz3i3OOJ2+HZe2YfabbHOy37dAHgec4lqYpANBoNGq1aqGwLgTH3DbCFnjiIrzXHiYxBQvZVVVRFEYISBJ0dmYtq97d3Y19YxYXFyWJ2favz6Egu5St5R6apuHqwQwZaR3uHYJBuyOXhWdqNRq1UnlzYWHhzTff/PGPf5zJZPDgAbzBrn22lk47OjpisVhHR8fi4iK2osT+5bu72n8kudHQEA4AtXodADTViMfjDz304D333EOA6bpcqzew7TNsSX7fgueWSsXi8Xhvb8+ZM+80Gg1CSK3WSCbN23mZj7Zsu6rMiIntUOr15oHNsiwDAdM00LZCy1O4NVpPEIBpmm1tbY7jzM/Pa5q2ubn50QXW74Ds5CZITNJ1PRKJGIahaYokN/l74toODu/FQXgX2kQAKWnxeExVVV3X33jjNOdQLBY/wh7g7cu2qrId2/O9rXk/TFxiKixMtO8A2u8sikLj8biqqvF4/JVXXtnY2PA87z9AJuTWhW7HvNNUTZZkIHwLz1Rgw7IQqEd8Hbk4N3e7a3JaqKdMJjM5ObmysiJL6o2C9I+lKTeaxq0ElR/4PICtzn5IfhetFlj4iVsomfJ9CIIgkUik02nHcUqlkqrJllW/vdf5KIsEBLbM9JbmBABQRuVWQuSavhoh8hh+f8M4oCUkvGJLBABIMjEl3fe9np7cb//2/xqLmfV6FRtPfSw3FGkb7vHWPNb7Ip4XYFevbDbruh4eo+b7ngofWXD9NmUvQ06ElpPJZKNhYVj9sewge+ZyyTLzPA+b+ITlDzsa0v/ospfecRAEyFkPuYX/EXhLtyx7NjTIWaSUapqG5Gps67NXz/Phl71UFbTybJiq2Q78/1hQ9kxVaOo8z2s0GpZlbQVBPpYbyl4ODRbehnsVpkL28Hk+5LKXqkLdoA1EWsjHHuAOsmeqsiwHABRFQaQKGxHcwTLpj57soVshsOkKsk1VVVUU5WO3YgfZM1Xpuub7vmVZmPjHunas3PtYbih7CSxZlsU5j0ajjuMia/OjTYS+TdkzVbmuhwd3r6ysVCrVbDbb1dW1Vw/zayF7ZgDx/K5SefO55557+ul/XV5e0nUNuWwfyw1lp5NI3m9pHdIF0KzuZoxRIa5SUGELF+pj27iXe1ULnmh2jyHkajp/q4Y+wjUHu5I9W1VbykOuP2jj3boht9Xx9yMie8xm3Qr67dAP4WM9wZ4bwOsU87FKdpAPHZL98araTv5/LO45rW+Y67IAAAAASUVORK5CYII='</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAIMAAACLCAIAAADNrL1cAAA+0ElEQVR4nO29aY9kx3UoeGK5e65VlVXV3dV7s0h2UyJF0xIpcWxBnJFGeKCtD082BON57M/+AQb8zd9twF88njE8mPliYAYDDB5g2ZbwZFlvQI/faGhtTYpLs5tkd1d1rbln3i2W+XDyRkXeXKqapii+hxcoFDJv3hs34pw4+4kTRCkFn6ZGCDGfddHMV7yBUoq3aa3t+wHg1OmU7v/0NPJpw4SB+6kgwxtw/IQQgxvsgVI6t9tPbeO/7AHMaQjTEiaEEOaKUgqpgRDCGMOLNqwNPvR0AwDHcT6ZWTxu+9TRxGxbtMYNTdjEgYzLxkoJo59a4vjU0YRZGWeEoNYakVSipCRJkGgQN/j/Uysk4FOICVK0ub8iBRiRIKXUWiODQpaF1/M8D4IALO6Ev2qtP7Xc6ReOCQKPy/00aFBqissDgOO6Is+zLAMABH2WZVmWhWFIQGmtsyyjlDo8AEoYc5XMJwMghFICZMLcPq3M6dNHE2ma4hJWSgkhpJS48JOiIRHglTiOf/azn3HO8Wbf91dWVqrVKqV0dXWVMeZ5XlA0z/MYY9zxftlTnN8+IiZmuYctQhF2nHNKKQABrUu6JnahpBRCGKBnWSaE6Pf7Qog8z2XREB95nruui9SATH80GvX7/ddee21zcxN5zoMHDy5fvuz7vlKKc46gdxwnDMNKpbKxsXHp0qXrN7aJ1ezBI/1RSpHvoXSxORtewTGMRqMwDAkhSilKKQ6Vc47d6mLKtunzC8HELBqyLGOM0aLhdaWUVgInADhtrRGySZLkeZ4kSZqmedEMYmzMGXkrhEjTVErpOI7neY7jVCqVVquVpuloNCKE5Hn+6NGjMAwdxxmNRpxzx3F839daj0ajKIouXbr08n8zxIthGIZhGAQBIpgxliTJeDxGmjMTCYKA8ykoSSmVUp7nIYillBNQck4pHY1GrutyzpFwtdY4Kdd1P35MzNVqPM9DUSmlZIzh6tBaM85BSS3yPM+zLEMOk2XZeDxGOsjz3OhLZklOFiBj+JWArgQ+LlXs3+WMEO4yGnrug4N9BF/ouaN+z6GEauU7XCklszRVMo7jo6Mjx3GklP/he9+fi4ksy7rd7mAwYIxVKpUoivB6pVLxfb9WqzWbzWazWa/XoyhyHGdlZQXR4DhOtVoFAOScURThXBABlFIDio8fEyU0GCcEIcR1XTTBkCwoBRAyTePhcDgcDsfjMVIALivbHsZGCOn1etgzrinsR2vd7XaR1TiOg9wAyejSpUuDwWA4HB4fH3POB4NBpVJByTEajQ4ODsbjcRAEKysrly9fvnL92jtv30H+mabpYDDAhYz01Ol0Op2OEMJWxhDKAMA5933fICkMwxs3bnzmM5958sknwzDEifi+3+l0XNf1PM+mpLMYMR/FsrPZq4Fmt9uNoghZATL3OI7H42G/3cmyBHGAhIwzN/oofjaICYLARo/5tVqtIiX1+/2jo6NHjx4dHBwMh8PBYDAejxuNRrfblVLu7+87jnN8fFypVC5evNhqtSqVCj774Ycf3t95SIlLGEWqRaaEyA6CYDweI880bBO5KDJ9QggSk+/7ruumaTocDqMoeuWVV37nd37n+eefJ4TEcex5HnaI5GumFobhx4wJGw02MnAJxHHc6/WSJME5jIb9UX+gtcSZoLgzZrD5bNQkxATKgzRNUTuK4zjLsoODgziOx+NxHMfD4bDf7ydJopRKkgRXcb/fd1333LlzN27coJSur6+HYTgajY6OjoQQw+Hw7t27H3zwAXMCwiiOxAwAAJDvowQihOBgkMpxeDgexJAQIgzDwWCQ5/nW1tYLL7zw9NNPX7ly5cKFC+fPn4+iqFqtlgTDL5Y7lVw6e3t777777s7ODiGk0WgwxpJ45DIOWiIKFSEiz42KYtYOLkNcOzs7O7j2kaH1+/3BYJAkieM4hrBQwFBKXdetVqsrKysXL168ePEiY6zZbGqth8NhlmVaaykEAUji+GB///DgII5jR1GgZcUJCu6KQh4XBwBQSoUQnHPXdV3XRemCD6Zp6rqulNL3/UePHu3t7QFAFEXr6+sXL1588sknL1++vLq6Wq1WUa6cCswz0cS0dcaAoPmlQWlV/P/O3/393ffvvXn7jcPjo43W+pVrVythNB6PA89RckowYEO6QbUHOQwig3MupURJbpZhlmX40+rq6qVLFy9evLS5ubG5ubmyshJ6/iiJ4+G4vtLY398PgmA0Gkkp4zgeDAZIoO12586dO3t7e4zzbn8MlBjWZ1DCORdCmCWCBIFMzKhzRpElhFSrVbzoeR6iJAzDzc3NTqeDsgeXxc2bN7/whS889dRTq6urpwBZytzy2FCtNdFEawBQhBAgSkoJUlBKCSMANEuEGwQgtKZEC0ldlo3T7//HH/yf//v/wVzHZVxTAlJlUsgsz/JESyFVblQ9A2WkegQ0qkO4EtudTp7nlUqlXq8zxhqNxsWtC/V6/erVq61W6/zGZlQJCLBcTHRfLVWcJvEwyVUGoIQQyO6H8TjP83icDgaDnUd7H3744cH+YZIkmjiagFHPDGT1tDfe1g8NbgyhzF5BYmKMRVGExMoYE0JQStfW1tbX13/rt37rS1/6EnrDPM/DKaNRgm9ZyJ3QPuCMMEaBuUA05JkQijFnMl4KQAhIORwOe53j999/nzJg1GGcONzjDqWEE6oHva7SAhsqLUgfx8fHQRCg7m90Ssdx/u03v+l53rlz56rV6mAwyLKsWok8z0P0UAYoGJRSFDTROhdC5kKqXEuhQEuZKyW0lpQCpcA4IXQizwAAGCWaaNAG1kYaL8KEzX4R7uareQTVd1Qau90uikDkcoSQdru9s7Ozs7Ozv7//m7/5m1pr40ewxfhCTHi+D1qLLBEiI4RwhzFKuONoTUHmSZJxTrUmDAgQxTm98cS18Xg4GIyGw36n08myREqttVxdaXDOgyBArSOKojAMPc/73Oc+V6/X6/U6Knye5/m+7zjO4dFRr9frdrtvv/32e3feBYDr169vbW2d22ihzWyECgWN2ieiVkqp4MQeZozhujMqKQBwzqUglBBbh56VpbMGk8EB/oqgR3oyejY2x3HQR4CEopRCgffgwQPP85544omrV6+iWRrHMXKCUzCRZxnnnHse91DaKBC5lIJxB0AzRrjnqFxmWTIc9geD3s2bT6VpLKV2XR5F1UolrFRqQeBxxjzPQxsKvUBRFAVBcHR0hFYVFEYQQrNSqQwGg36/v7Oz8/Dhw0qlorV2XTdJEmS+qKQJIWSe5Xluq7xaTzQ0zrmSwBjjXCPTMLdpShRoSikC1wbxIkyUriAXRZXB1gaNn8O2vXXhU2i1Wu+88863v/3tP/iDP0ABjv2YSNdiTOS51poRDaAAgHEKnDMOKhOEEEYBQIs87fe63c7xcNAfDftxPJZShWHAGWNUU0JAi3PrG8h8XNclhKg8T0YjlefVMAQAmWUTlUHrLElGSTwYjvr9fr/XHY+GQggAyLKs3+87rM45d9ANAZoRUIQAAGMMhTmAAiUB8DNImEhXYwwiJhQBWvAi5EtGFNvcZhYghmvZlIHkaHRiNCnwA/5kHo/jmHP++uuvu66L9koURTaCF2IinFjtCpTQSmmtZZJKKb0oGnQ6u7t73W770aP9JBk7jhfHozgej8dDSjnnUaUS1evVWq1RrValmCjmKNNQI5wAq/CzIqSUUnmet9bWBoMBIQStcQQlPoU6pQEEzl8pKDw8yJ0Kq0VOwkeO4+AbCSEaAUoAiiCgthyXZu4lTJivRraj/WQ4EuLSRA9Rd0JSMN6OwWBw/vz5brc7Ho+NKYOq8Gk0kWVCCJmnaCHvH+x9cO/u7u7ua6+91h90jw7bGiRoevXa5Re/8EXPdyIRSJWKXCkt0jQejrTWWsp8tbEKhcqE3ko0xGz2ijNBo6lzeNDttDEOUXgTlRIZLjTD3AkhlGhGqIIpCJp4kVm8BveEEKU1IRQIGCMfh2F8jrNkUSIaMwZDIra7Ewp2hIoT3oYLzvM8NE0ODw8vXryIsloIcTomhsPh+++/f/unP37vvXcPDw+P20ePdh4eHBzEyUgpoRSEoQ9Aw313b3/XdbnnBUZKc4cGgVetRfV6DcdpPHe4RjjnuBwcx9GFXw9BVq1W4zhGG1UplWUJyuQ8zwnR3HGN51nkqVS5UsRem8bBYACKb5wgsnDxGsvA6LL2IzY+SOHitrkTki8qSIXzf+KnMnSDpOk4DqpVlNLDw8MrV67Ecez7PgD0+/1arWbeVfJS4YRAa93pdP7qr/5qbaVBCLl165brOcl4VKmGvsOjSsgo93xXSd1o1v/jD/7vhzsPHD7iDqtUIt91OAHP4S6jWuTc9x1OXYc5nDIKBJRWQknNGQEtRV4sYdAElAY5EXQyl3lKtKQARIPDKNGKAqFAtBK6GDBjLBfSZiaG8yJnQCwjjicABS3FxP2FGELvBer4ZiEbkkXsIndFAwgA0MeH7B4dJMYeQrXKfDX3M8Zc1x2NRo8ePXruueeEECXDeyFNNJvN559//uH9D5544omNjQ0/8IhW9UZVizyMAhS/Qojd3d1evzsYDFZWVgghlBHGGOOUUkoouhBOyNxuZjHarIACobrs0QJQJ7AmCizmrrU2/ZeQQayoDgptxpgWuVJSk6mYFcIoSRKkNlSKoiiSUo7HYxSwSBOocCP1xHGMFhylNI5jIUQQBLVabTwe26qtWeWI5jRN4zjWlrPHtKkvdmOM3bp1q9vt4jJB9RkJHz8DQBAEH3zwwc7ODgZqjJZpIi22EWtPHgrpV2oAoEFSmPKLTLiNlqClYR1aazqTo2Y6wQ+saOgyQhlrXHu25oPgRuGEmh4yLgDAYNTGxkYQBEmS9Hq98XhsZAy6nFEMUEpHo5GRxnQ6WocMFnvQhSvFBvhCmvB9/8aNG6urq3t7e2EYer4LUZiL1OMszRJcF1EUPXz4MMuy1dVVvFJycBqgzMLd/DSrQRqzS1nNIpFp6C92cRqfhOM4aLsopaQEzibDQ0zgmMMwRMYopez3+zip7e3twWAQhmEURVrrfr/fbreRApRSjuPgukQ7SWvd6/VWV1dLvhCwImB5nmMABjFh89WFmOCcNxqN55577p//+Z/iOK5Uo1qtJmTmcaaVJBq01t12Z2/3kchy3/W0VEQDI5RTxgglGkBpUJoRyghQ0PYf0QoAKBDQk89ET6yBCbylMH8lfAAAtZCHWLUJzsY0XjGYsFB5wjFQkKAajdJlc3Pz+vXrL7/88vPPP3/16lVczmmaHh0dvfXWWz/84Q/feuutvb09lB+YzjMcDh3HaTQaNjWYpYbwRNwMBgMoGKxRBJZhApnSzZs3/+Vf/r+DgwM/8OrVilQ5lYxQQKF0//79w8PDLMtQETIMCuUVvoNazYaRvRxsXjTNmXSJJpCZ2A/aY57FBymsP3S3UEptqWP3DwDj8ZgQ8tRTT/3Gb/zGq6++euvWLcdx0jQlhd2O9zx48GB3d/fP/uzPbt++vbOzgyG84XBICGk0GogeMhMuNRf7/b5RAaaW/iJMoJ67tbV18+bN27dvdzqVahQ67iSAmWeCB879Dx9IoWrVeuCHUkoClFHOmcMop4QRmCMJTLM5vg33OV+V0ErgFao1UUqfIX/ZIExrzbljsmyUmtiGuGhMBgk67C5cuPD1r3/9t3/7t7e3twGg0+lgdIEQggEPz/O2t7evX7+e5/m3v/3tv//7vz84OECXOADEcYx6+ex4EPpSSnTaz2JirsRWAEpKqUFyzre3t7Msi+M4yXJKOOUOIQRjag8ePEjS2PUcx+WEAmUEtSZDAbbAWNJsGaDJyUWYMbVKXwHwvyIEtakTK48TSillQAgwRsDljutwl3EN0rA1O3o6HA5d133++edfffXV7e3t8Xh8fHzcbDZR1zTpAYi80Wj01a9+9Zvf/OaXvvQlzvnx8bHW2vd9lPlzB2zyhjAKgDLJBg4FyjShxR8AJYRRykmaJ4TSVOQ3nty+9sSNR/v7mRCjeCylHAxGvu/fvXv30d5uGPqbm+v9ftfznEolrFRCx52EVijljDlSgwJi/2lC8T9+kBrwTwHRekIreS4BKHK8PJOgKfrVpVSF6TZphCpCFSGaUuCMckY5ZZwyJbRIBacOBUjj2Hd5a7XJKCGEoPITBAHKBiTQc+fOSSk/85nPbG9vY/hkdXU1TVMEEyaxIa9njKFFdvPmzW9961vXr18PggA9CCXFxKBEKTWZS54PBoN2u238PafSBARBoJTyPMd13StXrgCQg4ODLMuSJEO7sdNto0deyIxQTRlQhlKhLBvA0vFLsvQshDKX2K0eFIACoktaFGMM7RkKBFUJh/HA9VA4Y7fE0ryTJGk0Gr7v1+t1VIp0EZxfNLxarXb9+vXnnnvO931jSM8dsC02Cn9BGQIL7QnkjIxzx3GeeuqpWq2GdkOv16OUdrvdhw8faq0RYejAsA2IufZECYizgJ6VHFprBWj1a621IqDOlu49q0m7rlupVGz/FSnioxj2iKLo+PgYiqVKZlR+u2mtHcfZ2tr64he/WK/X0eJDY8VMyiYOXVijeZ7HcWzUmdMxYcMItbrhcHh0dITZkgcHB7u7u57nod6GzlRaZM+TGQOiNCyYVntKLBWmtZoScZT6WdTM/M1/xITpGQq9DgoPoJTyjTfe2N3dRQ82THOP2f611pTS7e3tZrOJmQYYbzfjtP8b2yJJEnQ2G9ycgglM+MVRc86ffvrpMAz39vbQUDw6OhqNRtVqtVKpGPvInnwJIiU6WIQMc4MCLbXCPzUTX9OUqGmPxWzTheplBuA4DhpoBsG4YpRSomi7u7sHBwfE8jstwQROfHNzs1KpAIBNELPIMALJYMI2JpZhwtgEWmtMtbt06dJwOMQkYsyewxGgMlAyF+ZqTbOsfy53OsGHZUaU7jxB7QJcnJiBBZ9ETCDDMbkm5mZUUlFgoLE2l5vbDR2LzWazVquhMolmvOnW5gpmTSRJ0u/3YYbgFmICFwt2htrCM888U6lUut3u/v5+kiSVSsXzPIznoKqOyKPTTc9r9nBhhjvJmfvBsscMvk8VGLpwiaMkMBl8qAKhYmpEBcafKaXtdpsW6eLL5QR+CIJgfX2dUprnOcysLZsZID4wmwustXIKJgBgOBxiX47rMsauX7++urra6XSOj49x0w5jDDXoMAxnvX42WSxiSqWJ2cbE3LZktLOttCwQ4ogJKEImAMCKzH6E0e7uru1ZWdRwPaHTe3V11UR+SgQB0xILiqDZ7HSWSWyzQSqJYyAkDMPt7W0hBPojfd8fjUa1Wg2jzUUIU5ugP07GbHrAX0tCu+TJOEkt0FoBaEowAUAoKbXirgOECCkpZ0AJ+uCoFfuzfS0YNEXPEtK3UqpSqWBEHV+E+e1pmjqOk2UZIWQ0Gh0eHh4fH1NKMcq2CD7G0en7fqvVQhsezTewAkpgrUIcA2aTQmEnGPa1EBM2n8UruP8AvY/VarVer6M/C6dNZxqZ12Cae842VSCpxLJK8tmmEjKtFNjNvog9oPvaFuZgBUGVUmmaIlZOdRCoSSYDVKtVs8iWULz5YJOOmcgy7mRGqbUGrf0guHr16tNPP43pOhjkMjFxWuSbLMeHmd4iVOlJzPDEsJCgJcxxF6KdMRf0NkRscDPGqtUq6v72DbTI0M2yrNfrDQaD0jqY20zcrdVq2e9d8hS6TDC32r5/GSaMrg1FSAQAms3m1772tbW1NYyQAADnPIqiNE3pzGZbGwTEkhzLieME0NOWhE0E9lf7XbPEMWU6UYqqx0kk1Rqw1hoX1tHRUbvdLilXi8CKg1lfX8d4H0wTa6npYtPYeDzG/slZtNhJv0oBADojQWvC2JVr16rVKmoaOBqkCRuaMMMr7J+Wt4nwsOxqu02uE8DcVnuoJUZk2EWJJjDvDbOkcIWipmTIot1uIyZOHTApDAXcpWGk0SwazAJCdR8xYZg/PVn185qyUuRQ7UAedbi/L4TAPFxKKfrIfN8n86Kki6h1dmnPbarII7Kb6bAE+tIHc4/BE2q0ruuaqJEqAnaq8LMSQjAXdK7jujQFfFBr3Ww2V1dXjbdqEU1AkedgMHEmmjBms7LSvLVS9+/fR3UYQ/AAgGrGIiExFw1LmM9UA1DF40IroefYd7P4WLSQDYf0fR+1JoMAZYU5B4NBt9tF3+oi4ACASWoihNRqtVarhZEJe4SlkeiCJaKcKC3HZRKbEEIpV0qBJmqS4g24V3c0invdPsWtmcwFAEo4JRid4AYNtoppDwiWEsTcO2eXW4kTzk4bZuiGEMJAO5w6nBJQWk64k7L2fsdxPBqNcJpLkKGKTE5ciLVazWQFLgEp0gHq0GfBBAWgjDl5LrUi3PGk0JRyzwtELldXWqurq4QQ3/d73T6lXErNmasUYGRDKwAAxhzOXUKYttKHVOGtXDRKs2ow3ZpRSgqdj2qguljXQFihfwthFjRoBaAJcpVix6fEjSATPqwllfn51RUPtEuJyJLQD+I4ppQ7ri+kBsLGSfzw4cPhsO95DiwtsKC19n0f+fP169dx37HWkz0K2tImkCvmeY7JPpgOAkUgD9syy26y6DTVWoOmAIxSnqapEKgzoHaLC9PwI7R3WEmAP1aby9DkdISolOs3t81qDQDAKXEZeI5LlAKlCdWe4wMAY47jTNKZMIcjFyljCwdvUwCl9MKFC2gI2+M3qx6sdYaRDNxCYXd4CncCQgz94JXhcGhy5XXh4qfWBsJF2uqSF9ltLo/SM3Lb4OOM3ZqGWWho36oin8yeCPr8Hzx4MBqNlvRjtC+c2vb2dr1eN3JxEdfVWqOnDmWt3ZbRhA0IUijL3W4X6dFcnwt98+zj4sPWAucKD2zLhbN9Q0mXQ2cfusdN7rCRQxhQOzo6wrCY0qfXskNfzuXLl5vNJp2J2dlkQYpIkZRyOByWbPhl9sSUakgIaI0mKLqLiZWHO5cXGVSVu1raZheRLpScEtbpad6IWXENBRtFLVwXRS6gUGyQyHCffWb2dsxrsthbjmRUq9UwaLZkPOZmpZSdtDn59dRpGILAzYQYojBxITrt5JjFx+MKjFkKsInPdGXrZkvarKjAkZvcmTRNzVxIYXOkadrr9ZazPmVlXuGKrNfrMEP6pmdVeOCVlVZrd3gaJiwnIGIijmOzQs3oybT/mUy32c5nuU3pp1kGNft5eT82FdpjQAoIw9D3ffTqk8KCM+MfjUadTsdOmZnbaLGzBlNvDCZgev1hM44m/IDudHv8p6wpm8EppVDLnsv9Z226WTSchSzmSgVYIAOXYAJmuJP5QAjBrRsIQSjEry6CObiXezl3ooV3BAlCKWXqXJRYMf63M6MBwPiKTjpc9Ca0HgkhlDF8jFJ6cHCALnF0HWPKkEnJNkMkRQEIo+GIQu2nlovQXvgoKjFjHj/rYleIcXJgmBYAMNKCflCDj1PZoHlprVaTUgZBgFG5OI7r9XqWZWZbje/7g8Hg/v37S7wdOCQMxiCLu3btGqq2WIzNrFe8ExEPAJ7ndbvddrtNCMEw3ymYmJ0DAre0Hu3Jl2CxnAJKy3kuQ7PfNesdOcvIZ5sqfJro28eLJvXGWKCoaC6JFJlVAgWLxhjUognaF41qYIPoTJjAhok62spSmRDNvLKTZ0GGudM0Op19bHCgrC31j4WP0sBI4aPFskDGZ4d+MxsT4/G43W6bHMC5PUMBWUQk+ttL5G4DwVw0DONMmDjpEWWjUlmWDYdDPZ2lYu+WIPPackjNfeMsKZQMujMKCTItGyYTphQAcC8+pRTZIG7KR26D2BqPx/v7+0uMuykgUgoAGIOyZwHTCDPXkf2iq+OkkzPORGuNFY1suJCZ+M9HQIM+zSFYgr6Ng8fiUTgeZNaEENRiESLIrLRV2AsxgQHnuc0WttgzOgFLmLDvMYPH4KBdFRrOqDtBYaaPRiNdWEDaMrBL0LdRuBwupvPZha/UlA+8hNpTyaJEpqVOKKWYcYyuRlJsSDFPpWl6eHi4hCYMfzZfG42G2exu08Qsd3psmrA/a60xYmqDgCyIDs2CYMkr9IwkmMt/ZkntLAyq9Lh5EPe2BEFACEHXKe7MnQCFUiFEt9vFCPHcZkjZZOs0m81Go7GIJsBaPUaZfEyaKPLtpcrzPNUgtZ78AUCxwXTKtjgjX4JpsaxngxCF034KDeT0WP/SNxIFhDHmeb7nOwyIlLkQwuH0xAdOiQKdxFmeLTSzDSaMowzL3J1x1nK6lgQAUAlSglSg1IwvPssy5lClBKWEEdU+2nccrVTGOCgtpRKu56AbmTHGmeNw10QFGCOMERMbMHaQcdfATKYMnWzapQAUsw8dxyHATGE6AKDMLO3JnolZPoatlBJgbnBc33V8pbSUclKFKUu0FFEUSJEVGw8oc7w4zY47XfQpqCJqggWaTG0Bz/PQ44BJU1tbW4yx8XiMhkiWZXibLApYEULw4ng8xlqdJ5iY7D+YaYQQYlYf0UJkeZ4qJSgjhGjzhzX+ZiWqDeVFn0vra6ZNxfumO5Gz12ffO7cJIQEIYXRSz4MRpVSaxZwRzidvFEpJKTOhhuPErBuYJnp7DZllVK1W53Inc9FcUTOJB6fFJ4rncYOXbeng2tELItLL0bMcH3pmIS958HExIYui8KgvYU4xVjXBz6qoM5Dnaa/XMdxcFUFve5DaOgaDELKxsYF2SYlSabG7GwrX02PICY0qXfF8kiS4Vc8oTrbWZHslS/hYDikb1rM4MJ2YiZ0Fu8sxQUjBfxhDsgAAtOCQXeCzKFTb7bZxSKgiJQcsrURPn7lw7tw5U9DRhoDhxqYrVBPOKrFP7tMaKz1jF6iBUavIlFHSZ2X1LNBhhkfNBdwsUuciY8n45zZKKSGgtdJaITIoBSEmKftS5gAK1zXmPmFwjUyXdSrpimYk586dM+a6jYmSFqeUegwtdup5QpA7acuYsEl1rlVRaqXR2OCe/aBnmNIiA5ssaEsxMfkVORJ6ZLXW6PzAEIXBhEmYN0NSVlBAFxvc8fr6+jrmopsx4FBLcsJgYmpgi0ZsIIUfkBRsINIincmoFoZTLQLNqWDS0wIAlooBM8nHwoTRHSmljsMdhxNChBCUgutxRAN3qAaZi7TTPR4Oh7h4deG8s7VPPc1UV1dXDSbM60qkTwrjrEQTZ63cq4riOqWmLVY4C/G5dABnNjhmyaX0k93VGTFhtj/RYpOLuYgs3mgiQojRaFRKwrDBSshUHjQhJIoie+dn6RGwlKDH0J0IIegd444jswwdsagXowGBLjPOOVZ+MbzVvN68zIDSSDyjNmjLxjGfTTDDPGjS3M0VUiiOhnfZ9jlYFEOLPSyTIjsMgCilBRCF1ykjWivcC5JlCec0z3NkUOPxeG9vj3OO+6YAwJQgwJci8pBLY608kwyINsd4PI6iCEFnEAxF2E2dJVIE0yvXKBWL2PSSfgxu7M+lFWFft19h9zyXO5Wu2INfNCr8iVqZQVDA0bi1kWUNh8PZMOfcbs1TeOqBWRO2ZmXf+Xj2hK2bGiK1151BAz0tsm8TdelziYrnUq6e12AxRmefnZ0apZRz6roTBpUkMecMF75SglKQMu/1eqPRKC9qoZe8fqWpISjW1tYIIbIonzZXq9SWcD0Z0pI52GIHFSeY9iIYNCyhidIIYIaq7Hv0tI5U4ralVmJEcwmihANiqUAwEdqTarKYKlnUgJqULEzTGK0o2yAwy392poSQzc1NsI48MAEoMx5iSWz78VO0WEMHeGwMzCyxM7Imu9vSui79ZGMCZkRcCQ1zu5pds+YGUmTKai2VEoQQzjljBMikNgR3mNISMYEyAK2owp+2cAuXWZQbGxv2mM2WAPspVSREn4kmDA5sTJAZf8vZ0WBDZBYN5p5FmFjeZvucu2bNsHWhXGByJimsZbP2jRJligDBNE3MvgJ7xpr6BjKY9mFzb/N2Ne2LXZa7wIryaEqp2YxaG3yLOnms+2eX/BLWNBcZS7o1X5lVqpYUWeWGm5utq7rY/4N5wAYmsIA7ma+1Wg2mD/00jlgzDIMJ+yKlmuJ5QiXqMAsNpyKEwIAEzItDLQCEKv6bD1B0okr/TefoZ7V+LcNUa60XFSaYbnPJglJKGCWEKAKEasImtQux6iYFwijnhGpNVK5kJrGGqY3vRRIbfzL7P20QzY5kju5EgTFgBLc+n3i7ieu4Is89xwUC4/FwPB5yxnBPIADl3KWUE8I4n2y3ZpwyTikjWG+LcUooFGiY/GF8SSkhZa61TJIx+nnG42Ecj6TM0xQdKkIVRc6UFianRAiRZxP2SikHoFIuI0cz1SmgMJqKXFPNXSa1oAx836UUUOVfX18fDga1Sj1Pct+NGHHxeBcU42aHtrb0BRN6wYommJwAAJ7nHR8fdzqdarWKv2IZqDzPm80mxifK9sSS8pI2AnG1nnrzFJWc3F0mggVkMRWmx6MjToCIANUnofm5i3TZ2MjJByMMCCecU845AYUbSpQCCoQAo5QmSYaHRtmzWyKEMOMWi/2dO3eu1WqhrY7RWfyMOypN8WVsy7wd5n22eLEXWqkZ0DyW5Jj7yKxUNCCwZThYztESsJa8zpYcaM15nseYB8X+FCxrQAihjPX7fSx4Yk9wdvxmqGEYXrt2bW9vr9frYSCPMYZEIIQIw7BWq+EsTEHgyUiWDHpyUxHrLwF6ke50qgidncZcIJaAPivDz9LhkhvwA7pjMbtAa416lCiOtKOU9vt9U+G1NLxSz0aRvXLlCpYNqNVqFy5cwDozaZpiaSw8+mo8HmNVZPP4YpqYTHvqdNISQ7AJwszTRtgSvjFLQLrQ0/S8ZuhyVpMugf7URWB3S4pT6ih1tdbmCDXP85QESilmK0MRV1jUpwHIlStXfvd3f9fzvL/927/Foj+4uwJPY82yrN1ua62vXr26traGm5FPwwT2rk9SB0uLfRYNc+F7lmY/ZRsTYBGEXevCNDvCXOrw1Dca/3YRpfCUUhiuyKVmjCk5iT2YYnHmjSYKUAYXwMHBwa/92q89++yz3/jGN/7pn/7p3XffvX379nA4TNN0dXUVWcvFixe/+tWvNpvNTqfTaDTw8aVecTI5xtd2l8I0d1oC1rO0uWy31BBkNk2YmZv48Fz+trzZyo/ZH49sPdM5YyyHyf4Eu+SWIcGSq83c0Gw2AYBz/pWvfOWVV14RQvzwhz98++2379+/v7m5SQgJguDixYsvvPBCvV63c8VPj0+U4FL6dZG0OGO3pSuwmDuVaAUKTMzd+fNYDAqs7Ahj9xkc0+JEI/NSKMxe05WNJ21tuMejJr7whS+8/PLLqODiFSS1TqeDm1+wLZPYpmhHu91GytXWLit7HLRI+zXVnLDZ0qXEuHAyqGijVwddnnZo1kbwpCKqEFitBWBynJqcKXVi05CyEpztVHMoSOHkQAStPc8bDoeNRsMcLIEJTvj2NE3NkQd2dn6JOaPMx/NfUXNFfQx9i2Z3JQDYaDgFE/YLbDiWmHjpCswsSfvr7A16OiHchMTB4uYlmBo9ys5gs9+4iEbNnbPKsdktaMjC3PAR9hp/hPZ43AlmgKin3aIwDw0lbWduD7JoRgkxNxjRqqZzZ1lx7om5Ez+cnVXajzCrTfK4tCJ0kiQPBb+aNV9K7SMwamxnwoTNAWxjpLRIZ9emuQ1byTgyaDBtNkm5pC4btNFiS88swZVeWhqVTRPmJzs3hRUnERJQjE50J10cIGEw8biAPvWRM2HClpZ6XgCn9AEsoMyFVAkZNj5MJRNlbZyyIYX3I8cwltGiRWC/ei5W9DSXM1JQ4tEBnEspMeXJiPRfELM63Z4wy9CmZduVb8+whAZDxXMX5lwymqUwg4CTUS3wPSwhgtLXWZqY+MkKTCBNGHsCacLGwSLEL1r7S0QXfjhdYs+dXklzNXCZCx2YxsRccpnbLVgUacKNdGYvPkzLFT1PdJXWin2zrQ0a0W0+60JO2KvqVKB9hPYYupP5Ote6XthMFXxEFrpdsRBvcR3/kyLIdaI7KaIkKIlZqgpdX+YeQ5cnwyBz6A8ALBevWlDvt0jwRUxTIIRQIhkBUFLJnGgAUKX/ZPb/vwJHi7kTZvoz7jjOcDj0fb/TPkIOjgq4kW8o4szW5RM+W2RQKyUII1oDECCgNRAABYRqJTWGlDX+l0oprFqkFEip81wSotI0z1Ll8MAgI0kS1+WMseGwb1tYSimlAU+yUEoA4AYLrbVUSio1Oc0jE+lkhznhBBTVlBMqlfa4I7LEYUzmSaVaG/UH8Ui2Wq2bT26/f/dOGPpCqCQZu64vZS6lJkQ3m6srKw3GHIDivGpN58axTqWkZR5A08W8VbbwTbPrkRDcpYH/iYlJEDL5XJxJpwidOo6UMU4IoZQVBKXtaB2heh5NznfSmZjgohtEcUwp0RIAKGjuMD/wbt28Wa1UOu2j9vHE84EWH6anvn/vHgA0m83t7e3VjQ1YWm9qeTtNYhOilhYqm9uW3GxYLbVOurR5nXGxaWtjgJ5OFbSFuel2VgDAPKmwZLKG46li57rjOBe2tlzP6/X76H0SQqCd7Pt+GEV48PXe/n5UqTSaTba4psGp7fRI0WNhYlZcUzongLH8pdqKRhhNxnZUzJX/cIKkqRedhaABAE+pRWarizPg0SuOO1BxPLgH0nXddruNp1ngkWCFunWGUsgL2lkxoU6ju1lFpVi2rJCFBPA85EJnAaBak6k/BbapaHqeRcMZ4WsPb/kNhi6NjQ0AWI3j0qVLWMKec47nbzLG0BMFAJubm7Va7fz5847vZ1nqOu7yFy1qZ+VOJWt2UTuLODEANfAteZZmCcv8N4vDOKnITLdaL7PjFg0M8ydJkUPOigNTv/zlL9+6dQsf94JAZBlKCz+KMqQPzzMvoJSfLe1kTltWmfZxudM8RjHFzUu/lrx7Nhom/JqcmNkwLRUsulloxNnvOnXwxlyYJJAXtZsUATcIgRApBFDGPR8IIdzJshwYRzSMRyNkU2zxeRWntsew7E69be51A75Zk81uNkeybXiwMAEzIvqxGNTyhqp5SUfI8/zevQ86nQ7eI/I8jmPQmjLmui6iQSvlOE5UqTDOl1RcObUtq6GsiopMKLuCILCzplGNswujlvgM4EJTkzKuk2KuQPEvz4Tn+p7rawVSKK2AAGXMYUV9NmQRnudVKhXf99GOkVImSUKLXSfMOhxp1hcpi2NNwbLesTiy+WrQifkvaGf4vt/pdBhjvV7vz//8z//mb/4GtE7TlDuO7/vj8Viiv0trKCLh+NkudPCxYWKyDItFZ3yl9votNfvxUxcvYwwzunAlmjxtfLUpvYsoxzJY9lltBvqPO2GDA/sDAARB0Gg0tNZ4iGmlUiGEcOYMh8M333wTD0SWQiilwiiip+1S+Aht8Z6iaUzoaWdOSZmZC5G5vhCDEjwYRWuNO3BoUQrRbFQuORlN5IBNFzBfNH5tyfnZdVDimYSQXq+XZRkebIIlRJMkyfN8Z2dnOIpH40QqUJooTTBnUwOd+7doPKe2ZbqT1tood0aayXnpnkuIQ5+oNFPXDdMjRZ1tPFM4z3NkeqiwIR3gOTdFVq82rI8QskRSlJBhBlBaIvi1Wq3iBl7O+crKClZqJJw1KrUXX3yx1WolSYL7hUajEZabPRW4j9VOxcSJ4ggAjuPk09RteMVcllUAgqL1UNgTAKCl1IRglQ6glAuRKQWe59HxJG6MFZCMNmKYiRmbUlopReAx1JVZrJihJknS6XQ8z8NCHd1ud2Vlpdls/rt/9z98+ctfxnPSJiD7VxjSS9oyv5NZeggXRk+S0bX1K96uZhpyLUoYKpp6OgeCEIIlpWVxpHGWZfV6fTBKjb8BW5ZlSZJ4nofFHRjTkz2jRDHG1IKwzSxBlNBQWjRRVMEhMcZeeOGFVqv14osvbp6/8PLLv+a4/ng8DsMQzwvG/L6PXVScZtkVZ87Hcew6E+NTW4q/+TofDZRiDXhzs0EGpuh2Op00TfEEs06nQ/lkA6vJ8CCEYIJ6HMdJkriuyzko5YGxOeRCoT0rJAzcZ8n38PDQ87xOpyOlDILo1VdffeWVV4JKFYBmmej3+2EYqsIf9YljAhhQIjXkuUzTXGviOkRpUKCVBqmnJrNQoSJzBCYAxHHsuu7x8fFwOFxbWzs+Pn7w4IEXhFmhHAOA2VeilDo8PERd1vMcRgmAchyH0cdm1loTrQhoqhUxHhcAqrVeWVnZ3d3LsjyO25ubm57nJXF8cHh86dIVFFS4SwXzjh/3vae28v4VHKomGihJshSAaqAfPtjdeXT04YO9w3Z/mORSA3M9wniWizhJcyEp43i2NgBoraXM8zzN8zTPc6AEj+AGypjjMsel3AHK/DDCi//j//Q/15srP3/7nf/lf/3ffnr7dr3Z+O73vtvtdnu9XpbnUqn79++///77d+/eOzo6ev/uve9/7x92H+wFXkSBHeztf/jhh0hVnudNjvYmxFAVmURQHMacCYUpCtQlzNPEyaXOhBIKhILGytr9h7vv3Xu/3e0lWX7n7j2gTEp58eJFrXW9Xjf8wOwU/njbQpoQQgRBIIQYjxOpYGd3r1qtJmlKVJqmVcfxarVaVKt5nqO1Hg6HtVpNFYcI+L7vICsr6gTipnRCtBA5qqqUUtd1G42a77t/93ffPj4+vHRp68c/+ZfzWxdQo+31eqzJ9/f3fc+jlB4fH7/xxhu1SrXTPX7j529+7/v/8LnnPvvzt39erVafeebmrVu3qtU6IQQNN5HL1dVVPOt1PE7wotZaAXEcZxQnuLcXADh3pFRZlr/11tthGEZRhJtNMAIRhuFjFXL9hWACVxOqbpcuXfrOd76TJInjMJfBYDAYDEb9wejixYvnz282Vhq+7wdBgGGF0TiOk5TxibLvOh51OB446rou97jjO1rrXq9HONk4v/HMs8+89s+vnTt37pWvvvLd7373nXfeqgSh57haqsD3e91e88plAGi21m/dupkkSa1ZfeW/+2//4i/+gjvOpSuXX3jhhUajEVYqUmlCmR+EQghCxYOdXcRotd4gRfJgkmX5OMZtP3EcYy3jwWCQpune3h7WVk6SZGNjAys1kSLT4JeJCbSBGWO+79+6davVaj18+BBABb4jVX583Dk8PDw6Oup2r25tba0061g2olqtVlwXUxxd12UuD4JAE9BSCSXyUaYJUCCEUa3VKB4RAk/fevof//H7QOGLX3zpyrWrP/nRTz03wPxPIYRSyO5kp9ORUo1GoxxPjKBkFI+r9cbG+qYikMSp0IoBAcZFJobxeG1tLclEliT94VDmeSaEypXQilKWZMlwOOx2uziFwWAghOCcHxwcJElSq9Vu3LjxzDPPMM7TJHG96JeMCVSxq9VqlmVhGD7zzDPD4fD4+LA3SBijDtOiNxjF6c6j/SiKAs956aWX1tfXHdf3PE9keZzlTpZ7ntMb9Jnr+I5LHc4JJZxxyghnjuPkSsZp8tnPPfe1r//3wOilK5dzKTtH/dXG6uuvv77ZWve4c/3KpUZzDQBW15rcc89f3Aoif5wmL7700pNPPpHmmdCKMZf7rs7zPMu0ko7jrYTR4f6BUFoJqYA4XuBFjALVAO+8d+fDDz+8d+9ev99HyYG2JGMM92BdvXr1xo0bWFtxrq7xS8AEbutot9uHh4fXrl3r9/t37tzZ2XmgNeRSpHk2Go17vR5SwPvvf7iy0tjY2Gg2m81649z5jevXnji/dc4LgyD0wyBinIpcJmk8iFOlpe8FhMJxu9NaX3v51349y9NcKiHE5z//earpe++9F0VRnosLFy54QeS67spqY63V8nw3CALPD1966SXGieM43PGEEEmSGX/fSCmloFpvZFk2Go0G3f7x8fH+/v7BwcFgMNCUtNvtXq+HSrYqavRIKev1+vXr15999lnf93d3d696nucFv3xMUEoxYOu6LmrZ165do5RSTkajUa/XS9IUlPZ8x+Occk40dHqDw+NOmqZE60ol3Nw8v7ra3Lq8VW/WNjbOra2t1OvNSiUMw4rvB1kuGSOa0P5gWKnVB4Pe3t7BcJxkSXK4d5Tnot8fiFwlcRZUhOd5ldpkB6dQKqgErsuH3X6jsdIfJlmWaUV832eMJ3F6eHjY7fbwVPtOp9Pt9rEQCha3woVfqVQwABfHseM41WotDMOtra2LFy/W683j487u7t61aze0npu08MliQheleldWVqSU+/v7a2trFy5c0EQdHR2hNM7TLM/kcXyc57nDuOd5YRhUKhWHMa31/v7+zqNHd+7ddSZbChnqS1EU+b6PBdbxMGPP89C3EQZB3Bnev38fK5kEQTBOk6BwWf/oRz+5cOlCFIX33n9Pa11v1o6PX6fARsO43++j4jsajbQGU50ac0GMcYMa1Hg8Nin4juOsr6+fO3cOqVkp1e/38Tw7x3WHg0FUqf3yMQEAlUoljuPPf/7zP/jBD8bj8ebmZrVaj6Jqq7XR7/eT8Qg1kG63K/JUKdXt9oQ4JlozRl3XZY6TJCnjLrbCt3psjFUowpYT9R8U08AJ1YpIKYVWAHB01Fag2d338jz/8c9+7LoOUC2EAILGnZPnEgBc19UADCvIcZakE01UKZVlAg9YIYQwCpubm2jAX716tdlsMsYajQZmDjSbzTfffPPGjRtPPvkkzGwc+oW2hZhI0xRtWkrpr/zKr3zmM5/567/+61//9V/v9/vNZvPKlSuu6+Zp0m63Hzx4sLe3V4mC0WjU7XYHg4GWAgCEEPE4ERrQH0EIwV2eWJ/NbJkyC5YQQgnpdftAFAjIlQTcHeMHeL8QAuOpmmghMkKIVoSxiQ0Rx7EQMkkypYBSUBIIAc4ZHtZVqVQajUa9XscVs7KycuHChbW1NYz87O/vM8aiKHr48OFwOHzqqae2traAkDCKPjGZvXA/JZ4zQimVUjLG3n333b/8y7/8yU9+cunSlud5eOqFw7nv+/V6tVqttg+PDg4O7t5778GDB2mcUErzPB+OxlGtPh4lw+GwdLCG2ewPtluXaqpBa0k0lVpJpQlMzj0TSkmVY76a1kpMAA1ZCgBACLguxQPTOZ+cWEeK00KVUkEQrK+vr6+vb124JIRYW1vL8/zu3buEkHq93ul0KKXf/e53a7XaH/7hH/7e7/2e5/vxeOy6LuUfPTT9WG3Zzlb00ePuLqTfP/7jP/5P/+n/UUqtt1rb29vr6+t5nqZpygm9fPmy57uMsTzNkiTp9XoPHz7c2dm5/2A3FXmepKnIZZYneZbFSZJn1TASWmkhhVZEaQka/6tcKKIc6lBK8ZhV5CQKA9oMMB9Ka00ZcM4DfxIqsEJJnDHWarWq1erqaqvZbKIph5uuu50+RkGQkjjn7Xb77t27u7u7Tz755Le+9a3f//3fJ5Qe7O+vrKxwx9Ezh6F/0phAz4GZ4e7u7vnz53d3d3/wj//w2muvvfXG7Wq1evny5ZWVlbW1tc2NdSx7RwjRMuecNxqNZrPp+mG/30/SbDgYdLrdo8PDvf39w4ODXr/f7XQyhEeeizzP8jxL0yzPvTCKk0Rh1TxFpJSUctd1O51j3/ejwHMcxjhGWycRVtSF6vX66urqyspKrdbAk2+EEFIopVSe5+aQ0E5v0Gw2USYTQm7fvv3WW2+FYfjiiy/+0R/90ZNPPSXyHA93aDSbSkrCPiFRsYwm+v1+vV4/OjpaW1trt9uU0kajAVr9h+9859//+//r9u3b/X4/CIInt594+umnG41GtVpt1qvovjdreWNjA2aSKjFCh0E6bHEcD4fDcZK+c+e93Uf7e3t7o9FI5kpr7fthFEXnz2/W6/WVRi0Mfd/3wygIAo9zjrktaBDA5KAPivI/juM0ySxXMSAmlFI/+tGP7ty5E8fx0fHRF1/64p/8yZ8888wzlUql0+lwziuVCgAQSnvdbq1R/7Rg4vDwsFqt4hb7drtdj0LHYUrKR48evfHG7ddff/2Nn/7s4cOHm+fWPc87t7H5xBNPbG2dr1arQRB4gT8c9lFxOtk1VezeRZLAMNR4PO71eoNx3Bkm77z73jvv3Gm323kqtNZBEFSr1c311urq6vraShQFge9HUeh5DqVUqtyUeNCKIEqyLGNsclq1EKLb7T169Ojw8HA4in/809uNRmNtbe255567detWlmXr6+tf+9rXmisr8Xjs+z4igDFWqVaTOPaCj56u8fFgAlf08fExFvHq9XrobVUydxwOUsfxyPM86jj7OztvvvnmD3/4/7711lvvv3cXAFbXmq1W6/z58xsbGxevXIyiCKPEytqQMuEeRVnSCSaG4w8e7r79zp13331vMBgQTTG7p1qtXtq60Gq11loroec7DvN933G51tpxmOu6FEiaZ0poBVpk+TiJD/b2+8PB8eHx/sHB8dFRnCSe64ZR9ev/5tXLly8/99xz29vbJm8I0xtcz5NCaK2542ilsMDoR87p+9gwsaih1g+aYmkq04QQvV7v0aNH9+/fv3fv3jvvvHPnzp39/X2iZLVabbVaGxsbrVarXq+jFttqtUw2DXISpIkHDx8+fLh79+7dg4ODLMs8z2s0GrVabW1tbWVlZXV1lRGqQdbrdc55v9/P81QIkYzGnX6v1+4cdzuj/iDO0ixOwmqltdJqbW5cuXjpqVs3P/fZZy9eubzSXJsL3E/SdJjbPgom5l432fZotSVJMhwO4zj+/vf+YTAYHBwc7O/v43kzyKDMuex4oBnu3JdS9gb9wWAwGAxM8WzMt8Azj9HEwaMwkSlJkZkEtWaziQiLouhXf/VXW63W1tZWq9VCjXYSTF0Qb/gvBxO4l9/kI+kiBS8KJ15lJeVoNMIiPXEcHx4e4jHU+/v7vV5vMBigr4LySTFJ1IswnSDP8729vW63SwiJoogxtrKy8uyzz968efOLL33B87woiur1eq1Wq1arURQRSrM0xSiVtoruUUopmx/4/M8PEws7WpD2Oh6OTFEGmOyeU0opxnmWpqhiYWYfyvAkS7WVNYIKaJ7nf/qnf/ree+8dHBwwxmq12mc/+9lvfOMbX/nKV+LxEL1MJlUOPX1+EOC7dJHyDJNsoDON/5NvHxsmzKHZdgOYpHKroqawyd0zKfLUbJRDDDkcrCqUBkA///nP0QGDJ9A4jtNoNFzXPdmtZYiVEABI4hgJy/SfZ5kQwvPD+YD4zw4Ty0dsJ3ngnfFojAcqmp1PUpiqipRah6wzxoCQOImN8UGLGu7oNEXJYb7idhJGTzJ9bN8JdxxDH8SUH6X0vxyaWDRiu59S1qm5Qc8cIW8/SIsik6w4xF0X2/EwAwFtfgQ6enax4gyKdNMhPogV200Wvrn+S4f4ovYx08Rsk9apFXjFoMRwcJPPKYvjnHRxOgA69RAleGYzs+pDY/xZWbueqFU2y37pJxkH/WjtY5MT/7X9K9svWXX7r820X0jas90e11vwuAUXNDzeC8gn5eV+3Pb/AymdW0n0MZ4vAAAAAElFTkSuQmCC'</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAJgAAABMCAIAAAAeD+lPAAAX7ElEQVR4nO1d2ZLjNrLNBDepqx13Ivz//+dwdKtUmxYuyPtwhFNJgGQt3Z6xZxrRUZZIEEjkcnIBKGuM0cxUVVVFxMzwVf5mzcxEpCRs7fo/pf0sbmuM8fYpCfLHB/3V/rqmqqWMVLVe6/3Xk/SrfbItSicX5C8R/kNbwH/+PvJbxPZfgP9mq2XuHf9qiVIkGxN5SrZFiEjhPWP+xJaRtD3pT6HNB0RrwdGyj1zr/bNCrDctjLOUvn3j64+Qt0aSH3ANLdZ49ePz8u6by1wW5F/afgQn/4MY+4NTv//xtRRr8dbrUzHGbbN9j6q+2ZCehhBEhDPGGKuq4hVVjTGiz5s4jwGRO4UQsp4bJgITf/8yS0pwhYPwr2e3Xwi+ljMu0uDJ8Jk9vnqgyp79d1gk6ODC8HUYhq7rIAyIs1yDzLHFo42XSqawGSiVi19Dy4yPaBnZ2Sx+KMpy7e/i1Bsq+yFPkQvyzYc/4YdKX62qTdNcr1dVret6mibYawhhmsxpnoiAX+IFEeMrw0NYYI2ZQTmy6yVh/AyBZQ2klhq2eFEKWS5OukhAxtVsnExpPhDs/NxGTJimCR/Gcby/v39+flbV/X6PPrvdrq5rkaCqITVVhajMxAwShfBuyyEsczqGstnKS2vwwstYRoUDemdT+GHfvFjOvtjf07wIKmtO4dYn85F+lMUEIJssa4t6ikZ/dr1eHx8fj8djjHEYBhGp65s+VVVVVQ245gQZQght2+JzlRrGr6qbu4UhqipurVlhCCHzOnwwQw6STSkuMmqRFVRZzrjI/Xdy+z0QWEth12uDLl7ZuFVeUdVpmp6fnw+HwzRNIlJVVV3XUHz4y3G8ZiCTfa2qykc3IUjbtvv9vus6iBBADeXY4HWGflnPzBrKAIfiX2MIB1/rmanFojd9vxd7hQ7OKiIhBFrqho7oW0le1sZxfH5+Ph6Pp9OpbVvEO3CW4zhi0rpuFycFDJaLh0Vy8RAzTZYGTfG3bZsxCNf95gHXVS6Qa/d8K40G3KMIycxSPDqP1/z17MN2q8kXb+NruMTOfpGLX0sizOxyuTw8PJxOp6ZphmHY7XYhhMvlkuCrQuBTLpi88IxDi3H0M07TNE3TMAxetX2jpEFwCKGuawgenQnpFJh/3C9HExqXkSc7Q0jMRkrBbJjsh9qrxpWq99Gx6AW9aIF1InI+n799Ozw9Pe12u77vd7sdF3lbiVSisSQgs37PI1U1WxD8wjqdKVuKkHkXLm23243jWFVV0zRVVZlZ0zRADsheROq6xgiAbiyWOiFOrT03PCbzup+9qir8hcjBFmpPqShlqzMPD4I+rR1eDanRIYS+7w+HQ9/3CHZ2ux26QYpiKYewoOENGPACVtWUn+RAVALDosVQ2wASIYRhGGKMMca2bV9eXsZxhFxFpGmaGOM0TW3btm0Lvrdtiz6Wch5oCQigPIixIQT4EShNRh4fpKQz4F0TTe2tJzst8KFWGjTrOH3fH4/H4/FY1y0cIf56EqkB2bAZu8kUR+eyL1n8qkUE7w2oqipE0TCay+ViZm3bQhjjOIJm4P/j46OI1HX9+PiIK/PYu6Jg6roOITRNM45j27boCVmSBsxIzngkzyBzS5DqXPqPIHVpjmY2juPDw8P9/T1H/vLlCzzZK3GzEVYtKXM8pRWu0e9ZAPYBdbxCAIogTpjUOI6ast6mafDIOI7jOMI10MJoyiEEICTGhHgQlotIjLHrumEYYMS4DhcDQ/R4OwwDKHkv88uo9XMWSX4R30Vkmqbj8fjw8HC9XkMIqpWq7vf76/XqMy1z8YRozLSqFCQsI/m5mJFREu9hGbQB03xgRWglW7uuO5/P+/1+HEcRuVwuX758AbuqqoKboPi9JChgcwXIGCP8K+x+v99P0wTBw0aB0pJUDVLvui7zkasWueg5PhFEee5DeYdhQJh6uVzgTpDqQYoZUJQukFq1hrflvLyyQfxaEEHWq4vRVLXve0Q94CkHQWeAKmATbhLKgWc1xcA+8sDaIWMiKqArC3Yg+HfuItxiqqy9Ka3tBi5cLpfHx8e+H0VgixWUF9HETIGC4Z/JRLPOZswcRgkba5RnF5FsgL91XSOQISSSMISRdV2Dm/SaHkjYBzCInMeP770gYBl/4SNFBJ6SAQ5kDBv1bnJxvVkL2QMbz2xL0RvENE3X6/Xp6elwOGDBmmqqp9NJUxy09ngWpJUUvpMk3833ROTJaAsEg7lN09AvIjCBgNGtaRrKAIbr0wZCqLcHnSemsDPoEDhDDMDj4BW9rKef+rTYXi1yg18yN5Hodh+ID2jjCOc/3d8/3N8/tO3NkyP2G4YB+MN1lpbHltHjZyEYqmqMYqYosoqEGAUfAAMIG7tu37a7qmradgdXBEjEmGTl9XqlnBC8wNqwRsgb1tb3PWTQ933XdTFGZCawbJ2X2ul6kbFgLtgixAyeSKpMEVHxYRxHczuva4KcFSQ9cGWctbkL5Pp9Rdhunny6v79/eXkREUgOiArG0XMserLFeRe7iUOORT/qRwBkMbmiqHReReu67nK5tG3b9z14SkeFUAg2CtOh+UJyKCd1XXe9Xs0M8MPIk37Bqy9tdxgGDpKFSPJWjMM2k3BmbeKMmg0aCsyhvSezDKiJPz09QQ3hY9QlqWZ5bPLOVkJNRqqnufxADoJ4WiF5yv4QPOWNi5fLpa7r6/WKtFhVEeBgNKgmOjRNA8/CHEaSL8SzLB75KbyAS79YWlrZZhtyi/hWfqBV+ZmAnMfj8du3b8zAWNDyJFoK7TaQ/P1iftMXsBszSFZWQSF4ClOAGEC2uryTcQ0tEtqAZyFOMAQucLfbnc/nGOPXr1/RGTxpmobBbQgBZyRY7WuaRgq3qivRQ9ZmFpnJZrHBwjzASgK38/n8+Ph4Pp/94wTVku+ZAhLlfJ/FZZCANZ9hRfmGRuxRLrNpFnEApOC4utBD04aopuATEEWMRTpI/9q27el0gglCWpjOb97hLjQbjy8ygWRvCZIMpZ35HqVouXfIWWOMSDbgFTBO13WSoiEfE4E1nqb3QMeaYNb6+7teY8g+XByGYRgGXGR/iKTve0kZIewJoIqe8KBEaW6FIkW5u7sDiu52OwyLWSDyvu9PpxNG83BFaekcUb0hra33vUc9dF7G0+T2IJLT6fT9+/fT6QSyWJtA6VIKANQiPPGyLK1WikNQNN81ar3e2GwnwBj0kwzYBKIV4AeMCUUAhDyIbvq+R1EGDyJr5DIJj8heYNOsuZsZFCKkLREmoABkFmDVZWiZUNdafgqhjBTWrltKXS+Xy/F4fHl5ob0i36Kye22iMZX6pQ6uS9MkAEjSJASEa0bs3YQ4LGWu7WuTLIpSGFiFppIeHaSmMFVVIV1gLAsCMF9oxuVyEVepZ/QHJw3sDSEgMhIRYADXWKLjliBVzZcrvTk7KU4iUSSqGllgZsCT4/Hx27fDDXMmaZudWIiTWNS6asWCWFCpLKpYCFp7cXpSGARlkZG4xJl5mKZsDOKkhMg4c8Wt4M4AhFCPY4xRQqinyfDBTEOokYbyb1U1vK5amSkuqlYh1LBCyhVfQ9qcAqgyW6VFeseMW5Br3/fI05gUQRW40jcF+eFTdAjbQK6qfv/+/eHhgXkhIhCQyJqIuHSelOnce3vTITJTV6I70+xdiLqTA1ywzyU4IPWGG0w6T4i9YhEzPLBjXcSSpmlQQ97tdjjXifI6rBn1ZNofspdMTT1C1HWNFBbZnd8IkxXrylpI/7ZbYFjEECvGiPINImlJkT1JlLRN+irm3F0JF5ZJ1LtAjpZZqneW9ChlqUHnjdz0EawH/+ypGRcS5RAAHCqiViSRAFhVxSmWqqrO5zPrrr7CHFwDWyBLIjCVz7dtCX2gYSx4haenpz/++IPFqmwTLhOYJ2LxomcW3CGryX796nIsL0uZazolUY4f57XQNTI8PZZqQ2Ax1ti2LSSHShDkir2tqqqen5+x5wVhkxUhHQODzYUQLpfL5XLpui6E8OXLFxEB4FFjWB30cfUCnRtrYEuaq6jd1HV9Pl8PhyM3elS1rlqVSkTgLSylJRlemZlFhb8Uez0Y9x6vnvXJPGJZ6CnRkurllYmPexkvGgEfNDPEpSJyvV6RaPV9DyxFbnM6nSASxLFZJu1TMoDcy8uLJdcAg/Y1gYzssn3MR0I8wzD8+eefp9OJuE/oyBZvc48ozmLSkmadRYRADUNknMIRCNo6r5SWM5YqQjGQklI5+BQ704ywWLmZ6eQf54yQK1IO6jTMmiGbpD1tyBJXkHEifzXnm2WOLub8i28fg1YR6fvxcDg+Pz8TcFDUR/ANMTBOo1/MBPlKB+zSAm3Uizkzqcw7inOQ6rKRRfl582XERD0w5yazxkFs7sthbSICE1RV1GVYageuatoUwyM+goP2oyjIyi1yWTz+Ibm8+0hIWtLDwwPCVBEBBdREpJXQ3OCOPtg8LPSRZyYYSbm8pcQrpjJmdBtDlKg/+0PIknk5yQMvXC8H4bwZroqDXA6L6/R2HMFrD4WEHB87IUgtQBikhc7QvPP5DJ0Ar/CUOk/vtccjzYIgyxt+PTFGGvrT08vhcFDVy+USQmjqrqm7oPU43PZLoYxQqDjfZwjpaCh550XOEIlJi5ccdZxbLtxGxzshaBywen0zpIIHYvREbnpRZchBqVPzWHmgY+PpKVRnJBXzWECAlptZ13UwWdgrCugigvP1MFzQRuMWV8kibaUjyAW51uj/zGQc48PDw7dv31CvASYgc4qpFMfdR0vlK+CtNw4Oruk4DFaFrT6PwFQp/8gi9IGnmAJIlRmu1+K+7xGkIDahJKhA3PLN6Cnnja7A7VF6HMe7uzu/dm9h2UEQOEVqqqWSnhaovt3ybSyou9lEcqdpUpXz+fz9+/dxHNtmF7RG7QYHAxHHMjR/eXmZpiiiIto0rZ/MMwIoVNdNCFUIlZmohmwBJCy76AVDwKS/9M6MfFQXQus8hqrSqWKGVwwmS6T1JGV3/chQDojHb9yWasqTlYhaeTg2G9lPvSrIrDe+QkLAgZeX0+FwwKY/uAb8hCcAGhBFJaE/ovBMi7laEM21Xa/Xm9JI5flCq/Ks9B94ZEbcORofxJpzYJJifcrJi5DJojevjPWL+uTtEqs7n8+IHjLxU71orDjpig+WquoiMqYGCOTXNVnW83XSHQrTfBH5/v3+fD7vd3fTNI3jgDci4LFQoAI7+r5v265tO1Q3wu3A52sM6WShsEJwkEd4eYo+zo/ZZaTrPARYayUwinO6XCNBFTLWdMgDASRHKGnwhk6wzTINH17xWa9n4CRsI7rzBmFpP3Fj1UELt8SvKBIeDoeHhwfvBXHrfD5DX4LbeeEeMuNsKQyLK+doTFd4LuRNIXHYpC6v9XH6NhoKQdVciZHIGYo6IpcvDqX81CVgeGETFXAQ2Wc74tBFUmEBTPDaL3PUyT4swkOgbnnKVDUEiXF8enq6v7/n+hki8uBJTIdrUZ3C4zh6ZGk3I9Mp3iKM8HNGq5d6yUc/LK9EV5XdANis5sArdAqaftwgzss9GRkli73xmdsA4FD+LiwSpwhwLIE785rcbVbiWZSiiARez0wzxohdRp6vmeJAluEdRz8TkIEIidpjtk6/ACQGCBGr9K7TNC0c/cq+ltyEtwYZcNsUp87P+UmKWs0MVWJNgQmPbqDiiFVk5qjz5iMp9rEUsZtZ13XPz8/caPNxO5/ChhfAz1zJutQSKTR4Jsj5vYAzoiLh+fn09PRyPp9VVSSaTSHIMF4x7n6/xyE+oKKqpqBZhqEXsRB0msYQNEZTDQhipylOU0ShmYgKTy4il8sFidfQT03djUPsryN2N1UqhMoq1Wxr024v1jDD8a/Kqtsq4kUeVaVPCu4FMVzX5Nu8KZSs478QamxYqlYoIGILc5qsrlvws+v22MjEDugwTDFKjDdFlHQMjKXHrPKQGVvZVmut/JkGnUWk0Wwax9dqp6bjVZJcPf2i101L28Iigq1z9GTOZyk0gA0xy4Z90Jt6XLopuMM0b0CafDaUTFx1hokBai6sDXmd9hPp3G1v4JvOA12fb/DYAB7nQVlJwMu74jzLtvC2BElSfv/9969fv2LxOEeEKa/XAW/nhCAxTiI6xVFUJqCZmAaJNoqaiWgQERMxyli1miaIYQIToQ9ye7fulWvUIa+kGWfVJdrifKF/kDxlYQVZr1/1BmRl3byA3/MIW4xxt9vh8IelEyFN06jOXIYWJzyySdfkumWRmgpg/GkUuTFFgKuXy2UYBhRoQKI/1ZJVNOgkfP7urYRvtMBdUXnh9ry1EQZpyrKUDUvSS7+zD/IA6ZzUXLzqObghvxL3Fp8tv1qqDICMyr05xOr/mlA+AK1cP3M7zxpofAih65ppqtNLmvgpKosx4iw2/DYEPPSv+zWS4JeOLaSjYwhAEAbjeER0pXNxv5MhK24jAyKmGeqSOXrEEofXGEQplqC3wetsWDCOh+1ievOZtxg5W8pBZRPDy/YqyFKJNIWvXvs4dLy93KuqUlUao1Kh7u7uQjrhYvF2CJ1VWVgz6z4UMNAbSQ4LnjG9pC+uthlnu4/LxOMDq+SSDsmpSz3N7RRS6htMzAC8VII1AeM6tzgsVSE4I0eGA1qsh2wL9fX4c0ZHqfKStDu564pPTa9v0GsI3A4FZAXVqouNiIQgZoIcAyVAYDLstWlxuFSatrJ+qiqgYjSZpjhUVWUWsd5oPBAUJVYzK4EAzMYhhlCpBDMLWluUOEnQ2tKzJaOzRhaXHPQc2/BbGQ77MS29ypoWYgCn/X6/BuPb7Y0TAl77zJ2TiO4VMknKzp4ehdAgQhFRlboOItI0e1z57bffVGUcb6dGYjqi4ouN6pI2EWElQRxyZI24bekNjRtCyIStG7xwk/njbNVSYOk2TzNrjm4nzlxY7nmIs6jA/GEYvnz5kjnUzDTXCFAerWDowR2WDU+wtgZZAiWGIf7uIhiaGWqwWdhiZkBmiLbve0B0jDFOr3wH5fjqz1V4CUUbQ8i3Wbz+ZUR6WCv9H6XCixmq+W7QP3UJW9M0IdycFPj/9etXJAusYyxCQtlmllRKJaN7o/ncoBynBOpyzY7v7KboYmZNA1LzkZ8eX3AmEeUkquNUnHXG16qeHdhkB8bkXu3ECS8jmOHYGsey2av0Ex3eHfIrbddX2Etg22g1HwvFL7xkrH9PWzX8wkZLRU5fs1Opt4iGsuB1tP/711d2jhE/SzjGGIHS0H3IOLrSuTdistKvnQxluTiDEMwi6cQznW6myh5mgzvaGl9/e+IV/CjsDQhdazMfuW1Mi62EX6/+73xE5lsHG4OUxPj7IWgIVV1XInJ3h8K9xGheiihuoKF0x1qBOO+YJal+9jWTsqXIKBuQf6f0FuYaFK/xdg0gZ9DqWbnGvjXxZDhArWcWmPVcQ/KMC9nfklNraubKXVLXt5/4EZHdroPhRncuCxZs7hwwIXrby5Bv7LYYXphLMPxC1KVS4mJp31/eYRviLXJNCxYvruldtuw3fW2JIRkZGYPKwWOxc+sVyF9JFKqq1nUlAhO8RXkIF/2+FWHZy5uWXfoFxFBj+s2PRUYRt1kfj/G1vrrobrY5z5b/Oq03zW1FKBVzu8Pi9G96gkyRpTB9ZD6MAzXFrl7TuQozi5ExBUYTER7b0arK1OX2IN0tZUkfzMYSo8wLhBjKH0Dx1dTM8kqee9FusOt1a2LJ/SxHYm96zUy5SD3HsSXfY/MIyLdF8jIZ+xJ52U0SR2C9yGuZ57hZsATSfLtTVZVIZdbgETPjjoKlrHdKP3dEAIjzTWmWoHlu3cxQ9yjVlMGXOIzZ4HwOhqVGeOvccLZrbVHwb2rDT28Zp35wkGycjIcxzn6QaUovGfqYS1zFFQZd1/Xd3R2qm5/gT21LmV8G1p9a9cKCty/+pe2nzPgeB0FnafMAx4dX5ra7eZGw/Lk2Sz/eL7l/v0n94xqBUdMhTd7ychXnHRAByafUbuFFJ5nHwdkDGxj1S7S+UUi8sgFOWaTyGWjNBl0LQz406K8mmwU2L7Zsx+rT7V3/R9dPJw//g20x5JYlI8uSivdkaxtttUS31n4Jb7ut8Se6M7SyFP9nGvBRPs9+buZX++vattv78QThP/A/Av3fbNtC+nFD+nzi8qv9rdovQf6XtF+C/C9p/w/+MRIg4vqdIwAAAABJRU5ErkJggg=='</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAHsAAABeCAIAAACMxPytAAAcyElEQVR4nO1c2XIbObJNALVz30TJtqa75/7/p0zEPPRMeJ22x0vbkiWRIotVhfU+HBYIUZbdVtuy+15nKBQiVazlIHEy8yRAZq2lH3aHxr/1Dfy/M+ac+9b38P/Lfvj4XdsPxO/afiB+1/YD8bu2H4jftf1A/K7tB+J3bT8Qv2v7gfhd2w/E79p+IH7XFn2pE92kzzDGvtQl/m/YDx+/a/sA4s652wmK7Jp9/PjwQuHfkOyttXjnIzfzBcX9Wz/159p35ON+hDjn/je1iPsBwN/A2h/zF7Jvdsd7DuVdzDlnjCEiYwzeYYw55zjn4ZBwzq21Wus7v/E/a18sct7a9qBnjHHOtdar1UoplWVZlmVJkjjnPOLewTnn36qj8rnX9Tf/7RGnNgDgb2OcMaYsy1ev3pydnaVpOp1OZ7NZr9cjcu3BnIicI+foL5cKfaDr5ufyZ50o9MGPv3nTv5xzWuuyrKqqWi6Xr1+/Xi6XSZJkWVYURa/Xm81mBwcHnJMxTkoZx3EUfTFWvN1T38K+GeLXj6yqqqqqupbr9fry8vL9+/dKqSRJjDHW2qIoGGNFURwcHBweHhZFRkTGOCFuOv9NacyHB+nOEP8uWMU5J6XcbDar1appVNM0UsqqqjabTZqmcRwnSbLZbIQQWuuqqk5OTsbj8Xw+Hwx63/reP9u+ei/fWgua9tkIUjpjjBACB5RluVqt6rrWWjeNWl2Wq9VqvV43TSOESNOUcy6EwIyBxXHc6XQ63fzevXvdbjfLEpyTiHDadnptPd0Y02Y7fM+d78y7YV/dx33KHIZHay0QbJoGvlzXddM0WmslnVJKKWWMuZ4m4gzGGK21Uqosy/Pz88FgMJvNJpNRnuc4v9Y6iiJrrdYSw4Nh0FpHUeLvbc8J7sa+DavgCaWUq9Vqs9lIKZVSUkqPOLgb88MXloBbCIE38akoiqpNc3G+7PU74/F4OBz2+/04jjCHkiQjIms1RiuKIrrmzndcRn11xMPgGc7f9XpdVVVZllJK4GuMUcpIqbXWgNtdNWozccYYfNa7fFmWTdMsF6tu73Q0Gg2Hw/l8hitaaznfTg7nnHPWz5U/IkV8cbujNVkh7iCN8/NzpVTTNIAbfytl6krWdQOTUgohkiThnMdxTC3EqH08iGB5xginSpIky5PBYDCdTmezSZIkFBRNFBQvIcvdmaffEat4xK216/V6vV7DtcHIIGWllNYWDh76ARwcoQ/veE93zsVx7Mt95ywRKaUQjc/Ozt6+Hcxmk+l0WhQFtfzuh8pf4i6J5e58HI6MFLCqKsbYHtxSSq1tUyuldu/Au+HRQghAg7/bISTOOWMO8gDn3DmL4bFOc87TNC2KbDgcHhwcjMdjUP83lMC+uo97t9JaL5fL1WqltWaMtT7ujNGo7OHgGAbbGkgDXBFwsaM2hOIAzgmRwDkHMYBzbjV3zimlLi/1arU6O7vo9Tr3798viiLPc5+wek7/2lDAPoD49fx0j/iu8yC1yO6dylobRZHWFvm1lNIYZy0Zo60la8lop43VymptjXbWkLUOWIA6wCdRFHli8eGuxZ1Zq60NwyAjIilllmXWWq0055xxV64rrXWSZFL+PhqNxuNxmqZxLK7fM215Zle1tpjsH3wLu42PA5H9E0VRWIAopRDQNpu6ruvNZoN0G55orTXaGeOstdaQMcZo5/8FuPf6FZ7HgaxXDa/7Bw5I07SuayLKsowxppRKi/RgdhDH0fn5OVSEXq83Go06nRzH+I9/8JFvAdQH7U+xyp5sEhZ7CGhSysVi4XNta8g5soasJaAPHjdb2+Ic5oV+7uN9zwDBS84Yc24/2VBKCSGEEPCDXq83mY663eLi4mK9Xmut67q+vLxcLBb9frff78/ncz947am4MWYvj/TDfOtIcEvEr7u5r9r9GNR1vVwum0YGcDKws3/HXAU7xDo8VXit8NIBC+8fQ4SIypxzRVHM5/Oik63Xa8gJiAFSyqZpVqvlxcXFmzdvZrPZ4eEhskk/R68/OP05l/9ikRPe5B9ysVigpWCMs4ZA39ZuU29jjHNkrcMPlG7vPntjiZFAyuzzQvwreHKOT/v3oyiqqirN4tlsNhqNsiyr63q9XiOWaq2FEEhatLarVRlF0Xq9efv27Xg8nk6nvV5vD+4PRq9b2J9FPCQWz+Cr1Wq1WkkpnWPWkPdfn044B6z3C0sKeHlv2voP7v03fHzwDCheSpnn+XQ2ns1mQoiyLMuyRCaKe8YJEe3RdeKcbzamqqp37971+/2Dg4PJZOJj9V6mdGvcb4/4B+NnXcvFYlFVFRFxHkkpyXEPd+jU9oqRcww/Hk0AFzo+Htu15T4O89okEbU+7ohcmqZHR0ej8cBaW5arqqqkrLW2VVU5y7iInGVKG2eZiFgQGATnTClzcbFcrzevX//+4MGDJEnyPE/TXdH7Z+wLsIpvfV1eri8uLpRSUJpaHWob9Iwx1jovUV21HYMD6LCBifcRxK7nrNBJWpffzZIHDx70ej1jdFmWzhkwUl1vyHGfMkVRFEUR485rjRhIXAUT4uHDh91uF1pNURRxHKPaujVcfwjxvQvsVQ2Q9spy8+7du9PTU2ttnnWyLIuiSHCuVeOnoXP74dE7ry9nnDMe5ZBtMAZeugIJxHFsrWGMI4TgmF6vd3x8nKSRNhLVv9YaKg3YxmeZRCSljKKIiBvtGONcXAnXSikiWi6XZVmenp52u93hcDgajfI89ZMs5FWkDz6JuD3ioeF0cIdW/KT378/Ksry4uFgsFsaYKm3QgEf7xrMnEYMsjqQw1E+QUBKR1tJdM2rjJ6DHSWBCiKqq0jQVQiilhsPhvXv3iqKomw2itBcStNZKmfCEbUSxAcof8DZ/HjSqFotFmqZHR3NcFCGBiJCMUhvPMNKslTn9k34CcXctQOPB4jj23Pf27QkSwcvLy3JdGWOUNE3TAPGts7dAQ2byfo3JHsYi53Zo7qETMru/urWmKHKlVFWpw8PDn376Kc/zqqq00b5xoRQkBKu1bk9ASJYYc4xZD5OzfBeLt2GDCJHBWa2rpmnKshRCrNfrbrc7Gg36/b4vtjHzPPt56F0wkp9A3EeqcEbHcQzia5rm999/l1IjycW0xUeMMU3TKKWqqsrzvCgKrz25VhXxdEGtC8Nnw5f+6n6qYnJQm25zzpqmIaK//e1vP//8s3NuuVzGceyFSf/bGGMNefHOezdjW0fG8HvOCf1gGypa+dM5d3Z2dnl5uVic93o9tEHgWy6o2kKx06N/Gx93zkXRtla21i4WC611UyslDXhTiAgJIcKdNrJuNmmapkmOBhgOQ/hqQWesbfd4cvfu798hIoQ42kVUHSfi+Pj4+PjYGFPVFRekzbbsMtppZY12rWizG0WAi1fOOca2KYCH7Hr0IseIyDHrPXq9Xm82m4uLi16vN5mMBoNBHO+o5rqzfwzxsNa4HppPTk6qqqrrerVacS6klL5zhgFKkkQIQeSiKLJO479NpEA1qD68TIhzYjqG9OppBBSEPAfVTVupmjgRf//73+fzOTpKaF+sVivaJhsGFBzkSNeixBVapz0P2/M8aisAf7xzDmF5vb5MkmQ2m0+nU0/xeBA/oT+GOF1rSuEzUsr379/XdV3XtVLGWlqtFlEUQX2l1nMxwpwzY4yIOMa8qstGVmmaZlnmXIpo6XbZumUMWfkeCtvZ7VNvwJYkSZomR/fmw2G/rjdNU6dp3DR1VTVxHEPJ2Wk2xrR1AFlLuKYnE9pF5v3KC0okYNgmji3vIyaDcBhjTWO11mVZDofDNE29s7qr4fhGxPcu7In1zZs3flSVMiiXy7JENuLvvtWAhLXaWi6EYJzFUerIaGXXauNcCX73TRmYtR8uphH0MG+0tozRYDCYzaaDYW+zWQM+EDpUw3Cu7PmytXYv//T+5MWGwKx3v+3BbLvYmnOeJBlj2yQqjuM8z0ejUdhv8kj6x/kA4mFC6t9xzi0Wi/V6DddRattGUEo1tYKubYzVesvLKCDBtxgCKC6McWpnTlmWVVVlWdbpdNI0RRLGOUMEjqLIOauUYoziOCba8oyxSgg+Gg/mB0dZnmw2m63Ubgx+bwsc7XCHuEmttTEofLS1OqxUIVq1LzmR43znno4MYqYjcnab+KdpCldzzlnrhOCc806nN5/PIZoiDQMf7vnujT7ugkhtrYXIWVWVcwzP4Nc4uLakbFsw28obL4UQzjEiZy0xhufcZgi4p6qqpJRJkmD5lXPU6XS01pvNxlqTJIm1FouzrLXGKs75cNo/PDzMsmy1WnmuDNnJWmuM9dwd+rt/6f/2C5XCKNIWvY4Lcs5YyzjncRT5WoSImlqlGRIBORqNjo6OwiXXN9WlNyIeerqU8uTkBF5QVTW1FG+MkVIqhSaZQUlJRM5BGoSnbMfZBZUqY8xa4/NxxFWsMhQiQmzM81zKBo/nI0+WZcPhsNvtCiGklKyVEzDk1hDSkm2vYz9QIhvZ1rdhWA5vjK7IOMQ4IxLb3ikzGBWtNbqvUso0TQ8PDyeTSRQhuYxuwvoTiHu4YYvFAgUkgiQaOkQUx7FsdNM0e1mNZySf54YZrs/ZXbv2gYhw2jhOIPulaSoEx2AgUcnzfDQeDAYDxlhd1/7MAehX3DwE3c/ucPjdNWOtsN7eP1PSsHTrXp5/cD9RzEWUDIf9g4ODOBZ1XUNp2PNadzXR/Fh26NktjmNosJzzfn/o8zPUOM65JEnQ4vKsQkREikh4uPcyHyEiz0Xh+hMpG+esMbqqNlmWYdFhXddFUcxms263q7U2TkM8qOuakbCWrCFrdko6cPY/RAxJCO7BZ8eeH/ZcxOOFuagVPsgZ3z2CNlJE6dHR0XQ6ttZKadI0RZl2Sx8Px4dznmXZer0morOzs06nA9kE6ZHbFW9X2o8uUEL8U/m7gcSIVyBckIwnCugYSZIURTEajbC0E+WupxHOudE2tOuUTYGeHuYCuDEbFFOhx3i2QYILuodrG2O4oF6vN52Ox+Mh57QNBswSsyGV3wZx25Yh3W734uKCMWaMW6/XqDWKoiiKYrlcnp+XWEF5reFL4XOGoMMd2tTQhiTjnxa4R1E0GAxOT0+JKMsyIQQjUVWVMSbLMmkqt0sBKfjZYg1p0MPKuQ7vMExnaZcj7oQNxkQ7HnabRMW8KDqHh4eTyYgxVtdVnudcUNM0e6zyeYh73OEgyIecc0Rb2sXiY6j1R0dHF+fL0GW8fxmzP23xByQIeDrnzLfrIFsjnBZFMZ1OO51OXdcvX74cDoedTifP816vhy4a8u4Pufh2arZkJtxOt9mFED/8Ia17VqFWsPUrk1DvdLv9o6OjyWRkjEmSCDolYwwN0k/ajetV3HblzXaRTZZlaE1hpRluAmV9FEVpms4PZ3Vdl+sKzI4syhgTRcJai2zaOUJrEZmlr4ONcVimAp5BTMZ2iOFwWJblu3fvjDF1XTPGmqZZrVZ5nmdZFscxQA9vfg/x9hVre0baBTKkHzCvHHivb+cEVrtrHDMej+/dO5rNZtZqeBikPcYYJNVwnbv32j/k46xVcxA50zR1W4kgJiLAGkURynQsbc2ybDQaQd9B4w1cj/tQSlVVjRHCeHjioqslrpSy0+nM5/PRaIQ1DqhrsPATfmC35RLP85xzDrCklKDBNE2pDYzex1tAr6xssVe7d155pyAUCSG0Ns654XD408/Ho9HIGOUnBwVUydmn+w0fQ9y2i9Ccc1iEBvMCPB5SCAHcq6pqeJMkyWDY6/U7WIefJAkkDs55nmdEpPX2U6ApFmj2EKems/F8Pu90CojRYA94E87j5zg+hZiGkhr3xhhzjnzhh0nGOXF+RXz3j+ndy7ZyJsw5F0VCKRlF0Xw+v//gCLlpOx4Gu+7IcXKckfhI6+fTiIcGLiMiKWUcM584ogpAmhjmKvALbMVcrzYgOOdc64OiKAqUPK7tpreyCZ9MJvfv3xsMBqvV6nK5xqiD7l3Qr/G8jP4AagW4dlv97vK8kCjC5M9PYj8AFMw529axQojpdPr3//l5MBhIWTdNlaYpuoPh2LBrBf3nIW4D5QFO1O/3tdZSanBCWZaYv9jeCp0BA4BeYpqmqMfQJ7Ttak2MUJKk/iqYBJ1OZzQa/vLLL1wQVvIz7rSSaDbi4dtNyluWxvtKN9pIpZskzsBgnlihHkeRYIxpvZ0iIdfvxfM2t9nRhbXu8PDw/oOjTqeDu43jGCQeftY5x5jg/NMefOPuQh80PPQnJyer1erJk2ebzcYYk6ZpFEVwVcZYt9tFPCTahkfM0Cwt4IBKqeVyidIcl/ZpNbj+8PDw6OgoSeK62SARwo63cl2hwYiwEUWREBEq1W2Sw9uUznGs8IdK7rP79saYp0qfSoXx04OO8hKuNp8fzA9nw+EQYlIURUJsuw1w/2DSiH6/v7cw7TMQ95MX6Zr/r5T66dOnz549q6rKCxThgix2VRG2hqIoAgQ4Lbb/QOLAc+Z5PplMJpNZnqcXF+fELOpJiFx1JZumqesa54miiHOBiwrBnXMiYq2Mt2s9Cx5jklG7KwMBAzHQV5shp/sYgBEqimIwGBwfP4gTEUWRtdoYg4UYnHM4DGdoSHEiEiIeDgdEO/Q+28fD/AbtSpydc2oa9euvv7548cJu1yvvljKzq6oQuV2nFXUjY6wsy+VyyRgzxgrB5/PDe/fucc6XyyXnrG42Ta20kVpZ7ISDjyNliuMEQ4ucRwjuyDjLGHdhK1XwGEEVW56RVtZ1DXUhrEg9w2itcPtaG87Z4eHR/fv3iCFy7H774wMfh9gSD4f90F9v4+MfNI/v5eXlo0eP3rx5g2CFQArf8bk29k+yQABAgz9N0/Pzc3L86N58Mp5hqyAYgIiaRlbVRiltjMG2CrBcFEVxnAJrzjljQJk4F2gQUzA7iYjx7adANXEcV5vGC8s+Pd3qzMxqZa3TedaZHUwm41mWJ1prxnYCnD8ztQEZIxfHcVEUf6QIuuUucbSzMGdPTk5evHjx6tUrsFu4uh4VNmulEryDMJvneRRF/X5/NBpFUYSlAIwxrWxZblDXSCmxj5YxttlsOOdRlLSuvXXnKOKesgE6D76exdGWKPARznmn6CECe9y3DMN2TbjxeHx4eJjnuZQSNWoIiGvXIviH8uL+x0G7JeKorOgq7SBxfvz48fPnz8HLtAu5W84Ncffdbs55r9cbDAZI2+u6VtKAAcqyVEo757Am1n8wiiIhYi8Ycb7d+uYNuO+lxowxxh1jjJHI8zzPcxQQdV0T2xKj1jpN09lsNplMkIBZa8N8L8SqvTrHdzWIKxulvyjiFGSs3peRFDLGzs7OwDPWWpRFqFGpdTTWiif+FiFMovHGOTfatc0mZ4zdbDZVVYFtfJQG4m0RbwKsmXd3H8Z9xAbi5Diuji4rEVV1iQoLRTy6S9j2GMcx8m52rUGMKZ7nebhB6eNY3x5xarNj72i+bMPjvX79+tGjR6enp4wxawkEgvIHUw+SEBZaUpskZFmW53mWFkBZKYVq0xgrhEDXmAJxrSUWIOvFVR7+17NNaCA3n8YlaQQtejabjcdj5F04p22XkLCrVRJrlY8sy6574RdGPExLrk8ilI6gnRcvXjx8+HCzqVGGYEEBCqUsy3zOi5rFp2tZWnS7XcbY5eVlWZbwdAihYYJB7VoGxgQA8dDAvALjeQaWpimSP497nIg4jtHMy7IM9IJIET6jT1EwnP1+36P/cYj/LOLUNhAAK12TosKXSqnffnvx4sWLd+/eYXEBohZrtU2fAFDreigLsXoLiUrTNK7VV8N1/u0DX+Nr5nzwhIXoa63iOE6zmIgQq/v9PlbMWmudMz615+2SUg8L5iVyHh/MPhf0L/ONNj4/pUDE8Cepa/ny5cvHjx8vFgtkaXAi7zsBKW/TR3LcWlsURafTaZoGC+0wrT3i7e+rz9MyDAUuH8bVJImdc4w7cBpWmIxGoza0WO/+SJZC0DE7vVrJg3bPHwftsxG/iac+xftUlpvnz58/ffq0LMuiKICXV25dKwHieD8AnHPQpTXkNzszxrAEhYiU0qJdAeoCTR8sFEUJqAy+aYyK4yhJI5y81+vN5/N+H2XLlW+4CM2ngIiTHwHhkzjQF0T8gx9xzmltw12qVdU8efLk4cOH1lqk85iq6F5iz6sLvrmmTU4EI9Htdq21Z2dnqD8553Vd53mBFWGILmiM4cxSSsaE3xPOOSeySRJrI5MkmU6nBwcHRVG0I7S9YT8/cMMQOZAC+gLnThG/ycI4fv0lXd2vV9f1P/7xj9PTU9Q1QggshwOUiHw+vQONIGGHAmO0e/fuHXqtdV0D36qqjLHo2FVV5a8VhAouBNNa5UV6cHCALx8Cd+NTe4/s2u4g4PZxi/5Y3n2TfWHEw0/5d0ywS8NsV4ByIloul//6179ev36NT2mt4eNCbGVP8CkP9q4RkVIqS4ter6eUWiwWWGHa0ohDMemca5qmKApIx+AuYxyRjSJx/8HRgwcPOp2Or3H2eNkHJMZYt9v1WewXsS+G+MfNa0bUOp3v5rx///7XX389PT2Fd+NNantmnPM4TjnnWC7rCy4iQt2E6hR7M3jbG8JnGWNSKmMM2AD88NNPf5vOxsPhkLVSlHO71hIL1h+naZwkSZYVew/yJ5H56ojDxfgNzREkuZzz33///d///vfbt2+h6253oW3zn63rQR9n7YpG8AYqESXNYrGAomuMgZKstUbvDV+X0+125/ODX375Bepr8KT7CPD2O0L8yosvaHfk42F/0s/Z8E0iqut6sVj885//hDwLKIM4xkNhAJChLEAigUC6Wq1koznnTdPYdi9IXTdCiPv37z94cL8oim25T2SMaqdR7NXEKIqyLEG/hYicuxJI/7x99ciJ/g7+tsGXI/npaYK95Xj/t99+++233y4vL3Fk2zXeFTWsbVEis0Rqj2Q5iiJ8QRw5ro00ettROTo6Oj4+7nQ62khP1qiVvDqEa+V53unkPrTsfXfcLZDZszvy8T9u0CaNMc+ePfvPf/6zXq9Fu4EeYhNvFzKKdhWy30tHbZESx/FqhW9RLNM0PT4+Pjg4QA4qBPM+wVrVHg7e6XQQJ+lL8PVN9t0hTkReb5FSPn369Pnz56vVCkWTF6qwzwhLlzwh7FWYeInmGZafg5FCHR9NcFTC6JN87af77hA3wS5C32l68+bNw4cPnXPoc2JTKFybtasNvAzp0QSInU6nKAqEaERjHCPaVWMoJiFw3sEDfr+I7wlkm83m0aNH//3vf7HA0x/Dd7L47ksi/M0nSTIYDPr9PqgfmQyYBNoOsIab+3v4epRC3yHidBXrPZ1ysVg8e/bs5cuXzjl8uxj6HmihYQUkteEalepkMhkOhy7Ykc/b5btZlnW7XZwhDPhf9dm/O8R9PgPdDr4Mx0e6jc27jx8/xrcuQJ/xu9bbjvNWBUuSZDgc9no9aisgTy9gm73m3Ff1bth3h/j1Z3at+Xwct3dycvLkyRMkkeBxXy5ivxb+6Ha72DfE2s0eEGmhYX3wil/Vvl/Er9+GDXbQ+lz+7du3r169Ojk5QV5I7dpP1nYPer0evoIJvb04jvv9PiSa8Fq+IAjf+RoP+N0hfgtzzr19+/bJkyeLxQISNr7s0DmHvXHAF7X7dDr9tnf7l0ccWQfk1levXj19+rSu68FgUJYl3Hk4HCJ573Q6/X7/JoXnzuwvjzjMd5GMMa9evXrx4gVK0zRNx+PxaDSC74ca97eyvzziTdMgI/QypHOuqiqsRSWiyWRydHSEpSnfg/3lEad28Yy4tj8BJaVo903ddNgd218e8VCP3OvjhMXnHaeAH7H/BUMdA+5/bEhQAAAAAElFTkSuQmCC'</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAPEAAABlCAIAAAATXpILAAAZVklEQVR4nO1daZfbtg4FKdkzTV970v//E9smzYxXSSTeB1gwBC6iFnuciXFycjQyRULkJXgBLjKICCuJ9x4ArLUAHgAQ0RhT/niviQWA8EGpp/w1pf+kop/ymcQQEFfIyBi4IszzHZm/xJlzjv40vdB9xDgWUxhdsU8+5XPIapj23ldVRdeIyFBL2VRrrcpBoTOaA9/nX8N8nvKLy2qYJqYR4i+KSABwzl00EE8ZY0K7y+Y8Wugauj/lU0kEQ0uEkEq2k1DYdd2lpB67Cp2FxDfsA0/G/JSorIlpysoY45zb7/en08l7//r6aoyxvVRVpQwzDE01jxuSoCMiExtZFjy5x1MCqVfMiyl103Tfv//48eOH9x7AE2QZ1vLPqqqqqqrruq7rqqqstb/99jvlZgwYY6ytCLRMkQj8Ac15ylMusiamAcA5NMacTqfD4dC27WazYUPrnEtx9yE8L3aXEM9w3263xhjZB/peMS1O8pRPL+ti2laVaZput9s1TUM0w/sr90W8MophPOSaBd/23nvv27ZVZcgHjTF1XRPWGf1k72Uf6AkPGAPe0whwLZpL5/vyDqWPqRe5qa6ZICHiLThSKmYvRXG50fQ/qcgo2ZqYrirjPex2u8Ph4L3nVhyGrgfseYbI/oCITdMolNMFTwAx1aGfXl9frbWqA7BTO2RHXIosncmP0up6CcJPUFpNes3o/ejLZtKX9KWSvvHgItVeDdPOYVWZtm3f3t5Ox8ZABWi8AwMVUI1dSAgYa6MxO1YvqqtMz/YeAKxFaQ45NF7XtbzDoca3tzfVqeiayQzDmv7/8uULBHAn/WVv6bsMOHedbyqJQqZ+LcRWPp9UYkj3jU8gq2EaEQHM4XA4Ho801BKSrLXSZHL6JfUon5Vjq4wheu/V7AwjTEKffyJ7H8Zk/v77b+XjUimbzUZ5uvSCLy8bEJOjnCHHbVQpoy847MxXDiN7MpTVZzTbqQ1RWFy0W05dLjFPNKZTUx5CCEOyZsnO2fO53b0f2sZRvbMlozytteQydl2XmehRxZVXPcOUsZt6RHIhRhjbYAV3svdchHOOIuXn81mV1WfrVAegn1QfkKMBBH1A9StZCsNCpZkak1VdguXWsdHZfWk0Q5Y6/zNk+5ZKfzweiUkzMiSlJmNGaC5sgJS5gqBFQ6GCwtGfEYCI0sYr3ESfzczti17qZemcyfv7e9h/AIB83LAbUF+SLEhhXeUTfc1U7Un91TgQrcwwQYnFDSIBeu3DElhnVF2Ne3Sd3+/3bdsyoI2xNKdDgKZKdM4pSqDEmCtWMjXcP44eO4jZZmm9JEYl2ngCyFp7Pp8loDkTudYKBFbCeEKfwHKhsgPLsCbPrSLi6XSCAKMZ7FI8J0xP3CbaZ5TyXA8KUrLccpk6PqwlrOqInV4i+/3+eDzStAvPkCNiP3VijTHee4pSZ+quxAcXabCyGzADJsMtFzqIqlGV3eUEDD4czl9KWhICgi6itj/1XiGMuCek8pd9QBYhga7c2eh97s/8K8ZW7Dy+SIXpFerMz+FNAAAgO3R9f+/Be384HLqu61xTQVVvauecd45q0DlHZLppGiqVIn0F8B3100mHKnwIgRdzD39M4JLvS54NYr2KEsmzpRhz9QVVuTBEs7w/NDYXmCXyl8OFoecQAZF7ggvzD/sAcR4QnZnBrfoAO/fD9JewZugyRl88JC2zO0/GSaWbc+y0rC+6bpqGMA1iyhDxMo5vt9u6rtlIf9RopZQfTZMHJa+pUhLlqfwg1xhfpHyy0ZaD7LgRuoAKTE3TQOBISH1UH2BuIyk+AKTiPLL3mt4VTskkbj2acg6mRcNQf8X9fs/zLGboYznnfvvtt7quz+dz13XYx0BmlLuKjNZIaEoLHyQJe2yINoZ1RoeU5VM/ZdQLnb+oj6ssejhxK5OF2N3trl0l6vuaIe+X96WEe0dSFR72dtUl5vNp7KN4bdu+v793XUfjlBjsLtdVVSFi27bMpE1uzkVLeQ9eS1J4yt8kKfEHpIRhTSMCdpynRJ5s8kz3mNcJZYw/mizgEi5qBZSdhqBXcEyT/txutxAbB2SGMh85Ua1kMqZFFVwKPRwO+/2elUBEQMshauKdzjliJny/pKwV0Tw7KxNEQiYVpKxgJoG6o+xWlMlEs8rnH+oTlbC41IvXdR3NSvaBcMQIgU7xpYxdpw4gQ/sprWbyaURABGvhdGp2u13btoRdostGvNLr66v3Xnpa9JL3pB+TAF3Y6oWSdrUHxcnx1AQ8O6+/YswpbqoKCutfmfwQiKE+hMVoPqHN5kE7+hZSHxkZO51OnKH0Wf/880+CeFgVM+z0VVvvYb/fk5EGtGShTZ87KbHZbE6nEzETClSpiEdK7k85IGiJUM9Rtz3FpxWXyKQnCQffMNvQFuZJkeyuqXLlHL56XN3PU47UVDFZN2WnIagfLm673aIQWq1pjOm6jlahhUXM5NMUyvHen06n8/lcVZV3yDimsk0fBO26zjnHceuokRgrbuU9ZvmyQNizFPFI6VPSFaM9R7VuHqYpQEwdZFSyMJDCGUajomEm6vFQDZVPdFSR1S7X7bBKxhgCd6iStXYaplVfPxwO3759oxlvisvyciXC9O+//348HkkPnjOXnmKqoJSRCH9N5TbbzGfKAtHSa/Ux1l+1brSlo3rme1p+PAkZTuq9UnZXOUgCHnyjqF24WObJqleHD1KAmCFOtARm2GmZ89vbG1147w0YNsA0m7jZbKDvZzico7qn3X1w+RCKFS13nuMuwyCyWUfNVibbYSbJ8TCVeRLTGdjRUummaf77/mag8t6jv0x7kYX23m+325eXV+/1lq1VmjDlBk1N85hyH81Dqxxa7vIcUqPZDMWYVLDdzesQljXZThM+vYe3t7emaYjC0yjAOiHiZrOpqoq2jkc9ranlhjmUwBo+zhBOlTvrWc5S8jLKkQqFqSl5X9Dv0piRVe6ZlHLWmrZx37/94Blv7lKE7Kqqq6pGRF7gofyetcJkJfn8FCRndUD3rPSG/SRa/wtLlMGNwvYNJb7EJ+N/UMRjt9sdj0fyDpkuQ28+KVbdtq0K3PwU8LqzRJG3sKJKgBUiZkkfkNYqg8XRqICMbOT1KeXThVV5Op3+++8/7FdF8kp/KovOLfDey92vRkSs7k8Gfl5ufTtJdaTRioomKAluFPY0iRBEnNFuk/kKIpxOp/f397quaQcAMRDWhvezECeJZvIhsL5ziQ8uoXHJj/Wh4TRZCR/P64NCOP063IOF5zxVaN17/+3f/3hKhaw1uYld1wHgdrtB9E1zdq4z5mKheZ17fmwK33D8BYb7l0QWNv4vIfcfQFIlLqTChQ9O5R6pFkndLHxcqc17R+A6o2kRDaIBsHQNYI2ppC1XWSXjHmrjAw/fbz92tPRWpiTDTBes/X0gEqX+n0BCwJU/eLuqkDnfYeib9yI5u8V7B5laOOe+ffvWNI1cJw39NCEdhgRiTn/Oewyl3GDPdpMfXD7EA7mRGlNzKPERwzRWpYtmiv15HbTpkP+kNNgHXySTxn6N2KR3WC7lfSB88Bb6LJSQ8pY89YDvMtolJJco9FZTEllwqHoAV1DXdT9+/OB91FwwMw2KUktMz9Ppo+RhLT3X5CQG8jjvMts8jz4YTZDk09gvcWZ0Hg6H3e4APdOAvgNQSiNW5OV3ht9Ulpf7OL0x4wYVinzwQV4qJcovUl5cKJnXqdW5SuoZzvR0Ou12h6ZpZEojzqbhPQHRrfyzpdwFLC0xHfqQmYnLdb4NMlVSIZGPsr6z+cAMI70QPCMNzJg+n8+8alTyE2Ia0Ede7r8tfGHkKyqPM2rDeoGdVV5KGf7VDM2qdc7cI26tiX60rdvtDsfj0VqLfhCxJr8QEbfbLe0PALF+ejjFONC+8G1Hk5WsxpblqmyVz5BRUoWxFvox0SLkfalSqHkYU0OMbMCJ3pwqqSpSCZYLF6Rqhl9Bdm9CHfQk2YhNa7l1eZxF0zTn8zk6L0g58sKPVA6PLJOCCSmU31RmF6QY+eqj2WNydIVpfWapMdY5zyE8mZQ9RWvtdrul00rLDcOD1MjUXnfPKZ7Vi1juMs6LLU7KmbvfarE8VYwxcD6faWd4dG+s6Q9qiJ7Am3/nSfGmD/SNFsbF5jXP7PiXUnXFoN5Nu7FkOAv7Hn0b/IpFFGKMoZ3h5B1WdoNeczVeOT17P8skWK/SPPfkDCXj1U/B0O45qEbrrRzoehOvvEbE0+m03+/pJAMZ3WNKTkeKtG0b+jQ3CjwtzHNeaOnWLbquKyIJ0h2UX11S9LWwTnL7EenQMD40hGYQsZ/05rA09vtZQj0Ka/O+3HpRQXk95YtMfaOwElbn7g8O7tASR4Ex+ha2/6eFMH08HvmYdIp7qGbjEzwWvc1Es/Qhg/WowbtdtEsSwnlFPL61VmPLkqxqACuO03OIaC0dwVFzuAO9sbaqa8vBYKLOdPb9+Xz2/RdspYo3qsRMzDi8GZPS/pDx8aPDUSa9HMT4SAoTnFZTqI8qLvSrQlkSywvjXWGCaM5RPfMFkX3kC/7IAUfYyG3bbDZyLTRfUD6DQywlLM7nM5+ui2Lbo+mPSOPDHVOvdAdrOqOI5VrN41cZHVahzg8us/XMPxit/OQyj8PhQOfcgVjXQddEQuhwVe5VKYVWr/TlGS4Jz6lRIvPnVJWmJn78gMkMPfO9vcTSQwrT3vv9fk+kwgy/h2D6hXhEPCjiMZtofqyU8FQpKdqzljLrZvjzSobFlciAexhT0Zav87k9Ho9Rzw/7yXDTn8NXUqQio6v4TEtyuIWUaLWW2o9ZA6HMsBeF1D+TILLPhSYO2Uij+I4ggZjOSOXzcj6qcpe3qxFSknhJWaGEype8TtQtfkCZp2dINko8YPWInnNBxNPp9Pb21nXemMqaGr3hM3bJKm+3W2ut/JYF3KDJbyflOJaPqDuYkEmazIP1kvQfJevqmW87+YFNBADnHH1EiziG+goT2Ww6yIwiHuFHiZZocweZocCddf5ZYHo3SVVIql0um1MImudzCwDv73vvwUDlHRpz3TnbdW1VXU47kMQDh1tu85rlgySFSpcUNK+UVFCyXBPlOchrachRhFQnvWb+7fLeVUq3wnLzj3DErETPVP40V02WlJBGa/F5MbPpDzJXGwulDhbE8ax1Xb+9vdFkuErK39Ggg0z5mAS234WqPyWUz1F7j/MW13V5ZEW+f//enDtr+CPVRi6QMMa8vLw45+gretgvzUsdIv8Ulqmjx88o93mLUdt/haMxZrfbHQ4HZXdpxyENCjQB3ratOhHhRjI1SvhokieCGWLwywpXQji3Le8X+YgUpPv27RtxF+ec90jMAvqds3RgKQEaesbCLGeVOED0JUfziSZYpfTlEur/4V7yLWR5bUsQM3DZB1Np8mLlxOH7+zv/KQtjPk1H/zOI2d48QjtF6/QRYJ2RT2aqFyJbPq7stPopj7fL+mnn3L///uu9t6buOldV9dBHtOST0jHpFOWQmL7nBzynyuN0uRI1HkTbcnnACMGFT9O5YbRppetaWssHglp472k5NSOY10zKAEgo93yZR6vcefI53uIDpaY1Hv/880/XdZtNheC3L3XbNj2nAarkPgZyWcMK/SEeIE6rgRjjsTby9VwYttyQ+OcohHyKrofZA8bXgg6iwoGeGKZUuoWahAlCz6+wS0/t+R9iyFMWatTVkTnkU7J9JCIQfvVZ6SMflD/ViPj+/r7f7ym7S0C7MpiIzoWh9Uwzo1grsrAlwsf7O7mNvTF8T5NRqyk52NTMVQ4PLj+LnrW1drfbnU4na60x6H1Hn68Yfp9UWzVlnDhljNrzmhAzfLAUBMr5BQ1NYaiH+Rlj0ptaom0Tu5k4L0++71THPJrbTwGXm+pZbhRGfMTz+bzf751zNEFo+lnHoeWPjNSZYkJfNdQ7nICUo08o8sE8hjK2eXSgLG+w0TFhaobliT+2A9yo9FTTKEiUVHv9/fv3w+EAwh0kj/ACY6QF1tcHrK2ixINxPAyYXElYFFshrBMWVA7xMqsIA76pTG3O5Sb8V5OM3ZHuUKY+a9rJuNlsvPdd11VVRQT4Ep5Dq1BL28jpjvS35FeI6I5kLxnbOcmRivaQ8M1lmrXCCAtBGdbDQrv+gXI7PUOeOUPqr1+/vr6+VlVFseeqqtrWYb8pC8h+++uasrY7Kw3IUtaVFWYb4RqCkNej72Tzhi3mkCUHphlVrx5BRIBBibfG3Lww9v07w+olRplqVEZjxPUff/zx5csXXstXVVXXeWstbZ6lm971h6Wby1drnXNd19GKU9qeTuflsUhFowwk/gLGA16ChjF4RR60VqfJNPa8lgjdwQzvX97ST2vNMi//GvoAs1hxagFgs8l8FsMz3Flo8yLdJ8QT1s/nlldBkShYGCEAUNW1ounYxyyjylBvlBFDTh+l+BAQGIVOtcZQxmf4wVSAMtPMKaYRZl7iBsGwp7HDHfa0eQ5AyVMLcw5V1R4dAH1O1vTbugGg67rNZgPZqs6dPx0VY8AYi8E+gNfXV9ZVIt776x1pxWnrFxGerutoaZT3vhNwIeGpeL4v/6cvQPPyblaAVg7yT5xDaPvVfc7n4idgB6JrqR6o+F8Jyxc1ueascmq57zxTd2sbnHlxWb0wS/8MplOlDiAVaslIkjpx27OY4VI+uGLxQmzatm2ahkDvnKMvEGgVEV9fX7333jvnnegGhvgLACKgFwMLDUqDjnHRk5W8jkDQ77aQhaoZUxTOeLoyY/U7JXgna/I+zOR2BUUBPQnHI3x6Uqn5BPInbmaZUuot9+eyaQQA5waEQXYJYu2E9aZpiME3TcPknnsL9Oee0bO0onCz2RhjaDcDqxqO17JPmn43EYvsk6paykftvKTAxHrKBEt61Iynlsvo0KTstHyQ3zTTvRFRY3oUzfKOwms0TarJ1fl6LFV1sZtDrcA5Z63ZbuuXlw3AF9E3rpoT6ElOpxPtFyZjT9/uoKPWoO9FkmbQUWly0IDhZ8RSY6IJlvmWSB5MJWRmUob5glLP3m1MCCVDzEZVGmB6UqtgLC6RYo2Sb8h5Sux9AuYqkhdKAkOY4zR8Vo4xFy5hraEtwBRr//r1q9KWHjkcDuSzEtbZ3u/3e0FdLF9vt1vmIn1B1vQ8XkmmDjONBFlURX8NTXXevsyW+5jz8BVgGN3jBKODUsROh6KeR3Ti+pqAUqm0fQaRoSRqpxFxGN4YxARZH2MurirdgIvLDMaYqqINZlXXdUPOcFH4zz//p16KcyYzT1hnHt80nek/vc5mGxHZ+wbR8Bnghg0GxVgZTRzal0koHE1/U4Mta0ZRwVS5qj+r9LX8u0SD0XcL8tHDqFIaBEMyxiB6Vi4c6MM/MYj0kVllLsE5p9gO50ZHxHMAp8+f/l2JDYVo6H8ZseFMSqqFjXr5dopCYKlKy/Sxj+IVSo2pj+TVHmC6+A1H2qAwm9Qg0nOJ0mzD+xIly5uNxgQAU1VVXVuALd2XPi6Ks4zpuB+KxPO0VOiJilF1sEpYdjAYxhCHKyUhCEyxMgOgqD4jdPa8ciY2jmpV+1HxelOO0jBo0Jx3gRgviQ+A5o9r9oMeHY6OFJhC9IgOIP7xb7o5OT79y0qGPBjhbv7111/R9OfzmbHOk6+IGJ7wTSafJ6e4IN+fKy7L5dGMz3+D3gNmOy1ZafQtlM1WHgIJxYtkuTA0Gaqg0VFRCZ9QIyuTMx59XMrKmL6Rp/KxkqfCqnVl9Fr+//LyItPzNa9B8Jcw+8WoN00DPY+SPjGfrMLoD9k2xkKNIUyjwmuM2S2j/KWPriRaFSk7PaqAHP0QkZMPHapcJuvb6Unez+NLqm0yc/WT0odYUf4GY53xjcNJWUK2XKqgrjk32SiF+qh2lJY4TCbRPA8AUacLgl6ayRwzcY/Z/ezTS94aldSbJBXqV9VgkkaTyO9sy3xoHWWUw0Af/eSfWMJ8pIaSafApRfSnpEDRcWyGKGLTDxRXTlUo69vpXwT0YcvlX1zN3ZSnV0WkhmD6qJ/Sjc2b4jCIyBxGmn/oebyEPmUVfoMqrARm89H6UbpFxUQC7cZMWRhjZNyjUPJ26PMBOvVGqRE2ZbnVWM+YCDlAKr0Rkw6qLIWDME3IiKQHKSeV5E3JeUJfVnIbabCXcA/OIdPzR/H9jHvMlGibYSzoqwZo5T6q+2F60PH7uP83SU+Vc0pnEFO2vLZRWXE5GyV9XLmupkQfad1RzC6rAaHEYH8Apj+fLWeZga217q8lysab9FwVp4n+z7jnwCWjHwS/5x5i7Qb62Qbq1ACXtfim/7Ss95fT0PPIftrppywSZV/5Pq0dYOGfOO6uKDudMBPSGzrOgO+XdOnS9QnXBz6vlf2VJaRA+fuFGeaDbvJa+g8MdETkBZVs419eXmgHbSrnCZh+ovkps4VhmoqL+9g+HWLVkkx77+VnhqJShOknmp+SkiVRjtFsw5xH+wZ8Yj49e9B8yiRJVW8h903lY4Y7LZTlHQnmjNrpnxQTz3HmASUa6yRRc0yZsPRoa35aO/2UO4syjhjbk5KBY3ROSj4VnYePSmTDzMgDsRmEh5JJ49TqhT5yheR1uxEzXl1SevJrzvlmRUlfecpTPkoe9zssT3nKPJmM6alc5SlPubM87fRTPpv8H9sXmy+r3HrWAAAAAElFTkSuQmCC'</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAFAAAABhCAIAAADOVbHyAAAT6klEQVR4nM1cyW8cRRev3rtnumeLlwSbEBEwEktsKUKCcAKJSJw45Ab/I0dOiBMQiSUKCopBUYIdG2ObMbP23l31HX7p95V7Vpsx5h2snnZ3Vf3qvXpbvWpFCMEWTXKbiqIsvP1/QsqiAJ+1ncuaCH1RDRHgEpL/GocXBvg/jpNoYSI9iTjnY++rqnqh/U6ihXFYJkwi/l4WsEm0YMDiNE158rImYpEiDZCcc7pgjGVZNvZh13UX1e+ZaC7AM0VUCBGGYaVSYYzt7+93Oh3DMFRVjaJI13XTNI+Pjzc3N3d2dlzXTdNUUZQkSTzPq9fr1WpVVVWSCEVRLlThTRTpPM/R8Tzd45k8z6OCfN+P43g4HH711VfPnj3jnLuuOxwOP/zwwzt37tRqNYDknFNH8lQSG+hiUUtgImB0IKOdjhzstW17eXnZ87w0TQG73W5/++23nPMwDBuNxubmZqvV8jwvz3PLsnRdH8vSi2PyRMCTusTKHP0vli5jrFKpVCoVznmWZXmev/vuu/v7+w8ePLh27drt27e3trYqlYoQotlsapqm67qmaUzSdqWJXjjyiYABTAghC/aUBYb7eB7IdV03DOPevXu1Wu2PP/64e/fuZ5999v777+NharnUyOhNWtvnxXiKppklpaDSzUkPj94UQmiaVqvV2u22oiitVktRlL///rter7PT8GZO5aJoxhomgojiLxtnb9M0JT2k67qu60mSBEGwt7e3s7NTrVYHg8HBwYHjOJqm2bYdBIGqqjJgVVVJnvEvTdNwsUDVPU2kSUrTNI3jOEmSNE2DIJDtLVldwzAAO8syDLTX67Xb7fv37//4449RFD19+vSHH35ot9tra2snJyemaQIGWWwAxruaphkF6bquqqrjOIsETKqIJjLPc6jQIAiOjo46nQ5jrFKpgM/gqqZpGLEQIssycMYwDEVROOe2ba+trV27ds0wjGq16rquruvVatU0Tdd1kyTxfb/RaKRpivmCJvc8L4oiTdOyLOt0OlEU2bbtuq5lWa1WyzCMLMt0XWeFmoTOOwNgtA7+CCF83x8MBlEU4U6/3z88PBwOh7ZtV6vVPM9brVae5+iM+COE6HQ6tm0zSW8JIXRdX19fb7Vauq5zzi3LqtfrmqZ1Oh1FUeI4jqJIVdU0TWGNhRDD4dD3/TzPHccxTdMwjCRJ2u12pVJxHMcwDEJIKv1sgDHKLMt83z85OTk4OPjzzz+73e7u7i7sR5qmV69evXXr1tramqIoe3t7xF4QsK2srHieFwTBcDiM43gwGMRxzDnvdrutVmtjY6NWq3U6nd9//911XU3Trl+/jtEvLS1FUcQ5x+h1Xc/zPE1TxpiqqlmWhWGYpmm32202m7VaDTI4yTrOJCVNUzgJYRiGYQg/Cd6fpmlxHPu+ryiKbdvo9eWXX8abQEvd93q9fr//9ddfP3jwwPd9xli9XrdtO89z8qgYY5Bnx3EODg50XV9dXf3444+Xlpbq9XqlUjEMw/f9er2uqupwOBwMBsPhUAiBhfDqq6+urq5Sj+eQZ0yorihKmqaapjmOU61WgSSKIiwtaIsgCMIwzPO81+vleZ7neZIkYEWSJFmWDQYDIcRgMMjz3DCMbrd7cHBwcnLSaDRM09Q0jXMOtuR5nmUZ5AWTm2VZv9/v9XpYn0ASxzE6Mgyj0WioqmqaJiuWDFn7MwM+OTnBuEkts0JFZ1mmqipMURiGYFqj0SAvigDj79HR0c7OznfffQfV5Xme4zic8yAIsEShcvM8j+P4yZMnpmk2m03LspaWllzXhdawLMswjDiOdV23bbvb7WJ22u02HuCcQ7ImeS8zAF+5cgWzHsdxEASDwQBKa2VlBfYABgkaSAiBa1lLK4oCw7u0tNRoNFzXFUKAjUEQgLdQMFEUMcZUVQUYx3F0Xfc8D70IIUzThE7BlMG2QcgXFUvpcRzDp4UPXK/XwzCM43h7e3t5eRk9KYriui5UiGmaEE7ZFENvw2xqmoafGJ9pmkmSMMZM04RCxtCHwyGQM8agpW3bhk2qVCrVahXOSafTSdPUNM1+v0/mmkZ/DvAqQhb6bRhGrVZbXl7+4IMP1tfXTdPs9XoYNLAlSSKjhZPAGMuyDOOO4xgLBEwj/YdpMgwDPTqOE4YhlFOe51ifvu/jGSFEt9s1TfPLL79st9txHBPzMV/oiEnxI34yxtrtNi4gZWgTD3DOJ3pamqZZlkWcgSyBe0yKJWimx0722EgAa08tiPw5TKJhGIPBANweDAbPnj1bXl7udruWZUGnxHEM/5R8LwwJqDqdzuPHj4UQ29vb6+vrN2/edF230Wh4nsewmqZwHz4Tli7hHNWQ86CVtQupWXIkZcy6rgdBYFkWnC2Iz97eXrPZhMqEHrEsC7rTNE1KISRJsr+/f//+/ePj42+++eajjz6q1Wp4gDEGQZ7mS4MDcBvhUY6yi43weYrBkO/TIocVJIYjqGSMBUFgGMbm5ubNmzefP3+uqmq323Vd1zTNNE2HwyHehVIAGHgNQRCkabq7uxuGoeM4juPQshdCzE7xkHMv802Ok0bjVeK5/Jceo0VY4jN0J4ItTdNgCJvNpuu6z58//+WXXx4+fGhZVrVaZYzBYpumGccxVDou2u324eFho9EwDMO2bdM0wTCgmLaGZUHFxJOBIVd5lJMl2FOYTBIks5fUOMB0u92nT5/atq3r+vb29sOHD/f29mACaRgvBFXX4ziGQ2YYxq1btxCNZVmWJAlEBi7WjHgYEwPhURQFfiLdl8GX+DnJYAgpJTJWb9FjCIz29vZardZLL720srKytrYG14DWZJZl1WoVc5ckCdQY5xxaTSlyg3TNZua0yORiENCTJXkeFelJTJZVl8xVmkHOOewTZha+B8Ksq1evXrlyBY4N3PtarQarAd0Grwbe3tLSEkQSgSAiHAx+xs4DnEFWyAwFoowxtEI+BuDZto2bsKWEcxQzDAwcSXgdQJ6mKeJQXdd936/Vam+88cYnn3zy9OnT119/3bIstACQcM7gEaGd/f39L7744q+//vJ9H85SHMcw4C8EezrgsSMeS/O0U2oTQ5elGjML1w2iCC8lTVPoWyghIIROYZKwYPWR1LBxcjcbsKyKFwgYQjsKmKQUXgCUUJ7npNvwGL0lCh+GmiI3aSzmGRmDUTyLAkzMkX0PVmgN3EHCENpVduBZEQ9ThDeqKckpKPU7EXDJ3p4P1XQaRcsYQ64DnlYURUmSwD7LbMS7dM0kMSRSThO1P+8aJrSlJiZN5EyCqZBtElojjcgYA2DMi7ymZC+1NMgS4NF+ZwAe5e2iAMsrjSwfK5Q/xBVOCGZBSClhVqQosIAnWf7RsYkpruUkWiCH2cjCUYpAEiqN8FAOmPoiP5+GwU57h5OGNENpQWeiabXYWAAhxUM/EV2QWzNzzVOmRhRBNV0nSULpK8aY67rk4YFIdZXgQasjzI6iyDRNjIqcAkVR5s3rygCmIzmTbhvLB6XwPSl3y0Y08Dwtn01Ly6uX/pJTJSab5ZlDoRflMcl9YRkrikK7H7ISKrF6nr7m0tLidEJwtOkSvLMaLVHEDyXAEHVe1IfA/WCFVh+LYSyNtUls5hoe+9pYnGfls5DcLHaaw/AuFUVB+k42vJN6nzLy0v0ZjscktKW/5xNpJulVuQVwGMqZOFzyT+bk8OiT0zhcwlx6c6yQj70/c1gljUj2htYwGwE8T8ulv6DZNR4y1ClgzoqWOEw/qQUAVhSFtLQY2WGYU1GP3pzGYZpm5IRkbQnLKe/QM8aw/6IW6XUhJTdKYiKEsCwriqJqtYoMIeG0bTsMQwRJyMjZtk37UvJ0iMItgeFljCF/QK4oknhUQPYiXJk5TxdENHF0Qc4TiDY0xOks4timcCGEwBYfwizyl+SHLw0waWkZsKIoyFcxxgiw7GmPJVl0wzCEE44QGjlQ6lEIcWmA5R0M2Z8R0m6onDOc0pScFUAJCnZzke7D/gm1f2mAIXXQTCS6QEiyTYnR6U3J7qfv+0II2YVGKpOU3+WLtGyBgRz3aSLYHBymZd/r9ZIkCcPQsizP81AiRU8q8wcPCydFUZBJVaVaQ1k/UQRGKnpKU5gdFGWgLqfRaDSbTdM0sb/7f8fuX8A2lkYNG61nYhdprJnmXRRb8L7vR1EUBIHneSiUkqstGGMqn0AkZnDxoOto65RJqXOQUhTOkVWAyiVUGBNWqaZppmnCxqJECvwEE6gEA/oWG86ojyHPSZ6CMAwB7PHjx6iVefbs2dbWlm3btm33ej0458CsT2eyPPe4wG4A1hglDVVVReUOvA4YA3SAchmCzYrKQnE6BpBd8VE3ezpvoYfzPN/e3j4+PkbJ28bGRr1eN00TrKKcrk52b7QhKMy8IF5kT+U74Cdt5OIvWUIwTTmdrKOW2emlSzhJsmRtJLcg620KJ+M43t3dTZJkOByapvnmm29WKhVsyhHgLMv0maVOekFkMEqAcRPFZZT9AT/h+hNvhZRJLnFY9i4IId6ilD39d9S3z/P85OSEc16r1X777bd33nlnZWWFF6lvLqWv9SkKUBRpB9njkdGSbgQzZQUDtKqqovSCS3lzWhGypNGLSpGjJMDoaFJ4iNeTJPn1119RN3R8fPz5559blgVmKMVGFGRt2hoWUoxOUTiWgBghWHls1SVJgmInGpMsqPLN0bw0zY7sfhDgksam6263++jRo263++TJk2q1+t5772GbDsubOKeqqj5JJUzyb7DTg/dlUcEWAVXukRRYlkVDl0UDG9Zj+SavYeLwpPHgyf39/aOjozzP9/b27t696ziOZVlAS6HeC8C7u7tjG6JM2t7enmVZOMYwRWmFYYi9adR7acVJBogT6RUUgZHdIlVc+ilGsnb4yccFEpzzo6MjzrnneVmW3blzp9PprK+vU+EHDYYxpt+4cWMsYOq13++jlAS+EXEPgFGehcUD9XhwcAC7illDmoYxlqbpa6+9dnx8jK1gVVWptBG6lKw0FbXATwqCoNVqCSFQO01KiGYky7InT550Op3Dw8O33nrr2rVrrVYL5Q9CiGq1KoqCqMt0LdlkS4uKPtRvssKLkmWBnc4i//zzz4eHh7Zt//TTTxsbG81mk5zWUX1+IYct5yEhhYGyQYK8CCE0TXvllVdqtdr169dlr1tugTGmKMrz58+Hw2G/31dV9c6dO41GAxZYPb23CPCXCVg2PHQT+/1pmrquu7W1papqo9HY2dkp5aVBnPMwDKEyv//++1u3bjUajX6/j8KfseJz+YBJOMFtx3FIhlFHl6Zpv98vcZjcacuytra2Dg4Odnd3P/3000ajUa1WUaErd0eTdfmA2WkOQ8mhJAlVVowx13VLnhb91DTtxo0b9+7d29zcvH79erPZLJXesTnTtBdNsqWVpQ5lu5ZlkZXmnMuAiQC73+87jrO6urq6ugpfQAjR6/VwFoyepE4vWUszCS2kFFWjiLE8z7NtO47jfr8/qYV6vQ49h9JD1EegBrXkloGm1VrCW5ArDuGXygEzBQyMMRx1kANXUYR7SZKghAtHADAyKjevVqvIUauqikpZiDRNCmV8mJSdIjCovpSrvpmU6CpN0CVz+Kwpl0kO5vy0+DVMcz/JSycipVXSQ2Np9IHzgV8Yh8cumOnPq1KlA5sFQD3jZtrEdv55EzKVYsbpD9NRr3kAl0KLc49wkYBHxzFlZEI6IDKPSI/l8Dl4vkiRPnPfBWDQdMyjwcNZu3vR6flem0RyGDDzSZLSfyKiZ6WJgKmyRFEU1D8iZONFhRaFxC8Ca10PgsBxHDqKy4tiOfKZoJZxk85CMcYsy8LpBZxnZSPb8aWMhzKSKlkA4BLNwwR5HPKIxz7MT1eWsdP7LKV+F6KfQbOreJike6d0jAhWDuKmr0lym+QuZBdNvr9AwPNW05L/OOUZtTghiTtjcxSsmMSSn0i9lKwUZTDPhW4MzdWQOJ0oH0vwugFYFKlpNhIh0AUvCjPZ6fCwxGF+3oPRk2g2YLnjKY9hWHJihTgsC6f8L9pkk4OT/wqH51nDsqtYQjtKpLRJV8mudUki/j2lRTSnXZ20IVIiTAeZKNLY8usXpLQmAsYaQ1EMHcFFkExSBxkWxbFxnJMEAIgrDsMnSVKr1YbDIYJ7qCscPLMsy3GcNE3puxp4EfkdxliSJFQ+fbGA8+K4G44s8uLDVzjxnxcV66zYN6MPTiB8xwP48gZNH/EKqKhuGztSiPLluSONsEBXbIZZwhl9lNhhowD5e6XY9SCXy/d9fIgCBgxsAVpsrIFvTNp5RkYSR86xk8wkwaYtJdM0F/VdmmmAMVZVVV3X5ZwHQUD/ksM0Uio4su55XqVSyfMc/EG+hjHGOacUDx1upYwsYywMQ7xi2zYScXEcA7zrus1m88IBEx7TNOv1OhxpRVGwqnPptAMrSh4gxlEUDYdDbJfQVx6wtQMMQgiwGl828DwPUoPdTaTvlOKzPqqqWpa1wC8GTgMMANjporPY2C7Fx13w2RGUN1YqFSTi8IEaDBcrE6ta13WKKxhj/X4/TdNOp7O0tNRsNjGJ+FgJHTO0bZuM84UDpgAFKpe2PCGHABwEATBzzgeDQZIkrVbr9u3bJycn3W4X6VJs4bEi83jlyhXoofX19Y2NDXxFRC2+wsM5bzQa2HBApQ9jjM7LLATwtPP65PTCWox168n88uITBIPBoFKpIF/Lig+LwczEcYwPRTHGkiSpVCrYDcWyx5EhURz6TtMU+0NQlhcO+KyErL9sollhTjB0VVUfPXr09ttvi+I8LJt80IBdgI8F+h/uGy86szGVzQAAAABJRU5ErkJggg=='</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAFoAAADXCAYAAACahkYEAABPLElEQVR4nO29eZTlV3Xf+/mNd55qHru61ZNarVZragkENkICEQYJmSg2zxA/spYT2bHfWwbC8OIhTtaK7QSS2MZMMTy/gAMEsI0XsxSwhBAEiVZrbKkHdXd1V3VV13Sr7vwbz/vjd8+p371dra6Wqguxor3WXXXrDr97fvvss8/e3z0cLQxDwSaQpmkAhGFItVoln88ThiGGYQDg+z5hGKrPW5bV8R3XdUkkEpsx1MtC2mYx2nEckskknudhWRaNRoN0Oo3ruoRhSDKZ7Ph8GIZ4nqeY6/u+mpSfR9o0RgdBQBAEJBIJXNfFtm1arVYHg8MwRNd19X+9XkfXdVKpFABCbMpQLwttGqM1TVOMXFxcpNFoYFkWzWaTUqlEJpPBcRxs2wZQf8MwRAiBpmlKlfw8kn7xj2wMzc7Oomkac3NzfOhDH2Lfvn1s2bKFd73rXXzpS1/Csiyy2aySfMdxogHqOkEQbNYwLxttGqP/dydzs35oaGgIgEKhQBAE/MVf/IXSwfPz85w8eZJt27YpfVwul9VGKIRA1/Wfax1NGIZiMx5zc3PCcRzxL//lvxRjY2MikUiIP/7jPxbj4+OiVCqJ3//93xdTU1NCUr1eV8+r1aoQQmzKOC/XQxOXKCZCCPUA1CYlNypptkFk0snNzzAMFhcX2bVrF4899hh33303u3fvZn5+nv/yX/4LN910E6ZpsrS0BIDruoyPj+P7PslkEsdxlITX63XS6TSaplGpVMjn8wRBgGEYrKysUCgU4oKErusdlk4ikcDzPGzbxvd9TNOk0WiQSCQ6rJ6NpA6r40K7umTqheak1Wop5kpGz8/P4zgOmqaRSCQol8vcf//9lEolhoeHeeihh7jxxht55plnePvb384TTzzB3Nwcv/IrvwJEVke9XqdQKFAulxkaGkLXdc6cOcPg4KCySuTvSzNRMjQuCBBNjqZppNNpPM/D932ljpLJpJqQy6aegiAQ8iHFvJt831ePC32+Wq2qJV6v18X09LQ4deqUmJubEx/4wAdEb2+v0DRNFItF0dPTIwzDELfddpsolUoCEIZhiGQyKfbs2SP27NkjvvSlL4lWqyWmpqbE9PS0Goek5eVl9Xx+fl6EYSgcx1GvOY4jHMcRzWaz45583xeu6553j41G47Kqjlesjs2ibkldS6K7JTj+CIJALC0tqc+ePXtWTE5OiuXlZfH000+Le+65R2QyGWFZlgCEZVkin88L0zRFNpsVmUxGlEolUSwWRS6XE4AARC6XE7//+78vlpeXRaPREFNTU8JxHNFqtUSlUlHSKZ/LzdL3fdFqtYTnecLzPPXe4uKiWFxcFEIIsbKyIoQQYmFhQTSbTREEgVotl0ui12T0WszuJslk3/eF53miVquJWq0mPM8TTz75pDh79qy48847FeOGh4eFrusCELZti97eXmFZlrBtu4O5fX19oq+vT9i2LUzTFB/4wAcUo8vlsvp913WF67qKQUEQXHCsrVar457k5MQtG8/zlJq5LKpD13V0XVeWg2hbFGEYnveIU3zjNE2T5eVllpeXqVQqNBoNfuu3fosHHngA27YplUrMzMxgmialUomtW7fyz//5P+e+++5jbm6O6elpnnzyST75yU/S399Pf38/pmlimiaf/exnefTRRymVSoRhyMMPP4wQAsuycF0XwzBoNBoEQXDeGCHanD3PUxaK3BTDMFQb+MrKCsB5wNaG0lpSKiVVSmuj0VDLMS458vP1el1tPk8++aS45pprxPj4uACErusinU6LTCYj3vzmN4u//uu/VvZyGIai2WyKVqslVlZWhOd54v777xf333+/0HVdJBIJYdu2+MVf/EXx3HPPiUOHDomtW7eK//Sf/pMQQojZ2VlRq9XOk97l5eXzVuZjjz0m3vKWtwjbtsXrX/968e/+3b8T8/PzQgghms1mxz1djkeHZxjHf4UIlKnjui0Mw0AIE9O0O2xnTdNIpVLqu2fPnmVqaoparUapVMJxHBzHIQxDXv3qV/OOd7yDVCql4FJpWpmmSb1eZXr6jBpDX18f09PT/PSnP+VjH/sYxWKRd7zjHTz11FN86lOf4jd+4zeACEcZGhpStnYikVD4SLlcpq+vj2KxiGVZfOtb38LzPE6ePInneQDqs9LGvhykhyHIFddsNtuGv4Zp6iyvLPHt73yT++7/Dp/69CfwAxfTjIz/aIDRRFRrDaSi7R8Y4vW3vYEbD9yMnUjRaLTI5Qr09vbzH/7DR/j2N78DAnw3AAGNWhO35eC5LdKpBEePPMvRI8+ia7BcXmTL+ChvuuMN/NLdd1Es5HCdJqdPTfKOu38JQgECBvsH8JzVwECt1iCCcXQKhRLNpsMjj/yUZ555lr/8y7/k0KFDfPzjHyedTlOr1dpuf0gY+kqthGGI7/sK5JJCJcGuS2b0S5qmV2jdZMplo+sGpmkS90Dz+RzDw0McPnwYTYNKpaJAH8dxEEJDYJHLZajUGwCcOnUKXdf5nd/5Hf7hH/6BpcVFHnzwQcrlMmEY8tGPfpS9e/cyPj6O63hYukGtXsGwNb7//Yf4yU9+AsDevVdyyy230Gw22bt3n3LdW60Wf/Znf0ZPT48aj2XbWLaN5wWIUCObTVOp1ACYmZlh9+6dPP7441QqFQ4ePMijjz7KzTffzIkTJ5SXGYY+6XRaRXI0TeuI6DQaDXRdJ5lMvijvUXMcTwDYttm+QEgQBJimDghOnznNzMwM3//+93Ecl+XlZRBmW+9Cs9XCMDVabXXyza9/nfe85z387u/+Lq1WC0PTWVhYoFKpMDs7y+Gnn2F0dJRqtUpfXx+mrnPq1Am80OPOO99GKhVZAgcPHuQb3/gG3/3ud3nve9/P+973Pj772c/i+z7vf/8HWVxYoLevD4CF+fkIFWzf/8zMjHLRR0eHOXlyUu053/jGN/jBD37AH/zBH7B//36OHj1KT08PYehjWRbFYg+apuH7Po1GQwmWZVlAtHe8mACE2R2HE0JEm4MWYhoGhmHgeR6u6zI5OYnrukxs2c7g4CB9fQMIoNmqo1vRUnj2mWd4zWtezfLyMoVCjqWFMiMjQ9i2zc6d29m5fQc7dl7Bf/iTj/C979/PFz7/BbLZNLv27OIXfuG1XHfd9QBMT0/jOA7FYpE9e/awsrLC9ddfz9jYGIHvKwZIJli2jddsMT09jWEY1Ot1AK6++hpOnjxJs1mnWCzy5je/mampKe644w5WVlbIZrN8/OMf5zWveTWJRILJyUnGxsYwTZN8Pq9+I2zHMCXDL5nR8dmRG2G0dIT6gaGhIe644w56e/tIpVKkkjnK5TK2nURoIUHgYdjRhG0d38L8/DkSCQvbNhkaGmBmdppUMkOtXuG6G65lYf4cn/nsf+VXfuWfkEzaeJ7D2bPTLCws0GhEKsi2bSzLore3l4GBAQYGBshkMuRyOcIgJJ3JMHP2LMlkklJPD+WlJabOTtPT08OXv/xlPvrRjwKwuLiI4zj09fVRr9f527/9W0ZHR5mbmyOVStFoNLj33nvZu3cvf/mXf8mOHTtoNpsAZLPZDktM07QXDTx1mHfSzDJNEwgBoeDNlZUVdu3aTU9PDxpW24QSBMJHiAA3iFTHq199M3//93+PpglarRaZdJpsNsvAwACPPfYYP/zBQ7zzne/EdVvMzc3x2GM/pdFo0NPTg23bkWoiinqPjo4yODhIEAScOHGCK664IoI3rSSB7zM8MgJEquO+++7jxKmTZLNp3ve+99PXVivSQvJ9H8/zlIOzZ88earUaKysrrKys8Oyzz3Lvvffy0Y9+lP7+fgYHB2k0Gvi+D6CgV9d1X5RUv2J1bBKZ0m2VbrgkgUAjcq9zuRynTp3CdV0ajQa2lSaXy7U/B6FwaTjRcvMch91X7qLZahCENo16jYGBAebmztHX14vYuYPl5TKNRp3vfOfbfO1v/wbbtqnWXZLJpNrEfN8nkUhw9dVXUygU6OvrwzAMLNuGUMPzPITn8fTTT/Pwww/zk5/8hKPHj/DU00+Qy2VYWloAIsvJ933y+Sx/+qf/mXe/+92cOHGCnTt3U6vV+OQnP8kHP/hBms0mDz/8ML/2a+/ml3/5l/lX/+pfUSgUqFarANTr1XakvollXSy/5Hz57VAdMrrgeR5B6JFIRDctk1yGh4bb/4dtZoQYpo6u6QonWCmXqdVq9PT0kMlk0ERkFlqWRRiGnDhxgomJCT70oQ/x13/91zQTCfr7+xnbsoVrrrlGOR1yAw7DkKmpKcbGxqjX62QyGRA6lm3z3t/5Hf77f//vbNu2jWarzt59V/H4E4+h6zqFYiQI5XKVj/35n/HP/tk/UykNO3fupNFokM1meeMb30gikaDVatHX18fk5CT/8T/+RxzH4Q/+4A+UQLVaLQByudyL09GRGRd5eZGbHdnVyUSSIPTVBFiWRaPZIJ1KKx1lGNF3BauhLZkekMvlaDQaJO2EAqnK5TJ/93d/R6PRYGRkhHe+853MTE9TLBa56uqrmZub4+zZGSDaiOQNFotF9Vc3DFbKFQzD4Ld/+7fVhH3r29/AdR0cJ4hGJCJhePvb38K73v1/YCdMGs0avheSSCTatnPI2NhYO58kSa1Ww3E8entLXH/99QghlCeYTCaVFyktNcdxmJubY2RkhGq1SrFYjPixxjysKwrebTeKdkKLECDfkp/pTnSRz9PpNEEQ8Pa3v53Pf/7z3Hvvvbiuy+GnnyaRSPCHf/iHWJaFYURDuuOOO9i1axdHjx4lDOG1r30thmlSWVmhUCxRr9VUDt/p06fZt28fP/pfP2RsrJ+FhQXq9WgTPHjwIN/85jd461vfRi6XI52K4oSTk2fYvn07iUSCZDKJ6/ps3bqFN7/5TRiGwfDwMOl0usNpkZhOpVIhk8nw/PPPs7KywtTUFNu2bTsv0+pFMfqFjHQNA/murhnomoGGjoYOaGiazvLyCvl8AdD44z/+E6anp2m1HErFHv7PX3sPo+PjpFIptm/fAUR29OTkJGEYcuDAAc6cOUNPTw/5QoHA88lks+zfv59vfvObXH311Rx+9mnuvPOtlHoKPPPMM9hWpMqefvppvvrVL+N5Hjt27MR1fE6cOMH27Tv50pe+xE9+8ih33/0Obr/9dvbs2U2hkOMnj/yYf3jge7zmta8mbIunhFhHR0bJ57PU6jWOHnuOK664AiEEQ0MDAGp1vGhGx6lbR0UbZ/QZXTfbG6uBEB60o2WeG5DOpBkZGePo0aMsLS238zVMPv7xj/PN73yLG2+8kWLxEcXo/fv3k8vlVP6HlK4wDNHDEE3XGRkZiVRUO1K+bds2ZmZmGBiIbvzGG2/kpptuIp3O8pWvfIW+vn5KpRITExPs27ePf/2vf5fl5RUSiQQrK2Vct8X4+Dif/vSn6e/v5/Tp0wCMjo5y5MgRau2VJE3WAwcORABU4OM4Dpl0Zk3V8Yp5t0n0olTH+btuhItAJNGaZgB6BDoJDYTO4OAwTzxxiEK+RCqV4itf/s8cfOxRPvtfP8tv/dZvkkgkWVxc5PnnTwDQ09PD0NAQV111FVu2bGHLxARB23kIggDLtjnblvqFhQVKpRKaEeB5DqlUgomJcQBsO5L0M2emmZub49ZbX8+nPvlfedOb3gzA3Nw8+XxerYrBwX6OHH2WoaEhtm7dyujoKAC1Wo1rr72W3t5egiBgcnKSRqPB/Pw8AwMDKmLjBz6Gfr75tyE6OgxDtNjFI7UhEEJrBxG0NlYQ8P/9v5/izJkzvPWtb+W9730vP3jgAT784Q/znfu/Q6lUpNGI7PHBwUF6enrYt28fQ0NDPHv4MENDQ7RaLYaHxwAYGR0lDAJGRkb40Y9/gG6FZDIZDMPg5MmTABQKJd74xjcSBAFPPPEEx44d58CBAwrTGRzsZ2rqLJlMhkplmVqtQqFQ4Dd/8zdxHIeenh4gsjrGx8eZnZ0lkUiwZ88ekskkxWIRIQTNZhPbsjENs23xdCqLjdHRoYbWvq6GAUJHhBphQJvJ8OyzR/jJTx7l/e//AKZp8olPfIIPf/hfE/geQ4MDBHjcc88/Znb2HAA//OEPWVxc5EMf+hB33XU3H/vYx6jX63z1q1/lnn/8y/T29pJKp9HbLrVkXKMR6fNdu3YBsLS0zPT0NJlMhgMHDnDHHW9icXER27ZxXZelpeUoHhlAT08fhhlw5Ohhrr/+OsIwVK735OQkAwMDbNu2lXQqTShCnnvuOU6dOsng4CD9fX2AoN5okE5lz+PhGoyOz4SmHprkJDoQKIbrRAFdbY0NQAZ6IcoUuueee1gpL/OOd7yDszNnGRocolwuU282cdwm3/zmt1hcXARkhUAax3G47777uPnmm/mbv/kb0uk0/9f//Vv83de+xuL8Aqals2UikvC+nl5SiRSzZ2cYGYlec5otkok0pWIEIE1PT3PjjTfSbNbJZvN4nkej0WxnLoGd0NsZTRlSqSSOE5mJe67cg+f7GIaOHwQYhk4QhORyOQXthkJ0oIprctUwViPglpUAdHwvxDIThAGkU1lEqNFotFRphGFEoR3bMkCEIEJ8z0EjxGk1yGZS6HoUc1xcnOfo0ed496+9i/LKEoKQltskmU4gNBDoeH7I2PgEY+MTbN+xi0w2j2GaoGlMTU/z9rvvJl8o0NPby59/7E/RTY1kOsHh556hUMiTSWaolCsM9A4QeCGBF5JL57DNBCvlCqVCEUJBZXmFMAyp16vYtonvuyQSFroeWUepVBpDt9B1g1QyQyqZIQhDTMNG14xoBaPjOj5CQBiA63nomokINdayMV6xOjaJ9Pjy7noLTTPQNIMwhFbLbf8f6WsJ/miaxvLyMs1mk2azSTqdVnkZQghs2yaZTPLggw9y1113MTU11RG5qNVqvP/97+dHP/oRjz56kKeeeoannnqGZ555locffpgf/eh/sby8jGVZnD49xR/90R9x/Q3X8sUvfpHbbr+Vxx9/nETCplarRXZ2W6Is3cDSo/HrRNCArutqXPI+ZFQJYpETmSkXz5gTq6oz+lwblxbt/9vvX8hoOC/dIM50GTfTNI1ms9nhXmqaxsLCAqZpdsTXFhcXVSwvlUoRBAHVapV3vvOdfPGLX0QIQV9fH41Gg127dvHDH/6wjX9HJEF3IQRbt25lZWWF17zmNTz66KOk00mWlpYYHBzk29/+tsKGf/rTRxkaGsKyLIIgClnJa8oxS0YnEokOV1lGuC/EpM4JWfu19dTXnCfR3TiFBJRc10UICTxFO/zMzAwLCwt84QtfUDcyOjqqJLpWq9FsNhkaGmJ0dJQ/+qM/4u677yaTySCE4LHHHmNubk4hY8vLyxjt8Fk6nWZubg7bttF1nYmJCe69916++c1v4rpR7DKRSFAqliiVSszOzqpxygBr3JOU95JMJgmCQMHC8nlc0KTEX8jaikdd1uLZWmSupTbkD0m3VyJdzWaTYrHYkXMchiHPP/+8Ytb09DTHjx/nyiuvpFAoUKlUcF2X+++/n0ajwV/8xV9w6NAh5ufnOXjwIB/5yEe45557GBsbo1KpqKSWQqHA5OQkR44c4Y1vfCO/8Au/wJYtW8hms0xNn6avry+CUUXI0tKSigw5jtNRkxgEoqPYyLIslbcdvR90rNQXEro4b+R3JZ8uJtFrMjp+ccMwSCaT6LpOuVxWUKBpmqRSKRKJBH//93/PLbfcAkRZQw899BDlcpnl5WUVpvI8j7vvvptKpcLWrVsZHx/nhhtuIAgCbNum2WwyMjKilny5XObhhx/m13/917nzzrfy67/+6yQSCWZnZ6nX68zMzCivLZ/PK0bLJPNVRkdJMFp7xem6roQiLtFxBr4QiXY9TTwfsXtC1oRJX0ii48vNsizm5uYYHR1VuQ3yBj/84Q/yi7/4WiAC7N/znl9TA6rVapw6dYqbbnoVn/70J2m1GkpPLy0tMT4+xunTp0kmk/T29qoxnDt3juHhYZrNJmNjY6ysrLB9+3Z0XeeBB7+PaZqkU2lWKissLS3hOM6aOtrzZN6KriQ3zmh5r5Jp6wX14yp3PRP0inm3SXRRF1zTNJLJJKZpUqlUlOTIOm1d1/ne977HQw89BMDc3BxDQ0OcOnWKUqnE9u3bmZyc5H/8jy9y5MgR3vCGN+A4jlr6s7Oz9Pf3Y9tJFhYWlNk3MTHB8vIyP/jBD3Ach1KpxNmzZzFNk/7+fkZHR1leWaZYKFKtVttJP6aSMqk64inJUkXIyHa3tXGpIapLkWhTLrHuTSB+Ed/32bVrF5OTkywuLlIoFFSKlGVZfOQjH1G5xrquMzc3x86dO5mdnUW03dJTp05RLpepVqvouk6xWGR5eVkV73he0BGcrdVqKj/69ttfj23bGIbRkT4gw13SIpIq6cixo+dFOqTezmQyTE1Nkclk1Fg8z+swAzOZTIdaifNF/u+6LkEQkEqlOoqVPM/DNG26aV2qwzRNtm7dyszMDL7v47ouuVyOpaUlDMPgyJEjSgcKITh69CgzMzNRBpFlUS6XlZ43DEM5DpZlYZomhmF0dDGQJWlDQ0NcccUV9Pf3d5hd3QnnUienUimmpqbQNI1Wq0Wr1VLAUKvVoqenR5moYbvGPM5M+bdb4uO/I5ksDYR6va5WvJyotWhdjLZtW2XrP/TQQwRBQKvVUnnO5XKZdCZJOpPEtHTm5mdxvRampWOYGmghdsLEtHTQQtBCdAMMU0M3Vq0bIQSu6+K6LpqmMTg4yM6dOxkYGFAZ/XKFxVed7JoQhiHFYpHBwUGSyaRqW1Gv1wmCgOXlZcIwVKqv2+GQD7lq4hS3sePvSz7IWsaXxGh5M1deeSWHDx/mqaeeUkmKug6ZTAbLtLBMSw0+n8/jui6tVotCoaCkPQgC1QRFDjwIPfV/vJTDtm0KhQLJZFJ9R9f18xjtt3PxZDbS4cOH1TUGBwdptVqMjIyQSqVUXaFktLSOJDMl8+J6W/6O/JvNZllaWiIMQ1KpVIdbv1Z5xyUx+hV6abQuRnueRy6Xo7e3l927d/O5z31OLT8Zgg9FSCiijEvHcTBNE9d11UYjJSMuHfGHlFbpOgsh2puk1yElhmEoiZavSwtIjnPr1q1KohcXFzlx4gTHjh1TXmcmk+nQw3HPTuI6ce9PeoDxcZw5cwZN01QERlpjF5LodUVYJHMKhQL79u3j61//Oo899hg7d+7ENHVq9YoaOERVTrKeRHpicgASpIp7Y9GNig79Jhkls5VM01SbZPzGQxF9JlMoUigUeOynBykUCjzwwAMA/Lf/9nkWFyvsv+5qPvOZz+B5PplMRpmDgPL0JEmHRjIa6DAdwzBkbm6OYrFIPp9X+4acqLVoXRItQ/mZTIaxsTFuu+02vvzlLyuXN9ocm7RaTYQIcV2HIPAxTYNUKonnufi+Bwh0XUPXNWQ2kaatMl/qWFmuFlUgrOpPuWnKTVGuBjkBlUpFNVd54okneOKJJ7jzzju5//5v8brXvY4///M/V62DpG6WEx3/DbkZxydcCpwQgmeffZYgCFS8MM7gOBIZp3X365C4wPj4OG94wxv46le/imVZZDJRiphM/A5DeQORJBtGJIGe57elQ9YzypuQAzVwnIa6qUwm086RjiZB0AZwjHimVHszDUJ03SCZTIMeReDfdtfdANx43Q30Dw1y7bXXMTY2hq7rUV73C2Ab8dW5lhNz7NgxstksuVxOqU+ZsH+hlN51MVq2XJA/3N/fz6c+9SnK5TKGYZDLFsjlouz48tIKjUYT20riei08N8C2E6SSMO/PR7nNodfOgUuia6aqgEokUipTs1KpEIY+hqmRy2cIw4DedjmcTDQUoUZ5qYptpbHsNJlckXS2QKXW5L3v+wAAr7r5ZkbHxnjmmWfYt28ft912G+l0ln/0j/4Rum7SarVwXb9tz1s0Gi0SiRSaZrC0tKx0cDQBIa7b4ODBQ+o6qVSaMIRkMt2e+LV5+IrVsUm0LkbHl0MUIU5TKBSUod5qtRChhggj9VIq9kaWRIAK82iaFqUiQEeoaNUS6RyKpq1ulJFe15mZOUupVMRxHMrlMtlsvg3VpiiXV/juff8TPxDc/Kpb2LXrSnbtupLllSrbt++kVmtw8uQk1157PdPT03zqU5/i6NGjaJpGX18fYRiqENvi4iKmaarWca7rUq1WsW2bL3/5y1x99dVs3bqVQqGAZVlKx4dheMFGW+vW0dKhkNEPuQlJRslNwDAMtm3bBqzu2GGsY2N8wqRZd34MD3Wt+COXy5FOp1lcXCSbzTI7O8tf/dVf8cUv/g+Wlpb4J//kH7OwsMDXvvY1du/eDUT6dm5ujttvv519+/bx+c9/nttvv53Xvva1nDt3jnq9TqVSYdu2bZxt18RI3CJuBmazWRYXFzly5AjveMc7VL5HfDOU97iWXl83o1frEXUFJskZTCQS6kcSiQRXXHGF2jyl/u0OK63leXVPRNyu1vWojE5OTjKZ5Pd+9w/53Oc+x9atV3DgwAG+8pWvMDs7285AGgSgt7eXRCLBAw88wBe+8AXy+Tyf+MQnuOGGG/j85z/P9PS06nLT19fHuXPnlFT39vYqaa1UKnz9619nYGCA3t5ehX1Li+diXSbXxWjpTEgGdZs0iURClSBIGFNaD/HSjbXicfFrdTN8VXVENzs2FiXFFAoFdC3KRpKdFR5//HGCwCOTyZBOp5Ut3Gg0qNVqjI2NcezYMQXjPvLII9x0003cfPPN/It/8S9U9qlE9aTakHTo0CEef/xx7rrrLoaHh1UlAKxCsrJ90FrWzLoY3Q2USBtXSqdpmpw9exaAkZER5b1JR0D+uFwB0j6OM1lWCnTDtfEJaTabCCEolUpUqhX27NnDuXPnOHcuSjSsVlcwDIOFhQXuuOMOAP7pP/2nTExMcMsttzA9PY1lWQwPD6tJ+NGPfsTk5CSPPvoovu9TLBY5d+4c2WwW13VZWIhqYY4ePcqePXvYt29fR7uJOFNfciJ6N2mahmVZahlnMhnOnYty5sbHx5XnFncu5EC642xx1CxOcYbL30mlUgqnzufyvOY1r+Fd73oX9933P1leXiaTSfEbv/Eb/Pt//+9VvWIYRmlbzWaT8fFxzp49yy233MLTTz9NMplkbm6OX/3VXyWXy6leI1ElbTTWZ555BoiE7eabb1YOkRSMuMMTh4q76RXzbpPokqwOqQ5k0oycvVwux5kzUZ+NOLAioxfdABJcuOalW5Ljj0ajQbFYJJFI0Gg2eP74JL/3e7/H1Vdfw1e/+lWOHHmWiYkJBRfIcUuQq1arMTQ0xPj4OI888givetWreNvb3sY999zDuXPnGBwcxHVd3vKWtyg4tVwuA3DllVeyY8eOjt4kcbpYGOySXPA49iDJtm2KxSJTU1NAlOshJySTyRCGIcvLyxSLUWwvnU6j67oCneI986LBrhYXaZqGbdts3boVz/MoFAoKh9A0jWKxyMLCAu9+97u58847eeihBzl+/Dgf//jHlXnXarUUgjg/P08ikeDGG29keHiY0dFRfvVXfxXXdenr66PZbKpIjdS3v/RLv6TutRsHl7yIxykvxPCX1Js0rl9l79HDhw8zMjLC2bNnmZiYUOiWLA9eK3wkdXCc4q9J81B2a5RhMWlmyoDuu9/9bk6fPq0mGaLYo67rFAoFwjCkVCpRr9d5+umn+bf/9t/yvve9j+XlZWVhSOyi2WySz+eVHZ1IJFRYTua2XApdko5ea4lLW3diYoKJiQnOnj1Lf38/2WyWer3O7OxsRwhJWh5xc1G+Fp84yWiZfRSPXieTyY6QlmQ+RFbP8PAw+XyefD5Pf38/fX195PN5hoaGSKVSZDIZCoUChw4d4j3veQ+zs7OkUikVTa9UKiSTSU6dOqUEY3k5SmgvlUqXzOR1M/pCYXWpp+v1ugrE1mo1pqamGBwcpNlscuzYMc6ePataWcrdPL5Tx0NK3fE7CdHK9yP0bfU60swUQjA9Pa28VQnYp9NpFRTwPE8l68jy5z179vC5z32OD37wg1SrVTRNY2xsjDNnzvDAAw9w6NAhDh06xJe//GUVdb9sjH6FXjqtu/X8WmpjVX2g7NaDBw9y/Phx3vWud6kcj0KhwPPPP8/S0hJ79+5VOzqsuvaaFrWmkCXSvu9y7Ngx5hfOMTDQz8DAgOr0dfjws1x11VWcnZ5r699SuweepnSwHE8+n1cBXZnF6jgOp0+fZnZ2lve+971cd911lEolhBD8+Mc/Zvfu3dx7770kk0nlAY6OjpJIJDh37pzyIi+FXrREx8NQKysravkPDg7yxBNP8Pjjj6PrOgMDAxiGQbVa7TAL5cYYj3LEkwclEJXJZFQqbqPRUN6hfE2qDukYySTH7rFKXKLVauH7vspJ+Tf/5t9w7NgxPvOZz/DpT3+aiYkJ7rjjDj7/+c+rvL+xsTEajYbq9Pti6EUxei2sI54f/epXv5qTJ0+qfOdGo0G9Xu8AiOLuedxklAk0cnOM6rTdjlbE6XS6I4YnUUXXdZWJViwWKRaLKvohrRZ5PYDrr7+eoaEh/uqv/oof/ehH/Mmf/AmTk5P89m//NqdOneLAgQNKt5dKJdXP+rIx+mLGeDKZpF6vq0SV2267jZmZGSYnJ1WIS+Ykd1sW0XMDCDs2MWntRUHZAN+PinhyuXxU+paMQl0yuSeZTCpnIq7mms2msu0BqtUquVyOVqtFubzIjh07GBzsxzA07r77Lu677z6eeuop3vve97KwsEAmkyGTyTA3N6fG82JoXYyOx+fi6Jv8v9l06OsboK9vgFqtgaYZXHPNtRw5cgzQabVchoZGGBgYIgyj+GCj0cIwLHTdVB0dXbelJiyfz7O4WEaEGnPnFlRgoV5rks8ViRojyhQFjSCIUgniAJZUJ5GVYUWhMUPD912q1RUKxRy6DnbCZGLrOKOjw0BIT08P4+PjFAoFNR7pVL3YEzQ25DCF+CzLtgxDQ0NkMhmy2Sy+H/WUk9InYUUpedJzk5lJEEni/Pw8S0tLuK5PKpVp9xSxsKyEsqu7UxcuRkpg2rWSaNJRWvXu4qtiPddcD71i3m0SbYhEa5qmdLHceHp7e1X2JkQtcuINVuNeoQSM4ocZSG+yWq0q7CHutMQhygtBkxeieI5ffDxy/LpunKfrX6pkbwijJUoHqIMMZK6zbCwrmSg3vLh5KM24eGwxnU6zf/9+VlZWVK2ibdsKDZRddWXIbL2MiGcbxeOVcp4i1aFvuOrYMEbLSLlM5ZXMkZHlcrmspE+aZqvOiqYYJidM13XGxsYoFovq84lEQoFEMoh6qYyG1Wi1ZLQcg/xdIejY+DeERxtxERmeitu2coOU6FpckqWVYdu2Uh8SoZN2dBwTkatBmn7dE3QpzIirjbWqquKf6ba01vrsemlDJNr3fSXREi+WyYhSFcjmI9VqVbnDUm3IqHbccUmlUriui2maCkSSakSCRM1mU/XnaDQal6Q+usGteGwyDM9//6XSK1bHJtGGMFpGXuTsy//jAVoJ7qysrKg2x1JdWJal0gOq1arChaXDUa/XmZ+fV9lCssBISrGU+PVSd1htrffj+hteRlaHHNRaJ7ZJzLpYLDIwMEC9Xufw4cOcOnWK3t5e9uzZgxBR4rls3lqr1Th58qRKZLniiivI5XJKJ6dSKXbs2EEQBDSbTdXXv5tJqxj3avPDVCrFsWPHuOuuuxSal06lcFwHEWrqHAPo3CRfCm3aMXsSopTPr7/+enbv3q02S1lXLjGJTCbD7t27VWxRJo9L6oZqgQ59e6EAqmyX3Gq11CmhUjgSdtRB+Nix42Sz2Y5DGWQiPKwmzFwKbaqOdhyHarWq4of5fF61mshkMh0ooG3bZDIZ1eNUUpyJ3SVs0i5fyxqRn5PfkTl30pxstqL2FYZhMDMzo5oLxFXMSzlgeFMZLYH0ePgpXqUlGRw/2c11XRzHWRPMubCauLBHF8+GkkWphmGoPcLzPPL5PJlMRkGu0lS9VFMyTpvG6DijpO0MqGLOeGaqZIR0RGQhqPwudJpocYm+2ENGzzOZzGqHSN1QkfTnn3+eiYkJde6tjIXKVfhi6RXzbpNo0zZD6SrHzbZ4ArfESGT0Q7r1q303Lqw61rIIzlcfq8teJjPK6rEgDEgmkriey/T0NDt27FKRfUlyjPFcwkuhTZNoqQulHl7r2NE4GhenIAjWLBuOb4awdq71WptkEAQMDQ0pfV2v1wnCgFOnTkU9qvWo3HitTfhS7PU4bZpESzs5LsnSXDJNM2o52Ta9JEnpMQxDWSdrXTf+fK3cE2lHxzez0ZFxLNsgncq2Gwl4TE5OcvNNr1YTKMcFq+UlcTznUmjTTrrfCIoXYcq6EpnOK5PP45W3gNpkpfXQarVwHKcd3/TIZHJkMpEdv7CwwMTENvVdGRGSJIXlxZxa8XPFaJlOIEGrRqPB7Owsuq5HpxS1gSxYRQ+7zwyQ6qDZbFKr1VRHAhnCkj2eUqmU6hEi6aVAp69YHZtEm6ajLwdJG9dxHGq1GrlcTul5KdmNRlSNK914iGrVZQAhnU53qIKlpSV1DQmIwWrE/VLDZpJ+rlRHXEfLKHgYhrRaLZrNJk8//TTDw8Ns2bKlo5gnnpBTq9XaVblRCq/MDpWmp0wtiINj8hrxDKtLpUs+6f4VenH0io7eJHqF0ZtErzB6k+gVRm8SvcLoTaJXGL1J9AqjN4leFoz2PE+VPEiSZwbESbbrjLdhk5WtL3d6WTgsEmuOJz3GSUbCARU4eLGnGf+s6GXB6DjFkw9bragCQLbNlDi2bAEnY4Yvpf5vs+hlweh4ZGStsFQ80t0t7RuZH3c56WWB3slyY5kUKUNXsgA+LsmyV7RE0tYKfb0c6WUh0fEcOimxEpiX9S2pVEoV8MOldSN/OdDLgtGSyuUyp06dYn5+Xj1//vnnyeVyFItFrrjiCvbu3cvExIRKMYtX4b6c6WWhOqJExTpHjhzh4MFHEULjiiu2sm/fPvL5LCdOnGJubradzGgxMDBAqVQA9BddYLnZ9LJQbiL0QQQMDw0wONDH44cO8j/v/y7lpQVazTq16grVyjJX7t7Jq191E/19PUBIGHiEgbdmyphMmHy5TMSmSHSr1Tpv41qtI/FJJZNkczmy2Sxzc7MMDQ1w4sQJDh06SCKRYGFhjr1797J//752Wm+I194U7URC3UZ3b76X0ya5KTq6u8yscwMLmTt3joHBfgLfp1Kp8Nxzz/HjH/+YlZUVVddyww03cOutt1KIdX9pySRE6/zDGmVqgCwm/VnTpkh0XIqleSYTY3QdBgYHgVCdhrF9+3Yg2hwXFhZURxmZiNhsNEil0yRTKVzHUT3549lQ0oqJZ6b+LGlTGN1sNlUJRbyoM0rb9Th54gSnT0fntPi+r05FnpiYUL03FhYWGB0dJZ/Pc/DgQdLpNLt27Yp6HbUTXeKm36UcGLYZtCmMlqF7mQBTqVRYWFho16Ws8PRTT3Hs2BGq1aqq1rr22msZHBzk9OnTBEHAyZMnqVSiE44feeQRNE1j586d5PN5+voH6enpY2RkhP7+fnW+izxv4OWgOjbNjm40Gpw6dYpjx45x/PhxpqamWFxcpNmsY1sW1Wp0Dqw8D3FoaEh1hLn++ut54oknlNqRxUSrNrROb28vO3fuZN++fVx11VWMj4+TWLd9ffk3zU1h9MzMDCdPnuTgwYM89dRTKo2rWCxSKOQoFgps2RJVyY6NjdHb26uSYmZmZqjXIxv7qaeeYmZmhlKphO/7zM7Otg9Ejwp+DMNQx/cdOHCAXbt2USqVyFwUdHqZMDremRFQ5RByUzNNUyWe6LquCi0bjQaPP/443/ve9zh37hyLi4uqB92WLVu49tpr2bt3D8VCAV1HJSJ216jIdhJPPPEEP/7xj5mcnFTmYbVaRYhVrAQi4GlwcJADBw5w3XXX8frXv55sLkfQrkGRKyORTEavrXG21UbTuiU6nnYrd/Y4yQ1P7vJTU1M8+OCDfOtb31ImXSKRYHh4mP3793Pddde1D4rU0YgaYHUXAklGW+1rLpfLPPXUU/z4xz/m8OHDLC8vA7CwsKQOCZPjNE2TgYEBRkZGuOWWW7j11luj8xANg7D9OcM0CYMA3bj82PYltcyUWflhGKpqJkDdmG3bBEHA6dOnOXjwII8//rjqJyqEYGJigttvv51rrrlGXcuyLFrNJvFW8/EaP03TqKysYJommUyGvXv3qt5JU1NTUa24aVGtVlV2KIGG7zoszp2jWavSqFYwEASuw/bt27GSSULP7zwl+TLTuhgtmwNC56mW8cJ6iEJNjzzyCA8++CBPPvkkzWaTUqmEZVkMDg5y4403cu2115JOp2k0Gu32Elb7+52d0rUocxyAfKGA147C9PT0cN111yFEdDjw9PS0qkHsPi1Ijn1ubo7vfve7nD59mje96U28+rWvjdSh56FbZtR85jJbgOtidHeOcDw5u9VqtfWk4NixYzz88MMcOXIEx3HIZrMUCgX6+/u59dZbOXDggCqmlI2mWq1GZDmI1arXuNoQQpBqnyngOA4APb297N+/n2q1ytLSEoG7qtJkrDEeg3RdV3VDz2az3HDDDVEZdbsMbzM89XUzuru1Qrlc5tlnn+XIkSM8++yzqnNBrVZTrSrlqW179+5laGhIJYrHk7mFEIgwOmFI03UMXUdNa3v7aDYayuGR1N/fz9atW5mbm+P0yVOqslV2I0skEqoVmzxk0jRNFhcXI3XW0wOahlNvkspZXG7L45J6/APK2ZienubIkSM8//zzmKapTrAvFosqr1g2Ojl+/DiLi4ucPHmSLVu2qO5bUd8Ou30ImOjYZOOVrrBabx4dUOOq1hOjo6MsLcxjWya2ZZLNpFX5RKPRwHEcekpFkslkVAuTTJBM2CBC0F5mOloy2vd9ZmZmOHXqFK7rsm3bNvbs2cPZs2d58sknOX78OP19PSo0Jc29ykqZbdu2EfgulaV5crmc6nbQarWidpWEIDSC0Md1PFzPoelEZ2xVKlWECAmCEBBkszkKuSy+F+A5LcZGopOdM5kMlmXRaDSYnJzk8FNPc/zkCUr5ArVaTXmMyXSaIPAxDJtUbnMCu+titHRnDcNg586dpFIpjhw5ohpOaW1suJDP0qxV1fGgjcpyZDMP9XHF2BC7t0/QWyqqlmwaIWE66o1UbzY4dvQ4X/v63+G5AQEBLddD12FwcJizZ6eYn18kDH1KpV7+nw99kJGhYRIJC9u2lV3farU4deIE1ZUyleUVdAGL8wsk0ymMZIpsNkej3sBOJQmFwHW86Iyti1C9XieTyVCpVFQzFqkCZQFRvBGMfC4NiXWbd/F+SPl8nr6+PtXJS96g04jaYpqGTuB7EPokbRPPaeG7DsJ30AhJGBq2bWLoRM5GEIIX4LQarJSXqVarNL2oTaZhmWzZsgXHcVhYmIvOkm00WVlZob+3F8ton70VeAS+wG21cJrth+PgNFv09vYyPDRMpVajXC5HN25Z+H5Ion3GOZzfMUH+dV1XIYcyWCydI4mnFAqFNcEr1cNkPUzu7j0km16HYUi5XO4YmJwM13URga+ac3fXbZumiWXqgI7mrXYHi1pZlqk2o9qTVCZNMpPGDXxqtRqNRgPbtFSnAdM0CbX2tX2XIPDwfRfCAI0QREAum8YwNQxDJ5NJ4/kuemBQrUXnraRT2fb9yTvWOv7qmsVyeVGddOG6LmfPnm1DCAUGh0ZULxFJ3ekR69oN4gUzsudFqVQim80qjDmdTpPNZtUMxntnSOSu23yTG6b8nHz4YZRuEIhQueQyaUbqWdnlxvM8TE3HoN1lzHEJvNVO6bKTwkp5GUPTGR0aRhOgaxrFfJ50Ko3vOQS+C34QhdVCAYTt5o7REX5zc7M8/IOHmJo6zbmzMzz00IM898xhPM+LTMw2LNu9GiTz133gjeyOKwt20uk0uVxOdQnIZrPUs1nm5+dVOzadVQmWMTzP8/CtSCI1dMIQXC9Uhx7IzziOg2lbhFqk7xqNBo7vYRummrDo9RphaOM0W9RrNaqVZeqNKr7bgtBHBB61yjIT27ZxZvosBx97lF17djEyNto+aHI1hUETGujRX6EJ9TfwAhbn5wh8F8vQcVyHqdOTFLM53PbKi3dkkMIRN2Mv6WQhyWz5PJ/PMzg4yLOHjQ5ACRHlxmkiUHasTH5xXRe/7aobOqqZq+N7OJ6L67c/53ugR4OUG00QBPi6Tst1FO4CGp7j4rgtmu3jmlr1htocpVTdduutfO8fHuTk8yc4NzNDX18fMzMzDA6GeE5nC4u4moOoKHSgr5/9+69BBCHl8hLTZ6bo7+1jcnKS0S0TiqEvidFxOzruJWYyGQYHBxkfHyeXyyk3OJmIIh6Bt+qmy6hHvMNBEESMNtpSKns1y/elvjdMM/KStdWjnvwwQGia7N3avr6P6zp4nosQIToCTUS5eTt27CCbz3Pk2FHq9TpnzpyhXq+zsrICoUDn/KZW8u9KeTE6Us/QmJqaxtB1cpkUvaUC+Vy2w9qIDsBMqFV8SZuh67odURJJlmWRz+fZunUruVxOFcnHGwLG43hy8HLZ65rADwSGZeKHUSMSx3Fw5CE5uqaakshWmeepocAlaZkdr0kVFO9uc+rUKfbt3086m+E//+mfceLUKZLpdtdJ3VCrtLsbghSuePHnLbfcokC0TCZDKETH/UFnK2hN09bH6BfKBJLY77Zt2/jefat12pJB8jPxH5XSrWsCXTdVPbaSoJUVCqViVOmqacoW1Q2DZqtFuqeHWrOBYZl4voPruu2u6w0cxyUIQoSAEA10g0qlwokTJxgeHcf3I7WWy+Wwk6koSzUM1KTICYpLtnxPrrDHHnsMQHV6T2Si4lHp6ktJlhbXuhl9MZINWeM9R+MtICTFXer48gyCUKmDQIhINxs6Wluq4jcfz9eQ2IbwPZqNFs226+0GPkGwyqhyuczh547io5HKpCn29NE/PLJ65gAaIljdiOUqiEundErkuTDlclnhJnb64t7lhjBaNmSVvUbj0Y5ulRHvCRrdyPm6W96cXMKu7+EF0YYll7HsedRsuTitBs16g3qzFf3v+niBIBAagdDoHxhCNyxmZuco9fWy56q9DAwPtSVPI20nlDpbS6Kl7SyRy9nZWY49f5J606FWb5DvOf9UpMvCaBlZkYyODzhug8eTzFcf0f8hnehg9+TEUT8hhOoe5rouzZZLw2nRdDxcP8APBYEICYWGQKe8XMFOLbJYWaHWanHVvl500yBwwU4maNSbEdYSQkiIhoZmaOhtc6/VclgsL7JSXqFvoA/QcDyXVsvpKPVYyzO8JKvjYiR3XcuyzmN0XDriUqtMKRGCvrpxdLwXhnjB6jIWGggNHNel0WxSbzVxfA8vDPADQSDADyFoMxg9ehiWhWZYpNIZBoZHuOHGm+gf7Gu3tE/gtRwgRBc6oRb9FbrAwCDUQnzH5+DjB3nu2WO0fI+eQg9WIkmh2EOpr59gje4/cdNuwxjdrY/lphJfQnHJ7JRqgIjRfhgSSAmPSb2UGjlw2X2mVqtFv+WFuH6IF4SEInLsQk0j1EBoBl4gqDcbJLM5CsUetu/cQU9vH64XXTeTSAIX6JUkBGgac4sLOP4D1GoNstk89XqT+aVFTp8+za7de85j7GVhdNzNDoIA3/M6GgbKH+6OnESvCYKQDumHVW9U0zRqzcgrlP97nketVosiO6FGCDieh+sFuEEYOUFKqg0SqTS6aVMq9dLb208uGx3YYFk2EfAKWhcasarCNEQo0HQTgY5pJcjmCqQzORLJNJpurquh1cYwWjfRdB2hR4C/H7Rdb8NSURFl3kl9RogQGmiC0I9Sw0QQYQ2apqHHN8NmKwqmAoam4wQeTru3KEJHM4zIfvYdfN/FF/HVFOIGLhlNI1/MkUolaDQaGL61eoqcCNA5vxmhJCkwvu9Tq1WoLEdpxIV8VoXgujfAbqxjQ0IMmm6SSGY5N7eEMGwy+QKOG+HXXlu64z8a+C6h7yICDxH4EPpYho7rthAiaKceCBK2GVkUjRrpVILA82k2GuRzOc6cmmRqcgpNCFqNBoHnQRgSBD5hGKBbOhjgBi5CBCSSFgnbZGV5iVIxTyGTBt/D1jUsw+xIjlT3pQk0TSBCnzDwSCaia9imjm3oBG5kWvqe02F2yufSTNwQRgsgCASaaTE6NoZm6NEJ96aFphtohkWIhhABwl8tWQvDEBGEEIb4ftuT89q5GaGAsN1+3o/MuAiEaqsgz1dYc6PRQBMBQegRhB6h8Nv2dQvf99C0qE4xOuwmYqYIfSDE0OGCujkuSBK3CKN78LxoPIiwQ93FP9+9Mjasx79hGOzatUvZuDKKEj/9PW6NeEFAIEK8QJznNguxag4GQUC1UsdzVw9M8P2QZtNRejp6bXUDlriJPBCn1Wp1QKzdmVfr4HSH5SQj7PL/bmxk9WsbzGi55MbGxtAwcH2vIyUhkggNX0jmiWjDCjpLIOKDjrvqlUpFpRpIrEP2+K/VapHF0r5GfGOWkyWvFcenAXTDUJH2i1HchpcrTKKZazkocqyKRy+Ks10kb0w2t46jVhJYkkxzA5+gbcatMr7TvtY00FgNFtTr9QgWxUDXViFIeWye4zgdqJ+8SRmUiEc/uptPXYhJL3Sf8aaF66WXzGiNaNOQKN3AwEAEpohIatH0tisMnh/i+wGeF9m+nh89/Bg+AlFIKe66x72veH2KXMZSquUGJIuHJHOHhoYULq42vC6r4GIUx1nkypHYzoWuEZ/EDdPRCTPaaLprALtzPBzXxfE93CBQD6lOIiAobvRr7f91NG0VotXQQWj4fqAyk2zbVjXhjUZD4cLZbJbh4WEVyZcmo2LCOhkdryCQK09epyONLUZxs29DD7yRkGkymSQMIUC0Zx28QOCHAt8PI3c5Dkv65wNOcqDSI1zrJmQpcxBECenZbFaF+KO8vgT5fJ5SqaRKnyVDLkVlQGfBU7d6uhCDN5zRCqs1NEaGB8lkMnieRy6Xo95q4rY3rqbjIbTIW3O9ANcLCMLVbgWu6yNCDdtK4vsh1UqdVtNVx596no9pRp0bpccpz+ouFAoMDQ0xNTWlkD3DMLj11ltJtlMKpOPRPaEXIxGuRukzmUzHoe7j4+Ns27ZNtcKQKJ/U4cq23ghGW5alwPlUKsXWrVuVtNp2dDS0aUXInhcInJaHHwpCVi2IuGMjNzFpVcD5faBVpMaPvpPP59Vx2WEYsnPnTq6++mp6enrWXBGrXLy4ZMelUwL6MgiQy+WU2RgfZ/y7sEEuuGXq+F4kQblcjr179/L444+rpSqtAtu2abSihHXDttBNGxG0Yc0gDo9q+H5Iq72pWYkEmqaj63JDMgGdwJdtM6Nqr1wux5VXXkk2k2fLli1AJ2Yib3y9G2A3yT1HwsGmaVIqlaLoT8wr7E47iIILG0DS4nAch0wmw8TEBDt27MCyLOr1utKnpmmSTKQwjGh+wzCk1XQ79HM8t1lKEHR2S5eMkjZ4Pp9XDslNN93Eddddp5Lf4y2L4xRn/EXvL9YMNh5sNgzjvDO+JHVjHRsi0UJEm1Gz2STXLjW+/vrraTXrUTzQis4htJIpSn296AI03cAPQuqtJno7YcZzVw/1hSg6rus6IXLQBtFBwF7Hch4aGlJ519lsFt8LFYQqN8ju4Gl87OuRb+kwSetFCNE+x3w1rigtknj4bsMZLUF/+cM7d+6kvLTA4uIi1WqVSqVCb29vtOyDyNGIBu0j3GizjDCJtqcV04lCRJIuWFsCpdqQZmSr1egIQsQzpboZsF7rQ3Zfl2e2WJZFsVhUhoDcM+I8iaupDT0rK5fLqV03k8mwf/9+5ubmmJ+fV5taIpGg2QypNiLb1w8CfMdpS/NqACEklh+tdQ6+07ZerciVlQStZhRVd11XnbVyqYyNk9sOxsYzRFOpFP39/QCqocta4D+wcVFw6S3l83nOnTvX9to8tm7dSqFQYGJignQ6yfj4OENDA8zNzVEuL+L7kX6O4ns+6O1zEEWoKqcCEWLoRnRctZBBg4AIdYsQuFKphBYK6pUq2WwW0QatNBHlCTYazXV5b50Uqr9eq0mzVlXqIQiig9zzxYLaFC9k60tGb1DKe4htm9TrVRmmwzRNarUaqVSCUqnATTcdYMvoCPVqBUODdDKB22oSBi51p4qHjy98mk6LRqsFehTNkJEN1/eiusC2J1mrVUimbBIJm4G+XmqVKqlEEs9xSdoJDE0j8PyI6S2HpGVTrVY7NjOEwLSsKMJOBPlGZqaP7zn4TgMQ+F6LaqUMIsrCCkVAOpOiWCjhi5BMNquOgJJOjHTgpOW14bXgHTMrgvbyblsmpt5G0KJD0zUR4ode+8YDQgQBAVJXhAg0Ijdc01ZPTrZts31D0WFmZswy0TSNoJ2roes6+gU8S01brfrSMKJTwsMA3dTQtbYJ6WsgQlpOA8dttrNlWS0hsa32/dgdlsdae8GGSHR8icSdiniKlYQoZbRcenZyA5SSGh+cJIkGSuBJenpBEKhT2uJmYHwscdh0LUYAGEaEm0TZUzGWtL8jLZj+/n40LWpfPzo6qk62iNvR3WGtDWV0nOLoWnwTir8m89YkKB/Hk+MbSoeOazM6DlQBqkd/3EGI36zUoWvlxsWpA7MQAr8dGsP3VVvOwcHBKBvW9xkdHe04Rjse4Oj+fbiMEh2X6vgPxjEHCV1Kx6NbouMR8fhr0gRMJBIUCoWO17urC7oxhxeyOuKH6QghoD2hs7OzWJZFNptlcXER27bp7e0FolILaUpKipuSG2rexX8gHqSkzdQwXPXwoo0iOtdbZp3Goyxruchyg5GOhyyJjp86Ef1c5/mG8u9aDkv8N8JQOi4atM1K27aA6Lzb6elpVbsyNTVFb2+vOmqkUCh0SHN3rPCySnS3VMdjh1LfJpNJpeOkvl1LouXgpQsv7eNkMsng4KDS0d2P+HjWahLQPf7zdLimQRhy5swZ5ufnyefzAJw7d47x8XEymQy2bStbOj7W7mj6hjE6TmvdbHcoXyJg8mCZC+m1OMkJkitA1tHIjjVrMXutvWIt0vXV8QpWPbxGrcaZM2doNiOLQ9MiCR8cHCSVSkWqq91M64XGDhscnJU/2L3zxtNgpfTGdWy9XlelzVKlSEtEWitCCFVy3Gg06OnpYXx8XOVgr6XD48mR+Xxena8lTbtQrSA6ujXIayWTSb71rW/RaDQYGhri0KFDlEoldXpz/FCdDpW5Bm1qJ8fugcgmrzJpXWaH6ppQlknUDDayUKrVKr7v09fXx7Zt2ygUCm3dvTYyJ5+/IB4dGwus4jaiXSUAsHv3blqtFsePH2dwcLBdWp2MOuF4HqZ1cTZuSjF0XHfF43Uy1ASolmrJmPcnUwPkcxnmHx4eZmxsTOl3SWvp5257fi0Kw3ZBUtj24trnbz3xxBNYlkVfXx/T09MsLS2xZ88e5Q/09PSsGzvZFEZ337BUIbZtk8/nSSQSKjSUy+XQdT3K5G+rF0BFMUqlkpLmKIJjr/lbazG6mySTwjBE11DRbUA1OszlclSrVY4dO8bWrVvZuXOnYrSdSKy7M/umMbr7uXQ8UqkUExMTbVSvqRguJ0NupDImNzo6ypVXXqmkSdqwa6mLuC3/Qghex6pou/8zMzMsLi7S29tLs9mkXC5zww03kEwmMU2TouwoeRGVJGlTGN1tw8Y3S8Mw2LFjB2NjYxiGoXBflenZdmRarRa2bTM2NqZaUcAqIA8Xlub1WB7y+wCNep0TJ06g6zqlUknp47GxMWq1mmpf0b6Z9fFg/ex68RQHxuPMlh5cMplU/epkcbvcnCQ0OTAwwDXXXMNVV11FPp9XkxW3FiRdTHWcj3UY6q9AsLS0xPHjx0mn0yrqLWOQ0vrJx3qkrosHl/TpF0ndpl/8eRhE+nD79p0cuPF6RgaHMAwdEYRRrjQhmVSSK3ft5HWvex3X7NuninfiXcnk76wltd1emqRoLHoE7dIWiCCkWq9w7tw5kukEpm0wt3COvv5+mk6DVCYd/aam47k+aOs7lH1DE2jiNm18o4pHTrqRPYBcOoMuYM+u3dz9tjvZv/cq8H2MIGS0f4A33Po6bvvFX2D7xBZCz1VqxLRsZWt3Oy3dDO323GgzFgGtpoMG1Ks1DEPjqaeeRDNDhkYHmFs6x9JKmf7hPuxUEjfwGRoZBXQsO7luFm5YacVaz9fzeaCdJy1IJZJsGRvllle9irGREYQQFAoFduy6klKpRCKR6IgBhmGI0CBqq3bhhBhp6ch69O603WazSSoVxR2nz04yMzPN0NAAdtLmyNFnGRkbRjcMrIRGoVgklUkjGew4HonExS2PDXNY1svs6L02+NJ+LQ4o9fT0cM0117Bt2zZl3tnJtEqq0TSto1x6PTnOcjXJyZGYSoRnCNUkNgxDVlZWcF2fRDLBwsIi1UqdbVu3t2OPFtls/ryU5PXQhkp0HB68lO/F03ql0yLVj/yM67qEIkrJko2oXig3uZtSqRQBq9eOUzJp43lR9Hxubo7l5WX6+osIEaheqY1Gk2w21eF2A9j2+li4YYy+kG58wc+ziilIigrpO9s4JNvdAkSbUTIYLIRYV6MvIQTZbJZUNqccovYbgEYQCCzLwPMMFuaXWFlZYXzLMLZtkkwmsSwbw3Dp7++P2iabifb4tPPc/wvRhjN6bWfgApaAaGPNbUmOT5Qs3JebnGmahIKOBEbLsrATVlTF+QIkTTLNtFRjw+6xyIzUa665hkazimFolJcXsSyL5eVK5JUWe5Wa0XWdVstF1+11+SwbrqMvBuBE73d+p7vIs9vBaLW7H4CmujOqTmPr3Hx1PSrijye8055sXQfH8TEMjV27dpEvZDlz5jQnThwnk00RBhHAXyr1EgQheptrkRWzPv78zM5hiUt0PPkkYvBqRn/UpKodY9QN5cBIwKleb5GxX7ght1xpfqzxiiRBgAhNEomoXx7Y5LIFDtx4Ezt27GBlpYznBRQKBfp6+3FdH88LsCy94zoXow1LCYtLp7y5C6kS0a660mTSfTt1V8b3wrbkyvyIkCh8FYrVfiDSTk+n0wjv/BuOS7rsKBaGqx3KhEQFLUspNqkWTDMDhJSKPZSKJeKqL/INIh2fza6/pf3L4mQh5SWq4nq9Q8JfKGc8ivWdf63OuGHb5hYXj4SsktxlwzVeu3R6WTBaLW3ZEUGs1owYhoHe1bE8PjG60KKESDrLGToiLRIOFefnXaxNcQdI73r9xdHLgtHxrgiO40Q9N2I1g/liD2tZL6vMFirWt1baQdjmaxCKjo3whaU6LtEvHal4WTBakvTa4sWZsLY9LhmqhaAJlESvyey2JHcwet20Mbjby4LR8YQXQFkVMlquGN0FdcbVR1x1rCXRYRgqRq9fT28cvSxO7epONehG+LoTYtbSw2s9zmP4BauxQtZTfP9SvneZGS0v3y05XU1I2iVx6AZCa2cuhaHqLAMXVh/x592P+GfWSoPYTNqgVj+QSKTwvABdNwgCoTruRsHLyBuUFa8i6skN4SpGrBkWhpVADwQGOrpN1CtU09CNqGV92Pbq4h6hAAiDyPGQmLMIIFzt6SSxkzAMIfDXkOoXK2/r/96G49Gdg4jXdER6VH02ApLbF9DRdAPdMDEtG91YrdmLvnthaZYOULz8Iv4ZiQp2Jz9uNl0WPFpSPKqx1nvy1Xhtdcfm13WdtdSBpp3/GT+McCapp2WxqGT6z2Iz3HA8+mKYdLfEAZ1AT9dn10YDY+9FFRIddnT3Rijdefn851qiu2nNjYkLBUjPpzij1uptuhajA6Hhh6vf9YPIpFO6WoAfc8OjwOrmSPWG4tHrJXWjMbs5Hlxdr+oAEO0uClpbV1/QaYnZ0z8Luux2dPfyv5ha6d6wulMVLmTCBSLWDVJE7ra6nqYTEFsJUXLB5bvpNWjDM/6BNSVP/r+W6ghipRVrdd26qM5fw1aOPzom66Xd4oumDcv4931f5R/LHsqNRkOVJHTfeDyCIsH4td7r3vziGx6gYol+EOL5AZ6/WoGrmZaqQy8UCgh0hNCiviDASqW2aYzfMB2dyWTIZDKUy2U8z4tyMPxkx5ngpr7KRKkiXihK0a0e5HP53XjKl6R4arDvRB15E4kEtXpdVffKEzujs7sE5joDrC+FNoTR8gYGBgaYnZ1lZWVFnb4j7VjDMBB6p7TqWnSzrtd5mAFcXCdL6Y4Cq4Hq2RSGYWRdhKtnwlRr0ZF+/f2DbLtiB6lUlAq82jHs8jN6Q1SHTAUbHh6mv78fIQS1Wk01i5JInBBCZfbHO85IWssG7gaN4p+V7zebTRWukrFGWT0gJ6G/v5/rb7iBPXv2AOC6spX85myKG9aoG1CnQ2QyGZaWlmg2arRaLTKZTATis1oCJ50HGStc6yE/90KNR4QQYJiY7brF0HHwG9F5hkEYqZLdu3czMTHB1fv2k8mkaDiRA5NObd7h7Bt2inJcelutFrOzs0ydmWRhYUFJW8KMsj9l8Y/vRVWoMl8jXlQUl+i4kxLPeVY3YUaHFshDLB3HIZVKMTA4TG9vL1dddRWFQoFkOyW41nRJJGwMPTIDbf3nREfDan9SQCVqJ2yTbPu0Idd18V2no0coyLSDF4Y74+qj2zMUQhD6q6dOJJNJ+voHGRkZYevWrQwMDCgGR+MUisnq9zeBNkSi46VqMhkxkUhgGBpOq8Xy8jILCwvMzMxQqSyjhRqm2SmVbuATeiG+8CGAgADhi6gXtB91PdBCDaELLN1C6AIt1AiI9oNMJkN/fz+jo6MMDY/S09OjUs0cdzUsZlmRMDh+QOiFpFLWpjjhm3bSved5NBoNVlbKlBeXWVyaZ2VlhWazGW2UgAggEL76S6gREnT8RReYuoVh6dhmAt00uOaaa8jlchSLRVUxEO+8uKaOZ7NQjog2jdFx8n0/albVdlRka+JunEKqhnips6w/TLQromSAQb4mqduF/1nTpjBaOi3xLgOXQvLA3riEXoiB3WbgpQJel4t+JhINq3pdCNFRh7IWztHddCTeClkIoVx+iTXremevu5cDo18WUfD/Hej/B1IArAL+J+7TAAAAAElFTkSuQmCC'</t>
+  </si>
+  <si>
     <t>b'iVBORw0KGgoAAAANSUhEUgAAAHgAAAB5CAIAAAB9WnIgAAAqUUlEQVR4nO19648cN5JnBMl81bsfktp6WOPn2Lr1zuzM4HADDHY/DQb7H86fcYf7eDjs4fYOC2N3sRjP2POQx5ZlWZZa/a5XZpKMuA9RyWZnVbW6W23LHy4kFKqzMpnkj8F4MUgiM8NrIm4IGwKAuq7TNJVfiUhrDQBEFG6TZ+WL3KOU8t4757TWSZIAgHPOGPO62rWS8HUBXde1UkprHbADAEETGgQBQCklf4Yv3nv5SWqeZVnrWSLy3gviPxx6bUATUcyh0LCt1tp7L1/iX+u6lvtb11sUD5HvtgGXpNc2voRDnXPCrYhIRMKqIg0EKeFfREySJPC1POicA4AkSeQGETLee0QMt/1w6LVxdBACSqkgT2M2F+khNwjugdMBQFDWWiulgtCAqGN+aDL6tdXGWqu1Fr0HjYRVSllrBSNrLQCEG4QERLlfUIZIMQpfSyHfc3NeSq9TdAhvjsfjg4ODsizzPO/1erPZrCgKACjLEgCMMePxeHd3d3Nzk4iSJOl0Okqpsiy991rrTqfDzGVZVlXV7XZv3LiR5/kPTRPC61WGgtejR48+//zzk5OT0Wh08+ZNZu52u0Q0Ho+ttfP5/OHDh5999pn3vtfr3bt37+23397e3tZaC1PP53Pn3NHR0Ww2u3HjxoMHD+7cufMDlNGvjaPrus7znIiOjo52d3cBoNfr3bp1a2trazab9Xq9/f19RNzd3f3mm28ePny4v7//7rvvvv/++3fv3r179+7e3t7Ozk5VVdbak5OTw8PDFy9eiMxRSv0A7ejXVhuRG3Vdi1oDgKqqxuOxmBNB9c3nczGKRXaL/BVJ7Zwry9I5J5afSIxguvzQ6LUBLRyXZdnNmzcFuM3NzeFw2Ol0rLXyOR6Pj46OiGgwGAwGg52dnW63W1UVEaVpaowRdaqUunv37mg0Go1G/X5frJTX1a519NqAFve6KIr79+/v7OwgYsDOWht4czQaDQYDRPzXf/3Xn/3sZ2+++WaSJP1+v9frDQaDbrcLAN777e1tQb/T6byuFp1Prw3o4FlkWRa70d57iGy1JEk2Njbm8/lf//rXe/fujUaj6XSaZZmYdEqpZQNDZM7/l9ELEoBCtEguigkkP6VpmiSJQCkSOc9ziR+FZ8N3eTD436IAflD02mSZeICxPG3FMZxzIrtFCouzPp1Oj4+PRX+KAgwFxm7k99+cl9Jr4+iqslprYxQgIqDzBMBaIypFwPsv9nb3Xuy/2Hv0+Kv9/f3fffKHZ892n3zzbV1V3zx9+qMfvd3r9ztFMRgOEVFrBERGANCMQATEzuirN+27CEdhXdfBl4Uo2AhRtCHwGjMT+Di6JmNWAg7yXSsNAMTEzEoZdkh0KiKY2TOJ4pLCPbNG9MzOOU/uxYvnw+Hwv//X//Y//9c/jfqDJ98+3RgM57U93Ns3WZoo7Zh6Ref9Dz/45X/+L++8996bP3oTkJgQFSNoVKzQoGLvGJCAVeuT2WqttdZKGQYEQAZgBmtdJzUM4CzliQIAJgCA6xoeGKSb9z4oKPG7oJF9IR7GzIDoaQE0M9d1Xdc1EXW7XXHSBHT5kqWFq8n70yCyUgqbyBwRuUVXUtMBLs9SpeDx48eff/75ixcvHj9+/M477x0cHHzyu99/9NFH1trDw8P33nvvwYMHN27cunlz23pLqzhwtZhGynPD4JmQmYm1SHUAyLI8TVPlmYgSROccsM/zvCiyawF6Mb7iiIxgKqDHIUeB769fPBJxmaZplmXC10opZ6mua2YW3eU9gwaJDGsNWpvg6xMwAE+nUwDwzUWllDFKqRyBx+OTd99995133vnjH/9469atDz548Ic//OHTP3z24x//WGu9v7//i1/84v79+wcHR5PJBBSgOg1AyygMw2uJiGzK4D0jAAAmSilEjYhPnz4FAOUZEdnayWSSJvrWrVv379+7HqCF0VoxXDGPhM1liqiJk+knT56Ox+PxeOKc1dqkaZJleZaleV5orbQ2iACAzOQ9ee/Zk9baGCPOnrW2dpaIRI/5BhcAQK20Vv1eb3//xbNnz6qq+vbbb8uynEwmx8fHRVEcHx8bY05OTv70pz/t7u7O5xUiW1eihkSnOlEKNChmDwSeHDMSsmp9ao3EToBmMADQSDaoqoprp7Wuq3JyfLIxGlhrrw3oIF5POY5IGBMAVEMA4Jyra2ets9bVlbOuRvDeewSjta5K2+t38qyjNORZpz/oapXUtkxNIrKIiMS9JuDwlto5a21d19ZaR57I7+7uzmaT3//+9//8z/+8t7dX1/X9+2+9ePGinFeffvqphEe89/fv3/+7v/v5nTtv3Li5aRLIk9xkJjMZGtSgCalX9AhJsWp9mlQTUe3IWlvVNJ/Pp9N5WZbT6cw5R9YK26VFvrW9/eb9+9eCMojoEM4NxpbAure3l+e5xCQB4PDw8MmTJ7u7e7/97W+998DKJCpLi6KT9bqDTje/d/d+XqRF3k0z0+sORhuDIu8CUpakYUCIZE/zLE3Tw8ND6V2JYGity7qylnq93u3bO0mSPHz4UCn19OnT3d1dcRH39vaKohgMBuPx2Bizvb1969atQT8zRokcE9NbXjefzzVoAGh9vth94ch7x7V3VeUn0+nJyWQ2m9W1rarKW5cnqdHKGJOmaWw+virQwlkyhRH0mHNue3vbWvv8+fOvv/764cOHn3zyye9+97tHjx4Dip5ERGAGpbAoOt1u52P1sXM2y/LhcKC1mc2m3lOapqlJut3uaDTq9XpZliVJkuZZkiRFUTAzKCXQOOem89lsNt3f2wMgMZk7nU632wVQYvlsbW0JgnmeF0Wxv7/vve0U2mg2xiQNSc+t9AwZoDvoMwITGTSIiUxDpmnqPREROW9QZWnS6XTu3r27vb15bUCDWALNBJ3EcSaTyb/8y7/s7u5++eWXT548mUwmoi23tjbKygpVVVVVFSICUJKoXq/nPQ8G3ffeeydN06dPn06n036/f+vGzq1bO2+99dbt27f7/b7WWvSQSAACEHU6n8/3Dw9OTo7/x1df/vu///t8PieiXq83mUyKojubzSbjb+7cuXN8fDydTn/5y1/+wz/8w4MHf7Nzc8u7GSqWMWGMkWjJOZMsZVVVzlaVra2tHFdVpXSSpun+/oFSisBb8sqhc24+nx8fj0fD/vUAba0V7wsAnj9//sknnzx69KiqqsePH3/66af7+/tFUVRVNZlMRqPR3bt3v/7m8WA4zLJMKZXn+a1bt+7du7e9vW2M2dzczPO8rmtjzHA4RMTxePp//vf/BWBj9HA4GI1G3vvaWUQsyxJREwIzE5M2ajDoF0X+61//+ujo6LPPPtNaHx4einCv67rX652cnBDR5uYmM9+9e7fT6YzH427HKGAFgMxAxN4TMyhlImOJAgFLB4tarmo/m82m01lZlmmaHh8fd/JC2Egbo9NkOOyLOSDBAOk8CXhJ2FaMyMlk0uv1ptOpyC6Z+hHGlamJJElMlmXT6ZSIjDHz+fzo6EhmlYqiuHnzZl3Xs9ms3+9/8MEHW1tbRO6jnzwYbQw3N7byIkNQgCyfCnWaaWZvEszSxLpy78X+kydPv/zySwR9//59UbaCmrVW1BrzInYc7PfhcLixsZHn+Ww2k9Cz1nWIMkuzrbULp2mNOxG7XWeNVEYkg8oqpZUyyEEtEXkxTJVSqdZ1XR8cHIxn836nCDJIDISyLPf397e2tohoOp2GuXnpj8lkIkNKJtuE+RDRyPMi1/I8T9N0PB5//fXXMnNxcHBQ1/Ubb7zx85///O23366quUogTU2a5ohMBNZW1noil+apc7X3TOSqqvLeHp+Mvbf/+I+/2dm5fefOnV6/Q+y0wX6/CwDWWu+BFyxIiKw0KAaZ9+t0OkdHRxLTkHkA8YCElcqylGakxjAzISMCR/8BxVpfzNuCQmBAVKqZAm7oNEnKe6+UKuvKOZf1+5Wzx+MTIvLknbULNR6N+8PDQ6XUs2fPJEjb7XYfPnyYpulvfvMbGc17e3vW2vfff7/T6SRJYqy1YaZ5Y2PjwYMHR0dHT58+lenO27dvv/XWWz/+8Y9lIg4RjdFlWZ6cTJg9olYKtE6MkaCPt9bPZpP5vFIKhsONu3fuffSffpqmuSg3SffKi+I0TYBPZ0NCm0ejUVEUYgjJGEySpCprcZ2JxCabWmuLTkrgdPN4YGeIfNo4kyY4NYoX3xERG89GhENd12ZjQ8SL1DOeibfW7u7u/vnPf5aZ4m+++UYpNRqNxOpHxKOjo36/j4gnJydlWYqhrLU2En8QSyPP8/fee88Yc/Pmzb29vefPnydJcufOHWPMwcHB8fGxtdXWjU3nrUKdF1lijHO+rkpUkGcFsfeOEHWeFUUnv/3Gndu3b5dlyYxiBiRJkqYpIIpigLPhTfnuvRcTRapojPHeG2NkokBYW5haJCYzEwMyKEBAtQhfcAAaAs7iJ3DjN8avFrkk6lTeS0STyeTp06d33riFDMxcVZX3vqqqg4ODyWQyn8+NMaLDpIZiCzrnRIGFqUuxf4wxxlrLzPIzM9+/f//evXvT6TSUKMUZY5xz48lJmEyS9K1mcmQuFzc3N7e3tzc2NgaDQZ7nCrRSRl4sAsoTIaIUEvNywH1jY6PX60GTHzOfz2OGjY198qw0Apx628HtCjGs1k8snSDXG8xFIknsW9iuruvd3d1/+7d/+6fjQ2H5uq5FvBweHj5+/HhnZ0dUiLX26OhIhhozi0yTFolqkXivCe0JQ0NmPZIkGY1GSqm6rsfjsWjFo6OjP/3lz8fHx5PJxDlf1w4Aer3eYDAsyzJNTb/f39jY2t6+ubGxISOuk3dFj8tcqveeAUTaciMxBRGpHDOLxS0jV6SnVDKY/EVRdLtd0e9GAzMCqOa/cDQjqiAcGpTPOMBx5wlJsIGZ5/O5Ugq0+vb5s36RM5ExptPpeO+zLNvc3Lx9+/ZsNivLUvwamfFJkkR0o0i8vKEFR0t7pHRElOQV6bqQTLS5uYmI1trR5sbnj75KC+piQguB41WSq6Rzb+der9ftdrtaKUc4ns57qDtZPp3NmDlL0yRNyfvJdCpvFPigCbEGpnbkQ2AEGhs/SRLPTkwOmfrqdDrGKE+OWbcCyNxEbpehDFfC63TzbFEUgq+Yf6PRiMFXs/n2aOitk+ErfkOapqLupGN6vR4iSq329vaqqhLRTJGMQsSFJYiI8bSmXAzx0mBIOktgkqzfS4ouIzCjVkla5EVRpFmui0zleWKSNNF5niWJ9gpAG4VIjPPaIjGaBFE5ZjSJxE+bMCkq0Eaj0e7g+GAw3Mjzjvc0PZn2O11fW43K2bqT59Ny3ukWoICAFBoi0mgUaAUaCKEZIkDivAb45T+FzgjBLKWUUfp4PM6yDIjYk0FVzaepNh/97OfDftfbWjREkJYyfczM4rgBQKfT6XTyL774wloPAGHWTYZykiSXm4YgBEYkVB4ZABg1KsU6YZ2YPDd5nmQdk2KijDIKlGHFSIsH5TPIh3WvYGa5mQEUg5fIPDFowLMPEQIgAV9yJoVXm96DweDk5IT9YjxJkL2q5mrYV0ki4SBhVRlY+/v7wo7C5lmWHR4ePnr06O7dN5eHEVxhKisuRVhePsWiSNM0SdGA0loAJYXtISxyOYiOZRJdF/dH+IIRXbbm55NzrqqqPM1E7CZJMi+ne3t78+nUKBSbUowlwVocYAAI8Ymvvvrqiy++uH//rVixh3pecWItSNWAdShXw6kJgZGHJvRSjETdteZHwjAPhVyt2mffpABOO1s8um63Kxq70+kcHpVPn3y9ORqlRhORsHOapt570YQCgnjOeZ7v7u7u7e3FlkXME1fhaMVnWEwDasDIOF0UrlBBlJ0VW6/nk9izSil/tmPwLEHE6a9MmKaplOacA+8nk8nh4eF0Op1Pp1mySCMW12Nvb+/JkyfGGFkdQkTvv//+cDhM07Tb7QrQrTrDFYDW2EweRsp+YagBKj69zaACY8i1XZKXtBhRXBsBuiVDXll0KADh5UZSs1iE0Ol0JpOJyIFOtythrJ/+7U8+eP/dTp6JUZymaV3Xf/zjH//jP/7j8ePHYvWGhGNxFGKOjumKMhobuxQbEHU05UqARAD6NH7WovPLF1c7ABozCERy43rFtHecmGxWjWWajZmHg41f/OIXRZYUWQpNKE6moZVSH3744cHBwXg83tvb63a7xhgJWsSpKTFPXG4yXUUQYYQax6upnCcnoQJPa0THOVhjFPRZx7zXBLGKm1+WpYjashTEKgkfLlxQorquAUC8uaIoxN8LbeFmlmpdnc/jaIw8K2j6J0kSXVlBdqF8dZolaV3XSqFBlRhQBpGQkch7RN1CJzh4UjnmM7JFggx5nksjxZ+EpgMkF0k4rizL0aCHse69QAcgakRGYAB3akfrNMtof39fo8rz3HtvTCI1TJIEgMU7p2bdmGlIKSUxkODfSQdwExMOvPVK6SGK239KQy9eaKvzg+myrAPPLyHcE6TNxasQLOvFWzjYo+e9V8RxEBQynyAR3bgtga4I9GlocenLBWmdsG6JjnBx5ePLhva6+19KiDqgIaMQEcNwXFn/le9aZw5dnaNxDbLrrq8tJ2LY2DyPrVF1NuekRTJC43F6MbNPAa+Q/g3p80fSInUiCo01mWYLM6ll+1/a6lDchlKt7y7Fy21Z0Dk8GFsa51gpAWVqIlBB5l7evg4tUBHE6hygly3OxfPRXGV8/zVnk4Y+QEH5Io+c5Wjmdn4XrBLloQMEaGpWgr7UfASAs7yhIolxKuhhaSS1KMy4B/6VGYnlauAVzLtrpGU44isxO58ji9dJ+XNl9NrhJz9dUAmHWrVuU02qUGCa89/6PVFbkzQTevLdAzMzSWQfzkghZkAC4FNbO7Y6rqQMz8iuVSWo6D845zxZT5bBx4kl68p/OdChWxAxz3OxYMSEDBElAGiN8dDb62rPTbwxaJWFSlHKO2cWUXI2mfHgQQOBV4mqvQMAhRpZpSYjRypKnZEIp1hauIZkrAOcpnYqpRC1zO/FMcU8z5uWETMqZRQqJi3fy2rW6RTz+STLDDMpDUqpNM2xyeWEZiJpMYPxUqBbFLPMsgEQlD5Ff8bgXqRfoa0DCYDOJkGr5lPh0rPnv26VyFrJ/usXKzaG9mL+HGm5+csPXRroVuRhGeh4Cid+5TmVaDfkMjbD8ovWFbhcmfhLrJDDlXNEUIxDq+0ra/VKHB1KbIG7zOOtZp+Dy0WAW/cgnO14WAJ0+TP+dd2fKyngsBLl5ftfFeiLVGu52S+9+VJwryv/pRfjzxZHty4u0zq7iM7mjcCVzbtlCFrqvkXLLbwIR1+qPq3yX1rndXy9LD0uWIFWnVd2/Ks6LMsoR9FNFE1xqQLj/rhalcKzuDQLvO5PjsK8K6Ff95ZWgUGSLL/6ihzdKh3OipSVHA0X5pRXgfi7K3y5nHNE3PKVq8hobgQ/xsvilpTv+U06OwhU/B0aB1ei1ZKBJ/YpRZsuYZMCyk3uYEs4xM0OGdKhki3OkHfFMZZQmegiIEKoobx3sXavWYAe14Hj7JHLAh1CZcsUrseIx62Fs6M1/nPlgFiGLL7npVU9R2qfc/2CFCoQ12S5VuHKVTgaVtmY4gItQ79cQmvELWONpw7b6tjuRVAO71pZwsVvOJ+WUY7rHHPM5WfBm6grAKhmAagkxDTwyvp3JCREBjwTSo6/x+IlrmUM9MrOgAtgzUszW+eI1KvRyjrEshSj+N9VZsFXKrqIi1fHKi/IOxgl5ZwvPV5KLXHZ+ukVcV+p9lt1Cz8xr0lEO7/2Qf62pMTKei/ju6yLWre1prJajL+ymy9V83VMcFlq1aElOvissXBFz3D5NSvf12LJuD3L5QQIlkVHq+SLSI+V/b3ynleXJOv04SvJaKWMUsYo7UAhnLKe6DBQYQZIMyqC08RZZgZGZgJGgNPQa2ht4AJYLx9OL6rFZA7D2u01eJXjIA+f5Wtq/jM0s8zI8gKFrNpzd5Igy01smg0sMcHyS9cCzc0uoNDs6EVEWVYgK+fIWq+00VoDsff2dKmzI4uolDFeOdQApLVe1AyRJUtZITA465gZCZBAEqXZe2QOPZfnuS2rTlEoDc45YIXMaBARGcEzE4LRi4ilaraRlWqHNR9B/pwiTsiEkblFiIzIyFSVJTJneaJAs/e5yZQHTJGIlWo27mCW6CgReAdapVql3gGC1jopy2mQGNg4HCCpI+uAPocUIzC2uznYlaCAkQABEFETKjhNRvAACoAvaFYuMGJAhuDKh9cyAi2Gwhk5/jL9pgA8UHQDEsOZHOImL1vhCtEaewZIi+kfRfQSEfTatvpZrhaun1plXishiEhFsUpxFIOjtKweXl0ix7XiOBfu3I0Nr3nOcJ1aWEkrsX7p4y1bJbaCVtoV5xtCL2P/tbQy7eScWfNrA7plS77UMGg1b1mNxOWcw+nrqPWW1pfFZ6MAmRlEXSyIov+rKWAa575+H0Av00U4ehluiJy6ZeswtqPP58SVjMzMsrgQro+jYzP0+wP6fOMsprh58c3ncO6larIeaGiYN4RiOFKx53HxulfEBsY6uk6gl8F9KdxwVlZc+Vm4pHq4FlqeKT3n5uuU0RAFYQPJr3w2ggoAWZZJ8kNVVfH+WMPhUPaBlQivmMOdTkdWPEo8mojKspQlJLIfnCzODdnv8uxKiuU+kXO+loX2AIwIYoB7skmqjVHaqLp2ceKKvKjb7cr+kgFcIqrrWhbFyspD2QNEtlz23n/n5h0RARCSKJ+o58knSWK0zrJMKZxMJs+ePdNaH0/GgvvNmzfZWUS0dWmtHY4267omVAzAzJPJxDMca9XPtFanu9xhs6mcJPq01Ckzl7PKeuecs0xEVNl6Vtayy2JZloqxqqpqOiOi4/3DWzs3PbskWexyIuvmv/rqq8ePH/d6vbCcXTpYktWPj49lMeDBwYHW+ttvv5VNsa8T6Fi9xF0dAX3K0eRcWKicpqlz7tmzZzs7Ozdv3pzP57J5wXg8JiJnK+89nUyIKMmLvCjSNO33+73BMEtMx4DRZzxA8S273e5KoMn52llrbemstb6sq8l8VlXVZDxTSiVKF0XeSXNm7mbF1tbWjVtbIodCKpPsP/DVV18ppWRKRd4iCxQ3NjY2Nzdlk2Cl1HA47Ha71tprAzpW5fEV+YLSVGA+a0JMZzNEzPNMVvzevn0btGLm6XQq27JordNEG2Mm0zkRsdKmOZAlTdM8SzPNRp+mqKlmaZQsaF0BNBERyfLNsqyn89nJdFKWJbAiIgJEWT6i9aA3GI1GznmtUbLXRD6Mx+Pj4+M8z2XtODfnZzCztVYWhcvuXMaYwWDQ6/WuWXTEILbUVKObTh0NgYCIJJAiW5UOBoNvnn0rK/p6vV6/3yciYM/MQaaLSJU9673RjokJmE837RE0i6LAs3nWoiEmJ2MAyZNLlVKoAY2WnYWIHXtZ3l0aY6yrnXNFlsk8oaApskKWd4uqkIbI6JSBKKtaZO8D2aIDrtEF51VmKTOjQgCExgyKURZ8ZWMRAJhOp+PxOEkSmWkN+z8xOUT0BN57AFRaU7MvbZIk2ZLokFfMZrOVHF3XtfXOWluLpG5IFiCBAwCQ5dZ5nnc6WW2dMWcmTQBA+EO0rswjy657zBzvvRfimlq/wt6/F4FeOJmbNMIWm8s2SUmSHB0dCrOUZenIywYzIqmVUtKGqnZaa1ZaGwMAsl0aMhWDDtEpBOFTdqJaBtr0sba2rhO0dVVV1i+W94zH46qqNGvvvU/SxnohrbVSp85R6AOxecLaLGzOMqKlDAAZTJcFWsw1VrC0wgIUACwnMiP5RkB7OGV5QsS6rtl77918PpfNULIsq2dT2VWkKAoRF/OyrmoHsotIoozWSaKNMYlWica6rmMZjc160DhzNwa6mle1s7WzlbXWeucWc8rCjwaMKD1EdN5ba9M84yatQLZrERAlu0GGnYiLINmEgSBEEQAR8XJ2NAKkBrwrlYJmXxLWOqkdESjP6AgcsffekXfsvbcAgEAKWSMoYPmPDN57bRRonNfztEg9eEu29rUs1RPj2jFYYg8I2jgGlaTSZqOVRmZvjVbNrlAegJSCZleFwASyJuX0vzKJ1gmCbrJ+NYJWaJylxGRiFMrYStNUJ0Z2KhOLAqIonSxHFJNZ1lQDQFmWSieojBTOHsgxECi8yjbUjCihYEBZC8SqiVErCA6sRMcRcHFhyT1dDIj2dV7jKMY3MDMwARMAvXQRWEtF82ng/0zqz/KDwo5pasKYiCsmI0Z4fyEcjMk7BSskXETPjSyIBwB3pTnDVgPC8LwgtUTYyhtCsXHJvESt1JF1Jb/0jS1abo6oTY6CsRQl6Qa/NH42WPTAcAUZfaYevCZZPqYGtYvOhLZQDsptGdAAX6tMXrVWOb4fVjFyuKH1LDPI+gWpTDBvgg7EZl9+IrJ+ccrD8lTW1Tk6/HkRjo4bdhF2jqsbv+icMs+Hft09rQ5YbpcY0bKPL0R5eCraNz5JkjzP9eJ4XCe7UgIQsfNkAXmx+calaLnB5wO9biyfc/86pm5dWVdaeDz+8yIcvbKxEhYLvBnWNQUbXFwnak7AlFlmIFYQrf/ly+78dNZcbV1cR8x8BdHRKhZXUfxUC7XWr60vy29cLiRSeouEVbmeZdlgMKiqajAY9Pt9aIJKaZoW3Q6zd652CgEpTbM8TYCJ6/qVZPTF6YIoL79lmaOvVpNlqfJSdhbSWgcXXGg0Gt24cYOafRtl43A5wavf77Oc/+GcBsySNE1SAKiqai3QQf+cVaMY0pBFCYBswgiweIFCCRx77x2gMSFiuyQlEZg5SRJx/8IJhNjsXCo+LgBIzCwEfyVdGpoAcdwHvAhYc+wvRJVfRCpaokkGuLj+sseMxOTu3bsHzTksGB1ie+PGjRs3btR1/eGHH/7qV7+SjdsQ8e///u+11koBKs7T7J0f3TcmAeeBODGXz+toskkXiRHi78uuPhfkkXU3XERJ8io6dcGaO6k5uf27IwloyLadcKq62fnaKG1M4sqynkzTLJN0risD7QmRmVg4K1pw+lK4A0cv33a+koSzEiAWqXFSZMhXumzTLkXcbBt39vg5UkhKKfDucG9vb/fF3Tt3+sMh8JXsaKGWUmrZTHGFYI0dLUDx2gy59uta97QkQ5AeLZ32HVF4RehdiegajUDelfXzb589/Mtfup2OzMNdGug4lf9UxmkNS1jLoI6rdX5nnA9QUImqOWBjWTd+nxSPmEiZLQLCWgGTO9rf08BaG7gC0IFlpIlxuB2WQFzcucpPC6LjghwNq/Rzq1bhtu+tA+KXKqUAkKq5AsYk7RUd8j7PMhnOV8/4v1RtzhEdFy8Eom5uiQhqVmuFjr949a5Gsc0TaojACoicVWlmEiVT4OAtXEEZnmZDS4CZGNgjaU2gmRSAZpLsZWavFukMi1TQl+rJc2gd0EFDcJTfdB7QTeqXYgIJ4TKo5pNgfbhxCYdW9ZiZmVSag/NAhI58VaJ3wHCeC94apPGfi/V+ABowVTpFbYgyRONBO1bEBkADKyD2DoAWibfIqCD8b4yERbxYMl+dIwDIsmw+n8sO5Nhsli4b3zOzfCnLUmw45xwRIMoG90Z2RIJTYXKaRUfkiJwkRCtkBELyyF4zJQjyaRAUEAIZjSa5xMAINjkBqywHD+z8KOukAHIAweU4OmJCBQDIiHJ6AQDw4lgOZEYGBFJgoJmIiS2TuC9js0G+xGk3sUnTsnCkKCJiPD1ULYj7lSXDGfG9YGcZkUCMQFJtCaSHey5LDAsLQBMgeU0gu4Nf5+TsWdH5kpDIcqaaoBACvsu2YzzJDY1jwgp5FS2/elmXcqS0rwsHBDiTyyejmenKSmMxeRj+PqOdcC1HLOvSViODNlu+LWi5VvR9HUHE++Htrfq0brgmIgDRBKclX/8sOJ/VWuFdLelxpmOaG2KzIY6dx0YFn53dWFeg3BakLJ9rtFwjYXBWGRQDkBfcXwVoahakEIBkYjMihD2GZIDjEh+FNp+p39mErhhouUHiShhNWwQ9GUpoiab4SoC1lWu5/OB1EAHH4gPg+jialIJWq5iB2CtW3BzbFX5tfTlTULxDbfSUzOHHum4lOqHDpGMCUwcWXonyNQLNy9N7xHBpoBcL2Xghf5EATtM4Y53ODAwKuL2Y+6W0bHUEpEJLTquzRBDJqGVhvVJufAcc3Y5lwjlAr9TaGG0jsZDATTOoOWU+5qDQ8hZM8lMY3dicdgSNkS5JgiA77gMAQDhrSGZCJWxW13VuFmfjBWaX8nVzvPPKwRT+5EYHAIBsAB3i4PHJhJcBWYEnQHRMjgkUcl1hdslzWAAgWpFAzMiytHJhzFKTjqQ4WvvHayaWVv4ZQxZHUSBi1ZDbKZ5ti0ODLA5dCMEWvMDwig3BK5D3HhgUkTEJAWutUWu4Qjbp8uBjZgBiJuaFSYCIDdCeecWJKst/hisCtEx9SsA3pJSHdP+6rsM+5ESL98ZlEp0mCITuiaVzfH/cLoxs7eV7LkJKa2QGVEmak2dADUl23iqic4AGIG58p7h5EXkGYj5d3xC3bV0Dws2SkSUZseGEqVgoyQb8ErIJY59X0bLFDRfj6MvCsmgCKkIFSrFnVtp6KssKAK8SVFr7jhUCYYXbDWcRX75BZpRns9lsNoNoM+igGCXjbTKZSLiDAMNIar0IsV0BXuXjrKve1aiqHStEYkBddLtl7fqeF0e9X4pONfsiiBEJ0FOHUOOSUI6NgdZPcZtlB9XZbCbHGAaODm9h5rqup9PpfD53ziWJCh5Nq5Lxu1aOrZhi3RAqfNVwqzJp1u333v/gw6LbgSQBvX4b3nW0ZE21x1r8J0Y+RQvflcMzyIGqquQ4jmA8ULMdLwBYa+fzuRxelWmzUkbH9YlLXidAgg6MHdEryBCdZkCExnQ6vY/+5iedUQ/S7NKxDmzqJMFcjYzIGj2gO/0um+cjy1GBionZIzEAKYbW9/ApVwIizrl4H4gznCX6sMkrZFy9RRY1FGR0bKEvP4Jnva3WxYtTAkhEntgp1XljB7IcGFx9+cVCnSJjb+ezySjLil4xmU4nk4P+YABcAyF5YnbsEB2wNsrobtFhBGT515wfgsDesbdJmhFjNZ8ReK3A1xWzPzzcf/bsKQBpjUSu6ObCvGmazsopaAWKn+09u3FzS875lv2gJe9fa43IRA4RJdNEJugjmbBIVufGChTLfSznGTZK4tatW+uOcF9HjZ/hjVKYKJ0YYJKjKVXRuTTQvV5vNBjaqvaurmtQyCrRRmNtZwkkpDE1qTGnh86H1VFKKUQS4Y6AKlHMidaYcgIZM5ssS7LU1PVis+2wZX7tbF3XRVGkaSobdbNCIqq9s7ZC7IgViE3uYSy4Wh4TM8/nlagBATTsELi1tSVq1hjT7Xb7/b6sAbgsUyvhJSVm2amzc2mgt7e35ZjbyWQiBhYiijyl5hD52LMQBy9uqpDIWVkXJKnH4/H46OiorOz0ZCxGhbhqAp/k1lvyzKy1ns1mk8lkPB5vDobBag6FE5GcaRyqJLKIiDqdnhzKGxZJCBOE89673e4bb7xx586dwWBwBdGx7pFLAz0cDqUxz549K8tSxmBd18PhUEXnSMpqg9Z6v7gSo9FIcmElJ5OZZdFKWVeApJRKU+NchsgaDCJ7z2lqNCRKQVF0O51clvMZs8ipDWlgQcqHlgu/S6LXZDIJoENzsLFcV0r1+/2dnZ0333zzxo0beDY6+H0DrZQaDocAkKapgGitnU6nYRG2HF0pByyGtDkTkTR7MpnMZjPJeBM5KojPZrOqmgM5jczsrau9Y09WmxSANCiNqBQQubKcnZwc1dtbRrUPpxHGDDpQxo3U0LlTrRgsDWZ+8OCB1rrT6YxGIzm7V1xQGRmvTpcGWuIso9Eoz3MJJIkQODk5kcP9ZJ2PuHbMLIcMy/ofiGRIYPYw8LXWaZqenBzVdZ3n6fb2dqdfCrMjIgPIGkqlVFrkxhhErqpKRUs2udnFVSn1/PlziOIewQKZzcokSbrd7mg02traGo1GcmxeeJEkM4a109eCMgBcOnqyMqAVEBeg64bCJrgiKGVpWEjbrutaprpF6X388cc/+clPsiIdj48nk4m1tnJWVL8xhoDFLUTEJM9E1NzZeePF0105KFaADltAigTLskwO5xY5o7UejTZBtu0yJuzjy000MciKEIy8LKDr8Lx6mAoaTsFmhombaD02WQnOubBqLDZmuTkftygKGRBE9PHHH//0p3+bZEZOdLXWTsu5iFRjjE6MCkeVF7ksEr65tT0o+lmS6uZ4dlEPsQHemoFUatEl4Qo3Md5w8gmElIooW/cVgX6lWEfc58tKQGLHFE33BeuVo1A1AMiydGa+e/euSTQDES+sBe+9b4a/1hq1CjDpNElVgh7U2bRdWO95hqq2XFkZo3FeqFT+Cpise+//A0RiPjfdiKZNAAAAAElFTkSuQmCC'</t>
   </si>
   <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAPQAAADWCAMAAADRlV/xAAADAFBMVEX+/v7U1NTMzMzS0tL9/f3T09PV1dX////R0dH8/PzPz8/Ozs7W1tbs7Ozx8fHQ0NDj4+PIyMjY2Njb29vm5ubX19fq6ura2trNzc3d3d36+vrLy8vJycnl5eXo6Ojn5+fc3Nzz8/PKysrg4OD39/fZ2dnu7u7h4eHt7e3r6+vv7+/p6enf39/FxcXGxsb7+/vZ3tzExMTHx8fe3t7i4uLk5OS/v7/w8PD19fXy8vK9vb26urr4+Pj5+fn29vbDw8PBwcH09PTCwsK0tLTW29qzs7OxsbHAwMDW3Nq7u7usrKy5ubnY3tyqqqoZGRm8vLy4uLgJCQnb4N62trbT2Na3t7e+vr6urq7Q1dSysrLU2dekpKStra2vr6+jo6Onp6fb4d+1tbXX3NuoqKgXERMmJiYcHBzi5+UPCQsLCwulpaXU2djR1tWZmZl/f38dHR2Xl5cUDxENDQ2wsLCLi4vb3dzc4uDe5OLe4+EfHx9NTU2VlZUHBwempqYSDQ7P1NIoKCgbFhgXFxeenp7g5eOampoiIiKfn5+GhoahoaHL0M6SkZLU2tgZFBWdnZ3IzsxwcHCTk5MgGx0PDw+Dg4Ph5uTS19VJSEjf5OPN09EWFhZbWluIiIg2NjYMBwmgoKATExOUlJRTU1NsbGzl6ejZ393V2thra2suLS1RUVFCQkIRERGKiorR19XZ3t3M0dCCgoIrKysyMjJycnJ3dndmZmZubW1HRUZjY2M5ODlKSkokHyHHzMqNjY0wMDBdXV1gYGCYmJicm5spKSkbGxs9PDx9fHxzc3NPSUskIyM/Pj/V19bX2dnS1dSQkJC/xMNWVlYVFRV4eHjj6ecpIyVaVVeSjY7Nz85oaGhVVVXj6OaPj480NDTY2dnk5uVLSkovLy9YWFh6enp7e3vP0dCHg4RybG6Ojo5OTk51dXVQUFDZ2trW2NfO0M+Lh4guKCrFysja29vU1dW7wL91cHKinqC5v73Q0tHCx8XGx8fb3Nzf4eCYk5WNiYrDyMbDxsWhaHa/AAApCUlEQVR4nO2dCWDU5Z33M/Of+8h/7nsyd2Ymczl35kgyMyEZJ2OYkZDESEIaBqxGOcO2hWw8oBwRDxSUqrgK1gt5qyCXFyB4vNBLXbvVauu1rdZ2d233vfq+3d339zz/CUkxCFRjBpqvChEl/D/ze57f9Rz/qqqvTGx2FcPHRT9VVTG4vq/uG1ewELKGC8jwt89XxZ7u5/l6xEYG1iStyYYGn+9vxNIwsKuSsWpTOl0bclgZ0/04X480jKqYWl3XwPBFjcaQ6W+DWlOlsTAtscb6dJ1ILbCbYLBXMS56dK6BZVfUOpUsuz6slLp8bAabe7FDs00kq85hkLaXWAaFXRlshF+66C3NUNDt1pjM/PQ+wllrkMprGVUXf9ziimgKa6NB/PjbHIejRi2v4f4NQDMscmGjVc/fdlDlcBrUcpnvbwHaTioaHXr66oNmp8vAIh1cNveih9boSWOtQmT+dFtA5JDxONUMcN/T/VBTLV9MwrfIpF1vHSnYLDSvshEG90UPXcXV82wyi2d4Y4RginU1UHOwL3poLjsqtQSN9PbhDMkklPVs9sUNrdGgsortixokhHjlR0Wtyl1fTksuXnKKjFtVHxRIzQ8dKujoIR/+NQaXy7hYoSFeMbiMekZMrU/bjh61udT6JDgxrqYBku+LFRqj+ZIakbQ2aTx6KBRT2xRJbOmLeGL7NMnGdMwpUhr1LuLAQ7QgiykVRWOm+sakhnsRxi0Y1z5fncsitUn5Holebzd/9FudxaJUeZgsiU0aMtRaUffsoqm22HgmcxudoqBUIlFKaWavTldY9unqURaTXmihseQCAUugrkn74IO5WKgBWqNpqBPJCSbBtFlEMoPdxgx0b9w6wKPJWYScRpNLSB6HZtObIAnnTvfjfiVCzovRIDRymEomSQQdscYGjTXmCjFVUr2irrraTuOTfJLk8VWEvfoiysJ9MZeUxdd5vSxnkoEawIwqbr2pMZnU+LjcaimPpJNMJodP50gV9ReHpavYmlo1ofKmIhGboYGBshA2A6Yvl5uEfxhVDSK51MaDjJRH8lQCff10P+6XFQq+DG7SZYOxG2mO0GpjVh/Kvsry4R9NwrDdorRJBCwaz6zlqOu4bLz8caEOdPTgbGuNkaMyd+XjpD1q+gtoSqZaWchulColcgFHq6MTwRjEbB/KY6b78f9Ksdkak17OE3ubOnMqkSuWtmq4pytdZxCF3Gqj1GaDea8z89SyGOqEX6imhuhcpyZVYn82ktJJnY50vbXhc9T1UZceBrg7aJRKmHytmc7niKwXcFrqq3cayYDf7/F4+Up9bX19ozXZ4DsN2lqtkOlFIbs7qJbaaBy+iqei2asbwBtM9+P/VeKma6Q8syeS9dAJqUwYSzaeBu1Daow5DeFwOISNbZODE1fReUqn70KEZlc11IWlhM7j8fvNtKBMWJ1Og6UbJkD7NEj1MaEhrNcDtd0SlNrkTL7ZrCWMikZqVrMvpJHOTbvULLCzP2CmM9V6V52pvn5SaKuptkYvk4VFIRjiRqWERtLpKg6PFqr2QX6Gqq8LARptNfBpokEWAS4s0+Q18+T2mtpYo7VxUuhkuk4hMxhk4bBIZFdLlXImj8/TmlWsoDCmYTB8OJuZbqazSmOtFrpkapKuouu8fq9YxXLXQMadTFonhW5ojDoNLpdBhoa4G6hZBAfcGZ/DlFoMtabGBl/lN1UYvjqFSCog4cF1Kro4IKbT1IZoOp3UNFgbG5MTQxYFDdWHsMblqgFovcgCgUsOxZiAoyJpTIJms9c2Jis2ZKOJB3mlJu0MS+QsGkEjeHQtjx7w6vhyi6I6bUXCqNgp47TM14DkQ9TYztibuaU2MDWT4JA8kiSg2DaKHOmkDyVowF5ZW1Rwusw1hZUSJQtMxAGRfOTHxBxp2BFLJ5EYSPh/x19xsaF93AZIymQgPTgzC/JlLBoNU/NIDkETSKRqUZ0Pvjtum04z518IhiA3rbCz+CSNg8UEc0Np5afbws5YfSM26um/CcdpSNuSJkVNjQGlKBaUoijRWAFqcGg8DE4wpQrrdFCdRWDAmIUGFmIy4SnhR4FNwjRnsmKWSAiOO4n5xkMu9RWjbHqfNepQQNCyQ1pmVNpsEig+8HAheXw+yaHB5ycPmRgV1ydmNziMBI+JxiTBZMklMCZtHG8ky7fXmazgovF0Pg26DIA20VlNQr3bjVJRpUAgl8sxNZibQ3LgA2TSmDxC7RrbZlgJwnNNUxeEOaxS8UmCCdPQJlVLWSq/XytVpK1Jjc83Pp0nE4NrjRqg0lJKbHIaS1CGxkOcg4Y5H0Y6U17TUDkRG/ImNjdq53i9dOR44JklNqVUKueYvSqboa4+mYQwdZbvwfU1Ci3gwZg0GocJ32IcmgRmlVZLV/FIm4NbMdAQSNhJPa0plzLzOGho22xK8EVMnlYlD0eR4z47NKOKW22XsAgI72BbGCsCAYsFU5mDfgGgIR2H3NQYrZgiBOIzu8bcWSp1NjUF+Ez8vODCYTbaRFBOnpOlYbRYXVImzBASQwMxfB/KmwE0nY6x+e50xVBDqBUMlUqtuYxHDCMcXC4d7EIKgnpnNN3YeG7QbI3JTkOjGQ9v+Afm9VjkUqnQtwTRFJUSpxkabtLfVhSDryVQSkHX6gJes4oWrKmNVpsgXCHoL3JjVThZ4WoUNoLEZhYI8I8S1Cyk4jX6JMHefMvnYv00CWicrV0qmg0iLMRYlISSPEJucUUbcR7WoPEBke8LV+hQespoDLMgq6GhaE8g2VCzUC5H5Bz4MAiVWcdKf31cZxGX1S5mSoxqtToYDLpDkGO4g3aZsw7nYRq83n7WxAJs3aAwwicmR5IgGSFRkaCPETs18OsqM8dRIZOaXdVYKBE2adBit4dEelkNlkJYG61HVQZecD87NNRcSYc9aLQZkdxYKCU1ou6wBI0fyFDMKn2lQLOdva02o1RtCYXCMpeixqVwCoUOmNAxEygNRTSkZDDGv+B5oeJqTJucorDIHUISIaH+kTqIusNKiQCNcFKrtVcIdBXbXspJjUqp224PGxROJ9g4JnTUVceidUgAn8Z9UM2Zv4XGWl9d55CFDKhdBgojiVCz0IJqEKUct0l5Wq2lUqAZrFJGqZTb7DJs5Nq6aMwUBVXX1Tqc8Bk4HLW1YPiYCQyeTPpQ86ChIWltRF3wRlNjvSkWi9Y6DWGwcFgvMyDpKXRRuVsoEZB0rQrCltnGqIwuKTeZGvELjGq3JaRH2Mi0plg1KFpXKwRokBN9Go40Ur0pCh8L/i9I1E+KGpkIeYSw3oA9gkw2VmBTLVIBk4fyE7NZjlrDFZCL+tJ9bSgXcetlepnLKUTDmVKsOops7BA6FTJkQcQoVOgtbpEFJaoCgU1Ak0uDwCpCdHbM7DolVGGLKGi5nEn3esVmHc3KroxNw9FS3MbkqZjqsKwGkKkpjAS+qToKRnW6atBYFaEur0VJ45l1nlQ2Es/l/JFc1sxRokAHXpBiVoDw6BCivlk4RFmaxdF5Ama6mFONc9bpl6wUkBqlAppAahEZhLVot5AVd0qSMF9N1dUAjVq8Inh+pZzFD3T13rZj0zsfv7B7+wu7d/RndQKIUUF7GIYzmh2YtxZJgagxtM3G0WUyUGiJ+RCoK2GnNFfST5cr1cjPqtXukCEaQx4KuSrwVWlTur7aAcar0YfsbrWcSYrjQ7s3H31t586dn65+9r39mwpilhL9Pgh2rhqXE2aDQyjELgG5ApkoFJQQZr/HzGExmaROa+BWxLYUBtlGSmxqN+QlehGK1MJomrI0trU1We0QOoQ1YQi6UgGhChTbn965a+9jhw+/f3jvy/cN+wmpGs1ncAcKg0HhqK0DIzsgAsQA2hAK2phacUCn4rDkLCZfK7Y34MXr6ZaP3iFQShE0emQqSNXWVZtQNxCg69MQr6PRWoUsJDVKOOJUy8hbJw+fWLV+/dJVe97dOWwWBNUWEbgDGNjot9ZFYXBETSaHzCjBJQyk3XKlDe27QtBGaxW3AqAb/BGJFEPLDI5orRDCbjUK0Q6YmfARCOvga/jSqbcY1TamOZDrfWjX8TUP3rvm9TXr97x9TMcyKtUimaE8nSGGKRQuvUEkUYkDdJo7GAyF3FIqAUfQclPVWSq2r0WmRMBmK0O7IBsD+0IKokla66MQrFyGcDgEDswmhwkp9qdSxf5lH+w9seaJB19/4omr3t0/L8MTyKWUjCjnRA1RJfi1kAWF6pqacFCqNlJFB4LmRCuiZRRt0dnkGLrGqXDEIFoBNF6K1qClnJjD4RJJ+RwyEOlpH+zv7V778c69x1fNXrp06arjB/dvas9n/DqUeOg4UGzYjNjmKHuFVLZWCGmKPuSGD8NWtjS/9uuGLnduNQ1QITcwqnw+tKLo7OBJkP9FBZYCUu56tGJFLUiiYA1ZJoRqSDNFFgGNH4hEWh848MnLjx3fc+ONx989eWi4Oa5lKcHIdlENmtDVJqxYNZoVDvBtepFbXW7/Mzkqncri81ElGwMf3EPPM7VrPZiZgf8gNt4Kg/7d3syx2YznAg2ZCVMbGFh76ORjq15aOnv2vevffXqATzOixERWAxkJTtvHoGsnhaYHNVQDvQr9xPBxp9ytUX9WlSbtcNY1oCwBidlMU9qUZ4EWuvR2t1RJU3mamhe/dnj961seXLHlwZceO9BM50ikxhB4fuE5QWuVyaryQj2CZeD9h1NNXZWsr1aEIWN0OerxGiqDn5DbqJD1BdBOFKeVEibdHx9atvPw+ge3PLFiyxNXvb+/pGIa7WFUlLqc5wKtYzWyqcMPDJ+1UcNA5cfUUsOfwKg32GtiDb56hcXuYDB8DUlexiY3nmV4OxQGkdsoVbJUnq6WdTv3nkDQK1asOX5oREtCYmM/5+EdINIwqOE5TFC5obKknlH1BYX6VyE2u8FRIwSu+vq6GhstzUhWu/gki0lBg7Fqyx2DMnQjZN+4wnQhaBuLQ88UBhY/fnjVgyue2LLlwdmLjoxqaUq1JQzRDmU1iBqrGlUqDlxznIKm0QitKsBpZKMF25goJIyZ6mosButU56VsRtogc7lkIUiz1RydNFYXVXAIOiEtZ2RCyMRMaYhXY9DIzpCwUNBKGoefSjQPf/r+UoB+YsvrSxfdN6qjKWFKAzQk6DiVO6U6hxNFrDFoGotFiOkcVSjqq7Iq1PZqDcNnEoZDzileAWBUNdQaZDKRkuf16AKBAK3GINTTPBma8dyh8z13rH7sKjSjwZGdHzST8GcILUsU9QlJs6U6FnXKRGG7RT+1zXAGfMSKWhjY4kS+K6LzyvV6F4ssJmjnYeli38fb9rz0xDUrtqzYMvu8oGkEJzIQUCn1YYVIl6HzOHxSIIXUVj3FC/bsRlet1RpVi4vFRISfK3DsQkI3lGfazgO6beXB47O3XL5ixTUr1pw4L2iSzJWKXlbYHZSmcoWWltaEVqI02qR1UwxtVVRrktFgoKOjI8vvnZeVOrWZthwhGYOuLUM3jENXAzQqjIMIWpXqbNu+60aAvmbF5de8vv6+UTGTgkY9k0mg8T6rU9D50XlxpkggIHtaE33t/a1eidutloimlJnLbhBWJ2MKY6Cnp6egHV0cV1d7M4OdkolxGkOX1ZiG6BN1oLLDAo9O8LSRzqHdJxetWXH5319++eVPLP1gfoAjV1pE8ImBrSeBhsJDLbWNDe/88NoujkEZaBlsKfaWBoc8glA4xLJMKTSDndYrYkIRK9LeXio23bFpSC5MNK9rpUmUk0Lj9m6sTqigoOUcvrmrs3v7yyfGoNcfmXc+0GTHpg1ZllNtHugvxnv75/V55CGDnqWeWuiqmNteI7LpWkbnjw4kVj612BvsHV1Z4sgnhW6sT6OAC1G6BkMLSJUuPtC+9Zn1GPqaax5cdGjkfKB5PbsXF2hOo3hofrFQemBte4pmN+iZ0imF5rIbLbagkoz0D7+4uL175ZJNed7IjiXzSNukw7seF0uQjtUYMDSLRxcXmktL3l01Br3nrf5zhmYyCX731pU99BDRNW9Za/Pa4R2jeZXaEiSm1tI+NjdME9DEHRt2b9+97NgLww8Um+atfGOUmJiGjkOjxjdkk0KXTIahaXxtINfS/8reVfdS0K+//1DpfKBV7a8smZeVe1uHt4+UNm3fvqzPLxfQePYphQZbRwUcprf12Au7X7hjx6ZWrTfXdseSdo7UJoWCOAwJNDw16gFj1afLOSjq5IIfY5HI0v0f7l265Zq/B+gV975/oM2rEiiDkHzjPj/qkSHF0MfloHwB1fcGL8Ynib4P39g0wOsaWbZxeN3GVz56py2rUolJ/ZQiQ0GTtNM9kEr2Dg6/s3ZAmHRnSsu2txIArbaEEDTuA6Try6IClksWRtsf5Qg63jyyb+9VYGgMfXhzt5fOkqqDbigucZvMgVveMVyOOsEXiDA0i4W3VzFbl7yxo7W7VGhZuWT3K48+unUwn/VGVMIphq5i1DIjA60DHb2D81MGbpXJQJ+/I0EozwmaxtMGCs2D+w6Xoa95/d1XJ4dGdoYSC+qNCdAEQTRv3Hjb6LHecGjoqSVbt24dLvXEEzn51GZkqHb3RYOezkK2i5Q4oXz3VQlbBwM0VFCfHZqpMnsTLfOe3jN7DPr+NyaHRmPbqUD7RUPj0ByCTKwbTcQFkGw7u+YvG95QmvfiiyXVFBccVIOowRkS6cPVjQ1Q4oE/TwyR5whN0HWefMv8zXsgIUPQl7/+zCt9k0KjRV68qiOaAM0jeZFSK72GgQ45VAtSiUTHyI5jTc4pbiKw8RlZ3DQqf8WoaowM0Ghym9LoDlHt/moETS1b4qYJ9sHw6BIBoRX7iz2jB46PQd/78pJuLxTU4PvtUFIbatCCLiXK0HgB7A8/+uEf0T46/s9VTR1FnUnjQ3+4yc1Rmf1Nds3XfSEOPkvp7UNrEGjPSQitzTgwNNX+QN5IKFQYwjAzlQImRyv2FFs3PLqoDH3N7JNP9frNTKga1BaRHiXg5QVLrO//4hd3fffb35qz4JG7r7jhnidvfvLm53/6vyKc+nLToAF9rI1fK+84dKCXRHsjx6DR+rQpfWboobWnoFcs3bW1+zyhUyzrNO90x9DmXr7cNgEaR+ozQ/cde2vRmjL0qoMb+84T2i/VjK3qfPHO4qmFJob4csn48KayqjNDdx/bf+JeyntvOfHe7tbzhP6T5ZShp+mYGoaWtPAFLME49Pg6xeTQ605BP7Hok5XnCy0WsSdCf/3MlMIdZhblyOx2tI8MQ1PCaZXCoA/Z7QiaNHszHW237T+x5hqoKxH0zo97sl4eTYCzWBHaW4T32eA9GIrv/+M49D033/787c//50//XeusiO39rpyYRsihorZYwFw11KYqSnV11Lql3WJR21hMns6T6mg/dmj9Kei33+mJePlj0KIxaGq3zfd/8c3vfu8733r40lvGoP/PT/+dX1sR0LVNfoLDktuMQbc7FDZQ1JRqUc1QoxdZ3G6jhMZRBfypZgT9+uUY+sEbP9jUOik01i++ede3v/OtOZfMmnvdODSzuiKg6+kptKNfAnlV0II6/gqnY0yIGapDdzAolRMk3dsUaSktPrTqwTL0nvvOAI23kcHYBuaHF1x79xXj0Lb6ithd1MDsUpEETQDeSO1Gqahr3BsBswEdJlSrlSwOT+vJdPWUXjy6dAz6sSM7Jh/eGBqN7W88fBky9Dh0MFkRG218tgKPx4QHN6qRpWWoG+AsC5hlsrA9qEZLOmXoZUdXLb/6H0ArHtx7aEdP3KvisNCqZ3mX5PeRfoVE2XkWzOgrfnzDv9z+/POf/VfXT0OaioDmugs8Pg1bGmfQeDdYWYjZgLYSIGi+2Z/pai39+chzy68H6quvf/2Zt4ZbC146n4WdvwXvnP5HpG8iITv/YNa1c//bFT9mMUkVXezJFLwyX2VA6yNaZGk0vNH20NOhkaWNUgmN5OuasoXWwT/f99zy5Rh6zcsPDbcmPFo+UyDBG9HsovCvfoF0OjQ+rxrwZ+NiBXeKi6pzlCPjpea00Qim1p8GXT4VLSd4KnEmkuubv+m+O8vQL+3a/OJQvslMJyC5MQbBD4Ktv3lK49BXEKRKaw5kInFtlFqKn3alPVkOB0NL0Y6w06FFYGilhMVRaQOpeKL7f/7Tz8rQy5cefHXdUGdGp+XQWGjbihpR34X0OWge3awLZONdPHzNz/RDs63iOIdEHtiI3JHoNGjczqSgvdl4vncC9Kpt+9b1dabEZpLJksNnpkb7Yr+LdBr0DSSfrhN7I4UuThKVzxUA7WMlkK0EcrTdxmKfAI2cN9q8rEa9Ih5dnIkX2xH09aB/uHrh+mffWNzemRGbOXh4u+E3i0TfPaVvzPnBgktnXYmgOQi6KVfoCk0/LxaDYRvwkuDJ5Dho2fUTNm2jho8F39EjZ/Lp4lShcwL0rSfeA+iOlFhH4qPhwaDbHgp9+5TmPHwZBKy5d1+HLK3VBTK5eEZWIdANjFBzlk+go/xoP5j71PZ8dBA8HLZTJ09YHLrZG8l1lPDwRtDX37RoNUAPZL1iPoGGN5rTFvt3Tunhyy6d9Qgw33DPP/NU5oAnUohra6ebtiwfQ5HooqPjggLUH0Qb9fWyslBjD8a20iankXSdpyvRXLoNoBdefzX8ddPxTz9c3N7c5QmoCAhaUima1P/vG6cEdgZmyMbu+ReVVuxtisfjRMVcV8ao9nSZeSSB74U0qlGKoR87hIEubMHn/QmeVuyP55v7j/0Hhr766uuv2vP4K4vbW+JNXjqHAPetVCLqcWjMDLXGk0/+nA6GTuW64pLkdMOOiWulxenUIUkIPEEMjc8Y/epXd33vO3MWzPrR739Yhu5snXfsX3/23MLlAL38zsMfLFlXwtBQsQgkNgQdfPiUfvfLH/1e8GMm8c9gaC1UpblcxFIxt19wNe4uLTouzkLuyI0PoODTZHfd9V2YmcgB380i+OaAP94xNHrs1z87sXAhGHr5qnePAnRPvMlD5/NgVqPJoQ5egnQZ0u9sEoGARp1Z1er82UQiI6uEFBSL4ZOlxKi6pKAh1qLjNwia6gEgaBra99aUG+gbffHXYGmAXr7wuWcOPbWuvzWX8ZtVfA6NMrUaQy9A+iU+L48OUNN1ZnFTJJELOCvEeaOmZLXXTwcPLMDQ1MkbpO99+zvfmHMJgr4OiukAXvjb8Oen3qagb31z11tbj430JVJNOjoUp+jssFL6dxh6FpIEnxoneSq6WQwBK54v8GMVUEpjcRlVVl3WrCpDo+ORKMlA0Lg2xNBQV3r92WJP29o7luzE0Atv+reDj248NtKdz2bEWjqfullA+QcMfQsStjM+gq4LwCdWKMbxqayKEFrGUxXEUBWzINqqgzgtw6aGPHLOJeCDr7z7OqgrvU2Rztb22za98jiCvn7hTY9tO7AdoIuRrNes5VMXQNh+h2bzgkeQ8KI0vhFBDNDZXDGinOJdoOcuho/NlgyIIVDjBFyNobEQ9A8uvfZKnEcCdKG5t3/xP+3771BaXr9w4U2H39u8/bb+7mI83qRD0Jj6R5ee0g/xSjwdmMU6sT+Sy3tqKuDISlkMNlvd6QVPxjlX6IULly+89abDqzfvPgM0ntOCcWhxwN+VyJkdFXBkZUzsqnDCzyfPGfrNWxcuv/WmO/d++urKM0BfiTQOHfBCPpaPM9OVMqXx9gRhIUUnacS5QP/H/0CWBkPf+e7O375w28ik0HORJkB7IDUpRqSayoFmQ8zqQi2jc4L+198cvHM5zOib7rz/7X3nCO31Q2rSmbJUznVs6CRLmp+n8/kE9r8LFjw8Zw4uk741B3QJeO+5V/DoOn8GQ2//zTbsyG6985m3f7tybamvOZf1jEP/8ndIAiwErTLrwNBNXblE3u+qjAPjSGhLRqMgAVkVQYOi+peXLnj44TnfQpqDoXGchmLan6IsjYb38uuX3/rcM69h6JZEOWRRMQvqDqWNhYUuOaEDtNeTiSfyCXFtpdiZOsLTYCl4VTzOODQuk+agsuGyz0OfWLh8+cKbnnv5g30vfA6aEo1GXXfC4Y1D5yAfqyRq8GTZlJYzARoLlw0LToMGR4a8N0CfPPLhx5+HRtecCJhYkILytaegC4JkBd2VC4/CTjfFtQQ5Dv0DpAVUknE69Cdv3norhKw3Tx756J0Np0PL8WSmruyj0rEx6LiRW8WumCoLdSeT5ryWJPGlcxiaqpUo5lvm3n0Fhs41944sg+H95k23gh97c9fRV95Z24+hdVqoOFBFLpfj2Yyv8YG8W6XCzP4s+LGIHZ2Qmm7YiWpgddJVPB4qEE+DnoVDFgXd0jZv+Ne/AeibIEz/20GAvm0EQ4t1dB6HuqAKC49uDI2Zm+LFfGeTrNLuGNRI87rzhj60ZNOG/nOBRlG6w+usNGhfKOdR8f8K6NI5WTqS6yyqYlUVBs1wxVMq1flBbzu05I7R9nOBThUSnQVJQ1WFXGczJoajK3ve0Puf2nFu0JF8ojPr5rIryHsjMaz+BF3LI2hyyS2PLFiAmS/5u/87dq0WgaHzLd2Dd2w98OyiNbPvnb3qsfcA+oFSa3Mi4g8gaAJfEUpBE7hNhEtpnTfT1dyc9zsq7tJrBsQsHGwFv792HNr4hdCr39q6YxRDN50JWoegPan4QHNRHK08aA2rGDDj9t75QA+Ptp8FOhAI+LOFjuY8WV950Fx3p9+M23vnDv3oxmXzzwbt9XqbuhLF5qJcU3nQjJqOjBnlVbRzh35o44vz2s4G7YEcNJ9vLqor8CJ7RrQzji39x7lXPnLpggnQ+DZIDJ0A771j4+bVi2aPQ/dOgIY8tOy+0ZZ2Pob2NGUihXyxJReuoP7YKdXHoaSGmMW6e+4jsy4dh0ZHETic8ZAF0DdODk2FLJx7o2hFRytYYk8mG8/lO1qziukGnExJL3LfJPOPXw6ahStpDI2YA/5UpJAodrR4p/i88F8lNpfo1JnR8uOXhD6Vl+D2gTeT7crlOwcGVJXTCR0Xm63u0KFWF/HloGm4qMTQVAYaiec7OwaKtIaKhBZ1iMXIfd8998ozQrfPHz7lyN5ffWAiNJ/kcAg0sjnUWw7Q+yy8/qZUVwEM3ZyX+CoSWtHVhKGvuG7ulbdMCp1vLY3e8dRDzwL0mtkn9j6+eeW6QQpap6Xz0Y3PHCpuMcsrWJ5MJJWNFwdaenL2CthH9Tmx2bVNKTHy318OmoObJuPQ2Uihs7mnNSKbbsBJBGYw6eJeMfjvrwCaMw4d6Up0tLQOiWsr4uLMvxQDSg4y74H0m/cloUmkCdDxfHNPXx+vsSKhfRpWh98L/vvLQZM8rFPQXblic2t3N6tCX+jKtbdmdXQ6ZelZsyABH4cmVWaIuJ19pQc2LXl026KrXlqzdNH9rz29ct289r7OQleTV2zG7nsMGpXSugDKxuKFPAzvDnslJqHoVraaFsi+6dScvvaRWQsumwBN14HVOrv7H/gJhr5q9tIbn6Gg8QKepxyzJkBDlPZnIvECQDf3xGsqrD2GhaAdxYRY+5VD51DEyjgqFTqd6vSY6ZyvFhpy0ObWVnO60qpKJDa68jow4Nd91dCo2GhtJRsq0tLokkNmc1OAT95wBVTUZ4LegKGXYugPxh3ZODSiLpfSXuTIEh0DLUMtgop8Jxw+Pa8oZj0E/54b7n7k0lsmhe5D0G9tu3EVUN94/30YGoesCdA47R6DjsTjAxCm825N5bxWZ1wYujqTF5t5T95w3ZWzJrV0cQiHrGePl6FffeHY4BdAQ4nVVSh0DPR1dxnQy7amm/FzwtBJXk/Aw7/5nivmXjspNEpONj11YPXxpRT0bz8+NtJ2Zmg/aprkOpp7+wJ1lQvNtbRnvOabwdRzJ4VO9LTPRz2yMeh976zt7z4zNCorIfFuaWshkr7K2Vg0LgzNcPYXdH+6HUx996TQUE/PG9749Cd7ll5FQf9kbanvzNC4adIz1NrWKfVVJDQlZ3dP6k/P3/4kUM+9dtalf0AvT1GidijB14LhqM7Jq4/vueqlMjRatOwopCBlR28Bo+ppqsZCAStbKA4MtXWXuhyVcBTrTKpu7s8CNJj6uruvfGTWH9D91crxvvfp0G8g6ObOOMyJCU0EaqdJAJhRVdldKrWLK+bkxmRqSN0W934Gpr4BUd/yu7NBb3oAnPdfQlM7TXSIGWJ0T197aXBIXlFrlaeLIZ/X0fSfn91+M6ae+0u8J+yM0Ec+vGO0ved0aLzBG4fofEdPd/tIabAoqtj5jOUY6Mv+52fP3/zkPYj699SmsDNCf7Rjfm/LadCY2Yyz7o6Wvvb++aVSZfb5x8RgJHVtuf/67LOfq5783zf8+Mc/xO++whv0+dpAUxY3EbZu3nl46VVLr1oE0JtG21oGivGUR2zWqtD778p7qND52UR+oLWtNDJaatfFphvsC8Vg2IcG/OIMJiCYeIUGL2WhkJWicu+nHt15/6qlS1edeOboR5vWtrd0FAvZpoAY2ZqPG/wBtMcEFRrNQ+0jg4OlFmkltrzHpeFaM32RQMbLR69bRYeWqB2eJDqUle3q6B1Z+86St3bef2L9qvXHXz76yqYNpZ6Bzlwk4w3owNbAbMbMGchKOgfAcw8OzuvXmSrhFStfJIalo6NJ5xHTVXy0l25st6PKHADrNbfNu+3jJY++9vLxG08sOrzrEIIeau5IdKX8mBovwiPmVDxXhEKjt3/e/A3ttoq47uKMQgmEVd5RDAS8eI5yxjb+gRvzZuJogePYyiUHjuzae3jP+y+v3r/kDkhDe5rzcUjJvDDC0dj2AnM2kkt0NvcMtY2Mjo7oopWMXIXfpa0xRbrjXvPEwIvezij2pOKQeo8eW/nU5qPbnrn/8Lu7dj66ZMfakd7W5mIh0uT3BMQ6sy7g9TQ1pSJdCdQN7GsfHB3tUDAqOR0bkwOoUS6t4nOIUzEIQze3P7D4hSUPHXn25WfuP3lw54Gtw2vngydLRFIYWoz3yeEyA8Z261D7htFjPS78VoLpZjqruPrO+UU0q+k8kiQ/D33g6OqTLz9zctvbmwF63mTQuUSio7W1uTT/2DJCc2FAVzFqmnpyWTF4Y/Bmn4N+avOhT3adfHnXex88vXHZAyNtp0OjRfjOHhjbpXmLWwVp7oUBzeYyqom2toEs1IcqHj4fOhF666v7H9+16+Su1fe9unHxaH/vadDlRfie9rU7NgxYNAzfhQGN1rU0SnMun/WKtZ+H3vjb/TsP7jp58JMj+7avm1/qPh0a8pLOju6RDfPbdTCfwTdeENDgarlVjLSFl0p5AmBrtByHjtSC9y5tAEvv2//2toO7Dj5+9I3dy0ZLbShkZTE0DtHZAqqt+gd7PWoTWr+qxOWcMyvpcAt4Oq9Oq8WvSEIHRDvaRo/9ZOOHj973+Cfbnn1t/ysrl4229VFxGkF7PR6PN5MYaO3u7snK6y4oWiwGm83QmAxKUoVF13nB0vm+wQ13bH/loSMAvfqD/R/tHh7tHWoZSJQtjfKSVFexI58N2AzWClyaPZvK98cma0U2GkHyVZBqefyJodK8dZs2vnr0tbd3vn1k/4crh0fbu3HuTSUnuoCnKZXRSlymStvDf26iHhm9f8gRdttYwK0VeyOQW7aPLl655I19m5/e9+H2ZQ+U+noGUJVFWdorpvOZQVeai2byBUhNvVmLevV0MiassUuZZo8/0hXJQxkxf3Tt8PCyZRtG2no6OqG0jGQyTV6zSmAxRK0N6JVUVvz25ulm+NLSpJ12Kb68qLW3vX9wdMOGtbetHZ0/WCoNteQjTTqeTeQ0JTWVc4L0KxEDvVXb5BSpOfiiFgjGzS0d+a6MR0vaLLI6k9XHYHCn557bKRMX0eA3t/nQ+5jxu01jpnQjfuW8DychaC6gBOziETXHgYyLPRR6dx18DAz4BMauSqcc/kVl6SqUW2HQKmoNCI13LhLCLb+2cJpuNJ5SnT5jGeP/4et/mBnNaEYzmtGMZjSjGc1oRjOa0YxmNKMZzWhGM5rRjGY0oxnNaEYXmP4/oMmXzOlF2b4AAAAASUVORK5CYII='</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAADcAAABnCAIAAAArN03mAAAYPklEQVR4nMV7W2xc17ne2mvt+21mOFdyeCd1NSlLrpJIlhMJcesAigMY9gGSl1MkBfLoF6Mt8uoWOI/1wzlN0hcDDdI0yEFjw6gRJzKOju04smxJFiXRikSTIimRM7zMcG77vi59+MkJrUhpaI2QBYLSkJt7f+tf//X7/y0JxtGDFmMMYyxJEpIkJL6wpJ2FEILvCCH4OVwMP+GcM8ZkVXng/fe0pIehBECccyEEQghjTAhBO5gAyu4LCCGSJAkhGGOwQ9ikRPBjRMk53xbYLlmiHeF1Rbj7ekwIQojvoIRdCSQeHaX8sF+InYMDOJIkSRgjhGiS7D7uLlzGGEIIY4wJAbhwF3T/dr7MeqgsQYSMMUqpEAJjLMsyJkTwL1zf3czujxhjCWPOGKVU0dTHiDIIAkKIoiggQiQE55xzTimVJAl0blvzQJyShBCCi+BXCNTmsepl18bFjkQppZxzePyfowyCQNM0TdOQJIG8YXuPVy8xxvV6/d69e/fu3dvc3IzjGA49SRIQKtgyQOecnz17tq+vL5fLqZomhACRE0J6JEsukjhWVBXONAiCRqNRr9fr9Xqr1XJdd21tLY5jurNAE1RV1TRNVVWMMZh/vV5vt9upVGpwcPDw4cOjo6OKqga+r5tGb1ByxsAsoihaW1uTZXl5eTmKops3bzLGgiAYGRkZHx8fGBhIpVKEEM55kiRRFPm+32632+12GIae5wVBwBibm5sTQpRKpZdeeimXz/foxIXoOo44jiuVyuDg4Pr6+rVr15IkOXbs2MjIyP79+23HQQgJzreNCSH4GMdxEARJkiwtLbVarUKhYBjGrVu3fve7301PTzuOo+paD1BCZOOMgTV0Oh3OeaVSmZubO3LkyMmTJ0v9/QghJEQcxwghxhgonCzLEsaarquqyjnXNG1hYaFUKjHG4PQVRdE0rQeS3EaJEOdclmXQNsZYo9HwPM913Vwuxxlrt9sIIcdxvuCuu98RQgi5rtvX16frehzH7XZ7cHBwdHQUSRLqyYlLO45DCKGqai6XY4zJsux5HkBHkmQYhizLGOPA92VZ7uYchBBCiIQxwTiOIkopYyyVSsVxPDw8rGlaEsc9yTYweDuwCYRQoVDgnGcyGdM0McaUUvgtJgQCoqKqqqapqqooCiEEISQ4Z5SqmoYQarfbQohqtVoqlcBzPTpEhNC2KUgYQ3bjOI4QIp1OU0rBAUGcjKMICaEbBqOUUcp34qTYiUlxFKVSKcuyEEK+709NTdmO02w2e4MyYVQimHEmESwR7IdBlMSFUhHLZKvZ0E2jslZVNFXVtZgmSEJElsMwZIxJGCNJYoxBlEcIRVEEgjQMY2JiIoljx3F6gxLccjfy6rruOI6iKFNTU+fPn/d9v7+/P0mSJEkwxr7vJ3Fs2baqae1Wq7a5SQiRFcXzPFVVb9++bdt2tVpNp9O5XA7tJEo9QAkaCRGZMaaqquM4hBDTNDVN+/nPfx5FkaqqQRDIsmyaJiEk8P0oDB3X7evr831fcO6mUjdv3tQ0jRCysrLy5JNPKooSRVEv9RLSLc55HMeSJGmahjE+fvy4pmk//elPK5UKGHsYhs1mk3NumKaiKDRJGGOWbQshbt+6VavVvvKVr8zOztbr9a997Wugr3/yXI+27t8roLRtm3N+5syZt99++9VXX/3+979/7Nixjz/+uNVqhX7gui7nPJ1OO47jum4mk6GUDg0NeZ733nvvFYvFfD4vYWwYRhxFvckvwULh3EFmkDpUq9UbN25sbGy88cYbpmmOjo5+4xvf+MMf/lDuH8jlcrZtF4vFpaWl+fn5qampsbEx0zQvXrzYbDa/9a1v9ff3u6kUEiIIgp5kGzJjDNyeJEldj51Opxljk5OTtm2fPXt2bm7u3LlzYRimUqmPPvrom9/85vj4+NDQEMbYNM3p6Wnbtj/77DNK6alTpw4cPNhsNBilcCyPDhEhJMVxrCgKgvIK4ziOGWOGYSCEms1mkiQrKysffvih67pvvvnm3bt3jz/1b4rF4uTk5AsvvIAx/uCDDzqdTq1Wm56e3rdvXyaT6ZZ1QghMSE9yIonzB+fqkiSFYQil4Pz8/MzMTJIk1Wr1k4sfT01Nffvb3242m7dv385kMpOTk2NjY6lU6oH3Eb2ozh7qKXzfJztrbGwsm822Wq0LFy5MTEyEYVir1a5du3b06NFjx46lUqlOp9MDLA9fD033VVVVVRUOTlGUbDabSqUopfV6HSF04MCBWq1mGIaqqhLGjus+VpQPlSVYEqWUECKE8H2/1WpRSkulEvjOSqWCENI0DXLTP+cRergeKksovtCO7RuGoeu6oiiQRC4tLaVSKdd1iSwHQfAw5X7sKCmlkBcDVkVRJEmq1Wqjo6Pgj1RVTZIkiWNKKelRJNwzSnBPEOiSJIHK1XXd48ePZzKZ8+fPQ2SXJCmVTtMk+duglCQpiqIoijRNUxRFCFEoFE6fPv373/9eluVDhw69+OKLBw4caDabaCdz+9ugBK4ijuMoigghi4uLV69eRViqbdUXl5c++vji7c/nLMdGWAqiUEjogV+PFyVjLEkScENQstVqtcXFxSiKarWaLMvXrl27evUqJJ2gHo9v/SWtJ4RAzOSc67p+6NAhVVXr9bqu6wsLC6dPn3722WcVRVFVFf0Z+dbb9ZdOvOsCwdEYhpHJZIIgAB4mm83mcjnYQ/KYrecvyTJJEnBGkKtfvXr1/fffL5VKq6urGxsbv/jFL1qt1vPPPx+Goa7rfxuU29Q/QmiH2bdtu1AojI2NEUIsyxoYGCgUCpRSyO0f64n/JVmCOwRnaRjG9PR0qVRaWVnJ5XKu6z733HPPPPNMo9HAGDPGHqsBPVQvgfbt2jhCqNFo3Lt3786dO3fu3NF1/e7du5VKJZ1OJ0kCBvQYUSZJEoYh2mUuSZJA4asoCue80WjAaX7yySevv/56GIZJkty+fftnP/vZG2+8EUWRbdsQmYAZlCTJ933P8yCf6glKqduzEUJ0ezYQeJIksW0bIQTbCILg7t27mqZdvnz5/fffP3HixNmzZwuFwtbWFqToQHJzzqMosixLkqRGo/Gw7HhPCwMVDfjiOAafAswWWC48Xtd1qBV93wcGIZvNZjIZQM8Yi6IIVDMIAtu2JUlaX1/vFbchJ0kCGSQhRNM0qFp83+8mRJRSy7LiOL569epvf/vb/v5+z/Pu3bv37rvvYoxPnz49MDAghIC/hZvAPmVZhjs/OkpsWRbG2PM8oNfgAUmSfPbZZ0EQgHYihD799NN3332XMbZ///5CoRBF0e3bt8+fPz87O8s5b7fbwNCurKxEUQT0Z19f3+bm5qNDRAhh0HfIeqrV6szMTLVaJYTMzs7WarUoiu7cubO4uLi+vr6+vl4oFAYHB8HSMcZQoDWbTQjuYRi+/fbbt27dSqfTa2tr1WoV2KIeoPR9HyEky7IsyxsbGzMzMzdv3oS+xMLCwtzc3JUrV6rVaj6ftyyLcz4+Pg4lWzabjeN4ZWXl1q1bb731VqVSiaKo1Wp9/vnna2trly9ffu+997rn84hLNk2TUtrpdDKZjGWYLKGVlVW/4zmWfePa9Ww26/u+ruuWZUEttrq62mq1gEHVdf3w4cMHDhy4cOHCL3/5y3w+r+v6/Pz8/Px8X1/foUOHwJJ6gJIxFsfxp5evLC0tHZmaciwrieJOoxmGoUho4HmbGxsXPvwDUOthGJq6kUQx4sJrdwTj12eu+R0vn82t3L23ub4RhiHwcvXNWn2z9tmN2TtLi2fOnCmVSmBGoOu6ru/JqmRVVdvttm3bqqouLy5Zhulk80KIubm5OAiXl5f9MAiCwA/Df/vcv2s0Go7jhGEYx7EsyysrKzMzM0ABDw0NQboUhiH4y4WFhcuXLx+eeqLZbJqmCVmLrutfwttjhJCqqhMTE6VSyfO84eFhVVWXl5cXFxdbrdbCwkKz2VxcXFxaWhoeHobmmud5GON0Oq2qKmAC/qNSqQCB02w2Nzc3gfg8efLk2NiY67q6rkMGCCFjTyjl9fX1SqXCEhqGoRAiDMMPPvhgdna2Uqns378/SRJTkmzbxrIMSXGn04HuRKfT6XQ6pmn29fVB4WaaJnQ2JElaW1szTfPgwYMLCwuU0sHBQUVR4jiGBGqvqYlsGMbW1tby4hJCKJvNBkFw+/Zt3/dXV1cHBgY0TWu1WrZtW45TqVRM05RlGboTcRwDkYQQqtfr+Xze87xLly6l0+mnn35aluVWq9XpdM6dO/fUU09ZllUsFhVFgev3SjHIjuMcPnwYcXH37l3TNCFxbLfb/f39qqpSwdc21hVFsV233W6n02lCSBAEQghgjtrtNkSparVqmmaj0VAUJZPJQHxHCI2Pj4+MjOTzeXDJjLEwDCEs7QGl7/uFQgFPSc1mc2NjI4qiycnJ+fn5AwcOEEJiRk3TjKJIp9RxHDjrKIogoeScN5tNQghjLJvNGoZx4sSJfD4vSVKn07EsS9O0U6dODQwMyLIMzWDIl4He+etRYtM04zjOZrMTExMIIVDHkydPptNpUHZ4apIkmUym3W53284ADmNs27bruoSQZrNZKBSmp6eFEJ7nDQwMTE5OTk5OZrNZqPIURZFl+UvQNZhzDlzK8PDw6OgoZBWZTObw4cN9fX39/f1AHGiaBhk7YyydTsuy7Pt+HMd9fX3gAlVVzWQy5XI5CAKEUC6XE0KcOXOm6xpd10UICSFM0/wyngghBLEEGvNQSGCMS6VSoVAwTRMyI1mWobO2srLied7IyEg6nUYIxXFs2zaUckAnAfsF9Ptexfb/Qakoiq7rEAYxxmEYgruhlKZSKTCmZrMpyzJ0ITY3N+/evauqaqFQgI25rmvbNkR5TdP6+/vVHvHquDvLBAIwTbObzMLJ7u4NpFIpMHDHcWRZnpycBI4T4nU+nwcFBXfT19eHelRRyNsVBedkpz8e+QGlFMxCVdUjR44MDw/Lqqrr+s2bN4MgAGV1HOell17a2toyDGN2dhaGNnRdh9mxJElc12WMYbkHjSkZHCxIFDwfIQSULIqijY2Np5859Z0XXhCcV9aqly9fvnLlCkKIEJJKpZ5++ulsNmuY5j/94z9+/vnn4BHhPnEcp1KpXhHEMpxOd6Kue8SAOAxDzjmNIsr5wMDA888//5//43+qVquyLL/88suDQ0NxFAW+X6lUQJuh/gTvaBgGxrgnR47vG1MErYIngW/TdV1WVYiHiqIsLCwoipJOpw8eOtRutTDGhmF0Oh1ACUGcEAKEfC8QIoQQ5pwylhBZQoghxIVgURQYhgZDWZIkHMdCglEWq6pcLOZ/8j9+artOKpMWSBBFxjJBkgRHLMuyY1mI8ySKspmMYIxTKvVCmPiBqiNJUqvVAj6o0+kgjPv6+qBJD+GkXC5vbm7qus4Ya7daxWKxO3AJdfP2QEePOOL779JVAMdxMpmM67pxHCPGEEKtVgtIwHq9/sQTT7iu2/WylUoFgP0JIvijHlnPA/KoLlDf9xuNBqTWQohMJoMx/uSTT3zf379/P6XU8zyEkKKq9Xq9m5J1Z2N6SLbLXRC7IYJIhBCtVgtYAGAEzp07V6lUX3jhhWPHjkVRBGwbS2hfXx/8eTdGbO9ciJ6I8wHbhWcoimJZ1vYMliQhhFqt1m9+85t33nmn2Wyurq5C7wLKeeCu/hxlr7pVD9XLdrvted62mAkhsuw4zokTJ4IguHjx4iuvvDIzMxOGIfisZrPZVRs4ih4qJXogy9q1HmjSY4wRY14YWLb9ve9978UX/+7KlStnz579+te//uSTTyKEvHYHSp/dC1BKPZkKRggD9Yh2Bp8YY5BKAneaJImu6whjsG5oAs3Pz5fLZUjbEEKQzAOhBbNFkOahLw4YPsp6sCwRQoqiUEph6IVTalkWJuTcuXPvvffBysrKd7/73WeffRYhFASBYBySDEII4hxCDsYYwVdPOLfdH3an0MCycs4dx8GynCTJ+vr6T37ykyiKnnrqqVdeeaVUKi0vLxNCTMuCQgzA7W4b9GrJD4s9kLQjhMIw5JRijFOp1MmTJ//5n/+Ppmmrq6s/+tGPhoeHEUKB5zcajd3mvJ0NMiZJqGeeaJsS2eU10Q5NCrUbJgT09Yc//OGHH3748ssv/+pXv7p48aLneVCv9ff3o13W3XNZPjSOh2EIRkAIQRgzxjzPS6VSQBXBX1mWBUl7s9kEvYRMajuxAr3sxfqT9ey8KyG6CKBD6vs+Ysw0TQnjTz/99F/+5V/X19e/853v7N+/HyEUhiGNE9M0tzeNv5AK9mp90XokhBDi27FNxHHs+76uagghSmlldfW/vPrq7PUbKcd97b+9NjhQ3lhb1zVdUZSVlZVuo6M7kckFR72KPViSOy2PEJUmPIxpTBmWSZjEgyPDncAPI98wtTgKZCRy6dR/+Pd/f/P6tXf+79v/8/XXZULyhQKNIoUQx7I219dHhoYWl5eZEH253OcLCxIhoofzRKqqCs5lWe50Oq1Ox2s3IfZAwf/mm2++9dZbCwsLSRiurlZMTaeU//if/vv//l+/sCxrfHz80KFDURAWCgXXdYHLBNJfCNHpdJxUD4Z4MBJiO2nA2Pd9GF0eGxsbHR2FxsXMzAzMEKmqOjIykslkHMdZW1uD0b2ZmZlf//rXMFodRdFzzz1HKc1kMul0ulKp9GrOTYYpSSzEVr2+ubnped7gQGlqakq37TAMjx49urW1FYah7/tpx1EUtd3yYDoduFPG2MbGxtDQ0ObmZrFYzBWL6XRa13XTNOfm5srlcm/m1bv/m5+fv3fvXpIkxWLRSaf9Zmt5eXliYsKyLOCryqXS6mrl8qVPOx0/VywYhhGG4Ve/+lWEULvdXlxewhjXNjePHz9+48aNcrm8sLDQbrdttwftM5lSSoSglK6vrwOntW/fPhbHly5dWl1dTaUdqND7+/sPHjzoOO7Q4MilS1dMx+ac12o1Xdch7eh0Oq+99tp//Yd/QAiVSiXoFYVh2BuU8A90F1VVPXr0qGoYn3z00Y9//GMYVSWEgDWU8vny2NjF9z+cmZmpbqzDhO7m5ubIyIiiKDD6ePb5548ePdrf33/9+vUwDLe2tnKFfA9QAuHk+z6kbdls1m+333nnnVwuNz4+LkmSrutDQ0OMsQsXLvh+UK2st9tt0zRrtVq5XC6Xy2NjY4wxRVMppT/4wQ+uX7/eaDQ6nU4URYuLi/sO7H90lDiJY4TQ7Ozs4uLixMQEBDpoz0MAhKEN6PJCllQulw3DKBaLrus6jgOdYNu2Jycn0+n0xsZG/8DAM88888c//nFxcRG6BXEcw2g0QkiSHjr0+VBZyrIcBkG73Yb3XlRNQwzD1Lqu60BJWrB0nRCZUZEkG5TSdrsNb/kAG4iwJMuy67qqqoY7EzKe50Eru1tPip2XPveGEmor6IAMDQ2hndEXKLehC5HJZPL5vKXrYRiZhq1pBpeQ67qQmUP2pOoadLcgfXZdN5/Pr6yswDnsRgmg98arwysGnPNSqZTOZBBCzWYTECRJAuNCXZKy0+nACKFhGNDFh0lSoA9qtRoM0wMjXCqVwNF2XzVFCHXfRd3Twt0x8LGxMc4YbPfIkSPwsoSiKI7jQHoWRRG8cgJUL0xkAuWu6zr0N/bt2we+glI6MjKCEIKGRrcOFjuvzu4J5fYsThRF5XLZ8zzHddPp9KlTpzRF5ZxzQcGhcM4VjGVZhkfCdGuSJPBSA8T9kZGRJ6anXdeFQi+fz3dHTe9b3fzwr0VJCIF4nc1mIetSdD2r66dPn261Wusb1WazCZMZKiFCIN/3wT0BPk3ToBM6Oj42ODhYKpfhvoQQ27ZhgOO+Uh1sfG8oJYyh++k4DtS4RJZ4QnXb0i0zXywIwThHSRKFQRCGYaE0IMsqwhKlVFVV13UNw0AY0ziWNQ0hBPP0qqoKIQYGBnaTo2iXse9pyUhClmMzwSWCVV2LokgSmCgaQhKSkESIJBEssKyphu0ghJB48GOEJAkkfN+3LItSipDAMin2lwghvu+nUqndCfJee2cypRRMBOgrYMzQF95pw0hCf8rqH3JQEtkmL9FODYkQgiYf1KJfzgftIEDItu1yudzl7r9cyQJ7294hvDaDMTSmuiPGXb3cM0qMseu6w8PD3Vc9upLY67rPexNCisWiZVnAz++2mD17IkBaKBTg85cu/3afQ/cmmUwGeuIQO7pX7vURGOJst1R9FEsUO+9cbXNGCBmG0dWB+y7bG0q0M0DPHu1Fgy71D+cO8rvPU6IvivyvX/8P6G7poieV4rcAAAAASUVORK5CYII='</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAHwAAABYCAIAAAC4QQTJAAAiJUlEQVR4nN19y48cx5nnF/nOrKxnv9lsilKbYpOEZUmgIdGSLGPH64sx3pMWmJNs370Y+Ox/YDBX3QwYMGTsHgx7aMPwWjZ0FWD7YD0omaQotbqb/ar3K7PyGTGHX2cwu6q7xW4WOd4NNApZ2VWZkb/44ovf94piQgh6nC2KIl3XGWNExDkXQuA4TVPGmKZpRIQ+4PzjaPlnxH3RcIZzTkSqqj6mu0829rhBJ6I0TTnnmqZNwiqEEEIACEVROOeKotDhATh5SI7r/3FXeHxD+/BNewL3EEIoioKnTZKEc66qahzHQghd1zVNA9BAX1XVMVwYY3J+TLYTQJTjkZfrMAzlSUVR0LEnPBKPXdKBIxEJIeI4Zozpui7/K4QIw3A0GimKYtu2YRiY7JShmQfuEXty5BUw0pxzwzAe8fqn6MkTUC9ExDlP01RqGN/3iUhVVdM0KdP1cmyO7ugp1cvkF/FJDHxewHEes+3JtMeuXtI0hcqGgO/s7Ny6devevXudTkcIUalUVldXn3322eXlZSIajUau61Km6+mwZjhVA7iUaSfZLMsa++ST1/KPXdKjKBFCmKbOOX3wwQe//e1v33vvvWazORwOq9Xq0tJSqVQqFouXLl26cePG2tqaopAQArJPmeY9AZfj/hXHMWVjxnNN13Vd1w3DkPoEt/v/jb0IQYzR/n7j5z//+VtvvbW1tbW4uBhF0Wg04py7rlur1WZmZgqFghDitddeAQpQ7nKtO+7iIJ2TDQuypKqYcJxzz/NmZ2effvrp1dXV8+fPV6tVqLgn2aamXqS8JEmiaVoQBIwx0zQ5pzRNdV31PG9rawvavNFoSEHu9/ue5+3u7qqqqijKxsb6tWvXSqWS7/uKosRxPBqNLMuSumKsQUInSUiapvm+yWPG2MbGxl/+8hdd16vV6uXLl19//fUXX3wxTdNOpzMzM4OZoSiKJLLTguhBH6Yl6eAhmqZpmuZ5nmEYuq4PBgPG1ELB+fOf//LTn/70T3/60/b2tm3bKysrIIuQ09Fo1Ov1ut2u53mmqS8tLV28eJGI2u22aZqu6wZBYNs25bSNhHhsDGR/5AyQD4gDOYeg6x3HOX/+/MrKyg9+8INisYiTcRynaWpZFsjuVPDJt6lJev6B5bHruoyxm//xu5s3b96+fXumNrf6zCXbtn3fLxQKmqZJnn5A3USyvb01Go0qlUqxWByNRnEcY/YMh0M6CnSokTFJhwUwBjdepSXMGAuCoNVqbW9vf/TRR4PB4Mc//jHUnaZpj1XFT1PS8+rF8zzGmOM4N//jd7/4xS8+//zzpaUlEBjTNDEnJFdTVRVSr2qMMXb//mapVJqdnd3e3t7d3U2SxPd9x3Eok+s8xLjmpHrJD8AY6ESkqqqqqkKIJElwkX6//53vfOcnP/lJkiSlUilN00nbeFptmjodB5i8mLl//etf3377bc/zNE1rtVrlcjlJkl6vNzs76/u+qqqGYUDS0zQNwzDlseu61WrV9/16vV6tVoloa2tLugrQYKCiRVF0pHqRrF8iLkHHioolmohwd8MwfvnLXz799NM//OEPm81mpVKZFjKTbWqgK4oSRRFwTJLEsqw0TX/+87f7/X4cx6Zp6rquqmqhUCCiIAikVsH8sG1b13VFUVrtxuLifKfTabfb1Wr1woULQoj9/f0wDCdX0XyTgjnpq8nPZtw0PxJxHHPOsXi89dZba2trN27cUFUV1ty08Mm3aaqXJEnAQMIwNE3zd7/73b/927+TUNrtzvnz5xcWFur1Oue8UqlAp0dRFIZhFEVEpOu6ZVm6rhHjhYIthIASLxQKSZK02+1Wq0VHsRepWCZBlytn3jiCWy2/lqZpmiRJGIa2bXPOFxYWfv3rX6uqipGYCjhjbWqgQ8wl9EKIN998s9FoJTFXVU2KMx5PVdXhcKhpmmmapmlKB68QfG5+ptmsz80tFIuFjY0txsTy8ooQ6d/+9gFjAuY6YypjgjGViAvBcAxVAd1DxBVFw385T4RgQqR4JVI4T+I45TyR3+I8SVNRrZbr9WatVvnnf/4f//qv/ytNhaapj8NcnRroQRBYlhXHMYjBzZs3f/azn/X7Q98LarWaoiidTkdVVVDyYrHY6XSIqFwud7vd+fn5arW6srLSbDZVVdV0xS2UbMcsOMWt+xsr55+KkzAM4npjr9vpa7piWwVFJZ4SUwQJhRiffNVUI3+Gi0RwJiiNo5QYx7HgDMfEuKronj+wTIeLpFSs/O//84uiW+acG4ZCRJwTF5yEwhQBWy1NhaoysAYiwiIh357cpqazTNMUQmiaFsexoigff/yx7/tpGoOfcc7L5XK5XOac27a9t7fnOI4QotVqGYZRr9eJyPO8Z555ZjAYhEFqGjEfchKKY7udTqdQKDiO4xZKcZQSEcZVYcf6e+lAEWnEiAgjo3HGSaiMcSKVmCChEhNCKESChBLHsaYanPMk4WEY/t/fv/Mv//I/VVWJY1IUUhTSFEUIkj5mVT3wVGPFxrr1kFhNk6dHUYRVdDgcvv/++0DfNHXTNH3fr1Qqy8vLruteunTpww8//OKLL6DZwzAMw3Bvb4+IFhYWoHbjOIa+KpfLu7u7ruvatl0sFpMkwWVxU+mbnGz5GZxfOaXvXvqQ5VuIapIkQRD85je/eeONN1QVmuDB4HJOKU/pgOky6f2XRsPDYDX91VlV1c3Nzf39fUTpopDDlC+VSkEQGIbxla98pVarvfvuu3fv3r18+fLnn39uWdb+/n61Wr1z587KykqlUhkOh4ZhQPsTEdi0aZqO4/i+DxKNZfC46ZzHVLrPJOiAWJ4nIk3ToijC2hOG4fr6+kcffaQoim07RKQoTFVVPBEXCb6+snIeJhjL4o4PSXimBnqSJIZhAIXbt2+jW3Ecw/cCDbOzs7O+vm5Z1urq6gsvvLCzs+O67nPPPXf79m3bti3LajQapVKpXC4PBgO4X/r9vmVZnue5rquqKpYNIgJN4pwfp2HGvPN50AFT/l+YMViQbNuG++Htt99mjM3PL3ieNxwOwjBM0zSKIs8fjEajH/3oR7VazXUdzDzcLoqiJwo6GrD+5JNPQNvjOK6UZ2u1mm3bqqq22+3d3d33339/dnb26tWrH3zwwe7u7ve+971PP/10dna23+8XCgXP80ajERhbEATwAHc6nSiKTNO0LCsMQwwtrN+8RE82gJsfnvwrZYiDOEqZxQx45513KpXKc899zfM8zxvCQZ+m6SjwgiDo9/vy1tIP+qTVC6wJPN729jY6BOe1bduLi4ue5wGyra2tzc3N559//qmnnrp7967rurOzs71eb2dnBy7fRqOxtLTkeV4URYVCQdd1znkcx5ZlwVcTRZF8zocx049jaHn+DoMODmdd19M0LZVKL7/8smXZs7OzhqG7rlsulwuFgmFqjLFqtYp4CEwE3OIh19JpLqRBEBQKBc657/sQxkKh0Ol0LMsqlUqdTmdhYWFhYeGTTz7Z2dk5f/58rVazLKvVap0/fx6CA2dAvV5fXV1ttVq+75fL5TiO4zhOkgRKgGUxNs75l1K0kwmxONwsyxoMBhL9l1566fvf/36SpKqqaprKGDvwy/NYCGHbtmFocCrouh4EATwfD4PVNP2W8L7Co8Q5j6IIPo16vb65uWkYBhS0EGJjYyNJknPnznmet76+XiwWu93u4uJit9vFArCzs9Pv913XhURzzkejked5YRgqiiKNKWnTo8HUlN6VNNfyoSiRRaakJwef8X2fZSkLsJNBt4rFIjQ+YwyzDY6gNBVwewghDMNwHOdkXSfb9NkLngQiqaoqCeY4ThzHe3t7CwsL1WpV1/VGo2Ga5nA4DIIgjuPNzU1FUXq9Hp7NMAx4tEEcwzCUGllCiXuN8UI6yu825gZ4mEfAeGBE4fOBooc5PQq80WhULpfPDNFjcejIGJuiKAPfW1tbm5ubq9frQRCsr68HQbC6umoYxv7+fpIknud99tlnQgjP80DbhRDIipGsmbI1CvwBnsV8ctIY4pSjiXnQJ7sql4S881KCjpiqqqqGoWua5vs+aCXum//uqfCZJuh5GwQiBpFstVroZaVS2d/fVxRleXk5TdPNzU3o9E6nA6tKPm2SJHJ1Ag/D1JHiDyWTJ9qT7DB/kAd97K30CUvQ0VtN05C0EwRBFIVEFAQBzmA9P7NbZvqSLhHHZES4GTHo4XC4s7NTqVTW1tba7fb29rbrus1mkzE2Go00TQPW8CXIkBCyIfEWl5XLhsgZll+Kfr6Hk92W5BLudUQ50jQtFov1ej1JYkRdTNO07GLWvfFrPqTIT1nSKRMcrE5RFLED3qhvbm4i/Pb888+vrq6+8847nU4HqhwuBPBuwzBUVQVZxACATkym29HxQE8ej53M/0t6ibFy4ACynKZpvd7Y2tpKktiyrCAIdF0vV4qc85mZGcomxwm3O7JNDXQ504EULEYiCsPws88+S5JkMBhcvXr1q1/96sWLF+/du3f37l0oCmhJDBIRmaZpGAaCTbquy9ieVAIsl4NIJwr4kefpeHSO1OkLCwtpmpqmUSgUWq1WkiTlSlEcE7B+0pIuSZiMeR7Yx4pu23a5XA6CYGlpCUzm9u3bu7u7jLFer4cl1HEcyBHSCBRFwbFpmkmSyGTrydjFCRA/jFaRTaqX/NBCMQohHMcB6L7vKyoxxubn58+M1dR4OhirjD0mScIYA/8DZ7dtO47jcrlcr9c//vhjsBdd1wfDga7rvu/ruj4zM+O4hW6/p+qaZuiGZba7HcMy7YKj6pphmangYRwxVRGMwjjiJBKeJjxNBccfJ8FJCEaCESmMFIbjB3/ZdMwzdFi8uq6DoRaLxTAM4YhGIMyyrG63WygULMtCoNG27ThOpTo6Uvsd1x4LZcxL2XA4LBaLlmUVi0XDMPb29tbX1/f29qBYbNs2dAOCjNd+v48YE5S7dOCdtgNfenDCt2RymRwhnIerBy5Pqe7O0Kac95Kf7DiDRR/pR6Zpttvt+/fvp2na6/U0TcNgSGFRFCVJUsdxYIuCLSBmjbvkieDJ/TnbGitNMFh2uB0OsNrLtefkZL+T2zRTMPLGgmxQL8Ph0LIs27br9fr9+/d93y8Wi47jOI4DZoYvImxdLBYx0ynzocPyHrvRGEsbw/RIiIUQbOIz+QOWleYQEbCGFw/qPosTCcjHZDfE8cUL+Tb9vBc6DHoQBEBNCLG/v//pp5/WG3WFKc8++yz8hVhyKXPXQGniIoZhFAoFwzDg66CHkPTjsB47eeS/IOAii61jjqbpgZkG4TAMQ1CKpf6/3jiSgyzROfB+cCIiRVGazebW1tbu7m6lXFldXV1cXEySBFELsEa46yhLijMMo1QqwYmGBVneiHJgjRFH+ZnjwD1Z0mWCHzLO8pIO0HVdTzkdB/qTlnTKCTj6Cv+Jqpj9fl/TtF6v1263y+XypUuXVlZWEMNTFKVarYKwH0xhnhqGYds2YkmUjYF8KjpGzMfo43E6nR2TAMFysSSe1dthPGRGDQzmlB8QyrHrP3yb8kKaF3PY64KnYRhCd8/MzFQqlUKhcP/+ffBcRVGQazcajRhjpmkKRiDpMsoOMgOHNU1Ik7RljlsbjzuYfJtfSPPPIiN80nMphMgL9GlX1Gmm1eEgiiJEHlDtwEiXICK7SNf1ubm5wWAA98D6+noYhr7vu64bRVGh6MISAYOU/NcwjHa7DWcIcmYcxxkMBmOVkiJreMsmEr5kLt/Yx6BGYP3CDK7Vammajkaj2dlZRFFs2xZZQqS8Z940fci86sflT8/3Q0YOsVTiAJEBOFiEEDBfkyRRNDUIgsFggPATOKXjOLVazTCMIAjg+8WlJsnyl3pCxlT5mFqfvBQ/XIijqqogLV8geIY2ZfYi+8eyAA2Jg8ApDDlpBCE0AR8kwvxI0EgF13W9UqlgsQqCoNfrtVotKBkhBGo84AuUPGesGyf3U0xENvLKZ3Ki5HU92hn0eL49RsqIZ0t5LF21lPEQzjmcLRJEmB6O42iqJlUqXH2qqjqOU6/Xz507B6sd/hn4ZLBc5/twpNjm+3lkownZl8+iKIoQXAgBZ3XK4zObRWiPoaAmm/LopTQpkYpORDLiA/IOPQi1Awcv59zzvGazWa/Xofqr1epgMMAgYW2Q3O5I+E5okx8YQ3xM0vOLqmwPqbuPa9N3A0jQYdc1Gg2wQ0guWBdjbDAYIDhXKBQYY77v27bteZ6iqaqqlkolyjYV8DyPsmwDTdMQCMbFsRKMIXIy7sfxnPzX80oyqyB44D3VmALr4cztcdUciSw232g00zT1PE8IgZUQwUZd1wuFQrPZRKr0cDis1WqDwQAaE3RTejngwsTAIH4G9PMJMJRRVTkJTu5tvk0Ku/xk5rJ+4PJlOWpwtjZl9sIOp6txzi9cuFCpVNrtdqlUQkpMFEW+7yMgcOvWLZhOe3t7hmFsb28vr5yXWCAeArWuqqqsmEG6C8RNSqXI+WROBn1S2NmEX16eZ7nqYRgfTDmoVDpzeyyUUeQSSzY3Nz3PQ/4FMhFt207TdH5+/ty5c7A8wZGHw+H+/r5m6I1Gw3Vdx3E2NjauXbt29+7dGzduwMSFkrVtGxkcmqapLEt94UJSCyGEkhn8QFEIwYgRPXCpj3UYcUGsKIZh9Ho9SAkyqHzfg9EQRZFbdCZr3U/VHovvRVZwEdGVK/NwoRSLRSRweZ7X7XY//fTTRqPR6XSQ6SiEME2zUqk888wzhUIBOgfJSfC6SB3yYJpDM/BxsiGOMlDHzuQvMnYSY8ZywSmkmEGl5HcFOnObJugiZzHD+YnEXXAYeAI0TZudnTVNc3l5uVKp7O3tIcFoNBo1m81Wq3Xr1q1ut1sqlVzXBR1EDESiTBNgfSm+R6qgyUUIx3KOQqfJRA88HaD/R9HpefsNSUIHY8BV0EFZNSvnMqoXQCjn5+dd111aWnLcQqfTAW0YDAadTqfZbN67dy8Pd55dcHFEJluettJRuI81ynwsLOctgAdCZPV/ItuvRlD6jwU65dJR0HvTsPE8URRhJJADU6lUEDlCniIyuXzf53SQQGuaJjZMKJfLCwsL9+7dO+7WJ0g6m/C9HIk7ZaDLNTMfRI3jWFUVJPQmSaIbpwiHHtmmz14gIxANGOsyN0hRFChrVVXr9ToeDAlTiIiWy2VOB+nkSMLvdruj0Wh/fx/Xz/O5PL2TipgOZ1LQMZWlsrfyA1J75BkLvBeU1SCwzKP7iNsgTZ+9KFnDw1umBSeJhB6sAwVEiAyAlR9sA8BT5PpICLAYTEL8pT2ZxJ0m4mp53HHHfP+lp4FISJ6a8gdFT2drjyVGShlJZ4xBmaCWjmWWKmMMldQorGYZGzMMA8RPzg+YP/AsyivnGz2cehlrx62ieQ1DmYfL931FeaDc4yREfPHM7dSgyzx84CJnoqIo7Xa7VqtRlgNzkEuu6qi3A4iwJPEkjLHhcJhfIZMk0U1DCIG1F1Y+ro9d5qIocl0Xk8NxnDRNozihEzMs8hJNmedHpt3Cn0xEpmki9aVYLA4GA1SUIQzQ7XaJRKPRQM0xF8nKysqZ0D5opwYdLJCIZHBHrpnFYpGIkLoPjWzbdrPRUbNNLoAmqh1qtRq+NZbKHMaRnOZ5LgGk0AdMBdAJTTk1kRjjndAkhmHIO+K13W73er1+f2Db9tzcrGVZhUKhUqkoKp07d+60N823s4BORJA1ljnh5Ml2u721tUVEuq7v7u5+/vnnRbcqnxDoY+Vst9vy4fPJbExV8jNJUmbJNCD7Y6GfyXYCwchrQlyNiLBmYjjRz263+/e//52IPfXUU+VyGTHbYrEoKNX1R1LLZ0meUrI8fMaY53l37ty5c+fO73//+/39/Y2NjcFgIISYm5tbWlqybZuRDrI1Go3CMESGP2NMVknRYWOHH3bdULY3S96LS1maqhCCjoH9ONDzF5Hrp8jSLogIits0Tc55u90uFkuFQmF2dhY+OyJKkmQ0Chzn7J6AU4MOw51z/sc//vHmzZsffvhhs9lEQXSxWLxw4QIqWnq93tbWVhRFJDTLslC5Mz8/j1lMRJubmyLbiBKvB6agesA4MRJykyGRbVcBExf/5Zyr7GgicRzocvDkmfwqyrK8Uelow72gS+Ejwjw4LW75duovVyqVW7duvfvuu++991673Z6bm1tYWMAGUESk6/rOzg7MHPhbeHqgebrdbrfbxUUYY3Nzc3TYxYq39WYjL4mMMaAM1ki5aZHRidOxtyP5jBACsIosv4WIECDUNF0S1nxm8mlxy7ez6PT79++jSmhmZgbZE1jWfd+fn58vFouapqGyYjgcwg2ASjtN0xDptyxre3tbank0qNf5+XkIPssyxLEsDwYDRVGQ4yi3kDrZf3vceVw2/xl5kueKmBhjpmk6TgERLklPMVdOi1u+nRr0NE0bjcZgMEDGIYq1UMm6s7ODeRcEURBEMzNFIViaCBlnkX67JEmwxRFlAotkIyLyRj60qmVZKMtEHjP2y3Bdl2cbV07GjB6mKVkurry7nDfoQ1656brOGKVpEkURF4mqaqrGmKLr+pP1vQyHQ9d1d3d3UXipqqrjuM1mu1QqlUoV3w+iKFGYtrhwbjQaJTGXW/vJGcqzfXdxQTXXJCu3bZtl+3MpxAa9vqaog16fnVtmgqIg1DQtTg8Cqvnuja3Mk9YTVNRoFJRKpeFwaJqm5/kYRcuyfd+H68g0me+PZmZm2p1mwbX90TBNY8NQPG8AZvwo7dSgl8tluX+f7/txHAdBgA3lVFVlpPKsqE7TdMMQoCuSM0hSj90PUO4vd/hCKAObahER5xzF4ZzzjY2NDLVj7SDZxPH7KabZZu7oAOfcNE3cF5VNeSWT9ZYzJjJuqTyiQqezuQEsy0IMCBnMAOug6pBUOFKSJFGUmDEWhoFkKXnrHE+OQmOk9ULG5+bmYFhh/SwUCurBzqQbp+okP7ydS+6VKwojUjhP0zRhjBEJIhEEI13XdF0LgoDzVNNUIThWLJis0iKTXP4M0KGdGnS4pQBEVth6UDKhqqrgD2pK4jjGDmpgWvnlEcKCmi4Jt2SBmTJl0Oae57VarTFFcaTXJf92TO3IlTBNU8uysONGs9ksl8ue55mmCc8zquglh4mTcDQapdn2MpjB4rCX6Qzt1KCDSGG7B5ZV0mNt1DRNYRqmtqZpun6gwPMkQZqX+AzLSkOJCHMFpV/Sd5q3myTQRw4AjUv0g2QQkWvYvqfX67mui10IsS0eFlJsioUvgnHh6dTspw3Q7f8CLyNkU9pygPZgA1emKVmVF+eCc+77B3XdUr1IwcFJaekAdLh8MTOAvqZp2FT9SHx5rng3Dzo77EeU5weDgWmaQRCg/BnfgsSgoIsyhoPcJsxb7F0jC7cfUdhPDTqmP/BCD5KEP7BWBJeKZTQKRqMR0MizYwlWHp28iYSLo9ANOzP0+/0jbUg6LP6Tki59WA+IE489f2Baeq/fKZYKo8AzLT0Ifcdxer1eFJtMYaqqcJGE0YiIEJ4F6LZtI2jOH22/9VODLg0ZyqUdQ2QURWHsgVcELqk4jqTdMQYWlLvkxZRl4onMPsSl4CKmE/X4GOji8DaxlMv9RIpSsVhsNBozMzO+72NPFKTJI2qBDmMKlstly7LQE9d1K5WKaZpPOkaK/RdxDKZoGBbLatEQJs5jJAUNTQIhHZNp9lsZWDYpY3XI10BdUhRFQRDgaUHehRBhGII+5WcSPD+UeYNZlpeAtRE1HkhvwiK/u7u7sLBgGAZjDNuEQZlcvXr14sWLrutev/4inLrwGj36KnoW0KWk5+8tpQy5PXmU+eGk5LGvyFnPsyIrwM2yDS8g+8BxUpx5lkQnr6Moim3biA4ieI81GW5OIUSchNBylmVBljHq8rdRQG8WFxevX7++tvYs6rgfUbTHMTztF6S3JK+LcxP/UFwCX5kEfUzPSntKXo1NuKXyg8RyP3Mhx1VqOZgRiqI0m81eryepLTRyyuN2u9nptNI0ZkwsLMxpmhZFgW2bg8FA19Xr11/81re+9c1vfnN2dnZ3d3dpaSnfATp9sctkOzXoeaLNsowcLrfqE4c+ecJx/oyUdDpq1+cx0eZZ2ETaLPJfMqSFMygugB8CKTTtTtM0TdM0wLVarZamaXNzc1euXPnGN75x9erVF154YW5uDuuKpmlLS0v51UhqxUdUMmdkLxIFCH5uT5xDWSV5q0euaZNnKEf+oOVBGQErzuQFnHIRWp7tFyJpKLhTmqbD4XA0GkGDM8aKxaLtmLu7u2E40nX9qaeeunLlyquvvvq1r33t4sWLsmpSjjHMIvg15V3GQHhCoMsx54edy9lIPPjkJNbicOID5eSXHU6XmJTxvHrBdWROB8siD0AcA4OMeKz5MsUjioNvf/vb16+/+Morr6ytrWHBgBGE+YGKViTn5PVh3hrKnz9bO6N6kYse5X6tC505GbI8+mMaAyMhIwZj9x0DPS/p8rJp1kBjQLEh1F//+tdfe+21tSvPlstlIk5E2FMWFX5EBFeS3FgRywM0p8gChI+uzdHOEsQ4EvQMVC5ISDWLUp0x0Hm2z628SB502C+qoqc8juOEGE8SnqSREEJQmr0yHHORaJqR8pinRIwriqJqjISiqFStVm9846V/+m///fLapdmZ+VLZNXSNcqChAzI0KqPS7HCMcNLiZ08+csQ513V9OByWy2UkEpmmrmmKruthGEZRLIRQVE0VjCIeJ2GaphBERVGl/HIuLMtUs+ohsA/GmKIww9R4GI0CT4jUNG3GRBD6aRqnPLZ0Owj9UtkRjHq9DufkaFaSRkQ8SdMkjEqlyovXnnvlldeuXbvy0ksvE5203AG4fLRzEs3jvv6IIn8W30sYhq7rDgYDsFosOBDkTLcmSRKlaUwHT/WgTICyVaHdbsNUkdvWYAq1Wi3HsYrFAlSE7/soKDUMjTEWRUG/32eMyd3xoyi8cuXKjRs3nn/++QsXLszMzOA3cx5R7T7Wdhb1gr1/bt26lSQJrGQUteADUuHiw3GSSh2SV9alUhE6NGeOJkQ0OzvreQP8egZ2K0nTNAgC2O7YqQcfu3Llytra2htvvFEoFPCrSfIuGJKpgTTtduqe3blz5/Lly2+++eb29vbf/vY3SGsYhvhtIBQtiAdGkBjjW3JiImkNtOFBoE4RjUZD0xSkUOOT1Wq1Vqt1u10hhOM4r7/++ne/+93r16+jAk823FTL/ZDXtNa9qbez/CYG4iafffbZn//851/96ld7e3vLy8twjyB0B4jhM+r3/DExV7K6aWlkkdzjTmOMsdHII6Ll5eWXX3751VdfvXz5cqlU2tnZKZVK8DehD2CHstxLZPYB/FZHVh3+g4zEqUFHopNt23IvtPX19S+++OIPf/gDrD7soIvf0w3DkDFV8EPEDj5FMDZ4FPB7O7ZtG6b2zW++eu3atRdeeGFxcZGyH52A/CIem6YpdqY6zh8Ctj65q7bswBlgmm47+6+/pLlf4x4MBuVyOQzDdruN0qFOp9Ptdn3f399viJxFo2RZ5xcvXjRNs1gsItJdq9XK5bLj2JJywJMONwNlxdRqriRFTHjMTyZz/8+DDr8oLD0535XDmd3ZQ6p53QLciCiO04zxkxAkBAEuueEr5QCC5YLryDg9ZY4a6Q/JwzoJ7j8O6P8JFp//frSZp8IAAAAASUVORK5CYII='</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAALkAAADoCAIAAAA8HdJZAAB50klEQVR4nN39WY9s2XUYDK619z7nxJDznWtmsVgki1VkcRIplUhRkyVLsuS2oK8bbcMG3A9+cNtP+gF6M2DAgNEPBhqwAVsQGmi3227DlmSJGmwOIksUyWINrFt15zHnzJjPsPdeqx9WnJ07IjLzDhWZxe9buLiIjDjDHtZe84DMDIfBMd8zs9aaiMqy1Fqnaeq9l2+IiJkRERHlCcaYcJd8kGv29vb+5//8n+fOnfviF7/YbDYHg8FoNFpYWOj3++FiFQEALC0tAQAR/cEf/MHW1tY//+f/PMuyNE1lYPJ2RNRay9uJSB6CiPIZEQ+d1GNDeCCPwVvvkkRrNADARESkCQAAdCJ3AAMjAAABMzMgOueSJLl//35RFJcuXUJE731YxonXAaRsNKC8WiUGAPKyGI1GS6srSaKqyjvnGs1MKfAeiNikCADMwEAAwOwROTxWgXxQzCz/H7NE5jFWx3sv+2eMUUoxs/deJiaYEWAW4YjIe++9bzabAKC1zrIsSZKlpaV2u22MWVxcDPgkrxMQdCnLsiiKwWBgrQ2PksForZVSROScY2ZjjEzbey9PkwdmWfaoU34UkNVgBsfMClEbAwxA6KuKERA0aAUMnsd4LLdZa0ejUVEUzrlms2mMCdsWoyMCpNoAAngABEAABmZ27OQaYzRqUAoAgRmUBpYrAZgIkZViWROj9aPO7TFxBQCSJJEpyfdVVcmGySEOmx3OvayL7BkRDYfD+/fvZ1lmrQUAY0yapkQkl2mtw5PDYlVVxczOOWut1toYExAinEKttdzrvQ+IK9/L56Po5bygkbUIQAF45xAQWAGzq5zJMvAMgOMl9woAlAEE0MoAgFagkNNEZ6kJM5p6ODMDMyCCAgZCVJ6cJWt9xUiOSCljlCYG7x2gUgjsWWsEAMADQuXZASEoZACEg7cgKoAj1+eRcQUmGQozK6WSJIknFsiAIFb4EwBkzxBxeXkZEZMkWVhYAABrrVKqLMvAs+SBwkEQ0VorZ64oioAEwv6cc4K+gqxTPEjoChHJ948x30eCoizSNAWsDwYRO3bOmSxhZu8JQQOC90TAioHJaY1GJQDEnry33jrrKwUaFCMr+Z/Ay/9KGUQGUIisEEExapAZe+9AoQb0RN5bY1JEQPBACpDQe0QEVMDMnhgVEiAio7BEBfCAxXlkXBHkkL0X+g81TsSkPtCYcFcgALKLGxsbW1tbFy9eDE9GxEajcehL5flCRYS7I2K/3280GsaYQIQERQR1jDFBfAm8aZZLzh2qIidnjTFaKWYFRAgspAKVMsisADVooxiACVSCwB6AtYJEo0JWQFpBohQrRtCABKABEVgBKkccFhWQUYMyKP9c5TV5UOitVRo0grNlwkIpGMB7InSojElTA0TECoARkIER1QMJ7uMsXLw9Iq+MRqNWqyXHVy4IWxI+BCwRrNrf3xdu1e12lVLe+yzLtNYi1smVAeTPJEmGw+H29vbi4iIiDofDhYWFwWAghC1NU6FMIiZ3u12hXpcuXVpcXJRxyv+PMeWHBlpeXi6L0aCz771nD9Za8KS1JoKVlZVGu8UIXLEyhgBtWbQaJi9G7LnMR1VZlvnIACqjirICBQoUalSgQAEyemRGdEDgmYEUamJfFEVZ5EzOO6sBmcBWZZaltip2t7faSeKqkhm1RiIi4PbiQnNlGYgRPQIAamQFCIhw/Nrgo+pB49sQRYSU/bt///43vvGNqqqqqgqaiPyZ53lgEzEGbG9vf/vb3z579uzTTz/d7/eFiQiqzeKKUIgsy4qiGA6HzjljzPLycrvdBgBjTLPZXFpaWlhY0Fpba8uyPH/+fJqmH/3oR3/6p3/6+eefBwDv/VF067FhSg8C9tvr99584wfvvPX2YDBAVmVZymg//uInPv7xjz/1zNOOfD4qQSvPlOfDLE0Gg14jaez39sHDuYvnDBrQoEGzYvls0LBiDZo0p42WR88emL1SBoDK0uajwaWLT5ZV3kgaAFTmVbOZjUbF+5d//N5bb+XDAaJutDJmtuTPnT//zHPP/tRP/wygRtSMCiEBHMstx+z74/AgoQeiJwNAnuebm5t/8id/IkqKXFBVVb/flyPuvbfWCq6EZX3hhRd2d3cHg8H169c7nY6oRcImpl4nd1lrm81mnudKqWeffdY59/bbbxdFIYJIq9U6c+bMxYsXz54922q1lFK3bt1qNBpra2sAkKZpEF9OFBRTgrC7tf7eO2/2+/1G2pTxp2maIJw/s3Lx/JnCVp39rifyTKPRyJMtimJtbU0hqkR5awd5z3u/traGhE6RBk0aFCtGzx56nT3C8Y5mJtFak7Xs/LDbqaoKGpaZy7wA19zb3b159erezvaw32fEpaUlAnJMCwsLiIiCEggi3z4MPDKueO+TJBGmI8Tg7Nmze3t7d+7cUUplWVZVVVEUnU5nf39/ZWWl0+kIYRDWIw9BxK2trbW1te3tbdl+55xoUnJBrBAJPbDWNhqNPM/TNC2KYjQaJUlCRIIuRVFsb2/3+/3bt29nWWaMaTQazWazqqpf/dVfBYA8z4VLzku8jfWUQAWZvC9HV995OwFKgPY21xcXF6uqgmbTlyP0FdkcnMs0OORRUQJb9rS8vCwCVqvVktPSbrflG2a21lprRVYjosqVjUaDmJhZkcpHw6Io0jR1RY7MOxsba2trbKvc2YVGtrezs7ezk6bp1vb23t7ek08/ud/t9Hr95bXVqixN2lAmETsPAjAgEdc7cAg8pqAnUqRgt0xPa72/v8/Mw+Gw1+sVRVEURTCsBRUaarq9srLinBsOh2VZikCqlFpcXOz1eqLdQGR+yPMcAEajUbPZVEpZa5Mk6fV6VVWJ5CQLOhqNjDFJkmit8zwXpJF7oca/E5VXECBNTL/XWb93l5ltUfacLYqCl5c3793b2tw4d+4sI5Rl5Yicd0wuz0tGEOl7NBqVZSnHoNVqpWkarBJBbHeuarfb5LwsgiyvZuyOCiIa9Hq2LKuilEXodbo3bt1ZXGwPh7lJNd5X61ubWaPx0a0tQgCFACBo8jDwOPYVqFVfQQLnXJqmOzs7t27dEvQviqLRaKRpWlVVvOvBqibiTrfbzfOciLIsE4Gm3+/LZhORGFFE5U6SxDlXluXS0pK1Ns/zxcVFsc20Wq3A2sQ0F/igWG4CwlVVlSSJOubgzAOcc8P+YG9np91uK1DFKO/1eswMoPb29jqdjjK6KMrKOQImBKXGxEOIblEUQl/X19dF2JdjFo5EI83Ygy2rfr8vRiZEHCVDWa7hcJiPyqoskySpquru3fv9wcgjWOu1d6Xd3dndP3/xQtJoIkzY4vghqO0j44oMPew9ADDz8vLywsJC2GAiWlxcbLVa/X5fcD/cHuwlFy5caDQay8vL169fl1uWl5efeeaZbrcrEquQq3fffZeZhbU9//zzFy9eHAwGd+/eRcRPf/rTSZIAQJZlzWYzSRLvfZ7ng8FAqFqWZS+++KIxRtRsufikbXGJSc+cO99s33ZE7LwjJsDS+b1Od2t7Z2NrK8ky68l6DwpNmmSZqaqqLEsASNNUZp0kSaPRaDQaWmvnnPwkB0yjajQa7AG1MiY1RlWV65Z956jZzFSSglZKJ877TrffHY46g2E/L4qqNIlKkqSqbLO9uLS8iloxakAFTARePQQmPI5sG5TPYFw/e/bsq6++2mg0Wq3W2tra2tra5z73ueeff14OBNQ7FO/T5cuXq6oajUZ/8Ad/8P777wPAV7/61b//9//+iy++2Gg0mLnX6129evX3fu/33n///eFw+LWvfe2f/JN/8vzzzw+Hw2984xu7u7u//du/feHCBcEJodjMLB6AoihErmq1Wi+99FJ4aZ7nc1eFJhYHVJq1X3rp1Tz3Gxsbo0GeZdk5BKXUhQuXnvvoJy899XxzoY1KoVZoTKPVsGUl8hYAKKVGoxERra6uaq0XFxebzWawdhKRLcqNjY1Wq5UmZdZqLi8uZ1na7fYGg/7y6mqr1VRKG6OtdQC8v9/Zy4fm9b8py7KsclklnehPfOITl558mlGPLekRD0I8jiE9pt02GGQBQGt95syZf/Wv/tW9e/fSNBWFWciGkNNY/QnwqU99ajAYbG1t/dEf/RERpWn64osv/uIv/qIIyMJ0lpaWlpeXhXE899xzr7322vnz55VSZ86cuXnz5pe//GUhWrFdODiJRqNRlmXCIrvd7urqqqz4Y8z3kaBx5tzf+rW/87mf+un9/X1b2na7DQqLomi0Fi49+cTq2ppOE2U0IRBjkuhqNNRq7GKz1t6/f18oKxEtLS2tra0pY0Asn2XZ6/VAa8cMiV5qrz7x5JMLCwvdbncwGFx64onYj6HSxDt35oknfv03/95oNKqqKmskSZIQuZWVlUtPXLJVJfJKDfRA0+0j40pgIjI92fjFxUVr7dNPP72wsDCWtrQWuSH46qYwpt1uB2eQOKvFNLK0tCSEl5mXlpZarZaoMxcvXhQ/s9b6lVdeuXjxYpZlohYFf2HAG2OMaMui2AcfVtDzTwgIVDXIW8tnPnr2olIKiCFJgNEVhdKJahgA8AxoABiqyjsgrQ0iGKWV1s5TZV1/MHSejDHWeU+MxAgMAJV1eVE6z1w5733WaKVZU6WNhRXVWFgEk1giqhfYMGuTXnjiUiNreUdElCSa2ZdVTkR5WRqtpzADEZnpGHR5HFwZr0skcwmFbDQaiCisV863nI9pxzoi1L5GsZ4Ff42QEGOMbO3Kysry8nKapr1eTxBC7LzLy8vNZrMsS1EjxXI/5cEXIQARFxYWxHMrlt9Hne+jQnNhkZxnZg9A4KkskyQxjSYYIIZRXgBAs90ABTrRCiHRgEzkvRhNlcY0SxrNLEvSrJGaRKO4jLU2xmRZlqWGCT14MaxlTKhM1sqYGcAbYxDQkiMmYqeTzLmxEAmIiKbRaDNwVRU8piKq9gAcbM1R8Pi4ItYzqM38ot2J3SlcEHuIZiFJkn6/f+HChVarJa4A8V1D7QASNiTqdJ7n1to0TUWjFryMuQ9MykOxMCsyynw1oCDXh0UY+8icg/o9SmsFmgE8kEaFCtoLjXqokCpAYAQEZVDifoCNQqNQAXtbFqMhnlnzldVJys4ljSZ3u+BJAzaMTrRBYiYEQPJAxKy094wICjRi7aw1aHQ6fqUMHDBLGgAKmBgQUeODLLYCJ+tIg6NRVXiBUJHgZZylQDFMXTBFSH5SQB06JGac2Ak8+IHHNlRkAAIABaSAmBmQAICRAJkQ9JiDEwMyIKBIGOPnsRIHPtT/IwDpYJ+dGWX0/8PCh4YrcgqD6ezQG4W5TNGDOODhJxBXHnVIYmEnPNg3QvDAAZvqBzKzJwTHZFAYR32WAFEBMcRvRgwxb3ODueHKUWt0/NqJNUmk2uAwCkgQU534p0OJ0E8IPOKogtNDIgwAIhcYMYPY6wAYgXFs/PR67M8hAFAodrQZBjt/M9LJGjGPB1mREF8SO4ygDmYL4Q2x3POTiSUfHBCRxgFSRJH0IIhCzAQ8jtKdYNBAk+uhRHBlQJ6nu/TE6cpREFRcwZVDfUYxXQli8v/REAVJ9l2kE4ADbWBiNRgAgGo6xACEgEoum9Bzx2HYDMAHFva5wInLK8dI1zGuhD/jC8KvWLsq40UMx+tkJ/CIcNR8H2mczF6hAiQAqrmNBDzK74RqMuaQkBUwgxI5Z8zC5hyD8WHyoPEIlBJsgMP0oPDToYjyfxyoiQoKosiuMwCMt18xALGwFZFWFDAAMXsEYmasEYPBAwCz/D/PVZobXTn+PM1KG8EiJ5YiCaMUm4o4zySupdVqCQOSeAOs0zicc2Ji+UlDmkelc1VVAXBilFaavNdat7IGOZ/nhTmLYL1KDHjWypR5kaBi79NGw+hUo1IsUguUVZGlTcWAiiU8/yT49YnzoFmQ3RX3ntgiASAoQWmaSkRLu92WCVdV5ZwLSCOSTfDRn4Ip9kShkTWYLQICuaIo8kG/Kkqt1NrScsMkXFZUVkSgtVYEzcSw9ZpRo/KVtXnRbLWUNo00Y46VZgIAVEdaQR8PTg9XAg3gOh8xDlUBAO99t9vd3t7e29sTF7Exptfraa3FzSQOJhF1xUwsISmnNoWTAfaVRUSdmoWs2Uyzke/ZsuyM8lGvp5S21jpLSqk0bWitKS8L3W8v4OLy8mKzDZ7IVioxJMY+OjAozJ3engauxNgdmJGIKeIAEm/A5ubmH/7hH16/fr3X6yFilmVLS0s//vGPEXF5eVkiIIVblWUptwd/wv9OAQHYOW+dSRSwAfaj/uD+7dv7u3tbm5tkna2crSpbeWbOsmaj1bx48bzJ0gsXn1huL2CWAbMvSwBAbWqDLYH8z8IQaV5S6YegBwV0yfO81+s558RBePv27f/wH/5D+LUsy+XlZefcpUuXxD/c7XbLshTEcs6Jr/Gkx3/SgEpl7TYA5fudy2+/9Tffff36lSuj/qAY5b6y3npg9k5SXrJms3nnxvVGq3X2/IXRcPgFB088+3SSZKA0E6MCRlKgasfPnIW5U+JBMQMSyLLs6tWrb7zxxpUrVySVsCzLnZ2dlZUVcfWVZbm3t7eystJsNofD4eXLl7/5zW9671955RWJui3LMuRF/+8XmAi1KjrdH/3wjW/+5V/8+M03y+GoaVLvHBAbVlprZRQiGpMqpbe3tpbPrK0Xdn93r98b/uzP/dyzH30BjUFmYBCptsYWDoaZucBp0JUpaVxwZWtr68/+7M/++q//+urVq8wsQm673ZbIHUQUVJBgXkkf+frXv97pdBDxhRdeWFpa4lNJ4zhxIN7b3njzjR/+1Te+efntt/LBIEVN3o56PY3KswZABTrVxivrmRNtFHGVF4PB4M0fvkEAXyirT3zyk6qRsviYTww+BNkWAJj5L//yL//wD//w1q1b3vvl5eX9/f1+vy9BcUVRiNocCmqkabq6unr37t2yLFdXVwHgpZde0lpLtOWpTeGDQBz8fOBXBkKjt9bv/uC73/3h914vhqMzS0tU2e317eXFpRQ1EdiyIrKYJAC28k4Z3KuKtJE124vdva2/+e5fJYl66qlLS40zdRY7hjfAw6b+PBSckp9ZqEu/32+1WlmWff3rX/+3//bf7u7uitrc7/cljl/IiTg5JO5O4toRcWdnR6IM/92/+3fW2ldeeWVnZ+fSpUswKS/H1syTntqhQOBRzB7i9wMApRjAehLnnwI2SrGzZJ0hv71+88/++3/98Q+/v9xIM++Kfq+ZZufOrFV5ZZmYGTWg0R6ZgbRRyJAlWiHbamCZ8mrw4x//IGngb/3239NZhiqtLHtWWaMJoIqqaKbNeWlEJ263tdZynarYarWSJLl8+fK3vvWt7e1tyfmQOPXgPeYjoKoqItrd3bXWvv7663/+538uKVjxu+LrT3peR8A44iQc8PG3CKgUIaDWjGBtiYiJUc6Wb7/xw627d8vBwJcFWmuANQN7L34huZ3ZE3hAZuYk0cxsXeltBWxtOdzdXr9x/fKtm9crW2KiEREV8LjwyjwDRk+JBzGzqDB5nn/rW9/68z//806nIymDMSUINX/km5DejHVo5nA4XFtb+/73v7+ysvLaa68VRSGy7Sw5+YnxE41PIyIwsUIgAFfZRjMBoP2d3b/+7uub99edtUjsvVeIRGTLCsdzUTW+AIAPZmtLlUlT1Iq839/dA3Pje9/7Xnt55dLyimJgRAaee3DxidMVsbaF437jxo1vf/vbN2/eBIBQV8fVIClVU+URxPYvqa9EJCVY3njjjbfeektSJWK30YcN0XqyAj74EyVCeRxcwKCgHI6uXb166+r1sihSkygGYEZib50Q0TGBlP+JgVjslo68I/JMYuN3zuWj0ff/+nt3797lsmRmpRQSsyej50kLThxXsM7/k6JwP/jBD955550QmyJuIKnDw1FthIBbIRdagv5FZFlcXOx2u3/yJ38yGAxiQhJMlh823oyxZCqZTyLyNWCWpsCws7X97ttv9bv76L1RCDwmokQOOayAZ/aBuQJx5SzX+VnjEmgMSHz3zp07N2919zsaVaKnI9XnNKsThiC0IuLW1tYPfvCDra0tyWUXPBCKAnV5H478ADG6SFaViCxa66qqvvOd79y8eXMqQkrgw8aVA4jRRSkA9giUJgaqav3OnWvvX6nywlXWlpWvrDiTyfkQ6B5ODtTxPVyHpJDzVVW5ykrGgi2rG9ev3793j3lsr020ZvJzNPWfRkyC5HAw882bN69cuSIkRFKdQ2hXCKaEI0y9Itk450aj0XA4LIpia2vr9ddfD5VdwmU/mVq0904C/CSJp+h1N+/d3V6/j8S+slVekPdaIZMXMjymKADhM4YsPhiz5rHC6NxoMARPVy6/d+39K7YsgZg9SfWJOU7hxGVbYTRlWUpJH6EKISl6fESIMCq8ADM1cJh5NBrJNVprqekCAG+++aYs2VTs3IeOLlJZK4BiKJ1r6JSZvHOAfjTsd/Z3y+Ew04o8kfcKUaOyzNbaoBKKTFubphgQCQG8lzwYrXUDcVjkvqzIqDu3bt+7c7cc5mmjRYgJ4HxtlXOmK4FOQH3KoS6zU1XVrVu3bt++vbq6KkEqIszKvgZii4hpmkqaqrBkqPOGpKSnJIULM7py5cpf/dVfSV6ZrF0Yxnzn9SgroBE1CLrgQZiA1rqoCqN0agww9Pc7t65dLYcDBaiAjUL2Ls9zZk6bKSERMCMQeALvWRIKvcQxEbAymhGKPC+KQgMqQAWwsrB49+at7Y1NZZJEaanaEghtvDWPByfOg5jZGGOt3dnZuXHjhuSPxVrxAUsGgMMoSgAhQlJqRTSCfr9/7969PM+l+oZUWPnJEVYEGACQUbFBIO/AWS7yzfX7W/fvF6McmFRw4EzKN1Oi8ThCG5gieQ7FTEusANlTMcrX798H56muqzjHiZw4rkgggff+ypUrly9f1lr3er3wk8i2oYZl0H5jViLUJZQHC6WOAWA0Gl2+fLnT6UjhDJ5rKPJjgmypGNrHJjkGAKOMeMVRG/Z28969vc3tLNGKIZosja15AIxMyONUD5S0ZiIAHwm5ILoVMQIYQLZu0O1dufyerypg1qg0znM1TmNlZQvffPPN7e1tZg6pQDxZQHA8oKhkMtSMLMRDSXYIIjabTSmDcPny5c3NzVCNIVirTmFejwJiWQFkDwrLvNjauJ+PBkutBdFx5KIxZgAQAgkVqf+NQcpMA3tgIEaqM2QZ2JO3bjQcXrt2LR+N+AQSHk4cV5RSYll6++23EbGqKmFJU/xFLsY6pzBmTEG7Cdkhgnwi8dy5c+fWrVsi62Fdyf4n0P9MzhF5ch5ssbmxfu/OXVcVGhnYM/t4HQgJlAgrwMiMfIA9szYbHv8TW4u1dmdre297R9CI/U+wbHsoWGu3t7dv376dJIlEyMYCV3AmQ8SGp4SYgCgAIDRGjAoS8nL16lXxUQv2/ATY4g4BGZ7Wmsrq7q3bW5vrCrDMc2YWn2ItjtTkBAACT5rMIuRx0vIYFKAYahUDOz8ajW7dulVVFcz7zJyGbMvM165dkxA4mMnuUXWF7ViqjblSLAhzbfUXRoaIw+Hw6tWre3t7AVcC5v1EgZaMHmOkIM+oP2g3W9JhgJkBKVhTAtTCygFREcYkaxU+KKUUoIJa9/T+xrXrZV7AvNnQaci2Sqk7d+5IcUAx6mOUnxzTFZjxFc9qTAGrVF0idWtrazAYyGVTBSxPH2qRgyWjq6YHynnnKgfMtnR7O7tlaRuNhvdeLvCHGYQCf5n4sk5kHi8CoJJl1KCQgRi829zcLMsSyKM65LGPDXO2xcVGsEAk792798d//MfiypFYySlRFCJiE2z/ENWQgihUKjyWmaVAi/gNEHE0Gkk92djWcrpAdVYYMCga68JSS18DE1SUD/Kb126srKx0N7eU0ZV3oBC1QakgKuUxsE5HPSAMzMBECKAYgRmIHHgmBiU8OskqX6Um7e53tjfX79+7u7SylLXbgIpnIhMeT/I98fPnvd/Z2ZGwamEfHMXxB6vdFN85BmIhRp4/Go3ef/99MdsEd8FJzuk4QGYYW8yIQx0EQETUqIBxe3NLCowbY1ghKD3WsgFASrYhHkpRAACAGTwQE7lwuriuMqwYEEEb7Hb2Nu7dFc1xjnAaPOju3bt7e3uS3RM6bk3FsPEjunLilaqq6gc/+MHu7m4Qfk9oLg85sJqDMksdDICxO08pYLpx/WpR5MPhMFSwQkQEDayYUBzUxxx6Zq6zUDk+NlTH+iRJsru7e/36dQmCmSOcBl+/d+/ecDj0dZ87+TK2rARK80DCGMvFslgSBHPlypWdnR1ZfRF7T3ZKD4A6vukA86VOE7K1N2/etNZWRY5aMR3ChWMkOAYwAlDKGINq3GFrNBptbGxUZTlblWUOszo5cM5tbGyETnNQ9xwLLaCmFKIHPnCK9orsvL29ff/+/aPc1KcL0+iOTAqAyQH7waC3vn4P6pGPh8oq5sKHjZ+C+nygKiulxDSrMKTVWWsVgwIcDYeDbg9onktx4riyt7d3//59+SwLERxaU25hnCwUeAzEtFfEoMFgcOXKFSEnIbbhQ4HxrkudCwhGNs/swbvdnZ29vT3xe1RVEcSUGFGOkdsUkAJQgKE9ZrCxKDWOk7K2SpQuR8N79+6wxMTMCU4cV+7du3fv3j1x6IgBV+hKUHB4Eh7yseH64AF49913JaQy5nSnDzxOtKjZEJACQgYNSK7a3Fwf9LpVVWity7LURjGJUsNEB+gSrQMdyMfyfEFFoLHoUoNwXgUgcuFoOLx540aRj+Y4tRPHFclll/ADwRVEpDoz+Sj728ODkBCRoCUgl5nnrgI8NEzE2EIdWo1AiMCeep096T6Fiq2rAtOchaNeMP61psjiG2Lm0lbCjm1VkbejwXDz/npVVXOd25yAa5Vd8gURURpy3Lp1azAYSNsPabIgaYViw43bnoYY7CCxQs1udA1Twq9oyFJO/f79+++9955c/CHmOSulFBoRzvS4PAopYCDnvV1fX1cKqqpg5sXFxbpj21i019ooFWZNSkFdHc0JgRFsCCFiUquHyMkZS5KkzAtXWVdWBtW9O3fJOrF1yo6IfYHrqKBHntq81kh2MUxGJlwUxc7OjtSDDxEIVMf/TT1BDkqwv01Z/SUsd+rAMbM0TpHuVtevXxdM/cmx8SOQ+P5AQTEa9LtdV1moOwc754Kp/uCWySrLMBGmRIAUz62+jKQ8LpHz3lZVVeTD4aC3u71Ddhz0DjMNSx8V5rmmgg1SfUnmIMpbURTiWJaIAsGGmAHFgksw+U9JM4JkQQoOvyKidIMpikKCeT88BiSgABSymjCmMQDD9vb25uZm6GfhKdZrNKKeXRAiJ34iRETFiGK1P0RXGovQ3hORt64sy3KUb2+uh9WQlQ+1sR5vYnODsNlCOZRSeZ5LtjrXZQQBQOqkTx0mgSCvBLk1yDETumJNt4hIPAbSR3V9fT12EfxEAJECAvBAbmtzY2tz3fkqSbRSqDRI8+CYiE7ZJ+OzgYiAE5IvB7c8cAgJMsagAskz2t7elkQZrLtXKPUAW98xMDdcib16QgO01p1OZzAYBCVZkEaCZ2OyEY+ejgCpAxUXrQxMLYjJ9+/f39ra+nDDKMcF0OsAR/kgnsROp9Pr9QyquOuVUgZBT/FcmPKUIdXlSQ+wRGQaZi9lBbGu2dlIU6M0M9uyvH/3nrTwm9INH49Hz1O2DR5BIXfe+9u3b0tvTKn5BgBByIJJRAkrNWXPDasT601TvFySG/I8v3v37nvvvfcTFXKr6noItixG/Z6rCq0RYNygUUL2IxHtIDZjdqYRfkzQFQBg9qiUMdILJNFae2dHo9Ht27c7u3scdfziOhH48eYyTwgylITdv/fee/v7+0FbDugc4uJmRZApY27gO1DTkqngXK4T6621nU5HWpz9xAFxd29/f39fLECi/sgK1Kdk2ng4i/HMniS8nwGQxCsEEScS0VVSIOSs7u7ubmxsCGmR93wQBj1/PQhqm0dZlnfv3pXW20JUAuuJg55gMr00fiBG0S1UJzbHuCKF/GWZJFdva2tLhJh5zetxAQEmerbu7+31O92qKNlJAxevUWmtFTAgAUoNAAIpaBsOiSzI2GYzLizJdbGmKJ5SeeeYWSOnJmmkJkkSo9C7am9/uyqHUlNZYnQ902wg5sPA3HBFgvUlVUe+GY1Gd+/edc5lWSZJPdIHtygKsanI9gsmER0w3bhWtpyDGEXCG+XXZrMpfcwWFhb6/f7777+/s7PzIdpX8lHOxEVZMYLS2lYOQAPo3ftb1999b0GnDdSjTm+x2RIzv/OWfEW+YrLAxEwMHsjJxiBoBZocV4Ulx0anhOAVjWNvGZ0jW7qqKLMktUWZaFOMRkpBmpqV1cXBsHv75vuJ8mXZR8OlL0gzKa6cA0TR6OUf8oO50txwJS6HISpur9cLyYJTOBHHOk1Zb+OHhC+Pea9w/cDRBoOBlACa17weFbRK1MEUJE2QoKxG/YG3TjMoHMemMHulAJmQDwqp14G2wOOg7BrGVRfU7J4iokTaihelLPOqqshbZq/A5YNBmQ8ShQDOMxEyaCXpI+PbefrDUTBnPWj8UKW899vb29KaOIhUQhuCnAF1xNOsrSXWkib4+gzIXZIJi4j9fj84nD8UCEop1znYAFDk+fb2ttQ2C79CdGZgMsYAJ2sBz8q5MLlQWCdxhpB1MfQR0b40hVZKieViXHLqcTZ+zm3duDbJE9H6+vpgMIiDm2JVLTCdKbNbTFdiOOqlghahneb+/v61a9eOJ0UnDVynh4nhABCHw6HEwMbiPNV96A8d7aHfT30ZEAURA4/2wOxJUKcsy93d3e3NrXEsJjEAqGjTY1ryQC40N1yRaYfsQGutlAKULRQfjZx+ngmBi5Xn+Jt4afhokAMkCfGdTufdd9/t9/vzmtejAjPXAdfAzNoYQBwMBtvb26FraJDVYFLvC3fxTCzLAd2dDtVGRGSFhGNpT6xQzGytrYqy3+lubGywHxt/1diuPKlh4fSHQ2HOehDXWaKdTkdSvKbkEp7xJwfp9VC0OFiOIyCoS5J5ZK29fv36/v7+vOb1GMC1V2s8I+Z+v9/tdgWng3QVor1iY1JAlKPoDQAgH+hKoBAOrDMKtRLNoO7O6vM831zfsEWJDEZcjof1inkI0Xautjio5Q9r7dbW1u3btzniKVSnLsc4ERAlsKRZiiJPOMqeKzeKNt5ut5VS9+/f397ente8HhXGHubavgwA7Fyv18vzPBiaBRVCInegNHAYQY1hlsyMv0dAPZE0A9L1WhtvXWd3r6xrg0khsanbHxLm2RMG6zoow+Fwb29vd3cXat40ZReZ4jVhmVTUJD5+OEa1caegLMtQBUk+7O3t7e3tzWtejwpaIwCgAoDxmOVwB5MSEUl16zEbogOL4hTJBACOyCrUGUPjvEMA6Wg2rsIvdeiIGBiU0lolSpNRDiAfjVxlkVhrRRJbdRicnrwia5HneVEUi4uLb7zxhnNOPEFB/QnNC/1kG0wVQUwthJIL3Q52Fzm1oU2I2HW890mSrK+vC7Jev359NBpRHfckTzsdRdp7VgqKogIRTYiMMVeuXOn1eoLKQZ6TaAqu7a3MLFoMEcUuM4FYW1QMql40RgSFjBAWMVBxa60tK/C0t7e3s7VdFoVCJb2YNeoYYcJ7jjqQAnOjK0FXFFvqcDgMPqAAU5xl9iHHj3XqrlgLCPZiRLTW7u7u5nkudf2pjtqEKCDr5ADrnEiQ4qKWR53O1tbWYYwVoI4OluvH/9cp/ogIkzIc1BjPghOsmFlSipwfN5sHAK3QICqjlFYeIB8M8+EwURqY2ZNBI91ZZw0qx7cEmaceJEqg1rrf7+/t7cWEd5YHH8qJHtJVMXXgAECccKJnFUVx8+bN3d3dmJ0dytpOAgJFJKYg5m9ubh5qeoZJv0+8JuEbmHKywrj8aRDyhPerxKCZCEsFYkRUgL1ON06eEkr8GFObp41fmI5Sam9vT1TEsDSxbD+FMfLhGIFOIFYNYtzC2s+s6pSRqqpu3Lhx//79YMCIKdC85nsUhJqaiJimaZIkw+Gw3+/HWs/UTGnSiRHU6djUFGR/YbuxpUpWoNFoNJvNRqORZVkINyPrNOBwMNhc35D6GsigAIEO2tCPm0KHggxHr9A8dWYJJSGizc3N7e3tgLwBD2LUCT/BJG86CnhGkwyfRSqKL1tfX79582bggIHCnwKuMHMgjiKgSOeSWaop4w/iRUxyKAqZg+icBJkvtiOEJ8f2FaxdKwBQVdX9+/dHo1HgfB9y/Eo4DWVZ3rt3b2dnJ548TwLMMKYH7iJHsnD8pRBV+SmUjOv3+9euXZMAgPj2U4DgtpSp5Xkuvo7aBoJBAh3bRKK4nPClPAEnjVIwWQAgTF/08KoGkeW5NmGQ9xpwa32js7cvncr4cSulzU22DbgiMbadTkfwOpixp3aL6jg6nhD3jtSNw8KFeVKdPhKHOoiB2Ht/69YtSQEJSpD6AOGDDw9JoogOkg+Louh2u9baVpohG0XE0joXGRQHwTymHPGCwKS7AyRwpcYDlHYOOL7Se0+OvPcIWmudGgOorLWmke7s7Ozu7j7FDABVVWVZBg8lGU7APHFFdqWqKvEwC2s4MEnV9DbQldltOwZXAqKoOu4puAvCuRS6Imr53t5eqGoPERk/cbeiAiJCRgnR1s6zrVKFqVKoRPnQAISopJHlWIRx3tE4XE0khiRJIpSTRu6AiEIblBQNDMcGOEkya23pCuccs00gURoMoPcuNY3RsDfsd4EqZHS2yrJMIqbkBVLJTgH4Y73Nc8MV7/3a2pqUoN3a2krTVM79bN6yrEhcizYgTSjjM0WHYhGYojhtAJCCLo1GwzknddglC+bu3budTuepp56Sppppmor3e17zncL1segAjNqUVGVaIQBYX/Y6N955ezXLfD7yVamZsyxJ0yYdxJV6wPFqeO8l6kVrXVprJNAdpDwYeibrHTJgXW4C4MBTT+SUgma70Wy3wqgICdEzFju7faNp1NlrLq+0Ws08z7Nmi3ks4iKBIK4Zq1mHw9zkFcm9Fm2o1+tVVRVKAULNQdRhAbOPAbFMN2UODvvnnJPgBJpsO/OBJvkQYMGDFgbB4F1vbzfv9zVTgqAVKokpYgY+UDimUo7lZOtJbRkAWM18w8zei0s5cp6Mo2EIicBL/Daw293elCJizDzOHKn/jaO7o+iZQ2GeOrNQ+DzPt7a2JMYzUAhRaOOAt8d7S3hg0D991LshRpeqqt59910h8kESOgU9yHtvdG1yRdzY2BBHZnxOxiMP/PEwN+/UUON6yRDJtlI6r6oqcp79xJlBYiBWYvz3/vr161VVCZt/vKnN03coOmqv19ve3hYCG+zrU3TlsV8BEVHhyHE/qyUVRfHjH/9YMl7h5EXaGFAK4TODUpJ2GcYfTCmuNqjQYeOSLnhS3AvGsjDC2DoycSTkmXE96fg5YcWI6Or7V/rdLhyhB8W1pY6CeerMgub7+/uj0Ugs/VMWkXgvHw/itZggxbGmgIiIYr3d29uLud4pYIxBpQDklANip9PxUeHncfSatcI1LB0pP9XIUU9KbGgyOx7/KaAihlVHZ06C80B89+7du3fvStL8UTrzKcWvCAOSqpDWWhE2g8J8qNH2UZ8/Je3OHq/YKlVVVafTuXfvnjBHrvXMecz1OEBECRAhIiir/f39WMB33ttxZjY5Pq7mGR5s/9jjAwfZRhNWf7G/Ta3DmPUzADF5z8zdTufalauSMvIh2+IEV6SZgrU2TVOpOhl+ndKGHuP54fP4PEWRIoG8h+fLwZ3ClVOgK8gAzEZrAMiHw87ePgDULYEmACVSSWY3wwIUiIRaY3m9VbGgxp4UjHHFKKVrqx17EtkFABQDOa8Yqqq6fv06SDzrY9XpnycPAoDhcLizsyNdcuV/jEzRMTP6gK+boisw41ESkVZ4EJ9i1fXxDmmtGIo87/f7XEtyAl5a8SoE9VB1rEIOfeAvAV3CAQiGYIiOZRiP4KVi2N3aFrryeDA3XMmyDADEYMrMRVEsLS2FhrtQC78SVYlHx0TG8w8QECLgR8C/0N4jVIuQJ7Tb7f39/W63CwCDwUDsK7HV/wPCFLpjXe9Oa+0rC8SolMRNSvi+I88IoA9q4hlj0kaGWknmeghih0jyGJMWT+S8MDCjtEYV5BUAYE+usuMyNta6qhojCjETGa3LUZ5o4yp7/949YACtXVGyl2IfgIg8rusAx2PR3GxxIp3keR7XEkLEuHWffPnYIgtMyrOHPipgGxGNRqPd3V0RtOXXk5ZXkAGBUWzznkajka8sj1W2A6FNjLDAhKx4UpIL/0+RSbGyQuRWjHmZiEQH5oPJZdFKAbMrq3w4Gu532isJAT+G9XqePMg51+/3xbICUdTPlB8HaqPnoXDU8+PlCwozT0ZkTl08HA5v3bq1v78fxKZTkG2JSLr2EJFU9SUioIlI7DAL671n8jyh+YuSPMaDceMgFvuKYgjkB8eGkzo3z1MoDKZq+QaJ2flEaWn+LKWTYsfLI8Gccz4kCDlsXqz+fBByAjOe1Slt/NDxSN7J7u5uaEp5CrIt1xqpc25ncyuEcgYuM+7IwOwnU/nD7XCYW15+QwCybkoWgUnzlZrMl/DWCWdMjFEMm5ubAGDS9DGmNjdcEbVN6MqUPHGUS+jx4CExTylljJHKhsHdeAq4AsRaKWCQZIaQEzRGbjwkfS4gUFgZRBRaMnbPMDMR1oUqwU8o2yLWCEKMpZnoXHnv5cssy5j5zp07Rwlth1oFY5hzXaeQwxy+4UkNSOAY2faoh89iGE86kOPLJKAzy7LBYCDWsPDrHOd73Di9d9bu7u465zSOjUxB/lVKgVKiCs2OPFZqYNKtAZ4goqyBs9OMlwMP7LxjVUCsozeuXet2OnREmbTjdcV55nzE8kpYgnCmYzw4Bi2O2k4Vpf4G+gT16QmxkgGKomi320VRiCMzbMAHZIUPBYjgx9IbEZkQN4OoFGqtldbAPG70Xs8a665RChXK1UH7o5oxKRSswUnzDNVpR4JAWHMlUAoRkMFbC4y2qu7cuTMcDhGjUnb1ej/wGM2zToIUKQ3F7GT+IU599qB8QLoCk/Rp6krBD6n3dKptMxUCKyYCT1VRAjMiAxKixDchahg7onHcIAomcxLGOF23iGEAz+iBCdADA2oPTAQeWDQHiOwRcVbemErpcf6H4FOv0/XeYpIA0LgH2njQoFipY/HBTG3PYx87ydbZ2NhI03R7e7vZbIZ83SC+xXxaaz0cDldWVqT4oFLq7NmzYjqbQotAwA/Fpymqy5LHW1XSw7ksy8uXL0OdcvZ4UzsGprktMGpDBCpL799f39y4nyAOevuKPBrUBlmBYwfeMyEwEzMAIQOwQkRP3ntvAZg5STL2RAwEyAoBkVjcidKxDlkxMdC44v6445RQWVtWUg1YG1OUo2Yj6+3uLq2dWWw3q7IY9rsATMAEnlADsMTogWcGxqMXyUztymNz9LIsR6ORWFmgFiNmaUn4U5QCrXW73Q4dcx91Rw/FbIzERkSU0ybhNafBgISteBbjinMOgbRBpQQfmJGBFbGXgtcGEMa9o6JuY0ItEMa96ZSgyRgbEBAUHNR2wkNOe1D6vPcEflx1gLgsy+FwSFUFRtOBpV8Bg6qdlEd5EM0f/MEfxO+Y/fyQgIjtdruqqi9+8YtSIrvf7w8Gg6WlpaAuTsn/eZ4vLi6K3pTnebPZvH79+o0bNx7yjbODDJSco8ixoijKslxYWIBTUYWIQDF77/v9flVVrrKIqLUCIPETQ1CLCJgZ1YStMsi2UzJvAF+XZQzXHMoZqE77pbpfhtYanKvyotvteu/B1HGJDz018w/+wT849IdHRRcievPNN+/cufO9732v2+02m81WqyUexNiAHXBFLO5pmkqosNb62WeflRTohxlPvJQQrV1Al/DGwWAwHA7Pnz8Pp4QrHgHJ+363K4nmRilE6c5AsVAZz4VqHyGH+PsZ+9EUd57doHDD+EU1onjnQh3Kqqr6/b7W2gOoo0nIoTAhr3wQ0qKU6vV6RVEsLCwgopjYe72eCC6xs0MeLrZ/SVNAxCRJFhYWzp49G7rCHwXxeRIuNnW8wltkpbrdrnTkfaTpPDYQkQJmZ6UGDCInSgM57z1L4L5WEk7JCCHUBCI8jklv2IQDnWgywC9m6/EwmFmeIccGxcjLbK0d9PoKVawejyvyPggm5JUp0vdIa4SIe3t79+7d29vbk1rNSZJIGlxc/SuIqADQaDTCMg2Hw+Fw2Ol0HvJ1s3Ju4NBca9SCK51Op9vt4uloywAakJkkeoZ4XKfISzIiQ9ByEREVIjM5KccywUAPHWrMdwJgHU191F0SAQ0wLkddFMX29nY+HCZLC/ggZ+EUzE0PklQPqQcp+rM8SkTLuGiPzEpK6yCiMUZY1cLCgriFD4WjSG68uFNHU1an3+8Ph8PHm9RjgEmUq2xRjvb2d6y1KJSPlCYFCsWvOC5nSsBAtUg7kbtERErkmMO4bXhXPVlRm/3U9wCMiEor570SHGXOR6ONe/e3NjafWlxQMIEshNNR4tNTm6Jmj83OxZIh9hXRWpMkybJM1TnxU+6YNE211pLzLIYQa+0DYwbigzV1kmJ04botADNLrT34AMfg4UFCzoS3jvoDV44rQCultE5kKwiBGZgZGIiACBAZ8UAcCRuBiDQj4R716sMYwgGhClqFVJDb3dl55oWPzhr1abYmcwQHCurUOB51ZRuNxu7urtY6TdNer7e0tDQcDrku5hbLtrLH4j8SDiVni4iSJJmiEIHXxD4dnEwqO3T8EpVnjKmqant7e9bPcELgyTYa6b07dzY27ieJAatsWTlbMYKYU5333jEzJsokScLkQtl0nmyJExvyg7wVwvwOuDBO4BMfeODHFcWzLLPWe67Y+fNnznY7nX6niwBGaY/Ks5QjkczF46z8czNPCVWYUtXCHsesITAIFaWvTlGLmNrNUl2YJDCHQlg1IXjwAUjmI4FzTmllXRmM7n6cJEaKFWrFhFyHtx0zoofxpc/C1EoCAHnJy1SoxuvtKisdp5gZcFx97mFgbrgiyliYYUCaqctilgyHiaiHyk9TgsjsBYeCHEprrehWsUfpxICInGN0zjF4QAL2NPb2OTYaQcqmIwMC4aFl/sKDZC2nvg9xW1M4odSBNFOv0tgWF2iVUooRbVH2uz3wBJoVjEOz+CFUoXniilQ+psmqJ8EpGl8ckAkm6y7NwpSaBpGI9zCqjRDhh1evPjhorZms9xaINSobUQgi0sigUSnNLJVoPxDuBtoAEaENYo1QL3HGEaH04vUAzjmp74o8bV45nvTOM59ZGhkGuVLV1d4CrkTTmA7tgUnJIxbl+LEMaFxXK2Hm3d3dYJ46aU6UGGPz0lXWe3dAGzwpo6B+dc184ZiA8ViWnZVqY/rBEMx3E+WlmcF7n5gEjeZqfL1R2nmqioKc155Qg37oRMR5xlAOh8OQqQq1UyM+VTHHOZSnHCWaxBgWnvAwREWsC5IHeTq1BQHAOVeWpbwx+E2NMRJbKU07EPWxOscYZuc4JaQjTiR0Bjdc8CjFATGqLmJYFEWU/wzx046x5M6zpkaIiMPItDo7GqgPfcyqpvAAJsnJoWjxQNlWQPSgPM9V3Rz9hIGlck7IWDBao0LJwnfiGq57vRzjqDtKtp1d27CAgX7Hx8l7b6SOHKhEG9ba+yIfjiQ+FwCmfY9HwzxjnULGFEzKE4GExLQ0fD6UbAR7zBQbmsKtYyC8SGRbqbtxOqoQkSMeV40zOk0TrZgAoALHTMwESBqVWPhh7OyV6aj6fyTyh8q2Sotf+kBMQUQAEk91rFIEbFOJAZCcGE2o2PuyzGt8IgANSCz2X45rvkzD3HBFFGapzyxGWwnaEwIYpNfYEj/FkgRCQa963R+cqhijXfjSe2+MGQ6HjUbj1q1b8ue8Jhtgih0gKma7urZWjvI0SRyqJMuU98xCbrXWSETkPIFHVgCyO2KnRxRckVgE1KiUxMEFDoIKvLcchaXWPAgQ0RgllZiZvXNjH1yaJt57Dcpa22xmnU5Pa8xHI1eV7caqJyLwoBV4SnTqmPTRnHGesu0UCzxKIgu/HsVZphjZ8TBFk6aQjGu3baB5J01aiEjhWGT13ruq4sIyOWUUi9igECXMlmvyIMggQZMMY7IxOcGpl0jZFPmdmYkweJInKDeg954QFGgiGMfOMVeV2McZaypCGB578rgiotwscw2fp2TSEKUxBTDJv+BBZrf4IeEbrB2H8o0kucGp4ArzWHKQw+Ot9WXpXZVkCWhV5x2L/gLMLGVwYwYduPDUNMNciORPmTICiCKjmKWWMQbvEgI750Arz957Nt4TkfP+8Xr8zZMHxdVWDr0m3vIp5Ag/TYlsD4SAK7OvDoxJax1nF5w0cFRnRXYdpU/LQWEmqgeIwXsXB7HTTLpXwHKlDKKPD8OhAtyYbTEyalSo+ED+48n86oeHedKV4EyGh3MnTSHKFHmAh0OXKfIT/6nqAnFKqX6/P8sTTwJk+4OTK0mSRKcKmZE9MBF5IlF+NBpEJFdnZsjAeZx3CFJvMqzGmBKB0tIPppZlwgU0riumEBWINxtBKWbQRieQAPixS/9xDYBz5kEwqcJN0fwplhR/iNlQuIyPNu0HoMnUmPC92CvDnolNeT5TPRamBm+MydAYjdZbZMmso3hecVwpTC7L1IIwcyBCsVDCtdIQjwHHJglSqIwxBgwRCK6Uj9ufeZ6ybRjuoRs/9WGq5OQsM4KHoyvynNjtLDgqZRPC5+CrOumapTgJkvTuRdaG2qoEAJHcBpMTD/IWRCs5NoWP420P0GKKrcfDAACJ5oRJdvzYfrF52uKm2OfUxkM04kOf8HgTkO0PexNs+eFXgVAX+aRxhYURKKWUEhSxnhwQI1OdoAqCCiyDP1guecKUkMuxbZOQxtrKBAE7ajCImqhiFtfQwWV0jHPhaHhkXJniC4EeSKdDZg7xSmKpnEWXcKMkiEhiEdUNhkKTIJh0MU6dv/CcuOxKjKCiJ0v8SlEUg8EgzmebF8QbxszMpLUhf+BPsNZ6S0ajZy86M6hxDSfRV8c6TB3sFJ7sibCOVpIXwJhkjiNaxtmJ9XO891ppRFSgwIN30iLGi1xPmplR7F5SiiYWb6UYIsEDagPMuX9Q2MiAIuK9owjG44s2+CENblN/PsbGn4oqNDFZIhL741Hm0Fk5I8ARzz84bDDpM4H6dGFkMScOJTykVsNBxaRHndjccCWUt8NIAYGaN4WFC0OULjbhpxjJpgQdAZz0GIQvZ5d1atUwChU7hWh+GXzwGgZcQX0k542nHPJ5j+bUYyNvZFkBZkA8aP8Xeac1YpB7xu4hwZWpxz7MKTopXAlKkJR5muUdQbyI6Up85ZS4E38PhxnoZg9KfGVIJJjXfI+Bqe2HsRBz+Ktx0pY4tUqHXh+/CCYnTlHsh1JKqrdr0Fpp4XIQLyxPBzidEg+SoHw5u+H4YuRMjqnCFKWdmv+hdGXKgxoIRkyQA8RPFsSVgz6vyR4D0wxCSMXRrlwcZ8AjAwAf2FqOukPqIiOMjXhjcsGMot3IOiCgwnHRbK0NGqOM9xL3RIeuGDwEaZkzrsCkzQAApETMFA/iyB8Gk/XH40MWT2PqDIUPR80wNpwHpjCvyR4PMborrRWRQqYjipsoQKpPFNQzPUZPiUlOvFyztzAzE2sMSuL08MYWm5phPXBec8OV0AsrHtcDR6BmOr3M4nt41FH06dAjEl6t6jaVU7mPJwRyJOJKu0ophUdu/9SQjkcUmFnSGFfCKQ10naXWBjmjvfeMauykmpJXMMoOOebV89SDplBEXixRCvEgplhPHNYVZji7qYf+Ocu84zGEF3EUlXfSuMKERPJGJ5InISk1rnPCMI48QwYAUuJWrgcc04mHsQMFWsuRCymsDDMTEzhkYseOCBRa76qIxAqjU6ruNYLHxlM+Mq7EBDD+stFoCBsKjIaIqqoKxSxC9mGgIsG0KpWf5Xapk3voUYs3Hmokmx2YXCNdG+SNi4uLktF4TBD448HUIihUgCbVqVRvwxTQAZErrCcCcIjaIKJGBcgaUeF0S6P4DBwjxsXsPkQjBC4frQxyRd57lbiyLG1iTZK0k4bWOq9KUInRurKeNSIDjDMXQ4nuaZgzXZk6zYE2hokderKnZJHZBYLJnnfhG3i4MqRhHecwzweCIwCQGnHOVmgteocghBOBpaQ+IwLQB6hhfTRMLCazOJk1ICJqsQIyMHuWqk4AAFAH2TIAIByZ5DzPmqVT3EQ2Na5KNRWoEV8Wk9P4Qzz/IA4HrnwMQ4nPH9fpj/Oa7DEQJDZ5qcRpxMOeOkhzfG+8evFPsWwXBsaxE/vhYJ6ybTC3Q4TdU3Rl6q5YNItnO3tBwEWYnPzxKoN8OMoAdRKAkSKjpJQgsEIV2dAAauMYwAnKT2El45PGdWU/nvYRPRjmiStxqJt8GS8EHpaewxHEGnW4fhaBYl72wIUO+HR6OR9aQ80fkyQxWivyQOjcaVC12QWPFzAQlbhrKADUZjrm2uZ7KMwZVyBKVBZKAxEjEJgSO2KiAjOIEr5xdXGi8NPD4IpAoCuPdo4+GKB09lEKxvSegYHhQDidLz2JV2NiZfCAd2utKeJBHAXEPAzM2b4Ck3rKLK6EyciHKcQPSDBFP+PLptjcUfBhySsQ6WhEZJ1D75AVSTic9C2ti9ci4mxWx+NBHJUS44rSSlKaFbCU/oL43D7KK+aGK1PEA2YM/OH7WWsKTGISz5inIBJsA1mC8Vo/AAOCAHE6uCKxRXJInHNQVYq8RiOHOHj1oA7eP1rteGTAyBZ6gCs1aBxXw52SE2I4JR6EiFJ6VClVFEWz2RwOh8HiAhFOSPpFmqZYhyZBdBTkCYGjhbvkVx/F/3GkSwf2BzUuWmvlIVLrdnd3VwrTzYsNzUrx8pfSGrQWSua9N7XApLVGUDxWng8CCI/iRUdhtswiaBLhiEKkPQgqyDJWrpKCpak2zIxKraysVEREpJOE4vGfmj9IKRVcQkFbCXgQL0o8vXjnHn4XD33goR/CZUedpFMDpRTwgR4E4/nyo/KgKfyIz+HUBRBNn4ikAgsiIhxJV46HecorkgTKk7ZFgUN3EaJJxvRjLmLf1EPicOCThUk3eMxAD3RmPtCZj9qzoxYhthpMGRowAg7GG5S5MwIbYxiRmLyUXmZGjI/uadEVrXWz2cS6QuahwSIxHhxq24bI/jt179Saxkg29TlIeWEFofYdfuBZPhjil8IUd2AknhLbj4tVeOBPU9dgZJ/kYINQ0p7KKzYAQACO2BILrjz8S2G+uNJqtSDSmY9/cUx+1EyXjvjKcIbie8OHWVwRwEi15lOMSYgnUg+O69hYrCOeDlx0jxqqN0moJpzDU9xHxHmtDrxF8fqMg79i/HgQV5pnXFy73ZZdj/d+SiKZIg84AzGNPYY+P5DdYqQrwWHp1icELAbaegOICNTBFs6O8IMw3EO5/NSBqSOEAPSYYGutE13XFX+U180TV5rNpgjnEksrn31dPx5mcAWjmASeUfamYMqXFCMTRnrQFB2We/k0fYcAEMkr8WRiAgAH6vPh8z3mnIRFmEKLqbsCxRorR1EZZq0OUiyiG48cjMA8eZAkE8R7DwDhNMcTg0kZ7RgsCZNXkxF0UFN7rl1FHNW8jIN94mWd12SPgfFbFEZ/Bvo6aYAX29wjjgp13QKEmSfjEGJcHB8trcZJBAgA4JnIe9YK0SATs5/1cx8zmnnWLM2ybDgcZlkmJmSqS8ZBlNMV5hMOehyFJARpiitBtNPi/8PIbRu4bzgl8o3WuqqqxcXFUDs0NHg9OWAA08i6O1utVgsRV5aWqcg1MxICoA/uZSAgz8zIZEzCk6FYATjykYXtJwBQ0rUKAFEJhxPFO0gw0iVcsCVJEFEbZYzyTIXzjgiZvKu0BK04p7QxxgCCddYcHWM1z/I1s1sbE5L4AojoTbhMQg9nHxvoUPxMmsxSix+Fk74k+XBqMZTxkLz3TKSZyYMnTyGBHRkQEBDq5Jh4wFPTCR/kbKFWDKwBpX4GIyiaIAZCwJgZx9eoqSgZhUw4rScyQlRV6nCYJ64EXjCFIgJhkwKlwcj2T3X7Moj2e2pfg7ga7sIoqjlAuB0iolVV1eMVHXlkqGkDEYH35BwyswfnWdQhQER1kMLjaExHg9mUY8km0pJohlvNIlY4q7NHYmpHDjlsDzpE88SV4FgOlvipycSS6ZRnJ4x4ClGmyMPs+ZtFSoGAdoKUZVnmeX4KdIUjBVDoCjELwyEmRKmzw4isAJmmS8bHIw8/QUjJE9vd5PrgYegCtZlP3i/1oogIaNxgkyZzsuTDKcm2WDspRD4IwsTUaGDSC8iT6s/UWGO0mNJiZiXWCYoa4Zz8KlnNp8CAuHbECLWEegpam3GHj/FVTMyAjMeGJsbEeHKm00pWPIDAg0DkQvBSVoyZPTGBkj70gnbxmTw+pHP+PAhqm+yURe7Q0x/D7JXx1gZUmJjbDGWKb8TIHHd6PAhAQs2VUo5ZISpEQtZaS60dGhOGiXlNqfRh3aYp9KSaEpPVeNHC7QrAErGkNCvwwMSAiFL2HWpX1DGpazGclLwSJhNLmhCRCop6N8QPORS9OOpqEj+E6zor8V1THwSfJHDwdATb2AmslNJKkWJEKWqrIEgGxKHAbbwOMYmd+n4sBgUzY/3GQ89h/KU8husUE0Scah4fU+WjYM56UGzYmB1ufDFH/R2OETsCxD0LBKiuRx2zm3ihY6QR2flQIjRfiOWP8CE25MvPIBouMjDGSxE4snCxKZ0ZFHqebfszAVM8KAbRniCSo+HhKIrAnP1Bsh9STwVq35BcEAgMRXXAMSrYj1HVoXj5wu2HSjMhniOWmkVsClJhkiRJksxqTB8Eph5Vj23s8T+IpOFxcr/RiAex2dERksRkhcDj/D+Q0nEKyZOjMTdXelzOf1y/vpZqoe7wgZFSydEIjUmkgxMipmlqjCm8z4siz3NJ3TJGV67SWtmqUuo4ZWiedbNjzipwFE2L91VYu68bfx+1nbNEEiOjbSyawKQheBbJThSmCGS8c2OpFkD0YuDw5yFk+CiYoKAcguuO9KAxs4IDvgcwbnnFzEFeUTDW5qXg+pH9mR84uIcEihp7wAwXgEkKMR5iRKj5MGUHZmwqMQbIXVINO5CiwNQPxRU+FZ05fCApvnJgSUMY18Cncbt3ZEBFwHH+xViYASZgGBfOBgIe1/A/0F0gkLKptaWxNIMAIG3wZqUf9kREmifC4U5JXuG6LV0suk9pzjCJKFibsfEI7Tq+ZSogJsYDjtwiMUWJX3cKkko8/nhgHPZJfgcIdIWRkVkKZU8NLxybeJujAzBhcjx0jwNFO3gOM3spcajGEQskzgJAMRIyHMOE5inbCjsMZ5dmCvqGQQfZTbIx5C44Fq9nES4sYui7gpGJL5YKT5muhDcKreMQAyu/AxzgCjPi9PHgSHnESIs8fokO5UHMDCIH1b8SkQi94/V5CPUnwNxyVBFR2reHxeLDam7F5162GSZrWE6dMIwAJi0KMU5MoQVFZatnj+yJgoxhVvd5pCfAEXQFJlcgJsbx+Ymvl/XRiKpuHC61lA9ZE3pA1uo8Y7OFrsAkjs8OS1YzbCRM+gXlmuMJQMyeY0zCYFmPSiucJqKEUcUxNIh1fZOgByHC2CkMGM2TJ21L4chNPf8A+TkSj4+YLEfmXQ6UZAbGCDgmgofDnG38cVQKRDbEWXQJRbZZul0fIduG6w+lsTBJqLC2dYanzVdPfhgQNKhBMStgFVfcjQUCJAQNyGOmFCp7jeml+IwAYJKujFUVGnuCfP1euZLwQCVnHgsgjMhj37InZRgBxdmgaisMKwI+rivZfGXbtbU1UYCTJJE+YEHkjAlGLFtAjR/hyykVJtx1FGPyUe4WRhYI732appJyJ888Sn6aLyitB/196VTuLGRJg7xnTzrRUq+ijiDA8Ql3PnSYO9CAARw7ZmAiGJMjBGJPDmtLGjE5T4hoxFyOwDAumTFeJQZQqLQmooocImmtVaJBaVJKa51mCSjw3lnrGw2tkwzgSIUZ5m5fmeI+83r4MTC1/afz0mMh1EBXguBcFzUGgDENqa1oAIDs5ecxW4q1Gx7fEe/frPQqvHzc3Qwn0AUAvGdC1mKuNBoQPXvnqLLWeW9kxRQyIgvXPoW+ZBAlMMNh9pUPCIc+akp8Pn3R5DBA8R2GASulHmkVDjlp0cfYfPUwQESsWGmlNaLWBMxE3pP0ZTHBe1C/+jTstjBTguXkjngs2x4a63RC731IkHpmgi4oWcSIng/POHnUVZqQzx4it6aWrEHkWrEWI2JZls45YEZJSMFDYqmm5/VIAz1+TLJG6iEm8HjPh8PtBz9ZIPXyBVEifeW4cYa9h4e7+MCfDxOS36FgjPHgRUoED8HyZq313gMzPDTVmzOuHKxRLajO6/mzMPuKnwTUsdaq2CrNTIDA/qga61OH6kDZOYIHQURaxpTiWOKEOFE1GXh8/5S6wLX+dczU5mlfiXEFZpSXDwiHqt/BjhJfNq83Ph6ICCU8SCmlajv+MRBkO3oID+KhvzIfWeVA3FBi0QCtJArTU91UaFIXOSVcgcgXGOjKSTAjAY48CRAt98m98SFB1kCiIIwxmkmz4qPrZj/qaLmG8Gd40KHXe+9Bg8i2oBWTJ++dm842D3TlGDyds++QmcuyNMaIiT0OZouvjOlBnDoUK94wY8eUDw9cXLlLgjOEMct4TkKQmrIAjd3JCpvN5tra2roxLh8hIcLYvsLMClFirMP0w6MYDw73UXvGdasmHBfyH38Z0mUQEQ+acLLWhrBu6CAVe4gQpR+8YecwUWKmSvQDjE/zxJWYroRxzzLUQAOmvowl/Md4+9Sf4S0yqiRJJC3ypGUarTUga62TJIHgHsIpxf7Bc5xgtdH3E6vH0ZVHrBvXfmwiQkKqWyMcOFwf2hMyf/vKFAbEwlr4KUaLINWHbx4bXeIJi602lA8SHe0DTO5hQWsNSEmSSNUIkAkiEx8U5TlG5jiEuczgypTS9EBckbBvIgQPru4bLWWnpk7yMXIPzJeuBBsU1x7BGDlmPxxPVx4JYziSCmPsFLYoDEhrLfzoA870eJBhJ0mysLAQyYwAHAjAA2YBM4sT3xLbzWKAY90XRFLHjmfpysMv9JxxRewrIev4MfZ+XvKEvFoSpIlIxnaiOrwAj7OUzeLiYr2NQlTqmCYAOCJ2OgARYZxX/AGWZIJmfDDN9ATpyphVT9rgYxo7QWZrmCKwD/l2nKk9FiIshdKmadpsNk/Bd8jMyJym6fLyslKqznenWHE+al4nIUsFsSb8qZTUPxzXrq4jFU6xtiBE8soUrsSsASIewXXkQFCCwn6HJzwSukzRpPhFxphGo3HSDCi8NE3ThYUFpRQrhYxEB4EjR/GhIISGvw9+etBLjyHGiGJFQUTJjmYFoPW4ZW1YbZG48dR05ikqMiuFweT+HUpXwr1Tvx7Pm6aEYkSUpglxeYSY5p0cIGhAwMRkjYYympX0JPMIoBgIQdzL4hBGsaMeNiJklkoIBFE8Ck6ihZIaG0cSJGRA7TURAI39Pgo1KBTn3VTL+QdxurnR5DRNrbWLi4uySUTUaDSkulPcaztsqggTYuqVa6SD/VHPj/lujFJQ54QGVAjZRkqp4XAoYSta60uXLs0xTTXMJcZyRPRMoExZls12q6hyVtQd7C8sNDINqeYECZkIyBEUxJVkF9cPVIAalfxDBmkfo+DgHzJ49vE/QgJkVEDkiTx7D0TIhEwKWIH3buhcP0mxdGXlLOh0VHltslZrwVmPSZLneZJoQBxV1h0rGc2NrogtSIyVIXyJ6pIqMZeZvXf2y6lvMNK9wwVBRplCQZj0P8tLJRb4VOQVAGBGhUaDBmA2icqHfRzLBNKiTCultKQf+qP7lPDB/wLS3oxwnEH/MKCl3zyQ0qATg4iojMkaS6sraSM7GHbdYbyuA38IzDM/CBFFJpC6TqKAPDBAeoorTbGe2SvjP2PkmP0fo5DKxcVFIWDzmu9RgEpJm4ms0Uiyhnc+zZqjUT9TBhEZAVArJRZCjXwcrhz+fAD14FIp0fX1Oig0Co3012s0GufPXWw0mwAAdZNXpRQBH7NA84zjV0plWYZ1XKNQl9DSelYiCffOosssbh2KUofeEnMErJ1Ta2trwS53oqCUYoCkkbXb7dbCAgGnaYMJmZEZkRUiakBk0gQK6OEpRIB4DuOOhUc/BFErRu/GoauFrSrvWgvtM+fOQmIk4ZAZGEHqshzz3nn6mQVXmDl2wTykSWMWRY5SaqZuDLG0EKlUU6KuUur8+fPHCENzBGZmRjCmtbh49vyF3fv3SWudpAgKx5Y0JAZF4k0kPHanp4BmBGE1yacOOfrEAMp79sTkfZ5bD7i0vLq8vAyI4D0jEAITo0LPdIwxZ550Rcqsh1B+itLZQ4rXoSd7liRMfT70mqMoytSXiJgkyYULFxqNxvHn5oMDo7Jjuxu3F5aefe55UOmwLFkbQgWogRWyUozIgOTBExzhfz4KVE1I5B8coUYdXM4IrIjREXvHpa10mlx44lKj1QZGO3apguMH9wWYp6wnZdalgUdI4xAlRTSdQzEmRo7w4ahNnb14VkaZ+kYSl86dOyf8cY7zPQpYITEur669+IlPthYW88oCGmL0jFIyTiEqBs3wSEQFRFJhVIwY/QOI/vHkPwBiZKVZaUAFSqMy7cWlp55+Oms2QCEjMGo/dhk9wGg+N1wRyp9lmahCISX9YegKzBjojrlm6k88FqBuQLK4uHg6vkNE1DpBVNnC0pPPPtdcXHQMpLRlJgDPIJWVlNSIQAXChx7l/2MICeHk9YAEClAQxaBO0Jhma2Ht3PkkbQBqxINucgigjxWaFR0Bs/T8eEDEqqpefvnlT33qUxLL2Wg0pLVeKMspXEnM7VI7uSzLRqNhrU2SRNcg5pCpSG/5MthjQvBDqGkTwgBk8K1WKwzswoULr7322hSfClt7DAYfA0c9R74c5TkwfeqVT//Uz7yGJnOgB4XN2guLSyuEMMpz65xCNkaxQkbwwJ7Jknfk5f/KO89ECKCQEAhYqtbGFDoeSVhh650lzwg6TRqtpklTRlVUttFqmyzb2tt//oUXX/z4J0wjI++V1kJ6W1lD+vIeM2WzsbFx6A+PunzWWmki9dRTTz3//PPM7L2vqipYNYIHXMpxhUj3c+fOickuTdOiKML8D/1AdbWEqRx3IpLm3cEK1+v1Wq1WWZYXL178lV/5laeeeqrf7xNRUxTFEwNmNsqorAlaLS6tvPzKZ37w4vfeeeONpy9d2t7aqob56srS8sqqrYqiKI0xhato7EtEoxSgMkaDUhqRERWA9Z6BHBEBIWJqxmEx4Y0YjNEKFSpjMqOU9X5U5Hm3PHPmDAOQ9b3BiLT9yPMvfPrVVz/18qcB1WxU9gPqJLzzzjvzWiahGV/84heLorhx44Zzbnl5ud/vCz8KCMHMZVnKEcnzfGlpqSzLoiimYl+mOOjCwkIw7nFkghNtC2omKI5uANBal2WZJMmrr776ta99zRiTZdkp+IO0SgCU0Sl5m7TbX/qZ165fvXHn9r3b9+8vt9srC21flfuD3tLCYruRDYfDtNHwTOS8Z7LeM3nnHCOkJgGFCtAzATNqpZVWSjGNVwTxoNQgInjvQSlUyjO4yjGCSRtLzdaoqnSStZdbu51O4Ysv/9TPv/LZV9trq8zAoKaY2vGWG/PLv/zLh/7wGCrDYDDIsuyjH/3oYDD4wQ9+8OMf/zhNUzFMMbMEKojkK26aLMukwZxUnl1cXOz3+4JM8dsFJ4TkzAo0ITiS67wyaZm6sLBQFMWnP/3p3/qt3/rEJz7R6/WWlpbg6JTpuQAypNowMBPbyqcKL37kI1/7pV9aX1//z//v/xcpBSaxZVnmI2V0M0mKqmq2Wwq1MUYwg+vKSmU+ni8BIwIqRK2U1lSOYyXjVfDAaLRncs6GKtrjYIwkG1QjlSQO8OKTT/7q3/71j3/ipdFg2FhYjEeuHhBaAwBgjupw/ag8SFr+AsATTzzxcz/3cxsbG8aYd999V7QP2UgRXw5m6D0RlWXJdTH+hYUFYWTxMATKssS6FlwgJAAQardMwWg0+tSnPvU7v/M7v/qrv3r+/Pl+vy/4etKmWwSwlZcg/qKqmknyyZdf+a3f/m0G/6d/9Ifv3Ljz9Lml1fNnfWU98srZ1U6nywo1ICtEYg8MnhxTK2uwkhxmAiJPTgavWYcSuQDg4cDt55kQMW00ms0mEQ0Gg8Eob2izvb3RXGh/7FOfeu1rP/9zv/gLC2fPD4cjnvQVYKAox/CgeZHlRqPRbDYF8z7xiU/8zu/8jlJqY2OjKIrRaCQFebIsEz6itQ7nm5mFlgyHQ5FjYEZM4bpolHwZ24IlmikeSbPZXF1dvXDhwj/+x//4137t11ZXV5MkabfbRVFkWQYnDMxARApApam31lvXWFr+7Bc/v7DYbrUaf/WN/9Xb29va3UOyC81WLx+kJkWp2sUsJIEVatC94SAUcZGz5BSAB2CQFokemOtK2ozj8ChEHHT2i411IsqyLG20PPCTzzz96c99/ld+7ddf+cIXFpaWgHx7cSF2LQii1BUZjnQ4Y3zQJ354RLpSlmWz2czzXKKgnXOXL1/+b//tv33ve997++23r1y5AgBhX5MksdaqupGLRKyJQCNB6jMbcCDqY12RMBStlEclSSLqz8c+9rGXXnrpi1/84i/8wi88++yzwrza7XZVVYKs8QRjbeKR5nskEAoBUBqd9UBOWmhAVe6s33vvnbf/6L//1//1Z3+WaF5bXd3f3R31h0JurfXMYAyKShiMUliX6gRp8FGRuCHlqHipc4xgjKFxlWxWSpksbTQaSdq4+NTTP/uVr37lF37hY598KVlZ7XU7ptHMWm3xbyueQhQGfTSuHMW/H0MPSpKkqioJTrDWtlqtvb29wWDwn//zf/4v/+W/3Lp1qyzL0WhUVZUYPJrNJjMPBoPhcDgajQBgeXm50+nAjMcfAISuJEnSbDYXFxdXV1eXl5flCc65JEkajYbW+uzZs1/96ld//ud//syZM2VZLiwsAMDm5ub58+cFq4KV5eRwheu0jMQYICZ2SmtQBNYC0v2rV17/9rd9NXry/EXvqrw36vV6m5ubGxsbe3t7eZ6T84zgKssI7Km0VZEPh6NRVZbee00KiJlZ6hYK0hBzu90eFfni4uIXv/ylX/zlX3r62We3d3eu37iFSfJ/+t/+t7WPPF/1B+niYp4XzcWlTre/uLgIwZUtH5gBCZQ6sg7l8caxhwc51rITkklFREtLS8vLy3/37/7d69ev/6N/9I8uXry4v7//N3/zN/LraDTa2dm5d+/evXv39vf3rbWiuchCiyAiTE3MKmmattvt5eXl8+fPP/XUU88888yZM2eazebS0tJTTz117ty5ZrP5n/7Tf7p06dKFCxeExojSdPbsWa5NhXyYQW+OgAqQITUJ8NjupjABZE+sUoPM7TNnW2tnPvH855994qm81/3R977//uUr29vb3lIxsmXhFOHW7g54suyQ2LGzZT4YjdhbrTWiNpgAc1U6cF4plSgDAH7g2mmbKrzx3q13L125cPGZ5579WGtx7Z2r7y2srRT9bmN5xRNBagi40WgogINCyIpBkRzKY0jEieuQiNjpdC5duvTaa6957+/evXv79u3RaLS+vu6cK4pCiIrwEa11URRCSwRLZC8lQaGqqtFotLu7e+fOnR//+MdCmcqyPHfu3Je//OWvfOUrL7zwAiIGaZ0nExo+RGCEyvqGNo58bzTMy6o3GP7N93/w3f/1jf/xh3+0s7nFRFmW5aPCOec99/NhAw0hJArBIHhnHSGCMR6YLXoFGpgBkIgdkQJkIOtLLuBq//rt9fW//t73f+YrP/uZz322Pxg4oqzRBmBWGgA8T+bK49gjyUgscX1HwInjinNuf38/z/O33nrrO9/5zh//8R+/++67UOsvHCUgBvkjttgK0hBR6BMvSDMcDnd2dpRSCwsL165d+/73v/+d73zn13/910WIxpOPlXwwYF25qcZVMYc459bX17fv3bl15dpf/o8/2dveISJ24h7XiIigMyMuWM/AiMhKgyJisB6UYvKMyInSSmnvvAT+EVnvvdaJNqbX6/zg+9/b3tl86503Lzz/TFUUrbVzwOPEZlnhw8Z7WjEJR0GaplmWbW1t/cf/+B9ff/319fV1YSWBfsSm94A3gh8QpcNI+OMUkWDmoihElH799deHw+Fzzz330ksv0WT97fkLJQ8J8l4EAEjT1PvKaJ2a5Ma16+/+6Ac79zZ2t7cRIGs28lFRVK6RKkD0jtI0Lce+ETKJZNJrMd56RkteMbMBZHLkNSgNsLSyVJalLSvyrplmSqn9rZ3Xd3e/mJm9vb2VJ56BOk4bYNxBAh4lZgpOAVe63e6tW7e++93vvvvuu6KJeO+73W4wy075NRqNRtCHoQ51CK6W+Huoqc7CwoLWen9//8qVK9baW7duxXaUKRn2wwKFyktfOaKt9Y133nqbR+VCu9UfDAEVASaJaTTbzrmyzH1RNRoNcKW11joCdNoo56mqaGm5bbL6UBFr1lopY8y9zm4KoBHRsXOYGJOaTDNs3l+/f</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAALMAAADICAIAAAAsk0emAABNsElEQVR4nO296ZNcR3In6B7xrrzqBqoAkCDAE2A3KS7ZPWy1mlK39Y60s9a7ZjLTzHyYD/rXdnb3iz7MlzHTYVobadQfxFazwbNJEGABdaPOrMo73xERvh/8vaiXmZWFyqMASN1uZYnEy8wX8SI8/Pi5hwcaYwAAEcGSIQCIokhKCQBCCCFlvVa7d+/evXv3drc2S6XS7Oz8zMxMuVwulUqVYiUIAqPBdV2jTJIkUZTUarVWq+U4DhmllEqSOI5jrRMAQEFCiHa7nSSJUgoRXcd3XRcRjTGNRqvWqBeKxXc/+F8+/PBHK9evC0NJGP0///X/Pq5Wg8D/xf/5f7zz/nsaQbgQJkq6AgAkASIKA0RE/CgCAcAA8KcAgJQ+H+We9fc0jJy+//PAEpHjOABgjEmSJOl0Tk5OlFIzMzM3P/zQ9/1isey6LhFFUdRqtWq1WrvVNcaEnVApJaVrjFFKSSmTOCQiY7QxBsAgIgpCxGKxyEzpuG7gFRzPFYCazMLC0nHthKQoFouEiIh+wfd9f2Fh4ejw8Ojo6PDwMI5icgQCSikBCAkQkSceEQlo4DFzD/h7trgYOXlpQUyG+D0i8vS32+2Tk5Nut1soFI6Pa0oppZQxhogAQJAgIiCRJEkUxYhYLlbK5bLrukqpcqUCSIgohEAkREz5A5GbEI70HB8EGqWV0cvLc5X5CqG8evVqqVRyXdd1HQR4/fXXq9Xq8erx3v5+p9MpzJSVUr7rEwD0TrYAJDyXO35PF6AzZEbGINkaROx2u9vb22tra51Op1Wrx3GslBJCFJn8ouM4WhEA+H5QLBYrpZlKpSKECMMOCnsbQkQQKIAIIQ4jA4SI6EhPeiAFGlJkZuZmi7OVoFC6em1lbmHe9V1tgLR+6ebL1ZPjWv2k0WicnJwUZytAYAgQQQCAIQKArMsAgJSKB/HMxvLfFvVzxukHjqOU0kpprVutVr1er9Vq3W63UiyWy2XP8wqFQhAEABBFSRRFKGQ3jgLXdxwHBGlSjuN7gW+MBgBAgygQER10UJBA33cNghCO63sFP/ALge8GQkpHSuk4hXKpMjtTLASIoDRprf1i4dZrr56cHB+dHD/Z2115+YbrOSZRrieZm8EQptoEIBOEv2eLsamfMxAREBARhWCTkIgqlcobb7yxtLRkjPGEZInCGkEpFYZxFEVSuOvr665wZmdnS6VSEAQzMzNSSiJjECQSCXQc4TiOlFI40pXCAAEIlDLwPNf3AzdARwomRwohAIEAhINCeNJ1lpeXb7/+Wv3zZrVaVVFcKJYNARiTskUq5QAByKQW6O9pbHJ4PFMJzK8CiYiMEUKwNbC0tDQ7O4uIUkpfOnEch2GYJAkRCSEQJSLu7R5EUSSEuPv9t5eWrriuWyqVpJRRFIIgKQQKISRIKYUAEogE7EkYIjAIApEABLLlSwBEYAwIAcIBJCiUSjpJFpYWC6Vio9FoNBqVSkk4aDQLDMPmESCCFASAgFahEJ46Jr+nC9JZMoMIEZMkcV0XEI1SAOB5Hi9mkyjXdT3fByEAAIzRymitjTHtdpsZ4sqVKyBQAGgyxXIBEQERBAEiEBFoAGAjQ7B3QZjavkCtTtvzPEe6lJtLAxAUvUYtZqHSbrer1Wq5XCyVStJBYP4i4hYACcWpncH0e+YYlQQrhZ5rPJHsqhiDiJ7nSSlZs4RhiK4bhSFoDcYkcYyInU4njLuEplAqeoGvjIp1AhIMgkEggSAIAIzWiYqSJIniOFaRMgk7rulcSgAwhUIBhDCkCTQbxIpAERBCea4MiAYhDMODg4MkjqUQpI1AQUQqio3SKCUKEcdxKgsBEZCIsoZGVjGdTieKIoZeWIcaY7rdrjHGDh1fVEpBamufUm5Qz6bzW7ffsaIdEbXWVpVzl5RScRzbL9u+PfX+59B5FigKQSYlzBxNlvZ+oQBCJN2ulBIRtTFbW1uFQuHGjRsz83NewU0SYwCEEFICP5gxBtBIKdmCUTrmZzDGEAJrLiklggAEAWCIWZFACilAaXAkzM7Pzc7N1Wq1OI75J91WRwjheV5QKoMQYAwlCaTATM+4GCABI49UsVjk8WUdKqV0XbdYLPJUEREzBF8/5z5EI4ssO688ehYm4OYYCBAiNbIdxznFEYQAAK11HMfsJYxBQznDGMMinhmTxYZOEq9QgDgBgSCE1tpxnEePH9+7d++bb755/a03r167Wij4gACCCEA60Gp3LIAhBAghBGhmAq21IcVYCAhisDVOQiEECIdtEEMEgCRQaS2ELM1U/EJwdHR0MDOnIw2GirNzFIZxFLerx0RUKBZd3/NLRUjtDugBvhBGBTp2d3fZN3dd1/M8yNA/i/e4rsvKVGsdhmGlUrG/zXPDMM4Ytqx5NfIcp3qcF0pm+/PEs5aP49h1XeYeKSX3c0I6lzMQhRCsR6TjAEAURa1Gc+PxWqSSYrHoed7t27dXV1d/+ctfNjvt7737ztzcnCajE2OMMQDSka4rhXCFEFKmUlGbRGsthWTClI9SqyDlIRSIAB4AgGHDBCBRhiXW3t6eh7Jarc7OlNvt9sbG2vra2sOHD4no7t27b9258+pbb7i+R8SW7umsjLFwr1+/zlBvGIaO4ziOwz10XTcMQ1ZS3W5XCFEulyuVyhhNnEnMMVZxWC6BTNAqpZgjeRi5Y1a6SCmFEOeLsfNpKGdIKYlISCmESJIEAJI43tvb++X//KdPP/lNvdX0PO/q1au/+MUvHjy8X6sfB8Xy7OxseabCQl5ImSRJnIDv+8YYIs0aCdAIQACMo9AYI6XjOA6SSVQCGkig47pKaxUnCCCFCwINoQZyXUcReK4oz86gEIfVo73d3cW52Xv37v3Pf/qHh/e/3dvbC4JgY2Oj0WxeXVmeu7IIgETECoSRuzH0LhFprVNX2kmHy3GcJElYiwGA7/ssRc65z6hNMx8w1myZgzvDopo7w7Etz/NYbFg9wh85jjM2pw7lDNYjLDDYoDs6Onrw4MH/+B//47dffBmpJIqiSqUyPz//7cMHSZK8fOVKEATcb893AUBKjwjiONZaG6MQ0fWk67gopZASwNFKCUJEAQiukCgkOJLRFE0qs2+EEBIQCEEr7aCcn59fXl4+Pjjc29t7+cb1Wq32zTffbK1vsFTfWt/4Zm7uRz/+w7kri0gACKd47ljU7XYdx2EOYAHOazEMw3K5zLKEdQ2/LxQK9reTGICQE9tWWgCAlDKOY5YQQogoiphdyuWyZRoAYF8hSZJyuTxe60/hDGY6nqROp7O3txeGIUtOu4ZarVaxWLx58yYAHB4euq7rB0GpVEp7j+g4DqKUUiKSSpJutxtFkYqjdrsddsI0eiJEKSiUZipeseAFvu8VgABAGK15rbc6YaPVNEq3O51isbifJMfHx8aYa8vLS/MLjepJHMek0342m00kMDkjlIggi9SMNEBBEDx+/Pjzzz+/f//+wcEBEc3Ozs7Nzb333nsLCwvffffd6urq97///Y8++mhubs6uUetQ2OZ4HQ8SL/pBsp4Os4UxJgzDOI7/6q/+6ujoSGvteV6z2axWq1pr13U7nU6327169eqf/Mmf/NEf/dG1a9eCIAiCYPoyg9FxNi8CItfzfN8HgG6322q1pOdqrRcWFubn5xnuvHnzpnDk8fFxopQQTqVSKZVKnitnZmYcR/iuh0Bho7O3t7exsXF0sLe6unp8fHxycpJEMSIGQbCwsLCwtPjDH324uLR0bfl6sViMEtXqdGKlNYIX+IcHR61647haDcOw2+50Oh3P815++eU33nij1Wo9ePDAdd3bb75+85VX5hYXKFMio7sjPRRF0bfffvvf//t//+Uvf7m3twcAxWKxUCjcvHnz3XffffLkyc7ODiJ++OGHSqlGo7GwsAC9PMGUus0DNIwzhBA8qUqpJEmazWatVms2m3/3d3+3ubnZbrellLVarVqtCiEqlYrneQcHBy+99NLS0tJ7773Hhkgcx6VSabwHdyyifEpZRM3zPOL8CddVUVTw/T/+yUePV78TAp5sbRPRD9//4OjoSCVGur6QbqJMt9YIguDKlbkoina2diqVyslxnYzqttr16lH14HB3e2f14XdbG2vVatWgYZOesVTPcx3P+/TXv3n99Tff/8EHC4uLQamokNqdcPnaShh22vVawfUqhWBhZnbTcfb29lqt1uL8/Pe+973Dw0ODsLyy8u9+9OH7P/zB3MI8MLiO6SinT9Yfl3061et1pdQnn3yysbFx/fp19tR2d3cPDw+/+eabcrlcKBT+4R/+YXNz8+7duz/5yU+MMZxrwsuanV5OdkmSpNvt8tKP45gxkoWFBc/zgiDgVxbDSqlWq8Vfa7Va6+vrn3zyyccff/z48eODgwPP8xYXF/m2LNoPDg5c161UKrdu3bpx48bc3Bz7MnAWtnFBe2iozMjzCQI4rlsplSWK//yf//Pbb7/9+LvV/f39GzduoCM91/U8L4oiL/CL5UqhUHAcxxFSEhptThr17a2N1W8fbK9t1A+rjePq0cHh8fFRuVz2fd8ruCAdZg4kQq2/++03+zt76+vry9dW3n73ndfvvlUsFoUQ5VLJcxzS0KzVEXF2dtYPgqPj6sxs+aVXbv6vf/ancZLMLy689MrNlevXSpWKmVIcfmVl5c6dOz/4wQ+63W673T46OvJ9nxMM2Gc5PDzc3Nz8+OOPHce5efNmpVK5cuXK9evXr127xq+VSgURt7e39/b2VldXeXa73S6vh4WFhevXr9+5c+ett956+eWXS6VSGIbNZvPRo0fb29vffvvt6urq/v5+t9sF4NiCqFQqQRB0Oh3Hcebn5+fn5+fm5srl8gcffPAnf/InrObYaWDjY7wHH8oZKe+wZU4kHMcvFV3fm7+6+NLNl2vH9d3dXd9xn+zvnZycVObnlI6Vih13RkgMw24xKAQF/+jo6GB/99tvfvvZr3+zt/OEwpi0MkrPzcwoYzi5CwCUMVprBAlCIuLJSbUbdXZ2tgxRsVy6srLsuovHx8eVSkVKx/O869dXZiolx3FQCs/3b7/66p27d73AF66DUoA4O8KKZ4jHC9GtW7d+8Ytf3LhxY319/euvv06SRGvdbDZ5iNgzZOV7cnKytbXFCt513UKhMDMzU6lUfN/nkPXJyUmj0QjD0MISR0dHOzs7jx49+vjjj2dnZ4UQzWazXq9vb28TUZIkLGPsBMdxPDc3J6VcXl5+7733lpeXl5aW+PWdd965desWQ14wXE9dkNDQQO5LCqiQEAIyVIelAAAAaQAA4aowJKXXtzbvffZpUCwuX7supCyUSzpOuu1wdqYchvH9+19/9cVn3377zfqDxyrsFlxPAHpCBoEXa8VuWKySJEmQwPNc3/eF4yRKCdeJVTKzsHj7jdfvvPO9n/7sZ/V68+rKcsEvttttozQpHUWR57pvvHo7CAL0fUAgraIszuf6HvRmcNmkr5EGiN2Nzc3NVqvVaDTu37+/v79/fHy8v7//7bffbm9v1+t1AGCYq1gslstltgyYgYQQnK7QbrfZZnddlw1VToCan5+P47jT6bD2YQ8rDMNGoyFy4W4GXoMgmJubu3HjhpTyypUr//7f//v33nuPcRTf9yuVilKq3W47jlMoFCywMaY2GTZOxhghBAiBUoLWaQ4EgDGA3F9jQODc3Nzbb79dnpm5urIcxhERNZtNR0opsX5cffTdg/tf/3b/YNfopFD0XRBJHMdxIgT5vh9rpVRCWktERwgJqOMEDSRxVHRdVzr1k+NvfvslSvEHf/AHL7388uzsLAg5M1P2fT/sdFutFmntFHxCRK2U0VprAnBd1/HcvMU3SSyNFf/S0tL169cdx7l79y6v6e++++7v//7vZ2ZmeKz39/fX19cBgNMi2X1jPcj+xfz8PJuEDE9ZGPvo6Igbcl2XrQ32SgqFArsbruvOz8/funXrzp07N2/e/P73v6+UWl1dJaJXX331tdde831fStlut4lISsmNciuckjfmgw/7gLKcLiklO08cKRWOA0QmUdyPyuyMXwgqs7MoRYECpUypEOAVEXZaG49WWycn9ZOq0KZY8gPpCkMSAA05jsOKlhBc1/Wkw5ObJIkrXRXFkRu6nue7rkrU/vaT+7/9+p133qnMzCRJ4vqB57gA4PqeAAQhUghNSkdKwjS+Nd5wnDFAjgNZqBkAZmZmZmdnedU2Go0f/OAHt2/fnpmZOTg4+O6779rt9jfffPP48ePNzU0OVjPYYIw5Pj5mvMHqEcgCImw9cGCMofcwDIMguHLlyltvvfWjH/3o+9///vLy8sLCwuzs7NLSUrfbXVtba7VaN2/e9H2flY7Fn1i7MULKWmzMBx+8xEmUqT3PMBE/CYOvDAi6ju+5gOgQBYEHEuI4dFwBRnu+4wiv0zzZ3dna292unRwhgSAgCB0UDgoQoJKIwACCg45EwYMkAUFI0kogmChuRaFbCNBzdp9s//Kf/vHDH3/42huvu64rgAxolFAulhBAKYOIACil4IHWWmsyjE1NHnnn7HY7c6mSBWDncG5ubmVlxfO8JEnefffdZrP505/+9O/+7u/+5m/+ZmNjg7EfAEDEdruNiKxN2HGw8VtKhbERQrB5y+nTvu/funXrZz/72YcffiiljKIIAKSU5XL5e9/7ntUUAMDeqTGGv8NWDgx3lS9CQ2UGPxKzPF+xaxEROZOK+dSgkWQcVwgUhiIdGsfHnc3Nr7744uvffhl4riMEaQNKO8IJXE8nqhN1SpWyMUYrSpIkIUJE33F5iGfLFem51XoNiQqe3+6GB7t7qw8eLi8vX7lyBdDEcaK1AggSraTjIqUJA9w3x3NdQEPTERtSShbvzBzWq1xcXCwUCqVSKYoito6vXbu2sLAgpWQdz3YDO6tKKQsQs65h6NpxHMapmO34C/wUrutyGorNzUZEZncbSOt0OlJK1iZKKdd1fd+3vbWRlPEe/AzOsBA9Z0blozJSSpYoyEsBjCtdNl+b7Ua5XC4EgdG63Wxu72z++l8+LgUFpWPSSvK9jI66HQDwPIfdKkBwXIGUcWGipIAo6lISlouBRtFqNKXr6CT5zSe/vv3qrfn5OSRNCH7gARgiTSQIBPbm9pENuE+c8seTZN/zQPNiZSCcp585oNls/upXv/rVr361v7/PMDajFO12m6f8FFkhYqSBgw885jZch4i1Wm12dvY3v/nN3Nzca6+9dufOnSTLLrDWA3eAxRgjY7a3VrblWxzpwSdOoc2GvlAoKKWSOAZjjg72vvz8i1a9kcQhZ2iCIUHAG0Oecj9ERJSARETaIJExhozZeLy29uhxs14PPD/wfGMMABljDAJNFp4Yj6wW0FpHUcRzfHBw8PHHH29sbCRJ4nkeu7JhGLKQP5PYVbGRsCRJbCJIt9s9PDy8f//+F198UavVphJbvzg9hTMI+/96KPsvATjSYVGp4mT98dqv/vljlSSCQBhCTWhS10ac5ikZgyZN+kIDYAAMoYFMbgMAoBFAAgm02tpcv//1V0+ebKMAgaCTmEjhWd1HehaJfZTliXGYDQC63e79+/c/++yz/f19yIxWVhDnQAt5l5K5jS1WDnmwsfmb3/xmb2+P73bpD5bRFNLubYIMEUnETqeztrb2+LvVcqHouwGYU7ZAK9AEmvx2SQRC4Cs83CQQAASBEMIVUgqRRPHm+sb647VuqwVERmsEcISUkyuMschqFmT3DaBard67d69Wq7EDEkURb8wBgHOWO6MaNkTAzgVbqYyVtdvt+/fvr6+v88J7Zg84Mmf0iJBchhRbQEKI/f39x6tr3XZYDEoCUWhCEoKEoNO2eEwJgdBYgQEABkGTAjScioBIjiscR0iJpYJ/fHS49ui76tEBgHEcTsox+WdgaTH4d0nEC11Kyet7fX39s88+i6KITYd2ux3HsU2xGXYTi22kajRnmXLoKkmS1dXVL7/8cn9/XwyBdy+DptYSETnSSZLk8ePHjx49SpPPYiNBiuwLYAUmkGUsglRgUCYzKBOtGkgACkQ05Eqn0WisP17b3d4BYwLPB0NG6zMnfpKEjAsSO40s4TzPOz4+ZiQjxWmykKTneYw3DLtPugEnU6Cp1621jbUS0cHBwWeffba6ujpJjtaodCHOGGpngLB3EEIYreu1xtrq4ydb2zPlchLFaSIrSCSBJCzuPmTmDKGhTO/aMWK7DBGjbndrc31jY63baYEgolPR2ichzlQwZ/V/fOLJs4m7HP1iAJTXvcgIzoXk+3DrLCPbWECCHdH79+9/+eWXrVZrag/wNBpZZjBK0BOPAAAAiSJJklazebi/36w3ysUSKV3yPYQel4SIDJzBGdbOsLASGCKlSWmKlYpiSUBJXD86Ptjd6zQ7lBijwZGe3Wt0+voMJEaWicNzqZQ6PDzc3d1VWdICIiZJwqYG53Kecx82OfOp4ZglgTJnOI6zs7Nz//79nZ2dy3+ylHo541S+n6GhM3OAYpNCvEA6iUMVxUCEKFQU72xuHlerxSAwcTRfLjVrdUlGgEEyiMQZ56eZ0MaQBv4QiMWPEAA6SUxiHHQ8cIQCTHRAImk0l8qzPsq1+6v7O/so/EQLg9IY0ESayAAZIEIAgSBwUM5N1+ZwspRp3/f39/cfPXq0ubnJs8j8YfdusfnVJyktXDvIE7wwms0mp2ukW8IAdnZ2vv322ziOu90u4+gMocJkWOcwGk1m2CezHZGAQgge8TiKjg4Oa9Vj0goMJVEMRoEhIm2ViIFztElKSIAACCAAkUASOEBoSIVh0g1Pjo+3NzY79abnBQIdC2ZYYTZc902fOH366OhoY2Pj8PCw2+0OTvYFyX6f31gDhac/SZLd3d0vv/yy2+1aKBKy5LFRA8gXerQxfmP7cSr5EYGoVqutra3t7u6yA5YmGNsUsV7quWHOMjA5VZVNMBpMEyCSJDk4OPj666/39/eFlH0Q+GUM0DDittgI2N3dXV1drdfrvIkmzxzn2lVnkJ1vRi+SJOF4itZ6b2/vk08+OTk5sX6y/f5l+Cxj3tE+LQqBvDNMqerB4cb6+vFRVQrBKQhp4Z5R5suugPwrZJCAEKLVaq2uru7s7FCidKKeVx0EnngpZavV2tra2traMsaUSiXLGeMxBOTwLrs5kVmh2+1ubm5ub2/bBL68/zL1BxxfZqS6jQNv2pDSBwcHBwcHvBEDAAyQGlsBItrtIVwWg+0fDhlwHlSz2bTPIBHlWQLj8nSK9SOePHny3XffMUZpd/9mD3GhZJn8dyw/saNrjVlurtVq3b9/v9Pp8E/yyZ5Tf8DROAMBOE+fiDSZtEPamES12+3dnSetesPP8gMAgGFjymbI5MLi5xiDfUqB/2vlqiNkt9PZ3tzae7KLBAIuRcs+lTiQppRaW1t79OhRq9UKgoBjY7bbo1oAfaYGx9iIKAxDlh+dTueTTz45Ojqy2ydT6+25cwYTM0e6OIiISCm1v7v3ePVRq9HkTWlaa9fz2FM4kyBnaaZdyWXjpUYWACDadW+xgSiK1h+vra0+isMQ4NKxzrMHAREA2u326urq+vq6UqpQKLB5aJGMMVh20C7JJ+2FYXjv3r29vT3ODoReNTRdGpkzMC1RkT1AFgs92Nt/sr3dbbdd6YA2AFAoFFgYshuZp3OCHcM6xNEEHmsVxbu7u9tbW91253lVxeAIKqfy7u/vJ0nCpkA/948rzyi3/523STKsvLa2dnJyEobhZUfXxpAZxM4079dTSSJ9v91u7+7sdFptR8iw0+UYdDeO8mqeMqMpzVtBwX8SUAKKbILZ+Iq1Sozm2hsGQAPFKuGAdRRFjuMkUbS5viEBdZJYGcZvtNZW5ZkcgaEx2MjO8anRjYiIQRB0u91Hjx599tlnSZLwf/t8BMw98vn3HyZWefqZJ+I45jydv/3bvz05OQmCgLOX7Y7F6dI4MoPzhaSQ0nGklEDU7XYPDg66rTYYkoAS0w13OpNyfWrwKXjGkNUWa8X+jgAMO92joyM21HmDvdYarJ6+hKKPg0aD1np1dbVWqzG0ZZ2Fp3rpIzWX50vm9cPDw4ODA95sbLKiWdN6TEujo+NkANJkGcdxSKDuhifV462NzWajAdqIbICU0QbIABg89TIu6CkgItsoNqhrENjs8h1XIHZb7f0nuw+/fWCUtkNmjGEknojMADtOQn1LGbJtBJ9++unJyYnFv6fIGX2WSl7+bW1tPXr0iEUUZblbU6fROcOYtJcAAICI3W73+PBo/8luHEYilxKdr/1gf/7UkSLEPNgFuVmxOzg4eteo1zfW13WcIJEUgrNBbeujPteo1O12G43GgwcPuDwBZPsEp3X//ND1ObQMxjebTZshfBk2x8icweENIjKU4i2clNZsNNCQKyQaAp1GBECKNNo+IC3OyaKwg0ICKcvxwWxPDo+O67omUftPdlMrXQg7TM+GM5rN5s7OTrVaZd3PKwGG2w3Tapd9183NzcPDQ8x2yr8QnIFcTctOHlGn3d7b3Q07XYnClQ6H2qF3r+2g2BipRRJosmISxhg0VPADMHSwt39SPY66IXCO4CX4KXkFnwe8O53Ow4cPOQOUgQ2WZ9PijLxwxZwnz608efJkbW2NN7uOoaouQqPndBFv9kn91iRJTk5Otre3wzC0TJOWdTsz2k40DHvAM1OIc3qdU7Rt/RCl1M7OzsHBQavVgrQyaarsp6t6mS0sf/BDRVF0//59pVQURRzQgaxQ0VTsjDNjsByN8jzv8PDw4cOH9XqdU78uI6NnBG+HBzsxxgiDRAigNakobjQaB4eHYZQAcJwdBQohBBoiIkRBNCLSmkHjtqiBIKGNklJK4ZJOtNCOhypO2t1qvVaLOl3QJssdy6Fk0yAagJIwK4e1s7OjteaFawXGMME+qtiw0oKI8oKHsyqbzebu7m6r1WLfhDly7Gc8k3rnDE//UqeA+d2kCx0BpXCBhEDHEVLFOg6T/b3DWq2mBZAjOnGkETRQkkQF3xPEFiszkgAQiBKEBCEJBaGw6RQgEKVAKVA6INLsN8Y5BAkA4ToFMrLV6kjpeo6v49h3pQOwtfZYqxiMBqMINJEWCN24mwVThMwwSfZ0RiU2/hlLYEHF9So+//zzra2tRqNRqVS01qVSiTcE9EmIsbWJ9U3yxhMH7er1ehiGn3zySbVaBYBztixMQiPHTSCrqAEGJCAR7u/vJ4kGAALQAo3IrD80CGZaqaZEiCgRJYBgDMMR0vXk4d5+2Omy8AUAA0QwfUcur6oQUSnFNUnhAt7WdIlVTJIknU7n+PiYE5IvI6d89BFEA2gAjFKJkKDj6PHjx2EYTr1nfUS5RIQ0Au6IIAjW1tbq9bpWioEN9hEmLB2RJ8sQ3Ae+c7vd3tnZ6XQ6ebag0YuAjUEsOeI4bjQaW1tb7XYbssjldGkc3wQzLEsA1uv1zY2NOE45A7PtAimNaGGcT/kEaw4yFTzvyZNtu3wRkYu4TX2GrBBiE7harW5ubnI03EqLZ8MZ1u9rt9tra2vNZtNmaUyXJpo5Y9T29ma1ejhodhFOmS0Qic/OsQ4CO0GtVqt2fNRtdxwUAlLMAw3ZPSwTt3s62aywwjDc3t5+8uQJu2N88ZntBLEGaZIk6+vr9XpdTFYRdhiN5bUSAIFE0nHy4NtvTaKAtCBzqUdU5U25PMAgEI8ODk9OTiBLOpQ4zTWU50Vmgna7vb6+zuUWU3wlQ5yejbUhsnqbW1tbturj9FsZ9QeklTEKQCNiGIYPHtx33J6ZyKKmYrr5VJkq4WP6CIANL+X7/vHh0Un1EEjzpzxqg6jJ2P3RWVlxfsx2u729vc1GhvUqp2jZnE/cB941v7+/f3R0xGjb1BsaK25iDGiDYFQS7e/ueY4reNgJxDTDWD3Utyh5BSsde47TbDabzSbkQKHpNp1HugAgiqKTkxOGtiw6KbJTgqbb9DDi5vgEoEvyWs+quUNkjam+USYi3/PCsANaSSGazWb1+MgY7TgOaQOo0ZzKDxISAORplk8/WHRmh6h3gnEgFGJNYEQEga7r1k6Ou+22VolMBJ+j4sipMQdDrkEQsIzyfT8MQ96LxoUhTFaTNUXYppRk1QeE5AeQdUe73V5cXFxfX282m1euXJm60BpVZhgi7aAQiCZJ6rWTJIx0koDhLM/LpT4XEQCQgJROsorVkO6PmmZEzW5F5I3ISql6vd7pdPKWR76H02o3b1FZPNTGz5gjwzA8OjriKtvTatfSyLlAxhjpCDDUDsPt7e0w7AhDSCAQRZYwk0ZH2TcZF6e2Wjz7r4ZTzzBNOASQSZKEnW6zXu+22sVKWUg0xpA2kGt8QnPHLlzHcVqt1s7ODudk5ANsl6Hp83LCQqK24ILrukmSsKnx/PebIIAgQCERRafd3Fx7nMSxUZrZYuqUXzF9oc5syAyB7na7x8fHjUYDDDmcBjBVYtuTiIQQ9Xp9fX3dcob1n6fbIpN1wezzMn+QzUMwZn9//+Dg4DJaH4vXEIEU18NGJBSU7i/pVSjTc0yMMYp6CQCAC/QAxmHn+Ojw5KRq+LBGNtCG7IgflfKyARGbzSYHlk2Gx+fZYoraxCrNvOQgoiQjjt5Vq1VOJZ9Wu5bGwUCBSMdJq9HcebLlCnlO1HtC5ugzLPo4g4gADe8JrlarJ8fHSZJwacrpStf83LdarfwazWdgTJEtBu8PmdS0oXkOsbK8rNVqU2969BEUAKSjKGq1WoeHh47jCJEaAUhwKjYmBkDPZIiULTA9QYuIuKherVY7OTmJ4xjOEe9jARp2bhjn5SNFKBcZ7/MgJnnkns7mrE7MsmFYgNkYLGcM1Wo1W4h4ijSaBZruKNQmVkkYR+12O5AuaEBj8vnaggAowxdSaxQI+s9QHa3pXHZTnlCKxGguxJwkCTsm0vY2J7fGa9kyKCOefKxOnx7JS/tp2RzUu8mdMj/I1n7kLnFojcPx06Xe801Yfdt87XQ/Kdfe4++ZMIoCzz84Otrc3ExiXSi4jpBJlOKDaA/dPj1gmVMzEBFFfvdzXj33p3Gl/7chCQtzpcvXmEQp15W+70cqKZZKBujw6CgMQ3AcyanCqYDgnovTxxuR2B1gCLzT6ezs7BwdHTWbzXK53GcEwFmMOzZZOWH/y6KCkRXeg89X9vb2+GCDKIqCIEBEDsqbrHDPeDSKzGeLz5GAGKuk3e1opbSiwYUiqP8PoOd1DOoT3fzGIAghCEEpxWIDOPnUlkeduLKKFQ9E1Ol0uPC73flzGbbF+URZwIg1S5Ik7XabCwrm10++8+PRWTld55KUkoD4mAXrubE8GNuyuMic5TnDKlr7hoVqo9EwSuFUzc88Z/CRVZRV8c0rkSm2eD71taW1ZqM4SRJ7tp4dqOlxxoV+IIgoDMN2s5XPoxm7BxckPIs4m5ADnq1Wq9Vqaa054jrFdvkNOwKNRgNyGFSfNnkGZJ+dK4dKKcMwrFar3W6Xs0FtRsSEePmFagin7wEIwIAxxkTdsNVqua4rR08bsfqlj4ZV87R/XJzp9A+AXQZOVe90Ou1WyyQKsv0XU4m12m1nzBlsfubPGMibAlO0M4aR9V0hOzyLS+LbaiKMy/GCmcR7v+gvT/mDSCnFY+RgTxbrZdOZLKi1dqXDXkO9XufAI9HUYDarvFmbMPppUdFnr1AoqyZocz/DMDw+PraOax+/jk1DOaN3G3vPR0bpbrdbr9ctNjzGXuxBK3WYLOnv2IAk5/IjnXa7Vqt1u124hK2ePBk8Abao0KDYeAZk4Q0WG6zZG43GwcGBPb9CZLV4JskcfvoIWrbI/D80xkRR1G137NnUl7FLv78bZ61RBJCAUggwFIYhF3SeLmfYFvmQCt78k9/f8YztDK45nJfTfFgCnx4KOdbJ2xxj0FnxBQEos9y5FJIgDcRQlkARh2HY6fAJ0K7rIkG33R67B30kAdEQGhIEDgpXSEcIiSgAHCH4uAcB4EopCHj58pY1ROw0W912BzKHnqinfsZ4U2iFIsf6j46O+LQby6Z5X3q6JHIEmdwCAN/3uUX+b6VSaTQav/3tb4MggMyN4pP6GPwYr58XWlv54nza6CiKoijSubOSno2dYSkPaZBONRoRdbvdTqdDWjtiyrsKAKDdbrdaLQ5lPcv63300iAUzj7azxZmvrTDJvIwgddN0bGO63W6n1TaJEoCC0l1c6e0IBIHBi1Z6xIG/od8cIMhtkBdCgE4dV5OoYUe2jk1E1Gg0jo+PefvCMz6Epq8n/MYOAnNGo9HgvLJpadJx7hKGYafTYXQWLqfk4CAN8gTjGYjI5VwQMYoiruIL0+uSnYlGo2HL6zyzfOAz+9MnNigrCMnyzF6ByWygC3ut2RtXOnEYcbob+/rjccYwCTEoRc5BOACAS3DyWtGJSvhA1OnVk7BVMdrtdrPZfPbQVh8NGg2MlKdLYuA7Yzd0HmekWVMDkSj2Ap6xzKAcQW7pcAYyK9cwDLno3WV0qdls8iESYy+GqVCf5Wv7w36Z/YhBsEkaGo5nDFzhwUjtjE4n7ytPRbedHz2hAYKc94GIYIiXtWXZqRBm5Y5478KZicHPkvpkBg+FMaZerzNzcBEs9mwvMW6SFuPiDFAAAOBaIrl6lL1799L90PbXJr1oXyemtHZDVsFBUeqbWJY9jToOQepGIpuu3el0OMlvCs8wVeJxaDabnU6Hz+ey1ydBunoQqsEVayc8fSVyfJ9hA0dKRyIZMsZEUZe/xy5JWg2Y78lJEqevPY0hpqYcIh9xAoZSKAJt6XEBjK5wPpABEFKYNIKjpeO6vkcGtaai65LSYacLUmaqMHOaMH2aUbdYMqjleV61Wm02m5VKpdls+r4/0k3Goz6DJjW6c0el2PyuKIrSJISMlbmuXD50Mqp5dCGpexrBIoBEJVGcDyk5YlCbmN4/yL0+Zc1Z1yP/ai2pnnthlmOWEec4RVEEubWSHs92kecc3iWWRnzkDD4TzHdU4oNh7Vk4kNufMh6N/Ev2DPNHxnH5rLF70Ed9oEVfxO7MLBA7FkqpbrvT6XSSJJku9NZoNFiRP3evdRjFcdxqteyKFb0HPI9BI/+SUfp89ZKpJ2qfSWd/OecpCCFIG96sNnXH8uTkhHeQWndguvefnIiIbSwraGmypNRxJpUFhj2QfkIbeJBOBcaQJ2PJwdaMMYYL4LNBEEVREsVTPN6XH42NDA4VIeI5p2w+L2KVR1lVIOxNIx2DxpEZ7Dfnde3ULXbrlD71m1w6GBEdkXKGdeunRcaYo6OjRqNhjPE8DxEvo/rRhMQygx34qSzXkTkjSRK2dPL5qFOciTxWkd7/XJyDu8EH/Rlj4gzs6rnnZF6rMaZardbrdT6qAjKp+UKRUorNIB7A56BNuCJAfugnaX4Y9THHMM7jg+NPYR9t4ji2p7H33HCCPhJRq9Vqt9s2MPECohq2Zm0eJJ3khk/LA80on+LQbrcRkUFo13X7GOWSCAnAkP3jtFAhRJIknuPyVBWLRd6vlo+ST6huudbRzs6OlLJYLB4dHSFisVgc2s8Bk7kPtx32tclpb2+PNR0idjodTnUb+27jyIy+benPJnf8TEICrn7PZYB6OPgs/2aMicjHhhg4sqXvL0J9I3N5A8WIJ/UWHJ6kuZERG5bVROk5WQanzBYXuVeWOA6Qea2IhogMGa01ad2TVcRvJvBWjDH81HjhSm0X+cJ0BQYRdbtdkzuwc8Ibjvx7qzvyGveZ1TwcJARAcyqoOSVOaw2UcgMCpm/GmghjDOejcLVeyKLew76f1xp5O6nPsoaJ1dwgWTwDe0H08Wgc38Tk6hymd3lWnDHop9iVl3Kq4qT/TGak+aw4tswgIs4AZX/kgokHg3xgr8Ml8ASThWgZ1ZiwifFlBtNUzOBJ6NR5BkBDfKCEUgpY4eX+NIyzdU0IYd0xrtb1VDujT2bAWYIEpm1zCCE4rENZdQ14ZnmgTKd2xsAZHJdK56AaRMQKxWRl9pIkgYGOEYEZq1BT3lF/qmV3DgdcKnMgogVyrEi79LhJVjZBQOabgGbTkzh1O2UUuzMFT3+Vv34RGpYFOGzvIQ+t9ZK01kZpnSgAAJMen8GTOV79LuY2lkM2becZeOmjksURpsVtPb5JmlGRvhqBwkBaa0YIaYxRiU7COO50QWnpOdwH9uUUZQkjANDLDdT7356znO1TEEG6nwXTj1Pfg9NCuKXT5AqCVF1Ix9NAroPG6EKhoIFq1ePA81U3It+RiAIFixsuWz7qAEkp9/f37bEEUso4jhlHyTux1sbsEyp22fTZQ5M4ln0/4VvFccwbpeI45toeNku3Dzu5YIsjeK3p2e5KAy8+m3aWW+SUe9PLZwBPq8CQcowhACCBdkBTqw3BlvVBO+wITvbEKZgBFMcxnwou7OniBJClmIwKhnLxTZtbOmhXjb1Gp+u4ErG33pMD+6zxjLzUEkLgBM3zPPFMZ/lgbMEQIlJ2VjP04RyWM3h8BdpVyxulms3m1bH71Es2G8jkDscQvRUA8h7HUyc7/53pmmhsD/WFTsa+2/hIl0UyxuOMrNNkX/if9DrPNOSu9/w4uwef8ChyKYMAcRy3p7ebknOlLGfwoPOWSfsg+TkYnIxBXrkkmz2f1tWn3cagcXyTPDQuxq3EPsyi5P1tVj0T0fl1L/L7NlnxczbvqP0ZRpypNMgZaQwvs3xth9Ony6Xc5e92GV6JbShJkiiKphUHHllmMNIFOY3LC9eWbrsgpUND/TLDjiRe7PxEY4zI3xAgSRLeGDIVoqw4K+SmOb939KlzPGiT5q9My9TgJdHnXU9CI3OGPeaDXQN7UYiL3sruVLBEOWMVmSdy2b8E/SNomQcw+1U21nxc+xQ5AzIjlEWFmUY56cvQJuy12nVrPaCxbzgyZ5z5VFN81D7vDi7weJYtWLAzmD2t/sBZhcjO9E2eIxAMmROXZ1yr78a74cicwUrXcRyBIol1FEUqDsvlcqRGU28pPJcrNcxnGxjQAICQWqCYlWM7c9yZF5IkKRQKRBQnig9NrdVqSZIUigEIobWW0kVEo/QYk4e55CibuWOja8M6duZ9Rm16JOJACZcexOyQ8LwPNSqLjHMmUl+xjjFanRYJOFUitg8sNp5Lf54vUS5Xps8iHoPGsTOsyMqXg6FB1IG7O3gLIgBgn0/k5EFW36f/67w2Bzd4ZDYG5KUoIl4SZ/Rhly8aWWU6LYx8HDujz1GEsfIi+3y8Cw535tGczpAQwmTXLadOMa6RZ4WLmz7PhabIFjAGZ+Ttmj5AfgzSYHmCMIeHMplcfh5Pv0gD7qfLF0ESnYYWmaY+cz2e0QvJFpCJjbwz/EwxUN6KA9lC7zM1Lq5N8p9ffKwHfQREwZV37KCIyznZNv+wLyBzDLLFhDSyBcoVjSEH1IwnNs5EDC2dU+lr2PNbNSeyg26nQpPLxWdM1v6bxGWFMznDjkGf7cC5M1zM5RRCYDBbpBHNkejMfl+8+hvkIrHQa4e+gDuSL5v6YJXpaRN7h7PAaUSUiALQEDhC+q6r4sQtOMKRBsFxXaX1RfRI1vf0pumrfQOn7EXW/jjFO9OeYNYzYwwQScdNVGKMkVI6wlFkHMcJgsBxHKO1yMKwiCikNFqjHE1M2mydvB9Il1CmeEIiIs/zisUibzMx0687Tv3/I0y/xDLDEQLtEU4IBkgD8UIfKXfrtIlzoZgLcr312SA7YGycrpxFg4bF8wJvzqf8Xr3nY2dgVh3sgjsvLkinsZjeK30f9QE4+Yu2UPwlWaAvONnlmr84ZTvjIj2w+dMTYm2Ds94ntPve2P8OsogFZ6WUU6zkeuYSfAHFxiAQN2Enx9RDFtVgmkR8nSMM4CwpMsgl9s0zsEAnXAmXTVPs2zhxk3w/poK45Wf3TIFhrw+qmLwHO8yhnYQG1yK8kDKjb7Px5DccM6LG76c4E+dM/5lf7nvF3J65qU/bFJX35ZHJEUyjk+NwRp9ZMGEPzqQzb3vORWuTX+q0vZg8wZQXGLafk6zYoVihUgqlJOzfN8DuMldws/UoTVaDHAa6dVbnRgBhiOj8p+NTCrK10mOfCyEAEYiUUlJKATj2SPFws0fGGxinFbQb1qVRudBm++Vz3CehoTJj2N2tyHqqwHiRV9jYdKmSckKabq8uFF+gXOJ8n6VDZ51lR0/ZUpE3JqZsME6d+sDmvEd2zvefF03R8hvKGZjh1rnz3k+dkUGXpM9ZoPN2wuQtR4BeTnrRKP8IT2WLCe8/CWGWB5rPnpnkhhc+32QI8pj/6ExeueBtX0z5DEP2+7+YvaXepKoJ73auzADsExjUm5MBaR7N2TxxEZnx4muTPovKPv6wNLZRn2WKWon7OZV9D/BUO2OwVI2N/Q/Cxn2+yenFfjpVN/Y7LyxzDGZETytkdRmUF28T+vBnaxPMveGQN1J6sMjg6BAN9kAACCLMlZC3r6ctjt3vrJ7HUJpitc4X1hM5n6YnMwbuQ1oJRyIgIIHhlFwSTophgOBtZEIbA0Se66X7+7gyFggAEAREgKnvkuePXIMZhzFMBZCmAqYX6XS/Ces1Y58ZUSMBkCCSgKR0ohLXC8iYWCsDhI40CIKzCFKQA226+QgD5DhcVoU1CLd+Tkb0IMp0Jqxu3+S3lMEEM4pZpHNaR0ecZ4GenmlySj0jgoh8dE1upHJSgUS20aifLfI0OFiDw9SvthAMnC5k+1lqEWP6nX99K30CyvurU5Fz48Ra+5QuTeNcsbyvy1eGssVZeRv2CmUbYSbsz9g0yOgXeXPmfc6kYd/vkz1Mk+iUyY7ny6DosTkjP7t9Dz/IAWd+lHfS7H+fbyreOf0889MpNmrtv8nFxsgjeH5ZqjHozInvWyUXXHYvgszI9wSG+PNTkfZ9lLczphJZHDn73h73OMUycnkO65EB6ac9e4uJCHp2uBAMLJTnrk360PTBL8DTltOwT4cpCGYLx3Hy2QiTaJMxOYOmCrfBWWsLEU36bKeGVX7Ez/wh03PHG546K1OXGX2OyYRsAWNwhk0MHlbrbkLqGTI6/WeQJ/J0psh5Eaivw1NnCEtWm0wrg2koZ+QTHdBWOAdIkoTLnruum1ZEVGqKudpneSJnPCFleRssS7jWjHQc0LqvAibaLS1cHHPE/SbMbTwanJXClSryiW35N4NMOZJU6zOb8t8/H36N47hQKBhjbHkgzKpoXPRRe2mEiNrgk9srz9fi62GCIdnevws0XYE08gLKb13ki8+XM/pgj99NnoBL8Hqebmec45RTLoySfnSGMJxaLPEcmiLC84LTsInv44nJLdCnn6PW99++aN4LMgfDPMPfHRoEgSaki2b72dfBqi497PLMZcYpojTtoXkx6XyZ0ffp5eIZfdrE1jzPB02e46kOv2uccQ7lF/DkdI426fnIttfHGQCGeiJq5jQeiwbQZBfhzKwJm/xh//o+6ukDnr5CFmIlIpuvrIEMEBGZPBKS++Ekp7a+4DT1xeBkE9bPIrbcJSeHIyJAutMcssyuJIko3YWRdS5dr8y8NpfCAGWvtiVugAQITPMwgOuBZkW3sifl4guaDCHac6qQuGIoaSQEQIEgEKUAEmwVZ6UwycBp1fvxfKggCERaV1Ty4Vn5ivSX5yoPQjvnTD+jLH0Hbkxih5633wRRZG9OAQOLstFpcG+weXP6x2LDvmK/5LAcwEJC5F5tzg9viIKsIo/IEn3SdjmNKEtBZDDK9EoIbnVymfHC6qn8FEyFR5+yhvLQG8sJz/O4CpZl4Qlru1yc+kDA/GLNX5x6ZRV7/xfciJkuonNe7rgdecgNkOd5PO62XBpOsCtwcsoDKjYCPHWwpKc02QvPHDANLrnQWs9LDq7th5e8t/giNOg527I7U2wl/+wvMlvkNf5UhMdQmcHmC/TuAGAtPmgZTZ7t91TKz0gGnbCFaYQ4ZVPekTzFmjvQa11eZEPvc6Q+mTEJPYUzEE/ZIt+kNT/5PUdfJ+zK+TSMM7TRINKZE0K4QgZBUCwWp9i0lRkvOFv00SXKDMhJ7EEUxUoRHq3LLsE5yBmQiSs0hj0mKaV0pO/7hUJhWu32WbjwArsn06Xz8jP4DWY5wDz9rut6nsdogR0vx3F64S8A645OC5ITQmf2HxqwQgIp3QbCSEOSxLw3BBGJ+QmB3e9MQY62kpRSS0tLiJgkie/7fLbLC1iJ1hjD9UBd17UmEWMw491wnAzhfMnHF8oos+v7zLym8aQr5oo124svyPNeKo2TB9pX8rFH0eRT9XJo1TMgFhL5ibR9yVvQo+5PYnfMLkTrpEy59y8ejSwzBjN3nhnSdSbZpWyN4r7+DFpIIxGDe57n/Z4znvaD3gMpcdqY43g0OFVnCv9RjQwA4Lqzvu8zt1knZYLO/uugcbSJrdoGzBwAcI42uWRvFjEt8sHoBvWmIVIGy4xNeZlhc49/F2TGyJzheZ7ruuybpHvDST/HNWR9ISIiMgbTiheY2/ieaoGxbB62M/i8H5rgTOt/dXQeZ1CP/WgQAAGEKzmayWFoMoboNHOH8DSvwiAIOsPg691OD9nmgFSx5Q88sL/FrCvsCbPraatoGAB2aA1SlghA/CtDlP4wbW3kDfLYW2cdMlE04m3+9ZFDIMByAD9vmgGBBkGySU8G4dT0d32vE4WukK7j6ET5nqeVpt5kGfueend/8P2JSJ62mSKaOs3iMZCrk2G/BoakwJQhODcHAQQmSkspAVEDARE6EgDiOAZtQKDIkHN+gdFVmxCiXC7zebC2isZzt6sGSUrJp5Rb/2DC8+TOlhl2dk2PjZqudt2LXgkCxSGWLCXCio20iAVmf7n7D1M/snc1cnUUwbySJYBR9hEicJkXPpXeANioF/+cuZnbvtAx82eRyMi6vr8LMmNk3ySPl78IA9QnkCg1N6Zp99i6wVO854tPY+IQffGU50i2nJztzCAy2wfAjEocvM0fIPe7QOPX3IHemZhmp6ZBFvg6RT9hzCAOc4Y9jvR3hDnG1CYvDjfkI+N25vomb5K5tHFE5ozfEbaACasxwQugTQYVB9qd+8wuE4du+GC2wZSlf9s0kTY587/PmIbV+J1uK79TFgbTOKd/e54XRZEiKBZ8DRBFkeN7w/gjH5XNXze9NRcuMu59pgMBg7DS+iOayAA5jlOpVGyjjH5moPbIkAannvCWkyRJ+PF5W8dI97lsmp2dNcaUy+UgCDjFbsIVO05+Brtwtu3nu5j6hiBfq2paHUPEIAhYoTALclncF4o4SSdvJk8oO0fmDA482qj0c7cz+mKqjuP4vm8HaFpULpc565iDMi+awACAKIpc1/V9P+9ATZIdMfIvOcuSo9LPnS0AQAiRL5Kaz3ibipPCQqJUKnGoSCk1rZ5Pl+I45qmx1vez1iaFQqFYLFrOoPNOuHkWlGdQIvI8r1Qqua6LgzbjWFKEt4mWy2VmQS67/gLioUqpUqlUqVRsIuaEgu3fgszId8PzvEKh4LounKllx5IZRDQ7O8tGKDzvAsXnUKVSmZmZYUUPvSdajEGj+yael89+I6I0M/s5Ud4QZjsjCALHcWzixoTMy+jIwsJCpVIJgoAzPyapmXdJJKWcmZlhzmBLecIbns0ZAytLAGiDAkmj5wrXRccllIZ4f7oQvdvM81kaZx3Al2ZXDLRqsvwJAyAA01eWiTZvIxfMB+QN8CSQOCKLQkjpOiAc6GULhLGyM7JteeVyuVQq8a4CANBaT7HQ5VRISlkoFAqFQh6rnUTRO70W2ulbwdghMXIAICQRkZAAIAqFysJSe3VtrjLXaTVdz2u26r7vAwANFEHQpv+ALUCDp3tVeiac0gY5j1ADCCBjgPgkVoC0PoIjhAAUIBBl3I4rQQVBapUQoV8oLSxeiZUuEJ7WYJlgBSFiGIbXrl1j68p13Xa7XalUoijKgzF90bvJCQe20fKdGV/hI1c4RxWz83LL5bI1gKIo4owNLlwwBp33M7vGDAIAmjSVBsqzc36hiEJo4k3GVAhKhhRAenRSH1GWn3Ga7nWaHmQHwuZrpQV6MuEBhk4zPwghb/uhQUd6nU7kBn7BL0owhWLZL5ZwehaiUspxnFKpdP369ZmZmWazSURhGA6mp0+XbCKBDSbbREPe5cCOEmNuRFQul1955RUhRBiG/KnV+ON1YGSGIqCVlZXFq4tBEAAZ9uU8VyaJIgQAgQQ2L8cm8qSZgulVQdleMctFp5k9ZA/OIQAgAEFkAJA49wwBkQwSIhIigHRkGIboyELBd4FmZmbm5+dZ1Fs27csnGol4a5rrui+//HKpVOKVGoYhy0iYxmankSgMQ8dxbL4IMy5bV++//36lUslvFZuERuaMMAyvX79+/fp1rxCEtVrgF1QSh2EopeREPTYyrKkhzkjpAsgEUp4zej6lntRDQQDZPdO7EYDhE9yIAdlutwuOnJ2dvXLliuc4Z0qvMYhvjoivvPLK7OxsHMeM9Q3mfEyXLSwoYIWH1SbsSLNa4Te+75dKpddff539MluUPj3abLwOjPoDQlhYWlpZWSkUCo1Gg/Od4jgWBIKEIEACQQJJ8OsZf9Z4HP4nsr/8FXudDBKlf0qpQqEgpex0Ooi4tLS0ODc/RbyBnVXHcW7dunXr1q1yudztdhmAfy5B+XK57Pu+PUskjuN2ux1F0d27d69evcqbe2EaaRLjoOOFoLC8vHzr1i1NFMcxADjytF5FvtCWoDNkuK3h1zeogk5rdvVdZCGRfmoIAdCkaSLKaDfwCcF13VdeeeXWrVuFQuHUNpyGAcCrdmVl5d1337179y4RxXF8JltMkVEsGiGyg0t4r3kURRy1Ye6UUi4uLt6+ffs//sf/uLS0xOE0pRQfHDBJB0Y/xQKFNvqVV1752c9+tvrNN43jE0rYhTutEdjrshISIvRt9yBheoJe9s1p7bbMzsgSsYSAdFcqmawRApTIY3F1ZeUP//AP33jjDSFE3jud0NqwcHipVPrggw+q1eqDBw/6MHJ6hufNdrtd3vbOEz8/P//DH/7wj/7oj37+85+zzTG4vXQ8GllmaKOjKLp27dpHH3305ptvSil5AeW/w6YogODjF8/sIFfpG0ZPfabTxxYiVkmskuXl5T/4gz+4cf066fRgRjxLYo1KiMgIgeu6b7755kcffXT79m2umwCXaXKK3Bl1VgzEcVwsFoMgkFIqpaIoKhQKb7/99p/+6Z/OzMxsb28z37A3aw2O8WhkmcEusiQzPz//l3/5l/s7T2pHR51WWwiJp0UsklLgO47TbrfQcyiX028TbYLANcYole5vy2fus4UlCKSUApGItNFRGJXKZSllFIZEVC6WAtdLkqTZDRNt3nvvvZ///Oevv/56sVSKoggcB8hkyoc0nTZxznNxNDWKIv4mI6qIeHBwcHBwsLGx0el0dnZ2ZmdnNzY24jgmIk73Yn3P/mSSJJwaCFnMhWX+MNnO1UX7MoMQUSnleR4RRVHE8SDWYkEQQKbgfN8Pw/BXv/rVyclJEATLy8uvvfbarVu33nrrrZmZmVarNTs7O+r8nvZhmMzJb1PlxW3SJ4lJG2F0wfXiRvP//b/+6xf37n3++eetRtMA8YBqbTzP810v0SpRSkOmMnPeOebEFeYWX8IHt4CUDnrSlw6SQQ1KSFeDdhwPwESdqNtpucIrl8v1dvvdd9/933/xi3feeeeV27fK83NhtxuUiiAFe9AGyBjD5/kKIYZJEeZ4a8E5jkNEzWbz0aNHX3zxxcOHDx8+fFir1ZIk2draajabrVbLcrndxMaOEsMMlNbQtYVxz97oYEto2gqv/CuGWa1H6jhOs9ms1WpBEDDvMtzJaRl85s3KysrLL798+/bt//Af/sNHH33ESBcnMV2c7ESMLDOUUp7jktGsRF566aXDvf3q8UnY7bba7Var1el0EqXipKsC8os+geHJ4RALCOEIrsRrMKs7y2OKhjSQ63pEBAYFGAOolDYGEpP4gdtsthzHm5kpg3AibUrl4ku3bv1v3//+7ddeW1lZ+eqrr759+ODNu3eWV1aCuVnQytq4iEhA5lzdyWqRBXUcx3y08+bm5t/8zd/89V//9fr6erfbJaJSqRSGIQOgvu/z9M/Ozl67do3nIEmSRqNxcnLS7XYBwBgTRVEURcOKyrHA58XC/mcQBJ7nVSqVQqEwNze3srLy0ksvlUqlRqNxcHDw+eef7+7u7u/vd7tdHkDf95VS7XZba729vX3v3j1EfPXVV1966aUwDEflDEsjc4bW2g2K3bB7/7fffPvbr76492kcRnfv3r1y5Uqt2djf39872D88qFarVa21kK4gANCQLS8NYIxGMkobRBRk8ranQXDQ04ZAKWMMUgLZdkUHyAgJjixUZpaWi7e81167eevu3bs/+clPOp3O559//t/+23+rNeoffPDBhz/+w4/++I+Xr18DJBQoADUQIgKiARimeBm/4klizdLtdre3t//5n//5s88+cxxncXGx2+3ysVwsCVZWVq5fv76ysvLGG29873vfu3r1KgA0Go16vV6tVtvtNivWTqfDXHL2BDiOyOoRFgqFcrnMobuFhQXXdcvl8uLi4tWrVz3Pq9frR0dHT548efz48VdfffXgwYOtra1qtRrHsVJqbm7OGNNqtbrd7tHRURiGpVJpknplI3OG73oIenNj4x//8R//8f/7+73tnZdvvPT222+///77mszRcW1vb+/g6PDJkyfNRjsoeJ1uF7IogNaaAX+tdQrUKOqp4ClQKaOBhCYhhOe4QRAEQeB4rl8IAMAN/JmZmcW5+cXFxetXVxYXFxeWFtWBFo70C0F8dPjVV1/FWs3Mzv7ptRWgFEvDrJICPi2q1udlEBGLCillt9s9ODhAxOvXr7/88st37tx5880379y5w7jfysqK67rMWyxUbDImbzcdlvLDhQWsa+r7PkOudkzscYqu6xaLxbfeeuuDDz746U9/+uTJk4cPH3766aeffvrpxsbG3t6eMaZYLN6+ffu1114rl8swkKIwEo3KGcZ13ZOT46+//vqzzz5bXV1FgurJca1R12Qqs7NOUPCLhVdeva3IIMq5ubmVlasoU/NKax3HcRRFSqnjo6pSKkk0e952SnRaIZwcFK7rBkHA6SAayPN9AOBNvZ7rqiiuNxvV2snjx48fP35MRIuLi2EY7uzsbG9vgyGQpzgr4lPcFLYEIUsZRMQgCF566aU/+7M/a7VaDx8+bDQay8vL77///vvvv3/nzp0f/vCHV65cmZub44weljRsNhaLxWKxaBN8WFgOcxNs6pOFO5lRGLRgxuK+MfYahiHLlTfffPPHP/7xz3/+8y+//HJ1dfVf/uVfjo6OlpaW3nvvvT/+4z++cuVKHMdxHJdKpRGnOKWRZQb3PkmSMAwRcaZSaTabGxsbWzs7r5eKXrEwI3F+fnFubq5QKJRmZpSK8tEgrbVKjDGmyD02hmtCpyOIKKXL70Eb4A3dUoIA0AQOkoFms9ntduNuWK1WTbO5v79///79X//612tra7Ozs7wEi8UiEQER27Zod9wPJw5BAQBHRgDAcZybN2/+l//yX65cufLFF1+EYfj222//5Cc/uXHjxvLystUpPHPs1pbL5TODrucs3MFwObMIh37yJyazTVMoFFj0AkC5XL579+6rr77abDb/03/6T5ubm8VicXl5eWFhYWZmZkKU5UKcwRYALzpDtDC/cOPGjdn5Ocf1Hc89qTeq9Vqt2XKCwvK1FQ20ML/kel6302m3Wl7g8q8EIgrhCOE4AgDCbtdKUS5zwKNiIEv3cAQoMsYYpQyC6zpAYICCYsHzPFUqFcqlq1evPn74oDhTWVpZbnTavFhff+ONH37477QACfkgP+K5Fqhd1pyVw0M/OztbKBT+4i/+4s///M8bjUYQBJVKhWFfpRQzB29stP/F7ABsNg8hy/AYxhwWlbL5R3wT1mJsltpC7xb99DwvSRLG6T3PW1paWlpaWlxcrFQqnCfA0eCxQ/Bwrtfau90oG+Jutxt4fq1W++Rffv1P//RPB3tPrl9/6Y03XvvRj38yNzc3NzcnXcfyOKN1E3TutPX8CJ7uPjK0u7vbabUODg6ePHlycnJSLBbv3Lnz+ptvLi0t9fX8fBqGN4jeApJ2WCwOYf1V68GO/bwXofM5bHLKBRYuxhmWGII1xjQajVqtRkTMEPV6nXNbIGfHTTFxIc8ZliAHncVx3Ol0OJt3dnZ21KaH4Q0id5hL/p6sQfJe9+86Z1hpaWEcxm77ElOnhd4P9nhwkmBgZY+RsTLs+3nOgF6Zgb0VJv+NccaYFigPPStXfvV932R0qeHpwYAFwwaQhSXHa/r8X/VF/igrDDrSTaZCzyx0N7LMsHYW5BYof8TOZ194YuoyY7A/fZPE3DmtFI1h7bJdkm+6bzT+ldL4MkNkG3L4v+xwa60ZhcWs5jdlO2Eue9MO2z2QMQQ8DT8YlYbN95lXpmhXDaNhnDf1psfRJhaQsdgcKxRevtzFJEmmOD19lB8FWxGcJZbd7jzJPYdRXzj0/C/8a6eRtQnkdK3Jjrboc+LZBGHWuSQL1L7hGCn2lnHlbM2R7v/Ufg7aN/mePDv1f8kyw97//wcJ8NoOp34vigAAAABJRU5ErkJggg=='</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAJAAAABBCAIAAACxRrplAAAWSUlEQVR4nM1dW28bx9l+Z/bMJSmKOjpWY8tNmtp1c2hugiBBEhQFepkAvW//QJOb/oP+hgJFb5LLFuhtclEUSFoUBYI2SBMksFEfE0efD7QoWuQu9zjTi0ecjMidlahI1vfCEFar5XBm3tPzHmbNpJQ0D+V5ziZERPhJRGVZVj5v23blfSFE5X014CHvS43UY4wxzrnpe/GnoihwzTnXB8c4alvUn6YuTPOfmrBp2oqKosBmmiY8Pey8DJslbNYhv++7fEvl/QN3ZIoUw6ZuTo0z9av69llG1s9T/WpZ1tRfcc05l1IWRQGJtyzLtu2aRc3NsDzPMd0pCZp3HBODi6KovO84TuX9qS2QUkL2Tc8TkRCiLMuyLCHXUsqyLF3Xpf1qMa8o1JCU0iQB6lptqW4qZmluhtUPd3I0l4bNbpAimKApM0jmdYGvpG0o6DAmXZ/zIU19WZbQtkajUf380UyichtCCFyYfNVxaZ5pwcqnggcHSlKe55Zl4VuEEHmel2UppQzDUJ+w+qkPaLrWSTGyksGzI2RZpr6Ic25ZVv0S5mZYlmVqg07ab81LOgAxCRARCSGAOIjIsqxK41npq2Y9mYlmjeohLURRFNAwJUDTz38X0CEl4dM1g5hMh4nZnJtMR800vtWGw9jqoiiklOCTEGI8HmdZ1mq1aL9vVmiw0qUduC4FXPFTgQ4d00Kw4FMxf2h/zSqMYlhDZSmTJInjeDQaRVE0Ho+LooDTniVMtGZhU2TivUljyjLnnDuO43me7/uNRsP3fcdxakwoTSBJv9//9NNP//73v3/55ZdgjLIcyn54nqduWpalNtTkY5SnUIQ7kBL8CvbgGtxijC0sLGxubv74xz++fPny2bNnKwenGg0ry1IXCn1/Hzx4eP/+/TRNiQjfCjGpHGdenzQvWdbeONgdx3EWFxe73S5MSp7nQgjP89SKsEFpmn744Ye/+c1vHj586LquZVkw9WpYpQdgmA6G62FXDfrVNVWNv7y83Ov1iqIIwxD++MUXX/zpT3/6zjvvjMfjNE07nU6SJEKIRqORpul8GialHI/T8Xic5zm4eEgrdNKEaUgpsyzb3d0VQti27brulIFSe/2HP/zhvffeu379+pNPPimlHI1G0OApYF0J83C/BoVW3tfZrCP4hw8fSimDILBtO8/z4XD48ccfX79+vdfrvf3226urq6PRyPM8z/PyPLdrPLPpW/v9/mgYF7kgYsQ4Z1xKyYiTyYtJEzA5DjYzofYUJqsoijiO8zxvNpvtdlsFoTA+sGwffPDB7373u9u3b3e73TzPsyybBVA65/Sb6v4hYboimGI1iHrMdV3HcSBqtm0vLi5mWba1tfX73//+xRdffOutt2DAGGNlWTqOY2SYbgTULMuyHO5GaZoKIQBAdb861wLmpepxGINT4Jzb9p78wTYOh8MgCJQzU/NMkuTdd9/95ptvLl26FMfxzs5OEAT6Gk1apaiGW2Q2iXBUU9yCbyuKIk3TNE0dx2m1WkEQEFGWZX/6058uX7789NNPE1Ge577vE9EcuBxCqrilW5sDE2snRyqiwhygZ5zzOI5166S26caNG19++eXq6mpRFF9//bXv+4uLi0ABinSwMIsbWS0JA9m2rSNASD8CDISG7Xa70WhkWRbHcVmWKysrn3zyydbWFuYPBZVSHqBhuuWVUgpBCk3RBHHUS9xxkeErLMtiQhRq/QoiAW7oS8AIV65cGQ6HnucNBgNAyp2dHd1sVmoYqOZPig5Ev3I/hWEIPOI4DtIclmU1Go3BYBAEge/74/EYHi5NU8/z5vBhaj2MKaFWMshNVhEP1yzg0FS5Qd+Ki1I1tj/roQJkpA1v3rxZlmWSJJzzjY2N3d3dnZ2dlZUV5WNov4uasoTKZpoYYwpjVA722/UwRkRpmkLaRqMRTBcCpCiKGo1Gu93OsiwIAtd1kySheeOwiesmIkIGlTHGucVYDQNwnxHJ/T9p5o66XzPONBVFQSRVUgcE+K4YpvuMu3fvttvtPM/7/T5jLM/zpaUlZal0F6U7G/XxKSc3SzrjdVKpKTW4GjMMQ845+OF5XlEUw+FwYWFhOBziDp70fV8IUccwBC6MMVxYliVE4Xo2rA23OOO8KIpSCG453Nr7ethlImo0Gs1mc3d3l4hIcmJC/yklwzXjcvKTETPuRSlyeAIoiuu6ZVkOBoNOp825k2VZURSwKmVZNptNJemAWNhoy7KklGmaFkXh+z6gimVZURQJIXzfZ4ylaVqWJQCL2oGpfVduWwcRk4s9FZ96piz3DHWW5a7rNhoNMMZ1/TRNscnYOsaY67pSSs/zoiiybVtZdc753JkOxqT6RyQ5JyLJmGy3259//vl///vfIAguXrx49uzZJElu3Li2srJGRMTE1E/GJREjJhnb4xPuSFldCOUcZo1xzvK8uHfv/3Z2dvI8L8v1TqeDzZ1Y7DqHqvycwhe4AJ4EyqeJVdSLWIxNJxmm7JtuRdWdqc9CYjjnCN7H43Gel77v+76vjLaCBZVrOQLDviX917t370JO4zi+d++e53nLy8tPPfXUo0fDQw47uws65Xnuui6svJTyzp07t2/fbrVajuOEYej7vipxmZYK0mGFbt8sy8ImpmmKDZVaxGLi1qzZJOJEXPO4MPVcSkaE/BYjYnleJkk2HqeMZYwxz/OgSfBnlTPHoo4t3R5F0d27d2/cuHHv3j2YFyHEzs6O6Xl91+hw7gH7WBRFlmV37969fft2v98Hk+QkWQcTZ1oz0T7QqEsJRkAGhzTYLQ8KNKfmP6u7al3qAqYPjkPOIE82Q6TJ8dwaNjsJ/AyCIAzDTqezuLi4srLSbDazLBsMBt3ucv1Sp6ZrIsdxoFvYR8aY4zhBELRaLdu2sdeQU6haTYWaaZUnHaTAyWEQ3RjK/aDRtITJw0xKRsRQyoB4SMk4t6XcC41wx7bdIAgZk67rMsZmg5BZbtHRsvWV5Pv+c889d/nyZXjyKIocx1lfX8+y6tza1PoPNIlQLCKyLKvZbF68eHFtbW1tba3T6YBhRASwV6+mKr5WG6T2hXOOlL+KvqdEfnbahyclE8piO45j2zbnpBI0NNF1wKtZbsmawNlEJh8WhmEcx1mWua7reZ6UMssyBBOV46DupSZzmB1Q1X3Hcb7//e9vbm7atj0ejzETqGCe5zW1Hpr4MLY/ZT6ZEtczOIwx6Gul/azhGSMLqFdIwRgxxjjjjDFignGpzC/jknEJPcc0lMAB8VY5yPk1TOVJAWnUYuI4tiyr1WpxYP2ydByn2WwivKgcR61fvzBluWBjYRIByi3L2t3dReZUVbCyLCvLsr7cDIs65XJof9ZUBeBwh7N7Z6y2S64zWGo1DbVvKl/FOWOMEwndEoJhpvnXpaZUKAPngZJMWZY7OzuLi4tJkmRZtrS0ZFlWmqa6JjmOo+q5ypdMeW9zxbn6vt6aIKVEfOp5XhiGDx486Ha7UkpkcdCmgbxcnufgqFKU9fX1733ve1mWbW9vr62tZVnWbrcRolaSSYBMGsZZtXJXV6KZsCxrNNpF9WQ4HC4vLwdB0O/3Pc/b3NzsdrtENB6PPc+bOzUF5j/xxBOLi4uILr/44otXXnllYWEBHDV9cNYz06T55PA0lbBQK+ecB0HAGEuS5NatW47jnD9/HjE7tHBqJq+99tq5c+cePXo0Go1u37797LPPnjlzpkYj6+tbVfdZZUUpiqIpmEZExESep48ePcqyLE3T7e3t+/fvP//880T05JNPhmF45swZKCjnHOW9+UwiY6zb7XLOe72eEOLatWuvv/76wsJCEARmJF0toaacm5TVkju1Qbqcrq6u2ra9u7t75cqVOI43Nja63W6aplMOiYiEEK+//joRZVnW6/X+/Oc///znP3/mmWdqIgGThpnmbwJZnueqFeg8s21OREhvfvXVV3/84x9/9atfbWxsjMdjKSVSHjqSOoBhUkus4RplwGazSURxHBMRUKm5za2cC1PNGxoKIQAxlpeXiWg0GmFuKgUnJ7lawA3kRMIw7Pf7u7u7/X5fCKGqTbNkFqxqDfP9apOo+D71wdFohDRVGIbLy8uDwYCI0LVgWdZ4PEadT/m2gzVsimfwH86EkiSpR9Jifxe0ujaZGsaqN2gK4yoNA6CiCQiCb4MzU88obw81SpIETTucc3Ts1PSkmJZmYqRJU7XnVd2KERGiiCzL4I+RmCaiKIra7XZRFJgnTYKW+XwYETmOA++HyjqUrEaHdBChP2ZupZ5Pw6DZQPxBEDSbTeSFFfzTv1TBSCHE8vKy67qqenmEbonK+yZG1gsEMMU//vGPzz77bH19/fz589gfZSdoAjjn9mFy0tGHiGeq4lf5kSMs4MA5kGbrgGCBYhA5QUoqo13XdWFC0ZMUxzEkd96iublQaUpeV+9DlpXoF4qi6KOPPvrPf/6T5/kvf/lLGHZV1VTrmjsOi6IIYxERBlJJs8rnmaFiYu4aNhY8p3ivTCI8aJ7nCMUqHZIKGQH6Lcv661//+sknn2xsbFy4cAF2ybTkuWguh01EqCkjGZYkSbPZvH//PkQKlkzuz6UdMMvZgFH1+6FXZDgcwiVyAzFmVf6bZLVn/x12I9TckOBA4MgYcxxnVl3Uxx3HQX/SP//5z08//fSjjz7KskzPKx6SzHtmWpdxvUADnuctLS3t7u6eOXNmOBwyxmAPVVALY3uU1BRNQBdGFFUnrh4b7S1DS8eZvIgiPUlIE/wyr2acHElzhYXm9fBEpNqMy7JEyAwf/t0m+Z0IRTIyI88pUpl4lQo62fkdREpupvI4lXQUzVBLPXfuXLvdRh766PP9bqTkUdVHVO3RRFBHlaw68PnHQ4ph6CU0PTa3SUQWCmHdU089tby8XBPEPB6ChKIRA1663sRBw9CZIk+1qZJmwBTw6nEyTNUPkflV0npabgzwiYiEEEiVUh0E3Ytm0A0gJmdJHtNca0k3iTWJ1iMWMJEaRxA9de7jVAgV506nAwmt0TD8qSxLFUGfrobR/gLTgT7sKCZROW2VM605AX7ShOoXGBYEAbRHTXKWpNZVoUziKQqcXoRTd46IEtHWIqVE6UsNhJuwKo7jIBV0rKuYg1B0RkvhaDQCw2pMIry64zhFUSwuLkZR9P777yu9fJwzV/MhIoSGOH3jeZ7acNV2h3Y0IcShAmdwhWn99GxSP4U9+f8AOvSTBzUaA8XK8zxN0zzP79y58/HHH//tb397jPPdRyrBxhjDJsNcI9mBWsStW7fu3buHhvtDIQVlA+M4TpIE+gSGoUXpdGGxCsKg+vXSg9y853lBEDzxxBO+70dRVFNxPmmS2nETZMhw+gi9Koyxq1ev/vrXv/7tb3/b6/W63W4dw6bSrHEc9/v9KIqgpHq+4BQzHUJ7FZE+ZxNBw+I4jqKo1WqhjFvTtHPSpBsDGHZoGGCBlPLOnTufffbZ9vb2aDTK87wOdOiZGyLK8xzFFNu2wzAE/ycJw9N02nzy9h9A/HqGwcllWTYajYgoiiKYjcc132lSW1eWJTSsLEucjkVPys2bN9vt9sWLFxljBxQw9cwNYwxJXrSsqu4+Vcg4+aVVk4LpMPfQlRpYjwmHYYiqLnoR5y2GnQQJIdCcgg5MpLOLovj3v/+9vb2NYlAQBEZTply3Elhg5amwXGUZTng5RoLogGHIeddbxTzPkyRRXrksS8/zTjEsAcFK6T4MSXoci1pdXW02m91uN47jg32PjuZpolV6leF0szu6l9XbH0zPo98UkpfnOapop2shaIID0DwKk4gmnPF4PBgMYMBXVlYajcbB9Sc9oFOYviiKIAiiKIL+nqKEIpMJQvPdgfYNLVM0aZ8WQkRRVMM21DyJCAfLjldA2aTYDV1fXFx89OgRTtTjdQic8yRJNjY2kEuzTWmrvfqmBv845wDEsCeWZfm+j4Nv9dmUEyU4Ldu2HcdRoAO9G6bncVLftu0HDx48fPgwTVPf903Pq9YdaMBJ4GHAOs45OnDKstze3saitra2dnZ2FFbgnNsmRKsOwyi5w/FbJHVw4pGIoMJAOMe+ksMQZFBMXtcEQIQuCdNHhBBJkkgpPc9bWFhgjA2HQ9PzysDouosmp+NagqoJo52yLMutrS2kPK5fvz4cDrvdbrvdBs/sv/zlL/WjgP+orPd6PcuywjBsNBpRFA0Gg2azubS0VJ9gPlFCe29Zll9//TVjbHV1FXDLhNTH43Gj0VhYWBBC4GHLsgaDgWkfEOehcIP6H66PdxXY7Xa7Dfno9XpIVl27di1N0wsXLiwtLWEy9s9+9jPTEEq9MGl01fd6vU6ng370Xq8XhuH6+jrSB8e7hkMSXnJRluWZM2eIaGVlRUrZaDRqNExKCZW6efPm1tZWq9Xa2Ngw7QMwF866YXBI53HxTH+nl+u62NgoirDzt27dgoShR1FKaXy97OR4xd4bVtFmpYJoPc0B/3Essz8CqWM5QB9wvSrzOUvD4RAvfVtdXb1z506/3+/1emVpbE9WjhyBETLLx+jJVH8D3Ni5c+e2t7ezLEMohuOsrut2u11gYNuEgLn2qguVmsRBWLytBW/do/0nhR8/qcAZFWQoXM18Wq0W6gx4yRMRcc47nY7pI8jDYmQVzByjgOopdcuyfvCDH1y9erUoiitXrjDGcFq81WrBjBGRUcPgwNVrH8BaNjldilQ35BpaeIrpRBBMggpratZFRL7v4xV9wL1LS0um5xHYKQ5hT5RafHdSRQ/M+ezZs47jxHH8r3/9y/O8Xq+HVxotLCwQUZZldXEYUCybHHRgjDWbTdu24ziWUvq+j5j8dFnFJq938n0f86wXf8hWkiQXLlywbbvZbLZarbW1NdPzaHpU4H7vDV3Ht2TOeb/fx8yllC+//PLTTz/ted7Vq1c//PBDvIPqzTffRBDtuu7cX9xut3EGhiZZg+NdwLwEV0yT91GDeTWpMsiy7/sbGxvtdntpaeny5cunmEsU2vs3pZQrKyvPP//85uZmq9VCDeyVV1555plnkHUry3LuiTabzSiKkiRBrHPqWTg2afgFrOX7zynPkupd3NzcfPbZZ9vt9muvvXaKPricvPEcc1hZWXnjjTcYY1euXCmK4tVXX/3FL36xtraGjnRR/+qiSoIzw9EVpE2P0aAfgabiRdJqCJUEmyalPHfu3JtvvjkYDF544YXTnT84AdfIOf/Rj340Ho+J6NKlSz/5yU9eeukl5AL33rU07xc4juP7PtIE0NMTWMUchEXq1cv6rikc4AD2u3jxogoxH++svyXV14b0WJIkvu//8Ic/vHTpEl4agsyfSiQd5S0CnU4H5+Dgw/jkdQLHvZbDzgebHoahOqZXMxk05QkhhsNhq9VijEVRdFp5NdJexkBEON7v+z7yGjRp31Mv5AvD8CjOttFoQLEs7S2yp0Wqr21hYQGSWJ9Kh8PAGwjVNp2iSaQJIEccBuxt2/ZgMPB933Vd1Vi9Z/znHR3vikP4pZIdp1hPQshMRMhf8MlZZtPzKKZgd/A+ETb/ab5jJNUgg+Qn+u+klDBjWM5oNAKyPQpKRPM6roXhf014nATso5cx64ErjCeugeZPV71UzhPn7WgCixSh7EKT2Ol/TGehs8ZU6fwAAAAASUVORK5CYII='</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAI8AAACOCAIAAACHXcxhAABlIklEQVR4nO39eZBfWXbfB567vfW3b7knEsgEElsBhdqrl+qN3SRbY5GUKYkiJTFG0ni0hWTPxIRnImZGM5YdIclSjGOGDmuxtVqWZWtEckhRZJPsYnf1Unt1bdiRyD3zt//evtzlzB9ZbLYkmmJVAyA73N9ABIDAD5kvz+fdc88959x7CSLC9/U9Ivp7/QDf14fQ92l9L+n7tL6X9H1a30v6Pq3vJX2f1veSvk/re0nfp/W9JP57/QD/rhARlSqllKiVMUobrZU2xhACrutTSpXWUkk0RimptdJKSaXyOFZGAyKjrCgLx3Zt11FSUUopI5xzyniZZ4QRxrngnDJOGaOEEEIZ44K7RVkgGktYXAghbMYtQsjvtTX+DZFHlctAbfS3vxciEABtdBAGURLrLKw3agYxi5M0SxCNUlJJY1BRQCNVHMeMUse1KWNo0BhDKK34FalKSjmiAYRSS2JMWeqiKCpVDwzajluokhAK3/4RSXnyZ60NGkMIAUIYIwAEjAUAjDIhBKWMMCYYt2yLcs4sXwjLsT3X9xi3AOD3iuJDH1tGqyxLpsNBnE2MQYMACIQQQpBRBpQQhMFgPwgsxphSxuJcGy1lqaQGrYnRSZokSWIJQaHKOEeD2mgCUFBDCRhCZKkIIyi1AUSltcrK1BBEYqSUEgABCKWUMqp0RigAEmO0MQYRCQBhjDEqaAUACOWojdLElKoAgBgAoNCIQGzhVqo1QpgQolZrepUapVRrbVk25ZyQRzGnPFBaiGWZyKJIs5QS4vt+lmWT4WA2CwAMYaUyBg0SRIMIhAhh2ZxRxjkD1Eo4tjFFIXOjtSzLUkpi0Mg8jWJtDLWtPEtc11daEQAgoGWBlAGAlCVIAEStNaLhlAAYqaUpdFFKQgijhDFGNS1kwjgjhGitjdZoEAAoY2BZiAUAUEKBFMoYAKOVMQYBUVLCOFcU40hxbqUGwmDGKGOMZXnqOm6lVkUNlmNbtoOICMiF5/k1IR7wYHgAX05rnWZZEifKKIdGiJgm6c72Tillr9crynw8ntjC5qQwqKXSaDQlTNiWRAi0Nlpx1ynynBIspcyLwmitlNTa6LIo4zgrMtt2UHEQnIAyqkDUluUQNLIsEcBIdTLatFZImc04AU1Qg0FiJAAog1oTArSUqWU44xyVUlJrLREIZ4xzVJIBGOS0NEYrDQSMMcpoY1BzQg1DLBWxDCJhzBKWY3mEUEY1mjycZYQyFcjZbGrZbqNe526NTALXcyu+b9u2EOKBOM+PTkvKYjwepUmiTFkWJRpDGFHFrMgzx3L8moez2eHBTtWvyDzOk8ARhhitFCIgAaILZhDiOHIdj3AqZVEUqZKqyFOjEdEoqVApQgwYQ9HIstBKngxDLrgQTKm8lFIblEWhlEbUaAylQrsOMQIAqDYaQaEGA0AJKmVKaZQRzJRSGTRGGQQEQRTVlEtGmDZSKS3LklAAoCe8SmkIJYYLQhgQ4EyAtIzMhLAIGIt7gEABZ5ORsC3PtaUqs8nIcSTKJBgfU8YY5V6l6nieJSwDRpZFvdZijD10WsaYOI7KItGlBFCey0rNKJAsL43SqE2WFFmSybKwGAmnY98WMk3RqLxQSquTSV4IS0lI0kRrVav4RZbY3DJSJnGEBlEbRDCqlEWuykIpCWhJmdu2LYuMcU4QAVVWFqARtZayLIvcKA2Ucq6RUgKUUVYaJRi3uK2VUloXWjrCJYCUCSiAAgDVBAgBZgwBoxmnqiw1KkMMGABUaDQggAZUWMqCMsYIybHQQnDGMkRGGTEKqCgKSYBQypI0BQDBhEqnquRZmlm241drRYbj8dDxbACUSmutup15gA834D4kLcQoipIsci2hqIyjpCgKxokxmlEClJsSbYfHUZykcY5mOBz0Om3OcBZFjKExBgApEABAY/Isc1yPEECN3KKgjSk0t7hGg8aAIVoqrRTnjDCKBgX/wJ9oMFJpVLoopFaqKPKT6IUAGkSFmiMaowkhlDPOOSAAEslKlBKBSmKkVgBojKGUMsCy0FQjGARKAREAy1KpsqSUEk6BcFWWAMAFcMeSWW7QSEKllI5tO6VNOJR5Ri1bG61OJmdmDFFQkjwvkJIKo3EcaYN5ZpAgo2wyHft+1XMrD5GWVCovSkZoKUsAYJwJI7I8RVRKS6lkVTDfseKZ1FkmVX68v7M613Ft6zgONRg0iJRQIFZeaEBZlI7jRXGKEmWUAKFKlbZll0WplZJGS1UiQYtTAsA4V0qBoRYAZVRpmedFlmZKq7IoPNcDSjgTjFGDYKSiglHKUGtlFCIwRi0uQGkgQBlhlCAAAOWUAhBjALTKtQZKAAAMlrJUsuRMcMOJxYBRAAACWiMiGm00GC2l5NQgCkKosCil2qBSChE0KGMKRKK1AuoYVaRZWK01pZSUW1obg8Xh0f7qyhlLWA+LFiJIWRLQnCAACsuijDmuhaDLoiyKPA+GlmB5kqRJqMq8SJLj46OF+blGvXY8nhAAYgA5KaVCQAQsSzmdzBxmua5LCDFa8gpVeVFKCYDaSEORUaKUcl1RyFJKaQnBGJdlkWWZNoZxDpQYNJwwxigAAdTGSADCCAPQaD54dgD9b/4wJ78RAFBGW5RqI3WhDZ78o6GUM84opWVREM4ZpYiQJQklRCklpUYAKVMhLM+tMMGRUTAGAAglgKh1SQijlHiOnaSx5/sA2vFtxh00QBklwI6O9peXTzH6u53APhwtyiilVMsiKjOjjetaQghEDYRSSpjFLJSz2SQr8lkUJ2EgHKcoZZaXlWq1ZUhZlEAoACgtDSKCSeIMgBR5lmeZMQgAQRACAKVEWI7lCOFZQlhGqShOiqIAo3NKS1kgUgBwXUcIwSkzaICwIi8AESgFSlFLwwQTTHBhEKVUQD5wxXmmAMEg2q6dBBFl3BjNTgYZwImHBABEVUgFjBggpizpCTFGi1IyxqSSju1oVWZpZlsOArEtmwAjNkeNRpYEaVZKzplSmgmnXq8TyhFIoTQiqrI0hiiNeZ753u/WH344WoxSSlmpkRHKLA4IRVFwwYhBbbSWmrnV1W4PhRMm+XgSInNLpLMkcyt1SyitARAJpYRSNPjtb86IKYpCK804BcoAgRHiuI5lCWZxwbmmjCE6jmO0AoSiEECJxQUTAtFIKTmh08mIMs45p5QxxpSUBQFOGBXCsSwhuJSaEKqNkkpqKQHAaD0LA8dxbG4DgDbGaI0apSo5Z4RQAgQQgRBURkMJSFSugDBEQxC1loQQo1QURX61xqQCIIQwwggYgcAsYXEuAO2q36DEKnKVF3mcxZRSTgXjQmtM0+Rh0SKEWMLKERCRElQGlZSUGM6ZZVmWsCZhxjTdOP/YlWtPvfnmm6998+tZmqbjqNZZaLaaOJ4VRS5LaQA55ZQRBhQYIDWOxSkh/AOfrgghlmVRRthv5ggYpZSCodZJ3g8IE5wKYRkwvOBKK8t2GOOIRiupZGm0VkZzbnFKAqUsy9KARhE0qIzUBgiA57hFXni26/mu1IZRymwLgJAUAYBwhgiAyLh1MuoIBaKMsAQQyhilhDmubTk2IhZF4fkVDcQYAwYAmKA2pZRzjoa7bpNQzn1kohCODQSNRgBSZIVW+ncw+HdFCwAsWwCA1mhQAgGtdZZrLqgQjABWq1WDkEtlkJw9u3n69Okiz4/3d8MwyieDsiyk1uRkjqeEUcY5J8AkyQW3OGMISIXRimqtlEKLUcY5IWCM4Zwbo06eAYEQAK2RUHMyVaA2ruMAojKEMYoGjdYcjTGYFYUqS6W1VIoAJ4xxxjyLEc5dYRey4IIhAqeUUgoECCHGsQihjHJtlNIagDJGCADnDA24nqe1IQS0lAYNGqSM53kxHI1dz/cqVc9za17L5R4SQghDSqUyUuVa6yzLmKO01kVeyFJpJAtLHwLBh6clhDLKGGWU1sZwTpRUqFFJgojMRtSYJ0oIYQtmjHYc+/TZc4IzyPMwCGfhbDKeZmmKSBB1OJspjUxwbSgwpkpNmTCgDYBBgoUuCwNgCGOYF8KylJaodSmla9tgtFKGcQsNUQYQEQ1YtgNoSl0gsJP3nyAllsNtK0lSz68ToIRTehLuWFaVcWFZEoFwyyAyYIBYaMNt4bi+LvMiTpmghFDOOVKqckOoU/FdANDGVKqVWr3u+RWDAJQyygijlFAKTEqppTJIlNKFlIhAKFOyAKBZnmsDuiyA2r7rP0RajDHbtlNZaAO2bSEi5whoAJEQAllMKWOEUA1KlwCQS0UZlYQwZrn1tl1rdudXEAgAuI5dKmkJUWRpHASzIBiPBnGaojGaIGOEUKKkVEqCJFJKgZpSygTnRCiDFBhjlpSqKKXrVIxWGoxSBJEQalGKlDJE1EARAYjwfa6AUc5OogkElIRRi3LX81yv1uwRyjzXpYQAAUqZsLjWmOd5MB1zYVtCUEo7vS6jhABVWkltCLdOQlYKkGcZgEJjDCIDNLLMilxrjR8EihQA0BjUFZnmAIBImq2667i/e+N/lIrJcNgPghEgGmUMKCUVUI2IBJChAThJ0BCA3/RZ5MTFcDyJmhEJoZwzSikSQDSCAABYlmXbNgAaBEQkhDCGxqBWSmsNAOYkv1GU08lEK+N7VUJJWmRoTL1adzzPsS1CqdLSaEkoJQS0NkWeF3mhDWrURinOuLAE59x2HL/iFXlJCQFK88IYjVpro1EbhQAEgFJKAChhhNGTZRbjDAFPUlZKG6DcoFalBEYpUClLQsAYVGWBRhqDBAAIAURCCRrUqKmxjDGEMgRy8crj3bmF373lP0qe0PcrWRIYILkKjTFAEBAIACHkA0gGEL7zNVAKiMUZE5QQKIvSaMWEnaUFAOZFVq9UjDFRGAshAE5W0UgIQaMpA2EJ1IgAJytaxlmz1aLC1oYhol2rU0IQ0VCWSmOMVFIiGMbYSUKScMfybMYZIlItCUFtUEmVxaksy7KQhAACKkW5EIiGUm6UQjSUca0UFVwqCRK0VqVSAMAZZZQppUplHMfhTJwU4XJVKim5EAioVHmSU6KUUMakVGjQoJFKoywIIbbFgVDPf5i5jBPZtgOEgDaO4+Z5DifvIRj4dpkOAQmiBmM04EkNwRSIUBoEQgABIE10GM58zzeoJ9NxtVo3WiVlYVvWB5UnQpSSlBNKuZRFKaXveWVZAEKpStfjyhjCKAWWZLnrukVZqFJpowCQccE/WFUYAARgTKmiyKu2AIKIqI1S2mRJnoQx48xzPSDCKJ2XOSVAKSOEpEkEAK5xkjKnjFJCAcAYJZEQjrZtcUG0VrlUSilCiCrLvCw8SgCAEsI5U1Jpg9oogwYAldZGaUYFIgABzjjjH87+H4UWIYQCMWjiJOWcABgCQCijDIgm2ihjAI36YKwRYgxogxQMECCgEQkAEjQV3zeIjDHBRJamgnPGGGGMApxk8CxLKC2jOOCUaaPKskBERMIoL4oCqAXaaCxRqygomLAoAaCMAAJoVQKhQCjVSlGqkzQHgDRXWitCCUFqjEQEx3EQUGmFWoFloVbKGMaZbVmMguBCa0k5RWOUVpR+sPySWpZKogEwgIjGGKONRi0YydPEdR1ELMpSaQ0AnFFjjDYIGikhSivHcqTSSNTvPovx0WlRSrUxCOC5TlHmhBAgCADGoKAEkSFoQplBc/ISASGEUkIQKCFIAQARtFaUMU4ZIjIiENEgImKRZYRSRqlUCsBo1MYYBYBaa21OPoMGCSkIxQ/iL0qUNlSXhBAOABTAaERplCGEEmPQgClzRJMBojaMMXKS9wOC+MHX1NKg0dpoowwipwSULMlJkMCIASSIxlBtNEUCJ70CGn4riU6AGARABqi10vrkfyIAlEpz8VtUBBelKh3b4VxwIR46LQBwPC8JZ1RwKhlSCmgQNCAahJNnRDRGGwAgjBJASmipCkYoIZRQAoBKScoMJ/ykGG8QS1kQQgGQAYcPhhfhjGuiGOUKgBJKwCAhhiBF4MScxFlIsCwTQwAACGVAzG+6XwQAbTTjnKFijCsN+mSOBUIQEbTWGrUxAIJRQLQYl0aC1qClkVISpY1RjJy8o5RDnmWUUS4EpYQYMErjyfdFIABoNKVUFyVwxhhjDDTiyYrw22KMakQuxNrGxoctUX5EWr5XSaJAa8UF1UYbDWAMAugPXk/1m+0X8EFkfzLhnzQZMUoJVUoxSgklxkiNjDJ2kij5zdlYMsoIgZNXHYwxxiit0WgkgIBgwBhlNDlxQwyM1gYIMHKC3gAllBIAYAAEEVBTjSdjzxgEo4AAJQQNnow9wShqTdgJRTh5pRANGlSABACBggZ28tAnCXxyku84KcghJcQgUoBCS8EZAiGUUG20AfgOh4dAXMsmBHofJhr8rmhpRBSUgi7ykhjFqAGitZZAbUYZJRTRaG1OQnZCGONEaKKNQmVQIRfUotziVlrkVbemlARELlipsqpfNWjyQrmOJWUpiDjxJ4LbiAiUE0LzMjeE5b+Z2gBCNTFUCGM0MAZItTGMEI2gjUZkFChyVxuNCLbjyFK5vifLwmjt+ZU4jgQT1LKU1LnWSAnhVBMKtpB56VRcLCQTDDRyIUAjGq1lAQCUCmAM4IMJmSAiE4agRR2CCKAIMsaJRS00QLQxCJyzkkGBqma5BvHDFo8/qie0Hc4ZpzwOI04MGAMfFNoJEgQgQBhjAIQBnoRFICgQIB8kjYw2BpXRlBAAMAYJIAWglEZxSBnDkxGCAPCBQ0OkUiokhhEOaIBS+E43gidtFAakZJxzxhH1ySqNMWaMBgTKWKk0Q0SCJ166KCTj3Pf9k3mGEGCEaWoYoYRSipQwxhhnVOlSKSn1yToXKGFAgQKhJ/6P/Naq9X9x+frB4sag0VoIAcY8ikr/iSzL1hIdTxBCKaOMGkQAdWJAAgxBAxIGqE8y2YQBRUSK1BggcLLgL8pccAGAWinGGCGEUoaAgnMAIBS0UYxyjQgADA2iOWlgMoyffPLbz8OEOPFbvzXrE0YZUMooISUiGEM5o1JrrRklUpWUENdzbMuO4lgpxQTjlFLKQINBVKUsyxwQAPEkGCEEmGAotSGEEsYEI4bqk1eKUjDmZFUDgEAZEkL+TW6MMWoACUitfN+vNZr0QwaE8JE7qwmh8/NLSoPneZSxD5AxTiijhFIghAF8UPAjlBFGOaFAPggOKaXMtiyjkTFuDDDOyckK12gAUFIVeV4WpdEnEZs5idwY45QyQuiJGQjSb/8CAMIo44xxQRhFQEIo5YyedOYKwThHbYTFKKFCOCdREGPCtmxKiOs6jFDGOCHEGGSUcEtw27Jdx3N9NMZ2HMtxOKW/GSQBSm3AUHIS+xBCGaEUDRjzQfri3zY0pYRRMGjbNqHs1KnTH8HsH73nyXMqtEWHQyPzjFBSFBLAWLZFGCVIpVKUIQV+EsNrpQhFRABzUoyglBLKCCJSSgHg5B01WiMiEzYh4NgOZSUAMRpKJRGAEaaURIZGKcvmhuCJUQgwWeSUMoNIjSGUEUoAAbUxhDJ64rmI0ZJwRsEQioyxkxK71NKyHaPliasEAMaU0cCoIUAIgAHDLcEYM4iy1CdxBAAYBA70g4/gyQeBUCQAhAClDCgCUEoIMCKNPgmAmGU5lkUI+l71I9j8u+owdWxvrrcYp7ntOHMLC8aALKWWUiklLMtxXANo9AeMKGX0JCDkFA2WZWkQ87wwSgOA0ZoSAoRQygRnFKGUUilD4WS4EkYZpQTQMEoJId/OAlDCKCWWsBkTjDE0iFqj1kiQUo6A2iilSqPlyUAnhGqlELGURVkWSZxIVQKlBrAsClmWQKgxqpTKKC2lyvNcoymLwiht0FBCuSUsW1i2YPwD6yEgGoNggDLCGKWMECQE6G/mB1qtdqkUFyLLMq1Vo9H+aL293233p2W5m5uXD3fvJmHEuSVswRg7ScUSQW3bRUTGqNYaVAkflGKBMsKFQykDg8K2QEoAoJRYXAAhBIhlWQQIEFBGAwBByihBg0DoyVSvlTr5q6EakHLBtUbUBgBOmgnQGKCEAmOUITsJ+lEwbigaTbWWJ+wo/WCB69pOludoFLcsLgRjVCuCCIwzGyzgeBL4SFkSAAQ4iehO5koARCSUUWIQ6AcLF4NACRIghNDxaHTSHuJwK1VyaXH5o1n7gfTq4r/+pV+em+s88cQ1QmieZxQIoUwWOZw0r1CmlXIdTgn9oEcF1UnIYMBorW3LBgBGGXLUWhs0nAulpOCMEIZGK9DaIKMfpKUoY8ooBPwgPUlNUaoPVt6cMca1kkYbQk/muN+czBFLWRIgQIFxjoBokFJ+kqVAAo7jGi211sYAYwQRNBijP0hQo0EEI4RFGUEEojVQyhhQAyepAUaJIYQSoISRb0cQhIEB27V1aYQQYRBcfOzpWq350Uz9AGjt7mzbjv3OO2/fu3d38+LmuY0N1/OVVI5ra6mRAGUUDdEKjVYI5iRZLyzBKCoqKWVMcKYUZZRRYoSQZem4niwl48QYJAiWbX8QlBswRhFCtDYn/TIEKBAUXCCCNlprTSktS1oqSQkRzOJCcMUMGODkJBOPxhg0BCgXjFKKiFobpRQAGEopMwBgWbykyhhpWUJpgnji7hAQKeXGKEIoZQSoMIhEE2oQEMjJYKKUnKzSpTEotSG+6+0c7r386i+dv3DpcwurH7bp80HSEk4lzfXjV69df+u1v/v3/slcb+7Tn3zh8uULnu2d7CXJk1xwhgYZ5bZrAWJRlsRoIMYWzLJ5kcWCIwHCKC1lKTgzMuSEMMUAGBiNBkApACDGKKUoZdoUzKIEAQFQI2G2lCUAcEod1xfMcrQgFJRUBErGKEVQWhuC+mSCIQBgOKOIplAlJUBAS6k450CMUgo1oi45Y7JIPc8vikJpJbjgjEulCDGEGdSoldHGcMo0oOC0LKQ2hlJKJDeGc8tJknhnf//27XvjIKjVGj/x0/+7jxC4P0haKysr15544tWvv6gNxmHYaTbu398qimQ8HH7mMy/U/EqtWuGCI1AlZTgNjVGUUcEokpMZiCMhUmqlpTHGth1CEChjnKEBOCmgUYMaT1KCigAD1AjGAGOcUCAUkFKg/CQHTIoSDZalRERGGRogRGtjUGvGbaCgDQEgBAGNASQEwQCiNpQQerL1jrGTlbVt2UkaZ1nKucijzPNJGIWUCb/iAwCnPCuKLMsAQBdyOJv4fsV1HMrZZDR7/c13t+7db3fbR/0RZWx55dRkFiilbNv+vaTle96TTz33+je/Uq3Vrl69agnR63WUlIDmtVdepQDLywsAuL6+2ag3bNs2mnFBOWda67zM8iJntiCUWYwxzsuiJIRQSj9okUEEMAYQyUm1DDRqwojWQBEYIR9MXnjSDYhaITGaU3JSyWDsZKFNCCEKACgQBeSD0gAoqU/iTNRIATRinmeojTFouw4BzLKkzEvLElopzrgx6Hq+VvrkY0oayjgFkqdZEIezyfTe3XvHx8f7e3tJUrp+4/yFC5SxJC0qtRoAcs6/y30mD2aDEaKpVyuq4CuLVhAEBHFxYf6tN1594eMff+lrX/3H/+gfbKyvVSqNtdNnFufnLNtyfWdlebHVbtu24Iymv7kKVkZRKghFRIKaGkADCskHlRfKT/bGcW4JTQgiIDI8CcykAWAEKAAQQrQyFChnTGtj0FAAc7L0JkSjQa0BDGHUaG0IoUBOohImBEfGuJBKqaLI88Lx3GrFJ0AKWYLWSZAxSpM8z9M0L4qyUMdHxweHh2mW5llqO25RlrZlrywvO26lP4oGw0GcpISwOM+aze7GxobtOL/3tNI0lVJxBrPpBI0eDvuT4fFcp3Pzxvub6+sHO/c5JUsLy4i4vbVtO1Zepu9961uVasX17OFwOEkygqZWb7Q7nYsXLnS7bcfxfJ9rRMZIWWoAMKgNEG1OtsgZ1IYSCwyejBs86YAA4IRyQg0YJIBGC8Yp4yfWF0JIrSmANsgY9Vw3TTPUWggxnUxBazDYHwx0qbgtZsFsNp7EaTocjRAMQZKmidEmzRLBrXqjNpuFnHEu7Ller9NaCYIZALUtEcZRlmaD4ZQLXxuqSnV4tOdWquc2L/zZP/8XPkJu8Dv1YGi1253Ni5d27tzo94/ee+e98+fPPvvU00vzXUKgKLI/+cd/KgiDLMVmo75xdmNn+/797fu7O1unz5ye63b+/t//R5YtNjfPFkmMZfHyaJgkSZYllu1ce/wKsyinTFiWUipN0zxLkyS3HOFYXrc7RymJwkjJ0nErcFJfZ1RYNiMglWaMxUGEWpVKhXEUx7EC0uu14zDa39+X2jBOlVJxGGqtK17Fcx3GBADEcYQA8905pSWWpTEojbI4V8QsLiznaQpAF+fnpdSU8tl0OptODZpoFm7v7CwvL9frNU04BSTGhFE4Nz/X7s2vLq/a9nc1sOAB7hLf37n7X/+t/wyB7u3sCss6f27Dc6xwFnS7bVmWluBlwYbDkeNanmff39kmgLPp+MqVy/uHR/Oduu97Usput8coA8AgDMaTqdQyz8s0S1ZXVr/+zVcrvt1sthmljUa93WxWqzXbtpMkns0CRmkpC8YEIGSl9lz/5q2bruunWQIGheDtXs+1nAIVI0RpbbShjBZZYbuuMWo6C5hBz/PGo5HWynZcylkaxVopx3WE44LRxmCaxC99853/5C/96ePjwfvX3zuztlGt1kaTsVJ6NDjOi3J+fl5YFmNMGc5cXxkdR0mj1QJgsyD8u3//H3r+h+ge/Hf14DbGIp4+tZblcnVpef9gb2Njo9dp/eqvfGm+N/crv/LLSRzlBf3Jn/qJM2fWf/1LX6JAmo2G69nzC4tnN8/nswG3mGM7jFECtNlpH+7uL3Q6cZZpArs7u51WS+Yl2txIqYzpZ9lkOACjq77veN7JLBJGsdaqyItCk6tXn9q6f39+fr7T6Xqea7Qp8yKJ4tIorbTne4SQ0XDEODPa7OzsrKwsXzx38Ssvveh7FUbpcDSc680tLy9X/YpX8aRU/cEgDALBxedeePrXv/xlS4jLl67s7m4DAEHCCNQbjUuLKye5Nb/qbu0ecS6yKM/zdDQ0y6trHccxaP59Rvz36EFFGfjay1+VSqZZAsZ4jre/vwtSeo7FBAOjDg/3H7vy/MHO/u7W9nA8Xlla1Eq5jkiSBBCFyvOsjI0hhNqWvbd117Kt/nH/4HhIhVBKp1G0utDpdrq1er1arfi+b2RJjRa2ZdsWAGRp2h8MkiQJo3AwiTljUZgvLZAyz43WnAvXsdvtlu26CMAYybLSFtZ4PA6TkHM+35s/Pj5q11uu51Vq1ZOy9XQ2m85mnuspKfMsE7ZVqVRr1epTTz2VZdlwNOy0e9VqzbWdIAxbjNmWpaRinAwGIy1L24f+8dHO7l61Xq/VG625edf9EI2ev60emCf8e//Nz8RhaKnpt957bzwJl1dXlxaXtu/dOrexodNZFEwdYI1mi3DiVypxnCRpQjhbXlruj4b3dvYIJfVKxfccRsj8XE/LcjwdVYisMi0c/9ozzx8PprPJhJgyjWc13zuO9XFkCCVxFGdFTgiVRWHZtkFT9d1qzcnyvNVonqRO8ixP0hQRjzLgWoHKdTbjOq9XvbnenOu6pdLDqaxUKpxxgyaYzYIopIS6jlsq1e61hLA9zy2koULkRTGbxUmeVt1GvdFUWgXBOMtT1DibJhfOXz047EfBNCtSJGw4Hnm1xtkLF/6Lv/43v/t564F5ws9+7gdeeeWbNAbbsmfTyerp067nPfPsc0vzvenxQeP8ZhxlslAalNRGOP7ppaXDo8HCqVP9SfDa628++8yThDFEImwRRVFZFgQIcxrDOLS5e/c43T4KBoeDIBgns1Gv20HCVs5srm+ciWYRAg7HI8GZlFpw5nnu/v6uxd0oSglj4SwMo7BRrzebjep8t+Y6uohVMqs4zOYkz3Lb80ycNpssTpL+bCiLPC+KVrsz1+ulWZIkyWQycR1fGUyzIoyiZruT5hklLIijLCsLWUzGx8PxkAKd6y0DYhLFrl8hnKZZfv7CBWZbjFP+IVsHf1s9MFrr584HYfgbP//m2bMbaZ6XZWmMjuP4+EijzHdnoywFymmaZo7nKq1ffeeloijGYSJVubl5ya9UyrIgqFqNOdS60WigkuMoPw4NpKno6p1J9tJr7z3/9BNnTm3WKi4HszzXScNoMDwGNHmel4yroiCUDY77lu1s7+9mcaKVZoyunlq7dPkiBfbuzlE8mjDQDlOmKABNmqZJetxodQeTYRiEGrXrup3OnAaztb2NAJwyDSbLJnv7h3fvb/+V/+f/45VXXrt7526z0aDccSw3yxIAeOLa4xW/LiwfNGl1Wp1Wc/dg369VjUE0IKXW2nx30TvAgz3dZHFxMU3Tbr3x2OWrg9FwaXm5U6/8g//uv336yoVoNu5P1HH/cH5+4U/89E8PRsNxlDi+1262unO9jz2rG816liWHe7tZnKysrHiuk8RBrcmdyuzwaOhVPMcStYo3HQ+j8XGjVqs4YjI4PDk+xBjDGA2DIJjN0jRNM/VTf+Kn33rzHaVUu9OxHDdJi5dffj0Ko/1hsLzQbdVqUZlgmUwnM8rY9u7+f/AjP7a7/06apb5X4cKigs/3uvO9hcHgeGfvwKHQaLeuv39zdXXl7bfeefXV1y+cu5AVRZLmZVnMzy10es0wmFq2PToerJ+9VOTy8LifZqlOjFepEGNMUTyQk04eJC0uhF+pjIZjJixu2W+//c7a8ny90VhYXPrVX/lSaazLFy+vrq3e39p69/r7lhBEG4MqCmPF1Ww2M1oRwm3XvnfvnmNblMLNW3c4tYaTaafdHB0eVS3a9G3P4p7FfM+uVCqO41q2MNoMh6OUZkrJMAgIFUEQTmYT3/VHo0Gz2a7Nzfd6bdf1P1lteRabjAZlPCUoCWyPZzOgDAiL07TiVbpz8/O9ru26w/F0OJ76nseFGA2Ph8Px3Px8u9Ot1epPP/n0fv+Yc2tjY6PMS9d3jdEIcHh4UKu279y9u7+3v7S0FIbB/e3d9bMbZzc3f/wn/+QDOVroQZ7KNewfvfQL/wNQ9tY77+ZKu56fx7PR8dHa0vxbr79CqNfu9rhgvd6CV/EBEDiTStXqVZ1Hh0dHZV6gUkDUM0895VhiZ3u7SMKqLYBZveVTpTKUc9+ymM6NKmdxNkuLyWRCEIXtyFIGwVQIy/c9y6kw5gjL4rZIw9Rzbcf3kYCUJeUuGGmKbOv2DS1Lwli10aDcifOyWvMb9RohNEszZUxeZJxx27EPDvY7jUaz2c7y0qtWpdaj0ZQxjoSgAaMVAPYH+0EwqzfaTz/57FtvXk+SzHXcaTRJi8J1vS988Yt/9i//nx6IhR/oQUSElqqcXz7lus43fuOlj3/iE2un1i5sboJMVpd6vtPQiARIpVZllrhx43oYhfVm9Yc+/9m/+Tf++ta9e6fPrPXarYrvHx0e+a7LbUug4wjuV2uO4EkSDfZ2wShTxBRNlJXzq+tf+MIXKp6b5fnu9ja3LN/zKYE4l0jYa2+8sTA3b6AsDRZBlmZplpedblcwsDl/8skrvucaQuIkj3JZk1oWsj8cG22UVitLS+fOntve2U7T/NSpdZmmeZaPxjM/L5O8nM1mSptWuzM/v7C1dTcKZ0kWJVG6fGrt9t17fqUCSPxaxRC51lm3HGdv7wDR/L4bWwBw5+1v/KO///cc2zsYDrVST165TAnKZOpZzAbbskWUZnEceRVvMJkEs2lWlI9dvbp3eDydjBxLWIKtrix5tlOpeOPxCLXUUhlN7XqLCfsf/5N/fPXSpXbNmZ/rzXV7lWqNC5YmWRAESqk4iQCAUsZtJy5Kzuju7vZkOkMkti3WN84+8cQThweHKk+SOKy6IoxiTYASEWRSIj8+HswmY9d2bdfRRnc7c2EUREFgObZAkqXp9t7+D3z+h27fvbu/v1+tNVqdnmWJ6XRICfEqjm1xzqxGo1vkUJRyvtvePzp2fGc4mgRR/M9+9hc+7HaS31YP+JCvzuJqt9OWBi93L+zt73PO93bu20QP8/Dtl99iglIhPvmJT66vn8myzHdtILRVq5ze+DgACafjLM97raYqc04ZP6k1ETGLklku59q9TIJTbZQoDwaTWRQbJbM0LWSptSJAKaNVvyIsoQH8euMXf+lfSaXXT58+dWq13elYQrzz9ltBGMgsbtTrk+GMAtnePzQAbr2zfOr0V7/y9U67+cQT15ZXljgTcRiFUXR24xxQOj4+vnvv7pm107t7u0WWrZ0+7bqVyXRG0bRaPc+1omRarzUazVYYZkVZNuut0XQ2ngxqqlGtVoTrfNRa8b+tB0xLuLUcGOUkDsYtn6fhqFbxmOvSstPPX378/NV6oxFp/Oab754Mac5h73ji0TyOIsYZKfJ+eAQAlNEsy3cORgWKUX/Q67bLcNS2YbJ3i3PW63aI01k5tenZtl/zBcDu7nb/+CiKgoOd4SRM/9rf+q9+9p//QrNVr9j1w53+/Tv7S4uLrusYe7HW8AtVHmQwHk/390tK6blKfRbzq1cvzvUWKCODwci1Hb/qd1ute9v34jjmNF/fXPGrdc7dWqtVljotlFfr+Fxb3DA0Vbvi2RVVGsa5X2dhOr2/f/Du+zc3NzefevrZj33yhZMy23evB+wJd7fv/cP/9md8xwnGwywcC9sCoIPJ9Oy5iy/+ys/7fqVRq88tLFhCIOD8/Nx4OJlbmKPEIOooiqfTSRhGtm0/8/TTaZqNx+NgFlEKrXrtzNraaNgXjLqONZ1M00IRbgvGLEukYTiejkaDQTCdCM6F629evPLe+9c31s8sLS8BklLJwXF/Mp0CI7JQwEiZ5WVZbl44X61UCFClZKpUluVBGHAhwCChtN1qCiEGo3EeT5udTq3ejJM8SfLhaLywtFKrt0ZH+x4nzBJhFGdleWHz/K/9xlfnFxalkoPxNCtUs9X6i3/pP37u4596UGeFPuCx5VdrCHRpeWVv6+6t6zd+9Ed/RFhWK0gsx/3Jn/hJpXUSx91er9vtbN2/f3x4FCfJZmVD2ZW/9jf+xtmN9XNnz/VOLVV83ziN/f0x1YwzUam4ne6cVCpOMkC9fxARQsIoLRRWK9VGozaeToiBZ555tlarWIyXGrb3D8+f30zT5PqNG7awC1mMh5Mz62sLDdf3PGOwKAvOWCllFA5q1UoQB8xtRWEYh6Fl28sLC08+8/SoP7i/s8MIADjDQRDHKojDNE0brWYp0+PjMM/SIMsHw8He/uELL3zm5p0tx/WEZcdpVq3WF5eblu00m+0HeKrrA6bVbLZ+9A/9kS//8i+1mi2l9Dvvvre6esp2K0EYm1RJqYuyUEqOxyMAwrlVqZDhdFqtIdVy0j/cAVOt1Qil4/5xvV4L08SxrKyQ93Z2G1X/3ffeS+Ow0247rruyfHrz8lUjZb9/KChzHKsoy+PjIQFUhAIh48k4CqOylLYtms3W8x97jnM2OTo4HIyMAUswoNTiFhI+DbIgSg93B0BIq9XqtltAyM333t07PASALM3AuLsH+5/57GeSe2kQTOM4bHYa9UaDMjINY8v2Hrv6uDQ4mkyara6h3POrQJjrekEQvPnGa+cvXX5Q5n3AtChlV5945su/8stzvYVnn37OtuxOq5MWqt/fJw1bcO449r2tLc+vhLPZYDRglHW63a7Pn9lcXlleObV2ihCKqH2/6rrONlG7RyMCwBj92Mee//Kvf7nX7RggrucHSXx/a2s0nhwd7NmOMNpQo2rVSp7n2oAB8vbb31qYXzx7bsP3PARIk2Q4Gu8cHtfqTUJJGaRlUaRp8uZb1//qX/2/3XrxRa1Kz/OC8XB4dFitV5984sler/3Ou++lRoVhEAXxbDozgL3eXKfbEba4t3XXsXzb823XrdXqGqHebBPGLMvK0vzevRtPP/ec5Vinz2x85H60f1cP4xRksnnu3PW3Xrctm1LaH4yZ5SzMzVet8p/80/9xZWVxZXnl0sUL2/d35xYWmvV6WZZnujXniWvCEsEsCKO44vmjfh8ADHMIIUmWzHd7Ozu7uSxH4xEgpknGLJcwt9Nu2Y7lO/ZsOkniaDgaj8Yjz61ce+LJ999/L06S27futFqNaq1erVZ63U5zfmkymWVpxrhtOe7RYOR6Yjyd7e0fqnTsVyrVSvX0+plmsz6bzYzBMsviMGSi+vQzTwLg4uIS53Q6HQ+GQbPVafjN8Xi6srQcJYlSqI2RhZSG7O3vj6azvd3dS5evXnvyqQdo2QdPq8iyfn+Ql1IqDUTHYeRVGrt7+09eXqWE1Ku1MJi99971eq3GCJNSU8ZGs4iGcZ7nWZoa1Hfu3l9cWmy32m+8dyuUGhD5srO/f/jkk8+2GzXXsZgQUkOcFEf9URRHSwtznudPZ9PRdJZmOWfWzt5evV7rdLrdbq9a8Sn9YFtKzXONLMoinRwfjacTavQz165u3b55/uyZhe7VspCOY0tZziaTPC+MNq1mc3FhHrnbaDbjLC1Kvb27zwW/dvWpWRgeHxx7vn/QHyRpcunSlS/92q+vrp3RZVFIee7suXqt+ef+4l92XO8B2vbBnwc/GY1+/V/9QtO3f/5n/0Uwm1178qlWt3d/d3+xY/cPj/2qp6Q+c/pMpV57/bXX0iy1hX3pytWf+5c/e9zvr51aW1patm27123HSVoaHSdpkaWNRr1er9iMTqdjJRUgAhH7xwPBWKnK9dWVcBbGadisVpuNeqVaDcOoLHIhLACklBmjJ5NpFIX5bGQAgcBcp7O6etp1LUZ5nCaAWBAWp/HRwVGlVrt86WLFrxwcHqRZxggNZF7xK0GQjCYBF55UhjN7FkXGqL2dncl0enp93atUtYG10+vj6TSYhXMLPVuwv/63foZ+94n379CDH1u243iN+s79W/VG7fBor1bz4mjWatSKcra0upgXRRgEWztbwuJcsG61fbC/b2yvIFTYDrMFoRDFUZoVbrVSFvkkHHdbbctiSRSPkmQ6GoIxRVl6nvvU1atPPPFEOJsN+8dj3y3TquVYlUrFrTYktfdv35qfc2fTaTALCqUeu/r4mUrNnu1Xa1VDiCzlJIgIt7KyHEWx43jbO3cB4PTp037FT5Kk3+8PRhNVFlmeH8+CXnfu1NrGy6+81enOLS4uLyws3NvaOTw6XDu18vST1wwQx/NzqdIkZIy02w3fdY8H4yAImq3WA7TtQ7prAf/R3/5/3bvxzuH+3vziwrlzm3GSg44IoWmaTaYTg2bj9Jmd3d3DgwMFZnH1bBqHVUGqjmg1mpVqY25ptZB4b/deIfMojJIovrC5+Y2vfi2Lk4vnz1PClpfnbccSnIezYO/gQGuVZ/nC0qJtiaik/SgzKj/eu99ptSzbWVxZWTlz7u7WzrycEUJSKUuN/ck4U8b1Kp35+ZdffrnmcNu2PddrNpucU8uywjCKkjiLk6Nptri8wihNk8R1Pa0VIUQbwyj1XVtr6C3Mz4KwKBS3ncl0evv27Wc/8en7e4d/5+/+nXqt/gAvZngody0gQqc7d+NtubZ22rGtVrc3nNyxQb/3/ju/+MuvffaFi/NzC7VK1XO9lZWVRqORlerxc1cavu0yOhqOtS7C4RG3nIbn5igEJURJx7IajWoSBEeH+5TQg/3tLE9X106pUpZF6Vd8r+Id7u+nWeZ3F57/+Kf+4d/7O5vnzsx3O4AYB+Hrr75649adzTorSqURPb9i+dWvvPS1H/6hL+RpdnTcL2pOu9GqNZqe72dZbjmOCZPDg+PxbHLl6vNCiGkYNGqNQhWe4wGAMgoBXM/P83I6mQJjzBZhGL777nthHAkhPN93He/B3qHxUGgRQnoLC7VK1XEEAt64fp0yUXMrS705TzCX2t1Ga3h4TKSuu5VoMmu2qzKdDWcZBw3apHmpzThM8qQswzzO4kxp3a36STBZXewyShfmlyRq23Y73Y6SSljCtZ3tnZ1KpXK4f+A7bq9VU3k8OToY7m9VKpXl1TNrS/OPXbhAwyFhdDgab+3sDA4OL1/cXF1defX1N69du2oJ2xhNmDsK0iSNh7M4mE4avYWltTNK64pbnbOsPMtkKX3Xd1wniRPB+fFx33Zsx3a27m0tr5zaP9gPgqBer927c+dP/7m/aFkf7vCSf79hH9KtM//yn/53k+Pdo4N9xmgYJ8xycDpAo7/x8mtLi/OLi4tzc3NZlnheBRCkb/uCqSwOxkPQWmp86pnnlWG3b72XJFPf9aq1qu/5vuP6FbfMlTFKGRrnRRzFnu1Mw1kwDeI0BiTViu832gooMflir80ASiUVkiAukIl8PJ3NJtoYwrlXq7U7XSmVW/GkVIrwJEmm02mj2VxbWYmSdDQcEMa0Ug63ETFOI8aExURWpmEQAWKSRDs7ez/8wz9MCH33+vV6q7O9vTO3sNhsNmut3n/+1/7LB9KL8Z16WLfOVBv1ZuXMO2+/+eorr/7xP/nTBohddYHA2tqa7bhKloSx5aUr/f4gCkN7/hRV5d/9Rz9zeXNtc2Oz06gHyppMY4VWu9bwKz7jvFGvJ0k83B6W2ihZZnmpFSwvLp1aOyWOhWO75xr1WrWGRqdSz6Ko4rbSKFicmxuOR9Px1Gs0a62uv7QWx1EhS6Wk5TpKyThO8jxL03QwiYo8X1071Wi2JuMJYTQtCiMVEohV1KjVZ5MZIp5aPWXbTQJkNBw1ms1eby6MwjAIO91es9G0HUcIx3LsOE5O9lM/WD0sWi989ge//Iv/U6vV8nz/1p075y9eMiUwLsAYp+JLZRVFvrW7HUZRlmaJZu2q53kiL4pbt647nt9bmHrVJheCggmjzKABZhnEN9657lcr3OILvYWzpzfKstzb3zPK+BXXsZ0wDCwhuFcd7Bz2dTYb9m/fvTfX7Z7ZPF/vLPSHk9EsLotSyjKMgornKVRKye2dLa1Vpd7qtBvBZFgkCaWUUPA4nYThwcHhysoZyhillHM2mc3KMqeUep5XqVZb9brjeo7jEsKE60KSaKObjcY3XnsjjuNarfZgrfqwaNluNctKY8zcfE9JSQCoI5I0y/L8cDJM09QSwrGde1t3y0KW6pa9vvpHfvDjlzc3AAkg+H7DrrXiMD48OsyzLEqSJ55+/u69e29cP3jqmc3Fdq9Q5lvfeqtarXLO9/f2FpeWojAeDYcAoOzK2ubFX/3X/2qh15pbmBecjaZRivbOzr7M5Gw2oZSn8XQwHHR7rf/gh794fLS/vXMYBYHjuCvLy2tLc1zwLE2vX78+m80ubJxmTuPo8KDXnQui0BhtCYswxhhp1euu43LOgVAg5M6dO4eHx6VShFDP8b6XxhYALCwv72y1v/ADZwbjca1SCSfRqdNn3nrrjd948SuPPXb5x//oH3nrjTfPbZ5HAEslVy9fnGtVsiAQTJSyLIpgvD+Oc/RcP0myg8PDg4PDO3e3VlebnFuD4ajChc9Ys9loNpqXLl0ej8c7O9vVWq3fH7RaC089/ey//J//OSem3z/utdrLp8+WJJpfWjFZaTtuniVJEnqeV6vVx7OpMtrz3YubF3rdju24eZoNB8FgcFyp+t120wDJZNlst0ulPN+f6/Vsx5mOJo7rAJpSKYXGaGW7PqUkCAMhbNuxLz122bI+xCUKv0s9RFr3t+8y2xqMh3lW3N/ZNSYDwau1Wql0UWavvPwKAgHhUUYxLqKkkIXKk4gAHA2HGlErEqU5AMRZUm9W79671Wi4H3/+qcXFpVIWRZKXeYaMDWaT/cEgL4tBGB4eHlFGaT3cuntnYWGx3W55tsMFT/MCWDqZzbJ+PwimRZEnRVSv1qoOf//dt9dPrz/x+FNFWcRpPpqOppOx0kopUnNqQKktOEiq0WhQ3XabCx7FsdJKG31weLB59txgNNje3W5359+7fqPX6506s2577p//C3/pe4yWBlw9vfrKKy/vbx2srqxV6v729u7qfO/alYuM0TRJTp+7mBRye/egCmJasFdfenkwGLiu2+vN//Gf+snd3d2b19/tNuuea5dlkaSZazsVx4OioMokcVSU5WgWxEnW6XWHowm3nMeeftaxHGFZUTB97tlnZ5NZUqRxlhujkyyf73WZpavz9VZrtd1tVeuNOM64sJVh779/+2A0rlUbXFjIXeFwl1mD8TjL81537tmnn/zq179WqVSH47ErLMuxp7PpG2++IZV2fO/wYN/1/CTPNs9vdubmANjqympv/kOfj/a70cOjhYvLp452tlZW1m6/fzsIZ4unVnVZ5oU5vXpWmxII39na4V5FF9Kvi8vnN1781X9d85z5+Xmt9Ve//Kue7zVqbZlDkBvOnWiWEBRZnkZBmKSpxnJpZe4zn3nO9dzd/cMgiIIoLkpZSsOoGfb7UkqtTTCbea739JNP15v1yXjMWxXGQDg2oMyS5HAwFNy6c3t3FsSp1K7jCMHrtbpfrcym03q9Nh6NmmfPGsR7d+62Wq35xUUQ1uHxcZamjUZjeXWl3qijQct2bNcNwthyPQKQZNlDsunDo0Weee7TP/P1rziWxThLkshoImzP90QeJ7IEyrksdDia3r1zbys+Wpqf67Qao9Ho3p2baZrdvP7u+vq677WDSVaWRavVlkWBYP3ar36p3W53Or2Lj23Uas7O9q7neoeDwXA88dwKEur73sbGxnDUT+LolZdfrtfrtrAm0zGiGk9GZzrtOI3yMEiy5N333984d348mb74tTeuPXZ+ZWXFdpyK7zNCTy54mEwmB4f7/5s/8MXJdFKtVS+cvzgLZ1GWlkXRbDYrfmVhaSFJU891Hd8fT6ZlqQhlaVZEYfyQbPoQPWG11qo3OuFs8vjVq4yzpeW1W++/zYmVpZOd+1uEwDPPf+Kdm7dPr6w6pX18tHdmZfnKpQvVSsV1nELKTqtNmBMnOomie1v3O53VubmFr33t1ytVO8+D3e2tKAyb7fbG2XMMie9URqNpURZa4/7e3rNPXfsX//yftdstNEabIprNiixxfe/lV1+TMhuOR1kRx1m2sHxqMgtf+MSTluW7ji04zZIYAPKyGPb7SquL587tbN+Ps+LcxrmiKIQQru00aw1jtGVZURTOwkgpZQDLsvzWW+9uXrwwt7hYrdYfkkkf6p2sZHlp9b3peG5hLgom71+/LiizbZszvrN199oT12bD41MLHctymKx053q+5xqDsyBQSvcHR6PRyICejMdFUQ5Hoyhr9Qd3F5drvo+W7c51G+fObTQarSiJqr5XbzQBcf/wME0TLvDunVv1asUWgjPCCDFaBrMkmM2SNAuTmUHozi+u12uFUp1ujxCHUJtiWZR5OJuc3KFcrbiUsF6312w1KhLyLE+z9OqVK5PZJI7iIjNJklZZRSs1Hg/bnV5/0M9V6XsVo/Qf/sM/8ZAM+hBpKVlGQdSoNqeTUTgbKd6ZBrOtm9+6cvG8ZZP+8S5nutnqZmVSr1fTUkvMJ5MpoomiiBBSsewyjxGkgWJhoT2/tLC+dubCpbPGqDQrqCZRkAwHSalUKXWlWsvzoFn3V5cWXE/sHx4szM+5ris4z8vi8HDcabVXTp2yT51O0ogLRjgJolAbqqQRTjXNyiyY1qrV88+tTyaToigZo1JpAIiCIJI6ibNet3vz+o24KIosDYJpMAs/+4UfuP/OW9VKLYzCvZ2DC+fO+VXvc5//oQuXrz4kkz5EWpQyStnS6vKwX37ta7/6wuf/qKnassG9qv3FL/4AQWVxq9HpUMLu7Axbc0v7e7v/6pd/+dz62aWlpfPnL5ZlIVK34tUJABMWoB6NsijOozCaTafhbNys+5VabW5ufnFpZRoEnm+nWYZABGMV1wXXCeMomKStducP/eiPtNvt+1tbRYFCySgJqaCNZvP4eFIofbR/WORyse30up2te/ezIhOCzyZTpVW3O/cTf+yP/n/+zj+4d+8uIaTRaFQYnY1HQRhVq7XJaMIoXV5eOuj3rz7+mFepooaPfeJTD7AR49/SQ6RFKK0329tbN5s1Xyk5jSYbi/P1lVaZJ0i9k5W+LpNC61qn41Rq3bnFJCvBstNS37m/naRJt9l1qU8oi4M8TYpnnr78cy///27futXt9S5fOLWwWE3SVKls/2CbMlYWpVIFIqARtsWPjvtJHJ89e3Z9/UyapEkUTqbT0SCSpqAMuGJZUYyD6f7uYZyUi8unwun0W/3R6uqy49iTyVhwtrOzXalWb75/fevu3VazyTiZTsZBEJRlyTlrtVulLDudHiPMd31DKSW0KIt6/SOeuPW70cOkRcgP/cgf+vn/6R/eu/NWtVobH+2u9Ro3bx+3W9U0zBzbKfKCMBEGUT+b3N3ZbVf8zfUVrjKTkfZi68rmxTCKszjP8/Dg8CCM4s//4KdKmXJOOp3GcDiyhGLCyspcyTTJc2MgK3KpkDP+9JNPvff++0srq5V6oz+acGEFQTgcjXzHzfJUabm/v+f53uXLV95/+508V3lUWTm9ury8JEtZFuUsDIYHB4yxPMlefPE3Ns6un9wqoaRkjLRaddueX+j1uOvmRZGmKWjNCWk3Gl/9xsvj8bjd6T4kkz7cm98pE41uz9zUH3v2WdutLS4sJEGUpFqC+3P/8pfn5xc///kfZFY27h9oXayuLm6e7pVJ6DgeZSjzsOJxAJ0Wqe3o5HjcP94GlP3RMbdIt1vHo/Lc5oVzK6cIo2GSDgdjqc3h8VGRZVmWHR0PgLL94z4B0mh2VtfWekurMppozQb9o6Ioeu1uMJlePn9eCN5oNNCww8NjVaowDqeTSa3ZWFhebjaatiVGszjNk1ajxpgoy8JzXcaY73uD8TST0khVFtn1199/9hOfml9Ycj7MDU0fVg+rvvVt7e/d+fl/9reJKo+PQ2V0vV5HbYRl/cZvvHj58pWK56ZZZvuulsVKr+HbLM/SOE5Kg0kmPc+2OJ2OxnfubHXanaXl1Xq14VeqlHBkEqA0+uTxSRTE/f5oZ2eXMXZ281xeZrNZuLxyKi8l4zzJizjJiiLPpoOyLLvd7pnTa5QxeXLKndZRlJRKn149BQBZlklZjmeBaztSyiRNSmm4Y893e7KQTLAsz7XS9Xr95p27Gki72bx9++agfzy/tPrDP/ZH/9xf+j8+2Hrxd+rhji0AvHXjehDmNtWN5pwsi6IsJ6PhyspSUWaT6XFv7pzrcaNNnGXEVO7dvXfj5u1ms+U3Op/47BcqrnX3+jtjHD/19NOtVrtaqRFCAQgaHAdhqfMsS4PJbDyaGmW6re4Pfu5zjuP2R4O44CunTsdRlOZ5MAkNpasrK7V6LZv2G81WKWWaJqhNmmWozHg2SaJocXEVAAoli6JI80xQnuUZpTQOQ2q5VOvBcEgpieNoMBikafZH/vAffvNbb9fanePj4yLPLz/2mHD9n/qT/9uHhwoeNi1EvL91f3190+f4T/7Jz66fW7988cKg4ofB9NOf/pTjil6vKwSLpwHHcuPMmcmw/63rx1/8wqnVtdOD0fgwT5MwqVYarutTxoBglqez6TQMo1k0nVvsPfXEk5Swo8NjrUzFqSgpHds5febMm2+/fXh4MJ7MkNDNzfOrp04fHh1EYVSrVPIslVJ5nj8dj8JZcPf+vVa90Z2bc1xvNJ6kWZ7lqS5lksS2bX/ik5/8H955WyEDgG6v0+3MlUpppc+cOf3yq6/MLc5PgzgIg+XlpUazxS2vWm88VHs+XFqEkDRKdSxbp5Zr9bprubPp1PcrjIHj8CyL4yTmlIABIazReAQAtQqfzWY3bt7OpNk4tSoMyYtSTiZBEHDGirJ4/733HNedm++0Gs2d7e2ikJ12t8iTwXgIBhABGCEU3nr9zbnewsbmZr1e393f6fdHjLHp8VSjzvPi3r27a2una5VqOA2VVEEYPvv0cxcfvxrNwnfee89tNNLtpNPpHR0eMmEJYXmO63l+nqeqLMuyBEIvnD87mkSzIJ6fm1/odoUlmvNL381Jkb8bPWxPSD77hS8O9rby6cjzxfbOHUpPN9stSmmRl3GUJ1nhOo4Q9r3d/TRLjMFTS81mo1Zp1Pxa88zquk1JUZRHx0dZkVy6dH48Gv+Ln/uVKxdXVF4O94/m5xccSg/39mdxVEpTSD2bTgRjP/aHfvQrX/2qUurWzVvbu3vLK6farWap9DgY5lnGGM/S7PzmuffefS9Ki1a7uXb6dBxnt67fBADbsvv9QVGWhJK9g4ML589zy03SpJQyS1PLtj/xiU+6vpfEaZpn1UrV91ykIDjb3t4yRj9UYA89ygCAyfHR//j3/ptUjjjllVr19NradBRs7e7+8i/98vr6er3RfOL5Z66/81bLF6cWu5ygVirNy6wopaSc2aj1vZ2tMJguzHc5JzduXd/Y2Fhqzc0125brAKFg2QeTSX88ubdzP1PlcqNz7syZL7/45fnFlU6nV0qFQKTWjHPMozzPd3a2KaWbm+cBcX5+Pi/yMIyq1UaWZZTQWRgopVrNZq1Wq1YrRpuj/jjJ0nqtxhgfT8ecslq1lmTZaDaj3GKETsf9S5cfu3N/92//4/+Z8Qfc5/SdethjCwDAr9VbrQ5LIwCGoHb39yajoOZXy1Ib5EmU39jarTTaRmVBGJoytYWYjMdhnC6vnPXcxmDc912v225Wqu7C4tzGudOcsmwSYlqEcRqVxSxLB2E4TELuunWn0u0u9PuDF154IU7SJJXa6ChJqeA+46UsW81mu9WybcsY02i2hOBJHFNKwJi11VO7e3utRpMQ0mjUS1nOJtOilFlRnHQvHR4dKK1Hw8GlC5fTJOr15u5u3T/Y2yvztN3urC4vP5DNxb+DHgWttCgOS2Xn2B/2DeGLCwvXb9/eWF25dnF1rkUqvn1mwS5LeX93trRx7f7h8f/3539hYXl5feMC8+uVKgVes2zgnNrCAuRZioDlaJrcT/v1euPxxx/Pyvzw8OiULKq1utLKANkLZ/3JOInjNE0MwLmzZ8+fP58maXD3hu06WSkVkoJwbeju9vHuYT/N8+efWjgaz3JDHccxlI5ymaSJLJVCo41VxtHuwSFF/f7162dOr9favRdfeevcWaqU7HQ7C8unm93e/+H/8lceXs7pRA++0+PflVKqWqlcvXzx9s33g9kEEB+/+rhwnPVz55vd+e7CUpgry2vML61YnjcejIoiWVlYbFTs0eDo1u07w9HEGK2kqdWbUsrbt2//+pd//a1vveU6Xq1WOzg43Nvdm4VBnudxHGml8yz33OpkPJtOZnNzS49fvTbfWxwPp2++9Q73qm6tRYVbqTUY4zdvvH/r+jvNqnt2bflwbzcJZxS0oABFduv9tx+/dPGN11/e274z126AVr5rM9Qyl91WY2vrTqdV77ab9VpjeWllbq772OPX/OpHueziQ+lRjC3Lsowx4WRaceyiyIzR2qCwLIbMlFlWKGV0GGeyKPJSFXnKgO7t3Nvf2Tp7dmNlaUFKGSfJLJxMg+kzTz3jus7R0ejTn/x4xa9IpRiT2qAQViHL0WikjQFgFy489s1vvnzhwkUCdDqahbNYK21z69ade0honqVJLp//2MdlkWVpArIIZ3m32ar4bhCG/eMgjqI8i/f2diqeKyjd3dn2HQul7k+Gp1d6ssyE6y4tzBEgtVotCMO6lOc2LzwCSz4KWrVa7fmPfeztX/y7tYq7fXScno4XllaHk9FwOJ5N+gTw6hPP7O/u79y/0+l1Ko79uc+8sLq86HseZxwY0wqr1apg/ODoUJb5wvwCoXB8fDwaDC5cuFjt1tJhfzIeaYA0z7Iss5yqbblFWh7uHlTr9TNra51OxyCmWToDopUC4d64+8YTWZYEIcqyf7h79uzGxbOnkzQPZiOdJaDK9VOre/fvrJ9a0sZUKn4aBUUYXL10vtPuNlqttFD39489xxqPx7VKdTIav/bqyxevPvGwLfkoaBFC1k6t/fp4Mje/sLi2KZU6HvQ73Y7D2ctfe+mxK5dGk9B23KeefV5mSbtR44yoPMm0ToucMBHHSRDODg6P0ziZ63SOB4PHr15ZW16pVaqVWq2U0rbtZqsTJdF0NimKYq67fLR/sH7mjMV5tzfPKQuCwLGdLEqTrIjicDTor66uJVm2sLRw9ty6bzsGzP37W0VZlmnabjcsywJKqhUvjMJavc1oZbHd8GzGQVPGjCz7xwMKcNw/evXVV37yj/3UzsHBZDJ+BJZ8FLQAgDHu1NogtSYcDWR5unt/y2HQrNqH23eb7V673SrzTCvZH/SbzcbdW7fTOMoLefmxK8sry9md/NSpUwRgfnGxXq81m808zSllSpZxkkxmk6PjfqlVb26u3W5laRHMppsbZwhjRsk0CQtZykIe9/tRFFqc99odx7WbrZZtCQIkTZPxZPapF16Io3gazEqjEKGQBUFoCHsWzFaWF9NgRgxVZRaGQaXWuHX7VqXVi5OMEvrq66+e3thcW1t/BGZ8RLSC2RSY8Ozql7/yG65X/fSnX7jx7ttO1Xnu6SdsIVJiP3bxwsHB/ptvvvHn/qM/8xsvvnj95q2nn3pybm6hVqttb+8sr6xIKcXJTaiMawNZlrYazddfe/V4MPgPf/zHz22e12gs256Foe+UlHJZFnlZoFFxHADAXK+3sNSNpsH6+joh9NbtW4wxx/PLvJiEYZaXd+7cy8uScaoR/Iqvi9IglqVqtjr94dgiMBgcvvjiS5/++DPC8eO8aAjrzt3rZ8+d3dw8HybZhUuXHoEZHxEtRKx2l5FQp9aZzaacsoVOq13h2XQgs7hSs2+8/Xop5VynfXDcj5IslVCCG6YFpVGjVk2ThHNWFkYryRi/e+9OMJkVadpoty9eupRkCeec2yIIozAMOCEyz0pZamPiMKxU3IvnL/q+NxgOO66QyUxqM9dpaa1v37t/b+v+/NJKq7uUayDCQUqN1kejaaVWk1Ld2LrVaDQ21i/fv3c3mgQrp1bGYWKs2K+13WpzaWXl/IXzlLEr1544d/GBHbPwO+gR0Wp3OlFp6vVquzcfhGGSpNWqZ5Oi3mlQVEepiaIgCJNc4vbWjlutc8vd7w8IdM6sLGV5miRZnCRgsFGv9brdl776Vc/xzp4549eqABCHYS6VQaONYUJooqVM9/b2bds6c+ZMq9GIk9lhf48SoqazolRSm9E0vnTtqXtb9/1aozQk17jYbDPO7m/vhkn01rfe/o//k7/8S7/6Jbdap7Z7a2s3jzIk4vTGuV67awhlTs2tNtbPbhJDojj+7Od/mD6II9L+vXpEtBzHef6ZF15+6RdblRKWKsG4v9xb2d2/r9V0Z+8edJ++dP7a/sHXHW7KItZp9Cd+5IWVhS7hrmYOY82yzLIkjmezWdDfy8a9On/7+rvTcKfT7GxsrDcbbR+tOM0P94+SNCfV+sc+90NfevVn2lWf2NM0pYvdjk9w0O8nsplkSRSE3PLz1MTjSbtarbPiVMu29SSL06h/KwqTZy4s33rz6ws+cx0vTlOLRStXTqVpWmu08lJlRdGuMJumhipN2bs377z+5tt/8NSZR2DGR0QLANbPnn3v7Zo21W6rpTIcjcfVaq3b7fzzn/3yhce7QcM+d2rFYUpQsn7hAqrMEF3kZQlmMpmkcTQeHh8fHa4uL1ucIaE/+gf/QKvToZRLqdIsR4MWtxiz8jQgmAbHxxunTy93e3E4U1oOJiMjlWEkCnen0+lsNvvExz8WZcd/9i/8tBCi3z/M8mI8yYzWS0unLl5s+bVaFMc0iKM01YbWGm0NpNlbmE6m3HazXBZG7/YH77576+Of/IzrOVKXj8aGj46W7XlpnHBmccoM07br3Ltzo9s798TV7v7OzWyu0mzUjTZCNI6P+64jKKXHo3GS5vVaxXadKMnOX7h0fHS4uXn20uXH0kKmSW6MtGybgHV8fDybBWUhm81eo92Z9odPXbhYKuk7lmAkK/NCl4Uua01zdvPs0tJys91NwjiKkuP+kUETzEbLc2ezLE2yLMuk1nEhVZbpmt/yKz7nWliOAp4qqNfcXAeFIuNJ6Fb8aRgsLS4tL33EmwU/rB4dLUIIJUQBYZQXRaakmU0n+4cHFrfXlqqezdZWliaziSwKICTJkrfe+la1XqeMN5qNWqXSm5s3iAsLCxbnWV7keS6lmc6CNM2WFpcunL+4t3uweeHCZDzRiFmWp3Gc5BlBPU5jYVmrp5aWlhYpRFobQungaBBGsVIQx/lsOovitNvIi0Ja3AYm0jT1qlUzixgXSZp5nhiN+zfv3Gr35lfX1u/d33VdfziZlqUOZrOlldNnz51/NDZ8dLRuv/++0vr0mbWtO3deefWVH/7MF89fuujZ8rOf+6wPvlQqDGfNRrNQcmXt9O27d2/c2/ncZz9XFuksiEbDERd2xXeMkklW7uwdTMaBQbJ2+sz6+rJteUUhsyy/ffsuZ9RxbIuRwXQqjYziaOPc+sa5M9SyRsMBlqnROAtDrWgcxqNx2D8atLvdemVpNJxJJbOs2Ns/XFxZenz1zNvvXs8ydenihf3+zjQMC6le+NSn33nn/e3d3eXVtf5wun761Fxv7j/9v/4V+2F2znynHh2til+pVWvBdFJvNMuiIEAatSpAHMUx4ZwKiwi7Pxq/d+PG00AJd+qt9vbuzrmNjWq90W41J5PRaDjIovDzP/C5e/e2Xnn1zeeefw6NjqJgnA0rtdqlSxf2D4/yLJ9MJ81m9eBwf26++9yzTyNg/+AwTqJpMItmmnF+eHDw/LMfSym8/earrVabgXd242I43Q3jtN3tzMKg4vsH+zuD/lG30zs42EOqZ9NRt9OJwnA0HnQ7nWA2efLxx9ZWT2mklvPd3nfxu9ejozW3tBREM4NRkearK6tKq9l4UqmRvIheeW+rkOXC8uLG2XOVZu/dG3d+8o/9JHJhC/ax55795te/qZSWUnNu2a6XZcV4Mo6SYmdnq9VqX7p40e00S6n7g4NKxWPEDKf9K6cvf/XrXwOOwxePAPDMmdOnV1YajnvIyjwv0jjv9wcHx0cb5041m52K54bxkHPi+9b9+3ekLqJ4Ihzr6aefoow6rnP7xh2HkoVOazY86jXq03BWa9Y541mW3r2/p6Xk1ke/XPBD6dHRcnzv2lPPv/utF+MyOre5OQuDUiqD9Mypta+/NWg0evXu0t7RsNnqJUV2594Wo0xw643X35xFYcV10iS5v33fFtb9nZ0sLz/+8WtXr1zilLmeB0AqIKbEZGmys3f/cDgKixQ5IYALiwue49QcJxgMtVE3b97LC8ktoyFZXKzW6jWtpetxzrPh4Xg6DU6vrz5WqRkgUZJqjUleVCvOytL8/Nw8Aim0ate9JAk8wfr941pr3vc8Qh9uTes79ehoAcC1Zz6xd/8NXahgFKocXMHHw0Gt5jQ787PZNCtVtdEMZpNSylt37j7zzFNvv/mGLYTj2o1Gs9vrEEI4hShJ5+bnVpevMg4yz7M0oUwole3t7rz4la9Zgm9cvPjqa6+dObPWbjTrruNZji6y6XB45+at3vpGu93qtFthMhMWK/Kk3a0VedIfD5+89jFZyNFkkhS5krpWrd/b3mZChHHYbTctTsIozaXMcslRv/nGa1meXbjsLSwtn1yw9mj06GgZY/75P/3v+weBSrJm1ZUiG01n33r3dnt5s8Pfnsx2iilbnbsitO90mvfv3Dm6fn331pZdb8932meW3WQ0Xu/NV10rT0LPsakySVbKopzOgiAKyyw/PDp89omr1Xqt4YksnHV7PaSsNHBwtCeRtufmn1w57ZsMCXEsXvcWRlE2TuXhaALMWlq5lk0mk2DGuN1wvEAnZVGkaUkZAojUtrhSeYlSmu29vfXTZ8ZpUcpymKq/8V/83+FhNhD+W3p0tLSSnJNmo54yGI2P33nrzR/50T9UbTQ927ly+YkLF55kTlUhqy01szj67Kc/WSRR/3B7zXep8Xa37/k2l6iMFrLIkdNiFA+C2WQ0Pn167crlK3EcbayfBUbiMOKMVGqdMArDKNrd211cWnny8WsGMS9zlzWjOFXAComHR/29o2PX92p1J5iOjYwKKXMZHB0Nrz35ZH8ccMtJSqni3Cf89ddff+qpp/r9oTH0zr3tspQXLlx2a032kFvS/i09OlrCsju9+eN4GpYlGFLKMghmtVrNdVwXiUQikQLiZDqRWdI/2n7q6kXbUuP+vcngfqfVWlhaEFwUWV6WRavV3N7eTuN0c/OcX6kNhoMsyyhhAJAk2SiKe3NL7964L4vi488/U6vWgyhSqpxNp2HO8rzYP9zbWD9zPJ7GceT5ni0o1WVUSEQSJuX1u/cfe+q5uNTv3b4LlP/wD/3w7s6OlCCEL0ts1LpZnl698lS9XpumMgiDxaXFR2bDRzpvXbx0Zby31Wg259u1skjHkwkXDiLhScJdX1F6eHx8cLAdhbOFufpe26n64tLli8vLy612x3H9Qqr+cFgWcnFpeRrGt++8QhjbOzi6cOF8s9EaT8ZRHBGks7j8A3/4cy+98oYt+Ds37qyvnVpd7A2CsZFlhrWkSEez9DOr6zdu3UySpCzyNA6qFb/bW5xMg0yGB8PQ9mq7B99Kcnlm4/TW7v7WzXtS4b279yi14ji1LDvPC6UD5M7y8iPKYpzokdLq9ObfefcdQWHaP2g0axfOb06C6NbtO01Kb9697zfqnfl5r1Ltths137Jt+0/9mT8zGIwI4QbxsD+QUt/b2UmT1K3Vj4bjM2fOXrp4sd5ullleSC1sr+dVhqNxkiRZluVlKah19cpjFudJmiVJ5ghhUzaVxcrq8u7BDhfi/Nlz1arnerZriyhJZkEQBdGP/9gfpJQxzq5dfZxadpwkR/3+6bU1YbuyyGq1ehTF/eNjqfX5K098l/cXf1g9UlpojFetzrfqzz15RRXZ7v5hmpWllODZaRYfj0ed+bmF+XnKoFURlnBH45kCu+r7/eEwTtLhdHr/7pYyqt3uPHntCTS64lVm05nv+YSyKIr29vfCIHRrzVe/8bXnnri2vLSQJFGRRqh1peJv37+/20+KMmeE+gzPrC73ui3OGaUwnU3u3ro9GI47cwvT6fgb33yp02wJ206LMo3jixfPg0FGEC1+6/aNyXAchOknXniuWvX4Az2I9d+rR0qrKPK5Tqfdbty7dzuJo2qtlhX52fWNS6vta09evXVvZxwmg8GYM4K5JwjLZDkKsvFkkiThx5591k3K8+fOE0DfchiQWrMllQmjZBbGrm0zbl24cElYFmrlOkJJdzY8ZJxrVWZp1mw2rj7+5FV1krBXWVn2enNZmfeHQyQQTGcWxcvnzxpgTqVaqzf6k2AWzaRGBrLZaEmt0Oj7d+92O43jo8PP/+Anfc+/cOHCwzjM6XfQo6Z1cHD42mvfPL++alliOgveeOv1Sxcfc/Sw0IAg6pWKaFlJnBwfDZqV+vv39n7h116a63UvX9w8OBi5tm0JVmapx5hj29u7ezdu3GCUua5z7tym5dhMCKWNz0jdxv3hscyLWZI4XvXC+UvCcaRUfhlKzrVho6CIZ8NhECJjju21e72NxW6QpIRyBcxmhBsdDo/DNC2lunv3FmdsZXX1wqWz29v3P/WZ57fv3z+1tnbu/CNK5n5bj5SW7XqNduPC2TM7d2/6nkfA+synPv/2t95pVLsIVNhsbXm+Va1nSZwGNaPVxqL3Iy9cHExmg/0byfSo0epYggfj8VP1djQNv/L1rz/++LVmveV6jpQl5TzLC8K47fjfurs76A85MRfOn1ucn0OAJI6TvAjzFAiJ0sQA2dq+Xxq9vnGWEJYX+ShKLceOsyLLo/5g+tbb3/IqNct2+8fD1Y2ljfWznlsJ4+jihfMvv/zKhc0Lc/OLtvVIJy14xLSq1dry4hIzWhbl11593as0G+25T3zss7xedtstmUVf+fUvpcHwqatXsiT8zKc+znHuiy9ccNzGIDH3D6c37x/eunPvcBo+6VRsi0RprozRYHYP9quV6mg6A4CiLEexvPrkx+tW82j3Vlri4fEoTgIEYlnunf3jYBosLC426vVX37sZhfH9/f7q6tqgf4RZlhX5vd3h8kJzff3cM8998rg/kFL+2T/7F/qTe8YgJVivVF762suXLjx24cKlW7furqycepTWg0ezx+Q7tXvv+ou/+C/qFn31G9/odufee+/m6fX17vJCGodhGLSqfpaEgrO5TisIpozkSsa5IoZ7XmMBmF0WKgoj13Mmo/4777zVqNVtx7aEyIty//DA95yqXyuI8yf+1P/+v/6v/man6giiBKMVvypcrz8YHw4G41G2cqpz7eq1Qf94fmFxYWHBtsR0Nh1ub9UajU6vh0jSvGBcSKmE67z3zvsHw8NGw7l44cpoMtMG2o32/d19z6v+p//Zf7m4svYorfeoaQHg1770c/fefLnp27rI8jR9/c03ksK6eOlSs1FnXFgW55QNhoNms+X7yHgWpeUkyrntO47vW5bRpSAEQB0PB0EQFHlaqdUpENdzhRCCi6SAS48/9c2v/gaqDI3KkiRTwG3P8ardRrVWrxMKWuskSaMotCy7Vq1ywePj3ShK8qL0KlXLdghlW/e3Dw+P6q3mxuZKo9Hc2z+s1ts7uwfHx4Pe/GKz2fkL/+e/Ore48iht9+hpQRqH//3/+z/3SIl57HLabtYPRsnNW7du3LrVn8Qb66vtVufZ5z9OKPMqTIMsNYRRWpQqT+KKxTnm0Sxothq1er1Wr/lepSyKOIkm02kYRcF0Riyv35+CkcsLc51ux/erBdLD4VQhr1mKUuq5HuOsKMuyKPO8mIyHu3u7VpEAqVx78sLC/KIy5u79b</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAJoAAAB0CAIAAADy07yyAAA8k0lEQVR4nO29WZMkyXEmqKpm5ldcmZFXZVX13Q2AoAyAHiwFOxc5P4Aj+8CV+R8ru3+Lr8t5GOEbZYWyK+TOyBLgAOxuVHdXdR15xemHmanug7p7eNaR1VUooAskVFqyoyIjPdxNTa9PD0NmhucRIoqIvtB3RCTGaKzVf4QQAMBai4DC3DQNETljgAgQgRlEoohxJAMCAGMRAX3wRNRfGRGJEAEBEESYWUQASG8AERGM3tdT9ykoz73/f5mEN7Czf61s0CX2MRhjELFfRmaOPuRF0f9b/15/soSWHQAiEkIIIQjENMmRhNACMACxhBBCjNEZix0pO9v7+QM7vwW9nJ3SyUq7xkQMwMKoIoUEAAjQyx9KK0/6z9VmSUS2paTja0Q0IpEZEIVImdqK6dO3wjh4/w/svIleyE7oONrziYgA0XOMMfbcJQBEJKKmaQjQGGNVGwNEH3wMWZYBMDPHGBGNMQYAmFtZb3cAYv91ibOADAAgHZ+E/sDOb0kvZCczK59gIDQCEABYxHQyFEKs61pErLXsgxpUFc3gfQgNADjnlIvGuCRJEDEGsdZaq2+DSMs77Exnb2h7RX1daoev/8DOHb2Qnb3c9A4LMweOYuxysy63dfR1VTbrzdI30Rp89OjJer1cLtdNuQXQPyKR2NT1/v7s4OBgMplMJrPxaJokiQhYa5lbq+xsmud5URRphkQAKE8pBhFpOd/d9vBOfzsr83tJ9kW/6I2fMpWZ67quav/Le/eenJ89eXK2uLy8uLg8Pz+r6yYxxlq33W42m20M3hrnEotAAmxADg8PDw8Px+PxZDKbz+eTydSaRETq2qtkJ0mWJAmhYYlHh9M0s6NiMhrnaZoSkQgwizHKQhn8/AM9TTexU7k4ZOd2W3322WeXi8XV1dVyufzm/oPPP//88ePH3ntkUf2cZdm4GCVJwsze++99/FFZlpvNBoCSJEuS9Pjo1mw28z6GwMxMaGKM5+eXv/71r7/55n6SwN7e5PT09M6dO4eHh+NJsVPKf6CX0QvZCdfNpzo4V1dXiARoinx8+/Tu++99WNX+y3tf13WdJIlzCYqsVpvlcq3sbKry0TcPiqIQEWaZTqff++QHf/7nf/6f/tP/kqYuRgiejSFjgJn+5m/+r//yX/7P9z+485NPfzSeTi+urg6Pj61zTROSxEYWAEDqDCqgOsMguz3Xc13v/Le8dG8j3cROFdAYozJV1W/TNH34iIhJkpyent66devXv/51VVWhaZIkiTHWdW2MGY+nInG5XMUYx+PxcrH++7//+4ODox/84IcnJ6dpmjqbMMPl5fbzzz//5S9/+U//9E937t6q69p7H1tqHSW1ssKst4HYspPA9L6Svv/8aOdfBr2QnW1kAqBhSZIkrU8klLqsMR6ArDVpmr/33gf/8T/+x//vv/33n//8559//jkzO+cIJfro0TdNc3G1bJomMDiXWmtrH4FskmVJmhJR03hGPjw5/Hd/+u+OTw/fvXv63nvvzGaz0WhkTQIAxhgVXwBAUj4xgKhDJNz6a2rmVS7/wM6niZlVd0kX/xljiMh7D0hqSlVYi6L44IMP3r1z9+TkpCiKBw8eVFUFABFRBLOs+OijPWNMmqbT6d7x8fEf/dEfIWJZlnVdM0vTNABwdHRwdPSn/+bf/KzabsbjIoTgfb1arZg5SS1i5hzAdReojWRgF8kwMzOrIvltLdjbTTdJZ2+Qeo4SUWgaoAQYQxNDCARmlBUW7cHh/E///Z999MHHX3zxxZMnTxBxNpmMRvlsvn96eloUBTMXRVEURZrko9FotVo551SqAMD7BgCZY5rnUTAwRMAmhoRjQgkaCLK7rxZnACYh6O6zD1WH0MS/NLrJs1UBNcaoEauqKgTe3ztgpNFoZIzx3v/whz8cZXme52VZTqfTvb29999/33s/Go1mk4m1drle50XqvW+aRv2jsiybphmPx4r9qoZkCcKo4JGCgqN0kqTWOYeITRPTTN0cwiEMhAARei4+D3D4l0U3gXwhBGstIoYQttvt5eXlo8cX2yr6IERkjAkhiEiWpGmaAkCMEVmsbXngvQ/RjyYTEVmtVt77LMuIiAxMJhPvfW/tRARRnEuTJFktNyKQZWmWZWTAGDQGQwjHJ0cA6q9y598KAFC8pjz0RW/4/6WRRQF53m7uTZExhhmqqtlsyqqqrM2DbwwiARjEyXTqnDs7O9vf36+qkgDSLBHgzWaLiJPJ5PLycrY3mUwmLCFNckBumsZ7z8zWWvWwmqZqmsb7OsaYFXnTeDSEhgQYydrEkjXbsgIQQlGmIqIyNU9y2WH0RKSpOX4W3e3onzMEgRIEWjj2OlH7boxQVfVisTg/P1+t1gYtCDG08R8RDV2PCDtBGYQ3UQG/XlUiYp7nPSCs74QQ6iagdWmeZVlmjJEYRIQIrLUxRkCmzjgCsmZv8iQPjQ8hOOeKosiyDLFFkRCh17tdtAOAQtQq5D6X0DvGQ6C4A1KeXTSGTjc8j75LraC56Ods5RBYRACNtZBlaVmmANg0TWIRJSo7iUiAGGjgMbUrogEDM6RpCmA0JQMAiC3vq6pSV1n/Vu0lg4ixZAwSIREAgQgZREO2Bx0hQmwTdMJSlhWHyMwA2DQekdQhjxG6/QRDY6rGhcgACKJB5G5XISLr+13GD5l3LlWXwAVlmEh8esmQQb5jDW+fZaTqXmMohCgiAGhMmxUx7Z6HPqnZi2CMsf/ba1cb7HroHBbV5M8GiIhIpoUFmBlaHwdFNLEaEVEE0Ugr68IGUZzot9e+8bHNlqvVHyZkWskTIQOEFkkQDJIQEhngCGRIPwoCAigM0ikbRBQBRNCfANBJ4UB4v2tewo2ebfsMIhAjaJTpnNNN2a9Rr2x1sYh2DB6ivj074boq610hhZkaH03GJiRN0yAiSIQu3u03EBEZ0BcoKrfADm2QIEEaDgYMGEAwjJGEGJmEIkQSEogogAhEvr9PoqDsF+khppZtqDwbaGwANcxvqf98jZ1D2YoMkdkYiwg+clnXtfeIGDlCqzZRiAQIgBDJJO2lsLMqAiACkQEAe5QOVbqllQFNbarYee8r31gOQKWWkuBgxwC36p2ILO4Mc4zeOnImARICgwaMtTYxIYgAsIAACCCQESFE4tAgg4iChUBEzBERmcUYEyP1O9UY7JH/lpHtvzSd3r4GgGsy+p3STZit4uZtYVAXnAMahJ2gaMRCRJ5jr1cj7yhJkudKp3MO1PoOsqoRBBBZhDmKiLqqqpYl7OrQTFs3BEgSY7CWrK37S1lbWmuHGkLv0BhDiAYtgDplQGR3edkmGBONcQAsgkTgXAoAw3inF0hEfDs95JadQ7mULrF4dXW13GyttSC4Wq1U38a48/1MBEQMwiTQ2s4BKNheTZ7z2BoXKvWvETGCMIhwZIgC0paVAKl8Q6sDkdvSBZQoRAYAYxRF7dXTQcTJZAIDU91+GUqepFqpZAxaS5pGFWHvoxVSYWYWkegDWKsaHXqXDRHIqBEd5l/fFhl9oXRWVfXNN9988eVXIpKleftpm7Bv10v3u7WWgiUiTTVDpwP187IrsdwpWxjkxnvLyswhBO+9IPgYQgjMTGCMMQgRACTqHlJnWJmkjKwHVWm7r+5jD8U6+l0VE98JsU2SqB5Td4fqnGOMgZljbEIAkIgI+qT6U9ow7LfDkN+MLO9ccBRofTkRyYpsW1cxxqIokChN0zzPOQgyArR6jKx1zqnTKwiKBYYQg3C/uCxAZIhImEMIHKOKCZFpxRmwNbNk0jRvQm3AKNrng6/rWtVFluiWEhEJoHvCIIqAN4ZUu3YFZmiMWa/XVVUdHR3VdX3//v08z9M0jTHCeAQAo9FovV4z8+HhobpdSZKMRiNr7WazYWZFMeu6jCGGEOu6ERFrTZZleZ6bpC9MazM8iO2yPAsX617RG4PBhoaBv/3G2PmiX4TIyh7vPRmx1ooIgyAidX6NWsdhiIJtDvlaVA7PU7nPBRdF1ZowAMQYfRNijMIgItW21otbax05AGCuY/TjScHMTdPoBY0xSZI458qyVKYuFouvv/768vKyLMt79+79H//7//bLX/zjycnJwcFBkiSXl5dENJlMQgiPHz9GxNFopPn29Xpd1+VkPDYmdjpGmLmqqqahLE+GLnr/UP2T9gzTF0PQ8bfnFdtrm0zvCUD1iTEGiaSzQGo5JLaVkooIKA92EZohBCBmfTBNV0EXffZP8pRz1JPo9RARDIIR8WoRRSQxiYh4L0Rk0QJAjDGy35Yr50ySJB28DFW11avdvn17u93WdXl29vjBgwfz+RxR/uZv/ubv/u7v/uzP/iyChBDu3bt3584dTa+2QPR6talK51yapqPRSJ9dUeih9oY2Sm7jqE7PY48v9Va8NwTtMw4e/M2KJtzs2epdMrN+qbITiXqMlAakdz+0iP3DDG1n/+L57AQIkZFE4dwYgvctR1F2lpikNWbOWZFIBgiRJZAYskhCDPHi7PL45HC1XIbYTCeT5mj+vY+/X+T53/7t3xZF8Ytf/OKv/uqv/uRP/uTnP/85Iv7sZz+7urr60Y9+9OGHHzLzZrNxzoUQltGPs5wInHMDb9mqjCIiUpuN0A+0/QEdDNLrMOiqc2Cwod8QB6/RNXbywPsOHBlaD0UEsiwLwiho0GqSEQCACIgQCZGAkJljiMzcI7q9cLefR9J/DcGz6yTM7IwziUHE4Ouy5BAa7/1yW6oWJSJhYQ6IQoaFOTTBb6ttvUXGJE/G+dgkpkiT6Jtqs55ORv/6xz9arBez8ezs7PF//s//61/+5V/m+a0sS/76r/9rmqaffvrpX//1fz06OhKJjx59k+f5eDw+ODiI0XvvMTIRGVOpi9CDTa2p9iwSyfgYY/eBXUz8lGb6HdALpbP1WolCCOp+IiIQadwvXdzQUx/2iYjALjwYGtFeWOWFCSzsfWbuyoJ0m1tr09TleW6MCU1T1+V6U8EqEsBsNhtPxuNJoUm3EJt6Hcfjsa/rEJvoXTYaze1enueffPTBycnJX/zFXzDzZDI5PT199OjRer3+9NNPJ5PJr371q3/4h3945513fvzjH+/v74tImqZ1XQOA+tKmIyIaj0fQue4srPteve5Oc+xg0eHe/a2y9oXsJABtK2maJggzAhEJ725rGBsQEXfRiyLpw0s9ZTjh223YPpwoigwAJqOxXhxJIHLT1FVV+7rZn83u3r5z+/btJEnqui7LsizLqqrW6zUIjPKiLqtqW4pIMxqdnJzUdWkt3b599/3332Xm27dvrddrzd2u18vRKP/kk4/ff//dNE23200IYZyN+h2pTO3QqKDbrnUpOpuK2KrfpmlsV+qPgyrD4Tq8ec8WAQAFBRSg1Gu3yQIWjS6iD+yDhAhARK6/ATI7iiH0+1e1dJeXNso+ROkTZDews/eWVYKzLMvz1Bgzm0x9qGOM1tpRlmVZhojCbJFOjo6n00L96yxLT06OdemWy03TNMvlsqqq5XJ5fn7unCVr1+v1gwcPrLXe+6OjoyzLvPdpmiryMBqNnHNVU2tGNupTKFYkDIQcWBDKszOXJqO8yIo8IQcoEiFKtNayQPQRA5OPxgSV5qIoBsEJvLpv2wcCNwH9FoWFAWTYu0MEGDznSW6AJErqMg5Sbeu9vXld+Z1Tg9K1roixtGMGx7ZGF8nXUQRQCISZNflMiU27QGUHZyOiIFhr0WKSWOsosvcxGIQsy9ab5Xa7TYwNwWe3bt25c8caNMZYJASILICQ5YmIAHBkIKLxpAAo9uezEILKa1VVVe2dc+v1OsaYpmlZlogYYyRryBrv/fnlhYiQs6l1jtym2qiFCMwogsZkSULGJlkWRVabzdV67YwxiU1tgpYyMjFGhUG04C3PrTN22/ih84ia5BAAjijchfLmqXSeiIhEERGImrkz5G7gqAVUBUo9NwUBAVJHeZplWZaVZfC8Wa585RcXizQfQRfG2MSlaZokSft3HanmiTFylCwZCSNDYEZFYpWFnU+xQ1YRUUgktGZYQ17vfRCGNgKCGFtfl5lRXc02v9HbpGHY1yZ5rE2cM1mWeB8jw2azvbq6Wq/XVRetAkBVVaozjDERhJk3VcnbTUr2GtjEXHtvur/SP/feQwVrZYizQqhmwlobROoQlK8wsCCJkgFrLAL3HOrT7L1r0ZrevsTgRt18A8gXvPdE5Jzj6KuqWq+3iAhkexvp0iRJkjRNjTGz+b5zLkmS3v0LITCJtSSCzFZrupSdqkiVg701QkQw4JJESAyialoRIZAkSWJojDHI3O/95952b42GwVJvEbIMfIA8z2ezaVVVq+1mvV5rKVpV17tqeiIkalRroQCK1veKSOQQOWB4Oj8IACwMAuvFug9dkiSBGMU5NgY7OBMRgzGxaYJzjTGj3BlUeFTVXIs3cWzriHe4PyDAS9ofX8hOa21RFPP5fDKZIJi6rpsmMHNoey8FEdG0fbh9XqV7vPYijOog7Prye9Ld2teatNvfAFlkAIOoMUmWZQYhSZJHDx/03JIOSGNm2y10z8hedUNnpBW36v4EjKEkSUejdLI30/6Zuq63ZamvW9FXKEegrmu8DgLot2jrY099MN14r+8oPpXneZZl/UZXTFSDHIU82TfO2jau7ZQtIsRWufa5VhRkESa8CSq4gZ3gnMvzfDQapUkOAG0uxThdIBER7As4EEwbY4UQat80TRNC4CgS2+SDymW/1svl1W51sF0jBmlCHUWs4r1apwlirQ2+DiE4InUgdd/0d4sDsFTaRPrut8NgKUlMjFDXERGtpdk4n4xzFmiasNlsrhaL9Xpd13XTNFLXfpAk6BmmP/M8V5Yo9cqg8R47MFIXqizLdl8aY61N01SB3yRJnLXeh2iZI0QrRFoJS8ZAZ0T1fyICwigCus6vzE7vRf1+ROSoeUdARAnce61qv1UunU2504T6eIhoDEVmLf9k5taqiwBAWW77ZeLufWWnj9F0cXoIgYNHRGcJADLnmqbpcHbqCj4EBmq2N949y4dhH3S56J5YgBmy1Fo7y4tCbXNd19vttq5rQgwhNE27Qb336hZcXFwMApidj/PRu++qAdIUk3oAPdf1sgCgIGLi3Hy2xyHGGI0xGvho60eStIUu7W5Fq4rmBl7exE7nsGt8Z80jqrWKsss3oaE+nNpsNn3Uj312Go1H5T8yowj197S3dwoAAru9r+wEEh8jAWgtWdM0vq6Y+fLiTLrURI+airQlJ89ytO8Dh046VaUHH4nIpQbaOkXtEg+QZ4iYZ67InOivWt2A7IMWkyrp697EqP5UowOGyJo2m6a6HUA393q9bppmu92u1+vtdts0zWpdSQSL5EyblUI0zrkslTRzAKlibiqpLU/RitxkPW9oaoBeCvuyPBERNM+9Yl/SjojCoDsgQlRNi4M4GtGqIlV29ldQNxdIDIBB7EFO4BhCmEwmMUZk3m633Q4TZgZ6futnD7F2j9OyuVtnYAYfAgA457Is0fuILDFGTRxZax0RMAiZNE37izGD9gT0HlZvyEXEJjYCeO/r2BY6WWsTa9P5HABYpGmazWazWCxWq1W1La+uFol1mkKwNknT1JCz1tZQE5G1JGKIkNrt9xK6hgt36woAIAzj8dheXOhaVFU1Hk9jjGXtAUA9W3imXZA7Ke5dvjjoG1G51OCE2m7qVl5b4BCh8V4QdcsDgPrDumRVVZlrdS3ofQRrhlatf5yhHYXOlIoICoKAICBC4ix0NU3t3RAS7ba4ABAOwSy9OFhrFOQbEpEBgMACAM5YZ2x/FR60tmVJmrpkNpmq//Hk4VldVuv1erlcimBRFJrhAOQ8z1er0lpzfDwHhKqq1dV/OTufpUZzje1K7WoGVAe2am1QnpmmGn0CM0dpc6XMDBDVs2VmrYFrH156rtBu9RGMs00I6kT0fqz2kiK2E6T0yqpob3i274RIgF98U/0NtxA3y63j47puNpvNer2uqiaEsFwuV+tFkiSjUR5jzPMsshizM2Q3fPsL2ZkkVsdPeO9jkF7+pEtUxRjVdqrDslivesZEaV2+GON0NNW/QkREh4hIAF1dNaLoVVv/CsQmTtnWIrSIKGyM2USvPB/qgNdip0AXvrUpd9i9fk7ND74s1hteGgGQX5BbEERA9e0RRIAABSlJTZ4nRZFPp5Pttlyv18vlerstt9ut97WIMEfvvTE6kokBbpor8EJ2aiSizUZNHZqmCYG3220xnvZ6FWJr4fqgvlO8pMwQkbIsB3bLGmPgGanCXb6+9VmsMaoe1ZnUCXEKIwxCz2vRyG+D6KVx+3XCFyuMa7agLXtCIYkswmiMGY+LoijG4/FotNput+fn58ZQWZZlBU1TZZk1RjNUN93ATQ2B6k30bqGI1HW9XD/UiDiEwCBq5BCRnL3moHZ0fHDct4IY23rCIm29Z5eU6IppCaNAYFZXSHW7Sud61eB1FAbhN2XnNRkdvP5t7JHeKmFX+aFM9bFpvUWy1uJ4nGZZ6r0fjYoQwqPH33hf13XNXCApPoo3YrYv+oVtgaEQQpqIiBjjNpvN/PB4Op3meR5C0Pl86rOAIWbWGMvHMIy+NfZiZoULVAmrMehMbIewEO7ND7ZVBcyaRm59rs5vHPo4v6OM8BuinT/VguItac+rRg3MSATGAKK7detwW1ZXi7P1ugyhYQnMMSK+JirUNBqctIsIAFVVXV5eRkENk2OMqgNV0+bjEQC0UIhwz8KLxUVd1zq9giVqSK6Ruve+qqqqqrQVEAAEYX549M2jR+vlcm9v78MPP7x161Zijfc+zxKNtQehZBt3/qYLPZDL35y+jTm/zlHWjrbWJ+i6jw22QT9382NEWIRf2OcIADdWI5AxoJzjCCGEGOvtdnt4fKsoiul0GkJwVYldgGiTBDo/pQm+h1EkskustdaHRp0m55z3frn0PejlXFelbs2mrB49evT1l1/OZjP99ixJq2p7cnQcYxQyO5XeIlO/lyOH+mampq67SMyot6vvbzal5gaYmYgICYx5qUayitTJ9ZIkEYiRjaE8za4uLolsnhbR8yeffGLTxId6sbwEAM1CKAhZ16VKatM0PoY+vQXAxmCaJeSlaZoY1Wravb095a4KrogYY4yzkxnff3h/f3//4ODAmmSzLnFExrjz88u9vWkInKaZFuZoehmuC0Qfg77QJblxd//m8xpf8QpMRiuuoAVmpQVesjS/d+/eer09PJxnWcEMiJYI5cYHuHnURRtOKE6RZZkgjMdjmybaP2tCAJ3VF0KSZ8pOZhbcbQ5fNxqQ9JCYfkw9HUVWnXMiYq0laxjiZDKp9qrJZOKcUwgbEbPEMQO0SPdbF26+NiEiEQJAiA3Htr4DAB4/OvdNzLJsNJqkaapNkIh9wcjz6cW1QkRqnJQAQHOwTdN4bjOXoYOEnvrbIUxjusEn2GVJ1dFVxqvu7UvXyZrF6ipJkvF4XBQFEdV1HRWKM+MYNXG/c4PePhThlan3dZlZwTQR8N4/evTIe6/TQ7RtizkgmpcUl7zoF+pztIsuAbUhFxWMbdEiaNsiRUQ01906tzEoUO675N9TDwCwA4ShQwSVlsulDhYDAPWTNRhSH9ho48UwRfp7Tq0aAyG0xjpEXK835+fnm82mKIr9/f3JZKKLz92kpxvoBumEfkCpdDXdbegi3NaOyK4QhNzzL9WD+MrgHvzTPIO+7hnDQdT+9+ENImq2os2wguAARP3nwE8tzuAW926acH52+eDBwzzPp9PpZDKxXRHWt9m+N0z9atmJiIZajEbn7fWDEair2yAilyTU9WJiIIXOETEg8TOTuKjrv6dBQyARaY+KtRYcKDoBAG1oqyqh42W3qX/fiRAghCDCiKZpGs20hBDm8/l0Os2yDNp2pW81+Ool7brQIS9tXCiy3W5hV0ayq+enroeLmS1IH0ihg9bV7j7fZU9bmB76dnlEBtGaDEcuz3MEIyJ6/dDEFlPB14Nq31oiEYyRva8Xi8XlxYJZjo9P5vN5lmXWomolDbhjjOb1qhGIQEEYRYFb1Jswz3Nlp3R5lhaOt7uIcEhDx2fgwuxmH0OnSXp0EBGNNWmaIhj1ga210Te7vMs/F8MJrZoh5lhV1eXF4vLycn9/fnp6WhS5Gkrm0PmbLBAB3A1Xu0k6oStFIDQa55GW6jD2/rQySQEB9X267FWbAZbYdgzCAGLlrrNMudinawAgxri/v6/VokSkFRgiMp1OEdEYUi9K2RkjG9qFy8MXbxu/e0irzwfr+yLQ1OHi4vLq6ipGvn37ztHR0WxWNI3EKD7U1lKapiKxbqpdSv8FdFM1wnMxCOwnWQzCDy2KGYpgH8DggJ56/7nfm2VZBG0KBo13E23O6jradx0yv88kbcM5l9v6/Pz84uLCWnd0dDSfz621263PMkeExuQCQbpDiIwxIPw6EHz/rR042lLPGGaGgSsUdiVFO1xxqBV7dg5ZO/wufbcoip6dhFbZqXkVay0B91b82Su8zdRbFiVFvKuquffrr6x1+/vz0WhSFIUIqoLbbKqiyIhAYJfUemnu9Wbp7O1bl15WONhYGDhKyk6dOKMf723qs6a0v/5zOYGIaZo+xU7bFuTowL3APKg960rdf1+oXwFmrqpqsykBYDqdHhwcaR//2dlZWZYxxoODfUTIsgxJjEFjMb6kig/gpZ5tyxVo3RkISERoTR+TtHnK64IogxKQ5zJ1KOXQF2EjAkKe50N2EpGmsp0hAIhevB+2pP3ecBMHVYbYlY5WVXVycosZLs6v9J31ent1dbXeLE9Ojqy1RN1oFCIRYmF8vWoEJWUMdscUMQgRmWTnXA29GBlgDj09VzThxbDOeDxmbBtnEAwRGe05BBGROnoYFlp+m4V8O6gvBIDBooUQzs7OAEgYFWMhosPDwzt3T9M0T1OLCJGBmZG6FXu9agSlViglgka7CH2CEwZ+TYwxDpjY/3ZoOIevqRsy/dSeBYTReNxLJ4JB7RhB5OBjjKEr/3y9Nf0OSb1F6VI9Pa5yfn45Hk3zvO8zoDRN9/amjx49MuZkMimgS7V8m295CTv1WsLtKBEg1O6qZz+z84O6khkCRKRu+OyOncMN8SxpQWabBpJWNBExyC6R/qysv0301KMRdFm5diYICAEgWUADaE5v3/Y+RmabuKzIm6b55tHDf/zlL1gCkVh3O0kskRqVb4EKoXTquYvQtS2iXXBCndtERILkfUys0QrxEKPpwqkYo4QoMSILclsoLQKh0y3SxZTXvRhQyF6knW1hjSW9aST9XDfcFFJrkKQxBgBC47lzDHon+e1gMAs+Z6dGEGE0ZBCo1lMrgAKgF/Gx8SFq7+koy8eTwiQGLX7y4fdPb58WRRYCAwsSads+vTYqpJMpd3caJUiMVQO4qapKU5VN02gZGHSYw1CGmDnCNW+2r93SyR+akIGhh9x9EhFRCLqxGoTXEi/4VmO2/X0hADMQAPgYBAGQjLPWGABAa4Vwu6mMs+PpJB8VBGKTZDIZHR4fgDA5KwAiUjc1IhqLzrnXD1T6/qEYNUfNnoMB2VQMAMrOyjcA0DSNwka9u4uDoxOUek7AoEyw583On8JOLSBqAXIrzbDr7OkZ/xZnsp++La0ZZtZBg6BDBL338/kcOgVWbtYXFxfVds3MoyLP8zw7OTbWICbMDMDw2q6QmkJoBQWMMWIJBMkawZ35VBZqJkv92J49TzmefSSqLNcp8M/2eHS1E61+5l2XK+xs867D99XW+Dskg0YAhHURsD1lWOTBgwfr9VpE9vb2xkWeZRlK7LPFMUbnjFZuwMvax+DmagSty0rTlFCMMc4SozQSGSKwDjskIgJGBwkSEbUALHUZEhEh2IUxT7FZedPvjJZ/oH0sBgBQds4973oZ3v70dX9j1P4UiV1nP5GJUZrGa2fj9773vcvLy3KztdYag8xcFIW19uT46PDw0DlqmoCgGcaXf/FNpxz1cYiGRCAGLbEww87JVMiNBvUlIjLkkA+70YJD1fpU93LPGx81c2KISIc/Dz37t9unVaLnTkJVn9EQsEBd15eXl2dnZ6vl5snZf59Op/O9fefcZrOqqsqgWGsnk0ni2lVV48Ksgelr1dmyVqAjhhA2m00IAcGaxEpiOgFq6557PvW2s+eBRJbIPT9o0HM/BJWoL2TbwWAStdu7e2c0nUg3XKrHJZjF3ujpvT1EnXx5H7VfrK48ETXbLU2Rmc/Pzx98/eXZ2Vldl4h45/ZpkiSJrpYZZqJu+pabZiPoiRcA0DRNVVUI1kZHkDBoJhl39R9dOc8QQ1AxzWzbWdZLbQ8b9f2RyiRVpN106raTvg9nTw4PniqbbhXv28XO54umEouAoBZAWWvn83maptttZa0ty/Lq6ipN0z/+4z8+PJxnWTadTtPEEEBVeRYwxiCAc+5m3dT3d3Zv9NIhEEJbfzWbzdbr9agojk6Oa4iCbYF87/sQkd5lnuc67SrPcx1U6NAodqXN5dral6YpImqQo3VA+oEQgk0MMzuXlmWZpwUAPHr0KM/zqqqYWeHprrKN08Rdl+nvPt8pIoiEgALSNTgDETVVU+RJYFit1k+enH/55ZcM8O67754en15eXjoyp8cn3zy8/9lnn0kM//bf/gwJBCACuCzpkAHg6w0Rz9JLzu9U9diHfIgoLLAb4jO4kLVZlhVFodKmvEms67BG7C0odilr9bb6lOwQatC9ooaZu6HDMAANXm+tf/eE3ciKLEsAoCyrEMLh4aG19suvv/7Vr3518eRCiyBF5PziiR6cuFxuZntPtwN/G3oJO1V6GKnXcuqpIiKLaJUkCugLg2SQog91CBJ5u9lURHmaKVeUJfq6russyzRyTQY1Y8aYwH4I4usf9oVkMOzdEWH5Ts8Ueh61Gx1pl+lHAO3dj/Hx48ePHz8ej6fz+TwrxldXV+V6U9f1crkEgL3p7Hsff3L37u3R6Bovv9X8NgC4uQpeJYmIQDoUZoDPDaUNu6kI3vvFYlGWZZ7n2+2WugMzetygjzeOj9tGwbYBrVMGgX3/z/5OhkFOH3S29/NWCqoMMoDSWq42jtxsNhcXV8vlcrZ/MJ/P7cHh2dnZ/fv3y7KcTCZ37949Ojp4rvYRkAhgbkxhv+T8zqfeYWYzOCZFkVUCJEBjLCODgK+b0Hg7Go/yQtMIvV7tXWU1tP0RkL3f1POp93ifG5YMOfq2Udd9AADQjl4TBcCxrpskyW7dun1xfnVxfvX1g4cxxswlCNA0jTB3XT1g7XMOnn2J2QSAb5O+HhIoHEW78rthlIIdUJem6Xw+b+tvu7HbAKA4OzM3TXN1ddXPXlCutyXU9MIalF5Mh7Dt20ZP3ZXyUoXy66+/rqpmb2/v7t27+/v73zx+9PDhw68fPjLGFEVxcnJy9+7dw8PDJCFmwNeyIjd1X/cKrdexRITUDjHlFlIFBCRAPYNaBEjAWjfOi3YohjXcHcGqRfSKXiZJst1ue8h+pzyfpxL6exjeScfRtwtVUJ+2h1mgc+VWq9V2u9VDM9Mkn06np6enaZrOp7PFYuGcOz09fe+990YjW9e83W739segihpeAZe+CeTTF91IYkKdz9mqEBhIj0EEaxPEncJUr0dP0W1CqDbb5Wat2KNOU5GuOk27+/qvi8Kwmx0VtfBI27Olm7OL1Fvut42bAIMqYkSMmgxmZuajo6PJpLl3794vvvwfo9Ho4OCgrmvfVJvNapwXiAIcmsZYwv39MQrwYE4mALQBxY2sJSAB0kP4RHDX/qgARFPV08mEAC2Z4H2e53Vdg4jOsSfQ/wiFJIqvgyWXuoxjFGZDEEPT1DVEuLpY3Pv83jdff7O8XDZl48iFwN5H7ZlgwCiAxhpniQiA+n6Hg4P9i4uzLEsAuaq2OtUvy7L1em0NhfAtyqF+txRDABaO0NTBMyDCtqy+evBgtSnX26rIxz/4/g9/8qNPj/YPHz949Pf/9//z1b3P92fFT3/6r374g4+mk8wZQGAUnYAgBGJQDKJBNGAs2ptL+W7qvhaBNE3VhUnTdLstm6bJEguIXYOttdax9ncmSV3vqt1DCGVZn5+f1/VDBHN1deWMnc1mWZZpyyYMbLNazRgj87XYlDl4763VMElUuJlZEQnRulOAt0pCmdla6wjQmhilqn3lG2PM48cPAKDaVNZaAjg+Pp5NprNp8fjxN9PJKM9T0x5GyIpA7AqaX4Vsp5if/lNE8D4WRaEtInmeX10tyrKcTseevfcMANZZ52yMPCzx7s2G974sy6urpRafHR0d3b5zRwGtEIKx5il3RlmrSldFMzJXVaUDzkTEGKPzFsbjcZIkdR2y1L5NrAQAILLqyBCCZ+4HrB4cHJRluVlvFotFqOqiKFBovV4fHBwcHh7OZjPdrLqV+Vv0/j2XbvJs67oej4oksS4xo1HOHMuynM0mxhg9+gYG1bbSHZ1jjBGI1trRaLS3t8eR1L89Ojra29vTgbF6hEY/Nq93jAGgb0FhZhTebrft6Qwh6P5wzs1ms/YMhfTltU6/Y7KWvI/RMxhS76Esy+12e3rrTghhvVgj4maxrOt6tVifnT/62f/8r4+OjiaTiS7CMBvxOt9+/Z87+FiEFMHRKddFAYrbNU3jshZw940OL2lxV2NMkjhjjA+CiHqMV+IKZU+e5957HRypndVD0dy91nnxYoAjIFZVVWSJJdBprBxDMZ1MJhNnsSz5LZNMAK0lQQPGeI7KSMXwfvWrXxVF4YwZjXOHtFgsNrQejUYnJyfaXw2DSOy1v/3mfKcAQpomRZEh4t7eNAqv18uJnaVpjoi+iTHG/rhp6sauxaAurk3TfG/PKfIOADqHQw9vq3zT50yMWGknUUWEXREXETVNM8ozEdGsTp7nR0dHWsZIRMhvYjrFmyT0TUxTQwhVGdfrtc6FHY1G5bZummax2Ww2m2pVrlarPM0+/vjjg4MDbeIcRmJ0cxrsxfTCP1MYHQB0Ml+WZQeH+86ZzWZTVdsYPXZD2bBrqsX2SIldf5nqVZ2ejYjOuclkMpvNiqItHx1yro98+pIDSyDRK/IQgxeOBwcHd+7cSQxEH+31Qw3eKgoB1qtNua10r4vIRx9/cHR8kKapiJTlZrNZjSfFj3/8ryaTSVsKOSiZe20BvQlG0OyaSzBNk7qux+PxertaLMuqyhSfs46IEu1mod15i5QkSeIyxfOcTftrqt6O3WT2noWDKZzAwQ8RKHUK+gMAZ7PZwcEBAOiEqrcw7nTOeA9Xy8Xl5WWMMU1Tz3Gz2Tx8+DDGGJs4Go0wcF3XSZLMZrM0dTH6EMJwIPCL0M2X0g3KNnSq3Djn8jxrmubo6ChN08V6+eTJo6Ojk729efC8Wq2rqprN9pOEqmqb57kIf/HFF3qdNF3uClAI+23YxAAA2hXaJ8WIIHifp67arleLhc+yd955p6mr87MnzrkPP/zw3Tu3HWGMkmUZEcYorX9/vU/td0DKAOpGQ3RssERwdra4WiyIbJLYJng0eHx8XJbl2dnZZrmKMUKIxyeHH330gXaSd2eQXHPyX++ubh5EI3pGNDrU0w/REHNsoi+31Xq9jFEbdZP5fC6CxpgYHQA0jfe+PbJpuWzZaa1FQ30k47JUw1k9iaWrn47OGD32az6f6zGcy8VVXdfvvvvu/v5+mqZEECOoI9WVh38H1CeCet2o2uLycg0AeZ5XvqmqaltuK1+dnZ0R0enp6Sov7t+/nzj3ySeffP/7309Tim/Un3seO1HHeoOAgAiiRYQktQCFTSxzjCCEemjXmohGxTTLssViVRRFUYwVtWHmNE3SNF2v15olcM4Zt5uWKoQaSqpT1xWRRJ3unGVZmqbLxdXjx4+dc++///67d24XRWEMigACIxACivB3az+HlYX6erutmjpsq9JzTFO3t7d3fnn56NGji8uzNE19VZXldjI/2N/fS1MqS5+80VjrZRkVZoCAaFQnAOFoNAJDiUurqirLuqoaZZjmDZIkyfORhomqhebzuUJIPTvbfltqe6a4PTZRrLUGLUpsmqhjGDebjTHm9u3bP/jB93vHh7mF6dVUv7S//LdHPSP1Zpqm8T7qWLqyLCOIMWjJOefG4zEgX15eOms//fTT9+7cPTk5iRF0pulTuaPX1rRwkyvUzqPSsEG0/ccS5XmKFp1zWZUlSWXMtq5CVVVEVmMsLWBQnL2fOd3i0bIbJBRkEDJ3zjAK+7qqq7KqKmutTuY73N9z7ZAjlUvBtyA7xtdHHGgcVZb1dlsSJtPptA5+uVxutlu0WBTF+cWTx48fz2ez27dvf/jhuwDAUbIsidebbeA3Y+qNp+siqUrsv4P0dCJDAASCRDZJsqpsmsZvt5UiIESkIzXT1ALAuhsqTkT98R2IGHxI01RbIfQo+qqqom+aap1n6f7+flEUh4eHB/MZAVRV0/kLu1Y6vH6K4u+YZHAEaX/uSlU1wTOiN0D9pN+maQBgs9nocDpmLsvaWguKadKb3JfIUQZpGNb3oM+kg8jgKPq2TkLE++ibwAwxSlOHum7W6y0z13WtZ7NpTTcAWNsNNyVStulzBmGt56vrugltE270TZbQ/t5MgRLnnLMI3PbAICLhMDjTuPu7EVMtdIIOmtbTUbyPo3y+3VabchuYjcUQ4/nV+cXFxYcfvb+3t3fn1q3xeETMxhAh1HWtLH/Ks4U3KZ1CgBwCIwkI9TlU/dYQ2VhyqY2pZQ9NYAMoIs6AzbO96aj2PjSNj1FPtPRVDY4cpIAMEkEiIVlLsfbsmxhjWVcAMB6Px+OxtXR6PI8xIAs563SUJDO25zqIYkZtmS4BfXfS2dca6mF7m822rusY5Pgot9bWvrp8cl4HjyhXi6snj77JU7c/nc6mIwTQ2to8S1S7vEHDgczyPF+fuwrgZ6dh6tGtIACoY5MFBKGpwrYq67IKHAkwcKzLqqzL1CWCjEKCu6sxguK36/W6GI1OT08nk0mWZeNxjhwR0SAxiMTebxQi+4KKZHol+UR5YVlzv6xD7BQRYwjGGEAMTTvnkJkRjdYYnJ+fM8N0Oq2q6sH9b7ZVPR6P1TQ8evw4sj85OVmtlgcHBycnJ4eHh0Qgbcm4rsabDFSwr1v/lnSDctMjFfqiIR047X399BWAAKAdG85xPp8fHx8bYxikSNOmriy1RlG6wvkbzKS8YlHNi9ipdaPPCkoMgYiMtQAQmmidA4DtZnN5uYB2ciE3TVPXdZpk8/n87/7f/3Z5eVnX5Ww2e/To0Waz+Q//4d//5Cc/Xi5X4/HYJSgCMbZuYAjBuTepYN6Yl08Eaer64Bo6dfTs7aqtvn//ASImILPZbFTkLFDWlbRWRNPv2BvIG9XRq23HF8HU1j5/WSMKC5i2J170VKttVddN0IMER6MRID345mHTNB9//HGS2CSxdQ0ikue5+g113cxmEyIQAe9D15Xz5jGsV2bni25ALbfepb62lm6A+Pf29uq63m7WZVny3l5XkMDGGMKnc2f4HfXKa7jcBB8CC0Ctp5h6v9lWzrnaN+v1OjAf7M+zIn/w4MFqtTo8PNTZrgcHBz/+8Y/zPD88nANAjBIjsIQuViYAcO75B7q9Nr2GdD7/67v8865nT9nwVOMfdMp2NCqsterfe++1ackYQgHsLtL3wNwQkLyp/Bjv+oKvdY9HBjQuer5YXJXrjUmchHh+ebU/mxmXoDGXi1WWFvPD48XV6sGDBwDw8OHD9Xp9eno6mYzTNNWdaSwSAYCL0WotWA+4v5kHAIDXks7nf/0wHBy6EkP1q9SvvwK20G6FXUjeXwe7bpZXvcnXJrxekB0Znlxc7O/vR44XFxfr1ebo6AiRNLyeTCZZMX74+Nfn5+ez2cxz3NbVrdPjn/70pwBw9+7d6XRqDBJBWXrrSEsejUFmGi7RG6Q3ZjuHWEbvU4jIs/PDpdMzenRvCOHi4sI5xyCJdXmSWmudc0TthVjPXH1eRSK+WhUqdPX7z7sUdWMHEFgghFhVVV3Xm82m8cEYg2TQ2PW2dM4V48nZ+fl6W2ZZZhP31f2vr5aLoii0Cu6jjz7ULGabC0bwoUZKQAeIXJ88+Z0r2+dTrxuHXqgMWlB2nwQAAOY2/blardbrNSKSNXme740mepJHkiQ4aDvMshSeIQHEG1sqnyF6UaGqiJ4C0Y6f2263q9VqXVajYvz48eMkyQ4PD4nskydPkiQ5PDz8+c9/HkJ499135/P5YrEgov39fYPw8ccfTadTIsrzFADOzi7TzE0mY0RoWxMGe/1b3/a3pVdm5w3n9eq2G35G51M8hS8LaNFCG35kWVaW5XK5tInb39+vquYf//GXn3zyidbAffzxxwqhTafTJEms7YFNiBFC8Gli6yZoFVnTNJoqUMhGA0Tu2shFhAjr2munfmvSDDBDXfs0dev1VqPhvmj9w08+Xq82zKD1MWVZfvXVV3fu3Hny5MlkMrl///7Dhw+rqjo/P//0009/+tNPDdK4yHbmHOHgcF+/qGeeiPT7T5P0r8qCG+g7S0cggi4cM282m/F4nI+KBw8eVNtaYry4uNAW5UePHl1cXKRpWpZlN8uFNUeR57m1LoTY17I4l6qdbQsKdzO3BZERTVV7Y9zwJGrpThtfrVbGGG18s9bu7e0R0cX55Xg8bZrmq6++ev/9940x4/H4/Pxcq6KKojg4OCCC6XR6cnI0mRSEAN9pIfd3Wdi43W59aE+TvnXrVjEeffbZZ/uz+fz4FiLaJC2KYrlcVo0vxpPleqPVtnVdE9Fos83zHAksUpJYY5xIJNKaZAqhMcZ5XzuXMofNprSWjHGr1aooik1ZAUB/KWNMVTdAJs2LyWy2rWof+XAyrRp///79d95JgOXs8ZOD/XlRFBzi1cX58fHxvV9/YYy5e/v0w48+qKtmNC4I4epqtTeZtN72oKN98NCvGiW/Gn2HyUIwxlTrlbbuIuJ2uzXkDg+OVP2qRK5Wq9ls5pzTlFkL34dQlqWWX+d5zhINEDlj0URgiwYtSeAm+jzJIvBmuXZZktrk/PJyby8ul0u9Tl3XfZl/XddadrpYLDabjbX26urq/v37WVYQ0SjLy7JElocPHwDz8fFxkWV1aPZn0zS1FskYMADTUfGSOU6/ZXotdj5v7NzzSV5oGJhlOp0+Pj9rmmZvb2+xWFwurrS8/eLiyhgzmaT3738TYzw6Ojk7O9OeliQxzqXGtCMRrE2cSy4XFwZtRmnV+MA+TwsLZrsuySKI97EJDBbQR617SkVQq0hDKEUaY1xVNRcXV5NJBKCyrJsmrNfb7bayNtmsFsYYjn55dTF/973U2VFe7M+mf/Lpj84vLyfjMftYlVsbTWLTxJlu3kr7lLpeg9fXF/DF6/N69KqXe0Vd8WLGI2JRFGma6jmd2lCuLxaLhXqzKj1pml5dXeV5rjiwTsTSyRd5nhtnmcG61Lm0bgIAJWneNKFuQpYVLFhVjUsyY5wP7NIkxljXdd/Zr9l1vWyWtceopWnKzKvVSkI0SE1VN02DAu+99+6f/PR/+slPfnIw30OC8WiUpi5xZjabFFnufV1V1Ztan9ej70zZEgEzHh4e7u3tqf5M82x/b3+7rtI0F8Hz80tmsDY5O7s4P7+czw+rqhERIhsCr9fbJAlZVqw3m/W2yopp1YTzq8XBwT655OFXXxLZQ5euNsuLq+XxcRFrf3W1HOfZmreLxUoE0zT3PiKy97GqmuVyfXKCl5eLe/e+Ojw8HI+nZVk3TbO/v59Yl6XJ0dHRrZPjo8NDADbGcBAUjj7o/JUkc3mWINo3W8r1qvSq7OyCPCFAfvlPgBtO3w4hHM3nghCaMBqNELEs60neHO7P1+v12dnZpMgnRV6uV9bSenG13KyTJCmKzBhkDiGASDw7O9vW1cHe/jb45eXF/v6MhB8/fny4PzfGhLparVYHe/u18OLi3MznZpSH0Oh/VbVlZpF4dXVVbdYWoVyvLs+e3D299cG772TO1nU9n88/eP/udvthMUp9w3q8eJ7nZDClFBChaZBEH8caTQ+/TOddW583Sa8hnTrl5tv91IPYQZuT2r9HIETgyNagsAiANepJQDK2UIxDCHuz8d07txBRA8HROCPA8STfbDYXZ4+0H8aSXF6dVeVqPt/fbhZffv1VkeVFZh/cvyexzjP75NH9zz/7VVlX1eH+1XJxeXF2fLT/T5/9j8XFZZ7a7RoffH1vNBrN9yapI9+UiaP33r0zHv3pO++8M5/PJuM8z3OB6GN0qfXBA5FLLQBECQhWY+ysyPXprEsBgGDo0A4hi+vMe9MRp9LrKVt6lZ8vMQ84+AkApL3B1IIMqfavNbmWz/sQdB6EHuIaQoiHcy3TTRMXOVxdXlxcXKyWi7z45OHDb64Wl6enp6Nx8dXXX5bVdjIdn/qjcZ4dHx+Ox2OROB6Pb5+eHh7sv//eO++9/w4BzqbjPM+dJWHyTZVkPao1fK7fnH4rQPQrp69fnZ69fjuyrX997YYEoKtFJkLAa1tcJTxG2Z2ohO2M9cvLSxEpimKxWKzX6x/84Adff/31xcXF3bt3j46Ovvjii6qqfvSjH8WmrqpqMpkkid1syiRJEmf6NdA6LN8E5ywgVGU9YOf1+/yuSwmfS28dO4Glr1xtmWoNETRNAABoh1zsFpMBGs/GUNN4Y0ziqG6iiGSpLSuvE47yzPkgMcYstf33aVWAiICIIk3b7TZLUpfYpvbOOSRoau/evhbSG+j/B4XvmSDUKjRrAAAAAElFTkSuQmCC'</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAIkAAAB9CAIAAAAZRdeRAAA6AklEQVR4nO29fbBtSXUf9lure+99zrlf780HM28G3nwBYgYGEckGB0kWlsFEhUsqGWwqwSIjJJmoXMJIQUpUiWSVSq6ynXIc68NyVUqukgvbIY6gQFiy4kgKKRwJJCw+BmZgmGGYb2bm8d69797zsXf3Wvlj7d279z7nvnn3PiQ7qXTdOneffXr37l6r1/fqbqolAnBEqgoAACko+woA4P6n7LYSlABAAZBk9cUqn6rwiWqf+C2Dfv4JFKL+0v4pAxjCsy9KG2+DiLz9s097Pn3d8AAMD4NGtWtr0LKmrp20nOyxE79k07i+geW4qbIRnsCVBkBRBQCBFJrm4BrdZA90OOkpZvCinvj6On+S0Dgtdf6HKeu9vQJw2HCgHUzbr8cgxtoSghL0CnNExxf/fzlF8aSAqlFcQsyxBAgoqQBsIiUr3P2cVR0ywassJ6Sy/7dg30a1aXDHjqAXvFeglSs/zMeJ7z9Zxv7//eJNK4OCQLIBh2tajRARoEIEKOwTvaxj9LOj+3cypJ+w9n9sMyDr0DV2jTQKABBBNTWb8bQxblRGd1oOR+yH9ztaUoAEyn9Sn2CF0H8cn+jZD3U8veXsJ1UPVdVD1RADajGigEAJqlCN4pwDIDGyczEEpwRH+1+/sHf99cvDw8mkAgMQSFQoMYuKAiLwzqsIE2tTkytaglCBCBhQ7e+oQmIrxchBBQSo9L+O7qTPGMCOSAEQBKqKSMjuHP8JRKiCBKrr9YGY6tivqmHQcnc/xtqRp24qEqGpa8cFe5Ig7AA4qAIUQ1CC9x5AjBGAwXYdK21TGmKLUyJ0uNFWEWuphIlAFENwjrGsH3/ssfvvv19VVPXue77pjrvupKoCIKFh5wTKXLSNixARooAZ2vI+xIhRn9JP6RprMy2nV6LuVwUfMyFH4jO1ti5W03ttmq7VlBBU1XkPZsTYWoHMIIIIiMAMERUh5xAE3vctEEFEQMwMOGDA6WKM6+hJuPGbbEQBNIo4dtzCVCHimOr5/MHP3N+E+onHH9vamr7iFa+48NyzR5cP7n3Na1A6ZgWUYoBitVqpUmxqCbVGYeYQgqp672OMRJQ0QysA7GZVTTuIDUxgZs6t4/RVaWzWkcHXuRa4OeJtZlDPu3uIhEDMKqKq7H3iJRBBjKvlcjabgRkAeY8QAELTQBVFARXEoCEQCpCrL19+/vnnV6tVMamcc7PZbO/6GxCDkFj/mZmYAd5IN6lkQmKIIsdOYmQiYoZqrGtXVY8+/MjB5f2vPfXk/Z/59Jv/szcVjrams0lZPfqlB6JIUTpXVKvVitiFEJwriIglEoGZV6uVqpZlKSJAS9oj9GSQpBx/6Y6IiIjhpn12jW6sJjOLiKpKRnCpzRyd1r5IO4GapvHeW/eYebFYlGW5v7/vnBORyWSys7NzeHhYlmVd13Vde+/Lsowx1nXNzFC2xpl5tTxc1s1sNhORszfeyCCA0LE/EWmapqqqK+DGNCvteESPKVUVjY49RFxVxfniwnPPL5bLC5cuvufH3vvVrzy8WBxBq4nn+fwyKUraZoIsjwpfVUQFAdAggZlZwRJV1amQiYrQ5NA3OAJggywxdbaRqCSTi0RIBIAmsuOe/nK4B1VrNrVs923GjDDUoodIY9SmCSHAeyJqRCZlOa2qlfdENF8ua5EVM0JwReFUpa4Xi4VOJt57hLBqmrIsfVFU5UREVk2claXU9UMPfOHcwS1nr79x+8weROumBlBW06oqjkMMBnQz1F6N/wACk+yKf/9Hnzo42H/xS27589/5+mpr6+Dy1+vFgiSulvOd2bQsy63JRETFuap0GqGhjiqemVi8o+BURQiBIQrEJhCz8UGDLqmKKhEpEdQrKykrCSIU0XGhJA4EiqRMrBASigSnGlVJtdMC1CxjVkQlUtZWkyQmIpEABZEjUqtP5ECmpMay8AVJCFKwEvFitWTvpF5QDLPZRBtf18vDS8329gyhcRoohmZxxBJ5UmoTm8VRQdvzxTxWy7KaOqai9DFGhj780Jfco49ed8OLbrvj9u3dMyBIjKrqfHksbpQ26+EhhKJosRpjfOwrDz/++GOTyeTmW85VuztQlGW5WhyGWDv2Ik6bJhJEwCE6L/WyFhFfFkFDELB4lYgokYAocOxM4xBRAkQVygpAHTklGP4YIlDHJMSIAQxSEJQhpvWLttaWqjmShAATQ6qRoNQ6+IykFFCVAEBViJUgICE4kDD5KA17IkioV96V3juJjcYgLJDIpLNJ5ViODhfebZGKd1R61ziCxBhqCaISCscMx1CVWpXEuZtuuumOV73y6OuXHnn0q48//vjF/Ut33nHXzTffzGW1ZpAMcUMqa7o3A9GIRuqGHTfL5ec/97mdnZ3JZHL9jTeCHSQCCHVDjqAqTYjQEMgRO+c0ynx+RIKi8AoliKrzDFF2jCjkHQmIWFVAGlUJGkSZgKhRBKIw2mBmMUmjRkCAiACkZMIEDirSiSklZiAS4J0z6ge53OXhfJH5DI1oBYqy4NUKDBFRjQ1rWRWuYEcamb0jDauamadldRgPYt14r8xcOCqdB1RDlNCwYnH5oKqqKEGgs62dOsaHHnkEX/nKuXO33n333S8+f/7BB7/0uc9+dn9//847X1ptzbBJGetwAwFIh24XUiYIFFx4Wc7/+NOfEg1NwLe+5rXqCgKZebEz2yJt0MT5YqnbWyKYTCbw/mA+V2ZfumWo4R3YCRH7EqwhBjBHJXIcJYoqEZNjR061c+WJtGKHyLgcEcG5Vsgn+WT6q3MgaicgkTK3Kpw5BpmtMjObqCc4EFQ1uXet2SYquULJNbGppluLVaO0msy2RSQKyslsuVwSSVVVe2evv3x0dMMNN3jvF6uGXOGZm6YBmEGeyRGUvIAFbr6qn3zmOSV6/tLl2ewxEbnuuuuqqvrSFx+cHx1962tfGyU47zUixujLIoQAsPcMwMP4g/IYe0TSrCjI4eFhs1o6R+dvv23v7BkzfJjcpJrNF/OKy4q9lEVVlEFluaqZ2ZcFysIDjcQYIgFE4pwjAhEDMNZPxMy9lG4lugGLOQlqIjIdyWgmqWHGbO2io4MWbVYn0/16NDh2I+3AOCAzO+dUtSiKpmmMnxORK7yICNQVnrrZM51Ol8vlbDZr2b6IoR/eadPEJnDpHRe+rF72ktu+6d5vLqqSvL986dITjz3+1FNPLA4Xzzz51M5s+6uPPHLbnS+1BnxRhLrxZQEgRmWmkaOl9cDYgLgo4PD8o89fOrhcVdVtt93miqKzoamqqiMRm6SOXYxx1dQKcs4xc1EUnf7aakTMPFKXk7JkFwbTtnKnMauIMhtEel2uM26SoZMQkNtD1mCuvxGR84QIhUKV2d6rIkJM7BBC9IVrgviiMJnkC79aBYIUngGIRHZUVlUIQRFJIyQYHzS7qppNocRVGZkvHx3d4LjcmgG0Wi6r6fTuV99796te+dTjTxwu5l/fvyQPPSSqt912G4FjFF96iQ27AhDAGW7YNOhBVFnM34Bnn31WRPb29nZ2dzVG+Nb74r0XEVN6mQhMRVEQO25BicIX5F3dBAzNzI0Ob4NyIoKEsNQZ51wiBe0YXUJS99LeKspJLY96JJpLJJVj11pLJmF61vqW2KNZP8l4SnOxblbzesW+cMxuWlaTSVFNbXZWkwmApq4Lx7e8+Na3/tW3PfvMs1/80peeefrpxx577NX33ruzewbs2DloO8+80nFOD0jTcNRLly5t7eydu/UlcAWIFKQq6XljBQQlx3DMzhORSLTBOKgTFoKNwkyODkCJ5yQysvnukrVoJGhfE4wSmu3tCdMGYhrqNZSVBG5jkjlkiSjGaB6UEII5L6zxGAITkXOJ9RkFkyhBnXPWVIxRVUPdzGY75PwqgsmdOXMdV2WIwbkyhuA9F2VpM6KY+FtffD6KPPCFz5dl+alPfvLe17zmxhe9iAsPApN2aQZg3aQrcFGgLFV1Mpnc8KIbwe1sYiKoLpdLEYkxhhDquhaREEKzqmMMVifGZrVaWe/TNHfOFUVRFIVdG/RzgMaujOggtcCdtE98cr3nyZjNfQr2YCKF/KUJ64nm0p0cf6mCeSpTBxaLxXK5NF9UUBGoQIPE7d0dKBmQnffz5QpgcwUtFwtluuWWW1hx1x23TSaTz3/2sxeefx5RVISdU1XONTSLklHXXQ1hfunS9vb27u7udDIDWJQIjuCgulosrOsxRvPHiIhoBOCYnSPXFU/siR3IExfs7C99LZ23r6xgBWIkEVZNfw7wRA5wML8iOcfet2h1gNUZ/aUHC+aC2RNZI+nCAeknu668d0D6tF9b5xyQumG+CebOYFKRGGJoJIa6WTn2RVFtb29XVVVUMxCiIigEXFWVAqs6iMD5kph9Udx+x/mnnnj827/99Yr4mc98OnmBidZ0gfYHCAgPf/nhrz395GQ2u+WWW7koRKJzLs1So33vnXdeYlitVhFaFIWIRAiRN9CvC5gRj0ri2ma08XqjKmRKVCIF40hWP83fdd5lz7psqFaSH48yKZgqmMUdQijL0gYIldQHG7VdhxCsk1VVlUVR13XTNMY/mhin01kdRVUIXBa+jTooAVJWFQHWgoee3Tvz3NNPr+aLb3rZyx948EuLo8vTrT2JkU1B7CSb9bgdFUl47NFHnHN1CEQkTcNl1UfMiKbTqbA4jURUVZUgFt4xe2J2DOecI3jvG0nygHqFisR5AlQRu1iUKqKomC5vTkEiEhUlc98rO3KmwUEs5Oo9Dw2zPsHEOTOYIgDnTbap8z1fSoqJYcWuTYNIXnNVrYoi+UxN5psfggtTduNysUAn+aqqOlocTRi8mnBRkfOqqqQAhSjeOYaEGBgtUwF0e3tWN8vDw4PZbLZaraZbWxoCOVZVb+qWaGtRmL5GhN/+zY/O5/ObbrqprmuRaIhZNXVZlGneOecK4qL11TvnHJwHK4OIlEAiwuad6Zh4TkY69E62ZDQOu7Rez5FyZXigLGqQKMZeYSQ1IllVZerlSt5arsilO7nG0Ys9I4IYkdE3AHOxm6RsmkbBGiPYmSPZOxPtxMyOWo2GVCZ7e9vT2RNPPFGHeMcdd0CgTMwslgMlIkzKZKHFgNAA+s3f/M2PPvLw/Z/9zEte8pIX3XILVOu6LotS0etIjtgUSu+5k+3kWxnvEhthkCN2xAziVtWDRiEFRO1rquOgrGJ/gADCUEfgNsNHVKNqBMSRMsSuzYlMpHZtX/Nr+0qkIFFERQRJ+lNEYiVW+5quiY2aAzQShElp2JonFEz2OSn8dFqVZcnMMTYhBBExb2Ur1VUg6ogBgUZmwBFWDbM/Olq4wr/87lcg04x88mfA4qwSwQRIvVzceuutN9988/nz58NyyeWkLMt+EmqbXsDdBToLDgCRmgpDRDFEwXhS52bKaPIOa/bkNXpkJFrWqXBEHDkfG1XQLn6DYRlR+ahOp/v13gdmrnwBsCgaZUC4HVTfQ8cOEInRHAFaN1988MHD+fxFN587f9sdxXRmHD1IZPbemWamMcboiOEcNOhi8dSTj589szubVqTiJxOQizFGgS+OSXjKuLbdcZ3oQnebiLq5nDDRVkmgt2kjNioTw0y5YBihM/fZJLjnVtFGKOcYyltbx26bh0R9D1tMZGZHclgA8ITILEpqMTRRcBtE5TbtVVlhTOrJJ5989NFHJ2V18023zM6eCauVn0xV4bhQhc/HAwIkXnzu2a89/cTBxUvT6WQ6nQIIy6WfbjnX8skeFUQW04RqWZZgUtWgIiKsEEaeuDMq69BJsNA1eZDUpGQo55I8B9k69eQQVx17ffPHR8KvbVAE2czrf1qTZIn+yDFbT0VTGoKhB63DxZFqs1w+/PDDy+Vyb29vZ28XIXpfok2kgZLxtBTxberLB/vPPPPM0089VZalc85777e2QIwYlIsYW1VnvTCz4cb4uVronYBBZtAAHPmA+59iAJQAJlYCVB1AaLllknbas4v2ImuHOhpFFrlpf+oieT0hrqNqhGxklGcDzB/M/YSqijbG4dvs8sz1oVHguXMqq4S4v7/vuCh8xezgnFn3aX52HnXVul5ePji4ePFiXdfT6dbRcnHjzTdPqtni0iUogVlEzHdtc0BVBRqhIhKlLbGFXcr4RBw40sYYQjZPW58VDW7mfCxvh4b+t1QZmVMg/9TePBr7EUZ8MlU2pYs6I2wdkenx3F1kyLPHQQK23B0krghSqCDUhaOqcL4sBLpsahDFEEIITK2zwxP7xWJReN7f39+eTBeLBRGB3e133MVFuXP2bIAzLuOc63J2tJ2QZPoTREmtA+S8JxIVCaIKJXZ96kIag3bGpmQco722aIWBUFp+oIrYef7RcggyIoqh914TUasiZ0SmXai79W4roJJQkSqhE13WDWfXqs5RCI05W20caGMcg0lGpKbIsa8ERBKBTj8jUbAIfFl0ZBTh+OKzT0/KYhUB74k9QK6ziz2xQv1yuZxOp4Ds7Z09uPj11WoljWxtbbmiXDXxaLHacqWASJVStlHHVdRCwUyWCULm34ADApGzYUgWERgxilRGX/P7PZW4gdstVcj9YKMGR5SadyP3qo1kSS6cKAtMZF3qPdDrbFlVAwwysa1K2kbWRZgYIiDExeK5Z58VCefOveT8bbdXs2nS51LLvixLAKFpvPfb29t33HXn15+/UNf1zs7OYrFQRXKPd4CQdj5noyXuOElrvNp4BIDymIPn1zRUjnPZkCAboQSQBa+GkiDhZmPLeQ/Tr6PA2jo6cwBtZMWaImlraLf/xmozRtfa9CLSzm/yInLhwoWjo6Nbq2rvuutAbJmzyCZc5wwX4sJNZtuTra2qqJqmnkwmR4s5lKbbW2hnx6An+QhH8oAHox1DKpHC6MF1sqBMndMuoKmbNLERYjDU6XP0p1mZMD0K8KyX1E7OPC00MMKrdnpgEkIJYSGIthYI1/OjJ596sglhe3v76OgorFa+moxngKoXJQWKqgTERNZkNptgBuYz1QRK8A7KIBBleQdmPEsHI+2YNSkRSHpKj+i1mtH416c2dQkCOWKo0w5yWUXGR1XbXPu1MgofjKgzdSndz72iyGbeOh9WJgyxblqDeXEMBP2EsLgtlIh80UYyL126dHBwcPbs2SAaojx/8dLN587lOZ72LJelR5tjGM25DlsRECMcwzsAUSJ6PZSRTYe8aKfeYI1FrCNmNOCNX/NnEzQx1KaOq3xcU8mtZ13VTSG70XXevRypo9ElvbG/bmsTgZwjEOrVCjEyc1FU1XS2XNaTyaRpmvwd6RU+BPGeidnbRDObxPkYggNDCEyqojCVaQwt62SClnSrRwFYMjtc7ygclXXWbw4ooM12avXOznNjGrZ9J7TOe8KY+FJTCaDrr16/OZL5ifUBreclvcQeF+Yup86QgVa+UjA1znDTNgGsVk1VFWVZAuJ9wb6Msdna2dna2trZ2WnbFJPu7bu8obppYlE4IgJcDLVzzvS5qOLgaF3ubWJQPQ4UaaG0HM/K86nX8/RNFbQL4WBo96jqmrkyAO56CSHkYiMRUC4/8kHFmJDUs7sk+UR6YyClJ1AUYQKp+QUUqqSWXqsEjThz9nrv/Xx+VE6q+XJ15uxZW3BhYRF0U6eN3HjfM7s8C9R4oKGm05+1VT0ARWxN/46cLXfZ8qqYbQVTzwGSnTuimAHyHCcVIhdUml46JLVkHiKb7OvQt7czs6A1d8xAihJV1RbUUKamE7FaXkQXdgJai4mI0moI7WIa1MWnnXNBhH0RVTU2RFWevERE5ByA7b297TO7AM60BpkH2uUqaYpsjnteoeR2dQcEUUUyv/vJ3uYa9TI5Z9bHkV3O8XMBgx5qA5UvV6wHvHGTcFJVCyfmIFhXDdY71l5383rUPrKmEhTQmYOUrV6zVtBGEI2yj93rogvQYsC4x/2zTvQ3NM1rUxRVgomArDcdvHgAUxqmLI2oZyRg2+tuOo2ILP2ankrUo7bSwuYRm8MELfcnok6TTh1LSt1xuGl/NcdCbO2bbCa2f5x5GegYjanrcwtWAo5Dz4npZvAK5qSzJKwQEbc+/w3O5o2S+QrF4EtrFsaoznr7GXfqE9KOI4782VELiaRG7eeNpGZjF/tIldBO5PGSYcsKAXAluiHIFShm0NxgHBEpBtORFJGZQIlugKG+pDqwdTbCaAPchyvTBoAgcKcE5+yUjpuwQ+VwHdDrXdJ1vZlArpUzORftySszRUnblUyGAs0gabeuAPqT0o3k2Z9tZ6if15ppvXnZON83lpFjBmtkMcKTZqw/vz/gRRmrzBnpRvoboSfhZiSfJMQRHZtISz6RnlaImPhk7ALAkG7oePraoI/2vDb7Kpmfxn7JB5CD4zhdIL8vnWmD4TQX6gKj1JroeTvr/dz4ovWbGyuMpOAIf+sXzMzt7gvHlqvE0ynkDUND6pBqpq7R4LXtqEIU3hBrAQAmyFgXyN9ECm13QQKDIrTN5DclQGHOEM3WDlCmNI9m+vr18NWUpuC6jNQsmy7l0eWvSB4XRxxCZGbSfC+sk2081j6j3d8Vn+e0NUrXH/bkHNkaDTCz+c0s+tmKRDjvSudc6bxzhSqBnYBWTQiiSixgsAM7S1IVRABN0zTLpuBCGkGEIz8pJqSMCAghQoJ6LqSRwpVGaYBYZk8dpIkqYLBXclFpMtu25CwRibHxnuGYvBNwEARBVLLrqBSVlFx6NqjYoCz+OzKh8lzcPLbWSARRFBC5TuCzars8MP97YdycGJdpP7uEJe2/Wj46kmMfqOtaVUkiEcUmAJhOpyIS2/oQMmsjiohoSJnHBhENsa7rZrkSka3J1O4URcGgw8NDiB4cHKhqCCGEsLu9TURmFXrviSiEEKVRy8PzPoTg0DNYo2YD4tjPhpirGKNAalJwUng0uQaSStJ6lDZ7J2SjmLhG3ADH6Kyjkoa0t7vtPIVYe89F4SCRSJ0jSCCNpJG1g1Ri5Q4RMSI20qzCijztnt1tpHn+4vOudLOd2Xx+6Bzt7e0Q6XVn93a2t6vSh1CHUEOCZ5BGjY0tjmGFRnEM33KhyCoMcaSW4WYXpLFjDuJIHchStOmYkuf3JKzkYz8OMldfToObHAF2QZuC6ta//f19Bk2rSbNahFXtnIP0xnw3BsuRg2W2C3S1WkWVsizZu6ZpLh3s7+3tVdPJ4eHh0dGRJQkfHR2VZXl0dHTp0iVVrcoyhDCZTCy/smkaa7woCkXrwHfM+azPS3df0uoGtImJ7QBTzZHoyuiP1iGAa8DQNdme+eQY6Tbo7NDrzpytw0qEnHOFrxqJBwcH29vbNJDhysy2V08UIU8OHKF1aBqJu1vbHvr81y9Mt7eKwoUQogZypFHqsJpOpzFGkHPeLxYLAFHJ+VLbyEp0zqn6KAJEoi4TCeZb7I0OUkBBAKnRi2oXrEwDRK6YYWwIJ6x0JtlVWY1XKCemm7ZzQ7amw3BImkrMvFgtW5FDZLn3Z86c2T2zx+yVCeCgIoIYNUQNMTaWYeQLZt9INLXj8Oho98x1qjpf1eV0YmJgMpmoat1EYj+fz5d18L5UcrPZLEgEuCzLqBQERI6Zo6Bdo8LM5Ik9EZHzRKQE70tyrEpBYgxmtjmrk0CfY2IkXQbA6QpdwW1zFeX0PC0prKNujfonIls7u+wKibYMhf6vj/+713/7nwd7Yq/kiL2pRgKOIO/KJshy1YDcZLpVTWdfv7T/f//BJ/7RL/5S3cTdvbP7B4dHyxX5QojrKMs6gD37sqgm7Ms6xGXd/MIv/vLXnn1OQOS8KYRKTsmRK5RYiMHOtEQBK1jA7DzYg5yAldjSpfMwKYZeHMo8BQk9pomMQkGnLt8AurEyUhD6kAa5+bKez+fFZBpVguCmc7fOtnYVBPLEjrggLsh5ch5UsC+qamsymSl4vqgl0tb2zt7udd/5hr9QTWb7+5d3dva2t3abOjL5STUrqonCOV8Ru1UQX0x2ds/+s/f/y0efeHJRR7sfASFHXLiijMQKH0BKHJRFEcBRSNiBWJ0j54WdwjeKWo5NdRuhJwEhp6eNwLn6cmJ549hRZqM5NtWzzT3rdsxqdWsFXOEXq3p7d+9wfuTLifMFsXNF+d/99M/8+09/GiKvfs1r/puf+ImdnR1mVzfzX//ghz72sY8x83/yZ771TW9884c//OF3vvOdWzt7Fy5cELiP/7s/eMUrXv6J3/+Dv/b2v7parnxZlNWsDmG1qn/3t/7NAw988a6XvfStb31rNZ2tmqDEn/rjzzRNs729/cwzT51/8Ytf9rKXRTiQNE3zwAMP3HnHS3d2dp57/sLHP/7xw8PD8+fPv+51r9vami4Wi0e+8uVz5859/rOfe8N3fEdsVkmaGlaKoohNoGEwW7MFpLFbAQoR2rxi84XLyelmLUcpfc11/HRd10FVjxbzcjJj54+OjtgXX3jwi9/yZ177/vf/iw99+Df29s7+zM/+3KqJh/Plfe/6oX/7b3/n3e/+kfe898frlbzjHd//0Y/+5u7udb/1W7/967/+YWb/P/z9f/B93/fWL3/5ESZXFGVoYgz64Jce+q43vun+z3/x3le/5qlnnv3Ov/AX58u6mm5/9v4vvOOvv/O/ft9Psiv+9//jd/7mj/6tWrSJ4qrJ+//5B/7me378uhtu/LV//r+85S9/z5ce+UpRTn/7d373u/7imz73wIOT2dbf+wf/419681v+2fv/BTOnRalJf2nTNo6JKSSJm+tspygnphtVVdJxQtQxhYhiiLOtWR1ERCzIePbs2aLw3/3d302Oy3L6o+957xvf+Maymv7qr/7qfLn6wAf+VdM0IYQf/dG/9fJvuvtnf/Zn6yaAXFFWZTXdOXP2vvvu+xs//IMXLjzHRGVVzevwvd/z9n/yT37hO97whslkcnh4+I53/PXXvu7PNUFecv78ZGvrgx/+8Gw2+8Effvf3/cb3fv7+B771tX+2Dqt/+YF/9Tf+qx/5/ANf/IVf/KUPfvCDd99zz9Hl+V8j+df/6Ud/8r/9qX/9Gx+Ngv/8Hd//k+97b704oti7NY1QmDmXNcj8bKoKaLdDAqVY7SmQdIq4J6FLVKVOjVYVC+h2O31pkp6TSamqDGmCzmYz7/2lg/2yLFXVlkkycwhhuVx+8pOffMN3fpftJ1YU1dHR0R133CmiEVrNZvP5vKom29vb5++4/fLly5PJREWcc5/97B9vbRVv/y/e8dxzzy6XS+/92TPXnzt3y+XLl1V1uVzu7Ox47++666577rnn137t11756nt/67f/zaWD/be//e1/7+/+/d3d3Q/8r/+biBRFUZbl/v7FRx7+ytNfe4bIvfTlL1ssVhQCS0xYGaltOWLQDl1hoTYd7mJ48nJinmYZPakfOZ8dWQBofUmolwuNoXAUQt2EGqKzSRnqZahXTOoYTDqbVi+9644vPviFw8PDuq5DCLPZzJKD5vP59va2c842mJvP57Y03ngmiRLr5UsXV/P53va2c8wOVekvH1za293dns6a5ZJVV/PFD9x33//5sd+t6/pXfvkf/9C7fvCG667/8kMP3XLu3Gxa3XjDdS++9dwt52665+67/6d/+A9fdMONzar23K4KTo7aNNicp43YWm5O4Bi96SrLNfkFkLnQc8+SJdLZndVyXnr2DIYeXd6X0DimxdF8d3ur9D7Uy9lssjyaP/30k+/+oR/+oz/6oz/8wz8sy3Jra0tEPvShDyWTe7VabW3Njo4u1/XyzJnd+eKoLIvVcvG6P/dnHfE//dX/uaqqixcvTsvq2aeffvjhx3ZmW2G1OjjYP3v2bAhhUhVve9tf2d3e+dv//U8/9thjb3vb20IIb3rTm46Ojt71rnf9wA/8wFve8pb77rtve3v7woXnbdVRjJFB6GyYNN7kjU4zMo/XJXq6dk36mvwCub5vCowa3VhmULugQhjaNA2YJlXhi+Ly/v4r77l7fnSooNlsdvHCc7edf/H1Z/cc+X/8S7/w03/7p73358/f/tWvfvW6628kz4DW9UpVYozz+XyxWBwcHEymk8XiaDKZNE39y7/4j973vvd94hOfeP3rX3///fd/7GMf29spQlNLbMrCzY8uq2ps9LmvXf7x977nx37iZ37sx37k/ItvuXjxwn3f//33f+Yzf+V7v/enfuqndnd3/+7f+Tu///u//yu/8iuXL+03q0VVOJGAGDnTSxP0Y8gDJX3uA7OtrEhxzxeIw14JvOa1vfrnFUIQxObRL9zPcTVx5AkxNkB3TkEXX3EgbhfEgoiiSlFUyzqIyGS2FUIQsK3SDqH1Ty9Wy6Ksnn322fl8ube3d+a66x574vHzL77tuee+9vzzX7/33lf+8af+8NZbbz138031cuFIAQ6C2db2xYsXP/3pT3/xoS/ffvvt3/It3/J7v/d7r3rVq2688caPfOQj73znOx1htVpNp9OHHnroL3/PWz/6mx85f/48gKaJzPy5z33uIx/5yMHBwbd927e9+c1v3tvbW60Wn/jEJ+68884brjtDEtKuYAM4xEE6Ry5+omAZJJB/+T2v5skMzq/xJ8HxMemeRk+KG0FkKGLzlc9/rtRQsLKKamRm6aYLETFsFU67YVHnYXPdyhcLobtkNKhlMw0XGZm+wXBEGqPa0mvj9aVv9+gicrHLkaMs3mwtWCIZgBDC3t7eu9/97q2d7Z//+Z9Pe7Koaghhe3s7Jb5KtqUEM7Spc8ZA3Z4TpGxhheQIsJeGEESpFkQuXn7PqzGZgVh1oEFcJW6uiae17+viN5Zg0oaoqd2ezlLV0S3ysw3IuwfbcLgjgAhsu0hL6yhsdw9XItv+KjIYCuMw+WjZEn0t/1bbZJIQgnMuNlFEnHOT0j/3tad3tqb33fdfVoW/vFw450ITZrOZZ1rOj5CW9aqSZUC2wVAAojrIsmNmyDiDQDt/QQr+tjzttJra6XGTOqGq3YK5sa2ViGD42VfQfPXzppU661/zm+mn9YvJZFLXNYCqqlarFYDrr7/+537u58i5S5cuWWfqujaHKQYJ0OsRARpJe+Z2358kY4yAMqrt1Ic/zRhBl6WY+t0DhVqEJXOsZzK5tEydHWjbWc38c92eGP00si3S/aOjo6Io2l1HRFT14ODAQp9FUVj2vn02TVOWZS7n8zcSxsvS7CIPUaf6bQ7ipjSjU+hs10Q3V05sGwExB7RuWm+W42yENhxDKOsyMt2pqkpVbfMfU8Sn02ld1565LEuNESKTsmyapnCOM4ameWyfSLKd4qzljsL6r6OJYv1te/Kn6bNpS2v597x149RYRw86usllPjpxhTV7O5/LI5zlr1jvg3F/I52maQ4ODgDEGIuiODo6EpFENJPJxAJLSenCGtZTNxJzs9UsyY4ZjqV/6hSgTeUboAtot/GlttN/AJ3RejAAHdvr51rLGbS9zmUshgbECHBEJBLSRO44vAJU13VRFCJhf/+yc253d7soisPDlXMT2wC1LEuLk1oeiPdesxW22duTRpBkJwCo9HSc62+wPXq6xOhrQc5p/AKKzfwE2dQegXJ9GiYcWLU8NDKij40RkVE7uRyyn+yMgBijZRDEGPf3921/Wkstm8/nAOywANttc52R5uPKG0/JQFaz23ALshYJzR8/aTkN3RAIXeJ9JwBjEwJ5x8wuJTZoq++bjz1xbaJ2r4E0tsQu0CXhJa3UzC+DZhp/6om5VbQFSr8Juah4780hBtEQg6qWvpAQmTnFyFXV9lMYUWRSiDVTI/MKIuK6TZBNPbMxWtGoReHrbhcLqCbhdKJy8hhBtthJRAgiIdjq275OYi6bdFxjfemklYQbl2VCa1qoltnk+WdyPpo+kmsWBujkjswhaz0a8UysScT817QFdWJ3LSLZ5QhbF415f04nd641ftOOVYWSp7bb7oWzOrmUNrI3o7pvU21RaSZ+sjcO3j5kL6PwcGKV+Xq2hB4RAfEIoMYzky6QOtwB21GbmNltVdQ2NFhQr1kRUVsbbT08tUZwGty02qUhgBjWj27RyYBENtqGNOhxP6ZsJHYjr5Pn6uWTNErMlyrmqNrcDRrfzN+YpkV6RdJlBggjgsbRKDKRaf6AXl07KZCtnCa2Rtn1yM5Kg8/r5xdpziY/Xt8s98xn/aWp/REVjt/eCWfp1n4kNNhXBomalqUgbYdgPFg05c4nEyethki8tJ0Ka8SdIztNU+vB6dw2p417AjAWrAIRhfAxx1OtM/d0PYLdujmdM59MYPRkJiKcUUlLylmKZZrLo5mxjrZEFsBIfozXkLTPDken+RKt1vLMZc+fTky689mMZm7LiwdjaO/rcIGnJndhNjzVXlBhjbNtXHCbULTek1xB35ivlN95wSEzu3avhKxjuaoyIk2sSZpTIAbXbnsSERxTGiQTjW3DQbg6OaFlmMuaeNq6IpBji5mTDyYPO44yx7HJqBq9jtfW327AcbtEeYAVK2Xh+tjzUDcR0fwgxo27M1xNOQFu2tdTmwrsnFNtVCKTKqQovJ2XqUykEDtgKBuSiGi3Vl+QK0Kd6iaqUJfvvylq++JqNN+7QhWiITTo4MsOgIJsP5BBCCfjZiy2oSs5O3cegNqZU0RQSCIvbrtDtpEvs8WcVAFi1t4QbgJ11MJESEulHEQIsTOZXafZ2kvzk2xekJRO70+zxTYCtS0lg0oUIQIGvpOBOdJKDgKNJmkmSHXonklPJRxTphnnDeQ8ap1Tpcqc7UG0Xm2ddCLsMFn72je1iZUNuO5xhHv15TS40S77CUPPijF/dILHejba3ki79VMDP3SGCQzhmxAzwtaocksu2YN5g3n9dTEzQhUN0/6GPLYXh+upGtZDO0jjKqD4wuVa5I0J9m6m5NMcmU9wXYBjjInR7BqhQbt9zzbP047ORkDX4crehDDmAZr7wQyNfB46KfKXbrzQrKyP4nTlVP40ot6fL4xup/y+T1nP8uNIAJuSPQtKj+TXCSIJXskBs6Eoa7enZ66Gd4jpqbP1jynnUBsBOsG391pm+/RKNgN4uD9b3n/zC1yFQHmBclpf55CZJmiqiv2s2tpxgzoj+K1N8/X7GLKaEViTtpbuHMf30v1cb8xJLSeyVEdV7dgGtPuH9WbW+nHDqYVrFDOpnGYNu3bh56ReWZJw+2u78R7QqnNFhgAC0l5F2QAU6Dd17jXgfC5TpkOncxpyoZXg0oGPaMjl8rLO6/L76SvbHmhp6mj/eKKwnPJabqhgYtt88eTg7ctp/dDpq6pCRZQcE/oU9gTcGHOrzXrfytgeEAO5jex6rIklhoMhleQlQ89YH9uoOyX2laIyuaIl6OOhnGE0Ly6LdzAz62BNoYHoFHg6AW5aUNrkEYoxQpWJHDMg0kE/Z3cikocutHVHKoBBnHFQIeb5x8k/b2kYdsdS3TVLTR4uqGgFG7K4XKoTs8hmD7uOa+W+TuuG7Yc5GkJCJGUKpHXGQYNoLYCvmBkixA6dfnSick25HAoGLHMuWlIns8dwWf4gJu1sgcQglqWZgNXhuTVX1hdyOTEiCM3iN6m0lNppj6OJvL6VaTeTBt6/XOzlLSR+hgyXmpZa/Kn500ZQEBWRqGw7e1rKnaq22YNJT7Pa3O0wms/QwU4rzmunB4K60zCYBKTEIGgr59Cp6+Z+MOozqA3PDAOlPD9RzTdduILozrjihv2nqUvzHEBmoOltlnMnKtdiew6UemZnydASowJk+4VkuGEeH1Y56n3bjhvzwPR1OPj0bB4y0ATTdHGc2B+VwRzK6lO2J+TwvchfkXq1jmdKU+2E5bQ8zai9dQHYtiMp47Xtd6d3ZV08vqNpzKPxpweToM4rqCo6BaR11GUdJCId7X+EzVbHmI5zRW7oENJNRq5k1jENm93wsqsu1+JP61OD1JybTOZ6HBBUZlgQGwjWHF/9JsZt6HckP9YNPVpzqORPUfK5YQDH9ZmRaC4di4ghTPMjq9PUY+aRPFsfb/8CotPZoafFTS9/Sds1Wu3GGnmV/KuqamvTtb/2IxnmV+RlBKw0czlL9BlBhLu9mQDQ2uk7GM761MLIsM1el1Ves1jXQdLNs/bxq1wYu7Fci57Wm2NqOr4F7S3bLjuDue96t71jTvmq/e7c+U0a7oSWr+q7MtryFpCBUltNesPedgBUSCEqBBJoZ+gARP2p7trqympaxbopllUbZJh2R9CcrJwCN+3ZfiKCGKk7C7BpGld4Jk/GlUSbGGOsp1XZbpdNLVsjIgmRvetBLD3ERQIRmQBrUaIMwLZPsQ3NBJAYQQIHFfXe13VtTMmyau2cHhGJ0lB7VjLbeesSOREuWs0N3O8DR0ROuy2VjQeKJRckwSUgCNjDwRkObJGJRCRjS6CWxpbMvpOXa+JpIB27MaCi/U7w7WHoqgqwktpma104HwNHXHvB3jhSG6oyLxal07mHsWEisjVvSaMVETu8Ma82zL8Ze5GNPLo+9E5MZs/MIv1hAQTXVldb0WFHPGnPPa5Zb7Zi0+K0vk67MHLIdDNRESjUGJolZkqM2h6K2zqGGVCjBnTsvEUy9Ua7dmY/p/NKslfbQy1KlJk8pWVgylDEoImpdpY8OefWIxQjYZPQTO1ZsBv2A9Wu2J73I7DaSDZyzhcs6V0icm10M+zrRpbaDwNqW62zRZ/XznIgIsCZl4Go96DocKu/HHMq5MlTlkWWjqNO/oUE9PxdQ1hs3o01l3aaXKeZLtfyjnQ/jbdX6E5TUvvfgHUEANZz3rsuqu0hqekkOO2L5XUoBsqMnRQnGlQVtqFEJmZZWVWlzQ5wxEg6d+4A5WztJ7KIuA7Puekopj15G5v8bMOckxZJ2uWljvZ8zCbCNVk21udrtW+0880k6ObKm2Y2R2w3IOqiODyYhlnldsLag4mbmegyWSIkSQ9E7MzMTKVOF6mdAbWNbfsNq0eGFcZ6c96gqjK1FkJLZ4lFA6fzCFhjp/LZdDpwzi7ydjuHop0C0OlXudYwREz+7CAjV9uDSzGgt3Y7V7N4iVomlpJGQrfyf2MZKeVmC+fqfvbZAjzND+kyh3KFXvtdsTuyOa07YDRproluOp/NULQOp1e/s0tXz9woozw0dJNRNY7mOHcQ117fVVW1O4Wv1lPaEi9an+8j+kiaW6tSdi2MaDHnkKOvquabpd6Hew38LKfgE+enKRFpO+NIibhNaBJTQDs21JOUZyiLLaOx845scZcIraVMtDTRqnNqHmWYl55JpEVbDCBi71t5lWhFVeu6psxJnHOeBNlEYV34pz26lLOtubXTA62atta064mjIyubedTtSWIXIQRFn+R+ldgaYf20MYJ+crbuaGICHBFrP3MVMDIZqp5rKKdsarf4APc2ChiAdwU6jmRwZB3vnZCQTUTpfCh0ILOfTGKlmzkfS7TS9d9OHxr6NTKbKYMBRERjXA8cXEs5NU9jVZIYYwoftZlZqoCIiQMBoBGqrZfGDGzqLBUCkQAKjR0hc8Ji+57kHGMQg4JqHIIgYbsT/gZxiLSsprfwQc71coL7ndB6vrcO2VybGFpX7UuJKFk11BngmybhicvpdWizOaJKWm+mIkRQHsTK0thybpBKeyfdF2LvOm9VO0lHStFABgiJDOAi6dCzrOgwYz29ulO1gZG/OaszWi2EIZG1bbbcuB2vjgNVpyzXvD90O2WST1NFWiuEpD3mk5mkP3tFlTPzzR6KQuiMuNjtPKaqtpazsyFEpDuUVwGo2NLkflVmjrnUyRwlIpI0l4TIpL1kd5IoUThkWllvC9uyd99vSpDp0PkUvAYWd/o8m7YzJApuj8DJ7htu0IVeJFtbpJkSxWY55rpjfmwbDY4DSJuzSUu0EkKwcwSHuRzA0PWCTOCNcGN0o1mSTU7Z2sWTOvru7yf85ZXzkvgyZcbfico10Y3hJmoEKVwbI1Ckw80zkRCjiqglFCgkROccoa2Y5BV1+jG6ONhQrnRbtKKXw4nDjAIw+a9DZrUexBzocukz92NIt49goqFBIxi8N8futZST40bs3HdEVVEKyuQAVWf6GUOFRJXRnvIdQcZLGomOLI/Q1knZQe0MRFWyFESlwUyEQ1dfvC9FhMiphjYHu93bxGBhtieLRFVitvpNjGpvZ4Yq2fkCyuRA0Y6uY3IgISBCSFhZSBycdMoMCyupitH2wMsgIlEV0m1yJxpFpd09nwm0IXmgLXw153jY+Z5X5THtmIMiBnh/ebFw5IS0nE7nlw9KIudIRUOIquqIAY0xFuwUEZHUdp1vAsGxcxJBTFAShQgU8ERQDM461e6EAKioaFQJQkLeeVKWRlRQN8E0KGJlYmLH5Ih1frQkVoIjJlu6QGBip0QhhiDiCg9m25ybHIcQyYHYsXNQFokxxCBxMpnYgjqTHEFaf3ZTW2SojTPFGENEVIpCxE7ZLZarGKOLEZ6TfW6fNEDPhjyeHjcnUsklRhIh9tu7Zy7vX1yu6lUTSTVo45xjbU1L9QzbNh4AHEiNo4koadBanRMicszS6RM1RRJyzvddbKVDBOBJRCkCAiaBC8bKAC7bDATLhhIms5GcF4CJTMuXaGcvwxXO2BOpA7EoKZSEIoSEFMrt2jtHnrx64xJJL245rRKxV1U7gwgEOAflGEMtTVg1vuDp1rYrKnT7VZxi9Zo/EWIAsCvsfS85f9vzz83s5KBpVZKicKb+ajrqJ5rQYSWFQCEajfJVm6axhWHodFAARNTu/5d5Cto54ZxatNu05I7dt5uWiyrZibftGWASoASxrfQs1qwKJlENnQhJUt66iq79pFkQs7qWW9s8MdwoQEWhXcjOOQeLhjELswaZTCZnr7+emaEKSnHVFy6UO4dGcZEXLE3TiIj33jnSJpBnbWryBcS2QxaoQtsUbxDA64y1BY3rDFB01mP/2VUcdby9md+ndE5Kq6NDFASwa119+acVG7K9euOx0x0H6/uQv7RLYEdyxaavInAOMYDtOHuKURTMzDnddE1vPhe3x02+zv9q0JMG2L8gCjT2q08TbgitEbKpHcLJ9njR4cm99jX/PsZEFJgVbOqgPZ6A2D+4ZoiM7hwHk5G/OX21nFtmQwyxXyeaq8EN0Sgn9ipKCCKqReHruqlKH2P0zptIANBGmtNryPbjNV4jUAYJodXQFJGVVaMJRtPc7FPbUwN5/ZMJCtO4mAkhCiAMpySkrNReO/IKIbBCoGS/pvatJ1BWRHtq4ydIJAIkrKyspCyIrBwRbRz2LkRERE8epKCOwtiJ2ooP2EawV4kbdNqZh/nkr44dKth7Z3gsvBczArl1sahqOu9RO5YGscXBrGJzuPfEAE7bbXgYIMMrCQHUnaTX/1G7D415vql12bE69kJKSkrcfoIUHAU2CyJA0mIJBIjCcgBIIQLuElJElZTRhpwU3UlS7ABS2wTWdrm0BdVsySlkCyUcuW69uypFADGq987gKlnO/kY0bPyJYqjbq6HL6FhKUlaCBHWFeQlTNvAgNKKqsJU2na62oSUCaZvZAaOTEaMYOJm7CkzpWpmUEKndPpdEpbs22yVd26eJthFjuzLLoMypA/TW8OhmBrfW2g0hOO91U6Qtp5ssEWGtmuHmpNqaUX3OwTbaWXaa8rFEeZysxib5sfGToYDw4JTWK3+etJzU36IZj1pXm4fvP5anWTl5/KbTackYAY1lTPbipEFtbOiYT73ir+ufaJl86tuVP4GrxeLpvGB0/IhPWk6V19kXNssN4xnRVds0T19g8p5iap8MlUBHzS/8ecKS5pWuUcOm1l5AUT2dr1PTu44BtKRPHarKx82pa5mnV080lGniV4vIE3bmG0U0OC1uaIBz5QxDPQ2Z3MVIjhwzaKEXmkUb+6FXavM/YKEWDtd0hM3/AxlnRDLay2rqAAAAAElFTkSuQmCC'</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAPQAAADrCAMAAABpcUuCAAADAFBMVEULCg/8/PwMCxH+/f///////v8LCxANDBL+/v4LCwsODRIMDBH9/f37+/sNDRYDAwcQDhcIBw39/P8QDhQBAAMNDQ0JCQ4REBTs7OwMCRYKCRQGBQr+/f4LCRATEheqqa4XFxsMCxb7+v739/eioacKCREZGB02NTu6ubzJyM2OjZKY/f8VFBoJCQm/vsNMTFGmparg4OX19PWQkJVQT1Wop6xxcHaa///MzNEnJisGCBRWVVpaWV5wb3T4+PhKSk0SEBf19Pr49/xSUleZ+P8HBwsFAyC8u8ANDBU6Ojzj4ufz8vMMDAyenaELCx3p6ekHBwcOBxHW1dsNCxMDDg/5+fl5eX1+fYELCg27u7xGRUqEhIj8/P8NCSZ1dHia9f9fX2JMTEzS0dcPCA4hICbGxckHCRnFxcW1tbcQEBz+/v/v7/AICw6JiYyh/f+U+f+F/vaUlJQSBg+amZ0fHyGS/v2T+vplZGnV1Nhsa3Cc+v8EDgeVlJqO+/YJCgz5+P4yMjUQDw8TCB4IBTHs6/AFEiKR8f9vbnLX19ug+fxbW1vq6e4SBhWd+P+C7/7q6uqXlpsFBSf8/P77+/8DExEXBhdnZ2sJESskJCcuLTFE8/8dAw+gn6SO8PaL5f6U5/OZ8/SN/P8iIkGW8/2B5PsHEBYGFBxAP0Q3Nzfg4ODQz9IOBRQOBQpPTlJLmcMXCg4RT4B84+5t3Oqvr7EcHTkSEyRcwOOK6vCL0+5/+fA0f68YXJcWFhcImKfj4+MdBid74OlHkrOSkZZGdY0EssOf8fsEcIwJQZpY0fENERRTrN58zextveouaryY6P80VnuAzv1Eh5MRwtRY8PaJz9gpc5onJlErPGEALWIpWV6Uk5iAweFzzfAWXLUeX6V+7vFDhNZUsMZZ5uwHd6J16+Ci6P5XudYraao0MU3b29tWldRRfZRCiMGo8/4bCQQCh48pOE1jr9RNnOcZbrY1ZXEsfX4SgLtmnt0dOG4AJy89oKY2m9YqpMhowvwlqZo9ues8+TMIAAARkklEQVR4nO2dC1wTV76AEwhJmASGMHkIIxEEomJQitqV+IpKUCpQWEAoINCCPBS0RXxXBbrQdhctKiBc5dHyqqJApYALVi+6rhXU2ttqbX1U925t62q7rXfb377uvWeYGSRDAgQTMM35RglnMjPnfOf/nzMnQwgsvgXCGu8GjAdQ2lKA0pYClLYUoLSlAKUtBShtKUBpS4HFj3Tnc/h8oZDxBFs3zM2sbUjiSBw5AHA0PmdEgGq1YO5Gr6fLNrpxpNgf50gUraniPiFHGOkeqUNaaMcXui/ksNkjayYToo79u5YspqqfaMceoS9lrY2+p4eRtqYgeyAujiqu4bAX2vEHVdInzeawIwe3VKgb5oagQ60H1k+EmW1nZzdMgkVSDJNH9Pr+vNINlWZxzM6gTQZJ8yNXRHIWrhiulfoA3dp3/P0kk9lEFY9jpCeiBmXDAPREuj/ia8iHXSQggTn8SLaOSPOFoL/tFo4yuznW4ASKA7YDO3fNvsmT15DQsVjDQI+FPskRSoOzmTjVljzeTWgn1JXekQs54B9n7VpGhumzZOxPnUj9pxV78uTJILtH2Idr9mmzhvE8vX4YaXogo9XpURUMVsBj8FBGSHM4vtO85gWSxLxoEDNnzp43PzExsZRkc+LmrfFRmV6ZsRRRJLEMMknOzGEwSRs9q5n0b9aalrZsRupqmtTUaS+dcteV3mx3O3bq0iA0lERsKCiK4jhOF6QikUijwXGUZMBGWug/ls7NmOv1QGyoEUmJNhDgod6ouCz+yOBIE4l8Kl4e6m07KqJZJDwSRK2WK5VKV6VcrnbAECtPw7AKJ6HL4dplF9bQ8LTZCaS9Q20Tp7kvjCSmDgMHMrZwS6JklM46pPusleARwxCelWHQkvrKw8CQRuQncyVB4jKvLc/7AmfhAGm7hZEzYkJzJUaRDndwcOizBo8O9svDl9sbxHIKPeXlyNAwpAW58qAgeRC6dNKWCXZgQGMPlLZLC/SW5RpHerk9sFbL1VSDHQyDtqTLyxllbGgY0lzvUDT0pCLo3czUU75CLWl2JGfqu94yI0Xaabkb0E53cHIjsDdUmkJf2TBpLNc7KEgizy2PeuHbtXacx/M9MJAJgXSoJMgo0lbOzs5uoJFu4DEcSBsZA9NbIpGfDArKLY9v3TIhcuBAJgTTtLQcsZEGMkLa2cnN3klFPro5GYQbhZ7ycAMac/T2DpKclNhKyksPHVmrJc22E7q35ohR41yyrFSefbbOnipS3tkgaEu67MYoG3bJ4spywSUrNLQs8ZW5K7SkwffstBzUUEmpSMriCgT9FVCro7fbJrEiwg8ePHh0e0SGuqQ/VlR+fvfdwYMlJc3NavWqEIL8+ogM72hnVUq6/YUMtO4CdbThLsgjQypiCXhWLJHf5uBpv9tlbWN66dziYoG6JJ3CnnL/7rvmZkIaK1wV4qRSqfLr6y7kyhxSUuxxjaCu3lylt0dnFBd7ivCd2zVHjzY6URGmExTDiC7IzdVkhLS1pdfV1dfLZM2FTikhTvjR5ubmJLOWRlxPRmAlJXn0OU1H3MqKGJBsbTMERHLXpaSoopOyspxCQvIc1M1JR81WOim6uDgiYudOXK5o+/uBVeRC8xpg794QEGbie2KNU0h62/sHAgJC0o8ebcbMWrruwgUEC6uvTwnQZm+fNAiwKiAAfLdqb4AKx1UBe/cC6ays5iyzlM7Yvj0rKzws7Kj4qDI9//P//cN/kfyB4gOK77///oOffvrvPr7/I0XL9Xyzlk5KalaGp/ztz5/8x2D+9MmfAJ98+OH//etf/+xp/5Civf1uy4GxkgYvqF8IDPUe4eQkeuh6MiIisgiSZOqSkPy/ffIyxe8p9tRW1u6pra3tLbhy5cdb16+f/6m99vjx47XEl5s/fGSe0jv1SNPsIan0X3f55qVbt2/fenRvTy1Ycfz4l3sKes1UGkTaxYWbkRFRfKEw7/TZL9cnJOwGS98XsOx+G7BjR0FBQUXNxfN3rlz5uauptqPi3Js1FV9WVH/60Zid0yaRLn4s3cduio2UdE3Hut7zdx4+vNHSVDC9pqqqquLLjg5zlWZFRHC5Lixw2apzAtIV0zeSbKKpTkiorr58+Vz1wxvn73z11c/nexJqezo779/cU1Bw4hcmvYOiurqmhpAGsf2BkL5/vqeyp6ul5XZPQcFl85XOCMsCLzcOcnkpq147u2f6NpKEhJqaBLCsB1QT6e3fcff8j9VVTS33apuu/ny/q6kApPfn9eYtLRFoSftTTJ/u779pU01NwbZqIL2uT7q768SNru4CMJB9Xjdm0kIgrf8egmH1RNsGZSXZ2iaFOYWAyfVfzq371TZymU6SkADMwf+KTbX3Om9WJFzsPl774GrvxUdN1TUFn/6PcSNN41d6aO5vdllPnjhm0iQgwn1Ln7S///qOTesq27dVdDzs7ajsvFrVfqup+lyCsSPNkN5vKmlWdHRSUkQGKX3gL5t+1S9Nsn49OYhPr6i811lbUHmx6XhtU2dH+6O7HRXrT5gq0puDCem48ZPeAZSBeUVFU8tF/47OluMFN2/W1P678s2KAlNJl4Fz+jdLTCidlJQUDSYoYYV5easOfPzy9HUkb1L4ryeym7hWn+tuufjw8p2u9yovXjzX21N5rqryxkchppFO3DDtd+MonUBK715XdeJqS++5E5du9/Z+3V3V3fVD1Zu7jX2dfixdtBpIO5pK2iUsLMyFkg458PHvNzLSm5h7E9fqmpqqzq5KIP2o8sTtzq+abv9w4jKItGmkk8dXev3blHXFuqqrLVfOVV26Xdn79YPLTV0Pupu6uz8zkfT8VwdJ84f8sY6B0o2NjZ5AOrxQpALSL2+k0puao2wjpqLrQYrvTjjRdevKld5LX1++cbvpq/u3v77a3f3xZ/lGldWS3mVtzTexdFhjYV4bkN7krw0h/fb6gpqChKoHt26d77p050rPpUv3L1160Nl59ayZSns6ORU2enqGhYc7OaWsOltFz8ToS9fGHcTLD2JFTfujluvXr9774I+d1693/bP93t1//OPzerOWDnN2dgp5/+yn/8ngz4D3AJs2VVb++8eeizdrj7ffvNjTXltZ+d7xu+YqneJUUggGs/A6N6fGxvy/v0/xzgCuXXvnnWS/97+5du2bb66989e/fvMZ4No18E1ymHlLq5xD8k7n5+cH7A0g/vXf9wYQd74F9ikBr70GygdSQlYF9N0MD1Dl5TWaqXRKSUlhYVZ4nUrVeDovPz9EG3sHe/tVq0Lst2/PQAMOhKSo8OJi8c50FZ7S5laXd7rErKXDItLbThPSKdo4e3p6BgSoVKHbFSoQ5ba2tuLttrnp6fVtKar6vMIxS28bG5upUzRc49cVJAlnMd8cwIR4ywRCvNInkBi5ATu9bSUgmN7Zv30l9a2B76AzoTTBcNIUViapHEpDaShtdKA0lP4FS9PokadluVTZuK2IpuZXUBpKG7W6QUBpKN0HlDYaUPopmJxQT3MZq43bCvroY3kTgQBKQ2mtZkFpowGloTSUNjojvInAxLg/lFfMezX1ucVab56D0sbmqZB2XWqR0l/MeG6xo6VJn5nxzOJ9ljWQKWcDad99jpYnvcLipGf1SU80sTRz1qEH5k0E00qbOtJQGkpDaSgNpY0JlO6XfiGQhfGG39n4cBnypsF1tteyZxZb75oIpaH0WAKlTQaUhtKWJW1tDSYnIsQ099mHOaq+OYyR75FBaSht1Hqg9PCbQWkobQygtAmkXfRYGBcD2wqloTSUhtJQGkpDaS1GeLMfSkNpKA2loTSUhtLDSMdZT52iwZAnszSp5BPKK5bOmvGc9oewWTs6Wp70Gse4NCAtsChpG+tdaTkixKKkJ1qvWdKa88QDmZlJO9osmVQuxZ7M2fyk3eeUsyxMOs5msU856wkHbzOTBpOTfXP8RFyLOqehNJSG0lAaSkNpc5G2sZ7s4zfqFxyC4ZsGpaE0lIbSUBpKQ2lLlqbLjLbRP3GA0lAaSkNpKA2lzVZ64n5Hto8fLhqd8/hK0+hp25DSINK41LKk4yxQmu/oaOdTho/S2VylrR3tPMrw0d4YNFdp6yVAWmCOozfNKKQdl3gk4zyLkz6UjJvldZpmFNLWvl6uLENP6VF+uppx0dNo5jv3FLreMQiloTSUhtJQeryA0k+PtBpT86TZMdksF15OgwJXoA0zrVBNmRhriFFM8VMiU8pQTI2oUbVcwxVgIqnR+6VPuu8DkLU+C9ik0iwXlkxZ7pWZLE4OfikKEyvTtqLJiFhR9oWHMipWtMhnKY5qWJgIYXGVXFwpN4k08anPz4ylNCZlaTQrg3NwP4+5RUrNlKnHlPJsuViQeaYsKja7vGiRzFUuUmarERam1pjoTRyuswd96rNJpV3UIGnFxzwa0KWZrxeV47M3LEib5eEzX+FVFJU2tShx0rLWDYl+iR5Frx5DUblCbRJp5bFZhLTNWEkLMJlaaVUWvBnLjMqZM08afEZQJijfmpbj5RV4Jiq5YVbplNKi+aXxDbNWlvEQE53TyplgIPMdO2lMwNVwuehKLz+vRPWZBX4+82SBMbMTp03xOgPOaTxw1mw80Gv+gqiywByWSIAhJpGWLxpbaRcXkQhTqud/sXRWjHpz5rxJOZlpmZmx0xpizyjio/CcQzHiKV9s3RqvFItkCgQVmURavShzbKXVLhiXpS47dKi1HA1clvZq2bJYsdgvLWZlkV9mLN6woYEVGFsavzJbIOOKMIVpRm8d0nyh+yuuthIJ9Re1onVLPuFvl8VuiU1Gyzye2ax4dvWGzNYZU2YVZS9KCy49MxMNnLU1/lklIgJDt5F/h00gIZG9mJl22J3PGWNpq+SZ5Swcz4kpRxWLFsWAmUlOA569qKE8R4EqAv3KA+U86S9OmqfBNNxsBMWVIrFYoRCjchRBpTjKE6MIV4PiiAwIIwKucSe34y3tiqCoUolimEKNymUoz5XriqkFGplMCmZhStAniECA8Ix8w228pRENC+fKcZaGpXbl4pgaUyowxNUKU4A5m1yptuIKEETAM/IVa7ylcZarXOaKsdSoKBtEF5dKRZjISiPVCHCeABXIpDwMEyBGvk6Pt7SG5cKVSuUCVzlXoUQUGtANapGVVIBjUoSLIwINeD0GpjKYcWwpxlvahYtyEVwpECsEGpEYESAKLg9VYlYIhoP8lqG4YGylORx2a7lEZhtEboGMDIwCDEBa0H0k0A2XQkrCsjIIF2o3F8Z6Rtt41GqubagkV+LtfbIhdsYpXzZ7gLTQd23qi6htrm1QHyyuNroDz6LrZVoNIy1Tk9B9JjMITM9uAkaTqb5BZLmyXNvQoLKlXjMO+wq1Iu2+YsIrfqEg0ISzhOHMFemGOq6UeZVxIdEnTbeaKvJGmFd0CKk2MStVM6Cz0NvbNlQcmvtuaVHq4RUDpRf6cjiRR6IayhQK15MnT7oykQ+NksEwm2NU8+kuHV16M9OOERANTqIJApHOVZQfi/eYdsp34Dkd6cuJXHtqbnD85kSdzB+aefPmD1iGZfYxkpmjY5FuYnTT8G4gIOa3WzPTtjD+QK+QzXd//tvU4NjYqJUrowaxcmjiGTw7NMzNFhjE6xRbGSzQroTejnjcWvp6lJfP6lMgu+2EWtIc38NHUtNaW+fMmdQ6aWTMofAZyBwfuuyhBx9t9G2mj0MUwdps0KaIIvhQX9Ejbe6ptZF8jnBApPlsX3eO79oJpw6/sWXLlm/f+PWI2ELx6ze0ode/NDRH5pKLgUwziNUzXliWmpo699vnfSNBZLUmJySR7u6+YHH31c0KPazVw4Sx4K3nh+YtcgNfPoN+aSGbxC5SN+4GsVDPUYzMwhHB1ivNGQbmjiPc7WlgUKNHLP2kFT1NjFSaL9SNvs3ZTxFCvdK0hZ7OEeo7oG6eqrTXH+nhIq6vM8xa2sj1jE/ejpBBkbYEoLSlAKUtBShtKUBpSwFKWwpQ2lKA0pYClLYUoLSl8P9vOYeV2+kSlgAAAABJRU5ErkJggg=='</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAHwAAAC9CAIAAAD+yI74AAA5jklEQVR4nO1923Mcx3nv13O/7AW7C4ICQAC8SqIokUe+SJFVcqyL4zy4XCfnvKgqVX5JKn9L/gq/5C0PquTRqVRk3ewojm3KImGaVxAgASyw99md+3Sfhw/T7J3ZXSxALKn4+CvWcjHb09P966+/W3/dQyilcDQiRyzPZlo/SYszxvgnABBy1HY+O1KedwNOgDjQkGItXvkGEjk6p4+mo/bzpDiRMZavakLl34Tx+NPhdAT6myxVOEnPuwH/P9KJcfrzEi+ZqjjXfxPEyDh6BuJl3GQaB/rRwJIkKQ8vpWPrJ+T5D8afgkxHRkfo+QCM4/RvgswfC3qSJFw1ZXSU74eKoiiKRClQSmVZYgwIkQkBxoAxJkmEEIhjGoahqqqMMcYYpTSO4yRJ4jimlLqumyQJ2k5YM6WUUorlKaWImiRJsixLkoQlOZSSJGHDFEWRZVnTNE3TVFWVZRmvB0EAAPzeJEkURdE0JUkSfrtYYRRFmqZhk1RVjaIoiiLLsmYhpsaajLxNiAVjDBva77umaUqS1O12wzCcn59XVTmKEkWRGYMkSRhjsizLMkHQO53OYDBotVqtVqvX6wVBgE+sVqtRFIXDFMdxu90mAvE+40MVReH4ItyMsSAIPM9LksSyrPn5+YWFhXK5fP78eewC/kopLRaL5XJR7BS2BMeVUirLMo49mqGzM4fGgp4kiSRJkiRhEwEA2wQANAEAkCSI44MOuK5rGAYAxHHs+77jOI1G49GjR/V63XEcVVU1TZMkKQzDwWDQ6/U8z7tz5w4yIO9/kiRJkti2jeByCPA6pZQQgpzLEQGAUqlkWVa5XC6VSrwNcRz3ej1d1w3DwJKFQmF1dXVldfnKlSuqqmqaSggkCcPJxxhTFCWOY0VRNE1l7EAKxXGiKCdv4I0FPQxDseeUUkmSCJH6jocQl8s2peB5ASLSaDT29/c3Nja2t7fDMDQMQ9d1Qsju7m673d7d3W21WlEU2bZdqVSKxeLi4iKCqCgKsq0kkCzLIuiIOG8JTpEoipIk6fV6/X6/1Wr1+31KKQ6Abdtzc3MoasIw9DwPACqVSq1We/Gli6VSqVarzc3N2bat65rIyp4XAIBp6gDg+6GqqtIMjOrDxQsyGs44SVKASapKKIX9/Va9Xvc8z3Gcer3eaDSiKPJ93/f9OI7DMOz3+/1+H4CVy+VTp07Nz8/bts0YC8MwCAKSI2ThwcAd2R7kYrFVqBsYo4qiKIqCcrzf7zuO43neYDDgMwa7IEmSqqo45JVKpVQq2bat63ocx0EQXLhw4erVK4RAtzsoFm1JAtcNDVObhbUzCXTkMpTmyDUA4A7Czc2tjY2NRqOBHOS6bqPRuHXrFnbSsqxarfbCCy+Uy2VN03zfQ/bEWc/lSaFQEAcVHwQApmmJApcPRhzH+D2nA7MqGvX23NxcFEV43XXddrvd6XQ8z9M0zbIsy7I0TSOE9Pv9R48ebW9vLy8v//3f//17772H2liWpThOVFUmEhw9ZncIjbVe4jjGXiETRVHkuq7r+r/4+NNms0UIKZVKURTdv3///v379Xr9zTffLJVKyEcoWHzf73Q6OHIoCtDY0HVDUZQoilLRTBBbQoAQgqOCY5BOrwPQxeZxJwglD8okVZW4ktzZ2UV20TRNVbVKpWrbBUppvV5nDIIgZAx0Xdc0XdcNVdV+8YtPBgPXdb0f//jHmqbGMVVVOUmYIp28Ih0LuiRJ/DMM4729xsOHD+v1eqvVVhTFdd1f/vKXGxsblUrl7bffvnDhQq/XQ2h83+/3+wgEYyyKIuw5F8pRFAVBwHmWQ4yPi6KICYQFAABNSbF5omnIGZyXqdVqfAJFUYQ6SVXVCxcuOI7T6XQcx5EkCSX7wsKpcrn8+eefVauVN9747sWLZ+OYSRKEYaKoJ+/KKKmGJJxHJElBBiQEBgNPVdVPP/kczb4HDzZUVe10enEc+3743nsfzM3NWZZ15849TdMgNeoJkdMaqKIoAIyb3imHAiHAGEW7Hnk8tea5uMPrB38kSYwgQmp9c/OfWzL8KZTSJInFwVBT7FzXtW27VCo6jtNsNhuNfcuyiiX7/fffkxVQNfmPt/+wtPyCZRlJwojEkiTmWoejNjK0OT0RnPUcdMYYQuZ5nmEYrWZnf3//k08+ieOYMQiC4MaN9Vqttri4qCiKbdsIge/7HFCR4xhLJImIF3kZNLHzP3GuH2rlsCPDG8xngwgHN7RF0HmBJEF7nKFVE4Yhg0SWZdM0kyTp9Trnz5//8MMPq9WqLMvFYhF1yTMCXZKg0Wh9/fubW1tbu7u7hmF0Ol20TE6dOlUqlUzTbLfbyGjFYnEwGHBcRBAliYgXeRnOquIkYIwhL48klEiZ+sVRERvAi3FXFstIkhzHMaUJGqxRFLle33XdKIqWlpYGA8dxnPfee+/SpUvf+c53JEmaBegKZ6J04h/8Gcfszp07X3/9teM4lUoFAFqtlu/7b775ZpIknU4HVaVpmmgSoKLjXhy3MShNMrjwdouUEcqZHuInB12MH+Co5ydHfm7h9dTbirkXIocyDsD29vb8fFVRlE8//bTZbH73u9/t9XqWZR0b3HGkiB1LEQcAuH379h/+8Aff91GA7u/ve563vLzseR6a4aqqlstl0zTRPOc1ZpgCcnDziT+yQQgrr4SjJspuTnmW54/A+kXxkvbxoABjLAxDHEt0XHHi2ra9vb391Vdf/fd///f58+enRvIIJGX6xjuD1quu67quo803Nzd3/vx5tM1R2MVx7LoudynRq4TUb8QCGSzGkeiLKjniDioXFxnlmeQoE2MQiVtW2EIEPYqiarXa7/fjOJ6fn3cc59/+7d+q1eosQFcgt4KOFgVafrXqKQwHFotFw4iDIMB4k6IozWYT+Qj9TJGhxO+EjPajuSBC+ShyNIomPn4IKwYL0XsQtagooDKVZyRM+hP+/0SgEemgQowOWZYVx7GmaRsbG08juCfQ2MiC4zhhGJqmieyM/d/e3h4MBq7rUkqDIDAMA9mw1+thMIT7hIgamigjCYYZn3M6HwxRfXFVz7lYBFrEndO45+IM4O0EAD6PHcfRNG1ubu7x48f4xP39/VmArjBBEadwSJIkbW9v37x5s1gonz59GpW7bdutVqtSmavX647Tq9VqACDLUhxHiiKnzkqmKkDtDzlZz5kxUx6JhwE4WNxCB8EuhJzU5qQoCr8iltF1A6UKpRRDxAmFIAgGg4Fpmo7TvXfvXq1Wu3379vLyMlckw3Mlq7SODPqE3+7cuWOZhbfeeqtcLqPsrlQqvu9jgEVVVc/z0LckhIRhKKIpBmBZKhDEdrOcbcd/ZaMMsowTJHKuWC2vGQcpP7183ydpiBgwDpxEURR5nmdZVqlU6nQ6W1tbDx48qNVqGGU7cZoUe3n48OF8baFarV67dq3X64VhlCTJzs42gySKg26vjR1TZE2SZVnWhn1OkoJ1AFOmfhH0cSSClRmV/L15BmTD2iItT2RZZuwgPswYS2gUxzGGGxkjjuM8ePBge3ubMaaq6iTwjktjQVcUhVLa7/cHg4GmaWfOnDEMU5JIuVx6uPlgc3Oz0+moqooLWpytMm4OpVTXTBiGSQRipBWY+Z4pyb+gBcLdpfzteVOVMYb+IK5ZAQAaSxgd2tzcdJzu/v5+vV5HBHzf13X9yKAeRmNBNwzDMIxms/mLX/zC87wrV65cufKqadpra2vFkl0sFnd3d9FB9X0/DMNCoYCcxWcu6isYZlhRRMAoTs84O/l7RbMnX4xfFMWL+IXSJ5EZtHTjJIzjeHt7+969e71ex/M8dDtEmXmyNBb0KIqQ2R8/fnz9+vUgCOI4sW3r0qVL586dW1tbq9frOzs7Ozs7jUYjjmOM5DHGOO8cWC+peEHiNkmeo5HyZrgIHMk5n6KiGzkzMuOhaTpjLElkVKf9fr/Z2kc57jiOJAFjzDAMz/MYY6ZpngTIWZoEehRF5ZI+Pz9vmma9Xr9x44ZpGoyxF1+6WK1W5+fnS6XS6dOnm81mHMcPHjzA9RpcGGKpAVcslLG3I13QDBvCeNA5lOPGg9fANTkMzxteA6U0DEPHcTDGu9+odzqdIAhkWQagSZJomoaT+FkrUl3XcR3dNE3DMHAdslar3vrjehB61Wq1XC6vrq6ePn263++HYbi6utrtdvf29prNJkJ/YJkJ8auRcnwcdrw8DgMPzGVYm1LKCBAGjAABAIlIjDACSRhRYCyhCaMsoTFNgDIKzPX9KIr6/X673XK6Pdd1fT8khJTLZUppu90eDBzLsiilvu9j4sZJ4g0AGPDKi1fsmKIohULBcRzDMIrFIs9T6HRaqiqrqvz48ZZlWaZpapr2wgsLi4unr1y5zBgLw7Db7bZaLccZRGFSr9cppY1GY3d3V1XVzHKESIQQIj+JI1IhAYTHGFCUMcZwdZACiymFhFICMpAEGI3iiCaqJCfAWJyESRwHoRcGkR+ESex7QRAEruv6vh/j6jZjkqz2nIEkQRRF1ep8u91WFI0xoqp6RoFndNIxQRdnpaiXuIOOXUWRzSHzPA8D7ujO4YRlqSJVFKVarS4sLBBCgCmY/XLjxg00hwBA1/V+v895XLR5ZFVhOQKAXq/H8y8AQOakqXKSRFHEkiQWVmL7QR8OwqUxT7BJkiSIkihJXVZCIE0zQQWGj8M+YsqRLGvHBncs6OIfIu4YeKOUKoqi6zpGtXA9F8eAJ0GgisfQM18L1TTNMAxN08KA6rp+//79GzdutFotAMAKS6USjDIEvcAX4c54syzNA2Cpsbi/v4/PxUfzOBePteEtfJE6TgBL8ufyyrFmdKGx42EYGsbMQM+bE6urq8VikaXBJsTUdd1iyZYkWZzsvAbssO/7aHWhqw1MYYz9y7/8y2effWbbNoanFUVZWFhA8wZnD8ZwJEnSDB2EwC9JQ/OO4+AA+74fBAGyLWPMCwM6vMqKt6iqygFFGZUOxpPIDO8s6lucpvhrHMeWZfH8qhMGfZRVAABw7ty5arXqe6Hruujru67baLDyXFFRLIw1ctAxtwQbres6E8KtNGFod25tbZVKJUJInBIKZcyU45FhUfOSYUJOFANeAGCXirwwr40LIr7ugTVIkiTmsTAhRoYldV3HL0mSlMvlWVkv4hQWTQjkQXfgO44zGAxs27Zt27LMMAyTRIdhA5kQoqoqQol2Cw9IYVodSnlN0waDga7ruE6G7Im3cOVRLJcEgHgsgfq+z6NgKMzxVxw8HqEUw8IwrP0wOMy9hEzQAuUPXkeLJc0efYYpGI7jYDbsYDCo1+u6rpdK5UKhgNFahBX5WlVVLn/QysQkCwyHAQBaMsik3W4XLaJyuZzHBQBwVmVWLRhjmFLLpTkHjigypMunnA+YEIInQj6eGDXkOiNNM2FRFNEk0TStUCigePF9v1CY2XId778o6SzLYpT0+/2trS3GmK4biiJXqms4+5AjDMNAXY9CHJW+pmk4GJ7nFQuVu3fvYqKhbduY6YlynwhhdI4aCnee9MxXgrhQgnSh48CalAiMWrN+skaRgn6wskqGrCNI1QD6JQRk0zQrlQpjDAMbJ444ACh8JvKJJssEANArW1paiqKo0+lsb2+3Wu1Sqfjue3957dprKysrJE3TwHxXTEe2LAvZeTAYYJA6DGihUEB7BkVEr9crFoue52XCv5DGsGA4gwVZGycWEdaMxnE3vx0tLhw5dpDALXt+hAkXmDkShiEGQh3HMU2zWinPz89HUeQ4Dib+5V25EwB93A+2bXue12q1FhYWzp49OxgMHj7c3Nx8+LOf/ezatdfef//9N998c3V1Vdd1NNdwgdF13X6/3+v1kiRRVbVUKnluhCIbcUEJHkWRruscI7FvkpJdbBILcO+BX0ELD8dDzF7nuV08CoQTxTTNMAwTShVFKRaLYRj2e71+v29Z1uLi4umFeUmS6vU63visQ7uqquKaHIqFubk5y7Kr1UoUB3fu3L5+/frVq1c/+OCDb3/72xcvXlxaWsJkfsuyUIZ4ntfpdDqdjqEXwjBEAY32vq7rqGxFTiejCNIQCqRJSCznPKMg4pEWbmVrmoaqhSueg7RszQSATt/BcAUAFG27XC6//PJL8/Pzikzq9TqGMfDGZwo6ZsgjI3c6nXK5vLi4uLq6cu/+HU1TkKn/+Z//+aOPPnr55ZevXbt25coVQghKGxQjAFAqlRiVUTdiXB69Em5yiKDn5TsIDI5BNCYs1OVHiJuqkKbeGYbBtS5q8nbHwfBGsVjEMSvatmVZp08vMMZ63TamO6AVSwiBk07ZnQQ67xhKRgDwfd/z6DvvvKNpShzHjx8/vnnz5t27d7/88svf/OY3mH6+sLBg2zYhpFKprK6uVioVRTZ83y+Xy5ZlSZKEtg1mKaF4EaU591MwnTwDLgj+BP/kjgKizK3+Xq+HSwKEEIwB0HQvh+d5IYGFhYXz58+fOnWKMOZ53v7+nud57sABgEKhgImClFLUcM8IdNGYFaBnQRDourq0tPTtb3/7pz/9abPZ/Oyzz375y1/u7Ow8fPgQs9Q1TUOU4zh+5fLVZrOJIRe0fJGDMgY1Z3AuRkRxj2qQR335YAAAyBJXsNz7T5JkeXkZADD01u12MU5r2/arl1959dVXv/W/rhWLxe3t7du3bzf29pIkwWHDCAyuzMRxrCjSLAyYsaBzJw09e0ykLxTswWAgSYA8W61WFxcXf/rTn/7DP/zDzZs3f//731+/fn1jY6Pdbnuet7OzU6/XH248DsNQ13XMxHNdF2VuZvcQZ2fKDgIAGTYXbVlRu/LbOWroi/3hD38oFArz8/MXL15cXl4+d+7chQsXFhYWzl948f79+7fWb66vr6MJEMdxq9UqlYq6rkuE8c0kJ471VKDjfETfmlI6GAx831s7u6LrqmEYpmkSQhzHAQDLsi5durSysvLuu+/W6/Vbt27dv39/Z2en0WjtbNejKCqVSowxVKGQioWR1ousKhmZzsdeNCI54pHvq4auSrJqqUXLtopW0bIVXXvvL79fPTV/bnXtzNrZF04tmAVbIVLC4Kvf/ZZSijbr7vZ2v9dTFGV5eWlzc1NRDuaZqqqFQkHTNM8LZhXwEnkHAHBHqKIoXMLytGZVVYMg0DRF1/VCoWCaJsY/Hcehabra/Pz8G2+8ce3atcFg4Lp+Y781GLiNRmNvb6/VanU6nVarhT4qhirjdF+LLMeEEE1TdV0nDFDvobCSZTnwfB4dxIumZVmWVa3Wzl04v3rmTO3U/OILC5Xa3Hy1dur0giLJqq5piiormkwUCiz0Q8/35kolx3FYkigSKRUKLEk6nU7f6RYLVhAESZJYlhHH4WDgFAqWqs4m4DXuBz5zYdhEE60OdB0RlMy96U90bW0tCMLTp0+fPXsWo4Ou6w4GA8/zcCsQjsFgMMBJTQjYto2MpqqqaZo4tBi5RBMQrdJarVYqlQqF4tLSUrlc0g3Vtm1FkTRNIYwyBkATxhRGYybJyFlAGWEgASGMPQl8EXEd8cmmYUJOXoUiHQ76SCeFe9jcH8E9RLzFeJ0xEoUJAFMU2TB0TVMZY7ZtFYuFTqdTKhXn52tciPHoYKlUwl0pKMRwD2qz2dzd3d3a2mo2m7jdEnc24SxMkoQxRVEUXVfR3hAhE7tAxrgF3APgXeCi79mBzsN4bDggB4I5jHKZpPFrbnWgsEZN4LkBeqE4eTFe6Lou7hPDIAz+6nmeLMtnzpwpFAqlUomLLxTo7Xa72WyiIYTCDQeGUobzTDCxDpISMq5A5s/MAIjhBxgOZD470PMhJEjlBrfP+AImKh9uX4pyCfkRFZSoDPf398WRQ87VNK3T6QAAyha0uDHgVS6XO50OahrceY2Lf2fPnrMsyzQNw9ANwzAMjbGEp24f2EiAm9YSPjx5e5+Dzn2r1Dl6tqCP5HQpPSFBdB2lUbHsg/UaGtFRtLi4iMYoyndcUQMAy7LErpJ0QarX66F3TggxDKNQKNi2rWlar9dTVZUxKiskjmPGVJx23F0ihEjkIBcsb6GKLAKCeOGx5VnQVKBnZEvGgsaS4l4h8UYAAEIZJOm/g+/bO48g3eGIvoluqKZplorlYrGISQa4yoqzBJf6MACLQU2cXmfOrBQKBdu2cNEnSRJKWSZ1IjNZR0LPO0jpE+n0rDk9zwL4RVwwA0FfIeh0OKOICbvcIR1IXGPCnXloLyL/Ynncg8oXTnl4gK+L8pgtHj8QBAGmI6Sp65IsE0nYRcYYI/Ak61rsYL7XmbE5FqSH05P1Q/4YxhiljIc+eJocbytKFRH0OI75dObXufDhSgk9bHQC+Z+odflpIphGgGxL0oQObAYTdo2Ke2ukdC9Lkp7cIe4dgGHNL8pMrpMgTZhladwYBzWjn9iwCfdUoI8k3jiYzbDnKxTZMP/nnxJNJdP5xWMBQSf8YyxhLEE5xB0T/iDx80+JxnK6NJz3PTsBB0NZokn+4uye+7xoLOiic5RX8SdLnKPFL3+qiMNkTicTt0ycLI00TP9UcT8EdP5nXr6fFI0T33+ScCNNZb2IV2ZB4xTmLDld6AsTQXgW5+BKcHCw0BP3UpJAkiAIAsuycBOMJMmESLiazNIQCpfydHjDJxGSe9BwFmqWMkYRt8R5qISku35FTY4euTSc+QVpkAuztHmUhqRLrKJjnLaHRRE34bECiRAJmATswJ9KEpYkDIPTuHSISGVs9qcBfZJHyh8wQbyeuOQd6RNMFDvImyNuedKwlB/Y8BehGDDGGH1iKQje4jNcI4WJjvJIrNmwEfI0lHGS4eijmy43UkIIv5nHOMWVv5E9Gn74CdMkmT7SA840LtPcDEseD30ynFKaeej01Y6ELQO0OABcTgq3H6P5h9MhB6dBbjqPhJvlpv+xmZ2kCw5iLGjc3JqACv+JkCGlBaMYRewUzDjaBdOvkeZZeOTEzCD+lJyeYfZ8S45B43hIfPRTPuJQmmq/XgbQkcIkf8vTIy7y5uTHjWsAG1KkjOWOehAnhCjWZor7VAvTIwucFOuNfPSEx01ZiTgFCWSXefN+35gajtbyKWmSIuWnh2P6rqZpjDFuTYslSbqZKi95R1oIvIwoZCHdoZK/hZfJsD9ND0bHB+EKKqa+iguKvCXi2os0TLwLGOI3TdO27SQ5mVfjZGgqB2wys39zaPrZkBlLljMfsdiM1OnhJmNGqs5CnuSfO1Km8wJi+SOJnUwvxO6IM0xsyQl1a4gOUaR5+4F/fzbQj3y6aFaN+iQZQGEMa4vcnVm9mylN5RxxymCd79uJUIbNIeuwjOW+cVyfb3PGI83flRv0k6QjBNUyXDMjjhiJeF7UZjRwHruRUIqFOWtDulADsxQpIh0S2h05kTM0owHISxixYZDDN9Ok/Gf+T5HEpLtZ4/5U4eOjwC1N9zl05utJUZ7fxanDBNefP3em0CujQpcEAJIk1jSNUur7PiEgy5gwryTDR21nmp63sikFSoFRwhjBT2ASITKjCb/CKBx8pwd5Qpm0SC4KeMQ8Y2lALhadKcDbw/NhSC4bkAfxhTphFkL0aJw+UkRCTjsNmV9MOliameZz/HOPKsHyAiRTybi+IBEhKfPE6RDrZZwNI37nPJ7HPeOjsvGKIVN5XpFOeXumKjYswUdahCO7kyYnT/moo9G0ijTTxOOxHkwHXMaQyLPqNI+eoBIzEzTTHSrkpx+he0ehqTxS3vkJjSbDlEm/PyqJkE0QEZM6JgRVxL6MYxqxUyQ9XXJGnH5IlHEa1LhAgGGhhMTY6IDX5Dozz82rzZHF8u3HL+Melp83onh5Lpw+WsIcW7wclfKcDsMwTWaI/C0jpZP4K7eU4HntOUKaXj5khM+xR+XQu6asVpxVfKJQOrQzeALN1k4XjYT082DAMZNE0zR8NxBMfP8KY9lz2FPJmH2dBfaHp7Jkuielb2iQhRdVQnrCxcFhbELsk6SHkZA0IC5JUpy+jgx/YWxIOUnS0M52LMn9D1mWgyAol8vpoYcnD/qRZ1CefdiYXIZxM/oYNIHpxj1xZLF8taIIHVngaZo9jg4HPd+lkYs7+TApE5K/jtEyftc4sy8zqCwnuzP1ZOrk1c5Ukoyko0UZJ8A3gd9hFBaHPgtywb9x0LBhdQK5YZ4wCQQra0Rod8rWHpWmSiDNNDpvF2bs33HQZyofR2xYIhHB6hfpqF2d3CQYxVXPLZ4uQjCZVUf+KjL79M3Kj3He2clI5JFfMrVNpnwznucixjguzoRWJgvfp23o8Mp9HvdxgkhsPAgByzzcR5qOT9WXKcuJLRuJe6aJ6Z9T1I+HUAx/MsbEwylGCjScACOvTujFSNbOs8XsEAcEhbEnrUH5jL4YvqoLADRNxybJsgxACWGEML43jpu6jDEACTO7ZVmVJAUOOHR49zGhDBLKYtw6DUCBUELwzVpMkoEQBoRSelCASAz/4WAIw/wkDs7SQ1HFF3FkQCTpbh7KD8YUpghWwhuJ21nHvF/vJEB/GsrMzVH8Mpll6GGfx+z3ODdiZBeeXvodiY787gHeRPELPJm5IwLiMNyxk+3h8NNHhCJGQp9nkfyV2UmYY4I+jsEzeBJhfx7MjKdy2E0F1sipySlVyyfRvhwd5y0bbBRBzrSHnPARa3jKdo9rEq88b9uIYl1sRqYXnJ6/9cJp5MxluRc951EQbzyx5ucqnMy/mWKH0jeF08ehloL+5Kf8ysMsZEueMmxBKRW2eI0dnkyBmZuMx6CR4iXzK4xH+Rmgz8bEQUeWnMhGJ09PlgFFe4Mxhme+8SNykMSjuLAYxrj5r9z4FRNXaHroMAhnbHLxyk+PYcJb0sjQq8GpeFIPEzZlSenxbDR9Xy9/Ci/JezQOxwMvK339IGMMX5+p6zqlTwL6h3peRwD96asQ6RjCRJwWLJdTmO/qlN3O3CjyU2Yi5sXOCeI7kk7+HWGQg35cD0eOUMbqmP5xoqjLADdy8PMCMC/TZyQGT4zTD5Xj4k+TC+cRz8DxBM3x9Yxj1XGcToZP0Z4pp89KvAh8N8JIEAtnxItY1bhKMs+asmGTSSw2U8RhRpw+Ep083CO/QA4g0fDI8OChUOaryrRHBJ0J69T8uJuTwkekZ3HSBoziynH9GYkIPVa4b8LgiV+wsCjE/8eLlzFqLNOAoU/GWBpzJujXnEhLOND5kmyU+JodjbVewjAulUr4fhTMAImiiFJd5AUmJOjy13aI3ZMkCSBB3Dm70QRoAknMgEkEZEojmoCsSIySJGFJzCgFmgBmsjNKsHAUJnFEh4PgQ2IhPV4GAAgeacpB5EtFJE2AZsMHk/FDZ7mHwdPqMmaMqMNPHvRxk2ukoGSp34TexFB++qHEJIDkqBnr/OYpyhw0e9yXcfR87PT8U0XWFsGl6cspOegTpvOzoQk6Y0Kr+K8ztV4O4fSMqTCyJBtSfUPFRANgmqpOlvJPGW7qiF+fjSKdltNFVZPxGIc/s4vIkApQXuezZH+RFfKIZ1oi/vQ8OT3TJrFxAFmmBiHBOlMSnjmnT+ZlsQ153nqenA456PP6k0t5Dnqm5GyafTQSmzGyYWJQ4Rlw+iQLYeSDM/ozY6WwYTqeU3OCNJK1D6XnxumZiDlJI86ilcrT1SmlURQxxsQ1Gi6CSPrCbHEM8AoPpsvpG7756ywyBytygxrNJA4KGk74ZxRFiiLJsoJHSFJKAfD96gdn7fP3vfM+iiet4yNUVQ3DsFQqUUo1Tc1YpScydw/h9Pxojxz/Q5kiowOOwURTigXIKZKR7Rwp+sTCzzMMkHfAMlNvmpmY17rHoMwE4o/Oy+tMy/N6Ml9bpgwZfq34idMRNu8yYVknX3hcPRxxsYfH6A+P/41r58g251sCoxDPl38+oMPwQqXIQRlteegzjlp+mqr4n4fOOSzPNX+eCWDY1WCCupqR8TWVTBeZgjeamy4wUXSMRPzpmShf57g/RcSpcBazkIg6NFQC6E/ZxrF0iEea5x02ig59TKbYMUAXG5OHMvNdbGfGus20ilfOBMNsploUpom95H86Hu4g+HvHaOj4liSUUkoT0VmDYcZPvyaZnyY0e6agj51CjDHbtjHpW5ZlPP6QMYbJJgBSkjDMPWGMCcYvTZKI0hiT3NnBW4sJY8AYSJKMR7ETIimKyhgkCUXdgWXE3E9unCRJgm+95xk4GfsahsOfeIU7AWJ8nLGEJ+rg7n/uTmMNkiSFYYgvgQ3DeEpmOjHQxwmWfMlxLWM5cT/uu6gMp2r1dDR5Ls4I0GloWpMxM3OxTGb+jn8K4/8Yo+Kfo/6dMGVwz7MCpHJcLPZ8xAshQ7Zqhl/G8U6uWDKycJ77JtjXx6ZxnJ75nu/ULBoj0iTQM63MM/XkyZvhqfwVyHHcCZLYWnElaxq+gVHu7gnSiaXVjZy8jLHhNziPGDlOs+B0gCHEM80Y16pZm4wTrJdsfEpsyjg2gRzuAMBfRgqEiv/wSvb6iVK+Mdm2jRmM5yNe8OnjkJ18ZXLJkeVn18MJDx13caZsDhz0jKGChnC1WiWEeJ4HADz3nFKKsWkmROMwng4AmaMNmRDH4JF3ZC7xfEeanuXCq+Wdx+STKIrEHHZCCH85NVaYOYiGP11sAO8F7yk/+AVfPY6pMviuX3wZ6WxBz9MEj3RC+ZE0gdemp3GViJGsPIkNG1kgL+6fAR2eDXBoJGBcmbQYvmg0EV9Dihuuh/8B36crsioIDDtOGiBl8m3SSYOTGIiQCZ1fa3zGoB+B01lOHYlXRnqwkJvvh7VnbExqGsbMtFbkCZYLjT1HTp/KIxVnKP8ysrmZksfuWP6WcY/LN1J0ocV7QQjRPHugRZoQZTxCOiOMWh7L4D59m0ZinZ8u0+gbHuvND+FRqzpBOuRcxqc0V0W8psQ9D26+qpHXMyRaYjz0mHEyj2osnBQdtjpy4K3gSXmTZPqJtQf9ppwrm3m08J1SmmQAZ4wRImPYmVKgDIO0OBKoyQl2BwF/xrBLafDvyWoWWseu66qqrKoyg0SSgUEShF5CoyRJ+BZOACmKkjimAJIsq6qqK4qGR76oqo7v80wShlckSWGM8HsJkQmRGSNoZUiSIkkKGtF40oskAZEYurLYAEkG8XR1ShnmtwCh2DDGGK9ZkpQkYXF8cFoxEEpZjNxzMAcgSZI4oREAk2RQNTmhkSzL+Jok3/dZLvQIJxQLG3IoeHWUUl3XCSFhGHreII5DtPmSJOKNoGl6NO6gxerYsO7ic5x/ilfG0IjzXqZXDGmZoVfBP2mDGHIAGPpM28bPsJckIkkzmQJPXsUoeqS4kwHdS8RU13VVVbkQ5GdpYStVVeUeI68wj/KRGIQPVR5rURZPkPXi90zbRj4us1qQzomTpyxH8MdTSjVNsyzLNE08hBVPY6WpgBDfSIyJbWJVPFEt8zwc2gk8m7dQ+cQSRy5fc6ZOcRl6ZOKCWDkbtuL5GM3IqlQgp9NZGq/QNE1VVd/3W62W53nFYhGXEBF6IpyfhauLIjeJGgJyjD89sWHCi+NctpGF81dAQJxfyVj6/K9Z4K5wiEGIRnFuCoKg1+u1223TNKvVahAEABJKfNu2C4WCqqqGYWiaxpeAsV6+4DtSvEwpnTPMyH/KqLJx4oUNG45ibfnC+SMIj4DiEUnB55F03R15VpZl3/c9zwuCIAgCDqjrulGU6LrueR5jTJZl1Lf8vY1iP0cie7zOiIw52WWDUYM0YVTyd9EndIyWTkUKEyQvZ09Jknq9HiKLjJxaMl4QRKqq9no9VLa6rluWpWmaaZr5ST2u29NwOuRER+bXkehnGiBKzsm1JQJhRjUGq1X15N8XoEiShPAFQcAYM00TAG7evPnll19+9NFH/X7/7bffDoKg2WzW63Xf96MoiaLIcZw4jtvt9oMHD65cuXLt2jVMj0GWx7mCGeiMMd/3TdOUJGlvby+KInyvKaTaWDwlhisGERRkhSRJsDxmrXDTNooiWS7gd5RycRyjNUXSTaG8niiK+HoAZy8+eIZh+L6vKEqj0dja2mKMGYaWGZ4p2eUQ0Gn67lR8KgD89re//eyzzz766KM4jt95553FxcUHDx4oirK0tGQYhucFjUZjMBjs7Ow4jtPpdMIw3Nvbu3r1qmEYtVqtWCzieFBKi8WipmkA0Gw2CSGKopimyU+Un4YOLTmZ3/mfGZWQL58kSRAEhBBk8E6nEwSBqqqzyGh84tTgmDebzZ///Ocff/xxFEWqqi4sLOzu7jLG1tbWXNd1HMcwjPn5edM0HcfZ29trtVrdbndnZ+fRo0e1Wu38+fMXLlyoVCqnTp3yPC+KomazqaqqZVlJkui6HkURd/ambOI49TCypPiZmTRc4Ij6nAtxSZKiKNJ1fTAYKIrS6XSiKOLRgpMlha9joVf59ddff/HFFzs7O+fOnSsUCi+99NLu7q7neSiyC4XCYODVarVqtdpqtVqtlu/7juP0+/3Nzc0zZ8602+1Hjx5dvHjxxRdfLBaL7XY7juNKpRKGIUok13UHgwGXMJMRFOGbsj95xDM08imMMVVVAcAwDLSVUZ9J0mxMRu7gSJLU7/e//PLLvb295eXlhYUFQoiqqpVKxbIsVVW73a6iKIZhoSmJoiMMw1ar1Wg0NE3rdrthGN69e/ePf/zjxsbG2bNndV2fm5sjhAwGg36/b5omF9/TM+80oGdgFT9hjBofWfPkETopUsTGua5769Yt27YvXry4tLSEaJqmWSgUkiTp9/uqqgZBBGl6JuqrSqWi6zoWJoSYphmGYa/XW19fL5fLly9fLhQKpmnWajVU2ukWrMNJRG3K/oiAktz+hQmA4ma2IAgopWEYGobBGIuiRFFOXqgraLpws6HX6y0uLqKxcfbsWU3TqtXqgwcPGo1GkiSVSuXRo200zHVdBwBKqW3bc3NzURS1220Ui2EY7u7ubm9va5rWbrcLhcKLL7548eJFPpF52GAaEKdnugxrZ+7F75l1USKQruvtdhvfeVOtVtEFOQ6oh5HCY1v4hRBSq9WCILBt2zAMx3FefPHF+fn5R48eXb9+/e7du+fOXXAcx/d9wzBM00Tt6jjO8vJypVJptVr7+/uO4yiKUq1WC4VCu92+c+fO7s5ev98/NX/atHTTsF2vzygBoBOOvZgO6MNNF5jCS0BByqGXZblarZqmqSjSLISMgmkeyOy9Xm9tbe3rr7/+3ve+V6lUarXa5ubm1tbW66+//vbbb3//+9///PPPr1+/TggzDC2O4zCMAKhtm5ZlRFGk6+rCwvza2sr8/DwA/PGPf/z665srZ9YM3drfb/zut1+9/PLlxcUXLIsBk6IokiQiSbJElJhGcUSpzgjIhMhiSItb/ZBGKcS8coyAJjEjIMuSGkdUkUHXdZqARAgDAkDwVBn+L/AjTTU0NWoHXd8LFUXTtNhxnDAM2+22LJPNzcfVarVUKiiK5LouTmgQDM2nZ/8Dj9RxnGKxuLS09O677zqOU6/XX3jhhW9961tXrlxpNpuPHj26d+/e2traj3/84w8++KDdbj9+/Hh7e7vdbodhiPEKFILoIimKMhgM4jiWJOXhxhalDBXA5uYmpXR1dXVubi6Oe+lkR2RlmM7tnFLasDFmjKKo3W630+lIkmRZVhAEmFqkqmq9Xnccp9FovP/++3/1V3+FRvNT4juSDmIvYRgCgGEYb7755sbGxs2bNz3PcxynWq1evnz53LlzW1tb/X7/zp07tVqtUqmcO3euXC4riuK6brPZRLul2+3u7e3t7++32+1+v29Z1qVLl3rdPnrVjtPb2Aj7fYfS5KWXXpIkkiSU0oTShBBAx5DvZUbizC4GzsYJCv4Tx5cKm114MVVVbdsGYIPBoNvtDgaDOIl0Xf/qq6/a7Xa73SwUCu+///4rr7ziuq5hGJkmnQzoOEmxdlmW5+bm3nrrLdu2e70eTV9jUCqVXn31VcbY9vY2Dj4qes/zXNfFuNjdu3c9zxsMBq7rBkHg+36SJIoinT171jCMnZ2d+/fvo6Le399/5ZVXWPpCBSYkxVEWZ9onKroJSpXl7JwJE0LX9TAM8C0OlmX1nHB/f39vb8913Xa7/c4777z55psAgL70LEhBjsDtRYyxJEmuXr2q6/q///u/7+/vx3E8Nzenqqqu6/g6t3q9juFc0zQJIb7v9/v9Xq9nGAYGN9CACYIAQxwffvhhsVj85JNPdnd3FUUJgmBjY+O1114rlUrj2pS3KzinZ1JWxGEQv0zoMLppnU47iiLbtn3f72x1bt++XalUGo3GysrKD3/4w7NnzyJDYA7lCcKNpOD5AxgqwlAiepL/+q//+tJLL73++utXr14dDAZbW1sotZeXl7vd7v7+PkYnIE3PRPkYRZEsy8vLy5cvX8Ylp1//+je6Zq6vr99/cH++Nl+tVmVZxuMOiJB/yhekRr4EI+O4H9qrTBk+bOjrM8bQ89jZ2VlfX9969BD9agD48MMPf/SjHxUKBYyI1Gq1mYgXAMCmKIqCG8t6vd7vfvc7VVW/+OKLX/3qV+++++7Vq1fxLY2PHj1aX183TbNUKiF8QRAMBgPP88rlMiEEd8JRSvv9fqPR6Pf7tm3v7+9LMtRqFcpip9+N4mBza2NpaQkIk2SQKMRxQhlhkMiyLuIl8njG0xHBzV/J18AJAe31uru7u19//fX6+noUB7VardFovPvuu3/7t3974cIFfNbsXgKrINyu6yLLFwoFjFKdOnWq1Wrdvn272Wz++te/vnz58pUrV4IgME0TLVkAkGW5UCgUCgUA2N/fB4DBYNDpdBhjtm2rqkopvX79N7du3cJwq+/7AIDRY5puOSRpoiGMt8bI+CWnCYyfqQ1Bx3599dVX6+vr3W7Xtm0iWVEUXb169e/+7u+wjyhp5+bmMHRxXGzHkoILnoZhoEPU7/cZYw8ePNja2grDcGFhgVL68OHDO3fufPzxx6dOncJI1vz8/Pz8fKFQQM8elTAiOzc3NxgMtre3t7e3W63W3bv3KaXdbhedWzTR+v0+j/lEUYTyTZZlVAww/MrQOI5x9SqPppQees6dakhXd9F9AwC+TsAYcxzns88+u3Hjxr17d8MwxKCQokqVSuUf//EfV1ZWfN/HqlDoFQqFmThHolnGGEM90+v10K1vNpuYChBFEY7/vXv3cIHUtm1d13n2D5pf6Kzys+0ZY6XSHAgpHowx3/fb7bZlWVgnAODZOvjT/HwVrWZI1Sba+FwH8KajcYXrVuLqBz56dXUVg5qqqrqu++DBgy+++OK//uu/PM9PkoTSBNcjl5eX/8///d9/8zd/c/bs2XK5RAiIp2LS4dfXnhjo2EoirHPiQs/W1pbv+5ZlIbIYknUcp1Qq4YGkGBUyDEPXdUVRUOijxYLQIMqu2yeEJEksy6aiSKoqM5b0eh1ZJmGYxHGI/q1pmvgTMr7v+7i6gjMJAMIwFFd8KKVJQpMkGQwsAMCDkUzTRLFGCNnc3FQUxXGc9fX1//zP/7xz504cx7Zth2GEgfKVlZVLly698cYbP3j3+6+9diWKEkKepJPwlKOZcDp2AxEnhBiGUSqVrl69+vnnn5umGQQBup38FcStVgvSYIVhGJZl2bataZpt25Zl4eKR7/s4SDi1QdiAoqoqzhu+yRwnCvIXLrbhFFEUxbIsRVEYI77v4/QK/AgdSNM0DcPUdd2yTMuysBloX/X7fZxMN27cWF9fR7OEELK/v3/r1q0LFy6GYWgY+vnz53/yk5/84Ac/OLVQSRLW6/UKhQJOJDLjcwwVrtZ5glGlUnnrrbc+/fTTra2tx48fY//xV8Mw8DtCFkXRYDDATBjP83CRGlUrMmwcx51OB5clua+BjhVOCMMwwjDEteB0+/7BzEPOlSSp33dRrKMTgNYRABAiUUoNQ0dHAfcN+b7f6XQcx7l582a/38dJiUb3wsLCq6+++uDBxttvv/3DH37wF3/xF+fPnzdNNQiiXq9nmiYuzqWHBgOK05nY6dwwQmhUVdU07aWXXvrrv/7rn//85/v7+4VCQdf1vb09x3GiKELfVTzADLm40WigD6VpGiYH4ADgkimyNj9Uwff9RqOBU4cQoiiKpmmFQgETyriBhE3C0xhqtZosy4wSXEhzHKffHwDA+vpNHPt+v48Dg/4w2gXogqFLgfbSz372s7W1tZWVRULA8yLH8QxTO3WqhiCwNHwEs0yhfrKIQdLExDiOy+XyT37yE0qp7/uPHj3CDXaKoqBCgzSzlwgL/2hgJEmCgQHf95ExbdtGjsbVUS5YvvrqKxTEeLthGLZtm6ZZLBbL5TJa0zi9XNd3HOf+/fuu67Zb3V6vhxMljpMwDGVZQl5GSY18Simt1WqO42xsbCiKcu7cue9///s/+tGPXn/99UqlyBjEMaOUappqmmpCmev6mqbJsoQ8wd/YKB5NfYJ0YLHgoiWulOKiuKZpd+/e/Y//+I+PP/747t27yEq9Xg+EFBEQkhpRNGE9KFgQAtS0uFDX7XZ930cdhVd4PeTgffcSIaRcLqM6wcEGkPjBJzhginzwIORxVZMVWSMSk4hCJBZHNIqDJGZLyy+8cvnVb3/n9e98+42XXr5UrdQkCeI4BZFQAjKRDtKP4zi2LAuPSyGEoOM6zVrucUAft3KGSrzb7f7ud7/75JNP1tfXd3d3cYECRScqSZ7QOxgMiJDDxlMh0apBNJH3cdWp1WqhVOEyFAmHnE8gbrB7nsetW1lWAQDlO2roJGFRFKiqfupU7cyZ1Wp17rXXrq2trVy58trZs6vFYhEA8LQYWeYymgHMZLH/UBoLOklPWIqiqNVq3b1799NPP/3ss8+w//1+fzAY+L6PM8DzPL5qqmkaSnaEDHUATn/XddEp1TStXC5n8n6QisVi3ncHAG7789gkfg/DcH5+/syZM2tray+++OLVq1dfeeWVxcVFxhhyA96LwocfRf98aSzoAIBBdlx9BoBut/vw4cN/+qd/2t3dffjwYbPZZIyhI0MI4TugkanR3giCoNFoAAC3OLlxiSIec2P4aMmy3Gw2YXjbGH5BZxXlTKVSOXPmzMrKSrVa/d73vrewsLC0tDQ3N4erPBxi1PA8MiN6rc+XxoKOcgBNCM/zUFbgT/fu3fvVr371m9/85u7du/V6vdPpuK6LU5hLA+w5Lr4wxjA8sLq6euXKlVdffXVlZQWXT3d3d+v1eqvVchwH7XrLshBoHpnBz+XlZdu2y+Xy3Nzc3NxcrVabm5szTdPzPDRkIT2qFgDQWkfNz/cyoFr+pnM6t1IxTEEpdV0XPVLP8zDA+/jx483NzWazub+/z60RDhmycLVaXVlZWVlZWVhYKJfL6LXruo4hSZYue6IyQF3NcecSJo5j9ImkNKtbXCblxjhOKbELbDj4/k0Hnee/IUYAkCSJ7/si1+Oqnu/7pVKJJ4th/5HrMeSLoIBwYgNP7XyybERpkiTch+J4ceGAlaNzhEqYEIK58zxdAm0nDFHw4Ak3sWbtak5JY0FH7kYI0H5CpWpZFl8h4tYLWuhkVCgVxRQAcBMTUq0o8nLm6WyY8Aq3Z3gZzAGGVI6jHOMHW/DhBGFPjzgPnhdNsl4ONgwCYOwFudvzPGQcbD2yMMZD6PBrbbhzn+8nj+SB4JrxiNs4QmsHZQifapjcLIbYAABnFf7JWft/AKf/mWZHz+g1an8mkf4M+nOgP4P+HOjPoD8H+n+s3vlhg4vY4AAAAABJRU5ErkJggg=='</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAM8AAABpCAIAAAASpuD7AAA7tElEQVR4nO29S7Alx3EleNwjIjNv3s/71Kv36vOAwp8ACIiSKNIomVojzaJtTIteaDZts+lV92o2rcWYycZ6pe7NrMZsbMzGxrrHWmMydc/0R2qNhqRaI5GEKIIEAQp/gvgUfoVPoX6v3v1lZoS7zyLuve/VDwTYpAoEnltZ2q288W5mRpz08HA/7kFmhiM5kp+2mBkR5aOIOOdU1TdNQ0REdLjR7b3RI/kUSAaVqjrnMtrMzDvnDqMtt7uNd/nJlKOX8OOKqgIwszx5qioze1rK4aZHPbuS3FkfvUOOui5L1mIAmBmAiHjv/XVQOzLjrpNVhxz10scSM3PO5c9EFGN0zvkMvdyVR/PFreTItP24IiLMvJo5RYSIfEpp1ZU3fY8/46Kq1xkbR4rto8iqxw4rsgO7La9XcQS1a+Wmdu2HyBEWs4hI/rByggDwN76yR/11neQuyst4APP5vNfrARiPx8PhEIc6NBsr2UwJIaSUmJmZV0uzz47kp179d+EBuY039HMhzBxj9N6bmao2TeOcm06nzDwcDpumyW2ccxmLIqKqIYQMuK7riqJo27Yoitv9KLdfjtB2jRy2XFcqLYQwm82KosiqKxu/Fy9enEwmo9FoNBoNBgMi6rqOmb33zLwCWVmWMcaqqrL/6TMuR2j7MSIiWYEBuHz58vnz55988skXXnhhPB6XZXnp0qXTp0/v7Ox86Utf+spXvpL1X0rJez+fz6uqyvBt2zaEcFuf4xMhR2j7MZJnQBGJMT777LMi8uUvf/l3fud3qqrKhlrbtm3bPvbYY7/xG7/xR3/0R6dOnTKz1fo/xgigLMsj3QaAUko4WofeWjJc2rZ99tlnt7e3d3Z2BoMBgOl0OhqNmqbpus7Mqqp64YUX/vAP//Af/sN/+Oijj4YQzCy3wWfVRZfjpPmtG4/Hg8GAb/ctfbLksL8jT4tm1jTNv/pX/+r++++/9957h8Ohcy7GOBqN8joAQF3X8/n8kUce+d3f/d1//s//+de//vXpdKqq6+vr2Zg7UmxZjtB2S8luixjjN7/5zV//9V8fDodd12W/Ubb687cZdv1+v+u60Wj0B3/wBxcvXvzH//gf//Ef/3E2+I6MtpUc2W3XSEbYSrdle//tt9/+rd/6LbeU7EUjIu+9qopIr9cjokzh6rruH/2jf/Sbv/mb/+bf/JvZbDYcDrP35HY/2d+1rKbRbMXmk0e67UAOO7oP+2ObpskKbD6fr3gN+dsMuzznYul4m06nu7u7//Sf/tPRaJR9vEczaZYj3Xa9XGfRE9E777wzm83quiai6XTa7/dXweUMtVXEj4jKshSRsix7vV7XdXnCzWrv9j3TJ0WOdNtN5LBiM7PBYPDKK6/kGSFD7cZmqzMiknG5t7dXFMVK+f1dP8MnUo7Qdr2sFBsR5ajAww8//C//5b8Ukb29PTPzfsELBJBVV26JpakXY1wtSLG0YG7jE31y5AhtC7lOUeVpkZnruv7t3/7tpmm+8Y1v1HWtquPxeDwe45B5d9hpUpYlM2e7uG3bTMy/XQ/1SZMjtF0jK0pWhhozTyaTEMLv//7v/+Ef/uHly5fbth0Oh4PB4LCttlol5M/OuaIomqYZDod5Jl0tyj7jcoS2W0pG0trampmtr6//3u/93m//9m+fPXvWzMbj8XUqbbVEzRwQEcmhrTyrHvnbshyhbSGHKaZZIWFpcoUQqqra2dn50z/903/xL/7FK6+8UlVVJmytiEarWXjFvM+k3+u+/ezIdY+88Bzdppv5uZGswMbjcb/fHwwG/+Sf/JPf/d3fff/997MXLauxww7h232/n2g5isrfXFYd0nVdWZYAso/t8uXLZ8+e/ZM/+ZN/9s/+2YogmXXYZ5Cg++FiZtkNnlmo/X7/SLfdXFbrzbIs27ZtmibbZMPh8MEHHxSRyWRy3St6BLUfK0do+/FSFEVVVSsnbVVVjz766MWLF/MciiU0s6F2u2/2Ey1HaPsx0nVddpullEII3vv33ntvZ2fnypUrh1PUDh+P5FZyFCf9MZKdF6s0qkwrunjx4ipBYdXyaCb9sfIZRFsOIrHR6r8KYEn/4PyVLr4zRwRVNirLYLGpArfaba31WdqAZGpGEDUliakFlF25/LWDaJXRNVcnAx1c6zMU1PqsoU0zkJRYFyBQIBI0gGazpq7XxFTJKyBAgkAjqdXOSdc6E5lM1goe2Hx86X00lyiUBCrKEpTqnhdFp/AOnqBCRJbdb60oOSgUEIY6IzaGehjgPp2As2X9tlUEmYg+a2jLclNrleq6L6rMZRcTBe5kVrlSLULa+WQ2KB28tldef+ets3vvvMDMz33nT13R2zl9x+bOaeqvAc6Sq0ofE6JJcN7UutQRkQ9BlkoU2bwzAAriwyrwUywLG/ez529bQG2pURYgECHPgQAzMBkogVS7KXtDs2+zKxffe/OlZx6f7b9fejG0ZVl2SZMVZW/duH9s+4477rx/dOIOFAOEHiyYOIPjogTQpZY8AWBjAGRMUDIAsIM5/VMlK493TsvIubefNbQxsilPIAOgRgqwgZnRddbOm9Gwh3am3Zi9gBrsv/+db/35lYvvrdWeZL/nxGyu1qyvr8+bjny/6TCeig8D4h4V9ZkHP7+9e2+5dQboa2L4ghxncjkAUk/kkLFOCVhYb7evQ35WskJbDuLl9LPP2kyqRkzZTreMOVYCABF4T+WwJ9OJ447bPbn0/tNP/eX48htFiGc262ayV5C6pKlLdX/Q0wKqljrtuu1+UVZxPp+IFRden+xfenNz5/7NE/eX6ydBsMQmxkZEDsYAjGAEIQPgkHH/aZPDcefVyc8a2g6tFpe2ORmDoAbPQDd3NkYav/r0X73xw6ccrm6s0Xx+hbi/XhWFL6XpEsqer6Tp2OAdU+BQIHVXXWrr/lqnk+byuXfG+1f3Lm3tfm5z+wz3NgsXIAowaLX6VQUB+Cxw31a+oc8c2hbLUpKF3WZsYECDhzX7JPvQS//pD/6XkW9HhRROCqLBaDSo+6mTyxcu1r2e92F/f6+oynnXUouk0kdtpr2yFxxrl9Z7kNBNr7z65vTSeO/86TOfLzbvQso4U5AZQQ8oEZ/CafSwrMIt+AyijYxBCkpGagDIk4IMiHPSabP3yne+8R9PbMSQ5jU7iHlY6YvLH1yoqnLQ75VleXnviplBzBdc1b2maZquJUNV1amTgsrYTDXNq1BF1ellu+TDllAYnQYYbAARE4EZnxFb+UA+tWi70bNPRGRMhNm4rddY0AkIxk4VXWfzKzp/+8m//pMQ3x0NiLoGLQcuYhLuUr9ft+08praJ++Y0SjQk58o2kS+DL5wlm86iJCtLb2yEDtZ5nZvp9NLZZja/68FAwxMqLgqVrmIgtl1VVmafTg/I4XxSLHMiP7Vou9UqOzZSD/uiDXHVtbO67EE6Z63J1Sef+MuBb6iQniPzpsm8I2mla1pJyUycc8SkMbVtV5S1KSXTLrYM531VFJ4KN5nMyFNZcVkwexKax/ZS06V33+ofvwPF5m6hIaZIcGU25j5LCu5Ti7abipHCEQiQCkBdlKmZlRzbydsvPvGfZfr+es/6w/V2tmfCUaNInM+nZkZqzE4ERA5alq6C1gbSRSJ4Um3gPLOvh4OYUoqdWSoEXFAR5i4Uk6tvuV5vu+pzveWFyDvAUtu4orRPu+m2ks8W2gCEkts2ehcswnsm6XR2/twrTzRX3zhWa7d/lVhjG+t+EVgn07FqIjUmT8amiCLgwoUQuGQf4Fg1qSZiMCyZeibywcMXwXnPxNSlxgzBVZNLbzrX3zodqNyACVTZkZkZPivljj/NaLvRdDPSTqIrgkZ4A6b7zM25l7934Y0nt/o6vfz+Wq/fTedsxXTShUKZuajq1EZNxpS9F5ZSgmhV1cxMzoGIuGBGTlNOmuszFOQ9yKIk1SjScpimRPuX3uj16sGWg/mk7Hu1ysHdfuoB96lF241Z7AAMJASCBCaSBq4Zv/7MuZeeLLE3u7zfLzg1kyJ4M57uzVO0EHzsogHsHEA5nwrEzhfkzFjUrBNVRQjBO2dAVRaqSEm7NsKEmH1V1kUvxcg878YfXH6/LIqiWDvlfTA1wzWcpU834D61aLuuVvoi6xPwXM67/eBh6UK89MYrz3/T5hf6fXSxG/XWzr73aq/XL0JZVl4FZtTGKQdXBDZJqqJszheugC+NCyiYSCAmzsiZGVnXETljdt6rFWakiaMROYPN1cn0il4IxU7o+dGdMeJajtynXD4NaDsU+VnEhQAYLashsJEaGYjgiKPBG6G9iub8C0/+eXP57PGhbydXihDeevPtk6d3x9Np10XnoEpsXPQqQxKJZua884FErWlmrggBxr4iIiMoqBW1ZN6YmTkQyIHZVDtRZ2oxJtOy7sd2fP7cq+z6J8uNIgxNkwJEzg45e410+VCH/SMrPsGND36j6CfQb/yJQ1vuysP9uKA22i36jnTBTKRlxB1QghG3Fh0xwUDiDMF5i5Y6VEos41ef+ZuLbz+906dSCyNxVvX7O7PGUVhTmbWpCY4YZJLMLITCEUsXVVSSdfN2NFpf6w0nbTIxSS4UhXNlE1unxOxVqEkt2HzhKFgnySwRu9l8olBjuvjGy0F5656HyRWu7CPXigulJCRVX7BBzWTF9CQiMoBIFxE3xk3RdC2xBdmbfTtklXC1KidARJ84+P8EYpR7WbEMeANImgpyXdeomSNm5vlsRo5dnPkevfSDb7/60lOntodVpZPpFe99l1Th2kTzJkWx4Mu8seZ0PKmqismN522kIKG2oj84vsvV2tUGgjJqUOPz71+CmgMVRUFEZiCimNL+ZDKdTtSSCz4jxsOQ2unV99994/lzLz6BoKkdQzsfuGtagxYFJ1EFLG8TxWBeWQWrSVevi/Z+YuWa8mQ/n4yj1UuSEbbo+jz9sBEBmswTw4WubYuiiJJCCO3saqnNq09/67UXvzUs94duijSufTGbdikS+dLYVBOreIDVJDVJm1ZTWa/5ajCPLK7cGzdn33y3qvt333u/Z4wG/WYyCR4MlZhItKxqsG9EQFT2quBZJJqoiADsfCkoZp2Cy2J4/Pg9j9x5z+epGqZGXNFXoygailKQABDUgQgwJTK2TL47zCe4dsa8lpKeuXR/JwNyg1zHb5tOp8Ph8OcdbTBASUGqy+FhYwaxEsinaePrCkhgjK9eHVRy7sXHf/j0N0s33V731lyGtojGRl2rRGQQ1aQxStNZUnZU1GUiMlcn33t/r33/8uz46bt/8Uu/dnxn542zr7919tXp/qXjo7pAYsTKObUEwPnKFyU5FpGUEsH8qoOdZ19GQ4JDOWpp7eQd999x9wNhsAFhIc+uUDM9oPUyqZFxnhOJzEgJuAFFBzYrcGB40G3iBv+8oG3RxdedvdHhTguoIXMMQIlt0blkYBfms1mvKtvZuCwJFhHb11/+/usv/GXfTdeGlXRzEql8aMYzMoYoSGKaSmq9I0mmUZWLq5M42jy539n5/XZr94FHvvT3tnfvSxYUMJF+v3j6O9987om/qShuDKrSSxHMORJD7ARAURTBM6kUwReFN0hMCSGY82oQqlsM4Ieb26d2z9zXO3YCXEIh8MReFgtqZmMYM2hFlyLoMqnimv6xbBodstWuy8f5O5NPKdoAEEiNoDABNK/vFOYdi7QesZ18UPr09svPv/rid8v07ubIAYCSdImM+8Vgf+8qIxWB227cpc4VQdTG07bpQlGfvLjXnb7ngV/6ym/2ds4oKgt9+DImKYuQ5vs6G1OcXr3wzl/82X+Sbn9391hVcC4GDRNPxCQkqQhc9Twzkgq5wN4J+WS+jb7orTcRvdGxex94tDq2A3iEnpkzsMEBDGS0LToCUFoy3fPq1QhLnuY1aMuM0SO03VKyclpOE4yb4eyg8eKNBiBmkZCpY17Id4rKU9eMrdvr1+lH3/na6z984uRGoO7qaFDsj+fMvizq2WTulCvvUpwTYdbNOpOO+eqsmyf0hqe2T/7iI7/wq/X2aQihHCLUoo68J8JkMhv269RMvCWwIMVzrzz/g+99azy+4MiOba4NqtC1E0hTlwRLVWAf2Dnni8oIMM/eS6JOiXzPuORyuH367s1TdxmX5HvGhVEAeZiHsRGgC/1Gy4SxA7QtOuR63Xa70IaljzNXtMhM8Z9btJHCmAA2QBf5eDkP1NgrOKUU2+laj+P4vRee+PPxhdfWy7bQuTQzaOr117qY2ijMLG1X+pCkmzXNPKqrB9H3Ljdp48TuF774X61vfE6sV5Q1fEhK5Ap2RUxiRkXBbdNVZQGTbj4hteAEQafn3/nbJx9/9pnvF04/d8/uqF9cvfxer2JnQmxVUeZViwrKouhXvdilJpkr+1T0J5H669t33vuQ763DlXA9UGHk1ZypUzXvyQgHCDtweQAH/g5eLQ7sdqPtcF7CJw5tMMmuJRyaF3I8wLn8Ois0zysMi9bOuSosWjRzRZkfx7FZNwkVxm++8MKT3273zh0fhYJiN93vs9MkicyYotMoMcejmnk0rhpx4ofHzzx47yNfHO3cGVFU5aYhLOJgxkbEoIOZC4swpy6cE4YUWSNZ10z2XnnpmWd/8HgzvrhzbO3k9kbXTnrB15UXESZj5jifr/VK78gVPePQKM+F4PuuXtvYuaMeHOuNthFqMyfK3pVwQQwZbQKYKfNShQBYrkDJlrAj2MLCuz2SddvPGdoW30DMssHMRAYzkeS8ds28qNZENXZWVT7O9wMabS6effGJ82+8WPt26KibXiVJa4N+3J8TUSSbWZprikgJZMQxeeP+1vG77n7wVzZ2P4dy1JozDi5UAEjNzBZe1oX/mYywqqElsANff4ppPnWIvZLj5PLLLz33xssvvv3Wq/eeuaMuKXja2hg0s+l0fOXYxgizaWDi4F1RUqiEi0Z5npiKQW+wNdo8OVzfKeoRfAXyIB/VEQfmzDVHLnmjqsE5HEIbMrOEYNe4Rf6u5ecGbUS0RBuZgdgAZIyZJqgwM5inad4r+l0bSx84mTZX2SbjD1792ye+1vOzvu+cNjKfc9LS1aXzltJkOtvvUudDG3wDRPLqqlOn7n3ggS9u3PUF0EAbslDAh2gaHK2qawHZ35q94zCC2TUFdQXWilahCFCTxBaRum42jvNp7GZf/X/+4+UL7zx4/5nNtcqhLQI7aXQy7VeVC9ylqEA1HIayTgidhqhBuCrq0Whje7B+rKxHcBWKQU6dETFgcUcAFk57W8QezCxjzsjd3nzVT/RMurLbDqMNZCJyoNVgkAQAjgWu6bpgWnhAmks/evrZ739jvn9uc4O8TfsVVYERBaLSyGQ86/V684QGYY6wF6Hl4M4HHnrg87+0tn4KNIQOBKXzJRxAaGPygQFASRdow3VdZWYrh74CYJcsWYql855Ju2gxuuBgEmdXJ1c/eOVHz778wx/Uwe48vdXz1FMmiWqdIYLBDA6F8yFZCNWaqwZCIamnUA7XjtWDjWp9G64CGDCDh2OQB7BiLi2yOJe2muE256v+fKwSMtpWxCEyiESY+EyaMLHURaFkRenhbHrxtadfe/5vppfeKKjd2qiJTSQSmYhAutIxm0xn86nwXMJc6tDfOnnP5+/63BeG2yeNe+R6MTqivvcA0DbJefEhmLABh9d9ds3drk4aMn9OpfAFQWFKBiiZkXM8m017pbM0n08vt+NL77/72luvvbj3wQcb/eHGsD/oB+8iURu8samIkC990fdFH64UsHJgX1BR9wbHi2rYGwy57MOX4AAlVWYfsoGW0b/KHDal2462nw8PSNZtizQKGJNBRVMkEyIgOMAwmSFNv/4f/vU7r/3g0Qe21mtYmheejVzbCfmafZhMJvt7V4JHvb4+o3Iq1db2fQ8+8pV6++7UIrGrButJQVwCsAQCnAek69rWFwM61D1GMIPZtRruULyImAEk6TRJCIHZY+kXjMkqT0Bsr15w2mqcXHjn3OOP/U1qJ1WF7WN1vxTp9gPJoF+VZZWEkhKHqqgGrizhvCJ0Wla9tf5wveyPQjVE0UeowR4UADIjXXoh8ytCtykXfxWV/7lBW04RyWjTFINnZkKKsAiYtI3OLn7v6//2/JvPH1uvhgNHaTIYeEfmvXdcGYr9qUxmwkUdeoO2k8vz9v4v/er2HfeNNu9GqkS8KyoEJOmc80lVhZwLDGcmjhRMIpRrKdDSrQoo1ECEXNWBVu8GANZknh3xgijQdq0ahbKOAAGqsNgFSAFDarWZSer2r1589YdPvvT89zwmD9xzcmetaptpO530+8O6P4Avo1pSckXw5TAm54p+KHquHIRyo+ivFf0NLvpwBcgrOzABKshWGxzcbaGBHEabmU0mk58EbYtaKQfNF+5VWh6XoofbH/6TxYcc9QMWwfRVpDkjDGbgvNGKmQHqGCQRaU5ogXZy6d0Xnv3+q88/UU3eObM97NWFaJtSW/erwWAwmbVmxaxF1Iqr9Yj+PPGJ3Xsf/OVf8ZubnXhCHdwAIBEQR3YwSFIheGZPxiKRoMxs8AaGCRZB2KWDdVlQZME6yd5XsDMGASJRo3MEJgMb+Zy8LAqIlkzOFDGCTKWN3RQya6cfvPbiky8++7042zt5bG372LpnC84XReGLwAyBiXJRDsj3KFRwFRWDUK2Feo2Luj86RlzAF/CByCnYYKbgRTTi8LhcH8u/Vq5rfN1wf9Qw/6qWVnbQ/CRoI1vpnmWcxJAzv9kOnmAZMFmW2wBAajnYwiRGAJvBMaBQkUAAEmBgh5Qf2BRm5Ciz1tQotkQdMJUrZ//2ia+de/MH/apN8/GJwVbpfNM0YokIo431mGzWqlKNMKRya271sdMP3P/5L5bDY4m9c87AMAcwLSCi1/o/ryGYXDcqNwa5DzuiDzc7PCgLtXeof1b1CKNE7xnSxvnYUdJu+qPnn37q8b8eX3pv9+TmzuZwWPp+RcGZSiciveGGuSIRuV4foQdf+nKg5kI5qOv1qrfGxRBhAArJHDlHxjA20jz2asmUQKqC1WYPIqaqzJ754PkMCwcKMi91qQ74WrR9uOI87N1dW1v7qaHtsMufDtrr0s2oC8cPm2WGkMI7ZkDFXOZvmUjbubKEJQjgHES62LCo90Cczy6+9dJzf/Pem88EvVgXTRGmJKkutky9wsz5pktKzodBNTy2P9XQ3zp518MnzzzkN04pqkbIF7Uj+xmTcD6G494ISioiEDUVmARSkhhnexffef2ZJ7/zztkXhxWf2OpvDMp+zxfBsefh2tq4mU+btqxGvuqRL8XYV0Pva7i66K2P1k+6/jp8Dy5A89wKUxVZ7PKuRpm9J2JE5H1AtkfVVhn8Kwr04afiGx7wZ4g24Bq05Ruwg6+wqvR5wPJbeoNyNatFG1KFmCkRg5wkajoJoagC2jh1TihBUlc6glPMLrdX3/vhM49feu81dPsbfdcvnMVWYxeC60QTSOEiOVcMydURvaaj+x/8wok77uf1bZgzLqnXB3gya+qq/zO2mj8m2sAxiicOwUnqJHUe6izBGp3tf3Du7AtPP/H6y89XwXa2j/Ur2t4MqZtqorrue+qJmitrIR/qQegPk+slc3BV6A2Gg816uJHgQz2E90gwBfkS5EwPNMUySgIAREYWl4YoYUlzupGkfohj96EPuIyTzmazn8wDcv38kiejhRd70YDzGcuVDwAGwwi20o6qSMQGcmZQWmxz0bTSL7sY9z2MA2H/ytuvPH32paf2L7y5vVlSt78+6lHSbtZ6KkwDsZ9TnLUdlX3hytxAqL7voV/afeiXMFcMN5AAcmBSJg6h66L39ScHbQCDOOrilSUDO0jsuvm4Fxx7IE7hDe30+9/6i2994xvd9OKj95/43N0nkWIzmQ6ryrmQTCmUa1s7VvRaClHJlbUvCoJTLgfrO0U9Kqs+fAkqQQWMVVnzPOtgBMlxBwYTDC0jZTODjPKHw2H+bKeuZlj3EdD2k3t3r3VMH2iyQxhfrRlgRAZvC0K64iD+Y8QsKRERuyBiRmByRm2cf1CFONu78ObLz77z+osyudCjWcltv+B+6dkwn8VeNSIqL14ao6jnar4e9UbHXb22c+cD69tn/HA7NfDVSAVd11WDAUg1NcxQBbnqZ5yb/vHQFpN675khAlWEkD2LcA5xPg4hAF033gsebdu88dLz3/2rr44/eHutz194+MyxYZhP94LzZa8etzLc3K6GWwIXoWrGDuSrxH0Kda8a9QebZb0O10dRgysYq1JSI8cuZC2LaMmTLk0eImO2pd7LeASApe0EKMHdoo7JTasFfjy02SHdterZJYHRlm0O/ZSx0SqFTVXTAm1wjrnrusBEjjXNiZSgbXN5Pn7v/Fsvnz/3emr2Kpt5GTuZlhQLT23bEjy4BzcQlFHKUK+Pjp1ENVjbOrW2vevWt0FVssKocuyJQIbYJUBDIBBS17rwiUJbrrBl3nkAqhABEVSNmYKHibbdtPCOTOfNFF1bs71/9sXvfOtr59544diQT59Y29la61VFvx66EJIFAxX9ngu+6bpZJy4M2kSOe73+elVvhHJU1hu+Xkc5ADmAway0sCDVFnGwTOUiW5U/X9lFbEv1tjhxC932U6iEmpf6SuBVifcblmmrsVTkVRAxL0KKyZKZETkH186bfunhgGYfMkGJ2fk3n//bx2fjd3teCoN082Bt5cyjTTJr24aC7w2OtRrOX2qKemfj+B2TGd/7wBfWj5/065vwlYA59AVO4JKAFIUnR8seEYFzpreTE3GDKDNEk4g6Dgpi8rn/kqhzDBUz8Y7NNKVYMCHG8aXzvdJBp3/x53/y7W/+v7tbwy9+4b660OMbo2G/JyJdgqqHL31RsK9i0ihQC2bBqOJQ+2JYDjer/lo1HCFUCqgZnGdXiBWrm+OFaZRAuvL44Fqr/WeItoMrHaT66LUeNc75Z6tEPVZZhostmaqqAzGZJ2vHV8pg0NkHZ59789Xn29kVj/mxUeWkJYNjZRVNbRdnURM5boSmiXvrp1xvK1THd+9+ZHRsF1bDBZBHr4yqxi6qBS4BSLLCkwnI4BxSNB9y0bZPTp6SinbMcBwARBFmz+Q7Ue84SSIikFoSZmaGinAeLE0xzbvZpBlfeOOVv33i219L4/MP3Xvi/rt2B3UPYFEyrkIozNR7T+RFkdQJPKhQKi6N5/Vwc31rZ33zeBiswZcAqQZya5bDdMu5EpSWPbbwbC0XhhlqN58ofjrc3WXLjPEDTWpKAsu5aEmQP5Ops+QdmZIqmNk0SWwsTcsedVfOXXr31R8996TOr57eXnMmLF1J7MiIpImNaApF0Wq6tDcO/TWUo9A/Xo1Orm/dNTp+R9nbNFREJYgVUIbSwsuV5wO2ZXdcH9r8BKGNICBdags6TPhexoiv8X6LiRGpcUpqZh5CcWLN5XOvPvNXX/33cXrhzO7xBx+4b319bW/v6vr6emrnnlAUVSeJ2BvRrOmqwZqqn7YybRSuXNvcPnn6rmp9E+iBN0ABTIsu5TyXkkIN5nPNfRNSy8N6I9oOV9z9abEplwztZZ8BSEmJ2blcBB4AFBqg7XzGzEUIiJ2mljlCpt/86v919eJbo5o3hr4fnNekKZ7YOj65Mi6KYn+2N49NUVf7s/m0w3DzZLR6feuuzZP39jdOhnqTQqXkk4CpwDKDGdCsDNiUbJWEyYvBW4wnPmFoW6TBAism36EcFjsgbOb2xmTkFBTVYOzIkFptp0Hb4OL84pv/7o/+j5de+MGXv/TL9917hjUNa69dUxQFeTIzcvDeF1WvSwhV/9LlyXgW6/7mrIk+9D738C/5wQ5cBefB3nxh5KOhVfWuTJoY5JkCMr9OVcTgcQv8/BTQdsjfxstXL1M2YAZHACApmhmRmaa2bUb9GtIhzYE0Of/mS88++e6bLx5fryofB/1CuqkD9Xpl7DqY964XJXXWdioJ5HtD3zsWdXjH3b/YG+72BjsIpRqZV+fMgLTcKyhTu3jpgibjhW27MIGzC5r5I8de/g7lUNLKtXKN5xJA7nkGVEVj3mtGTFPU1MTgOLUTxKnMLn7323/xzJPfObWzfufprTO7O4DO5vtF4bwzkDBzKAvvSnA1nTT7+x37yvtyOo/laLS1c/r4iV3qbxgK4YrCAFwJGIudJWCaHJmjRXHsxa3eAkL/RWhj01VY0MB64ApESl2GvAfYGQiQCGadT1i7vYtvv/i3j19699WtUXl8vRebccGoqqKLjRr5smi7lJQE3riYtY0vq8HmdkQ1WNu9+/O/iliDR3BQgxE41xyyZLysyr1E0nIZtTQzSI1Ul4t2PvBYfhLkmln+GlrJrazvHKe1lKkJcCyAKIeiaBqpCmcpTi69O+q5bnzp8b/+zy8+98Sg77aPb545c9r7lLppv+8tpSK42axx7Ot6pELNPMVonUqX2kbVl4OtnTtP3vFguXkS3I/iBIUve5nSAgBqZpINlg9/wv8ytMGw3NHCQAvFBpApkxASIGhnMAEpNMFs/723nn7q2+ffefn0Vv/EVg/NtJ2N14bD+axVePZe2LWqoqCqHDexv77VRQ7lxv0P/cpw+26LBVEPvpIcimU4BxDMrOuaovT52Rd+SIBstVBa1C5Yos0A+qShbRnbv/6LG8djaRgAyCQPAQBmsCqsE1UCM5cuUBJ0CWZxfJHd+JWXn/361/5s//L5X/iFB+67+1TlMZ9crgtflYEM3bxRRQilc85MosbpfDZpomphvh5snDpz98Nrd38OGhAGMBIBuYLYi6njYPph/rb/Qu+urmbSHHVZzWKBVOOMpQU6WAdtsb8/vvLB97/77Wa+tz4IWxsV2YTi3FOSmAA2uKhFJ6y+dGUFVybvUfbL0bGdE/dsHT8DHiUtiXrkPDmIQVUM4sjnLBgyJRIsOSN5/IClels9+YoTgE8U1IDlGv+j9P4iH0KAzGFbFagjVVKFOeeSprbpqqLPcKQEa0mnMe23k8m775z9wff++p23Xtnd2bjvzMn1YZWaKUN6RSiCc7Cu66aziSO0sRMjdkWXqBP2vfX++vbJO+8bHttFvQ7Xg6+Tkii5UJLdPO7800FbfqVWaMv5P4zkSEnm0BY6x/6li+de/9HzT5996dlHH9rd2qi9w3y2L7FJ0pGpL9x83sKXcLX5OmnVWaiqda7Xdh/4wsaJO1XdvEl1f4M4tEnKquq6jj25ZRxM1CQZ24JSmRdzhzM+8mr0cEcseOefoCUCcCjgeAs5eDcWEUPNQZr8XyYTWjB0VWLnnOMQDGglxaTOOVbxDhY7S/OA7r03X/nuY//f6y8/d+bU1v137Z44PrLYdN1EYuOZ6l6vnbVN0zRNAyjYG0HIGZczccd3710/cc/w2B3l1h2guhEGBY/r0bYqmHcTtMWkIGUQsOBrLLMBDmoHLUeOAVVLRkqWfcp530V1kGBzcMTld176/l//4LuPtbMr991z9/33nLT2oqVpvnwnqW3btkvzmEKv3xtsRlSzxpkbHT9x9113PezWt1EOOyHvCw6FihiYmcUSMxuy1iY2Bphy7Z+kC7RRrtlm2T5zyBTIhao7iKb97D0gq3zPH3s8hKLrv13lDGbbaHXHvGi8jEsbGMoggsVmFsoyl19lHwSUYAVCStEzUjsP1jmWdv8yy/xHzz7151/9j8fWyr/3a19kax3LaFBdOn+eBM4spU40egIHNqO5CPl+56pJ56v103c/9KXN0/ca9xQeABsvS6MzjBUGgBngA7TNJvPRaEStGGAeslzH+awhuohQIWqCRU/sybfjVPbLmJIvnDYdM3dqrbRFXbI1hU0uvvrMY//hX7vm0rDSkyePD7ePEWvN0jaTLkWBdVFmTSRf+nqUpNeh8uXW5va9J3YfrI7twg2hME/iiMit1K3deksBziuDA2b5zZsdHsWPt0HyguB/k+vfeqdlPsxXvPkxx2NyztQh3ziZXo+51YPm27nVJQFbZVvhgN+luRjwwrA2qOQCJ067br7XTS+/8cpzLzz3xHxyaff0sd2T272CdLZfMe1dueRAvapopjODsC8SqDOnoW5RnTzzyJ0P/RKo10UtNo8jmQlRqECFdBLFQumNlNiJJQBMbj6dD/qLXdWuZSwBBoSQ+1S8Y5iBrKhC16k5VpjzhjgtHQqkZrYfgqbx+1fPvcTz85/bXV8bOC7N+W7SzK92rYmqkTlHvi4GfhZtb+zWt06ePHH3yTse9GunYLWkQOq49AoFjAyGvGuLkYGv1wq60g265GGBDHrQgjILOKu9TKrJo7t0S380IdO8uL0eM3QrLDE5KMDLIwC4zIZYIgOkvLqXWwlfE29ebjoIW6q1w2LAqhTfQiECMDBBNIHJjA1gCuo8ucK0KHp9Xw4e+fLWI7/ylddffu6pJ7997unXTh7rn9rshUHpe0PtIqhgr5qaMjinmrqpdrGZXZCN4aVX0nMvvtaZ2z51x+6Z+zaPn5Smx6F29cjBd23LC9wowNkxp4rFTEpkS8fBImlCIYbYxnldVVFiFAq+Brt5TP0Am7wfdAaZ/+jpp954442NYf3l//pXf/j1f7f39vP33rFBnBJjYm5t4/j00lSVyFcIvUmHaXSjY6eP796zvnOGy6EvRygHoMKM88xBapQ3i2U6NP+tSMA3kRwx+3Bt8qHc6A+VA5B8lN/XZd3Cj3BFY5DqAZvh2jfqWkt6pQs/5ipH1SKYCAwwLUoDM5lqnDsySKNxykjSzd5/9+333n75ue//1ent9c/de1/l3Wz/CiRCmq7ZV4tlXXYpwofxLE5bOXnqzqI3ms3lyn6roX/mvofvvO8RqkaGkspau459ASWQB3h/PB+OhpRSt3y2hYmDhQtXDAIosxMgGhSOySm0Rosrr517/vHv/9XXEGeD4dq3HvvGr/3qr4xqq3l68vhALJb9IYr19y/NemHdFcNkfq7O949tnrj32Km7wuAYyqGxNwpKq1qmIINTt/Tg3fDmky713aEj0U0nmFvNdLeeAW8qTNfz+j9cNHfadT+CW6/DjPSmNyQ3V8DskDln16AzzwA3swsVJICCHYwAb5oJX3AOUAUrTCBJZ+MU24Li5PIbP3z2+2+//jqT3HVqu9/j2d4HZdDgYzOfZGts1qQQiqIYTucNU4AvJ5FahPWTd915/6PHd+6i/iYigysogzw4zGdNb1CRpMYIoKCLPlWGEoQkkfcAmnkbqsrIj7uZpLbQtj3/2ovf+PdvP/3Noez3C7hq0N/YQM+Tl+3tGtKYoN/b3L9K/Y0z+10xl6IYrG/v3rd+4gxX61atcbU2i8KZzQcYBNo5Ng9v4mDu5kOznBkPH6/LVj9oe/OfWHjgbvonN5GfJD3u4y1BbLGp2zWnsAwG3urqbFnbsQJkpoCDW2SHHDoCIKRlHJbzEGcrWBWFAwGSzBPgCGYy23eYQ+dI8cnHv/nUdx87thHuu2t7WGF29ULpEbuZA5H5yXgGC/1BT9M8wdQXEqpJ8h337rj78w8++hVUx+H6iA4IIDdr5vWoR5LmRnQYbaDEMBKzpM5VKQoHn9AlSxV1dOXc//r7/0PYe+Xh3d6Ip4PKt8o8GEpZDLY2YpoQUfAD0j7xsan03dru2qm7t3Z2qVpDGKI3Mi7mCT5QMsRoICkdPJuDqMIQYB9r005DXiNfe2Q4u9l5soOaZx/tyDc9n9eMN64xb6nDrteph2fe65oeNupuRNsiZ4eIbJmubGYHXv7VLwA4xAdbpJLwwtuwsFAUqoAaVInYOyC1EhvS6DhJs//W2ReefPwv33z1uS9+4XO7O+tXL513EE+A6Ppo48qlC73St6mJIlSWiYpJZK62Bpt3/uKX/75bOwkeQp0azdrZYNgnkamBQcUhtCkADy+dsRJ7QJHaie9j/+xz/9vv/fdbdPXz945Kuup4//jxzUTB1f1Qr10ZT0MIoRxqGKnfoOpk//jdx+56OPpeKPuoanCZBAlM7GMU773PQXyJJp0zGJE4fwPb8foeP+wOWPluboGt644g45x6fIOWvNmRjExXlUcPHzN8rjsP45x8+hHRxgsiqtrhctuLiqeZHLhAyhI7ZtzR0jOyXP1kRvTh617DP1uso/JVlxahrgr8MzyxQUQspVSWZUoJaoEg7dxplGb/4vuvP/39x86f+9HGkE9s1WWI2k2a+XhtNEoNmUDiDFAOvhM/kaKx4Z0P/eqp+764eepe+DqJzZrpaFB7WK7JBAes9hgwcKfwBbVjVAaKracW+5f/8//9vw+7izsD+eDsu4M1nDi93kF96fb293qdVr7HVmkq5hpGx06d+MKvo7cJ7oXQg7GlBhy9Lxyo68b9oiAlJIMa5WRbEDF5SzfbMYgO65LDFjgv/Go36CQc6uPDR3Ef3R9mlGMVNzOhVG+yBjFaEGJvRKLaIYvzkNuGshPw8BuVefUZcwuULTvCGHqgRW2ZuQ/AVrvUr2RR+YuA/MIIlBdJ1+qJFv0saoCZOSJfuLabl0Utokk0lCUkeHaD9e6/+Qf/XTc5//hjX33mxSe2t4o7dzdG9cZsMnXUJ8deHFtyEr0mlUjAC099C0U13FwPQwKRIQFKou1Bag2pAcokcAC6FiVQEBCvonv/z/71//SDb/yn+wdcy3Q8n9UD3HX/mcHGsEvRudCvRyrFaOPE5j2fx+kHMDqOcg1cgQJ8gZQgCs9QhSo8I0lerUAUxmAHJVhCQYAcdOKiy/mgGsKqOiMI7NDZYiyZAFocVytZzewsvv7MarxX7dlBEmIC0yohBHl7AlpaOgsnCiPnOKyUwxIKUAX5xYeDd8UW/9gAB9LFRpHEcAz2UIFmpjNDdeGLd/7gwVe9oQwOMIbZokuJ4By8R9OZ2VIvEogyxNi5qFEtEZnzDEA1icSyLNWSJVFNUCMiZibH8zhz3ntfmBASk7EnDwKkwXwPMknNlTdee+6xb37VO33gvrs8B6RI7cxpG0xVNcFLWMPazo/eufprf/+/vfvRL4H7V8fdaG3DGxbVrnOhFBAYJOBWKJSAIM6uhnTx/Re/vf/eC3duUZ/b/QuzqsKp3TPBD8b7XVWXg9Ha22+fm4y7KG/y86+mYmPu667qqwukFrz3ZkRUMBsESUEam9b7gsnDOSbvfUHkVJMLiKlJSVUXpVOSiIiEUORgCDPDcc6LBDn2lWYPsKqq5hreeR/WEEIIwcxijCln3DCXZZlbOue897lugIjkQWJm5xytqrTBVBOxOefyFfOFzMw5tyyzlbdRWzSIbYdl3AZLM45oQfMiIufZFEkigX0RyLGCmdl771zAwnlGZdnz3uc7VLUYY4xRkpWh9hRWl2Nmx4GZe73ewoVExJz7xxlRp2pktGSHmYmZwXQqoqkTETIwswOJSLJU9JyZimhKSYUXZfNFYzMPpEzRUlOWvc8//AuXL71/9o1zZaCt9bWNukcR2rbOOVLrZntdTA+cOvH0t7+6tTka3vkLg6roOqFOjJEzZ1K2uIVcJFZ4A7w2bn7Bp/f/7f/8P9bpvVMjNJffW+/1GT1o6NUDX/pJe/XKbL83qmMy8gNfjqKEpkU0AlNZOEBL551zLAbAGVS1aZpc7Jgcm/PZD2pmRc5pBotIl1IeV+/9ZDZbdWUeA5BTcGtQo8OTbwZBHo8VpJbnCWDvCu/9cjJE/sH5fB5C8N5nLK4IqEVRAIu08vw7KaWMztxysctJHmC2yWQ/14vMDRaKis05F2MkohC8Gdq2AagoiqQgovxiEPsVuzqlxfvgvScXFvBlipJocXr1XJTv05QOo9+5AGJxJTnvHAMwEVUlAxExqHCenINZaqOmnDKCFOfEqhCR1pDMJFf1Z5CkJF0nKTlTMh0Ma7L05hsvP/XUk3sXLt+1e+bEseMaO6QUgpvHRGU9terkvb/88G/9TjOvqmN3Xbvz0MIeWBgRURvHXdftPfPdvzh9+thQcGK9uFwP9vemVbEefP/19y9enV7qr/d66yf3yVqI08q1rFGgXHnvnasKL7FzRA7IHPnClyJSFT0QqSMwySLeCjMLPoRQFM4n05SSgauyDEWx1qXsVQJTHnhTSkBi7tQyAg7Hg7OGE5FOjZFVi5mhCAUXlQvBzCRGEfHszYXecAHBrus0pYUmU70ynh/YQUsI5gtddzQz1eQ8iAxgM1nBMZOKM7idJ1Xtus7MHIfUyUo1Aiy5DheTd2GFVyIi7wI78s4cMrMoo09NUhQRqapqpXcX0yI5kJt1yi4wL2tYCpiI4NaHo9h1sUvOuSpUqjqbTmeTKVmqer4svXISbRSRiMihDLWIkLHGdOnCxfF4vLW5ORz2ZrPx5s6ZanDi7Q+uvPjGSzvrG2dOHe+Td27ORmtVcfndt9DMq2qtnXbUJnMENiWkhQcLXsg6lcLTfPIe2guP/ekfHAvNmmvHly4pDze2Tl+dtJcnzXBzM9RV0zWhCoDGtrUEEmgSD+oVwbs88B2zZ2YVhBDKsiemppD8WjKtuBrGVPoqikHUMqpcoAV9jZIpqSmByecBTgAXZRTJaMs6KWOiLMv86ue5NWu7EIILRR71xaQMZFBm7aWqMUYz894TkSRl9osFwFIOzbMHP7JCW5I2rxny7LlEjKxeA10ug1QVapTg4FZztMBIzZgO61dVFVtm46rBZJljwoAuq3hwbnnNiwEkEiVlWyU6MBk7kKp1TZtScs6VoTKz2WzWTGeFD2UVytIbqWgUM+aC4GLUFHU+mXdd1zZNVRXHNtaIu41Nvz+50gkn427ekCSX5u3+xTt3tob9XlmvvfXBbPehr/zyb/wD2jzjF8sdWkTu84qBCT3vZrO9flm8/MrbbUsN9Tj6Y3fcvXH6ofWdO3i0BiKAZLG0YTMz0cIzmCEJ2QqUBApQBWW6rYEIzMjegwWlY7ngyvtPWC44s9BSuW44AILTgzK3rLQc/mXMB0yOGLyoURrbjhw74sPfkuMYk9hixx7PC+9oUg3O5SzrpOqZyTkyiyKWDM57YiVAVGAOZEzI7EWDEvIZUlNSUhMIGxubZ1YyUiQTNpAnB4q6+ExKIuLgHA5cEoe5CMa0MhYXGFLztID2wWoAuGYJdU35TAWiwUx0GdLIdWjMzMh7OA9VpGQitBiazHMQkIINHGAOYkAJ59FGEEMiqgIMNGP0FKkDyIgoBHhK58+98+oP/+b/+9oLr71+370PIvSfee6HX/ytfwCK1EpyZARlENTBOAdN1MyVsn/hzXfefOnV537w+Xvu3t0+UWyfRrGGqrY0NxOuB4iqc+Gihi+RkrICotZ6BmBQBddgDxggIEqWxBRMwflsQzg4KEENBjBDOvglIsUE5pyDc9rJMh666MUsHst+X4mqmLkQTASqtlI/Il1KzgV2CzefiqiZYybnJMaFz4xoUW1VVS2jnRiUcbyKETGxwa7z8arBcVh4AA88yayQfO/5FxgEtsXSElgQB2z5KmZqVV7qqtrK+CMixysVe1iHraZpWogt8kQy/iyXDs4r84W+JKKkCSpE5DyBSC1JMl/UZlCLZtF5ZloUQRKxoqhTjN4HaBKJxMK+tLmSLwzWxDmxVAUhTuP+5SDd3oXzP3jyqb9+/HuvvX3+//zjP4vkKUpHRJSzlcSRMRRmIId2crUsDdI0k6tVrwZVMEJZT0XKkjxT6jpngXwfRBAIIdeVUOu8A8FUoBYcsxiSifdOYILk4AxmUAcX8jyao4sOYM0z5Kors/mz8JWTW5lKRERsJEZ2YLEdgpxyJpWv/BHMIIesxAVKutB8CoE6ZjXj7CXNfDjL5ZRhqmQmZm65+4+Z5XgRr3SJGczUiJSMlv4TW3BF8m+qGqmR5wVK1eCWEU+1rDXhCCpRZGGZHVJ1tNgI1bKayppYAUeUz8jyrnLqHduy9PM1pQ2W7rmF006Xb64CMHZqzi1m4Rwoz34jkLEjN2/aoigywVA1wlzgIgmSwbk8q82hbeEM7TxOpzCbTKevvP7mw7/4i4PNLcrLqxUzNKerApkvpYyU31la6XLv1cwgKxejgzNywKoWGg4CMgvfOh083rWRAKx4AMscN2BB6cZHE7sFU/nD/mQRj/qIEYiPwY78kEjXx42Y/bj7/+hszQ+XaxO68m46ABav7sHkfm2sAsswB6suQmEAQEqmIM0xNUsRgJmJoem64XC0QtuhS97oyj90hsiu/S8d1ig3yq0iOT8tufFuj+Ra+ZgsgWvQhhs/39D+lv0vInntYmZN0wwGg1vuvXzdxQ79qK3WSoeXZre66hEafh7lOnj9ZIO4NCIXfHHcdKfvm0Ln0OWvgdqHK7Yj+XmUn+KYXvdTN9dtP/Z6RyD7tMpPd2QPu76R/WQ/rR89kiNZyTWOwyU8/I0tfhx0PlnZv0fy4+S2jdfK1ro52j78z7KsIiorudHXdSRHkmUFuPxhEXD8cK12ncvjpr94JEdyWGyZt5w5BznU8f8DeO4LRrOYSlkAAAAASUVORK5CYII='</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAL8AAAB/CAIAAAAxYITlAABCLUlEQVR4nO29WY9lSXIm9pm5+1nuFmtm5FJVXRurSQ6b3RSFIQYDUCCIeRk+URL4E0cPA8wIJCBBj6IgDAhR5AjDmWazuruqsjIzMjP2iLucc9zNTA9+7o0bEZm1NbOqMrMMgcCNG2fx4/4d282cRAQ/0A/0jYi/6wH8QK8w/YCeH+ib0w/o+YG+Of2Anh/om9MP6PmBvjn9gJ4f6JvTD+j5gb45vYnosSUBIKL8parmP4ko/5eImJmZRYSIRMTMmPm5R5qZqjLz6srXbvetP+W3QW8ielaIAbBaV++9mYmIquYDUkpd181msxCCmYUQiKhpmnxkBs0KVc4551xKKX958/qvJdGb5mteMQxchdHNA5xz+ZuUkqp675kZQNd1RJRSCiF47/MxMUYAGWf54ivcPPcurwe90ejB2tKu2En+vBJPXdcxc13Xi8XCzAaDQYzROZeRlHlVCAFL2XeT2bzG6HkTJdeK1tfVOee9z99474uiYOYYY4ZO5jcA5vN5CEFVp9Ppij9l3DBz5lKquuJtrzF08AbynueSmWWgqGr+UFWVc05VM24Wi0XXdd774XBYFEXXdVnRWfGqGKOZlWWZj1/R6vqvJYz8dz2A74zWra3MRbIAypggovPz8+Pj43/4h3/4+c9/DmAwGKhq0zTj8fiP/uiPfv/3fz9zGmZenZJPv3Z9vL7C643jPSs2cA092T5fAeL09PRv//Zv/+Zv/uYnP/nJH/zBH9y7d897LyKz2eyzzz7727/92+l0+id/8ic/+9nPALRt673PNtfKIlu/aVa2vvVnfen0xqEnG+QrAJlZSimlVNf1ygj/xS9+8R//438UkT//8z//6KOPsgjLEi2EICKLxeIXv/jFL3/5y7t37/70pz/d3NzMbCmEkLXp9et/xw/8MumNQ0+mzG+yMxCAiDBz27ZmNp/P/+qv/mo2m/3FX/zFZDIRkbIsM19R1azuAGia5uHDh0+fPt3Z2bl///5wOHTOZQDh9RVV1+gN1XtWq5s/ZH35k08+cc793d/9nXMuQ4eIqqrK/GnlEgSgqnVdv//++977k5OTs7Ozuq6zGf+G4CbTG4eezHLWrSERSSl9/PHHf/3Xfz0YDDY2Nn70ox+NRqMshohIVVNKWTsGkG3yGGMI4d13340xNk2TmVZVVavL5g+vtwh7Q/09K0s7Q0dEYox//Md/7L3vuu6jjz4aDAYAMkqyP3AVygAQQsg8iYg2NzcBLBYLvO5xiZv0JqInu5JFZBX4zELn3//7f9+27b/9t/92d3e3aZqmadZdzyu7bMVInHMisrGx4Zw7PDwsy3Kd5Vzz93xXD/tS6Q3VmtcBkdf42bNnZVkOh8OyLGOMKaWiKK6FTrMzOgsyANn+8t4/ePDg4uLixz/+cY6x4wet+XWldb1n3QW8u7tbFIWITKfT0WhUFEWOsa+U5SzF8ueiKDL+si3mnKvrOsZY1/X62/i6qjsreuPQk9lDZjzr0SjnXI6TDwaDzGywXP5sz68YT073WanDOfaeNaeiKPJdVkk/392Dfhv0xqEn0zWL/eafq7XPMVGshdBXXmnvfeZP5+fnWdJlPoQ3RnK9iVozlvjIImwlyNb13JXauwpjrZ9uZt776XSauc6zZ88Wi0WO0q/4zTpje13B9MbxnhclbV1jQliz6rGUd1iq26o6m802NzfN7D/9p//Udd3v/u7vElHTNGVZ3jz9daU3FD3PZQbPhc46L1n/PBgMuq775JNPzs7ONjY2sgKE56EQr2+Gxhsqua7Rep5y/ubah6w7r7RpACGE09PTv/mbv0kp/fSnP93Y2MjZq7gKndc4JR5vIHqeq4V8ASu6yTay8FosFn/91389nU7/8A//cG9vL5v02Vxfh8tryXJW9MZJri9VR5ZwUYBzQscqizkznsyE/sN/+F/n8+mf/dmfvfPOO+enZ2VZqmo9GCRJ2V67bscZ7AqQ9DV4dV/5B/hqxKsfhSnMCEYwsIHzZzApzEyIjKAwgQmTMRmR5c+5ZILY/2//+/+x//jpv/pX//qte2+nLk7G47IqSscaW+ilEGTkCzCUCCADQQkKKEiN1Ei/65n5jehN4z16hQd8yeLlXHdqm3lZDWKMgT0R/bt/9788efLsf/4f/6d3333XeUhLpkogBgEEB1vWGzIIAAGZDRHwmmlAbwh61lGidGUN+apAYUANADh/LaJlNQBARLPZ7OHjR8z8b/7Nn77z7o+YEbskIsF5EOAYjgEz9NqPGYjIMWMlK42BHkf06jP+NwQ9K8qCAwCsX7yb+sfye2NQX1fatm1RFL7A4eHh7/3e7/32b/82gC6JY6oHFcygaiCRRJ4UYNMMEFxqzXTjLqsBvKr0pqEHuBRcauu4Mca6ZCHk1WWHRdtU5UBUilCMRqPgSwDOZTc0AUhiJsbMIAjMyDTzFiIAagqAQCuYkl3e14hfXQC9ceghYJ3fGDGwFCjr1IOJk0p2H+daixxDresyxiyeCICIOOfIMYxNE5gBJSIYcEVMXuVzdoMfvWr02qPnua812/q6GevzVpENyGF2IKWWmQlGZCapWSyqqiIiNZiBmZWQsvhiJpBBAVJSQJcMB1hiaYWoV12Jfu3Rc51WuDGwESsYdLmKKxRl6ICUCRfTs/FoDJhIl2JDQPCQ1BB7AEZMcKowM3Zkli/nDEbgyyu+ACk3/ECvEr3G6Hm+MmFrMkvBBhCBADMwgQBRIzW4vPKWUjcZjQBRFe+oCqbJHCI5Z9opmNmpqaoxe0eUDTYz9DZ8b2Tp0uYyANkoY8t3f4UZ0GuMnhdS1nV0yV9kyWliTGZSFZ7z35LMJHjWNAXADGu75uLIsyN0vUkvZurZhyp4SalrNfjKFEwgAhHMYJYZFANXJSQZ4RVmPHhN0XOD66y8graUVmvElp18CIEBg3UwhSmghAgj1g6OQES2qKiVLrXHD30o3WDoigG0gySY9y5451MUwOVRZAeiLZVrUPYtKRnQMym80u7+1zIr/quixwCDkQFQzwoRTQ1bYktwAAEsiO3Bo4dP9h91zWJQFQRjU2YWsVAO6vFksrE93NpFPYaaRrAfAQ5gMQOYXO91tDXdikxBmsdpr/IL/Bqg56bPbe3ztViEsRGvG1lmQiYE7dr5oGA4Q+qQFmjn5ycHx4cHR8eHw2E5rqsiOFZlU5UYYwR4EVMT1Rd1PdqabO9MdvdQb8ACyANkidRAruS+hhBYyqlVqAsA7Af0fJf0TdADQEkZsBwN1cQBujhjSQgWT549/PSX84vzYR3u3Nlru1kzvSAYqwQPjcnMFouWfeHKWsxNm9QpVaPxePPW7r13uRzCBSireuJArgRRnuYlegxIeXiE8DIn5+XSG4We7LzzOQQBgEzVEmuCRdKWArWHjz/5p/+6mJ7s7WxujgYpLk7PTopAzrQuvXadSWwXjQ9chKoVjcpC3rhUDgKX2I937lYbm+PRlgsDoACV4GDw2dZbC9CmPFR6lXnPKzz0JS3jVrQWgwSuRUPJ8i9euVey6komhEQWge7ks0/PD5+MSro93FVpp+dHjmRjWJSFaxczSEcWQ2BSCsGLtBCJXeoE7ItQDx17jXS032ymuwPHLgeyyAFOVYmvhWPzAPBKJ/q88rxnmSKz1IWX7n8z8QxATZUMDAewmoGdAarqPDWLC2exHDgszs8e/eri+IksLgYVO2DRzMysrgNzYiQomQlMSc3MoJKjpwrrJEVJSYSI4AZcbCNM6tHGYPN2Pb5N1cS4EgTlQgUA2METYAlmOaBhz0cPv+Dz9ygo9qrzHl3O5hI6WI8faW9XwYFcH5AkJFXvmaB1WRIg58ezk/3p2aHXLjix2JKjcV0YOZBoSiBz5IgJogJRSarmSI0NgIcQayAQq7E0zbm0KbaLrkswNwgVhRKqqkLOrXkmHZkgc0LS5wTaXgV61dGzFndY/9ZgK9fcmvxSQAxdlOAImogiuvnB/oPp8WNvrffivdfcGiEb1qIkjjhnQ7MpQZWUIKaw7CZmZgbnf5pRIANi1+n0DBRKVw9LV3jHIh27kohVzbK0YlJlrAdKerqJpO8Rv1mnVx49S1ICyFa6hRIZWa4HXdXWkBrEQMQi4i1qvJgdPZ6ePk3tdDwqLCaFhMKxWNu2MGVmB4ZA1AxJVSFiUDIG+mJmUiPqwxJqFjw8kTdqLC7Oj099tcVFsRGYCQKjkDN+xJRBeMVz5l959FyqxgaCYhndXGVHmJnBcraXmEUhXzjIgijF6cnpswde5oOaPKVOo5gEH3I4XVMkDkIkRtBkZqoCU8AY6hyZkqgCdtlNypS0NY7eVQWh66bz02dlVReDYSiGScQMjkvL+xPAnHPQ65znKt3kOt8jGfeqo2eVb4VsvPSpg6ZAZjpkZDA2ZN5AqvAEZ4Y4b6YH7exwVKAqSGMbnJlRjJ2BPMEIkrrWHMjlJEFjUgVUk8XCBYVpXy4BdwniaJ2ok1CwkYtx3lycLKpBfettD6fkiZC1Z0UOuRF9XwXTl9Krjp4rCs/1ZbC86E5BxgwDOTiCijprm/OD6cnTCrFicpJUonNBFalLnWjBRJpSEqXSmNiBmQAGwxSqlGBZTmbeZgYiZkiAAUKaSGPhAyFJc35xHMp6zPUGF4VBkEUiQXtDcfUIL/Ba9Y/3vVOuX3n0YOmFI1MDg3LVBJMamAE2gzHlFEI2VA4aG7a4OD/uZmcbJQJHlU4lkokqqyUT6ZIGMyYiImUigpI5EBMbOXKQlKi/L3rZKEmhySJDiRUaTaJ33qSTZtpcHA+KClaSmiRyZf1NnvV7BqBXHT28UhsIBPSWkAEEYnIwqJqSOSZVdLEtHYpgs8f7x08f1ZQ8VLsGKsG7JJJSSp1oEoM5IvZBUqzq0hG3sRGVENjImqbJwtHBYPCUIaSQ5ByRuaRJu04dUWAjr+aa8+OyGrmiBpXeEcEUBOvj8FgPo7469KqjZ91qISYHWM4lVTFRAGAmgyZRAAVbsM4uzpqLI08xQEw7jR2ZpERJyZSJyHt2BsBUdTwcq5GkZKJMuWrQgiu6rnG9X1JEjaCemD1bkj7jgxQWQR1TUGq75mJ+cTwuK9SbjitVIXhmqC5931/F/vo+MR68HuhZvbXSMyITWGA2A1FOUTdIZEbwiubi4uRRc34YkIIjiEIgZqKWV9CzYzgywETFYtuBAjOXofLEAsmyMlRBYrLYZd7DZKSCXEtBDkxkBMA0QTsIy4LmHLwPtS9QeTZLlph8FnpEZMs06uWT3Yjffc+gg9cAPVCAlgmfuUUBAegXWdWYjEmYQSxA050/WRw/ksVZyUliEhFSU4VnViJHzozMTHNWsmM1YuddCGASVVVWIwOTGbEjR6ZJJaWUGAaoKwruG6uSmalFSy57hbrF6fwi+KoMjuFKZ17FcjLQdzuF35hedfSo2tLptqyB8Nk9KDCYaUraBQdyCmltcTQ9eBCnhywtTNvYsYp33syIPOcuhZpETAHvC+fLqpoY+ZS07TrAhVAxkUhsmnlgH6oK2sXFIpEGQlH4qIlhTFmdBkxNm6zHS0Qz8xT8xLEfb1OonZoa5+NWLqMXR7i+d/SqoweOsOQ6mvNJYWxGnphARtlqT9CYZifzsydxeuhlxpyr+FSZQQw2UwIpzDSJGsCenIcPCzGBpiTKYTSajMYbANpmLudnXdfMu8YTuVDAkah0EHDfVoGIHOAAAwlJJw0xxW5qF45CsVEE9g5ckSnMfadT+M3p1UYPGSibLzAzydEtMTOzEEqIsCk5gyVbnJ0dP50efl6lmbfI5AXU7xwABpAsssKgnpnZwQd2Tpw7ayIKrkfjyWRja3OX6iFEQtOgHp2dHDanyVIMnMu+lFKcVBU0KZQNzGBmIwKBJYIDI8VudnF+RKEYEXy5ocRYJqwt2c9a3LenH2LsX5myEwVAVl3W/rP6vDabmmAAKQiOvDEcGMYqitQ5EziBLBbnx+dH+7PjZ3VlJEmgOaFYYZqSQQM7sQR4ds6FEj4IcURRjEeuGk02tzc3dzEcwQhirpaN8bafbBXjyfT0sJmdSjsNvhoOBqJRIFCQSSAHBZExSckejsWZaUqL89m5954H7NlXAiWy3u3JNzpT9W70vn65L35dzkbvcCJcK+zJAVxAX2rNxreAnudHavqnep4dcTVdqq+HYtgqbrUMSnOuvCPOuidWWadk0C6FwGCFptmTzx8++MfUnG/WhSwuvGNiJ5IUxMzmydSEnZhj53097oxmbWLnq/H2zp33itG2H45AAWpiZMSK5Eob1lvDrTvzo/3D/c8uTp+k2My6blAGx4QULUUI2JEjl4vYNYmD+oKSoxTn8/OnMcrW7U1SARMxjEgBw7KHa++OMGhuIOTB3Edi0D+2Ajl8wldqVXn99Xt5APr+8R66ybezAmrLZJ0rLlc1c84DiDHBUBRsirhoysBgoJ3Nnn12uP8ZunnJYqktCyZJDPZl6NTa2Bk4hNIXFakt2jS9aLmoRtv3NrZul6NNlFscBrAiCQQM9mBSTSDAonMY7N57ZzxenNw6ePLg+OhJnLdFoEk1HgafmibOZ0aprquUhEgclEiZDGkRZ7GZddB6vHnXD0ewGAUhVIBrk4BzJB+e2DnAHDQhKrE3umwF1KOJVI2/fQX7e5hbqEZXukxgVYQALCeNAIaxEYRYYUSUO4CZRFJzJuQIzcX02YNn+7/upoeFS94nF5tJwQ6Iqk2XorEvKxcq5dC0nZqLRq4cbe7c2dm7h+EWuABXIK+KKAIK5EJGD5MxxCOCItCincXz49nF6dMnD7v5FF1TF672ximSdAxxzAZSsHKgsvL1KBS1+kGT6sHo9mRrG4MxXAljWDB21G87B1r5o5dh/DwnOanSLj/3TDf3drkslX+Z7cm+b+jRZb467KoKsKrYXbYcZBgLKDlKClhyMEJyZoEUDExPjp8+Onn6mTTnlY+Bo2nrtK1gwXklXkSJCBRKpaJTajsL9Whj49bWrbtu8xZ8CQswgg+5OEuNjByxs34vQXgIQSANaUMkYIAtnRxfnJ4cPn08Pz0sOY4rDkjaLbxDYGfMSUzhORTgIBQoTMwPhqPt0fYtDLbAJVCCSwjlmjIRqBoxvCMwoGnVU3Elki5lU//W8RrzfpXRsy50b6Sp3xyOAoJlc60c7+z/c9ORb6xEC8ARkko7Oy+cjgclZNGdHZ09fXx+tN9OT+rChgUIncoikHFKZhbqcRiMp60dHF90Fsrh5ubOndHG7nDnDqoxECyRwbEvkkYwEZGRy6O2XoyCYY6EMoYgkAiNCBVUdHpy8PjT02cPpT0N6AqKqZ0NCh9cgKgYhVCGUMIVC2Uuh74YhmJUj2/xxh6KMcTHCPYlO9be/odCTVPwWObeLqfWyAhmZpRrYtc16xfM8z8Tfe/Q02e/rJ2c56JPpbnaS9uIWsrOwUjaFhQh8+nB/vHTz2enh067gFiwBhYm8WyOQGYKZ1xE8udzmwmG49uT3bu7e2+hGiMMECHmXVkZkBQEITIjlxMJc1+MZea0gpRNuU+Ql5QSs3cwQBCns5P9oycPpsePZXG2MQieEqlYl0zEs/O+oODVe/WeeODCyJeTcrRbjm6h3kA5gXlTiwb2TA4KSIrB9flAa81ccll+724nomWhPrCeePQS6OWj50r+TabLh1/JqTXqDVEAy1x3vvzcn2T5RCWF8yk1noU52ezwcP+zs2cPZTF12paeCjZY8hDnyDsGsZkzV8w6vWgSwmTrzv3tW++4wQaKGuaTcFLyoSbPBsSE4MGwy20GAAeXC8KMoSopJQacI+8yW6CuawhSFgS0mJ2cPP18evJkfnZAqfHWVd7XzjmYioh1WnAnAlcW9aZxrTSoxjvjrXtusgtXAqFVNQrkfZ4nhhKUl9Ch5fz0I8zzluFMCsDpS1Smv4foudpWYgmd3ni13iEMEzMBCZGRE0jTnT89ePzp8bPPKDaDQHXBFiOZes+F91ltMgqt+iaiM1eMNjf33p7cfgvFEOpAPioTB+cLMzSdgrkIYIMtVYee56llvT6PWqlX0ETRxVSWngC1KO3CQ0JB0AbNxcnjT6cnB4uzA6ddXXAggka1LlrDnuBLoDBX+nLs6w2EofKw3tgZjnfFlclY2ZErsmudlwpy38TKcp3GCj1KfYj20kv0kuhbQs9VnUUBQI2Zwav2tAaAiAhelzpyFhbIuTvaN9qRpCptCB7O0F6AUzx7dnr0ZHr2LC3OSBfDgoZlWMzm0MTkfVl575No0zSLRNMW4923du/cH27ucj1BMQAVag7MMNY8BGNjmAKUV0jXdU/qi1JzBj4bIEAOq+bseDNRVaixCkEckoPCCc6PTp89PD/aj80ZI3kooXGc2JmZqRGFMpRD80WyIiK4ajLauD3evsPVpsGJOYVrBY5Lx7lPB0izwz0r18pE5ECUe0YbM+tLVJq/U/QAyE1Jc0YOAWqU+9D2hugSUgykCO/Rv2XdnCBgQVrMnnwyO312fLQv3WxU88awctDUNTFG7wr2JSh0Zl1MSRFR7N77sJzsDibbCDV8qRQMLmUoL8nlVinZ8djj5rnN6dCnvSKXauQO4n27XTIG2MEcjKDQFhCk83R2cHa8Pzs/it2UpR246CDsiYja2HUp+aIM1YiLQZtcRFEMtjZ37tWbe/ADmBOuFZxETImJPK35nhWU+wwRVFNmQkQvMYj2XVrsq71FOFfpqmmOaS77JsEEQK6ngsFi1Ni5wHAJcT47O5wdPzl88IuSU3DmKTEpQzwzjL0vOgVQJFc2nbSCwWiysXtvcvtHKMfwAeSTUl5fy9EA0twbZR09WEJ/FTFYjp6M+6RprNxQhGgdoDAPMIF7NzPBopJLsIg0s+bk4uLo5Phpe3a0wUnbmabIznzoW7GS40WTQj0iP5x3JKiHGzs7O3dp8xbcIFEgckweAAwqUDVm6vOZXE6W7fc2XFaZvBT6ztDTP5jaupZjmrEEAIZkmijDC9CkbEAgUEwnTw4PHp2ePIvT44G1AW3hXVEGaNSUYOxCRVx0yqezeDaP1XDz3rvv7dy7j8EmkjNXKZwohLxzfZdKZDZjQtTnS2Sk0DL00Y+QehcwLLsUerWs30qSVBGBvJWBz7ZPfvcdQ8WgHfsEEqBrz48Xp89OPvmVlwaWGNE7YVJNTYxtURQu1OyqVjhZ4f2gHE64nkzuvY9iQD6AnCmLwblA5HPyJK04+Xp5/8tbxG8TPdeeJG/dKUu9J+uknjwTzJJahEVmMBHUQA5dh+b89PTJs/1PZ+cHwcuodENniG1KyZbbz3pXmysOjmfzjswPNm/dvX3/3eHOLRQlwKLe4BSkYMq9mXrlJufVC8NyfkV2xl3TOnv0UL+f8sreoaWQNZYl3/KXb731USuCEdKy9ZNAGxwfHHz265PjZ4OCC5e6xTlbNxnVsWtSSmbkfAlXGpzARSrrW3fDYDIab/FgDF+CPJTUHNghb7thfZY1oGbG/iXudPmdoUeWcOl324MxsyMmUSIjiFrHbhnu04QuHT3+/Onjz9v5kaPFsEJVwUPQpcJ5M8sdmdiXbYuLuShVbrCxc+e9Wz/6AOUQ4HnbgbgoKvRZGQwiJpACZlABZUtY4fLCrxeL8TIasHynl9tQXEInn8ukK6nHl94WESNPjvI+X9HMHLGnxE4Rm+7Z/qMHv+pmJ5tDPwyWuhlJUov53Ji0jcmFIlTji0SuHo8nm6PN7WK8jSrHN5wKG+U+L0wGZp9155XkehkA+hbQc6krrHtxckqOEWfGowQi8mYWO+/IUTIkUGcq3Xw2n148+uxTaRcBUvpYurYIkWwusQ1+YAI1InJGLgkvFjbt8M67v7N9/z2MbqUmNsr1aMOIW40ettwp1PX1ggqCmiiv9kBhb7TsuWsrKwtY645rZpwrDc0YCrW+rCMnpAGWV4uzMQAmBiAgVc2arCVIaqugpC0cQdrpw189+tU/Snu+MxkMA2tqRDszsWxomooyF4NkDAoW6mK0Od66M969g3qsiYwKg1MjhlvtpXpth+9/3qX9quhZRi6vvH9fSDdzca6kCjCxGpIuW9EymRlrdJq8A5xAo8Xp9Pzk4OmT08OnJFI6HlRckmiaeY4hGKAiIRo75zuh45Pz2UJu33/vwx//PgY7Ghmu5GoECgIkBTMYahAHpwCBzCxbfxkKMAM5Q38crqJnXf/MvgQiIwNZnsP8eL7/2CtTaoBBVg8vRp589jeKWBfnRaBARNbBEtrz8/3PD/c/K6grvRWsah0sicQuNk3TOBShqH1RdvCdeS6Hw53bw81bg+274MLUdQkGx1TkjjPBr1btRTuFXaE86hs6xmr1rx58Ez3PbSejBF6fzaUdm5Gw9htYNuXLW5yZBsquTxOoOJ+lv5mZKohy/oEmSSlF1lh4ATpYlOnZk/0Hh08/l3YxKNy927faZqFdyzBnSKmDGjwnDpH4Yp7mbRxu3X7n3R+Pd+8YSnOlUiDyxJ6WqZ9muozhrzKqboaErrdpWntnnv/mXNt0ZzXja1OkzN5MkEMKSgojg8Ise6glQZODBkRoizj79Bf/JTVnJM2opGHlSNtmPpO2sTZ2XSL2xWAI71sjYc/VuJzsbO7eL7fvwQ2gwagQ5U7SoAiwKGJmxszsHDTzv8so0HLdQVC2pa9/zaG1Wv3+ebMfEvqV0LPydbCto+cad3k+elQ8shlFlqfPNGWlwXkPg3QdSFzhAUVaIM3TxdGzJw+PDx5rXEyGYVgGQpqdnY2HdVnUmjRFmJGodUrTJLMoxWB85/67u/feQTVOQtEchxrkGc71NghIbT2r4eZ63/i8vvxfma70L7u8AvUbvCtWaQKkBhbyCjIDNDEssJK0lhbOazo7ONj/9PzosUfaGBSeJC5m3DWF40XTXcymLoTx1rZxOFtEhHq0c29j9341voVyE2Fo5qOoaRecZ+f6xG+zPEJmXofOKgBAWEdP73tbBwC+GD1XpuLGbGbbJD/88q45o28NPb1NYUbEVKhB+inTpc5BDKhESa0zdaygaLHTOD968vD08GkzOx2WPKwcpCXtgkNVhMViERNcqIjLeSeLpuuE4cvt23f27r/jN3fgKiiDCrgyKRTslhasmayazq2h50Ve/N8gj/gF6Fkmluil8pHRY67nUiqOzDFMI0lHlKAd2ov56bPjg8fN7Lx0NKmDzI9JOjOJMTaLRRfFF1U92vDVaBG5Ue8GG5u7b0927/jhJjhIglF2LxCTZ/ZmENGVdzQr++stANbb6V+drquxpi9FD5Yyb+nn6DtVry4BYC2WeR1ARmAqRCHIBknPPx1R6hYELZ3BAe1sdvTk6HC/nZ9381npuXTwlAKJp2ipk9gaURSlULpiNI92PutcUY82d7d37o5376IeIqoKuB6CggjAlz7W7APs7dgrvteXgB7wjc1vXoieZf/o/n49kzRB7hmtCcFgCdPTo6ePzo4OJZ5t1ybdRWpalQg1NoWZGoErhBqhTlS2KMJgY+vW3cnOnhtsqrKIqBFTYB8IrGrL5FeQ6XooZtk/ei17GKsHuiK7vxJ6AL1Ez7LVKHAp7W2Z6bcm8jXXbwJIEeQYzMwsplEFyD1QNDhDnJ8fPrk4fpwW56mdts10WAzK4BxU4xxpUTCCZwAX0zmKUsjPErdw5Xhne+/e5uadsHEb4qAAO7AHnBmJYfluLYFO2rdM5muc8gvoRjXnV6Ivln03FE/qdSAwZa9j5gRMDAhSA0vwDI2zo8OTgwezk08qH0tHbIq21WaukthQVXXT6SIhIpivXD2uRxt+tDXaebsYboRyAPIxmSgROXIBIM5bc6zQ0/s/vVH/AixXuNcUVwnBK1R9CXputpa5AR2gR4+//IZgJnmmJLeDZCIy41x+ogSFdrOz4+MnD04PHll7MSwwrNg7duSa2VxSrAoORBI71eRcMBfO5u20FTfc3Ni7t3XnrWq8RVwBA1PPvgATjGOXQC4E6qODKxWNlPqCU/eCNb5J/5zoWTq3rs92dlnAcvUp522XiUhEHOV2ZEomWXEEmvnBx6eHn10cHwTTYeG8dnE26+bTrm2relDWYwpFI9SKki+sHPnB3mDz9sb2TjGcwNUAq3lR5D7ReeXW0aNU2MpeXD3+1fTWlWh7DnpeiJh85jIx68r/wYBffWfo9VPqt8VTM1XrvGciQ9cs5henh09np4ft9KSgWBfmKTlLTDCD45C6bj6fO+K6riXZ+bzplLgcTnbu7Nx/p9y+BV8aWKkUKZiLpSZIDJhBBI5W4mMlRrNceNmVv8+Xekut+fr3TDnBYIkeQXZ9MUETgL5BZ9u2MCm9wE3RnZ8/3X/86cfd7GyzLkYFa2wcUmyapmmSWVHWvqjAbqFe3JDqyWA4GYx3Bhs7YbgBV4s5kF/x4L4DVTa64I2uoOcSQ9ClJtT//ibouQogWg6CV+hR2ErGpdgUngkJ1oEUcXbyZP/w6aNufj6sQunNYmPWBodAqppECOyZnalru9Q0sRMW8vVo6/Zb70zuvIVQA2TshDipU6rgCibOeaNka0l3tFTVc+0KE/ocxe8APVdpPd9DFUZwzF77fjHEDEnwHgA0QTUF74nMtGWZmsxJOo3z86P946cPtTmvPQYla2xSs4hNY2beB2bu4DQMhAujQL4uhlvj7b3R1p4bbgBBUeQ3f5nugWxULeXUpb64GvPXQ0+fI6F91oESiH12fuf0EeSIINiUnKOcwu0cMUMtcc40TS2sQ5qdPf384NFn0lyMal84QmrJhAgGUU1ERkRJWQzgkNRdzOK8xXC8vbV3/94Hvw04UACz5ickFuLkagXnDK3sIV57b9ZW69vbk+ary7ur4mBZjHaN6FIFUZCSJEBgCdSivZidPj1++uDs5EkJGRZUekLXSNtokpzDq46SOXAwXynXVI5HO3fGW3eKyQ7CEAiiRFxkQDAjRQnBwRBjQ2reM5xbbhT1ldFzxautcvmE7PNDG4RMzIzZ52RsVcDM9ZXlseta74ziglJzfvz06aNfNhdH4wKTkgObsxTbJqVEziuQoMbEzok5UZp3uujA5Xjr1js7t98ejHcplL1CBywtFxXi6LzC51inA5H1mbwvznZ92fRN0PPc7VHXMkNw6XMxhhkswgkQES+a6VFcnB7tf9ZOTyk1k9rXjtNs1s5nBmE2MLErzBWJQoeCi7EbbI6274y37vjRNlwJLg0+KtiMoEwC4DJxSCSl5L037tn2F6Hn6gNcU5cQl14ToqxtgY0BSNSyLE1T2y4cKJQ5zaSbHuw/e/Trk8NHJaetigqOhbYFI7WN916NFzG1AnEuATGpclg0UbnY2Ll/5+0PxrffQRjlYjywgzFlkyS7kBgdsfTC22XNcome6+/xVfR89dV9ubxqvab2GrxXWuPVwXhVqIJYHSdQhC6g7cXx/vz42fnRvszOS7aKyZlCGrI5SEEO5BJYqFAqEpVWjMrRdr2xN9zaqya75spkzhOTdUgR6JOjzQjsiFnFDFjmmvVz8sJa0j5PFrRusSuDnLO+hFEdHAMKlZRMJWcfV57hGUgHjx/uP/q0OX02CDau2KlSit4rSZzNpmVRT6fzeRuNC1cPyNe5YPRi3o4379y+987O7bcx3IYVoh5cqAMAIpA55EwHKGzZ2DKPE+tNJL+NtX9ppMttNLC0evr6a+vjuFBjs2ypGMONb703Hu9Ug83jxw8W58cCGwQXQkHC0FZEYteagVwilxzFKG1n0rbtfD4dd+1w47a6sjMtKBEAl3szEAGiAhjARteL7F/Ie1aSS2FkrJCcB57IiJlhask0OrJsURXBQxUxgkxTc3z4dH//0ez0YKOiyqXCKWmHbg5tSpj3PmeeCwL58qKV4+mUQjHe3N3de2d37y23fQvqVBi+Ii6SsYF1mYiTc43zS5kYtiyd7H1uNyIR69/cdM8/d/HWPn97+Ls+8iteWSPAQGp9v/Bl+qXlTaI8K2KDuLA4n548Ozl4upife23qEB1alZi6Fiky1MwSyJUjLsaz5Bortu+9f/+D36ZqAjMgIderJTXy8EHNdVFDKBXMlhO/82j1i+rYsyWZi9/MyGBK6LquKLwxVKKm1siC88HDugVlZ4pjZq681V5R0bCw2lOKsZmfB7LRcADRi+n05GxWDzZcEeazOI82GO/u3bu/s3c/bN0DFWjZwBwqcDCwiPByt1D0QTvuFb1rAHiZhbffKi2hYzkToI/wGyhqr18z90khnshDFGAUBVXj8WCj2tg5erZ/cXow7U4D4DiEQeE1cmoltU4E1iwuGvDg7r13b721i4Dm7Nn5+UXleTIeYjAGm4qYMDvvyyK77ZRAy3cYz5VceVVUV6kJkFU7B2hRFMxgCDsmFxzBYkxN6wmz87O2WYwGRbE5Hm0Ot2YVtaTt+fnFzDsaDwYxtc+OTskwGE42djeaiNNp2yZs37777ocf1bd2wTWkEHUuFFRUgHVtR0RVUYn1ruI8SMm6F+Cuo2WJsTWH03JPtetq6fM03G8bfHSTz62Hcmlp3/YyLGeyEUBmDPVk3OflM8OVSF66mSvKsHP/1mBcnWydHDxIi7PYzURRw4wiMzuGSOdEq8Hw1u4Ew6DH+//08SdPDw5vb2/t7u7u7t0vJ1uucGqcVMSMuOjz+daD7SJyNX6xVKdzQPEmLyVO2mnXONYiOFhcHB+eHj79+X/7B9a0u7P10UcfFpvj6ZPHT/YfIS6GvgtIItKlSETkiiS2aLWNtOhsMNl+690Ptu+9jXIABSiABuAKTH1gwWUoK5YlkkDODOyDL5dZ6cv8m2UP0j5ovHq6G/1vVvTF6Hm5kms9ArD2rdpyRVb5JIAqGUGsz0LyjECZKQlMoKaAERs4ggxQZtHu4vTg4cmzxzI/DmkWdFFQKpxKTOxCp9yZQ7lhvlokamIaD4bJ1IdqsnVrc+een2yBi6ReEIw4V7zwslCJksZ+Zi/9QmzgXArUY0gsr51ZapMwIyARos5O9x/86tmjX8dmOiicI5imtuvatu1ER6PR3s5kHBLSIkaJBlFuhTrhJiJRdfveO3ffeT9s3oarcjFLMudD1ScSINfiLNUvVfZOVVXVuVwXbM45XfoPrlssl7SenfMFdBM336befe0uagJmELPBJCYwMbOZOAfRaEbOeYKTXAWQmzUaJGf5Zp8LG5E6ElA3e7Z/dvSwuzhop8ck061hWXpqZlMREyNQ4UOtxAZS1S6pgnw5mGzd3bh1x2/soZqA6lY5GjP3dXjOsEQPgEutjQ1MxEk0czkTJROQQQWBgWSL2dnhk8NHvz558jm66ah025OhpLZp5wqrBpOiLAWARl2cMxL7ypfV8fl8/9lJOdjYe+uD++9+FAYT1BtASMZGnnzJzG0TmTn3hIOZqvKyUgCASATgA+dIkJmxC/9MC/xdoef512eCiqmq9279xVBtcTXuka1oIg8zxfr3RKYpzkLpkBqkmcxOTg4/Pz/aT/OzMqAOrnScuhhj1KiqGkJQ1S6JKpS8hboa72zff3+w9yO4UeIyUaFgT2ACw1aS63KEvflC3Ik5R0yAqUliMrYOuoDGsyf7n/zTzxcnh7sb41HB3exC4mJQF2UZnKck0sTOCGVdqOpoY3J6Nnvy7Mio3Nq7e+/t96vJLiY7oAAEFRZjYg92Rs4Bl0KzzxomYlhKAMh7AGYJS6vw63fG+ur5X9+lzW+izrlVM/MUY0rJOccOznsAkpKZee9BZKqSsi/48grZoeo9AwLtgIi40MXZfHp0/OTh7Py4drDUeUggNIu5xjQa1rGdmZlRSMazaNGK4e5bm3ffvf3Wj1GOzFVRDUBgAsRj1TXo0lrpd5RhpqxMiCVC3ktR4e3T//f/2X/wYFKXw/EgXpzMHG2NB1QyQeKi6UhDVdZlSKoiNouYn3QHx1Nfb73//m9v3r2H8TaoRDIxgAjsnfNglxQqQsRZPDGzd845gsFUM7NhVWJW1TxxIrLK13lJRSffFa1qItu2dc55730IAFJqTTUXogDQ5cz0HIgv+XS+jJqYKLFjGIohh3JUjB7tH39+8PDtvR3PTlITqqJiFxeLlBKZkikR2AVVmMT52cG8i1U9rjdvh+EGC4mZeu+IPPUp4cClnr/MKOujq6qaHIFYkZqDj/8/XRyNiqhdo2ajQQhk89lJcFzXdVGFrutE1fmgsFkj5y0J6zSF9977YPO3fgI4JIILKGoGSfbw9cVTxsyOyTkHYzNjmKmoQC1BtOs68q4sSyLK7x87J2LXJ/16QPsL6Ptr3jOzqYpIr2gAKqKqPpQwM1OXg4xqaqYK5mwRKdHK4jHkIBMzMXcCNvKu1sIfTnHWhZ/d/6h2sv/gl+eL+SD4cjCm1BgipOtSVIveFeNq0JG1cb7/2c+328XW3tu+GBKIxJA7/vW0TP7KpMuuA6qJYY4ttm28OH764BPXnZVszpNTM8xBrqgdgGmci5HzBczNLpo2CkK99+5Hrho9+PxRazU0oBjAe1FiBFnmn9vyUT2R5IisqGpSESLy3ofgFFQUBVyv8XRdR5ybsj+nTvurQed7TblCrSgKEKnIYrEgIudc7LrMb5xzK2CBqG0aYoPRqq4yX8R5n5N3YmIiMg7eB+Hhxs798c79OlhMenH8bHp+4CDerHKBydhEYoQmj0TMUMxPnyyKcjwa+CI4X8NMRfyapFxPG8gBMyISmBIpqyzOjg4//8RZYksiKRRMwdpmuohalqEohwkuJo5q8zYmdXt7777z4Y+53mqS2NMLc0OEiSh1at6Xi6RmysyBc0SFyCTvdgaAPYNKAKZJY4ptx+SITE0ACkURzET10ub6GvTVT/guoxz53ch6T9u23vtQFClG78OygSFSistCXHM+W6jELrsQAUDBnSYDe/Zl6QCIIDHIV0rlPFI9HG6/9zvbd+4fPPzk5OjZ+fkBCvLOM6sPyURNE0QcYmkuzg6as1E1GqEIUC/LJNZrE5qVaHIMmJIJsSHF5uLscP/zbdeNB2VK1EnjyNXjQUpJYUezmblyutBG3J17H374W79bbtyBEVxReJAfdgiiToiJnAHes+ilqs7L7KRldTII2nXdwcGzB59++uTJ47Ks27ZV4N69+7/zO7+zubWTp7Usa6wxm9eA6/S0ehCzEIIP4fzs7O///u8fPny8tbW1tbVVVcV4PN7Z2ZlMJi5w2zS5YYbJpd5jgOcQVZOqZyagbdu6CGUojttEXIBLQDDavfXhePfe+f6jX58+/Yyl9SSFF3YJsWG1gtRE4vT44rAaTbZ9NQEHYu+N9Lmvo+U0IRWLDSFdHD47evxgFBzFTjthR1VRgk2JItm8k/NGWu3Gm3v/4sOf3LrzHvtaqeJQQXF8clAMRoPhWEGOnSQkQW61wv2NhPraS4OBmbu2Lcrgmf7v/+v//Mu//MsY27oe1nX97Ojwf/jjP7l9+3ZVVaGoyrJcFcIDvWW/XhW/osuw3ZJZ3dCyvx6nWd3xuf9dDWM1qnzKzXFeJplfvZSo+sKbpqw1g9yimT15+vjx44fn56f/+T//3cOHDxeLRT0o/+AP/uBP//RP33vvvZUBSnTZFMmgXdcNq4GpSJI6cHBmsfOw1EXAdzGxwJcj2hzfG24Mt/dOD/aPnjyU6ckwYBwqx5Ji6w3OKUmcnh5tTm5jONDE/kWc3Hu22BGEyxJdmp8dt+fnowKsGrWDshFakXkXu4TIbvfOh1u379/ae9dv7ICGqpwE2kpVVb4ouy6pzeezph6NOOdS9GsAAGzG1Nd0JjXPXBT+/Ox0/9HnRPbTn/7EIJPx5snJiUBC4QaDuqprgGOM6wu2riy/iAn985pmL4Lp+mBW0Ll5dyKiG77v1ZEqAqCqKlWFWV3XH3zwwTvvvBNCmM/nTdOYWdc1Ozu3bt3aadtFzh9nZueYiDg7W8B1WRFMJRXBS9dqB5IIETbAFwW7KNIkM2JYPbnzW9XGreHG7cPHv26P98/a2UbpRuONrm1PZ+1cjt1oZ0OEYFHMr2dOXeYfAc1iVpUFiNE2Mr2IXRO7dhEXI9YYW+nYOLTCasOtnb3tvfu33nof421wiahRzZW+CF6dSkpVNQghhMJXZXA5R1FBRKoKTWRqzlneJCbb4Sk5x565aZqNjY1/+Uf//Wg0fPr02fsfvPuzn/1sMBg557q2BS3VRlqls9ly9q8v6lrgyK0v0hp9Pe/O+vXXP2eV1mw1kivHXPsXEZnpurGyOsUx9wUFRLl6ixmTyejx48eqqSzD7du7VVUdHR2q2nw+29vbQ84JBgDKRr2ZGdT7QmLHZIA6NhiqMkjqUkowg/NEzgxKDC7nqSvrW7s/2tzY3jn67ONnn/3Twfnx1LXj0YAL7pSm83nbthWIHN+Iki4DLlU9NI1khsIR0fnFxXw+HW9WXbLhcEPEXSxSUY3euv/e7t0fodrAaAtKFiHk2AeCU5iqZrspN0ULnmGRmT0RYEqqBGbHlynsBJhqcj4MBlVR+Kadz+ZpPp+dnBwXRVFV9ZMnT/bu3t/Z2XW+Uk0ZKzfRsG533Fz7myzqRTzpJs9Y5yU3j+m95MvvV9JqVfyLNel5s737qkjP1PKlcnTYe980zcXFBWCincY4nWG+uDg/v6jr2nvf34mWjvnlICUZw4yIVGHJRCgUzJzT8TVJruoNzNo3O66jRiML49t3/sX41q1bD375355+/utmGgf1qKoHUfliNq+2Lfjg13PwjHpnDwADtzE6k0DSigjMCB3c7Z17j/cfxkhvvftb99/+iIfbKMaoRogK8vDkvTdYSh0A58mxa9tWY8dVyUxQ1dSKqvcFqZKqEFRzYquqJmZmg6W0WMwtZ4R3kesypU5Vi6JMqcsTlVISid771aoQ0crcSHLpj75CJAD6hPm1bqNLytlOa3OS2zotJdQXgPIaENehk2GxDrslpExVr2WV0LK35iUmzIhZRBaL+XwxHY+Ho9GwrusYo/PEDjG1OU/rMu3z8l6kIiLCplEkeEfEnRr7gkJg5qhKUPZEIBNlx+yCKRaLpvLe7f3ovcFk8/Zbn/zyHw/m88XJaT3hiZiIqEa/FnLvU2tz0CsmCeXAQaCNK4vRxubRwZOji+n+0ycffPDhh7/1O7x1G1SBCqC0TilUcGSGGHsPOjOIDISUYpI4X8y6+ayoCvaO4aBCzI6dA8Gt6hfVNOUUthDcYDAwsyTdaDTC06dEVpaFd8VkMiGiJLEsyxjjZfP9NZ30stJ2ha2VZMaSVTwHPctjr67lNejgKo9Zp3UesxrMVf8v1lCl3j9f9czu9Sy5JCVTdc6NRiO1piidIbXtIqXkPdd1WRSFD26ZH3ElYpzrE4pQgMgTYHZxcTFrYzkc+7KCD5ySmVhS5xxBU5fIe8eOysGibajrqmJj68Ptrbvvffqrj3/+8188enYyvHV6+56Vtb/kPX0FYT+/8N51EpmkZMehaAFxXNWb//Jf/0lVj7kaAAHs4UsBR1K1xMpGICbvPQMGaxbzIjgiKori5OjwFz//r6PRoK7rsiyD87n6k9iRD84XPpTMbEakmhXGsiydc9Pp9OnT/VC4rk1PnjyBuS42zvvcCNcvu+leo+x1XLGNa9BZTm32TbwIQ2treeO/N7laPmYdtesSTZfhhRXvUVUzSSkZVv3TLo+PbXf5LCLe+5RSTO1sPm07rqqqroequljMFotZ0zQff/wxAJAjIue840BETERqeVZzmsR8sXh2dHhxcfGTn/yLejTORp9nhgokMYfCk8YmEoeiqOsgWi1iy20qy8m7v/eHd37048PDw8FwUpQlLFHewxdrbt++/MvgGGpRu3lVMFLTLaZFXQMFXJGTXkHOiAUUo7jgc2aFIxA5hua+wbGbl1V5dnz8i5//4/7+o+Pj45PToxgjsgfdeSN2LoSiKso6FK5wcIS2XRDZ1ubYBxaJZVk+frJ/Z+8ewL/8+JPx5tZoOFk0cTQaFaXPtGIG61YPXvD2X132m5ry8+2g53547jG6pNUAVl+uo0c1qWpGzzouicgRe+8z7Jh5MpmY2WcPfl1WzKzj8cb29rZz7vx8mlIaDceqbJp7XObGVssUUtGiKLqkYjoYjpVgRu+996OyLOuqVEmQFIKHJGiCc0hACDBczBfEvh7WAJpu6syqMgAGVbAH0DYdaZKrUeo+N8/ssqKPoIAxFOA2prVGArzaiiQLaWhuE+xzzlCOT+UCGuNLbUBhjjgno5hmXiMxSkpdik3bzWJsDXp2fHJxcRY8q2pVDeq6/sdffHx4cPLT/+4PJ+PNpmmJqKjKmwbOc1d3HStZtK2jasWlckhyhcW+ydBVohfH0a5pPyvIrvSeq2jOgXS98qUxEbFDVgAAZKe8mf2Xf/j7w8Onm1uTtl3khIrFop2MN99//4OtzVsAr6ADsPadbvLOFcvhUR+SyqEPz84559ZellUX876tGzKHVs/OICb9C0BERvA3EhyWuT4E9MkinJ1QYmYE9oX2NQxLBK1CrJZPpz7bsm96QoBTQm6QClDfks05NmOHbHPneVdLjpHbZ4vG/YefP3qkKbZd16WUVHU4HJbF4IMPPrizd4+IiVlz7uma36VfpBdki616tF5jRSuusFrm1fO94Dpfgp5rn68Pb5npe/mWrjvekSskV8Y/ZdfOxcXFfD6fbIyIXOZbK7j398o9pbIGmV/UKwFw9JnGhsKH1SuENT/CNf8T9aewiOUmDQbOkXwm+tq7u/XvjAFA39tvfRqN86NeTpZzAPJWD7xs5UdEuctpP8V0+V6mmIjFOTIzEcmgYWZAs/j3zvVsg3P7kYy8ZVoQ+g8v0mKIrlg9qwVe5SuuCyAzW49Xr394kRy8ZrGvfuuNgFyvc+SFN14bcJZ3uZHFpR0gYot527Zdzp7rOsqbf1suyLzc0X01gOuehXXKXI1ueB+uzpXdeHBmzpF8oi9Fz01bQ9RW67TE+/OPzN/2TGz9gkRYSrprC2kGH4Ll4hOjjIyMlbwq3nvvSmZWNUeUUgxF8dzn/wIteH2QtPYs60rrtSe6+XQvun5K6bn3ummjmRngzC6jfdf4lpmRsVlal7A5fQW5DZJzTJ7ZFUWBvk3J9Vvf9GVfG8P6+3DzlaCruv/ygB5zX4/3EFHei3pZCENAn0Df85v+N9nyvbnsFYTcsLDnCkxuJcTILjm5iqiCHZh9CME517RtjC2zd5xSSsFXS9HuHCO/f3iOnHo+b1CV585R9pcQXWGc13jP+ly/iLLNdQ2CuNq7FFd4HmGpCKxnm5gZkXLePUM1JzJX1WA6O2+a3MrZxPW82fpkMTJdV+MyD3vhUL/wWa50/7j22Xo74wvruW7exuxa763sNbn65/POXddM85ey1smG1rgXk1coAcQUQgghqBVERuQcBxGrqqosS+cCAGYXU8TV1XqRTPmCEZrZDXUH6wO+eTrf9BMDWEqom5Luxcenm1+u1B2ACY5ARCiKYjweq3VVVaeUmMk5Z0plWWb7PKttXzD4a7f4YrH1XLp28NfWe3JHsF5a5ULB5Wiw8nX2Wnt+C/Pv/qTlq5FPwZroy6RgYjgiE0nz+WI6nSbpAOTEJgDM7Jw3M13ucbE6eTUjXzBxK2G9xrH7P82wPqHL35c9Idah+aIa3GVfket3v6n3LI9fX4IrkjF73vs/lRy7qqpOThBjVFUzjjHFmFQxm80mk83VwyzHSUSk+qJ5uHzfro72a+Q/fTl61qeMiGStl89zpMWNZVuuAYDcNmVdKNy8AHddx31Kc0FwADN5doCx914E3hchBIKzPqrjVg25lnruF71zN1fxRbyq54VX0fClvORFt77EwRd5Fi5H7hyZuWwEZfOKXS7RBJErioLIshkxGo2KolA1096cWc5txv0LfeL4Igw9ZzZuTsKXo+eaKod17vKCg69woLXK+fVVuqKBrn3vXGCGqQBGPjRdlNhVVZFSLMs6ioWqFJGIyD5ksfm1NhGiLyxV/ura99di+F/9+LW3C85xSjGEYGYhhPwad10qSytLb306MxNcCGF5LgG8dL5/DQn+pcNbP2B17vduP/asfqiaqpgZkeu62HWRiJqmFXPvvF3Xg4FEiAit/BwAXsxFXkWKMXnvM8fqy6z6jGZOSeezJrtLQggi0raxKou+g9u3SF/f32NfNQ/mZs3vTY51sxhLVZiZmJldXQ3H443YxPl8Wte1KsqyqKoKgJE6dsxIqRdbWW18bQCUM5dSuvT3FKXf29sbjUbMlAtGmdl7PxiM6rpeKRS0csd9Q/rqeU5f1v3pN7z6tb9fhJ417qGMHLiIzGyaRJJnZu7TCBWoB8OcVcjMIrbuR3n1obNuAYAIMUYiyr7TrDhl37qIAHnjyETkvAvZF7wU4tcaRn0t+jbQgy+8x/N75LwQPdQfxwDU+ugPsrKtqxHmGi4YtV3HzFnYv9R9N78Vev5qmZlzTkRyf8iUEkiZ2bQPgQHGxGqqeVvMVe/Ry2v+JujBF577Zb3DvhNSIDhSJTOLMRIQQsiuHZhpUvYEQggB1IemiS476H5dTfZ7Tqq6nnySIzZmZsrW5xP3co3JXzXM+esY3t+cfkP03ET3b6q1xRgNUoSqKPouzCkKETnHZmQCcsjph33a7zI8+4rT9ZnMjKePPFtynhwCgSzvdJzTE/oNpbFyLX5hL5F/hlFdW9//H5C+zdP/TMBLAAAAAElFTkSuQmCC'</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAL8AAABoCAIAAAAvs7bGAAAid0lEQVR4nO19S49c13Xu2o/zrlOvfj9EtSlSFG2LZhQEvo6dm0HsxPAgcJCZkUmC/AGPAgTIzDDgQeJRgACGPTVwAxhBgnvhBBkkvo4DyxIc2PdeyKJEqZukyH7V+7z34w6+qs2WTClhwxIpsdagUWRVnz5n72+v9a1vrb2Laa1paUt7SDs5Oen3+/xR38bSPsS2RM/Szm9L9Czt/LZEz9LOb0v0LO38tkTP0s5vS/Qs7fy2RM/Szm9L9Czt/LZEDxER5zzPc60157wsy7quOedVVXHOi6JQShER3sUHHvX9Pi4mH/UNPBZW13Wr1SIirXUcx0TUNE0QBPgnY4yIjDHT6VQIEcexMeYR3/HjYUvfQ0QENNR1Db+itYangUPK87woCillq9USQjzqm32MbIkeIqIwDBGhkiQhIiGEEKKu6yRJpJRBEBhj6rpmjAVBsIxczpboISKqqooxFsdx0zRZloH3+L4/m83quhZCJEnCGCuKgoiCIHjU9/u42BI9RESMsTAMiQjux/f9pmmqqmq328aYwWBARJ7neZ6HDz/i231sbMmaiYh838+y7ODg4N/+7d/eeOONdrv967/+65///OezLEuSpGmawWDQ7/eFEMYYrfWS/cDYsjuMiL71rW/99V//9cHBwcWLF9fX15VSBwcH4/H4i1/84te//vWdnZ2yLOGcmqbxPG+Zc6E77MnyPZxzIgIUjDGc89PT06985St5nn/1q1/9wz/8w3a7ba1ljM1msxs3bvzVX/3V7u7u9773vS9/+cta66qq4jiuqgohbGlPlu+BikNEg8EgCALG2B//8R/v7Ox87Wtfg8xjjMnz3PM83/eJiDH2z//8z1/4whe+/e1v/8mf/IlSKs9zkKFH/CSP2uB7niz0EBFcCLTBv/iLvwiC4M///M8550opY4yUkjHWNA08E2NMa/3Tn/70c5/73A9/+MPPfOYz1tqmaaR8snz2L9uT2NcMATCOY2vtP/7jPw6Hw69+9auc86ZpGGNCCKWU1tr3/TAMfd8viiIIghdeeOGb3/zmP/zDP4xGI2st3NLS6EnL2EejUavVUkoxxn70ox+98MILkAcBHSGElFJrXde1y9jzPPd9/w/+4A9u3LgxnU5BlR71czwu9mShx/d9IYTned/4xjcmk8lXvvKVqqrKspRSWmsRrXzfZ4xBYp7NZmEY1nX91FNPXb58+Uc/+pExZmVl5VE/x+NiT1b8juP4+9///t///d/nef5nf/ZnwAoqD0opZGSMMRTYoT5zzkENr1+/PplMsixL0/QRP8ZjY0+W7zHGfPe7342i6Otf//rVq1eFECcnJ2EYKqXAl6uqappGCBGGoed51tosyzzPgwbNGPN9/0nLM97DnizfY639m7/5GyICCFAHRTndWktEEHJcQm6tTZIEinMQBPBPy0qFsyfL9xAROrx++fUDTUp5fHyMYsVkMlni5h32ZKHHWovcylp79vW7fV5r3e12rbWe5/34xz/e2tpCFPsg7/lxticLPbTo3fnl1w80FCUYYz/96U+Pj4+vXbv2gdzjh8aeLN5Db++v+E8jURzH0KC/9a1vfelLX7pw4UJd10uh2dkT53se1qSU3/nOd6Io+vKXv2ytdQn80uhJQw9jzBhjjGGMnX39bp+vquqll1568cUX//RP/1RKiQrXe/CkJ82eLPQQEfjyL79+oAVB8M1vfvOzn/3s1atXx+NxEARFUSzrXM6eLPSwdzG3ewuVLPRpcM7/8i//8mMf+9gf/dEfKaWiKLLWRlHUNM2jfo7HxZ4s9LybGWOQfEkp8brVav3iF784Pj7+4he/GAQBlCHG2HJDxVlboodo0W9aliWSLHiXv/u7v9vZ2fnc5z6Hz9R1jTLqsrHQ2RI9RETwK+hJBZs+PDy8efPm7/zO7xDRYDDAB4wxS9Jz1pboIVqUt8B4UCIdDAaXLl26cuUKJGkiiqIIZY0l73G2RA8RkTEGZXbEJiI6PDzc3d2FutPpdLAP0FqLzYGP+n4fF1uih4gIpSshhCu2TyYTVNoBJmstNrcjtD3au318bIkeIiLP81z9AYEpDENwHXT8uJM0pJTwQ0ujDzt6sBfC/SQieA4cWoBed0Qf18Tj9kvgYxAMsXcCJ2aAF+MK+BNoWnXNPegNwpXdr+Mt57rAwWnhuj6q9qEv+MEluJ9O/QOJQfRBSHIvAAUXmBw4sKUrz/MoiowxcRxrrXGABnYfI345L/UOqRpbeRzLpkW8c2LSR88+9Ohxi9ta6zpvXA511hM4uJydS+AG+9jRPRhFEWNsOBxWVaWUEkIAkfgtsGallHMtyOQdjJwTctf/CLufDzd63jFn6E0mIpTBnUNyM41phuNxkGKM5XneNM3p6WmapkADEXmeh+PDtNZN07ighuwMfwKQOuvkcFmENleFXfqex9oQHVAD11qjAxBTSGdaCunt3ajgQFLKf/mXf3n66ae73S6UnqIonn322fF4jCv7vu/7PnZZ4HAWR5icbwNuEODwrpQSBXkHx4+efbh3IrvJA2LKsgyCoGkaFz7ekV3D2RRFgW1cw+Gwrut2u93r9aIoOj09HY/H//7v//7UU09duXLlxo0bwMr6+jow99RTT7XbbXpQPAI3QlgEcIFjpZTneR893/NROEPDZVIunYZ7wLtKqePj49FoVFXVbDabTCbj8biqqjzP8WFr7erq6rPPPruxscE5j6LI87wrV65cuHBhe3tbCPGzn/1sZWUF4SwMw+Fw+JOf/KQsS9/3+/1+t9sNgiCKona77XkejlMVC3MB66MHHWcfavRYz5NE1DQNDhWcTCbY3feDH/wgiqI8z+/du2etXVtbC8Mwz/NWq+V5stVKAJQ8z9M07XTa+/tvrq2tcc4ZoygKb9062N9/8xOf+MSnPnWt3+9XVTUcDpMkLsvi1q0DlFQHg1Ot9enpaVEUURRFUURESZL0ev1Wq9XpdDY2Nnzft9aGYfhRPazuYSPXw8msnDOrDXjA/Z0MUmql7jMSKVXTSM+r60pKgd6adqeTzWZhGAoprTHWWg5+qjVj7PT09OWXX97Z2e502kWRv/nmm5cvXz48PPyP//iP3//93//Xf/3Xw8PD69evZ1mW53mn0wHnJSJrKYqiOI6DILDWlmVprY3jeGNjgzGWZZkQYmVlxVp79+7do6Oj3/iN30Ckk1JOJhPP8/b393GEqhBCa12WZVVVC2atyrJ85plLo9FIKfX888+fnJzcuXPnN3/zN/f397XWe3t7h4eH165dW1tfN1pzIcqiDMOIiKqy1FrHSWK0dukhLbzpnGaR5YKfPQNkOBz2ej04PIRplwrAfP/9Qu0HEbl0o4SUgnOylojQF0xEQkoimozHrVaLrDXGzKbTVtoiRlzwNG0R2aSVEBGR1Vqdnp6+/vrrr776qtb68uXLnU7n5OS4rstPfOLjxmjGKE1bb7xx89KlZ05PTzqddr/f6/W6RDaKwjRN8zxH+p0krfX19TRNq6rKsiyOo83NzdW1NdxMls0YI6Wasiw7nfaVK8/mea6Uwj2022kQBEptgzBBoiyKoizLpmmUUkrpK1eueJ63stInIt/3dnd3NjbWoyh87bUbTz/99O3bt/b397e3t4Tgt2/fLory05/+b0We+74fhCERaaWEEMSYILLGVFUFgWBuEqyfeZ6s60oI0WolRJYxkhL7iqzTDhj7ICLmw6Ln4Vp6GSdilqw11nDOiVlLlqwFseWCWTKNUtIT0ousNUWeTyaT4XB4+/btKIrG43EURWVZMsZGoxFOXup0OltbW9bafr9HZGez6ebmJhH1er04jieTSafTgVToeV4cx3Ec459KKd8PcG5cGIb9fj9JEs/zoPoppYIgCILA87zhcIh4lCQJsidIiESEXwmCAK7UqY5EZC1xLsqyxG81TZOmKc58uXDhwmc/+9nRaJSm6ZUrVyaTSVmWjNHf/u3/uHnzZqfT6ff7nU4nTdNr166hGU0IEcahG0mjtTWmqiutdZIkVVUFQYBMENT+bcP+QVXiPgDeY+u64pxzwbngRuuiKOIkKfK8lbasMXXd1HWVtFr/5+c/f/HFF1utljFmPB6DrDDGPM8Lw7DX621tbSENnkwm6NWSknPOu92u1np1dZWIQH3wh9vtdpqmxhgMtDEmDKOyLAeDge/7cRz7QYAl7nlef2UljuPZbBZF0cWLF7Msc6UuIsIp8UjIse99PsFhiH4xKaUQsigK3w/QggjiPJ1OPc8D9c6y7MKFC1yIW7du1XW9t7fHOddaJUkyHo/v3n3r5MSLovDNN98sigL4Xltb293dbbfb1houJM5OJCJ3EgPSTAS4s6D5zzq2fzX2/qJHKSVJYA+UhP4rRJwkTV1PJpODg4OyLF988cXr16+3Wq179+6laWtvbw9nD1hrNzY2UKTEbvPpdCIEDwK/3U6Vaqw1da2SJEGRAfHeHYobhmG73YbrCoIAB6mEYZQkSavVappmPB7PZrNWq9Xr9bIsi6Koqqo7d+7EcXzhwoV2u82FaOoa5AagdOWt6XTqqiJEhMKIlF4URWEYWmuF4O12Wtd1UYh+v09kjdF1XXW73dFwUBR5r9ddW1ut63p7e7vb7c5mM2NMFEXPPfccAuLR0dGrr75648aNra2tNE3hC5+9cmVrawu0HSMcx3Fd1065OGsPS1LPYe8jehjZoig63U5rsVAO791D8dJae3R0hMO59vb2BoMBGMbly5e3tjazLGOMTk9PEeODwPc8jzE/CHwheNPURZFrrcrSRNE8nbHWpmk6GAxWVlYwmu54ZUwtY0wphSCIg1dAP8fjMbp28ALAHQ6HSKPcJ/v9fq/XgwTgKLM9Yzg5ishOpxMppRCiqkpMojG602k3TS0El1JUVbm9veV53mw229zczLIMKnZRFEVRAKZhGOJUoTiO19bWxuPx66+/Xte15/vGmIODAxSAn3/++W63i9PQMMLufowxRIzz95f6PBx62EPynk63Q0SnJyfj8fjw8PD4+HhlZaXf70dRhK8LCcMwTdPpdGqthXaCBMf3/TRNke5iJXW7XVfdxNmlaZo2TY3TnDCXROQYCTCBL7yhxXGFvh/gUDApZZqm2CaB3RTD4dD3fSllXdf4ACQcFCt6vZ7v++BMTq2GzoS/i3tOkmQ0GiEFK4oCH8PJ8654ApFpNps1TRMEptPp4JAy8PooilZXV6uq6nQ6SZJEUZSmqVJqa2ur3+9fuHBhOBy+9tpriLCXLl2azWZHR0fPPvssbuCsQKr1+y5wn8P3PASA7ty+UxTF/v5+URSoJW1ubvZ6PYcVz/PefPNNcJ2jo8NWK5lOp6C93W6XiMBVEcg8zwNpRb4DHyalnM1mvV7v9u3bKysrJycnnU6nLMtFim4BLPCnsiyjKAqCABABjxFCbG1tTadT15uBjX9HR0fI5KfTaZ7nWZZJKe/evRvHcRRFuL5TnJFXO4kZZEsIUZYl8qC6rj3Pa5pmNpsJIXB8+HQ6SZKEcw5qDwfGOe/1euDvqNuPRqNOp3PlypX1jY2jo6P19fVr166BCP7TP/3Tyy+//JOf/KTb7W5vb+/s7KysrKAbyVoS4v0t0D5Y70HZWS1UGVdJNlpxzpB4M87rqvKDoCpLz/Ogx5C10+l0NBrBIYdhgKuBZGit0zS9ePEi5xx5Bw43Kcuy1WoxRr7vIxdFEoHRh/aPkQUVxTzBDbh2rVarZa0tisLREUAHdQM8l9b3T3rHTEsplVKfun795uuvA1LWWpzajNiX53lZlqurq1LKO3fuZFlGZ/qKGGMQKpHcKTXvKDprRIS/wjkHy67rWmsthOScS+khsJ5tFQIE8bosS2xBTNPUEhuNRpxzcPCbN28Oh0OckJckSbfbxXDt7OzEcay1SZIWlCEQO7hA3AD8qJQyyzKwxrO1F7h5LC3XO3XW3kvvwSrBYxNRXde+73POOBN5lsVJgpnhjBGR73lMiMloNB6PocvhD0dJTIwYY54ntVZEtixLrdVsNk3TlHMmpeCcCcGF4NYaIial0FrQmeI5ikSdTgexHBeHvoIWHMwQWiYACzAGNwR1XeNday1j3F3HOSTf98ej0WQywZXxn7QIdqDteZ7jW3PQBIKrwU+4qn6e51k2Qy7m3gIs0jQFWCFVLHb2SKW01spag3laBETTNDXNK/bk+x7n8/vMi7LdbiulsBT39vb29va01rPZrN1ud7tdV/cdjUbT6WwwGO7t7dV1DdRCmkrTFOG4qiohBM6tRjccBhC3jTFsmqZpGpfrvcMejB43IpgYjGZVlrcO9t+6c+fq1audTscPQ8l5led5no9Go8PDwyzLIF14YaiUapra8zxLVkoZRSFjFAS+MYYxKstCqYbIEllwScwISIzzdjj7TQhRFAXEFVAKp4kh/ANS8JRIplzly3kp/E/TzD/jOrZ83w+C4O7du1jTbHHuLpCHBaq1RpKFYIcV7PCN2cJJZCi6ORS6Si2iHs6uw/UxvJ7naa20JiJPCO5a1RbNaAzUnHNmjC6KvCjKVms+97igtXY2m+3u7oZhCAgi/mqt4zhJklaWZb/4xS82Nzeffvpph+M8z5MkwXmxdtHqD1EDY+VWBfjfu/UIPBg9aGFxaSHn/NatWz/83z945f/93zDwn//kJ/wwODm8B2VvrqoZXVdlXQWcURyFVVXlZRFFYd00mHJa7NTEzYHiYU2A3BARZFPGmJTzZEFrrVTDGHCg4AzgA4wxWpter4d5tdb6vj+ZTAaDAbj2L0eusqwQDTFzWHxa64sXL+KfVVWhVOIWH2Y0z3NjTJZl2EuKAYUHAmtBT0hdV0Ige5ecc2OsUnbRS2TynBDaEBYBAlr0CMBhz2dFyne0lFhrm0ZBuQD0cVf4cNM0qKnxxQnlYJboJvj4xz/e7XYHg0FVVUSUZdnq6iqSCTwLgALdC0+NR8MaeI8tbA9Gj5tmjK8QIoqiTqfzzDPP3Ll9a39/H19cBU3F8zxEFoDAVbUwT1Vdo5qNi+BunINxfn5eEDDaWqMa5YIOPCceFSsDaFBKWUuqUdDKUDEAAqy1+E6kBfiU8z2tVhrHcavVCsOw0+kQURAEW1tbSZLs7OyEYcg4h344Go3KshyNRmDZ8O15niPAZVmmFgbdEqOfpkndNGVVYCKxAqWUSiti1lihdIMHUbpRWkkhORduoWM08BOsGVLkoil2jkK+OBYYeQPIGS6L6xRFobX2/XmBrNvtZlk2m81wVnC73QbHgL569+7dl156yfO89fX15557DmCCjwSBeSDveS/0EBHujC/6OHu93m//9m9//3/9z7W1NTwYWh3w5EVRIP3GskaK1KjG8ySEOwwicgHOOXiuW+VEBOXeWG0XxUt09NGihI7V8A7ew4jDBRRFAfeLlddut6EmJwuL49j3fSEkoiFGB6D0g4AW9UiylnEeRtEmCk9ai7ef9VRjOUmp1X2IG2OapimK4s6dW1VdZlmWZRncGFZIp9Nx3B//gyWulZbyfvcPXxz5i0wNp7di/cD3cCHDMHJrD7kqzu4UQrjvwcTCjuP45OTU87y6rkej0c7OjhDi3r176Nd+44038jzf3t5Gigod6/r1647Ug2VDTnu4yIVv+sBdKqXu3bt3fHwc+N5nPvOZg/03iQiJCWb35ORkbW3NcREXpOI47nY7ddPgPuBvQdZcEjuZTIDRPM+F4GVVIAzBvYNjYvgAJoQth5611XVsl1lZWUmSJE3TTqcDwZcxRlA+QFDmKsh9+dUsNmeZM7n3XMJZPIur8GMiped5nsc4pwVr9nw/glJnrdb66b0LUDSsNUVRzGaz2WxWluW9e/fwrYNgTghbnufFUcIYn9dApcS6x58GN3IAtdYaY6M4weKBRtVqteCEENrgLVxTJRzkzs6OlBJSe13XJycnn/zkJ1955RUhRK/Xg2/b3Ny8ePFir9cDq4N06Rpw2btXzR6IHhsEvhCirsr9/X04EmNMp91ijK2trfu+73l+lmXj8Xh1dTVJWtPpDOQxjuM0bWMspBRMEGNWCqa1auraaOEikTEGJSdALc9zKb2qroWQTl4D20BUklJGUdROu71eDzXFKIqiKEZshdiKh2ecqwVpddrr4p/32wIxOtLz5u0ijKM7gpMlYk6A0NosJlcSsaZRfhAQY8ZYa7XnccRTIYSQXlOXjizHUSuO0/V1IqKPX/0k2HRZlrPZbDwej8fjLMuGw5G1hGgO0Huewm0vxnAuUsBjTadTIuZ5XhRFUkpXhHff6APBE+gsimJzc8NaCwGT5rF1rvu7AggRxXE8HA5//OMff/rTn7506VKn00HQxNAJIc74nrchiRVlGQZzVUYIYY3mghPR0eG9WwcH08m03W73+j2t1Wg0Wu2vGmOhBqHCglSWMYZaErjwIh8xxtaNbhxvtYsdmVgHaJTBwuKccyaLssmLCmsUcnCv10uSxGmpYDnu7t9NTn2P5fK+mrUPdz9KqTzPhsPhcDgcj8dFUSBIodofRRHG013ED3yMMwYBaalr0Xc1mbkSJjwpPaX02a/8ASCKooCQTURvvfXWjRs3ZrNZEAQvvPBrmEoppdb3DwzBODPGkM6TZaeDo36/z2rVSC4mkwk0GGtMVZU///nPGFlGLAyCdrsdBMFkOj45PlldXZfSc5TeSWGdToct+pIc1TVGCWktabhf/CeQBG4LGEENK4qirnWcdNN2b319fWNjo9frISMjIieduTwc9m6HoTw69DxYiH+3+7HWnJWDy7KEOHlwcFBVFZyutTYMwyRJwjCMk8gY7XwVwpZdFEwQueClPM/z/UAray2dzcCxepESImubTqfGmCRJ0rSV5zmR9TyPc3EWPQytNng6y6y1w9FJv99nxlo790uWiF5/7UZRFFIKwefEwfOkH/jGmKqs8rxotztgUnCPuA/cE5DhJBZjFBe2KPIsy5D7AVsIW1mWoeM4DMP19fWdnZ1ef3V9Y5fx+xKcXeymcyjB0nEv3i0X+LCgByKq+4D7CZkNUzsajU5PT9HelLZbnU4blRz4G7Bjl9s7GZ1zLoT0pE80F6+dTI/FjO5Kt30Wk4hemjAMPc9HSF14Mki482e01g4GJ/1+nxVVGfoBxM2Dg/26qhijVqvFyKpGNXVtycA9wmWhrfMdIzWbzdy8AiJFUVR1aYyydq6LINGdTCbQSXu93s7Ozu7u7urqqj/XezhZYSwDYmiR0vNFidEu+hBcBeCBZZb3mK332x4WPZwzTIcjFpgwKJ/uMZHelmV5563bs9kUlbI0TVutFkgJklno0ZgpKaXn+VVZMTbfXuJaFNliCwoRgTYAi+5IRs/zhJDGGPyu1trz3in5HB8f9ft9VtaVYExK+cYbN6uqCnwviqLJZCI445xxxkA4cE9hGCKI4gndQ0K+c6mQE3+zbAYt6/T09PT0VEq5u7u7s7Pz3HPPnR3ZRX7EGmWd73EkCY0vTgalBYBcevJfn6332x72ftBWS4vauzO0hbjyi1zscjRWI5s7PDx866233LfNbWxsEBHos2PNQRC6iO/KJk5P5/xt25WAYMEl5hQUx/M8xuZtAouJwqUW6Kmaypfe3btvHR8fK9VsbW7meeb7PmeMc+ZJ6Xlz5ZSIjDFZnkOhclIHFBoHGsSmqqqaRs1mGcqK29vbV69e3d3dJcbQycsWRowt2lKIC8/Y++HJLT78lY8eeji/X06ht4ce94vsfqO79n3P0lw+QN3q5ORkMBi89tprvu+3Wi00xCFZ8zwPwje+lYwWEAEiF9zIh3Ri59sWyGiLMGetBddpGrfnH2KV4Jyfnh6D95jXX7tx9+5dS2ZzY7OdpihqCvTLCRRu0PWtpOe5Cg7SJZA7V40HIy7LsixLpczu7oXdnQsXLlxgQpAxaHlBxD07pnMqw8jYtzGA+2+9/bCBsxzwoWbr/baHZ83WraIFRO6XmRz5ozmMqKpKt7cQH8YCU0qdnp7eu3fv5OQEDVLdbrfTbWvdBMGcX/9yBZQtdpyBhnMmGqWgUDDGmlpVVVWWVZ7nW1vbC88D+UCcnBz1+32mTPPySy+dnpxcee5KEPhkbLfbNUZbY5RqjNYg+dDKBoOBtvMKBoRmIsrzHE02o9EIDbnb29sXL17c3NjmIiB7X3xzg/iO0bzvstk7v7cG+d3ZLP3sDL2bBvphQY+rLTiswPRCybSLnfaLEbDWGucqoMFqrVEDx7ygYj0YDMqqiOMgCHyUAdDcDZUSVdiz48w5J2JRGNdNY4whYtZYYEUpXN+tasYYHR3NM/byxquvokl7PB4JxuI4NsZIwTnnjCz6b4qiqOpaKW2JIKKjbQ/6BM4PWF9f397eXl9fj+OYGDPaMvIeqrvWsuUx7O9t9t2681ysB8+t67pR9c2bN4bDQV3XaZoiNYvjGBvcOL9fzXUwUmru/oSQcRz7nk/EmqbxPL+ua98P7OIMGqBHTibjsizCMBwOB1prGQR5nidJbIxpmrqp66qqqqqsqqpROk5add0URYkdUrQ4det3f/f3kDp6vk+LNNta5smHQs8SOv8Ve6/xXFRlOOdCCnn9U7+W5bOjo6PBYDCZTK21VVUrpdEZTMSIGOeWsXlwgFsCi1WqabVSKaQxhgi9U/MTHdxJNxJFzSAImqZut9uekJwzS7auq9lslmdZVZVwnoyLe/cOq0XFu9VqbW5u7u7udtodpZUQghEjIm2NtpZxzolb9jCQeBKPA/xVPvOZuMmk9DjnsyxPktbH9tKP7T0znU3H4/HJycmdO3fBhFBFRg2bMc4YWUtQfcBcm0alaYq+FyllHCdNU5/d0SFRGxsOh0Hgc84n41E7bedFZo1RjdKq0Xp+0pElXRRlq93e2/vY6upqu90OFhtdORfo3CIiIYSUnrUL1X4ZjP4T+1X65rO5qhAc/6G0UkoFQbi7097a2sb2/rqui6KczTJ0i6dpGkUhIhoqGEVRDganWTbz/aCu6iiKicgYa4xx2/KlEKLb7aB6JwQfj8dKNXVdW2NU0xit2KLVQ0r5W7/134X0QeAZY8a4w5ckl5Kzs8Vqs4DPEj3vuzmv41JUtmgYMtoy4r4XIL0SXMZRcvnSs9ikNplMiqLIZnmRl1ywdrsFeSlJEmxUVUrP6+2edL1sEBqIiBnbzGaT8Xj8yiuvEFnV1Oh54Iw86SVxhONtOp2O8ENrBDHhMkl30yhqura0szW5D3ogP2T2UHv27Jmfb7NF++J96Czm4r6E7eRHvOtUDwejPM/CyGua2hh7piA9vz3fD7qdHv5WEATHx6f9fl82qk5badpKW62W1ioMfEy/J0XgB1ye2U5mrF3oMdbOnRjeEUIKId1bRMwthv/y0Mwf8yE//0QZWOQDhsiR5QWASGsjBEeJ1BWVGZvzoaZpOJ/n/GEY+X7Q6/WNUZPpMMtm2DuFthOojp1Ol2h+sN/Zjh/JuVBaG2O6nZ422mi1KGpYq3VTNQQNVEriwjSG7P1fFkI4J0ZECGSQwvX82KyP7MFHvzr7FbhnpzrSQpenxRYzF8Kg7xNRWZbQh5A9uQ9L6a2trq+srBhjUfbC9iaUvbRCG5PkXDgEM63f8Q2/Z1TdBzzoR/b4z6UR0UJPeo8IMH/L7ediD3yblnT3SbSHOzth6UuWdn5bomdp57clepZ2fluiZ2nntyV6lnZ+W6Jnaee3JXqWdn5bomdp57clepZ2fluiZ2nntyV6lnZ+W6Jnaee3JXqWdn5bomdp57clepZ2fluiZ2nntyV6lnZ+W6Jnaee3JXqWdn5bomdp57f/D+Jd2lm6pWHOAAAAAElFTkSuQmCC'</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAL8AAABoCAIAAAAvs7bGAAAm1klEQVR4nO19yY8kx3X3iyXX2ruW7umZIWcnByNxxE+ELdkCbAi+6G54gQ8GfBBswPDBF/sPMOyDTrzJF8sHAxbgP0AH6ftsGZIFmIJs0RJpmqKGnDZ7pqdrr8o9I+I7/Kpicqp7xtKYFMnpeodGdlVWZmTEi7f83pJMKUVb2tLPQFprIYQxxhgzGo12dnb4Rz2kLX2Cacs9W3p62nLPlp6ettyzpaenLfds6elpyz1benracs+Wnp7OHPdwzhljj/sWX5k1McYYY/iJ1lprzTnnnBtjfoFD/viS/KgH8IsmrTURYfnBHPjccgznHP/i26IolFJSSiklEZVlqbV2HGfLQHQGuYcqrFP9JMsyx3GIKE1TInIchzGW5zljzHVdxphSCpzHOddaP0GAnR06c9wDiWIlhxU5vu+DIYQQ9mQpJbSVMaYoCq2167pA6z+a0X/M6MxxD61lzwZprbMsY4wFQWCMSZJEa+15HmMsTVNIIM55WZZQZJBDZ5zOHPfYVa8aPUSklAKvKKUYY2EYaq3LshRCSCmNMVprGEPVi5xxOnM+1wZZzVUUBTgjy7Isy/Btnudaa5jMZVnCDBJCbLkHdOZkj5U3G95WrVbL89wYEwQB7GV8uFwuOeeu6/q+T0RKqa3msvTMck/VJwd/2H+VUhazsRDOcrk8Ojr6xje+cXBwMBgMPvvZz/7qr/5qmqbgqvl83ul0cAUAPx/t031MiD3z2WEb3AOzBqYMY6wsSynlX//1X3/1q199++23b926tbe3N5/P33333SiKvvSlL/3lX/7l+fPnF4tFo9EgojRNfd/HRT7qJ/tF08nssGdW9lQVE1VAZMdxsiwzxkgpi6I4Pj7+gz/4g+Vy+cd//Me/9Vu/BWMZVs6bb775la985cKFC1//+td/+7d/O0mSsiwbjUaapp7nbZ12erZlj5U6Vf1VFIXv+9PpFI7V7//+7587d+4v/uIvPM8DypxlGXAdMNy3v/3tL37xi6+++uqf/MmfENFkMoEKO4PK66TseWa5x3rXOIChA4M3SRIhhOu6f/Znf9btdv/0T/8UPwGCjAkCc0gpsyz7t3/7ty984Qs/+MEPPv3pT4PD8jxH4OJM0VnMa67CylrrBw8eBEHguu43vvGNJEn+8A//EFqMiBC9wnZCZHS5XHqe9/nPf/4rX/nK3/zN30RRZIwpyxI8tKVneRY2fHKttVJqMBikaWqM+e53v/vKK680m02ggvZ8/LWR0el0SkS/+7u/e+/evfF4zBgbj8dnUPCcSs8y91AFULYMhPjDX/3VX2VZ9pu/+ZtZlgkhOOeAcHAMTZfnOee81Wrleb67u3v16tXvfe97xph+v18UxUf9ZB8Lemb3kA2F2owLIUQQBN/85jf/4R/+oSzLP//zP2eMeZ4XRRFAHSklQqRIw4ANBIPJGHP79u0kSebzeavV2mou0DPLPZY2XOu//du/vX79+pe//OVz584JIY6OjnZ3d7Msc10XKgyCB+EIYwx4qyiKZrOJ07Z2j6Vnn3s26Gtf+1pZlmEYcs7n83mtVoPVbBUcrU1m5PG4rjubzVqtlhAiiiI49lsGAp0t7gGj2KwdqKqiKFzXBXwMzQV3HQwUx3Gr1VJKTadTCCTAiWcQ7zlJZ2gDQa4gQYeIiqIIw9BxHCDL1UAYbCb4aFJKpZQQ4t///d8vXLgAptmyDuiscI+1fnzf9zwvz3PHcYqiMMakaQohBLAHYglCSCkVBIEQ4vvf//79+/dfeuklYNBb7gGdFe6xBGc7DEMwkBACx/Soe49/hRBJkhhjvva1r/3Gb/zGxYsXiSjLsi3eAzpbs4AoKQSMlS6wY6CebEADHj4SC1999VXP837v936vLMuiKDzPO5sx9pN0VmSPrcyydRGIOdAaEAI8iJPBZOCVf/3Xf/3xj3/85S9/GfZyEARbqNDSWeEeS9YAsmV+kCKcc8/zaO2XwREjoldfffX27ds3btxYLBau60ZR5Pt+te7iLNOZ4x52gvD5bDaDWw44Z7FYKKW++tWvXrly5Y/+6I8YY81msyiKWq2GMNlH+xQfEzpz3APaMJCRwgy7h4gcx9nZ2Tk4OHj77be/+MUvcs6jKEJ9BeJiW6MHdEa5B2RDp7CRkyQJwzCOYxRz/d3f/d2nPvWpX/u1XyuKol6vI2iKMmRbdHHG6Yxyj810pkcTOaSUYRgyxobD4eHh4S/90i9xzmezGUpzsiwLggCVXx/d2D9GdLY89pNkc3pQjJxlGWoCj4+PX3rppVu3buV57vu+67owolFvurWaQWdU9liC52UDn0h89jwPUS30QqjX6/P5nNbgkOu6W6cd9AnmHhuQwl/OOUC8ahhho1EGTkvT1LbhAeoDi9gY47ou4MThcBgEAYBEIvI8D/CP4zgAqavReGs80aMhsGfeNfsEc0+VTq6TXpP9ysqYMAyNMSgShSEMWBnnQAiFYYi2B3EcF0WBgDxICIF6QtwF7At/zbaW2oADnlUf7RPPPVX7F4Rlw7rir3XLoZhgu9TrdQQl7JJHUZSmKbIKsyxbLpfGGM/zwFs2hkpESCLbqPhhlcYudiR2kL+g6fjF0jNlNVe3+ONQGegjrXWe50VRBEEAAZPneavVAt/gzHq9DqsIGR1WllhBRZWSsSqDbnxFz67s+cRzz6k64lS3CAuJaKjW2vd93/eNMXmeo4Q0z3P8yhizWCyKokiSJAgCqrCOUgqCx5aJUaURBxFVe0NZI2zLPZ8MsjKgGgavLh5jLM9zlK/DZEbKaVEUy+Wy0WjUajUigo0cBAFKS8EcYDKwJsBDa7NThXHtjcy6ItFGZ58xeka4p6o4bF9Lu3hVQhUpwJs4jhG3+t73vnfx4sVer1er1e7du6e1vnHjRhzHRIR0MKTHM8aQywHfrcoo7EQ3O1rXHz6rgoc+0XXsbN3GCwoCGcrWIYIOOrly8LaiKFJKjUajLMsGg0EQBEEQzOfz6XT6ne985/Llyy+88MKbb74J/HB3d9fzPK31888/H4YhnZZHZhkXdhLYy3LPs5FN9oH00DjdTeOctLaNagn70BhDpGndShL9uewIMNG2ky2hy2Sp8K0QgnFu1l2SrRtlcR0GdcC0UlpKSUa5riQiRowLrlVJRO8fHkZRlGVZHMfHx8dpmsKZyrIsDEMpZaPRCAOvu9P2PCcWrNft3H7pU/v7+51O6/ZLn/rBD37Q7/cb9VBK6fv+aPjgtZ/+NEkS13Xb7fbOzk6tVpNS1mo1PwgYI1WWXPhc8rIopJBGa2VIOk6R5zC2pOMQkSpLzAnQAeg1JBghIU2jGloIrdQqbU0IA/SBrziyChlYHYq1eDQI8yG61U8hex47mpORIyIi0lhsm4RFlS2rtQZuC0emKArXce3PVkJFSjJGKSUqO7gsCuk4RZEiZpmmaRiGh4eH8KG+9a1vtVqt2Wx2eHiI1UUvS8dxABY3Gg1jzHw+73a7ly5dyvO80+kgrefu3btxHDuOc/PmzdlsNhgMlsslLOvlcvntb397uVx2Oh3P8+I4Ho/HWZb5vo8QPREN+nv1er3f73c6HZRqgLe0UlwIVZZAILExGDhgvRmICB+WRYGyjdXnla6JXLKqbYcstg3ZVvX1jPnA9OaH2EPDVHpW4BNrMNoq8dV0MKaUQlkd1hItlQDGqDInIiwkoDkhpSpLIWWR5zj/+Pj4P/7jP3q9Xq/Xy/P8Rz96/eWXX37w4MF3v/vd3/md3/nWt7714MGD27dvz+fzJEmazSbGkOd5EASMiX6/r5TKsgybPgiCdrstpcQwfN/f2dl54403jo+PP/e5z6HcAkLLdd07d+5EUTSbzVB+mqYpetHB5xdCXL58eTQa5Xl+48aNJEkODw9v3759fHyslDp//vxkMrl161a32y3L0nHdyXjc6fTKoiAiMEFVGANtYpxrpQBzcyGSNIL8BrgA3Qozzi5ElXukdDeX6mnpQ+z+ZD1nC+/avxDO9kyLl0wmE8yjEGI0GnU6HcdxXFcarYnIWc9Ilqaz2eytt966c+dOURQvvPBCEAR3797F5BZFhlK95XJ57do19I1rtVqNRoNz3m63a7VaFEVJkmCn7u3th2EIb5xzvru7O9jdJaLlYnH37l3kf7399tutVuv2Zz4znUzQbrcsyyAIwjDc398HRxJRWZZJkqRpmqYpjPFWqwWlVpblYDBQSjUajd3d3X/6p3+6fPnyu+++e//+/X6/Dy4sy/Kzr7wSL6MqICkdx8CtkzJNkiiKYMM5jsM5L4sCDaNRN42sfogf23Coijl92PSBcc+Gg2OfhDGjtVp/i9CBWjvAPpGWksdx3O12tNZZlk8nk9FodHh4WN1bjLHj4+M4jhuNRrPZ3N/fF0J0u13O+WSSd7s7jiODwH/++efu3bvneW69XpNSeJ4rpfQ8l3PWajWLovD9oF6vCyE8z4Ox7Pk+ERV5nqYpgly1Ws113el0OhmPEW+HUdxqtRBA5ZzXajV4dpDcsGmgoPM8h8+/WCw6nc7Ozk6e51evXv31X//10WjUaDRu3rw5Ho9Rlvr1v//7O3fuDAYDx3F6vV673X755ZeNMa7rSsfxQ4/IAzswzshoYlprAsRQq9XA1gi6wQDYsOWJSMoPMR3gg+QeK2zYutuS1pqI4cGwaaAsIO1rtVpZlhD+RPTDH/7w+9//fr1W01onSdLr9bApkXPT6XTARkQ0Ho/zPFdKgTXb7Xae5+fOnUN/DGxWFPthiiHb0zQNgmA+nzImiAiso5UCJNjr92EbEdH+/j7waNd1kyRxHCeOY4Qpms2mUmqxWFSbO/u+D/SIiGAPlWXZbrcdxzk6OsrzfGdnB6r5xRdfZJzfv39fCNFqtW7evMkYazQaw+FwPB4Ph0Pf9+/evQuB1+v1Lly4sL+/32g2MWWO6yJ1v91uQ8wDo7JZkSd9zA8VZvq5uYc9RigyQ8wQGcMMMSIyZJQu84IMN+hsAjCNiDMmhZhOJv99cLBYLF5//fUXX3yxXq/HUdSo12/cuKaUWi6XjLF2u41dhfBCHC855/V62Gg0hGBKFVqzVqtljGk0GnEc4xUTWNcgCOr1eq1WQ6cwdHzqdDo7O2q5XGqtl8v5aHTc7XY7OzvRcul5HpF+8803Wq3WpUuXGBOO66ZJ4jhiNptMJiOIuvF4iEgZJARWK0kihFE9z3Mc4ftukqhmsx7HcaNR6w8u//QdmSQR5yQEm88mk8mo1WpduXLpnXfeGQwG7Xa72WyiqvXGjRtEtFgsRqPRwcHBT37yk36/3+12kZh27dq1c/v7sJDgpqGmETjFhs+1Ri8/CbLH5iqslJQxSqmizPywKaUkxlRZTqdTZJtDE2FPX7hwIYoirfV4PL558+Zg0Ivj2BgzHo/hs0ChEBHaXOR5vlgssDtrtZrnuVrrKIrQx6nX68VxjHWFdYV6P9d1l8vlcrnU2thwBPIGYbzPZjP0ZZ7P57PZzHVdZ13f7rou1Eqe50dHR3hGpRRCqjYW4XkeMoFgoxARBpnEca/XIyL0WiiK4sqVK4yxyWRy/vz5OE5934cBLqWM41gI0W634ziWUrquu7u7myTJD3/4Q7juxNhbb70Fy/rWrVudTgcVsad2ZfiwgcpTuMes40FSSpsEYxvV5lniep5CpxIhYOLhBCGEIcM4MW6IkXR43akbrSeT0Xw+Pzw8HI/HrVYLZqOUXAi2tzeYz+dxHCtVNJt115VJkiARAkIFYSYiarfbnHMYv+hdCr1WlkUQekVRGFJ5kdZqNWLr95KUWb5Ikb4DWz4dp0RssViEYRiGoed51uM9Pj72PA97GtrBGIP1cxynXq8TURAEw+EQifGofgfDYYqCIGg0GqPRCCOEIMSV4fTBwo3juNvtjsdjznlRFJ1OK8/zK1cuLZdLKWUY+q1Wg4jiuElEruu2Wo0kifb2Bs8999yFCxfG4/F7770HY+DKlStxHN+/f//FF1/EkGyeCREVK7ffIBcb4TlY3NZHs61nqrGUk76zOQ21P517cDYy6GxMEbs/iqJaLTBrDKbIc1sSBRyMWetH6yRJoigajY6h1LGZ+v0+vCE4XGma5nne6/WSJBmNRvV6HanpjUYDzIretmmawq3wfd92FyyKIsvSdrs9nY273e7BwcHe3t7BwUG/30fcaiOEaYxRpanV6ngidNDFXfb39+HdAH+yKBTM5DRNx+MxUJ/xeFyv15vNJlLMYPqAS+C3W4GHcVprGmZTlmVFUVjZaROJUJ8K57RWq6G4jK9f5RSG4e7u7vnz5/f29kbj/xwMBoPBYH9/f29v7x//8R9fe+21f/mXf9nb27t48eK5c+eazSbQLOwKK5MwQhhzeEDP85CgXS3d14++x+PJftxj8R7sDNzV3oAxplURx8t6o0FryG6FnEqJmyyXS0QA8PC+74MzUKiws7Nz6dIl9ANMkqTRaGA2MYO+76dpAgsXzwnU30aRXNfFpq/m5cD3hgeLHW+x6aIosAdsWCNNM1hRxhi47lLKF1544Sc/+YkxBmkbnU4HusDzvNlsBrsKjXxGoxHgK2CPRARBFYYhgEqlSuAi1qyGM49fhWGIJwK2xBhzXQ/Phc9tAzzsWAR0EXHr9/tCiP9+/x4Aqtls9s477xwdHTUaDUBNsOgdx9nf30cGXBiGYVindRthSGsIV9/37VaB54/Hh3Vv1bHdePjhz4r3YHOANxFhYIyVZV6sPdKyKLTWZh0FnE4mKKhjjNkXpEFiQ+wnSTKbzeI4Xi6X2Jc2JOQ4juM4CF5i9oHl2PJySB3wQVEUEEXYWL7v4y4YFed8sVjg1pgmlEPQOmbJuUjTFHEueFJ4GQWuiVuA0TE8rDpmHw+I+YHFY+U5flWWJWOr0Bt4GtsP0N8qWCEl+iiw9UtVAI2CFyEOcV9Ago7jAMwEprW/v59l2Wg0YoxdvXr12rVrRDQajXq9XqvVwhh8359MJtPpVEp59er15XLZbDallJgNx3FgaaE4pBrxAOuYCvD75AyTx3IPtgsEYJZl9Xq9LMv/+q//+u+Dg1de+T8IErmeV+Q5zMzhcDifz8MwHAwGGAQeXmslBJdShGGAmZVSEJk8z3zfJzJaqzAMtNZpmvi+B5kPKSqlbDabcL+h47BmZh3ZwaRDFMVx7HkeIqDWl7bLDGWnlFJKgwM8z8uyDDM4HA6HwyG2vtU4INik2NPL5dLOD2wpvia9TjeTUqx32sM+rIvFwl4ZqhCsv47ZkTEaqa3GaM6F1soYzRg5DjhPF0Wu1IqxgiCI45gxBtU/nU6ff/55vq6kBvCIBNwwDBeLxRtvvLG/v3/hwgWllM3KrdfrmAfITivzbMNhqzft8c/BPdCLuGK9Xj84OPjnf/7n//zPN5qNxmc+85LjOJPJZDKZHB0dNZvNdruN/WpRUWwCx3GIDFYXUgTihDFWr9eLooBGwHpDugB0wZkYRlEUSKbBAWIO+DzLsn6/j9s5jgPZMJlMrNmhlMLJVgJLuQJvUP4HqZYkCbYjHDr0ZYYLzSrR2fl8btYNnfEgVjSi+sIYk6aJ/aGdd9tdCrACPBIbn8IFV26HMXbn2H2PY6WUlMK+8AAtOIMgqNVq2N52YHrdqjxJkqIoX3nllSAIxuMxOB4bJooiyHtIPvCxerQ3iJU9pzp0RCQfZ06DkZMkISLAr51O59q1a++9++7777+fJAlk4N7enud5ruviVSCYKYQM8ZIirKuoEEZMRHiXEdQzho5nSJIETQiQsWWfCmoF+sUqozTNpJRK6QcPjiEe0jQza+wVstNCI0II13WCYMf3/WazCUlw/vx5+3oK6ThaKa31ZDJZLBbL5RLdn2BI7ex0oijCkIqi0Ho1HKXKsnTw7L7vg1esWMLP4aCB+yFNrfKFrIIZjr0HMMK+FRU2SpIk+DyKoiAIPM9bLBbAgYA/qXWu/mw2g/UWx/FiMdnb21sul9PptN/vY+bBWPBnj46OXnvtNcdxOp3Oyy+/jOqRqo2M5zqVgSSdCDKAyrJcLpfIQMiSdHd391c+9/n/+/++ee7cOVi4eZ5DtQOtajabiCoYY1D1jR2GuUNBHa4GqwgWD3orWc6gteLHS42gqhhjAA/NunWchae11kVRCiGm0ykWw/M8CDBkCQIw9H0/CAIgwpyvMrzAKHme+0FARHo99UQkHafb7fb7/bIs4Uuu9uK6L7jjuoiWgwmgtmaz2XQ6XS6Xi8UClRgYvOd5MKiDIICehXzFzsZywk6AuAJ7AXOCNQ3K89z3A22KTqcDGGJnZwefAwsFM9kZcBxnOBx2Op3FYjGfzy9dusQ5Pzo68n1/NBq9++6758+fh49WFMVwOFx7+Noaozb6xh7TLk0SZ0opVzg24k2kkyRxpGy3GsSYVuVkdDycjH3H/cLnf+Xu3btlVpKiTrMD6TedTh3uSCYFCclklmcw45vNpu+7pSoQUyyKghOVea6KgnPOjCmLYjwcwjfBpebLJeeiUKU1TjFN1t3Nsgz6xTrwTIia5z5/+VJjTUEQwMg4VdgyYoYMIyrh47iuQuRfCGw3HOCvcJxyPZIVMLFCSpgmEo7juKuSZEOmNxisTiNmyKRpulwuYRRCYi3jGHoHACaWHPIJA5ZSsrIUQpAxvu/nRVEo5ThOVhSwCgpVSuKTyaTKduAw8I3ruoBzOOfobN/pdJQynlcoZabT6YMHw09/+tb779/zvKDZbBNx1/X7/d3r118IwxDeKi6i1m8xw62t9/5wLxkjGWOOdHBvfGrF9WI+P75/tFgsAP9wTmWZt1qter0OHWGN+SzLZrOZ53kILQHucxxHSh4nEZEuClWWORFpDasly7KiLPMoiuJ4WZY6SSLPC0qtGeNZkUPvYE/DVoBcabfb3W4XY2g0GmEYpmlq7QzC0xMjolKVp3IPnUAvnoCGVc+xv2WMGTLQFIYbVqmdALtD3AJN6fV6ppJziDy1+XwOqxFwABQWAAswPS4I9WTzn6D4GAkLUSZJAsMA6F/VhMcFMS1pmgAjIKJGo6E1YSabzXqarhCKg4OD99577+WXX7558wXgqCfBww3IhzHG4jRxXVcwNNanLMvg+h6+//5wOFxMZ0EQNBo1GJ5oJQF9hAiL9S1rtRoeA6PX62ymokyJtFKmKDKtyRhVlrosc6XMYjFbLmNjlBCO1mVZ6lyVy0WSFwo2E2b//PnzvV4vDEMhBDQgPXS/OSw+i4nbNX6cobfBN+tg0GYp1snzN9hLr3OVTj3N+r1iXdqh16n11Z9oreeL6Xw+H4/HVlPjtFqthqQ2C11iT3ImEXOFkYCUAYtyWeMdu1cpJYQDj0+v0xdrtdpkMpFS7uzsGGOOjo7eeustxPxv374NDQvnDkiKWefX4goY+Xg87na7TBujjR4PR/1+H1mk8/n8rbfeQj6bK+RgMKjXw+FwOJ1OIVrSNC2Kotvtwm2B2c/WBStwhVaOn2Bal2WZY0bg/uR5jpopcCSMU6gnL6zVa61ef/fChQv9ft/2GOSVPGU8hrWFrVCtrt8TuOFx9POe/2RZZSqETxCEN5XSwfW5mogMGQhamLfQdDhA0kitVgvD0Pd9RgIbpl6vA4g36xaLAIcsrLfeyaSUsu8zhPcKfx7G2XK5jON4d3cX9jgsHnAMfEk7bL1+NT0RjUajbrfLkiz2XI/WUdkf/ehHMJp8z3Ecx5QKdr5tp9XZaduOtTBZwjDMssxWOYGBYLcbY4oii6IF0DZVoSiKptMpmKzX612+fHlnZ6fT63tew5iHWYim0kZZV8qKad3AwFpIppIfclJJn7rqdnWfIKtO5YwncI91s/k6bFz9lf2hXpW6lsRW5wshOOOWkwCzxXE8nU7v378POMr3/U6nAwcF+8f3fXSdxgXlunUwbCnGmCpX5bC4BRLZgDsD6cmyDLsUmLDWBIMMg4eXAEWp1+EwYzNT4zTyPT9NEsbYvXv3kM9Qr9fLIiOiPEnhhUIkSimJmWazCS8JShoGmnUiMA5r2ypVMGY4l1qXi0U0Gh3HcUqkm812t9u5cePFXm/H8UMiTZqIS2O41mQdcjuzlnVONd/oUTX0OB/h1LV/Mjc8WYxVf2vWfRHsrS13svWbUO1TQNsSkdYl4w/Liey9bCIArQIs6Wg0AoKMhh69Xq/RaGCbWYWOJCpaY4bGGDIc2AcgZpv/avs65HneaDSQGx4EgVIGOIIFGqrSqBqp6HQ6LC8zIhKM37t3b76YImN8PB670tFaS8Y9z5OOICLHcYIgSNfxZ+ATgAShsC3Sb+MJgBwXy9nxg1EUL1zH3+m2r165fv3GVSk9pXIyXJuSkRCSKUgrEpw/fFcNLH84unY5bYQLm8zaWNXV+lnsHnrUHH4cizyOq05yz8Z4rD2OiaqO3JqGQjz8bVVwQsWQFUucE3BFptM0PTo6Ojg4GA6HnHOkB4F1rB9nm4HYvSfWDWUwflhCnusVZWG9qjzPpXDNGhGFbgEDrc2pVXB+xT1ZkQohxsPR4eGhIWXfGy0YZ4x50hFCSEfYiGCUJNCvAK9gwcDBsyFJ61ykaToajev1erfbvX79+pUrV4ixNEmgPlcZBQDq15kejK/ihXZ32hVaBRoq5g6exGLBVivbgyfQk0XOz8I9G8rIVJ6C1visVWRVbgPxh2VGasNoA9kqJWMM1IrjOIaUDSaUZTkaje7evXt0dMQ5R24CYC2wkV5HRoE3AvTDlsYtwiDURkMQQK5kaYEgv30W2CE4dpzVD1eaKy+T999//907d4QQu7u79pWtzBjf98Xa2gBA5/t+XpY2AATEGVZw1QVDMwrP81qt9vXrL/R6Pc/3y6JARBBK9KTuICIynPhmCdKGrUNE9qeMkVKnc8lTs8X/kh7HtY8Zj2Yn7LC1TBKniTdl1dzGlYfD4dHR0dHRkS03QxcHKQUKRWzurHVBROVVdlZRpmmG3ntpmqZJjoAaUh+JiGhlTh0fH/f7fZbm0Y9//OP79+4hx1YI0ev1iqIgrbMs40QwZRAnf/DgQVYUvu+naTqfz2GagYGiKFosFkmS1Gq18+fPX7hwYTAYuJ6fZ4UjV7kKZl3jRxUFvznj/PTuBZxbFfM/L9XjV+tDp5+Tewg+F51ox7EhrirKURHb9B4eXkvr6XR6eHg4mUwgogaDPhFBGgHIgcCDvwZBUI1MI2kH8QPX8eEXB0FQrprOrHTogwcPut2udB0XSVu9Xm88HpVlEUVLxhgn5rquUUprrXV5dHQP4sfxAlQnGWMWiwWc8Pl83mg0EMjtdrsAG40xWinXDchQWSpoGyIyGg9cLcCoTvqmtYtvGRPreTy9Z+XJdXzM5x8uPZ5pn4QnsUe9yyfsCs75SWiTrd1PRqzf2x3097Ism0wm48nwpz99x/d9AHVJkiBs4vs+MmhtzBGYvjFGqVU0plarCcGIibLQlVs/EteSo/EoSZJOu40YLJz+MAyxummSpGmqVAFIptVqTWYLIkKFFOTeYDD45V/+ZUDvKMJC/IgxJgTKQGE5MiIqy1UJy4lJ/x8Qmg0f6lRL4pmhKndsHDN2+oaBK26ThIgI1ZLPPffcZDI+Pj7G63kR+4MJYQ38qjWJPCdW6Yb2KNJmIJZWAAHjlOWpMTqKlp1OB230HcdZzKeLxaJIMxhNkHh37twxTMRx4jhOs9nqdDoXL17s7OzkWYZk57JAThPnHLdEqbZcxQ/MKXyzMU3anNJ0oro1T87pJ5p+3gd5XGWx7yNPAVYRY0yUpS6KrNGo12v1CxcuRlE0Go2m0+lsNp9MpogNwCTyPE9KB+wiRJ5lZRzHy+WiXm80Gg0pZZJGUrgAvuHHrVyEtFh+5zvfcYQMgmBnZ2c6nTabzSiKHMmzLCszYDaKVtkOWjjuuXPnut1uo9FwkRVbqdAGq8J25pw7rk+aEWNGr3NbORGRVo+NK2k6W6+feZwE3dgw9vhk+An/woKpgu9EpHVJREWZATgWXCitxuMx0oKRBYBSEKT7cc6N0SjwSNPUGII0ybKsXmu2Wi2iVe02PHbpSncwGMTLCNlG4/G4WGVkpUKIIs2ICLmCzWbz+ecvN1rtLC8RAcnzwhjjuq4xJKRL8KiNltLx5Ao24FwSGU1ak4ZPRUSa1IqPTtKjmnVjlk+d6E84scrfRwgPuuaSh8fVv+szjfV5ae1VwdnGsU2PF1z0e/1+r1+UBTrORFE0n8+jKHJX5LBVqZMXRTFkB4BvpRSC7sy+IKbQSZIks8n09ddfD4IAtlWz2RSME9ONeqvVbrTqrWan6bqB0booDWBNm3UGJBRhuapvRasknlWKHVvXFbB1E5ZT5/J/CcN8AunUOiwiIq0fOpv2WOtVE0V7clUsWaPbxkkYQxMcXqq8LLQ2peCOkExwhzFDxLM8mU0Xs/mkyBXjxhhTloXn+b7v0xqzzvPc98Jut2tWxZm10WjUbDZZqVJa50JUU3Edx+GcSelwzhhxQ9ooo4x2pAfVa6PBIFsiZE60QPjQ5v0skhXMJz18Oq2eBi4zsGLGBDhK6xJ9OIRwiLQxrCgyJP2Ox+OizMpiJWCklIjRmvWLYHC74+PjXq+3yoWuJudaDJRWTWLAv8Q4E8Ypy4fjs7h79dmq/54lEfLRkLV+1pKGVdmLVoi2oysNo4wxjDkAD6ENAIgEgcNYiJJZiBKoLRhSJ9eaiCQjwUgwxtg6B3F1b16VLEREbJWB+3DQJ+XnxlNt6QOnJ0+sXb6N83nlPXZsHT+w0DM9EhnU1XIAa4mjQI8qWQxEJNmjWQQnL1o1V40xQqyS36jCMafauVv6UOkk3Pw/LoEVTkSk1g3drPRax/8fhngtD9C6/7V+tLxLEnHoTSJCvwXgURu5c+u7r6KvG7iLPf8DmJUt/ZzEHgVaNzz5DS/E/mtzLVSll3nVSLUiChLoVGThYZ+D6tpbvql+Za0wqgibKr7+gc/Lln5GeoIJYU84yWHVY2tlK/WI3W2BZrjSG5eVG9c9lTmqvFXNmjj1hC19fKi6LhsLbfONeKVXhNaac0kPbRh7Hc0YB7jAGCNiWpMxTEIuUeXF0mad4rQhUTZQTpCVdScZ8+whNx8ZbXCGPa46YvToGlXTj6rX2Ti2n5ysAjDGSCRJ0sPMB8YYGUMne07Z61Q/PFVOnhzKlj5UeoLD+7jjx32ycakqI5brt5jZXMQtlLelpyd5Mp9mS1v6GWkre7b09LTlni09PW25Z0tPT1vu2dLT05Z7tvT0tOWeLT09bblnS09PW+7Z0tPTlnu29PS05Z4tPT1tuWdLT09b7tnS09OWe7b09PT/AUJtdqZZ/AmZAAAAAElFTkSuQmCC'</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAANUAAACKCAIAAACy+pj2AABI5ElEQVR4nO29SZNlyXUe+J3j7vfeN8eckWPNVUChBhTGJkg0SXUb1N0yGbvNJBk3XEimjUwLyUw/QnttJK3aTEst2AuZUWYiQQoER5EAMRSAmqtyjjneeCd3P6cX970XEZmRmISqQqLiyzC3lzfee3Gv++fH/YxOIkJEdV2PRqONjQ0RYebmIi5wgQ8Z/HHfwAU+0bjg3wU+Tlzw7wIfJy74d4GPExf8u8DHiQv+XeDjxAX/LvBxwn7cN/DLjkfZQVX1I76TX0lcyL8LfJy4kH8/GUtRt5SFF8LvF4UL+fdTQVWXnDv9+gL/k7jg30/GacI1IvCCf78oXKy/PwHnEu6Cf78oXPDvJ+PhBfeCf78oXKy/PxUuCPch4UL+zcHMAOq6VtU0TQEURaGqIQRmbrfbRVE45/I8Hw6HVVVNp1PnHIAQAhH1er21tbVut1vXtYgkSXJwcLC5uUlEo9Go3+9fMPhcXPBvjslk0ul0kiQREe99Q7uGiOPx2HvvnLt9+/b+/v7BwUG73b5x40aaptbaGGNZlnme7+zszGazr3zlK865qqrW1tbKsowxDgaDqqoasl7gAVzwb452uw0gxqiq1lrnnIg04rDf7x8eHv7hH/7hdDp97bXXvva1rzXsbESmqsYYi6Jot9vD4fD3f//3v/KVr6ysrLRaLWttURQAGtn5MT/hLyUu+DeHMSbGGGMEQETGGABFUTSy8D/9p//067/+66+99tpsNlNV732r1RKRJV97vV63293a2vLe/+f//J9/93d/N8ZojOl0OgAGg8HF+nsuLvSPOWazWQghSRJr7Ww2K4qCiLIsW11d/Tf/5t+89NJLr7766mQy6ff74/E4y7IQAgBjTJMu470vy7KqqldfffV3f/d3/+N//I93795taNeIwAuciwv+zbFcH5nZWpumKRF57//1v/7Xv/3bv/35z3++2QvGGJfKRLMEG2OIaPmpEMLq6uo//+f//J/9s38WYwwhiMgFBR+FC/7NkSQJgBij976qqjzPj4+P33777ZdffvnLX/5yo0ysrq4CIKJGWFZV1WgedV0DcM5lWZbnebfbXVtb+43f+I1/8A/+QZIknU7nYvP3KFzwb466rmOMzFyW5e3bt3/0ox/96Ec/euedd37nd37nySefrOt6Op2KiKrWdd3r9bIsSxdIkoSIQghFUfT7/Rijc+6f/tN/Wtf1zZs3l5aaCzyMC/1jjiRJGnNJI9jW1taeeeaZuq6ttVVVxRi73S4RJUnS6B+NgoKzDjrnnLV2PB63Wq1XXnnlS1/6EhG1220RaVKqmXn5/obNjRL9icUn+uEfQKN8DAaDa9eubW5uAmiUDFpg+c4fk5zfmK+JqCiKl19++c0338zzvKqqj+D+H0dc8G+OEEIj0ph5Y2Oj3+/j0fz7MZhMJg2PAbz44ovf/OY3G+PzUuwtgR/L408ILvg3R7MU1nVdlmWzJoYQmn3b6XWzwU/kjfc+y7J2u33nzp0lHU9T8Kf5kk8CLvg3x9KSIiIAVJWIWq0WTvFvuWn7MdRprDPj8ZiI3nvvvcYR4r0/HTv9cED1JxYX/Juj8XwYY5q1stEYml+dXn9/ouhqwhE6nY6IfP3rX9/e3m4cIQ/EEV6IwAYX/Juj0WoBNGtlw4/mysPr749BVVUikmXZnTt3vvvd777yyivLjz+8/l7w74J/czRK6xJLQfjA236i3Op0Oo0v7t13340xfvWrX20sOx/u3T+2uODfHE3hw+UOr3mxjHBZ0q650vyq0VSaEITxeNy8syzLLMvquv6X//Jf/ot/8S8aPXoymSw3jo3Xbrmb/Fgf+uPHBf9+fjTks9Zaa7vdbhO1lec5gH//7//9K6+88o/+0T/a29tT1caaeIGHccG/nxNVVTUisBGNdV0fHByEENbW1m7evPnGG2/8h//wH4bD4crKymw2a0h5gYdx4X/7OeG973a7SZI0kVpN7DSA0Wj07/7dv/u3//bfNvGnxpgkSZoAhQs8jAv593Oi2+3euXMnhNDwLM9z59zNmzf/4A/+4Pd+7/eWSsx0OvXeN9S8wMO44N/PiXv37l2+fNla+8EHH1hr67r+9re//Sd/8icvvPDCZz/72UuXLk2n0yZq4d69exd6xqNwsf7+RJw/RS9fvkKE+/d3r169DuBP//TP3n777X/8j//xpUubMcYmgqZZdp944okmX+QjvevHBBed8nOCCAcHR5cvX3LO/M7v/D+Hh4f/6l/9q6tXr6Zpmud5Y81OksR732Rkftz3+0uKC/n3E3E+dfK83NhYm06nAF544blf+7Uvq0ZVqJ54jWOMzc6vsfZ9lDf9uOCCfz8nmnzNdru9NO8t09E/5jt7rHCx/v78aEyAxpim7EHjCPm4b+oxwwX/fk40bAshNBkhzZUmiOYCPz0u+PcTIef+iIQsS0QCkc5mk1YrNYYudNyfFRcd9nOiWWobgVfXdRO7cBFP9bPiQv/4KUDnqMDE6kMFEtGQtZKinIVYE6XABQV/Blzwr4EA3LR6hj9CEEAJAoAU8/VXwZbCdNZKEkA3Ooby4yzmcIoIgEGYE3EuEQ2gSgRtvp8BQBkAPcK+8wkBfbLP/12MPUkUEKkqBRVmNmyiSvBVYslS0xsRwaMqYpVrqEaHh/l0PDw6nE3HIYTE2CRJyDqilnVpp99b2VwfrG+glUFRe2/TTiQDcmDHSABEQYxiKAKyJOyy2+cvlAEspgSfuedfCXzC5R8vhzNG75wzzAYUVEQDVA2JY0IspK7rfFJMh7Pjo9n4yM+mLB4aEpU0AWewJMw1GD6E2eTw3l5+6x1q9/ubV69eunotXdsE1cxOies6evHWZNYa5zhEAQiKZTD+J2Pmz/EJ5d+pRXaugZHOUzxUBaEmImuJSSBVPdo/2tsbHu6W07H4EqFiDRYxYTaEGEJe5nVRxhgjyNiEnEsTl5CJeXX/veHe3fdN0nnmhZc6vTXT6jtxRh3DM5moQgQwgaAAgQAomIggJ6ZEmr+Us3f+q4BPKP+A+dI2B8EYA1FolFAaiLGAjwjlzTf/TquZr3P2dQuVl1mZj8syR/SOiYli7asyFxHnnHVuOjqwWZplGVtHwhEGRSa29d53irVLV9e3nmj112yrD04Qiqqs0l5HT1bb5sWvFsV+LD6B/JMHrE6qICVSRgxAtAwgoCynw4PZaC/fvyn1JNRefQkJoSrqfFaXuSGwNQCpBiMhMaadpWnLMEnUmZ+NRBRqnW27tEe2Hh4chOm4Hk/7G9srm9eSlU2YLDMKREXDOVYCiOcijggLybfQUeREd/lVwSeQfwAEOn/wucNMSWMkVlCERtR5frS7c+v9g533t7pc5sPZ8KjMc4p14mzqbKebGYJlMCgEeEaMQcq8DDNnxSCmDFZWJfFFNSqqGp3+hh8e7M+K8fHhdDRa3742uHSVB6tQr2SgrFAio6p4tBmxoeOv0hL8yeTfHA35SEFQgkIDfCXT/fHxzuhgZ7x7px7t7R1PHEKLudvLGJnGoNGL90rs50wQw2yNNTBCIWhEDDFEUUo5sS7rO6fd1IvM6qIKdaG+qmeT6eGVerxJz6C3DhWAiZxqbOTeaTfyCdn0V3Bl/qTyj2RuflMQlDXAECQiHx/v3Tu4/34xPoTPB5mJuVgSA0ChqqQRCkOcpmmofVWXImKJrbVkyRhnmNVGMQofERGKKqpXVLCZEWolLXVhWhxNiqFSqVa2nuswpyAjCsASRMGnlWAlkDAozM3gv1pL8CeOf8xcVRWRaSLzqqJUX2eWkVK5d3/35lvjo3tUj52Uvp7V5SQhlRglRuVlGQ5W1dor1FiXqSpEoyLUUVWNY+bEGk4yQ6qh9nVZh9pHH9TYGKKU3rpErTnav7lzuPO5tLOydSPp9TloiMEkHYWWhbdJgoZoJCQgVmC+GfxVwieOf025eiICBKqOhVMCy/TurdlozxdDrWdSTiiUFEqHaJhVjNBSLHHjyxCwkpKSQsFgUMNPUUiUEElJHYFgnVMyXFZe1ENUokT2IAtjDfDB2z94ms1GOyVyBkQSyFqXmDnPFESkc/P0rxb1AHwC+RdVrDEAJHqKno1AAuri9vs/lGqi+UjKsZRTCqXRYFQtGW+saNCGfMREhprIAyJt+AcxbIwxzFbFxBCir0WjGrIMZaNEJlOoCgHkKUZVr0JK8t4b301dutrpmsEGq0GsQdayjY2a3lCOSUGk+qtHwU8e/2I0xNAoobIG4CiTo+O9u8PDey6W5GdU5Qg1xZqhZrnkEjcyj8gQWwDabMZIFYGUI9QAROSc88oaRWOMIgKIBNHg0tQQmJRVvKhqkFoF8BN/9703ukn6zKdewcoWJKgvKelRY5E+7Ueely/6GDvvF49PHP+YrYioBMOAFdTl0cHd2+//iONMfaF+ZsVbDgbMqorYBBwQgYjBTIbnpDCNUIoaSSVE0QAlIASoiKGohkCI8BExaCQJYAKRZQKAqBCB+Mtr/eHB3gdv/WBtbX11sAZFDLAugsw88IbAClqaXS7491jDGqsSQESkCFU12jvcv3t8eLefGNWSYkUIlsmyoRhihEhQBc3Nc41eKovzP8AwpBIUiFFVBeqr0jCTIWaNiKTKli2ZosqZGWyZmYkdrGGxMP2VlWK6Mz3eP7h3a2X1EnXWDTMgEAbTUtoJlH4V4ws/cfxrYBgIfnq8t3v3g+HhDsPXVWFjYdRbwBCRzl0OUWLjdWDDxEokUVREIARLZlHKSlQYytAYayJmskoaY62qbMlZEyNHJYoiURlgGMtJwoxYrfRaeU27925z1r/8xAvt1asIAcyq3CzBEQqoaaqy/mopwI89/07Hz+mPM4zN3yYxEiIoiC9HR3v7924Vk+OOM9XomOGJqAnDEiWAlY1qUGhzmYjmFmcQoAyjzARHFqREIDDIeusMmKIEDTFoMGSNMZ1OL4TgyxCCiigTWAFrZqNhvzOwRo+OdpXTwcpGe2VdPHNCqsrc2AVB4EjCCjp5xmZxPsFCVj5O1sHHm38EIZUTzwA1FGSdVw+3II0xAmIMERDqOnqftVPN85tvv7l/920XqzRxPj9uWRp0+hxkNpkGY/r9vq/j8GivN8gm02FR+azV7vQT67I6gqKycRIjTNLKsqqqjg7289nMkfQch1A2SosKYojiRaqYZWSIYVLHFlFVKQjER8s6HR0GNS3XDsXxB29/H0wbz3xa/Vgp5SSzJguK2kcikzoWiaQynwWNR24eHtMYaRoWstLjEd/6ePMPwGLaK0BQbgKZAMCwUjMmsow5YAMrIrPRcO/e+HCnnk4cChNnsS4To8V0SgIiAlNeVDGqybJpMbVJstEb2Kwdoo5msygMmzqCD9Daj/JQFWWouTvY3lzr7nzwpmVK09QlVlWpMt57EVRVTTDMligSmJkTRoTWoe6kjlxaBBxPjqsQO71+t9/PVratYYglBCabJKaOKGtJDQNy4opbxGYtXhAWmkpDUvPLra/8CvBvUVeeGIrl6nM6FVdFwEQgViHH+fB4b+/2ZHwoMQcHRkgs2mla5BMVZGlKbKqqjEpJmgZfw0CNC8JlDIGszVpZu1fVEmMN5lbWafdpPB4fDUc7BwfPXLuWj4+Hs6kp61Y7c0mLYX2oYgiGolFljoYskRARA2BlkihRI9SXVdSDnbvsshc+u0o2AcUYPAyILDNiUCHiefg+AMhCvC32hY/T4ovHnX+6WHQWr3lJOhGBGGWF6DyBQ0HitZyMD+9Nj3fF5wmLgSdE58glLOI0RDKQGIWEwEpI2r06VGUkNmTSrnPwwlMvo2nhbLaxsXXt2o1+vz8aTu7curW/c/e9+/c6qemtXXaOQ12OiglCsMYxkZIKhKmxpqgqSNHJ3KwoC18ImW6rHW0rltN7tz+4duOpzhojyQxCWUeY1BhnEgOFgFnPmmOauz3bOfzLvfI2eLz5h1M6R/NCFnQ0IJCQqmEwMaAa61DO9m6+dbR7Mx/tWymZo/oiamVY8rx2lslyVZUS2aUpwXiNUY26VpK0yaW110lR5HUdEG7ceK6/unZp60p7ZQ3GrA3i2rVnoOFv/vt/y6fHx7McpU+sZdch46P4qLCIPI809ExKTcSzwFJMSMVYSsizeqnKYvz+mz+4/ExYb3eQdJ2ojxWYG3Vkng3V7ChOTb9lXNZCeccvvzh87PmHh5gHgBVkDEOIlBrrrYRqNslH+/v33ivHexRmxmiCGFETomWqytLZFgzDMNhY59g6DZIHIeNEuC7CJPeR7MqlK+uXrjz/6VfgMrgWlBECmtMICV/8h//k4J0f/ugHPzjYuzcry8QYx3BM6oMSGMokTDCspDCgupwlSavdTivhWVkG8eQ67dTdfu8tYZO1u53tG8ZkiBpjBTjAonE7A6SQZf7A+WaZB4Ntf9nw2PNPwXK263lusAgqQhKAABKpivHR/tHOB356BD9zqBMQc2ADAqxlzZIg0RhK260gXIVAgTlpsaHcR19H2LS7vr6yfunak892L19DICiJJxjDWQeg6Os6z1vGbTz3ylef+tTx/bvvvPn9W++/XZTjTsrOZhGVR2BSVk8RjCCiIkwaIZFFWL2VqOI0lCw43rl10yZXvF/ZumbSDlREwMyyWGp1ufkglnlg1smaS0066UcyCj83Hm/+LVYiLHW/JflEAqKPUjM8QfxsPD3eHx3ctVIgFipBoRAQhA2UyaXZbFYYRafVUi/HwyngOystpN26rtSZS1evPfX0pzqb27AtRBKynGQM40WqWpiYXScbdNTnCDXYrl556qXeYGXr0u33fnS0e7ufJlAjUkapVUIQT+Ih2s66ReWlqGCscy2XJkUIs3x8aWP7cDa8+8FbZJAkSXt927iW4RgRGFbmgdA87wWlJptFlM9u+y7k34cPgTanBzLABIk+Rh/rWWYZqUFdjnfv3btzc3iwL9W0zaGOtUjIslbibF2XUSQKYIxrdUPEKK/BSW9tuw6YVbi/c//pFz7zqRdf6m1uw6Zgh8hlUJulUYyAFI4sR+KoiCqWM5umEr3GurW69dxg5er1G8P9u3/7518PGjlQ4aXtkl63w+LrvBgXdeYyGJS+Rj1Lsmg4yQxrnbedqbU4uPcBM1+n2F67BJuRinEtEAeJdRAma6yjMyaZxwmPPf9EApgMM0EJIhJUooF3WQKfYzydjY+Ge3fz4z2fH5tYVDLtJIZsIhJDCEnWCpoWZRnqUIWYtXrdlbW8CDv7h8TJ6ublr/3G/9lbWbOdAZQkEDlHLrGGAavEAGuTMdTYfomiF+sssxNjgQDK2quwzn3td/7JnXffuPveG+XkKGiYVNFxmnRafpqrS4mIwRJCCCFqDFE7nVaMXMe6jvXBPRjWK6Fqr19mBw0qSkrccilgIrTywTm3sMjAnMpr/iXHY88/IgIpEElFVQhiWAACBVSz4f794eH98eFuPTniUCYU++1WMTkiw51+T4HRZKZsOoP1vPTdpBWV7x3NptO61Vl76pkXrj/5XLpxBTaFMIIQMdkMaqIEtq4xbzcRUnPjm1IVxBpmZtEQhZwxSHrJSgJde3Zta+vStR98538c3L+TWQ4kR8PJ1UvXYl2V+TRESk1qnbESIFWsColq1IZQT/bKOp9KNb0S6u7mk2QzY6yBRSQYIl14q+nxi4557PnHDNEIUYUyKZMAERp0eDg62Dm4f3N6tFvmIw1FgpgwsaghK6J1FYQN2ZRMIpS5dmeSh+PxVCi9+vSzn3rxM53NbcCGSsmLEoiMsS3AiCIEZIaFQArTDPrc/wcDA1WARE0IdRSyxloC2EkZeptP/Npvb+3cvvnWD79/uL9r09W9sTcEZ9uJayUcjUYN4owJ1UyiurSVJDytyun+nftaSaivCnXWt7m/Bo1SzQIqk7RbSRpU5ttBsJLQKVP8LzMeb/6RCiCMCIZpighEH/JJLCaHO3emx3vjw/s+H1qpmbxFNKLDo3xraxtk9o6OhePa9nYpuH3vIA/RtvpXnnjh2RdeWtnYVuVQk00y22lDTQghRAl1NNYw2ywxkHk8KIDGutjcUmobVzMMMSVtQEDqhWeT8cpgCxQxGW4/O9h+6sUP3n77B9/721u3b/Vbdq2bJYkJsajqsakDQR1DKTBqR1asei3q0f6h4SC8MZttX4/oDdgkCQjzCjJNxYTHgHOn8bjXH5IIzxQNGUAgdTE+Hh7sFePDenxcTY/q/NhI2WY1qBE9oqgyOGHjAlMVMK39rI650NrW1WtPPffU8y9SZ1UrGc1ya9JObxUgkAG4ORCYYJjBjBBO0sJP8w9CIKNMZBg0j54SEcc0Hh9T9P1+G8yYjWfTsYnhB9/564P7Nw/u3zI+H7RokHGiNWvdzVxVVaJELqlBZVAhS61Boe2VrRtXbjx56cqTbuMSki7EFJUkrY6A50bpeWiC0E+ICfr48XjLPwCQSFaBGOpqOjwcHu3nx/uhmEgxjdWMxacGLQcSgEQI1rUPjmeKujNYA0leFll/9cknn37+c7+GpK01jg+GJumsrF0BzHg6Ixhj1DlnrTEMEagiRjCBlRSxkcEEbULjVYgIQgQhMIXGSkdmOC36/XUGRqNj9UW/N+hcWkesP//bK3fe+N7bryejvTsqMx+9ZbXMdV0zKSAaK0uubY0w1aGmyOPDnejDbFpsFsXq1nVKuqREEAY/oHT88u8GPwL5dyZe7dTrR83LE9/RMojozB0vpE4Txi5aGlYJ9XR4fLh7f3q8p/U0oTg53JVqyrHIHLLUGI0qtajZPSw3t58IUW7e3VGTvvjq5576zCvoriAwTIqkDU5C1KoOSibLWgYQgSwKYDRFTqmRbo3MUwFJ42UGCGTBBDbNzUUBDDEjNi4zgm2UFVGNnrSGFpAaxfjo7vvvvv6tu+/9yITpWi8NxbjdSrLENmPB1oZIhVfT2aw1qYVM1l25dO3qk89vXH0SvVXAKlmFeaDH6NR/lfBovfjjEZMfNv+YFGic5YuHVzoJiFpEDzWvGRAyEc1JGmQENgpiRBCxlg2BCY4bCkYNtcTKJFxMjo93740P93w+ZD/z+bCejWbjw0uba4NeKy9mk3ymgLXWw06q9HBYkbFPPvn8C595tXvpKkyqnshlYAdQJG7YI80R5aqP2MvLMvTpTIHUxXgvi/Y9IISWAXmkIATUOeABhVTV+OD+rbfffeN7O7ffvbzRl2qGemq1Ti1ZEiNQ4jokZDuctJCkcK2kt752+YnB1rXB5mWkHWRdkBXREBUgQ5aVmywoIoJhZihBVUOMy8O250MgqqrmdA3rh6oPKj0gRM7w++fAR7/+SrMlbxLImtB20nnhUYKoCEiY7XzIDZTgFg9JIj7UJBVTNAzj9P67b/h6Wk5GfnosxQhSuFBYjjeeeeLW7Q+OD8Pla1c3Lw3u7u7tD2dJZ/Wo8NvPvPDC85/ZvHoDti1lrEshTtIkA3juTp1XAFrWPMW5YuPhIm7Aw0ZgedQ8bp49whhiYkKSpUlrO2kng/Xrz3/mv//Rf1npuI3+ppWqzie+LlJLnSSJda11RKxIMpIgwFBkNjpKDZD1XLs0rR671FkbosbojU0NmeXsjyoSRVSZmeapVLqo66qnVuyPSBx+6OvvYn4ISBQAiZICIidPSDx/D5OKaGBmJqvgpktEAUEUYfEW0TgFAoppPj6eTY/27t9SqbQqYl1INTXBM7yFApKkrSrE4WTiyWadXgCNZtVnv/ybvbVLvZUNcKKVRrU27cBliASw0ImwU1YALB/qJkpYoRKa+H2wADXqHH566703br75+s23Xkc1vbyxstFvVfl0cnAwaLd8VYeosKlJOpx1uDXgVk9Ma+v6M1eefi5ZvQTlUpRtliQtlWXR3/n6q6pCICJWQRNBIwoSElVVsGvGoukCfMjy78Pn34nkkMZRCZw+DY0VRIunZSBGb60lGBE0x6YRMVRiKFOjMIBUmA2HhzvHB7uzyVFig9R5rEoNldSVhpoVhlgJUZnTThVx6/7+pKhffPnVL3z1t5BkMClACIBtw6SIVORVq92XeRnSeY9rMy0+XP6h6e0QgsKTqjWBNQIeJtT792+988YHb/7gaO82+zpz3HG0lppY51XpqxBFmV2rs7LV6q9J0i4CxPXWr1y/9uyn2ltXQFyWNVMKMk1Qt4CJiJkJi7R5BTQSFBIX9WWcgj4y/n3Y6680+yRdmMrOqBdAs8gtFldEQMkRWHV+wIuzzIhAsEbAEeWkOLx/sHNnNh46oxsdrqtZ5UexLhHFQSJUoWBbVrHVH+wP85t3D7auPfn3/+//vX3tqWo4ZDbOOZgETFCGskSV+ap5MuXoI8ozYx+gSsIOMAQRsspiyPl8klx68tmtK5evP/Xm9793+4O3ppNxUeYGISNyWQrvZ9Oqqoakyhrag3Ufqajr++9Nj44PNq9c377xdGfjUqyDNuRTRI1QZusMN89nVANUCQqSpgzXmcees+1RDPsFrNEftvwTVgGpLqbR2YgVWsZRLluKMAYkkBgZaiygEb6ElvVwf7R/fzraJ59bA6ZoqR6PdsvZuK7rxFhmG4IIrDGtSO7N9+7A9r741b/39Ge/CE5DFTl1bEghMUrwQuSMS6zJAGpkcpPvqE2tgWbr92HKPwWHoOAmsxjzymsUSAOJV1+RlIYAlvpw//Xvf/fd1/9GDm93E+lmaWJNKOuqqiwZm2a5l62rT6xuXZmp2TmeBpNcuvHk1SefXVnftmkbSQtgUQ4RTRUHZibRpqMJwojUmNRPy7/FTS4HSB86ioL+57rnI+HfPEQIaPZzp9K0HuIfKMIxVFSCd0bBQDWLk6PZeH9ytJMPDwx8v+cc6WR8NBwdMvmqLgmcJJkozfLaR7Dr3rl3+NIXfu3FV/8X9NZjrR7WpB1iVoSmBIdLUoAB9lXwQdK0OaiyuYkT38aHeqSbgrVZHBiqix9EUom+aKWWmSAesUbw5WiUj+69/hd/WI7uF5OxFW0ZSgiIAaqiGmBcp9ffvNzf3JYkO57MDsbTF175Qre/vrJxyXUHMBmEghiFJbaqpBqbP9fswYnmSSkLMB7g33yQTkUZ/nLzr0mRPCFfo/TNReCpjcX81wT4aA1RDAj1PFF3cjw92r37wVuZ0cyJ0dr7WZFP6nJaxzrJ0ijiXGqTLC/qw+NJ6ZVd+yu/+bXOyjb3NkAuwnLSFrgoygzSyGQB1FVVVd7ZtNVyzcltHzH/GvVGTld1YZgmaS8GZ1hi7avCqFhnQUA9wmz3re/9zet/93fTg52e40GWWgmxzmezaZZlrV4v6fS53Ula3azbs+3O27d21ravXHvi2c3LN0x7AE5VXKSEXCpqRDU2MoHINvYGPk2pD59/qtps8w8PDzc2NppTk2OMvyj+MbEKGkJTUxIlqpcYQnDOObuw08YIwJAmhiEBwWuVl7Ph9Hh/fLBTTo5Zy/WVTsJxONybjIaMaCzVEpNuf1rUZGxe1rO8Kmt58eVXn3/tS3BdkANnwk7gBCaSBdietpqcW2b0pGuA81acXzTmyWzLpMkmkl8VBIFGkqgQSGQItAZqwI9vvfedv/6Lu+/8KEPoO1Aou5kbj4az2SRpdwbrqzZJuyurl689Marqg1E+zuvuYOPGM5/avv4sumtAEqJhl6lJalGBGmPAzBAj3hA1gilGVVVia4w5w795B522T/2c+LD5x6SnJnfTxQKBOkcxaoyxCX9nkIhIKFlrJtUqPz7YPbh3J58cpRx7mV0fdA737+/t3gm+6A963W67KIrDyTS4NqfdWV4cjydXrl5/9bUv9q5ci7k3nZ7CRbIKE8lKU8xMrSX7QJctQqYf7hrgw+dfsx/Wheu2SScnbjpNoFFVSSJIIQoKMfq6nHSyBBbHb37vr/7kvx3cfm+1ZS8NusOjvVZqnTOj0bFNk7WNdVFqr665ds+6du4x85p21y5ff37jypNY2YKaIByAJqDLQ0NVdlO7COWBCppSEI3HB48j/yQuS4fN9zdY8JBIFy6sSACIwAHFcHq8f7BzfzI81KpIrbYdUkNlMRkeHQlir9+pQ3V0dGQSt37pxlFFb9+8a2zylV//6hOf+QzYxTKYrB0FQiwwAlpuNInYIiN5SHMjOd2Pp70yHzL/ZKGPLUyONPcDLe4kAlCNCgEQVUvvu50OIUgx5OhRz26//rff+6s/27397nNPXvXFJJ8crwy6sa5m+WR1fV2J+2ubK6trytmkDGUk215JeuvXnnoh7W+4lS0kqURTioKMZWMQSJWIiZrAC6g2h7c/JP+aO/yfC3T90PkXgzYHk6pCBCpKpIYR64pYmQgs0Ajvoy+lznfvvjsZ7ubjSWqx3uu0ElNOR5PRaDoeuiwFUSXButRl6Wg6vXcwHlXut7/2fz314ksQGY0mg40twIwm01av1zCv2cDRvJKeZU2Xyy4Bi1C5053IHyX/QAIozXWQh+aF6qLclqhqZERYMoxQRV+2SMhElCMZHfzgb//yr/70jxOtn7q2PT7elbrc3FgTCVVVOefanV5nsNruDKJx01pmNdqD9cHWtUs3nsnWr8CkXkEmtTYN3qtqo4oY44jngnlpH3jwDn+5+YcoMIabNFUJUVUNNaVsBd4jVKAI8dVkdHiwNz7euX/rndWOW13pd7MUoS6mk+n4qMyLTqfjFUG5VCmqWAYxaZZ0Vr/wv/xvQgklSWdtA2BVms6KAGp3O8t1nxREMI1lRROap0o0ipE81INLHnxE/NMTK+5J28wKVV1s9ufeCbLJtJiRotdOCVpMDlnrtJXU+3f9dPhnX/+vb33vW9e31tspz44PB72Ws4YgRKRgm7i00+n0Vl27V0aq1bn2yurla6vbN7LeGpIMJoFpLyz/BDTF4iwRPa78E8Smbi0AaCRt7JwCX8ERNMr4aHfnzuH+TjmdaMy7TruZbTlbV8V0eFTNpk1RUZtkZRBPpgjYOZ7U4Bdf+ezLX/4qfIK0ByYJIS88rEvSzNjUL5wsDOKm6kAzzPOTP2Q5rmd7deGMV/5I+AclmXuIlRmAzrd+ND+IQeeymZptInwUl6Qhhul0mmauk6YxVge7d7avbGI6wmz4g2/91f/45h+3OG70u/duv//E5S1nQYQYYww1G9PudtJOd7C+OZzVuSfXWe2sbnbXNtc2r7bWtpGtgDMAqipCqgoyzPyYrr8iiBFKKgxiUpIIjSRhdLBrDWKdH+/v7u7cKmbjVuL6Hbu92qmmw/HwuJxO1NeJdVmWuTSb5WUNezDJx7Vcf+bTr375K7y6URxPW91NeJKoAUjaPRir4FlZWZcCTZQeaH4DzRMvn2sRCQEsjhZqPE70kfFPF6e7AljqanxabDMWe4P5bRR5nmaZsUkdw6wog4Z2u50ZDvXEqre+go3V7fe//l//y7333/n0MzcOd+6kRrPEZqmxBiGUviqr4Le2rwo7StrqOqVaMen61rX1a8+41evcHrSyjrFWhZoz7T42/jWmu2W7+JA8UPXi1PctdaL5rI0aRYJKYJAzRBoRKkQ/Odrbu3fr/p0Pytmom7nVlXaWOAOfHx9IXYQQSNVa62xqbaLGHY1mt3cP0v7GF379N9ef+wx8qCLS3jrExbxm4yhJwLasamJrEtvY8wwWFcpEmwAjNkYBgiiBVJRA5xz3crIEf1T8m6fv4nQNm5PyGicUZCJVjYJIYGMVCFBfl+3EOUTEGsUEGuDzd77z7W/80R9kWqYsmdOWM6mNlsRoBMlkmrs0661f6q1tedhR7oUS012/9NwrrdXttdUN2+lCDQRNqX4RNKaCB7P9IeepwI1X9dyuOxueGDU0O/TDw8PN9Y26rtM0lRP+cbM7OeEfBUCUWJQUrE2QLiFGGIANGEoaVUKTjWatgYZ5vEvw9fjocO/e+HB3dnxwuHfHanXj6tZKtzUZH9dlnqVmNhqFEKKoTdpJq6/sRrPqeFpWgV967YtPv/gK0m6MZGwCm1R1SJMuliUQloEezRGSJ1aVM5aCkxm1yJp9qAM/umDMBw/TUj574ZHs11PPxs1KLREa53kwwYe6RD39r7///x7cficUk8sbK2ttF2cjE6tBpzWdTsu6CsrtlbX1y9ez3sqoKHePxjOkq5euXr/x1Nb2tU5/E64Nk8Eko0mRdbrWJQJUQQCwZQNYlXmEEkCGF25zEcWSq3TKAre0NM3/f4Z/G2t1XadJS2LkpSTA2SBkCoAISMHNiWnKi/FTMJQQWIWp8bzFyWjUbWdkOExGe/duH+7d87OxgZ8c7awNWqv9liUN5aTMp1U5izGurW3s7R/UAYP1LUq6u0fjo3GlLnvty7+xdfWJbH0bauEVLgUbifLA85zc5uORv/JhQURijBwLx5O3vvXNb/35nx7ev73ZSa9vDFrsY5GT1N77WVWWIcIk7ZW1S1euDjYv7wxHHhacZJ2VtY2rq5eu99YuIRuIIqgJSgJm64y1Cvjgu9ZBG4m8YIGqajTGAIusaMXywCmFeTT/zpN/J8/UfJ6DNn+DmkIkp94SQVIzRWtAJJCIGKQuSWI5G+/eu33v1gez8UFmtNdyz9y4aigU09HRwW5ZzJKULXEV/P7RePPSdre3cnA8u7Wzi6T9qZe/8KlXP49WH7YFOI0KtWSbI8RluVF7AJ80/i0TA3QBIjIUQDliXty988O/++t3fvB3YXK00jKrrURDFX3ZDH0ZfFRpdXu9tY3B1rU8SFH6Opqk3R9sbG9cvtFf3UrXtkCJKAU1xjlmFyB1FbIkwcJLqaoR8zyshn98IgV1wcYfI/9+PP8WDtxGg1UlpXk5YiKoCCSQeGdABhAvZR6rwpDu79y9c+v98dF+Qtpr2V5mE9bUcTEbzWbTGP3c9xGCV7QH62XQ8STPq7i2tf3Mp16+dONptHqgNHj1QsZm1qUAeYmIsPN4yQfxSePf3MNJFGOcOzONsUZnk6NuZuEIs+H9N19/+/vf3r/1fihG26udajaWWCXWKmJZ5szc6g4Gm5ez3krW6lZeh3lRK3cG652VjWtPPd/qr5nOCmyKCIUFGwGFqOB5GXY0SQvzzZpi6Vs6s785wyhLi6Dr015nnVtEl3V9lsFJHKBKrKqLasPCTV1RCFMkoyCBr5FPp6PDYjLe3787PNidHB+2HG9tbWysdKzGspjc++AWM6xNjOFaKCjYtpIkG1bYPZqQcZ9+6bOffuWz6K/C63hctnpZLQqyxrq53MVCmfhwI0QfDywK8etp+RfJtAebs3xCVdV2/cuf+VJ//dIHP3x95+ab9+++bzwSYiaQBKPSMq6b2OO7dwZrRbq+mSZJj+tJ5aujopoeVdOjwcbl9UtXW/0163qUtKDOkA0KUloUgmiy8Q2BVAWL3SvPvV/n5NGQyIn829ho5F8rnuz/TvmmFMqoieLiV6wgFYaYxngVKsQadeHz6XS0Pzw6zCfDnXs3M0vddjroZJ2EpS7y8XA2HSZJkqZpUEyLshK2WUuUxnW8d5w/+dynX/zMy2uXtsHWRzJph01LwF5IiZhshIqAiBwZknP1r0+c/OPGeqjzY5ca/oGpDtLKUoYUs7HxVWqiFpP8eO9vv/lHfno0G+5pObZSp1YTJtOUhyAyWdLudjv9vm21akUhGBc+6az2VjYHG1c2Nq5la5eQtKBWTAKbsGniSGJjx9Im4hqY5yNrQz4ClM+OFqkEVVXg8PBwfXOrrus0SaPM+Uc4Y09RQk0mgAjSJHIYUlYxEPhSqlldTPPxYT46no2OppORr6bdtuu1kl4rRaimo4PJ8LDOZ6Kx3W6rMWRaAVyrLaIWdZwG+tL/+rXN608n/X7My1rQ6gyEzGic9/orClbQ4lgrNsYYYtJ4wT8AzLw0pdH8pC4VJS9qnYFq9JUlOEfwJWZD+Nnw3s23v/c37/7wO/X0aKWVtDNGCCvtrvdVjN6krt1rt3pdl7WitaXXGi5QyklvZXV749KN/uoWp110V+BSGAdARYMI5i6TJoewmRUAFkEWZ3NAf8r4e1ks6FCNYFaJ3Nh+RA0iNPrpsC4m+XB/dHQwHR2U01EMNcRfvfGUxrqeDSfHh5PxEWLdbbXb7bYST4raR4XLxrNyWsXrTz37m5/9UrJyWThBcKaVtZroATWD/lrlI1tmEKkaYmMMNyekfdjhUY8JlmKPmZu1WERIpZXYWelVtd3KGCjyKQvS3gYKt/JC/3ODFZt13n/je9Vs6OvAdd1tUTttw0hVF8f7+0fH+/3BoLuyur62UQSMZrPj4+Ph3sHk8PDK9af7W1db1kIjXArDpGrnJ9RCNECZaVGhtYklp4fW3+YwqhBkb29v+/KVEKJxxocICVmSAuLrUmNInIUxkBiMBTiKl7pKmAyTFrPp8ODg/h3Ecna8f7S/E+vZoNfu9zoJQ31pDfLx6Ohw1xnaWF9T1aPD43Z/ldP2KA97x5Okv/78Z1698dQLaPdgB8KGYJrtLcgQmSZOuKmxvZRr1Og9ekHAHweJfmEW5YUKKkYDG6CYgj1idfDm69/+y2/u3r3Vs5r6aTehxLFILRSMIWUNEk3SXlnd6AzWS2/2j2azMvb6692NyxtPPt8arK2ubyBrzdO82cElUFK2Co4KFaOqYGbTnAdxOnxVAoiil939E/7VPiTGRvGQ6CwTE6TW2nuJSGxVVYl1aZog+qO7t2ZHhwZBytn+zp3J8X63ZQf9tjOIvqYYDvZ3xBdZlvW7HRGZTCZJkq2sb9zdORxOC0k615584YnnP91Z20LSASUwHSXbGJCVDMBYnDq0uGOgIZ9CSR60317gFAhCMQBQsIB14Vsh1uhrx8pSI5SIlT86eOuHr7/3w2/zZK883mWDrc1Bp5VMpsdFMbXWjsfjVqe/sXl5/dLVVmt1WsbDo9HRtFy9/kzaW1nf3Frf2GyvrKPVBjvAQFmtJU5gkob6MUJEraGz/IsBfB7/nPV1RSppagEJZa7Bu8TCWmiUqi6LWT0ZzybHs4P9fHLky0kxHaVWL2+tr670ymKyv7szGh61ktRZBhAFTRhBXofRtAhqKWlv33j2hZde483LCNAolHQRrYLBBsrKBDyYiDZPDCKZHznzsAvhAgsQhGIFBdgAFMmCTGOOy/Npv9MmSD0ZJQZInA4P7rzzg+//+R+ttlHNZvfvf2DUX9latwZHh7trKyuT8az0od9bXd/YbncGYFeD3985pFZ7sLJ2afva1pVr3fUttDpgB+NAKdjOi8Y2mQbysP4RA4AYde9g/9L25TpGZ03txVpWjZZBEkJdSl2kiUPiIDXqanxwuLd7NxRTllCMj493dwzq9dVuv9dWqaMvYyin0+lkMtpc28yyduXjaDJhm7S6g8NJcevO7qdf/cLVp5699MSzyHpSSRC1LmObQY0SP0w+IixsPiAIZG7nVDYX/HsUFvwTkAVxJBY2TakJ771zxih8OZO6TixbY8Aexf4bf/HHP/z+dxDrVEMxOUpZNlZ6dVFE7wFYaw1ba5N2t99bWT+YFmXUOgo4aa+uXbpy/dL1p9prm8i6MCnIgZyQVWI2abMrPXOH6j2YTvFPnaWyjmyQGEOIsS4htWMCCXw5PdwfHe5NJyOKsc4n46MDrYuWo831QTszMZQHh7vj8dA6dDod51yRe4nsWq2k1T0a57tH46y/fvXJ55949lOdjctIOrGoa6FWuwviPC/TNCWap+wTnZweteQfqYCETvPvl7vE2McIgiDUjTociUAm0jylnMiEUEM0SyxD1YcQgoHnMEHbFHdv/eU3/njn5jsrmbOxPtq9Z2OdObvSa7XTtCiK8XjMzJ3B4PpTzxYxjib50Wg6rUNnZfP6089vXX1ibfua6wzQXYHNICwKsGNjRM4M1px/GnVnwT9jqa6jMYYpavQkIUkNEKvR8Gj37uxwF74IZZXPRtVsYjSs9Trrg24MxWxyXFYzZojWdV0pa5q2mNIophIal2FcRNddefbFzz790udgM5CLakTn6rqqSojGLKQZnyjwCwgv+bdwaT/gT7zAWQhFAURofkDNcv1TJeYm/j9YNswcQyiKabtFEgtrGVVx54ff/+5f/vlo584gIaehmg4pVK3UEGKeTxUxS9urm1vd/qDV6RdBj6azcRHEpNwaPPvpl7sblzcu37Ara7AtKEnUqGRsenq8Hml/IYKIMKl1jOirfLJ/sDs5OkA5SynGKp8dH1nES5c2NlZ6FnLr/l5RTkGh32+7tFPVPM3zPM83NtYqj+PRZJL71e3rL7zypfUbz8C0PGwQyyY1ZASoq2CYsyQRDc3+VBYRl2e6EwIShi5N649BjbuPE6yGgWYjI8sQAZDEII4dmGofy7xwziVJ0u71ilik6aAOVfD5tRdevvbM87e+/Tff+uaf9NqdapaHWDJzliYqdZ7PynJ894Px2sb65SvXV1c32u31o2mxczwbHu68+07SPRyOZvnmlSf6q1u21SKyD5lfYOfFioEmiqm5wQhYgJkTtkCoRuO9e7cn42OWynI83L07G0/67XR9MMisjob7FEOUutPOglTD8QQGnW63t7oehcdFvH3vUNg+/8rnnn3pcxhsQGyEIzjDToWCqmHqpJYUMc7XUplbKU9iyFQJECVpDOONi5GI5nli83f+xPbnwekIyB/fLvDT38/P2v7MYGbVxmNFFqqqjb+o7WwQT4pW6tLEeu8lemsSa5JaPAml7RUQUBc3Xnj58talv/7Tr9N0oqGuRWNV13UgoqzVmgxHx4dHde3XJpPeymY/a/Nqp9sOe3s3y9moLCa+KiTUK1tXbGtgrVFtCkrMtwEWJBojsWFjROFFGMY446OEapp0MoT6aPduPtwzoc5HB5PD+1lCW+vdTuYSg+DzYjYu8xkzJ1kHHplN24NBgI5nU+XkW6+/++mXPv/yq5/rbW4j6UAykKXAxhgsi7DFRo9V5iCL46Wak+6F5jrIwh3dmBCo8XJDwdzY13Vu8NfYFFlgc/5ond3+/hTkA/8M7CAhXSaU/ORWSaDLEOszLRMrTp5rOQ8Nzf1sy8T4+fYuxuXrM9dDNQ8KXtT6M01/arAEhYp4AM4SK0TqhAjEZBNIhESQw8q663W/8vfTt1//u7df/9vjo52UYuJSIilK31lZq+tQV2F4dBzquLa21kuchFyTeji+czDczY936+nEglcut2CZ2AjE2MRHUZDFKZl8cuuK1LKoq2ajcrhfjA/D9LicjafD/dSEXruz2s0IUk5HZT4jlU63FYNWdcjrINZQwKSoDoYzD//rf/8fbl95qrd5GcZIJIpKzkgTp6gA07wKSUOq5ih7KMCq85HVptXGbsTxzIhHBqARp97TjBbP3d8PMYR/xpJLzRcRA3K6DYrmXNfTLatwExikD7YQaXLtHmgfxT9BWOSmPBBLrMtgp9O1GZp4p9PMm782RpVIIaokECipCtTMw1RoKb+bWdwkvCmIyAiF5kB4IvDVp55Nkv7Gxu6td/Zuvzc62CHmdstMp9N+t7vS79d5vnfv7nD//uXLl9bWV9tpalkPp1VxvHP7HSORnglYvfoUshaDonhVKFt7Ovy3SVckgCEMtc6Mjyc7dz+YHdyvpkOfj6z6rZW+NSq+kBAg3jKJUPBzA0rW6URjSo/Cc29te3Xr6guvvUbZKkBRpIZy4pg4Go7SZADNU+NoocQ6myjiw/KFYM6VO7R4rXryKdVIdO77ofH8hYz5HCuOkirBzHlw5seYJlPkwR+CxdxTc6YFkZKQ8un29Lx6uCXSc66rgpq0IDrNPz7r7567gMFC9qT4iZ60zTJB9GCrOo825nkyjGeObFOOldl66vLa9sa1p1pvvP72D7+7d+/OcDxeTZI8LyFigTRNDet4PB6OR1tXLqeWWgnns+Lg7s3ZtNSIF4zrX3+C2EUvIEMMCyLlU89BYgDSUBWzVsvVs9HR7t1quK/1pGWxvTHopMZXsyovmyo+hkmVQpDeykotNMrL49m4Ctpd23jm+Re3P/VSCNBYgzgq4JyQRvg6RGezRsk5nRFEQPDVcpqfJYN/mB/Lfn+4SgtRPO/tsGTPD2o/z4pICkX8GVNA9CSz5EzblJOJp1sAmPsP48Nts7UlojPXY8BDbAOwNIgubqL5MNcBQotshFOtnFfXRgHflJtmlrkj16kxUJ4VVUpIXOq2rj+XtFzWQ/q9gw/eareFyhGTIYZIWZdVqEohuX8v2lY3Ma1eaoIP0/17H/zIMdtXByt2bYODwDJDLYgUTd8IIITAYMBbhDAaHtz/YLh/14W8Y6Tn3GrHjY72GcISY/Cl90TGJlmr1Z5MZrM6etjByvrK1tUr12+0trbBieVmw6mNV1wAr4El4CTLdXGIUFOIzKXnOzQetXGbV1QgPDwk5+JR9dTO/X4S5iVFzv7ZeA6/lRqXIM3rufykFsCjPIiPiN9RjZ6IwHymrARw5vFVm/8Z1VbqHpL3euZ5F6s5ACEkhpWUWXWx82aAwL2VFfgcdQkm3rzydKe3sX15dP+Fv/v6/ydFFa3tttrGpaH2VVV5qXyo2jGqrQxnPZuU09nxnXffEbn01DPXVtcsS1MG3Co1E1bm3d3Ua0Uwmb37/q3b776Zjw42u66d2dSE2eQw1IVEH4JAyTDbJGGbAHTl6vVxXrr2YHVrO13bRK8PcDw6Nv1Vjk3+kYEJhq0hzpyB+nlX0EJ1JAIYeQWdFyY+0/I5iyawIMdJVMIyLecRfD0dDX66BT14pTEMMM9l19nfkj3n/QQCCegRt3rOzQM4sYo84j160pKQNrVgDFghDERIIyDNIscinmnFQhal3ZrTI5qfdnv+tapQbfLLDRRzvY0Bbeq/RI0QtVkC9ZAaVQkSGPQvbfYHyfXt39v7wXduvv9BPh7VXkJU55LEJqBgCZPptPTTrLPWZRwMD3Zv6ls/fP3a85+BMSQRbO1cBVAVmteKBAKRwFd3b72/e+9Ox4aEXWJAsR4fjYxNvI8iaq1NslbiMiUXVH1Vv/mjN3aOhi7rKDtO0v7KWrvda7uWCEBE1oCJ2LCzzqXWOSICCYMajYyIhNgkXV3oaqcLtFv7CL2BSU64d7K+nP9eRZa1gXOsJ5bNuVYVY+ic3RwhMfbc6+euawDkvPlAgIbz9wlL9aJ5Mf+4KCE2PFNEiYjigxdFZLIgUaGmVUQos3o/G7N6nErRaL7/6Oho+c0NTiKnAVWK0Bg0SBSBSDg+PLKOWaIvyxhqJkUMUs2O7n6gVbG1sXH9ypXuSjIWlNWUQ+h0syTJdDYU7zuZTa0ZHR0fHtx/4/Xv/ub/8Q9Np4coIJkP6kIoSHOaClTqyfjoYNdXs6zTNgzxtbKEECZF1en2e52eqtZVqKNvd9JuZ/Bnf/YXX//GN46OJ89+6tNXr19P2h0LpapKsp5ltklqYFS1jkHZqHOFREAbcvGCcELkKVFuosioiWOb/+q88ROCsVYIBvRAey4/APAj9N9zv3/ZMz89Yjx/nxpCeMQHzv+7TfnhJUXmxNDY2N41SlSJPtTBh9pHlSxJG+1foEtLgNGQobSYb+mWAODrekm+JnZw/lfiPB4+KiTCN7+AtoFQhGI2K2c5QZi5KvPZeDSbTt95491Qv/XKi09+5oXnu/01ndnxcJ/q0DFJkraUkrXBIIi5e3enmAzv3r5T13WrJTEKcbABwsTQKCJMbIwBFBpcYvb29obDIYfp5tPXsyzLjE7yfH37OrusKsvpJG+3273eYG/v4M2/+tbf/s23nrz+5G/91tObW9tJkihBySTGtgwbYjYgFiLqJE4QVasaAVAWqCqdCC2TJE2Z4mYQsMhOgbX2tDzQxaokziohLiwISpCmBZ0rz5YRwg+Az67vi8uGGsdRjACY2Zh5rs0y3v1MSwpfn6vfaAg4K6GbNjTxUWdNKg3pQgghBGZ2zhFRlBhi7es6Rh99CBIhCiZHnFhGyK2zxnCQ6EOt0MS6LCEbooSqrupmAlhrkySx1ibWnvpzrEqqzCoUldAcEKIxalQLJgKTNU1hgslwlBcz731hQRK96I3nnqvyalrzO3cPLm+urfZ6Wzf6R4f337930Gq1nHNvvPOeiiHjOr3u/dFoNBq1+ivGmDOLGuui7CcIysfHx5PJpAoxaw9M0irr2qMW2EmloapUwVlvGuTee3fef//927dvf/YLv5amaZK2yrKs69oYY62tjZkU4/m5J6xKEIlBRRGlqawji8DIZv0Fm6wfz9s/nZYfp1dY/4j404c1YgBKYGYlMKhpF1YOaq40kuPUdQ6VRkWso5CwMllqZCwilB/8B4qG5Vyf4DIm/nQrjdxlOj1DmjsxxEGihEiGLRsyLCHGGBErkaBBg4bGkmPJKqsvPTu2ZIMG8RIRE5M4Cw2FxDr4GCVAyVi2xhnLTEYba+BSZgqMar+VNNa/2BifmJr0Nl/Vrg4iktc+wrgsYZdx2qmQia0ij/O8KA9nx3notV2W4PnnnpRYW8ck5IvDvYOjyTgfR9O5fLXpjiY/zrIyE5+M1qIAytrVJwbrm8PD3UnuD4ezhHwrYdse5GqH01JVB70Vl7pkkD3/6uYrX/zq6HhYVVVVzPJpyaTWNnKCOWmBAAmqCBpEQlQRicaY+X5lOQGIoMb5CmoeHD0gy7JmFJfih4iE0LWnK5o+ON7nXDfn+zPqsow6r7xniJpWyWRp4qM0483KQif/Gs4JiYE54R/iufKvqqqH+QcAfPpwDoCpkeJRNS7eR6oQUdWoktiE1cCQQSRlsDIMWFUq49iyM4hiVRANWeOY7IpqtAKR0GQpMVsiDUGa2dbYTVWjKonK7njIgEiUiBhjnJslSKDWWomoKs/MWeasbfms1dvqrbk0TVuOrTHGMqcJpwlu3Xy71+lOppP9vT0SSlcuTfzx4c7hF595Pmt1YAxAMGc2Q3wqUJvrybTVXsk6qx44Luq2o0lRxbEfx0nS6l+//uRzzz23urqOCGMtOl1MJqGqQ11CorGwjBhjHSTp9GKTGkiiGlUlaFBVl5j5GCwqrZjGfqsWQDOup9t8kitrM9LNjG9eNztuKD/QGnYPX1da7HTPbsYBOHcmj3i+RIKrKsYw3yfh1Oq/XK9PfxVphHpQfPj+NTQaHjd3vnyNhZ28YcCSDc6lIkGViJTZzrkiQYM/PbtOTzNjjDGm2SvP79BYISt0slVYvj+E8PBkYJVeq8Wi83TsEOfbUCZmuzyqhIjSNGXThCxpu93t9AZIMgAIEQhAQEIop6//j7/85je+cbh7GItwVKCk7LNf/HJ/bQ3WaRQCWZpnVPBiChLACpP2Vj796mtpmt5+780P7uwPuqk15JJk48bTm1duPP3Us2uXryLJIAQfECO6LdsRSwQmGALERm9FYRLLSyNL4/NoSgOZZvROiu0RQRm+sco+yKdkzYBkbmVY2hr4PA9B0z7C/wZnz1g0li09UIdoLo4SMic2i9NlXJlP3r8s7NpMXpwzH7CcJ6wnLQnYAoLGC6IEjfPXZJZ+xSVH5ybrxvJ32jilirpGczLs8kGIQAxOweYB6+CD97/sB2BREgdQhYSTPyeLGEyRk66QAGugDCFElSBRG0uQdUkK137p1/7e9Rdee/NHb33jj79xWN159olPf/qV17jdgZo6xNQu5N/y1KlFaUjLpE8+8ylEOTw8vHvnftrpb6+sbl29/KWv/laru0JJGqroi8KlmTUtJaJ5ierGwhRBCteotjy/Ps89OO3lBE6qzND8dRNy+pC9Tat64ckCK6JqM9D8KLvMI7PSTVP3FCRNq8v2tO9OpckgJOLGsvdAGWFVJX7ISLl8roftiyE2O7y5ja65f8VJbsti770I8j5lUT9lYdYQlIgVSkSLGgAgoNnnLGz5i7/LwWtzLvoDG9BH7U+Ms038LzQ2t8jNnSx2C/OZIAER2hR0hIIsnOW0OdhGAPF+JkJpe30wuPz5jSevPvNKatONG9ebaRZFQlRWkERPzDHq/v7+1valEIKzJoSqKopurwUJ1fHB7t3bq4OOM5ptbUEAl8FYwEBINFEYATW1wESb00qFWI0xBqAAVbCKkBCRciCdn3inqgCpECmD562SCMnDdjVH5txopEZ/PKcfzTmbyFMDcMbrqhqtmfudl77jxuMsMSrmoSVNjm1jtnhYkyUiBWLU8+2FbAUgqAA03zU0k55Oqf8nRAzeL22fJ1m9REpn9q/azA8iAwoqTdkBQzS/rspLb9JpZ8mj9DNwJG4q0qmISIAIqRCRNdSwtnF8xxgaQ7uEaIyFSTF366GOEI1pYhhhfixyiGCLiHI6zQbtGAM5V9XBpNm5woOhzNbWVTSq6drWtbTDma1Hx+A2IGUZmJC0MrALQaKSc7asG0UOYDRHf3uFCByBAZ1XgsTCPLfsEG5y9oiApjwuGZARYJH7Pm8LL836RaynW+bkXJ7FH+9UIGB+0IEBADJ1BOaFws5Qio1VNc0YKyAElRiUUusEoEaSLeSZADCGTq3ny7YMSqxN3Ekju3SR3KILp6AqVOeSmDmlU26gRtwSwQsUCI0LDY3Ndi7Qo3Cz84s8Jy4UjoiaKDcVnCL62XNmFtdpXo7FEGDYmEQVhrRZgBsj1KJCOsEYMsTsmvsPQXwEERlHiTFRMS2rLEkTY2pRipIkadLpAxo1JGSTxDbaljZ7zOPj442Njaqq0jRtToydDwWkqQE4l/O0TICcJ7Qr4XSBttMGW15kDJ3Cw7rhmY5Q4Fx94mNrm+H56eJPTzTxn/r7F9Xuf9oIwx8/rR7Gz1qf9EwyzfknLJy7DmFhRjv9t898/FT9xcWz0I+rf7B8Wo5zedU0DzLqgfrx5mftobMdRDjtFf1laE8/5k/Vzh/qp/8r+Bnan9Ed8zPjDF/PH0p+qG3wkKvo7MdPmcnmnyL9cfkfH/aTXuACPzv/zt23XuACPx9+6kihC1zgQ8Aj5d+FnLvAR4CfmX8X+8IL/AJxsf5e4OOEVVVjTF3Xzf+XbvgLOXeBjwAX8u8CHyf+f13LRF96UdwsAAAAAElFTkSuQmCC'</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAF8AAAA5CAIAAADfg2DlAAASlUlEQVR4nN1bSbMc1ZX+zrn3ZmaNb5YEEhIWSEJY2AZkBrXnJbiDTW/6J3jj3+Df0LYX7gg7etPh8LqjOzpY0R1h7ACDMdgMdoNmPb2p3lBVWTnce04vblW9J+kJIywJzIkXr7KycrjnyzOfk1T5bWdSr8rkCMZ7WAAABYCgomQFxihCUDFsVMDEAKAaQmBmYsbHEO2/W0SIiIgAqCqAuP25InamAbAKRACAGUogBhiwIEuqChIiMmyCBFVVEaiCyFgbodF48n6kqpH5v0qf8LD7STQajbIsU8B7EZEksSoItQ+hzhoJQJFBUQUbJqYJw5/wyd+RXMTL3j3u/lYiFa0qsQkTQQSKQApjKEgtIuIDW+NsCkDBmKAFgIhUVUSY+ZOzNBWQ6elExB+vm58dkYoCCAEhCBlYy0U56G1uZFnWaDQS64gNkxWVEJRgDAPAVHBwJw88QqMTEpEQAhFZa40xEa/PlezYsgQAY5AkHCRcuXrpgw/ee+sPv8/z/NixY8eOPnzw4MEDBw7NzS04S5gY2RCCiBhj4mMPIRhjPsn99pqhWzc+V9Agyk6eVyLS7mS//vWvf/KTf3n99deXV64fOHBACASzuLh49smz3/jGN84+/fTDDz9c+TJJEmNMCAGAtZaIRMQau/8dbrG1e0GJwnJHunk/ieq6ttaGELY2N/7t57/48Y9/vNbbqL0Ym4QQhNg510yzBw4eeu75Z86dO/f0008efODQ4uKiYeODjyr2MehEd/bxzH8KJb0/ZI0VH0aGuC7zq1cu5jvb1ah0NvOlsE1IWSrJ6+Kj4fnVlZX/feV/Hj9z+qWXXnrhhRcWFxedsSLCxIBKjH0mXmzXqd0Jt58raABYRVlXRV6W8CMK1fzMDDyGo8qQZWEPFVGhYAjDne1y1F9bW3njjTdeffXVl1566ezZswcPHhQREbHWYo/FxeeP1U9BFlCX2MRg9crluXYzJb/Ybc51uv3cD4sqBEkSZy2LL2tf+iLUokH9L3/57++996cf/OAH3/3ud7vdbrvdFgnxinu0Q1QBfE699SchruvaGmeIy+Hg+NEHjj/0APk8M+HgXHOu2+w0nIWvyzyEOktcp9NqtRre++Fw9Oabb/7oRz/66U9/6r0fDAYhhKnITEMYuX0M/XdBzJQCphjms+3WY48c++d/+v7J4w90G0qh30797IxrZKpSqFQaqnw4GA1HUE0TqyKXLl7815/97Bc//3lZFEwU/6LhgSrdNsf6uyFrOFNfZ1krTdx8t/Xc17/GYXT+wpW33/vLheWVXr+c7TQazaQsyxAC1YGNBNV2u12WpbV2Y2PzV7/61VNPPfWtb30rIhOFiJljgPdZM/g3kfU1IyBJU0PcbmXlYOOb557+yhMnjjx86I2333v3w0u97Xyzn6syYI2T2mtdBwQp8xFl2cLszPWr197/07vPP/NskiTEzApVsAIKIvrcZZZ3QtYYNkkDZX/u0IPw7ZWPakg5t3Tgm99c+MqTT52/uvLm799554/v9/PhaFRcW14TZ5OZTlEUrWTWV3Xi2EidqPjhwErDZBkzVAHDYBLsgkOKmKXdlXVPr3JPhdOCgveeQMakwMzMgye2Ntf6/c3EZYsHuwsLSyeOHf7e809dunzhw7/836Wrc+s7xaXLyxoGibE25d7G5kMPH+76YufKRd/ttufnTbutxtTwAQCMQ0zriUSJwDE/U0AVJBMHF3nkG/ieEu2ze2rt+V4CZJlZwMQOsECSGDfjGs3u/Obacj0awVedVnvp9Ozpk1/afPKJ3ub2xWvrV5dX165dX1teHmxtj5byE49+6dEjs9XmFfgZgzLDgm130qQRwApSCMBEgCFSaGRUhFgnbJoJm587Ih9UEVQDkxoiwCN4hFrKYX9rY2tjtS5HTJJak7rEOVcH5HlejQaDrV6V98t8ByJHjx6dW1ioaq5hbWu2PX+oMbOIrAXjBCwgKO9GzhOEMAmOiAwwEY9PJgn3R7Oo8EFVVQNDIkBMCgSoR13W+WDY397Z2hzlA1VNLGdJ6gw3UhuqYTnohWpQV6PUOiJim7Jrs22z6ySNuawzj24XSSpggBUYowAGZJpzjBOO+8PuHRKNvIIEMVtXjRhZiISamUCAr0NdVKN8MBiM8mE5zEf9LWuk3eB2g9oNJq18WUhViyCIVSSKprGNLOtys+2WDqhLiC04AVlVIyBVZcOIxmeSikX3pregM9lxu8DyHqokDbwQkSElIkgAYEgJQqoEqHgJNSuIISHUVekIg/5mlQ+Gw42d3gprMdvJ2plrNRv5YFgMR8ETITHGsc3g0nRhgRrNrDFjkjZMBk5ADkSqULoRnYm+yC0c7w+QCoihfO/EjUYhYJIxMijKPEPqujbERESsGkQ1Ft5Zxfu61FBpXY/yrSrvF/l2f3OdQm1YUmdSZxkQCYbYZEmp4rJuszWbNGbZdtm1KenAOkxszwQdibBI1MEbVzkF6waY4nH3FJ1aVQDIblYdIzgDClGU2Ci0qgpStomp69IaJgVExNeWEapia31lfeXK1uZaNdqZ6WQHlmYamavL4Wg0NMYkSdNlM+zaxnRM1k2bM9SYQdQsEFgJU1tNAns7E8S3ArS7+96gI6q3SvJNpAohZaUAAXlAWQ0AUiYFiQIedTnc2Vhfuby2dnk42MhSWphvz3fbpi7rsoJtpM0ZhctrwGRpqzu7eCCAyDjjnIC9F4Ixxha1t0lm2AAI8ZnxOB+JEHJUxj1VpDEn9yBrIdWgAE3k+XaRbJh8KjwgrAZgqCUgAiShZiMIo8HW2urqpY3e9aoYWK0PdRqtNCG2lQ+wadZqq3F5VZNL0qyVNDvONpK0bdIOyCAojFFC8BpUmC0ZQyAdC3fMTmCndur2LbC7Ahaphtv8NJan6f0VCnigGttNZYBJiTS2KRhVUVVlkjASI/ngytVL69cu9a9fWJptLy4upo2kqItRPWJn0kbm0oyMFUmCusTOtFsLNu2ADVx8UgwyAIFMUNRBnb25qk8xoZtkcjeV7u8TOrhBoGpoBQpQmhzAEZ1QeWMtYmciCHwtIqTlqHf9o/f/sLJ6fXau+eDhJeeoDLmIDyEY45K07UwneCc+SRuzne6MaWWwBGOhCKIgQyZh43SyHq8x+FZWUki0ybcK0V3pkY37Wfv9sk98oTFKhNyYejMAsFXvgxeAjXFENqjAlxxGCMXa+rVLF/487PdmusncbDOxahhVUaqaLG0505VgoY5s6pqJzdKs2UbSABvAwCSwLvgAMgAECrAxRDAKxW3Wf7/RGffqEDCO3HTvkVXprbVkjIoJQUXJWmMMCL4uhkzBoF6+fP6jD96RenBwsXtofg5aawjBK6lhyphcIK6Vydqk0cxaM8kYIwu2IAPrAIq9fGImMiJCyjepUlzn3UOHJrHDPiTj/2NoOIjRyX1ZARJSiRgRxWhFvaiqGuMACAJBIF6rkdMQRv3VKxdWr1ywWi7NtednO6T1sD+oqipN02ZrJlBzVGsZBMQ2a6WtbqM945odMCNJQQZKIgImVXjvDTsis7fdHH3ZPZCdfQCKcdfYNokaUY4hXDw+AgSASEXEa+yLGwIJOEAEgcEENcE7ZqhofyvfXt9auZbvrMEXMx3XbTegdVWXwcMkHaVUmRVcKxTGpE2btZrdrk1b7DIYo2CwFaj3IaITm0UTtxYrSVO++FPbZ7qdU5yEEhLnCACEEKqqYk6sc8wIQUMIhsHM02d1U5Y0Fqo4CRQCBSGFhZIGlIPN9eW1axfy/norMwszTWfJ13Vd14YtsyUikAG5AFSBTKOZNDtZcyZtdanRAlkvRIYlwDlXB8/MOs5y1Ys3PE1RmON8xJ3UAO4AnTgRUBTFaDRyLs2yLEmS8fkxCxDZt4+uBI0+JXaMAyBKEIZQqEgDyn5v/er1q+fznd7sTPuBA/O+GJKCgXhTAYMMcTIoCpu10tZM0po1SQNJ5pIGJ6mAy7rOsozI1qICjbgoQoyK6F6gMxUZ1Zg1SFmWZVk6lyZJ4pybjkyo6sdMGQgCEREMYswtClVSMQSIB1XwRbWzubpydau3Wo+GDx1aZAqOjWWjqlVViQjYEEwgKrwGoaTZac/OtdpdbnS8cCCbpg0vysYRc1HmSZqNvQeIwWPluovoTElVp7XzEEJU8j0/7R9u7Dk9gMfoRIDiKpkAqeA9pAKJ1uXG2mpv7dr2+rV25ubnZmY6bYgW+aCua2aEEBqNVlDyQYra9za3s2br2InT6dIxBIJxIAZbgKu6IgNmJlICEeIzjunHXUXnxjEvGd/mTob9VAORxphIwYqYc+4mk1pXBAUzQi3VaGv18urVC72NtU6refjQUrfV9HVVjvqj0YhJ6yo459Z7Gy+//PL58xePnXz8wUe/9sjpr5567Ex3dr7IK2XT6HbiusGTFapCebdQcrfQuZFEVYE7nSaRacVGxriMT/deQOImwxt1WSGUzvjR9lpvbW2rt1rmw9TSXLc1P9sxLOrr/s4OQ1X1jTfeeOuttwI3jj7+TGPmoCqfOPXlJ776NZAra8/GmMRRLFrtBm4GuHtWGZ8sW/lrR+5Glbr7nQEECapkiVXhfYDAsJKMLHsJfrjd661e395c88WQUR9cnO82G6QhH/ZHo+FgMFhbWV3dzHtVcuLMk4P+6Ory2omTX/76M8915xdCCGTNGB1AJwAR0R1VPP66Zu0tAO+FY/cSH4/gJCC6ER0IhBHrZFCFMVBFqNU5AnlIDV+Gsuxvr22sLm9trPa31lJrlubnmlk6Gg1VfDUqLq9sXOmVhx565Nlnzm1s9l97/a2lA4eeOvvcwtIi2WgPVGl6z7uNzt0lnSIzpqglFEeCx8eQgoShhEDBB5/7eqR1eeXSxTLf2d7s5YO++BCkHg2G28PR5dWdLz36+HPP/sPBQ0cGw+Kji5d2tvMTp04+9PBDAmWGTZwZuywFALk57ZiguM903meGDo33KISgrKqsLAQhkujhyBNEQqWh1BASZ6UqhjvbG731jbX11evXrl6+srK6vjksjx47fuDQ4Sxtnjj1+MFDRz788Pzy6soTXz1z+PADSZZ67501ouK9T1xC4NjpjwNHmAyK3KQB49xtUsG4V/XHvdjTDbITWxCT4jsYykoIICECYt1IAIEKQUKonbHjok7ty6rIB8PhcNjb3AogNqmzyfnzlxutztmzz/Q2N9/8/e+OHD18+vTpdqtZa1BVw64uS1IkSUJEVVWFEKy1zrnbLf4+owPcBND4MyLFSgxmv3uGAGCIaiCimC+JD6pqJuPOIj4vKmazvd0f5fXy8vLq2sbpx08JwoULF0T8mTNnHjn+iIDrqrTWahBjjE5eY5iOrO2zctWbql/3oV0rN2zvTcwUAMfQUxXEKjHgwmTkJdoBmYwrCIl647goimajvb3d7/W26ipcuXppY2Pj5MlHW63Gb37zm/Pnz3/nO9978umnGKbVahRFQUTOuZge1nUNwFq7JzHYpfuPTqQYAYkqTbcBEJnd9Y37OKJxWCpWbZSJiEFEpCGmyGKNHebDVrNVl1IUBUhefvm///zn90+dOnXq1Kl33333P//jvxaWDnz/hX88fOTIQ0cPG0Oq6r231mZZFu+2r/jsWzm9uxjtEZZxBXryLaoUqUwqIgyQjHuzit3xn2mEPZa1KD7KYASg9LVjYy37alyf29nZ+sNbb7755u+azeazzz6PgFd/+9rFjy6ys0eOHn7ssZNPPPHEgQMHmDkO2+8tBt3ksz4bdMZsa/SwuyMqBMF0Hn4cywGTN5YMWQCQ+IKFIR73C0NACN6QZQPVkOd5WeTvv//ub3/72oULFxZmF04+9njmsqvXl//03h+Xl692Op1vf/vb586dW1xcTNO02WxGA3RT/+e+evR96Raz/akuortz0Xtqg7KzM/jggw9+99rrb//xndXra2VdqYZOp3P58uW1tTVr7dLS0pkzZ1588cW5ubnnn38+Fhvif+/9Z4/OXaeITp7nzrkkSVS1KIqdnZ1+v18UxfXr16uq2t7e7vV6q6urr7zySq/XO378+GOPPfbDH/7w8OHD0/iwLMsvLDrRppRlCSB6KO99VVWtVquua+99URR5nr/99tvr6+utVktVX3zxxWazOR1O/yLLToxooiBMHXascGZZVtd1hM85V5ZlzCQajUaMD733cWD2Ni/G/D3TdDB4bxRT13UsATebTQDxjbDp8HDcE/0X9rZVv3iyg0luOQmmx7Ob8W2yiJRzznsf1S1NUwAx/JlWgePGFxadadVp72s/0wOYORbOoxIVRREFbe8reUVRfGHRwS3d0elXEfHeJ0kSAZr2F6L4xI1od76Y6OBjGwGfnP4fvpTezX9ZAqsAAAAASUVORK5CYII='</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAI8AAABGCAIAAAB65lC4AAAV8ElEQVR4nO19W5PcxrFmXuoCNPoyMxJlipIOJdI667UVqze/7HH44eyP3wiv18eW9lx0ocWQSIqkONONxh1VmfuARncPZzgcSSZtkvNFRxNTjUYD9aGyMr/MAlFV4UKICgAAbHZT3LSrgsLmywq7gxAwIiAobF4yfHfzPSUAAsDxBQiAiHCFS8A8d4+x3wEAFBAAFEgB4kAFDu07WFAGwW2bIgDBjq0tMQqom1/YvV/hIjyfrXGIbPt01+16eg/YfBZxQyKAEijh3kgad9wOOwDgK6ouieezpUB72ziYPQQweyRtxxGAMgTEfRpIlfaOhwAAKPsD8oqrS+IybOG2X4dupWEqUgEVAAGQfbaQht34GUfbHgn3j3mFy+D5bEXAICKihtAgkkaUABBBQ+zqUBexqwiEmcgwGAs2AeuBPNIwY9HgighsvBEFQEbAzXzGo6+xD1UVEQBARCLaNg4bb6xX8ny2gkBQJAQFVBUAQQ0gbVeuiuOHy0f32/WxwegMOe98NuXFO5wdcjKzLmNOAB2oAaDBg1QEQFAdvBXYOSGnPBV4rqf6ZuISllBBAZgQFFREtNdQxzpfP7r3+N5ff7h/ty9PHEZvwFuTTud4dINn19z0YJItfDKzbkouBfYgiICACIqqqANRqornUHPF1rl4PltMqqoSFVRRe2mrvlw2q0fHD77Lf/g+1muHIWG1INi3bd51TReTJzadT7JZNj3IZod+fsiTObFDMiBGkSQyEgERAYMqnmMLr3AOzruxT6MXDSoSI4P2ZZ4/+X71+H5fnXTrJ9rk1FfQlwaCI3AGAaAF7oEBDRBzkvrJNJku/GQ+f+sdl83RTcCmiE7B6LAbG8Snnfj9Kepq3tri+WOLQA0oMiBg3Tdlka9WJxRrVGSbOEsQmKRnVASV2DmJHgUhKKD0DZTrpj1uVr5c3nfZwk+PktmR9QfGZ2RTdDTa2jeUgB+Fy7AFCIoqAOoMZ5O0m83bQmOMfQwxIoN31iuBoLD23FVGA5EoaA9RYh+lkd50fRWadVvk1erEpYs0O0xmR352CCYFdsPvKMApaQPpghN7A3EJ5QkBAUEJQLxP5wdvEVKVTur1sinzvi760AZRg2gJPAODQe1QewBljYjKCEDUxVYbkb7vmjKWK6lOYnXcVwd2/hb7KVpHbAENAg9+PyAriG61yNES4nkU7tlz3R+ke/Q/E+NhX9Lg/jk/9Px5S2GwVQogEEPs266t+7au16tqvayKdZGf9G2jMRCoQ8mo99AbCIiCoETKpMTYh14UgFmRFA2yAevJJ/7gHZMtOJ36JGM7YeORHJIHtKKgCogMSDp2K5PBfQIGoXIrL8PZy8GzhO1f9Vm2XihzL4MtkSHSUgABiRp7jaFv67oo1suTPF+W+bJY511dZNRPSBODzrEz7BiYhUCZABgUNIr2MUZRQRLmHgy4xE6ySTZPJwc+W5h0ZpIZUKLAoKTEABQVBZCJGRHP9v4pzfLMRV7I1tB9Z1teEF4SWyoRARBHzlQ0Bgl93zZNWRbrvMhXdZE3q0exKSgGxOgZE8eJM86RYWQmGoQpBFEVVVGIEKNqBBIg8kmSLdL5W356lEwP0CTAHkyqYKNs2KLz2DpL0qgyD8maZ7K133cvx+d8sWzBhqxBFQQEBRFVQcLRCIn0fd82bV21dVmePK5XT5piXZW5xt6geoPOYGLZGTaWrTVMDIiqIrEn7QalMaoGhEhWjFObzo+uu+zATBYuOySTCVoFg2jOsWunxcyxBYazxXNN4QgR2VrCAT+m934KXvDYElGQYYghIuiAiEgw/jCCaggh9LHvunLVrJflelXky64uQ9tI30BoLaNjtIactYlz1hgiJIhWGwMBUSNqr7ED6AAjMriMk5nNjtL52y49YpshJ2Q8EOHmh7fyFSogAOqYBt07+9GnPe/SREREYowAQERExHy+GP03xM9h6zL5rQHjzYo0ZiURgHSkEQwTWTSerXPp1M8OJ4dlWxZ1kdfFqi1WfehDDBTEtKHzmHh0xlhmi5aIDKsxYCAYDUYlaGi6VdfVfVOFukxmpU8ObDKjZIouQdrkYsZTGmwjw3hmrysuwRYCjkNQVQEHm0OAOCSRt8YeSAGZ2JD1Jp2msQ9t05brar2qi1WV531VhrZqui400sfgDTiDYAgcgUE2xNirtBI6ld4jojSxjSH2XewoqTBdYDen6YKMRzJIBMgEpDAONt3WEIy0bdyP8+0HIvLgtYyW8CV78z8Wl7CE+pRp2W6MyizsBh4AQFQA3TgjMUjXxa6Rrs2Pn5TrVb1elXkemgolEAATTFMz8ZQ4SlNig6ptiFXoKwFFYjKeOQXjiRJAL5RoMuN05iZTl6TAHokBGYkAjMJwAxEAyeBbDCYSz7eEz+yUV9fLeBZbMtzCZ9jSqLBL7yuIaIwQQ2jqriqbcl3mq2q9bKuirequa41BYyCxOEl54tjZyNiDdhA7JDRsjfXIFtEomIimpYnYiXGJdYmxnl1CLkXjAK0iAbIiA9BI29BBbyRbe5lfGB3EvQ+2SXzQnZetgKqgqqGPfRvapq/LplzXxbos1nVV1W0TpWOIjiU1mHpMLTgWz8oEhMDESIhIQCxoarWBLKAhtmSc9RN2E/YpuxTZA1llA8igJEO9AZ0boV3YKa8uW/L0DlsWTv872J3NvDFKC7rLhaDqEFZL6ENTt3VZV2VdleuyqJuqb6vY1kZ6z5AaSAxME+sMMoNhIkZiRCJF7ASCgiopELBlm5BN2aYmychOyCVkk0F4VEVVALaACD+mj/5h2bqMT3gqlMFTG6eVnmGKBkEck/rDtL8p5yBABEJmQ2zYezvJ0q5J6qIs1+U6L/OVVFUb+thJixI6cZa9J+eM9UREqAqgoB2LqIAgAQSFGGOQrg1dQ7ZmnxmfkU+IHZBBJADZuPGvPi4ztuAMW/sS6t72ZkDF3cGRFVA20s72K0AgqKISNfahL5u6rIp1sVp366Ir61A32rWk0TA5b3zKLjHGERlgkgQakl5VARnIAjlBK8oBjZIjm7KbWD+xyYRdSjYB9oK0J+c/HZPhU2YCn7r9ny4ZOduHF3fg03u/YEt4ebaGcpkIoEORzIatU6NTYaiaUgGJoD1S1NjHruvqtl839bqo8qIpq9i3oe+i9KKBLfrMTTKXpTyj1kirMSoikgViAROVgGyvFIUEDFufpjOfzW06g3Qu5HZsnYmgXze2zo9XdrI3jBsKG7u5yS4q0sbtABivarCWo6gPiiAbbSvE0PV9XXd1HdomX67qsmibsq4qkd5aTryZJJxRzDwlzhhmgKjD4XHw1YcSK5IAhJbYGz8z8+uQzsAlYAwAREQhAqZhmlWJKGKGVNo2s4a7rT31atMfuwvaYBfkXQYvdt7Cc6k67R/C3vZZZ3ls2BO5N+aIFXRTG8pAKIYdGWfSVELPSZpWZV0Wbr2uqzL2Xd3Grus6lNrTxGniwVpgg8zKAKiRQBBRFWJU0Bb6RkLf9oLJjJKM0hSTBI1BMgocYTPOgGkbQaM+LYY8o2tHL+rlToc/Ot56bvvlMfgMOtqfoYZNRUAjSIx933dtV1dNWZbroq6Ktq5C12LXMEZL4CylKScJe4eWgREIAEU1agyKioSMnHRi1HhyCaYTk01pkqJP1DohM0RmADTE+aiKADQmsXEXWO8NHRxMwnYlB44lyS9jbP10tn4+dLSmwxuOphVBh3Jgkah9CH3X1nVTFU1VtXVd5SexqWPfiHTGQOop9Zx4TpzhgS1RiEBIhg2R7WKMAIIk1rBPeTq1kymnU3SJkhdyAhyEQAkRCZFBaccWoO78SdzIyCNhOND6ZrD11GmMvyMIStscPQ5FoyKhi13o+648OWmKvFwv16uTql4R9M7gxJtpmjjDlskSMxqDxEiAINIKREHpRHsA9onNpm56wOkU3VRNJpwGcAIGkWjT9zJI+vs00D5bYx0/KuBLnLf+gdjabJ2a+2TrvKiqqkAU7UNXV9U6X+U/5MvjtspDV6H2jsBbkzqfep84x0gooBJUSzZKTEjYSxBEYKPGq0k4nZv00KSH5BfCyeDB7jIsivse5BhhK44SKezYgleArZ8f8+t+eL31Rra/iLKNjnSwm6ogqiGGru36qmvKar0s8+OyWHV1gRINoiVKnEutc84aJms6okgoiAoaFURAo2AnIJygn3F66LO3TTInlyI7IN7zCbfc4Z4esmMLFGh/ddol8JqwhVt1RHdxgI6CrAwrkQZZQkAkqgSJbWirri6aqlgeP27Komvq0DQIkBjrvUu8nU2tNcosBgS1h9hJ7GOMbR8ErZBXTsFmPjtMpoduugCbonVAQ+3+dnUFbr0h3SXRFBFpT127DF54pv8F4txADjZXL9v81MgW6JBYQ1VBFdAeJKAGCX2+PK6KdbXOy3zVNA3EiCBMtJhn3qKz4FktBoothDaGVkIPwIIclIOy8VOfLezsiKYHlEzJJcwOgIfkmW6K5oaQX2FcMIrPWCNzAV47tvYCNB0Ht4x/i27mdAIFiKiCIAgx9n3o266q6mJdFEVZrKui6JrGGGbWhDF1OPXoUVg6CDVpjxtjhqIMSMpOXIbza5jO3GTq0ynbVAQUCdgQGURGMoqo48q1N5Ot0QPc/bV1v7Zy/vCucZNg3IgPiGPvqcCgPfZd29TFKs/X6yLPi6LomhpiyxBnnuaJmTr0FAkCSg+xBxEcvAsykX3NmbiJm8wns/mm7sp6YAtAiAxoFEloOD0EhDfQEl7E1qZNR19j+HDso5Et7fueAAgBERUk9n3fdm3drJabkp5ydRK6IjE49TxLTJawJ7UYUSPETmMAUmXbc9qBETXIzmeL6eLIpjNyE5jMEA0gK5IQbPxBRNJ/JC/jBUNHXeB0G8Am2tqqlLs32K3VAxxrRrbjcCvRqkiUEGLftVVZrvN8eZwvj/um1L5hCJZl6jlLeOLIomhsASIikU27oH2EqIZs4iZzl87tZGHmh2QSNA6NVWYFFFUAZGQYQ+nL4NVlS89nC7Zz18Z7h+2bgoLKJu45Fb0ONTCqomOrgoBGBpDQdW3b1FVZrMt8WebLpsq7prAYvdHUauoosegtWSJDpq3bKCBgml5WZQsmzQ7eXrxzw05mbjKz6ZT8RAHjwBa9PLYuX6H2crHT65++mXRrHccRhohDmnhTsDR8tnVVUMhZb9gmSTqbTxeLqjgs8mV+/Liti6oryrZ2rLPMz9BOvbPEKi2KEkhsm2+++q9V0Uzmh/90+1dH79yYHV1LF2/5ObBNiGioYRjOaVs8+uIKp/6+bA3Xc+b5DPsbO/9wM7cR0Nn7eFeGuveZAoGigiiAEgGgIc6MTaezxcFbSZpV62W1PinXJ1Vd9IXUfdumaGZpFKcxACiD5j88+vKrO32EHx7ev/XPv7l24+binfcWXZge/YJ9ikgiqiJDhduLLh79R5i3zgU+9eGp87zcXbspNoCdpgcAIAKqEmNo67Yq6vVynR+v1ydVueqaGrpuAvru0WGWetDYttX3Dx/8x3/+57//x3/df/j42o2bH/7zb27/6n98+PEn12/+Mp0dknGjTLiryh4Wcz5rbL3SlvDCU//b2JKtw4kAgESgyojEU+OsT/1kls3rw3K9XOerZp1jVT9elquiTrwxhudvXf/VJ0l28M6/f/HFt98/+fPn/2/Vwnu3fk3GIFGUqArGMBFti0eHZ0e8iHH2d2frBQKHkTUstsBhmd5QMQ+EiAjIFpOJ8T6ZzbPF4aKu2nId1sX6+ElTFnXVdF2Tph78bP72u/MneXf/uKzbBw9/+MP//RNPDq6/b1w6URBAYNgskX6h9VKvM1sDLkoFIyMjIbBLTTJJpos4P5RFlU4P18uTfHlSL5+UUURiGVDthJOZwVB14d/+8jm67DdNf/PWreksG0zf8EQWZt4ua/+b43VnC4GG+hmEjT48JqkAQJlBaROLExNZIqecHiSLdHEte2uVrY7X+Umer6DTxTs3Pgqcl3VV93lZ/e8//J9l2TRd/9/++6+m04lzDhFjjLiHv/3V/L29jMviJ52njo8q2kqPm7rhzfZen258ThHpIyOCRokBIBb5sizypqqCxK4L3z/+4e7de3e/u//VnW+6Pv7TzZv/61//9fbtj65fv55l2XCeeKF/uF0k8dSlXYbdN4ItPNO0SeLvqpzGEE5Vh/J5BdUIEFV6iWFYXQhIbd2dLPOHjx7/258/+8Mf/vj113ecd7/73f/83b/8yyeffLJYLPq+B4BhKVjXdQDAzMYYEQkhAMAwCl9ztgb86LPdlA/rPmN7GZmdGrKVI0G3fyuAgAQF0cFVIVKBvgtN292///0XX371+Wef/+Uvf2ZD77/33q9//etPP/303XffzbLMOWeMIaLt48VgdEOGNUhXbJ37BYCBLdgGXFtCYLOicvP4xFMP9tMtWxpBRYeHU23EC1DFpumWy+X9+w++/uqrr7764smTJ0R0/fr1mzdvfvDBBzdu3Lh27VqSJMNC0oG2gSRjNr7CzghfsTV+YfgH99Lz29fI1naE6XYOG8rEB2kygsqo+aMqqAAiIVKMsWnasljfufPXv/71zrfffrtcLo0xBwcH77777kcfffThhx8uFgvn3DCHicj+fPYTlKrXnq29NMyOLdnJkJt9TtUtnWIL4i4PMIw5RVAcHgURQ2jbNoSQ5/mDBw+++eabu3fvPnz4sG3bg4OD3/72t7/85S/ffvtt7721dojGBrYGqrauP1yxBXDaw9iYughPP6R5/wUw6lSbJdWnUgSIp0fh9pRCCHVdn5ycPHr06O7du9988823334bQnjvvfc+/vjjW7duLRaLxWKRZZn3HgAG5s76hxfjiq2zbG0mtlHqPyVQbgT+bUJnSGfHOHgTqloUxXK5PD4+Pj4+/uKLLx4/fnx8fLxcLm/duvX73//+008/PTo6gp/K1useHe+SK/s+BOluQtv2+778r6c/egr4VOPQ3YOJm06nzrnFYvGLX/zi6Ojo66+//tOf/vT555/XdX379u2PP/54Pp9ba/e1xMvriq87W3u2ba9pz47teNwn4JR0dM6dv+fODdPP9pkHxhhm9t4nSTKZTJIkadv2u+++Oz4+vnPnzo0bNwDg6OjIe8/MP9ZUvO5snYOzybFL7POsY42mTMfS8G3LEHK9//77Mcaqqj777LPlcvnHP/7x+Pj49u3bH3zwweHhoTFm3zN8rkl8A9l6IRg6/alHsyHidDq9devWZDL58MMPv/zyy3v37j148GC5XCJikiTT6fRHyYmvu5fxcrFbeSEiIlstY1B71+v1vXv37t69e3BwcPPmzWvXrm1DMRj9jouPf8XWz8LFi9uGJ0iJyCAeIuKwzczW2kGaOhssX4Artn4WLj6fQcYdhtd+0ouItrrGYD9x72HPF+Bq3vpZuGA0DPLgsD2kKPX0fyDxE3Jgr9jYehUxuIvPt3Kvn/L0huPqEd6vEq7YepVwxdarhCu2XiX8f/TFT9yWMT8dAAAAAElFTkSuQmCC'</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAAScAAACKCAIAAABnzRuSAACdG0lEQVR4nNz9WY8lSZYeCJ5zRHS7i22+RkRWVpKVJItFNkgQ1d1AP/KH8DcOGtPPMyCa6GWGwAw5rCpW1pKZERkR7m5u2110EZFz5uFTEVMzN/fwiKwkBqMIBK5f06uLyFm/s/Ff/e3XZkb/TY6fdqMf9avlycxMRKpqZiIy/5OViFh18SM2MxLPzKrkvSeNRBRjdM6V6zw6mFlVmRl3FJGUUjmZmZnZLOGvzExkMca6bsZxbJpGVZ2r8DmEQETOOSE2M7OEx8YzmxkJvjdmJlNmZhIiovn/OFRVy5PUdT1N0XufUqiqahxH51y5IM4sj/pgAZ94V1zelqv66PyPLdETXy42c3mvJ0/+4B0/deDKZUd+1FP98MU/8qsPv5+36f4Eow9o2P83Y7n/xoflIzNAPsSYmYmJ5j+B68CFItL3fe3Fe59SAtc9WkesGP6/JHTQOr7UmavviVtVq6oKITRNA/7s+x4sV1WVmaWUiBhXFhHnHL7E04pIviZebSk1iPLueu/Hcayqapom53C7KoQAflNVXFBEyns9IgB7cM0nSG0hRz76ZbnyTyPxn3bgXsvX+Yd6gB91kc852f8eD/NZx5Ob9OFm/wPeC0ch0+WtRSSkZKxks/4xM3BdMnOuEuGmaWKMQlJVlXMOHFL2r9xiZuEF+eJzSqloP+Z7Oe2cV1Vml5IRife+beppmrxn3ALXqaqKSMZxhETANaGuicg5ZzQrFyxkeR41dc6NYarbxoyFxblaycZxJKKmaaZpMjPnHFRfEUb0cUJ5YDh87E8m9z+3cjLPK/yB/nmg7D644I9lknKxz//hP6ws+GlX+8Ny3ZOs9emn/FBqfs41PzxheZ0lqzjniBwbCN2YWdXMOEa9vr6E5iGiYRjOT07Xmw50/+F9od+gQEII3nsRgVH6SNziQxYBIiJXV1fCnpljjE1brddrnOmdjzGmFJqmYeaU0sxvTFktP72Y4M9pmnBNVRqHQNSbWVN71UhEeK8YY4zxE7roY1KSPr4vH6O8D0XVDx7/gCzxiev8KA7/9Gk/7Wn/UFz3oxYaHz604n7CBR8xGGgX7IEvwzQZE1kiIjGcyaraj2G1Wt3u9iEpG7169SqOkyk/6VYUcxVXbtuWiLI3NeF7VSVS2Ioi4lxlZmNI79+/c86pTmamGocwjCFs1+uqqpRMvBOhcRzhNIKZU7YnVVXZmNnPWlTKY5iJiIcR+/76uuu629udIxZOImRmFxcXdV1jHSAanvTrPvbPT1grP5LyftBPe8J2ffj7fxg2+BwO/0OwHP2BuO7RSv2g1Cmff9SSfXjxBxYRc0qp7/vb29vD4QDDL6quVitjEmJxVIlzzjG7ZDaO4T/9p//0x//oH3///ffPzi+GYXj1/IWqOnIfuzVIHLDH5eXlu3fvVqsVNImqQmvRbGpyVTXOudXmZLvdvnv3XlUPh8Nms7m6uvyTP/lHdV1DGcYYLcXiH+JSSZOImFkIIWicpmnqx2maVElEqqry3oNFU0qrzaZt21//+rcX58/uDrvnFyekqawtPNUCFP2hjz+Ea/f5Kvr3OT4fPvkJxx/cr2O2hYsO22/590eSjH9Q1NEHvPrkX+HXYYecc1A4xizik0WNKYQ06qiqIQHTk+vbuy/G8P13b372xc/64Xi737169eLREy4tRrAT+AHfxxjBPABUUjJoWlUNacfMVXV7cnLy/NmLv/7rv/7uzff/9t/+29vba0gEaA/nHDHBZI0xGpNzrva1qt7c3Lx9+/b67ha3U1WLVqzQMYS2bTebE2Ymkqqpf/fdt5dv3738H//83fvL7XbrXEVEIQQz8/6JfbcZjnz6ffnj+/Jp1vrEXz/cu485/MuH+mn3emTr/v7M8/sIlH94rvtMU7D4FZ84/wdZ7tOPISJd19V1XTB9ZjZ2SmYpqqpjJqJkrKpTTH/zd3+rqt57770pAd8XFmL90D9kZvAGEaWUTk9Pt9vt0pNZYjmqSuLhce33eyLqxyElq+saT1hYzsw0Jeecqjrn2AnUpnPu5OSEmV99+UXZbDEBewMNMjNEC8YQh37c7/qrqysimqap6zrnXEoBt1hSzGI9fzQNmdnnEN5HbvcTbrj46Y8B5D5mTv/ko2AHn7hg/tMTD/kTue5JKfXk9x9bmo9z1A/465+53MXkABeV7xV+hXdUPAwTZXJTaNsWius49N16NRO0FKiTHj3DEiZ1zuEuH8M8kkEr8jiOxU9LKbVt65yLqswMFSmLK5TIBG53enpqcv/XpfWbzKqq6vsxpWQsX//2G/HOmFSJ2UGdinhVfYoO7n0t+yBglwXHh1YJ/V5889RdPuf4kOKXu/OkNvt8L/Qz//pjHEKs7b28ps8PQf7gwxUr6ydc6mMAXblyuf5Pvsujqz1+BjVS22w2fd/XdT0MQ4Eil3f89APYxw9AI8MwqGq76mKMIjJMI8kciIM29t7jvjHGj91CF0cxX8Gc+/3ee4+3uLu74xx4gO9a7G36SSKfF8eP/S19NvL8/8vHPwiyggX8g/t1P4axH8iDHz77IXby2dumZo/lD66wamd+GMcxhNDU1Sfu9eh2P7joUGtTTIiV+bpKKQHuJyLoyWmaVNV7qasqTuFjL/voQC6Lqa3aOmrq++icq5p6OvQxRpPZsVbjOQjCHwmZPXV8DjH9KD78tJv30T8tvi5P/2kP5WNX+2n+2A/+5NFjfPouP1HX/eTjEwqhnPDo/I9d5AdPe/KHn/grIm+qut/vh2EAD3zO3T/nAF8BgHn3/tLM1uu1mV1evT8ejyVOUFUVM4MVf9QBP9PM2JFq7PvjNA24bAgJHP77WwpPHh/bow+/+dB8+JyLf9q++PRj/NjjH3B9Pnapn67rPv1wP+3Rfxoj/dRnUMpS05jIBETZ971zLoyTFweS/an3XbKrEFGYJiKq265pGoTjyNE0jarqKg/QP6XkvRf54Zsi0sjLvDAh710iQ+LLMAy741G8I6IS3kiaoEuffjUTIiJ+IGg+lNmfyWPlyw9uVK7/pCL6MBD/IEuBmZ/Ue3/o46dpyKVJv1yNn6Lr/hAst/z5p2XhH+TurPCChmGIMVZVBQjxSV33o6/NzMxN0yAYkFLa7XYXFxcpJfbueDwisI7TSvLXDx6PFgpQp5mZxhhjTBP8Q2i5kmFDCz/593+13+dY6r0nFePHfvUH0tg/eOufcHyMUT9X1/1BOY0+jxSeNCc+xE4/fRGZEUmoOfzPYN29fv366vqmqqrz83NYgN4jO/wpAOaj6b/65Gnj2DvnWNxq1X7xxeub3d0XX3zx9u3bP/3TP8XtzIydY2azpKoEPvngzjmfZom/z69R1zXy3E5PT9frdbL+4uJimqb1et22bUqJhZ1zqnG5aMsXsaciAY/E/CNdZPxDgulRUsviwX+QbJ58ngcnfFLvfUxB/aDi+vCEHwNa/vDxWbruc5jBHh4/6po/meV+wvHgOkzGQkTJeJqm82cXyMNUsmmaUkqqlJ5iuXKpRy8L3sn/L4UOiYhEPFLPvPfghPdv3z07u1iv10jpxE5DO30icaTc8dEHERmGMYQwjTGl9OrF6y9fvT4cDiGE9XqNlG7KQYhHnJZfI9FHWOjJBf/JeObn3+L/X48Hum755qAAkMj19XUIAfaPF3cvKYXL52K/ullgG7IQzbjUy5QiN5yGbF3nnNlsBaWUiARFMZSjVc45hIlxWZh/uOCnjcBHtDV/0sTMYDYzU3gXIiQ2HIdpmsS73WHfNe0YJjoevJd1t1KNNmdOk5CaWYwJiLyZwYpjcsSKyBureC/jsG+7Ro1ijL5ahxCkkmEYjofDyelpfzjWvprCOI5h1Xaq5lhr76ehr5xPqiISUrwva/CO1ZgdG6lq5atx7JFKZmYxRecqJZpCoES7u/16vR6OvXOO2UIIUHfOOTMmEkQHc4LYRDk5E9pS7LHwTnOg6UNV+MSCP4AWH1klH1zgSauh/PxDhfyxw3g2Wx4+3f11llGT8v1Hr/zw6x88Hyd8+NdlVUQRlB+tr8s7ZHd3d+/evQOHMHMYJ7hAzCzelVwHECVS2jNclpxzIp4WghlMAvCgbdtMsoTok3MOuYUoCcMBR8ty1ItyNtZ2u33x4gX48+mFeMpbyDFvY+ZkTGTHYYwxjuOYUnr+8kVd1zHGbr2CovBe7u7uLs5OkXXpvY9LTmAq7+XECXuiyfs6jimEhMcOIXrXjuM4juHyd++2J5tpDP2hb9tVjPHNmzebzWbn7pqmOd2uq6pqmi7GqYTgl/Qn7MI4iXh4b1gT0FPlm2mabncHVYpJ7+7umqZD8vTd7c04jtvttqrddrvF7pQfFlqcHcsPKvc+/yiU/cgEeOAFfCSFkj7JWj9oE354tUcX/Anhih91/DgLc7lA9vAA9d/d3fV9H0IIIaSUSFi8YyfGlFLCl7gC2MY5Bwi7ajrx9TAMSMz33le+qXzjXc3knHO3t7fH4xHQ9jRFZkckTdP0fV/Y2DmHTCsYSHN8eRhCCNDAn/me9/YYk5IRoSCARCiE8XjcM3NK6Rd//PP/7l/+CzL94vWrXBsKdSpQa0Qk4r2vofnB/9DDIY7DeISNwEwiomQxJbDoNE23t9dN0+wPx83J6T/+5T85Ho/Pnj1rmuZwOOAF++MYQkimSnOZjxfnZU4i1TCnhokg8M3OVWasxEo8jXEcQghpv9+b2enp+Z/+839xe7t78eLFarsx4X4a97vjOAS8KRKms0FbeV+bWQhBTMQEe0Ek2VTm8k98+Nh/5fxHv/rEf0/+dnHNT23oI/b+acfHLvLk9dl+3H8PfpsPX26Afxf9Dtuj7/vj8Zgy6RARMvpwZinHpKx/cObZ2RkR7Y/HEELXtrAJp2liUmw27rLdbgGXV1UFDYPP5+fnMG6HYTCz4/FY1zXUI2DAuq6L4fFjF70IlDEGJ5WqDsNwfX39xRdfTdM0TdMvfvGLv/zLv4TseP369X/6T/+vzWazXW/qusZDspmqeg8lTyUTEtG2MYQYo6O5moFImZ0mVUsmxk4sMJPzrn79+mXbNeM4QqWP49jVDZPDSnqZC2qnaUIONNgbtsYMQIsQjEUiIguarq+vL549H4Zpt9s1TfPzX/wxli7G2DSNI44xhsB4EREBXJRSijEyW/EnP7Gqn68cfpR2+sGTP6bEftQjffr6T7skf4Bj5qWlRV7+PwwDrCx8g12HDRlSgo6LqiHZGNIU9ThM7Kq6XeGfbbuq6zYGjUFNufJN0zQo0GZmTeSkclKlOFepgbBCCIgaj+PYti2UJCxAqBd4MvBSfsLSmBmRsXdE5JxTMiKKMV5dXZql43H/P//P/5e//Mv/8jd/89d/8o9+YSm+f399fX0bY2RmM4YBXNd1SgaPknOqZ0rpeDyGOHo/918QEVUKIYgj1fi//q///m//9m+fP3vZ1Ku///vffPPt7/6v/8v/8vOf//zP/uzPLq/e/7//83+62d1FU/ASbAhm51zlpfKSuzwIwy8jYSVLNqeGuboKIf1//vN/+dWvfrVarVbr7d/+7d/vd8f/+B//49nZ2evXr9+8efN3v/n1GEPbrExnQx2mihdX+8pLxSafo0A+R8/8WDawjxyk838PFMgHXz464dFpP3jmJ/4T4uXnRw/8sef/9Mv6J/y//M3hcIDxA26BWzV38sh1NKjXdM4Nw0BEsIuWRVxVVccY4afhSyKqqqrExNq2VYu4VDbhxDlX1/V+vy/tQwpscHt7i8YKTdN8Dtc9thCYy2PAs6/rGinIdV2/f/8eHP727dsYI76/vLyM8U8gEYC8hxCgjYkIywKRkVKSSjSRqTGzJkPFwxjCcTjAhCOSvh9/97uvY4xff/Ob//F/+B9gVN/d3QHhxANXVQUBh2cuoNEjsQjFqCQURlU1prdvL7/48vDNN9/86ld/G0L49vvv/uzP/jTGeHNzY6jWSynGKG5OlzEzTVqAq6UR8Q8IUf7YDfrM05Z68tM689GZT572ma/8o6juSazIP3kVbPPhcBiGAVquOCdIfXM5b8CMYCXCGqyaNsW4u7qGdTSO49gfY4zMbrVaAZAwM9S2nJycEKmZrddrIkkxNU0bxh4IyjiOq9XKzKBncEFVbZqGiLquKxXiP251nPR9f3N9Z2YkDmZtSmm12njv67oVicOxTyGKyG63Y+br6+vf/vab6+vbvj8ws6XAzCL0xRdfPH/+nJlCiABamHkYBieVZ3d7e/c3f/OrlIJvvKpOaby+ft+065TS6en53/7t3x6PxzrxOPZI3RrH8de//vXNzY3F5L1Xi0S0artXr16dnp4SkRCbGjGBe8dx/Oabb/q+T8bM7H1txPv98fS0Goahabq3b94njcysZFh23OK7774TES9ERI5ltVpdXFysVit6SHZP0yUTfUZGyCcY6WMk+zGXgYnp40T86Wt++AzlBT9hr3548XLC72N2lt+a2SxZHz0EvCmI0oJ4QgUlswJUEskwDLe3t8hwTyklo2magDpCORSua5oGBiq4brVaXV1dIboAJbbdbl++fHl2sim36/u+FLCVJnnTNAFQQWXaDy7Eo1eLQfe74zfffCMiISm69xQECCK/bdsY49XVlYi8fft2GIa7u7uUUoxTjNGxiUjTVKhhLVgrVsA5550fj+N+vx/HET0a1CI7ub6+7lanODn37Zodtu++++7y8vL1y1dN07Da1dUVi5nZdr05Pz+npWfPMDXEzA6Hw/F4JPHe+ynoMAyXl5d4KmZu2/Zu13dd570/xIh9yaayTcORiOA9bjYbVDktF+rHEtOH1PzkFnwCw6SP6KtHJ3yabT7Nn0/e4gdV3O+v9h9xmUf2nWXbppDOYd/3x7FtVgBIALVVvrE0Favvm2++effu3enp6X6/v7x6/+7du/3+qLn9G+zAOSPeHkvQuq5DCGap67rtdntycnJxcTEMw6/j9OWXX75+/RoRQsrBPSJyzsG7A3sge9gKcL/oorcUnMV2xZfjOB6PQ0hKSZnd3d0+pfTq1atpDKb04sWL//pf/+swTLvd4btvvmtWXQhhu90ilREe5jRNRTNAA6PNpKqZGRnh8VC9qqq+8VXdHPrjixcvdrsdDFFVbeqqadxf/MVf/Nmf/dnYD15c3/er1aoSN1fi8r09Wcp5cH1swRgCO4fKNxG5vr42s/1+D1V8OO4h3cxst9uhn8Vms4FOhsUexulwOIAVS6ulJzGqB2S60Hgl/jZHtH6QOH9I19FDjtKPRCA+rT8/BrM9yTw/iqMeXfmjKvrj6tHMPM31V3MGIGgUyYGw9MCHaPCGvzZNs9vtfvWrX/X9+Dd/8zfjOB6Px6gppQTuKoI5peTcnKvx6JmQZ2yWoC2rquq6rm3br754vV6vz87OoIKAMXZdh9AFTLizs7NhGKAkoWTKfuCbjy0TMztXgfSPx+Nqtanr+ubm5ptvvtluTqqqev7i2atXr3739TeQQVdXV1999RXU/mazqqqmqty6O7nXPBlINDMids6Ro2EYnKvMdJqGpmnECZMjotVq9eVXL/7Lf/nPMXBduf0hnl+s/7f/7T/c3d1tNpuXL1+2bauqwxTgaoLPC+PNfi/Px8IT0xgjG/V9//r167Ozs5ubG+fcl1++/ubr3/zN3/zNZrPa3d4BBJqmqWmaYRiaypVrFimpquh4+yEtfsJo/Bh5PXnak8dPsNw+/Twf005PqsqPXeTzf/ix231MfvlH9ytcd3NzAy0HHwyofelF13Xder3+P/6P/+Pq6sq5ynsfpqmqKjUNIRjP93OOSZhp7us2Z7XP1E8irCpOBMjKzd0t3dysu/b09HTuGmIGkAMmE2fjCgAmimLsgz6zy7X48DNSjS3Rdn0SUqyqyokfhqGuxrZt8eJffvll0zSH4VBVFUTMumtx8dVqFcYRnYRooU7xWkQUgzZNt7vZIbksafDSQc90XZdiDNNQ+RWbVU40pn/yJ7+8ODu9u9ujGvX09FQqAuBhZlFT1KRkxnPuA6xTW3S2NKOqqnaHo1q6uDg3M7JkmsI0nGy2z56f9YcjggTjOMYY0xQ23SrpIvq6TNr4oXZ65a/ZTXnyrAfL/vnu9+9vy33s1sv3+rTxieNjYuVHPd7H1tAzc+kNTESoswR2D7IuIDhkIUI9dV3/7Gc/+3f/7t/91V/91V/91V9/9913ZrPLTrmKbE6fT2ZMbHNcSc2gmzSpMZOakpLadrv9l3/2L375y1/+8R/9zFJi5hKkNjMYliA4mKbr9Rpe4oe5KY+UflELxTRFGgrz3HB2s9kQUQhhCqM4hlYPYez7Hjr57Oxk3a3quk4pjGP0QkRzZLLYfrBvl6lqIQQWI+PD4VBV1XZ1Yrozc4fDrvaxcvb6xcuq5i+++Oo4DHiYk5OTqqrSFMrFPxQo0zTNnV3M4LyJeDM7q+q2ba+vr7t2NU1DGCc27boGq4dFa9v2+fPniNqhL62IwPFb1jp8mryWhsNPID77ALD5NJM/us4nnupHPc8/FG8vr/nom0/c4j5mDUujqqr9fr/b7Yp7hr1Bn3AzSyE4kThNm9XKmP/lv/yXf/qnf9p1Xd/333777ddff/3999+/e/fueDw6JkKMC/2BRUhNhIVYvLz64o/OLs6/+uLLn/38j85PT8YwxSms12s2q7sOiDkcufV6XfLRYHT1fX9+fo5wRQnZly0sbFZclPJXhNRUdbtdD8MQwsjMVe1ff/EKqEbXdW1b317frNfrruuYrWpqMwvjFMIIyCFOwxx0zjHlvIZmZiwSYxRxVVWNE5ulys3cvlltnXNdt373/dtu1RwPd5rk8vLy9evXHdqwm0zTBHFDOYJS/FVUM5SWm9B1h8PBOfPes6ljen5xXlXNarU63O1SWu12O6LZMNlsNhZTjFEdibtvZ2ZmiPvljvz35vqPJc1Pq8dHp33M9Xp030d5mx9Ld/zYn5aZmQ+yNJdnPfn5I6/++SuyFF6P3tRDj8FHwhnI/4K7UkgZik5E+uEA4lPVkBLsKBE5OTkRka+++grMULKlmWfssaiakkIFcV7XddvW4GrvvRDtdjvACXg2xM1Kx2LKMwMQBkQy54cvvGRFynsMwB1PqKpRE+xnYCRnZydmKYTQdV0Io2o8OzvzSVW1XneQPnhxtOuCU1TSO4hMRJTIe3+4u4sxrlZtjME5P02TcZMBT3r58kV/OJ5v12ap26zHcURdH5Or6/rq6gqWLfhKyoyRuVO1AtcF23jvmeV4PJ6cnEzTVNc1M43HQ9c119fXZ2cneMIY4zAMja/qup7CAHcde4rYo4gw21Ja0ecx3mfqqM/88jOdrk/o2w//9CH1L+2gH3z4zzw+5kbSU6/jy0NgG/b7/fF4NLtPDgL7wSojoq7rUEDJzN451zTMPA0DCqHQKmuz2ZgZixGRmJgZPLryQygWMwtxTGEcLTnnTHWYJvAh8DSUXWNchi1qNEHou91uHEfYh4/e7dEOFSYMIfSHnaXgnKiqkF2/v3z24mWMIcaIOPU49mdnZ0OYxin1w2EYQ9M0ltR7P4zHaZoqcTHGZ8+eLQxpLlmanLtNX19fb7Z10/r9bs8svq7NOIVxP/YaU9d1Fm2aprS3qnLe++Px6JyjoCfnZ+M4KpMIk4gxm5iJsYINCMF6JKANwyBi3sswHM2SkDKx927oD9vNKik1TROn4GquxMU0GSVgsMhES7lHNVhuYYrT8gN9wA/LP324/p+mxSePvEcfXuFBktqTavPJO37o1y3fYvnhyf9/7Pk/OvPog+/NDNHGD7W6X3omzHxzc7Pb7Sw3Ki2RaGi/qqpSglzMkBoRsjTMjLy3lEIItffiGVSyRO01akFKKSvAogOLYIAqSykdDge4HDnrd9aNIiLeHw+DuAfSa2lMPlJ0RUleX1/f3Nw0XQcRM00TyXtceRiGvj9An6uqxhRjbNpVjLFr2v1+P4VBRDxLXdcwcXnuVsIFc2JmJxLCNAzHYbzz3olI3w9Rr0XkZLMSoaHvp+FYufr29na1XptYVTUpxt3tXdu2VTXsjwfvfdM0pCchyzsRMcshQe/7vu/7fr/fwxyA1b3b7Xa73bpbhRCGYWAnbbOaC5REpjBA5N3c3MzR15RWq5Uq+kyzLFr3PkFDD//5Of7Yh6zyCSXzpJp6dOKj233sOR8xG31c1y3Z7BHL0UMq+tgz0FN89elDoik5MeFENoQp6NywFX2yZg4x884JcwzBEiSjOPZC7FiQoqYxaJy8sKXAplM/pBCdk2kajuPxMByixURpjCN7NrFEKVFi56JqP4aoZOyUIMhZdR6yAUSnaZp+HIdparp1SHZ28dzXze3+EHMmJGVsvXymjKMUzkdnSVc73/hx6pOGpmnquk5hYtNp6PvDPoWYQrRIjrywZ3LDMIzjeLffRU1t28LfI6LaV2wUxqly3rFYUiEmtcoJaUrxqGn03k9TOI4je7fumtpLf9g7louz0/V69fbt99vterVa1a52bJtVe7LqKE6cwmnXVmY6jWkcSJOYsLKSaO5pDWApjKMXYTMvsmrb3e0tMlR9XRnT5mQ7o8Gm5CSa3u52ISWzZJZinIbhWAAwZkcmqvcSirKZ8IjgLNd/AOhaisvl+SWFbSkKS/UGingx3kiVVAk5rsxoIgj30qEmppB1STRfHkVwP+KWR5+XZ1JO1i9JIOXK979KigTO8gEJnMv3Wi5RuWyJXeHiSjZD0Iv/MN5pFnI3NzfDMMCbL9dKKfns04MBsOUxxqqaUUSoIALPsKhqU9XD2I9hdG4GbFJKdVOJazXN/IAo3DiObbti5mma6to3VSVC8PF2u93JyUkIYbfbOedcVWG/V6uNiNsfD03zqeK6wntlh+ApIYEzxkgmdV03TYM0F4QElaxyvm6bytXs5lLAqqrW63XbVETEas65rmmB7zvnmOchBN7LOA1N07Rd8+r1y2Gczs/Pb/e7w+FQd565sqTdqr27vlmtVi9ePDczssiUGt/c3V7Xzr98dnp7faNMjasOQ2+rVVN5Ng1hRMt0cg46ClDKdrsdhmG3261Wq9VqhX2MMTpMJpqmrlt7otvb2+12fXp66iuxmAD8eu/HMdR1XfkmRXPOJb2f6UUf6Idl0SNhJEN2ax9pDFx8ScfpfsDYDJXjIuX/cD3KNwDzymdchBf97cv1y1+LzH0kKUra0NLCWl6wVKLhObNAuW/4/WgdyiPNFVj5ANaAmYSAwT6mAD1iZWDQcRynaTJKU5rwy8o5KJy5RWTTEPMwjs4zM/fjwMykCdnJx+NxtWpVk2kKKbbdapomZidEVV2FEMYw1nVdVUJEXkSImqqylDROQt4LYTjN8Ti2bTsMw8nJZhiO626F3EsE7sZxpBSNzTEtt/lj3jaXgDJz7f1/9y//Fb50zpHcT2YEd4UQphhIjZ14qdjNRvJcRqAxhEBqIsJqd/ud977pWhE2szAlUXLOaZg2m80//sf/OORi/Gma0N82TFNd+2dnp3d3d6uuqWsvmg6Hg3P87I+/uL66msbDz3/2+urqisnV1Wqzqh2lSoyryoxCSlJVIaUYI4n8/Be/8N7f3e1XmxNkdQEgqapqmMb/5//5/zgej94LM19cXOz3+9Vq9fU3v3n3/ZvVqsNTEfGXX355cXHx/MUFOhE691HQAmb/r3/96++//x7ipq5r72s4hzBZH5EXjPCS/o4MvuK2gK+Qwuq9nwsg/EyTM3Yg9y3il3y1pOzyACJifK91y6+wLEsKwfOAaYvzUt5aVausLYp2BUP6uipCpPAzzP6Tk5M///M/Px6PhYFtgY8sV9UDqqacL/LmzRsiLXkht8djurnZrtfi/dj319fXbbNi5pim4hXEGLuuAzZ4OPQhjMfj0PeHENJqtWqaBkFt7HrTNEiVmnmYqBSYEREUqXPu6uqKma+vteu6y/17Ijo5O729va3r+tmzZ0R0+eZtGMbUhUIZjz58aKDPq5/n2qgq9DDE4TiOCBk34u8tIqakobCuJaD5IiIaYoEfNJcdkLDoLOmx7qCkGON6vVaLTN7MnPNqsa2bFKek4fxsHWPUNG3Xbd/3tzfv4xTYyfmzZ6tuE9MUp2BMSamqq3EcSWS1Wh2Pxxjj8XiMUcvSqWrV1CGEaZqqpvYxOKYY4/X1ta/k5HTjvW/bhoiAQrVtd3Z2hq3MXR7CktPK6qVFeS54o5BvQUFlUaWOaCp4FbSkqn3fQyGUcoei5RAcwgUBm+GlUMtSmK0wUtu28F21jKYwm6aJndii8rPYcdDMhQxKx4OSM7zQchZjjDzD+Et1TURTvA9ug68sdxLZ7/fffPPN69evi4cPOfWI5YjIO8ew8p1r6trX9ZwUMgyTc45IXOWi0nTswzh5PyvGaQpnZ+tAIQZldt9/9xapid77pq1Otu3Z2Vl/HKGaTMeu65q664/jNEZ0HPGu1kQiIuxjiMjiSnEQR3C3QghhnKZhBHjw3e++aZpm/fLl+emJaby9uRK2pNnzfAhPlf/bAs6Z90w8mqYgeT/GGGIeA4IeykwiMifpmtZ1HVI8DtF5TI0TmOaJLGiyYEUiOjc7Ic65aRpFiEmFbdLgvBz2d6Ct1ap1vqqq6vr6WtMoGnXqttvtFKPGsFl10Dltty4Yo/eehOMwpZRIhJ3sDkdjGaYwDOPxeHz58uWhH2AGD2MQkRD1+uZOHA3TyKSta2PU/e0dpbRarZBxBldis1mv1x2z1bVPKSzKtx+gCNgRVSOSqmpQZTJNETNYikopq51y39tlrAjUv3SiipVoed6gLkY7PHKilkjPbrcrWhEZi7MA5fsJ1cVALcIRx1Iiw1ItvDEXsjFDl3IeaFEew8iKXqXFIAqI1zdv3rx48QIQMWWNSh8cs1GOp8dJCJ3VtWcnfd9P/SRrOTk5gSxJIRrZs2cvdsdd4xv2HIZw8eL5zfubk/OztqoPQ79q6mEKKZmr69ZXZhbUyPnVto0xpmTtekWJdsddVzfNquN+qNqmEnc4HKZphEAt9eMICaK0Bx0fuq6bpmkcxy50SynyoVlfpGP5JoSQphGkXDzSAgxMKVlOD5gNby+q0ZLGSEnIey88L3ff93XWlsUOgZyDFioy1TmH9Mi+P6hGx9w0zcXFmRNKYagrdxwG7OihP67X2/X2JCRqmmZ7crbdnEZNKZKIY+ctJCaq6/r6+vrf//t/DzH/m9/8ZrXatG37xZdfImuHiP7oF398d3MVp/qwv8vlUe3p6S9QtYjHRhThoW/2eD3LuuGcbJrOUaJCxDkIcQ8wFPOy73vEe6BUl/Sactv5russV3VBE0KVwX8ujF2ujzcqqXPoEEM0OxVQR8WoWaImeC98WOYAlTUpt1vanOW+zrvCpeVFoJ/Pz88PhwM6aEBO4dnooeFARN65qvDrl1/+7OLieR5mPWtqI8IrqSp+GmMMQzh78Wy72h7HY+3q9zfvn128ZCcpxNNnz+IUXqxXw7FHizszQ1U48gBto652GrTZrEhNyTabExKehnFz6o7H/cXFxUysbCJiSdu2vbm52Ww2p2cndVP1/SGlwGx467mRMzPNDVHuiw9KiHmBX2kKE9qNRHzLKQYSrIMaGyqts6sdovfeXJqmKU7BsaTKOecqcWkK1DkzTUnvLY0YRVzjmzAEakXEr6pqGIYxjnVds9lhtzvdrtu2Vu/EEVs3HA/HPiBxbL1eK3up2rqu6qapuo1JFZRJ2IzjFJE/oBpSmOIU4hQwMmEYpu12+5VIjDGa1XV9fn5xtj3Z767TxRkRPX/+vKubpmlubm6Ox2Pf97vdLoSwXm+KGYy4KCjjkYkOukRjgRIyGccRtMELuNg9LI2ljJ2AqSDiLTtFZlYyIix7Qajw4Fy2knLbwqU5gyhuuXXMczBNqfB80bqF1Tkf8Ak5V1pQLluRPOyF7R44wfMvZbo9hAPwFtfX19vt9te//vW/+lf/CsK3WJiPRJiHkQ29v91um6YZw7TZnOCithhFb5bBUFXe0himpmnbzUqjrU+3bJJMa1+5yqcQjYnPpO6qaYzkSEzGqceLpZRSChCTlfPsmMxYxGYzgzWG2SbWkKZQVVUK8csvv1TVupk7nWBp+r5/rLw/UH2PDnj2WC/H4ioPQ845l5iJUoxqSROTIzaZkz+JtHIuaQohmMamaW6vru/u7rquxV3m1U/Kefb3ZrMZAhowzwQ0DAOZvH79eqZD72KcvPdToqbbmFQxBGWvUkVy3nnfrIwkqjXOK1GIqapq7AvoAFaAJQ0UiORwOPTHoz85sRCTc13X9fu99z6G8eXLl8659XqdUkIXaqQ9XF9f40/Aw0rVSBFVy/UE+eKf4zhaDuoWq1IXwVjKI4rguS35kBeFSyA/uJSlB3bBIUQEVflFaBZ7tThgxYPiXPpc1qc8f7mv5IBkudF2uwVS+AiYFeIlPll0nfezE1gkRdGZMCxh5qzXa86o74dE6JmdGef+eSzinTNTcr7Kys2mFInISUUiRiTeW0q+bo3FSFjY2JiExamxKVVVk8gcuZCSVDWJkbKrGkrJiFzlXVUxMzpOkaNKnAmzmpkSa13XyMzyvq6rNqaprToIYxZJMX7/9vtkydiSpbKUxVogAlr1IPSppfNfnA67W2Y+7vcvXrwYhrkgMCVLplAawzDUTSPMwzjOYpLVsYQwjv2QwljXtRc39oOpMpFjEeIQk6uEiL2vhmG8vHwfVY20yP5pGohod3cA6I92XVVV7fe9JU2mYx+i+nE6Ojd67292R+fci1ev67YjdlUlMUbvJYXQbTaW0ulmCw1MTojEOTeOozschB2ES1X56+vbyknbrJqmCQFFJO1ut2vrjk3ilCwROqZAo8ytQWxmtSXXOecci8Y0HHvvfVI1UrA9Ak5eXEEyQwgpRELAyYiMhBmzhVKIVVUpa0qprRuNybEMxx4M7ESMNKmKY1IrmmQYBuhVQF/MDCOz8B6mw2tMkKemNmdm5n4n3nlEtjDEIoXIRNMweueUExM7FjUlZlUNlhw5733tXfFRAfk8QtGICDxPOTPp22+//ZM/+RPn3DRNtZ//ZIv4hy/4UuFsJvGV68ehZBhqolIbPpvdzlkIUcmLKFuYYlVVZKTCnjkRp6RBJzVzDs6oETu573krmJZKIrWrxXNKKZoSWS1VPx69MJShkgpzNLVFiiDali2BqUcqzsyI7q2RpZg5Ho//+//+v282GxHp+xFC9DgM2+0p4NxDfzzZbEl47Ccl67puGIYYp/Pz85ur93VdpzA65169eKkZ3TZTwN8iQqpwVH71q19FVe/97d3NyckJLKJVU/d9v16vY4yHw6FtV/v9oQRvqqraH4+08DTW25PT8wtmThpFvHNsKTnn+r5v2/af/bN/dnNzA4h4jElEdrd3COs3TROmOE7DNPTey/X1tYh0TRNCAJDoWA6Hw3q9vri4wEY7KKUPJXOmlaUGg7CDrQjZAWZDQWDx2co3YB7vPbzogrYXu7GoRFgKq9WqJL5C4Jb21aVZBogWn3luiMgFzCzCDroUm1KMSVwQHwqeCYMZ5/u6yu1MQ3FZy8qDo1yueilmKt7l7du3X331FepFLT3R8MY/8jVjjEZsZk1VO+eUmNk1UBdEVVWJnwPTzSILoWpqwB6H/YD3x+ICAplSzPqdRKSCfeCaGCNZYjbY2845Zqp8RdzOSxYmIkoapmlatZ0QMXMMYRhGIhaZw9NPOqxmiZnZmJAOh8RCo8r5k802hOCbxlIMMYrI84szVWo3q2ma2roijSEkR2ymY39cr1Yiq6vL9yeblapWdTNNUxhHZg7DJMagGLg9zE7JQrLjMK3XXQhh1a2bugX3Xt/tROTw/urk5GRzenbc7bfb7TSMIs7XDeYht23b9/0wjnCBvLAXhi4WkbToeL0/3IU4DrfHuq6F/fF4fPHixe3tbQhhs+rujoe69tLWUAtVVWmMRIQwTwrx9evXuohWYWLex/IMLXc6omywQa2hHqrYbFgE2LFgDDhpVVUVfgD5ookO5X4ZJYSAV0PwA6dRRhrlvvPF7MvhmpLjZjgZTAJADk9YdBH4dr1eF07gDLqUu0ORog8QPWxTgAvOThYzAkKQAuW9iOhwOFxeXn711VecQwhL4cXMUvyEYp4Wv7OY0T43wxIRpJ5oTMyzNeJYnHNsZGbrVes8bzcbFqu8V4t1XVeVa3xVVa723gs8hBCnwDRXgotRJa4SJ0bHfm58kHKfTOY5y1FytmQxrOFdfEgfjz4s3/l4PKLBJmx6M+u6TmNCVWFKidF+dxyd5/3dDbb/6uoqhPH29hYlDjDc53qFbG/MCyoCY+z09BTSer/fo3k2btp1HYKWh8Ph/PkzgCjI7AEDwGstizDDbkZsyqZlpyDavPfPnz8HrZ+fnIYQLi4ueAYJWITevXsHITcMw2azQQcH/PBwOKC0vASRn/SEl+RSXKZCJ9DwbnFYzs7t+x4AuuT2U8Aq27ZF/4FC5QiW4OLe+7ZtgQSCSwu/4QMemBcRM8pgTyESzV2tEBaGhi/nQEOU2EABLQua3bbtyclJ6SUDZY774huQX13Xh8NB5touKaBR0zRv3rzRDIY/OojIC/r9EcqrNISYjEQkpuC9T3rf59yUQkrqYjITopCCELFzTDSFwGZCZilUTtI0ilgYet94L440aiIyS0bEyuRYrPIV5b4OZgp954RSztC5F06Jm7qJMaqmpOHdu3fKNMagjJgbBm0v82UZao0/GErKzPCeNffMRbAY1IB+Pt65w+6u8n7sj+v1mp0fx9ELKbNjeffm+7qut9ttP44xxtMSnHCSjNh507kD2jAMd/sdM5+dn43jmFTfv33rfUUsTdt1qzUR7e72TVPf3N2o6sXFRde14zje7ndN0/CiPbOlBD2vZs7DEkvj2KtGIp2mIYSx7bphPNZ1PQ3qHDvH0zRU1fqP/uiPjBKbNVUFjGeaprmhW1XBcciAmZa9/pD9VAE/hJQCGsIzc9+Pq9WmpGWCZ6BwoDqKBUgZjwlhjHFiNudkGI7QPKoWwmhmzKByco7rGuG42Wvy3pd0RSICJgSXRxYlV7xoTwp9OwwDcA7O4+PBbxCCqPYooXzOoe0wzYXUhZkhbfFP3GKaJiRRYcd5MQjt9vb25ubm+fPn9HieOxGRZzZVROUrVb28vLzd3aH/NhEZ3SNaOo8oqFMKzlXOMSQykaQU6rpNKcSoRDpNsesaVeq6htklSo6cibksMZ3wce5lZI5RzaGQwUo2xSyEwuScE+LS30ot3t3dLZGowk6PHLzlUewfyh0cUJOOGBGk193dHeWcku12u9vtiKhpKxF/HCYAgGN/hDiHsARghQEgTlxKysxeHDAx76VpmrOzMzzw9fX1ZrNxzgPngAZYr9eH/Vh3bVc3yvTu6j1UQUxaVZWrPHSgsRMhTZQsJpsBephYRHR1dYXRWeh4eX19Xbftfr8/OTlZbzooE1Xtuu729vZwOMChWq1Wfd9D3XVddzzuofdm7PqplSziHLQL3wZIxsKdpgIPFmieiFApAvsF+tzMkNjU9z30NmX1bmabzQYGZN+PmqfNQBeVuMXSleJcLoi91ly2Aq7Gq0FzLiHQojwtRwI4xx6rPB+7RIyLoqtyL3N41JDjhfyQPklE33///fn5+aN5LLOraZRsjnd5s3R7e/3tt986VxkDonEl7mFI4SEJcap83bR1mGJMwYl3XvrjEFPYbk764di1q/eXQdgRW5giO3bslLSMsie9TykSUlPObTXTpMY5x5qN6rom0hAC8NfNZoM8N0cupmha0m0MGm/p4wFTeQSosPPtar3b7bp1fegHQzdOce2qNrOxH6qqERE4GyGEaeq79RqqxtdVcaCbrkVHE6DtULjCHNJU13XdVr6umthcXb2vqqqqPEy7u7s7zLUahmFO2GOumyZEDVP03sek4ziOIdXeV+JC0mRE7NQsmop4Y2XvpmmKpuuT7fv378/Pz733V1eX3ntydHJ+Ap4sWWkxhqkfvZ+7CcZpVBEvXFVuvT7fbFbDcAS6YHSfr/xI3YGCYYxpDs2JSEpBRFRLjCmZmaoxG+JDde1VNYTZ1ISwkLm/deDsc6bF/DBcPKU0DANS3tlJClrVVYxR2MUUsfiEqRXgc1NxEsd5uDT6DIgI6sWKRgIzFxQUu1la0YDSRWQmM+dgFBRzmrLSBvqyWq3gamad5AEyERF6MpydnBatUFZ17hFmZsT3mTvMRsZAuqImUmraitn1/YGYq8q1dU1sTFZVrq1bdkRqyVyKwQv3x8N2u07JmqbmbpVSGMcw9n2M6hzXdQ15UNc1scZolXddtzazfhzC3Z3z3rFUvoI5sd/fmdn56Sk2HqlJNPuZM7hdpGwRukuSWeo6CF0wABoE3d3dYX3HcTw/PYsxiszxt2kc23Z1e31dVdXp6WkJWB0OhyJZvffMDlY3Zeckh57Ie4/a3O12e319jQSA4/HYNM1qtRqGYb1eHY/HaQpmpkyV8GpzEu/uhmkyZu99ALmbppTEeyaOOUYCnxCfkTykTGi+BkdomqaU5gakeNQQwsnJScF+j8fj4XDAM4c4Sa6ZfFLRFT60nIlSpDuURsytOEHBsC3hQYEW8c/iQ+KEEqZbknjIbXNXVQ0sEVFleLAAOcGoJWkTvlwRuPeYPDPASbScKQ5hzsGqC3gRckvvlNJqtcK98FfL/U0KmAkWgvIs1xQRAMho5Xp9fX2y2X5oO3gxISMnLozBMYdxdMxtXaeUxLv93Z0xv3r+agjD3d0dLEZmoxRTSqumZc+O5GZ309XdlKiqfFK7OD0Lcdzf7lbteVNX1zd3jW/q7Xoao1ok0uPhyMzTmKqq2qzWRNT3PWyhrkGWWe/YgsbzszMvdH19PQzHcRybpmKmlAKRmqUYUfXEc0RFVYiFWJOaoOWEEZOIhGnywsl0HPv1ukOXTmRLQtSJUF37799+t16vldrdbge3x+WinsNu33UrbF5/uBn7iZnDGOOUqkqYrK7qYRq9F+wEEY0j6Em8r3a7vYh7//5qu90ic/fq6urZs2fjOIUQRaTv+01dH3f7yQ/bzYaoOxwOcRpSGLForpJpGtq2dcnGaRoOxzhOZnaz2xdvpK5r+G/jMJ6cnKiqhuidV1LIdTN7f311enqqqlOYNptN07XJ1JhUydSIBUaNEwF4A2KlRaK9sbDz7Hyags8NfEGssBU5zyekZWLTDHVAIowgaBh7YF3KUYFkmkyrpvZmijmBRmGc2AnkJpTVXN+cAy1ZJir0fEopJQUEAraM0czS4YAWJIQUhWTqvAtjZJa6bVrppmki5dKSB/+v8kDFpUG7tAggGuZgfYht3aQQv//2uy9ff4HfFsExZ2rjcljZtm1LQMbMgPLd7W6IqGsqjdE5Cxnn3Y0jFPTJycnt7W3TNOPUV1V1d3t9enqa4jQN4zSM2/VmmqYYddU1qlXf9yhp2+12t7e3t7e3Xdfhcbfb7TD1ZsZsqlGk/ru/+zv81cxQvt33fVrkqj4SyUt5DMkKF6LEZIZhgDcCAkKy3Pn5+eXlJagW36Ad5Wq1ImUEZPCE+/0+hLBarVDYdnt7++bNGxQKzhAWK4QI3NQYI/qgALq8ubnB8+/3+9PT091ud3Z2xhlzExEsC2Qq9ul4PH733e/gHRUyLcg45RAtQPb3799DC63X68PhQNkXKurIew/cCEqYiKZpypP6UNsyU/BqtSJ9UM+CW8PBLtUhmubAF7xc7CzqEiyncRU4BM/Q931deyCE3nusFXyhrutEZHfYp1IyfxhAtU3TRE0IJ4CNUeZSAGTsO/QMBAFcskIbmNCG5sVQcc65Y9+XpiSqyNAwy5kxnHPHQEJFjnCOnUjOdCt1p7g41jPG+Pbt2y+//NLlECWu6T/UntD43vt3797VdQ1gumhnRD8wcAcQ0PPnz7/99tsi7UII69Xq7u7uxYsXwzCIdzd3t0Avbnd3YGw1u9vvmrZpV3M56TiOmtLbb991XXM8HtfrbdvOViikzjAkZlfX99M2SoDlkfouBrSIvHnz5ptvvlmiQZeXb/GQBeQFio3lhrkFyxNoe1O1l5eXFxcXLqcybzYbzimCv/vd7/b7PS6CV4OfM45j13WORYnbukGIbHd7d35+fjwek9qrFy+HYVh3q6vL96j4vr29jRzMzLGEcYLCDH769d/9/a//7u9TbhTr6yrGCFwOoWT4+lVVffvtty9fviyUje9xsuZUPgQ8hmHY7/doN/ZXf/VXv/nNbzRn/QtGgTonIqfbzS9/+UuwBC5V/DrIjqZp2FfQKt7X3tdENE0xRm2aNsyzDdm5mcyQlgAQS1Uxt1BktgCJCE8FtQw1C/GHn1vStm7GMDEz7AXK+Whl629vd7gFfq6q4zg3ET85OUNJoQg7Vw3DoWnmUA3M9dLxCUuHa2pOmLacJrr00FI+JFfxpZQq50sQ7vvvvz87O9tutxA6sz4vlyiuEeV88J///OegyLZt0T6xysdqtbq8vARM/ObNm1evXl1dXUHabbdbjUlVD4dDXde+qqAYgSMh3gWiwUZCtKMD7NnZ2WrVnpycqBKcYPQMf/PmDdI7nGMoFsujW/VhMUg5nHPH4/Hq6gqy51e/+tVf/MVf9H1/err95//8n+OVAeudn5+/e/cOOYqofwHeCJlye3u72WywDSVdEF2SUkrffvvtX/7lX0K0A4w2Szc3N1988cW/+Tf/BhrMzFAZGGN8//49/Ja7uzsIL/SrLw35EHjd7/f4bUrpt7/97W9/+1uo3/V6vTvsx3E8Ozv71//6X3vvMf8EPZ3MLIRwc3MD6wCit7Q29N5vNpuqqlAjA2o7Ozv7+uuv/+qv/gpmWwiBSP74j//4z//8z/f7fQoTlhe2RolupdwCmJmnccRGFOwBOgSKqHQYgIDDIhc0BYJ+HPsS3Z5/qN4tottYKJ9LFuo86rDYF8UOxF1A+uDJAo1CN5ZICaQqZVADorb4qxC7vKgmwS1wNTBzcVNhWOI1oUIhMcs5x+MRXuK9QwsaldyNo1gU4DcYDBBaLnehPRwOXdddXFzg+9Vqhe5aAIV2u912vdlut0R0e3sbD3vY1mBCzNxwuQQYtAJACVj2NM01jl3XAXY/Ho+A6YhIlUKYFxTGydLIXMJuJaXVe7/f729vbwGUt2293++RNIN9RY5PeVnY/bA3UkpNUyED8N27N3Vdr1YtStF2u1u05cJ/IqQad7se+5dyRsLbt29PTk4QFYS5eH5+DoChgGywebquQ+C4EGUBsoEigFbCOLV1s11vzk/P2rYd+8HlpomrtjvuD16cJb3d3+TSDW/Gq9VmHMdhmPb7o/ceHUqqyjG7w6EfhsmMh2Hy3rdtFRZdifHZ3Y/j0yKmcSDqxYs+fyD9kk4oOWxdsD7m+8TiEMI0RQxjq+uKSOu6Pg49zPiUEpT5arUquiX0AaNLSW3ZH362EuOcXKF5Oh/IG4o95XpF/Gocx/V20/c96K2YwfFhJ7tixNrDPjGccwZKlwNInGkYYTrFGBGRgktSbHUpXFcYGoKw+EUQwzBSEeOHBYV2rniyItggBW9ubq6vrxGnqqoKUcgXL148e/YM2hYXf//+/fv3783s1atXZ2dnkMpIC4Bv8O7du2IAoOQcSYaFNOc4xENdhw9d16HfGTOjcxblUqjizwDCAZR3enpawi9whOq63u12cCSur68R31PV3W53c3ODVYYhVzgfCuHu7g5XgDcIHXI8HnECpgKW6BDczouLC2T3YTjuZrPZbrf4K1plliAVwrJYjbu7u/I6h8MBg0TAw9DJqtp1HcwtzU2vwf9QXyjakFxJHULY7XZ3d3fff/899giyspBLcY+L56Y5lbEIctAuhkOUldGc/AE5CAHX9/0wDBDQWC7OgTgYz7hsGVQI7YRtKiu/JABYnqp6PB5h83NuGImUJtgpII85PqzqvUfLGXB1UaogeDwD3rQYNeBbPDDfD5p2MZfJp1xuD5opx7z+4JzCcnD6NSdDQ1wdj3OjfMllCzAzwGYltI9ie/zq+fPnmBnSjwPEDAQ5vJG6rvu+Pzs7g+p7//49tgGx3bkMzwyA4fPnzwFjwOZumiaEuc5/KXuWB+dcWNAWOmfCNobE6roOZqQuumKgxBM9cPEM2Jirq6vNZlPkNx67GAW0GM9Cc48zh9JPKHPQNOxq2JPIeCqO1t3dXenIADtwv9+XMMnSTce+FDYAHcAXXa/X6FlERADQm6a5u7sDpoLLguBSSshjwoamnEcOLAdE9vbt25///Ocxxv1+//z58xLpxl+LJzlNk5d7MxLLhUeCvQB5UfQeSCWlBHEG0/36+vrVq1cwmlJK3jM7tGAEv876BGYbzrGcBSq5zlVjMtXK+2JtLuUgYFXoBvAzmERyjAd+OJwgeEPl4rpIikwPh6JqaZ6dz8GzYf1BfpimdHl5CfcK588liVjWDLDeYzXFGC3AEawjrFce2oTkoJ5zFbBKwsA3bBVnTOx4PMJdNjOYYSWYAxYC6kC5kB4veXNzc3p6Chv11atXzHw87uHig2GWzLbUeJDlhTSBnUKmoAAR63U8Hl+/fg3qhDLBA+BDjPHk5ARiDKwOQMJyChIeuMDfEGkxRsT04FOtVivoNwC2+FNKabPZwH2FhEK9+e3tLXIp8fDFryicxjlXDmIIhA6xUlAisL33PqR5wi7Gm6CQHNsHLkW8Ht2sQXaqijabkETFrChZNZZnWoCwisFfAAM0LwS3AIQr1lNVVTBeUHhBRMByIekgx6dxqOtahMxMk3IuVAP5FalapJ7lsDXofskt+BXwJHBUUUfg26hJc9ImlCqeAVH1ogApV/FwruKjhUcjOegPybJZrUUEEB1eE6HaKjcomp/PLXqMFeQUChH3BsNArSPSD/Opruvj8Qj7DbwRc8EFfPexH477A5oKVs7D64hTGI79NIyoreqa1otr68axgD5EBMCGc+78/ByLVVSQLcoZY54hvDQyC9RGROM4lm0uxgMYCScX86OA3dhasJPPfTUk124eDgfNlSw+C9diP1g+XB6cgHUvOwrOxxsdj8eLi4vT01MAJ+DDi4sLIrq9vYW5iAeY8uSD+0y0ENbrNfzSGfAMAeSObI9iQoP4CnvAcIBzCwMYNoXmTsTQulhbaMWU08SgxgtUUFWVakQaCpHGOImQ9xLjFOOUUgB6j3m0zNY01SMhVSRdzNPzYoxw20qgDJsC8Q01BTuz7AverqSYFIe5eEwgDIQoptxtSRftUrAvBckvJj3+WkKOkrPJwGYut8THabCG8FKwzIv5DQcv5YZIc7ShuI/FZCqWK3xEiJmu687Pz9FPQXIn9rOzsxcvXnjvMcQcBiSuSUTr9RpmT8nB6boOXS5hca3XaxA9Ed3d3dV1DYWGnb65ubm7u8Mz2MMDr1os5qLrQVgAx0Gv8J2wpqBXLEExvkHHhYfNDAkrwzAgeQWACtJ/gEfRwjcAlYMHwGYoJX7//j18UXA73LbD4fDmzRsRgSs7TROapj179gyUPQzDzc0N1BoGCQL9a9t2s9mcnJys1+vT09PXr1+73NQZ9SZE9M033wAWhpDabreoapFcpeFy+mvZ5cJ4yBkqmfXY/eK1whJLD6Nw8PZTSggGpBwlL0YgjrZtkRuwPBNb470/OTnx3p+ezlNskZ9d0MuigkBLde7tB0Hm83Q3ylU8lB2/ohjNDPuOrqclBMK5PhXuAzKbYSMA0cW6oXdWUXFFnZauqpIzuqBRIezW6zWwOqw54PSYA93ecrpQMUmBf4Q8uAOvBKC/XBfjS/FAWALK0feUktCsWK6vr7HQmKxdsDtIbnh34zgCPjkej/ArABJAFuKHRav4RQK75YqvtKinwPeg+KurK7gQyKmD0WiWVHW73cJZxU3h8sJIA1bx/PlzfNOdnD579gzACfIBgEpB1mI2FXZlvV7Db4kxnp2dQbi8f/9+tVp1XYeESVz8n/7Tf/r111+3bXt6ehpz9jAUMq4JHwOm6S9+8QusNqgQxFTX9eXlZXH2AMAyM5arNEIdx7FdrbFKMGshATGIE1J/vV6jOwblAlBIzL7vNUZsWZ0rrQp6scQYsj/msddhkdFPuYsm7BfsOPRD8YJCPkQEmrPrmr4vOXe83m6SaT8OEsR778lXOQ8ONjAtujYgxFUyV4ByQ2aVHBr4wNvtFv4O9h3UjhcpAcMYI4TmMjkbpZIYrAvlCVkD0dC2bZwCRCGgGsk5pbe3t1CPvlhWtMhmhLERcgUudvT6+hrGUj0PN7bdbgfEjHJOQFY7MzQHVwrmaMr9cCAgKdfe4+LYFefc/nhAukbM6SB4fwiY9DAjXnNKwZLrwJY3NzdwOwuUkpHJDvEfAHoIjEI48aINGywuuHbYQgxdARkVqxsa79mzZ7vdbhiGZ8+eDcMA9QJnycyur68RsYFKZ+bvv/8eadyQqWAnBEXfvXt3d3cHoBLuWYwR/Imdg/UF4xCOMSwImE+gQkhS6POqmWe+np6e3t7e7nY7pPgU/1nyPCb8lnOs4vb2dtU2fd9fX1+fnp4WGRfzcCXsXcj4p6oiHqO5HK7oNOfmqfQ2p63eZ2O6hxnPsANJGDk65+fnIaSrq6uzszPNKRyrtoPgMDNIqJjHG2GJLHeGhgqCfIQIw4MhBI0yfPGurCG2qZgnIdfjFpaznJaNLbDc0wFKEleAuYvtiLmhNXgSqb9t23pbBB9gPRf1Cut2u91C6kOCQhvUeQohEnBhjJVMUM5wf8n6oVyKC8MVshD2dwmOAax7/vwChofmBg1IHYaDoXrvQ9OihY7LlfmF6/A9cBTLyV856Hcf90Qv92J1iAiikSH3mYFdCvEJ0oE0hVGAzymls7MzPBJmOwMTe//+PaL8d3d3MbdknXJzAXyWHA2bpgnBdBEBmIE2E8jPwBNihsE0TVETCU8xtKsuxjjFoGRVU7MTpwqi3JxsY4zH475pGgwfPzs7mabpeNwzMwoCUMYWI1AQ9l6cmxMX9/v9yWYNNAt5goCvoIRF5O7uDnHUlBKsHqwhvoFFjTWBKrMcZzczGHsgAOc4hLltKZFrmqZq5pD9NE1V1cAfgfWOL4moaubbpdyvFhQrudauACdQXIjEwIYCWgFOHsNcsJNyFZLmwdQgDNjhMZcL0iJSh7crWSywAVU1TsHnvo+as8xSPqZp8tj+lFPIITzAu+DDy8tLOC2wNDDUG+8D6wL1UTBBYSmZ826RLFflfm+QGbCwS+V/Kak4HA4Au2EMgM5AtaUgWuS+Tz2MySI1l7o65XZou90O4GQx0M2Sz02poAmxXrDmC4MV5K3ve1B/aUmw3+/Pzs6wCHhCLCAeG9oAgC30Jz7AtIapA1sO8DoQSAga8Bszw+UrgTtUwWEZ4R5DeOFpS6oEjEMQZZmVBW8ZHyAKC8YAuVZQdRDWOAYonKurq1cvnqeUrq6uSoIVrBLElPHb2ne4JmJ0hcIgnbHOBa5kZnS5xd6BJZhtu93e3t6WhKyqqd+9e4em1DEqxD08pdVqhVwiuAmV8yUXwnIcHxyONUcUtFA8Ujuqqrq7u7u4uDgejxuZk8tAqKAW5Kn4XBIBPgT9QMeg7QCEOKiicGwIgdTgwyMXR3KDGcpp0x6rmXKOTxFXxdkFyryslYApXC56enoKWyulBLvFchdEImq6dgzTbG/Y7BIc+iOEATYphMBOxLuQYnZSJ7PkXIUbvXz58vvvv61rX3pdFnAFelIWaRMpJzRQDoUDLcC6gHS894gNQjrAGkR8//T0FM5AYfu+7y8uLgqkycwok9tsNnCuUJ0JCRpSrKt6DFNMMaTYtm3V1El1tVnXbVOi0o593TbshISvb2+6ros6Nxp88fwFEXEMm247DEM4zM+JgGfl52JNGHgI1l1cXNze3sK/wjZjBCzYA1m/4GrYn8WtgOLF+sQYEUvEEpWAAUILkvN1l8QQY3QsROa93++PIjIMU1VVMWoIAzOL+HEM6E3mnEtJzZKIYJxQ0zTed3gFM0NwhYjGMK1WK+TTM7thGGByO+dubm6Q5OGc2+/3+PL89Ax6IoRgmIVo1PcHVV2t2hgnWOZ13aQU3r17c3Fxsd2ub26uROQ4jEUFFYgIzFaaPqSUQOGo1bi+voZzCLD39PQUUEoxwdhmABx+I5Kfik+eUpoBGctpjbCawJ1TbhdTQHNIBVwLBhssjZOTE9x1tpfSjMnCzoESw+3hZeJ9YL3g+i7PZMPccogAIO/odAJuz3bIfdapLsqHy59g0kAGl9J9yvlN4GTEzZqmef/+/bNnz/ArpHfAmARodtjtwWbFxwPqdXJyUjAMgCgy99iyUrsdciYdgCVmBkAHYVEgDaC4sF2J6O3btxDeUFYlsFGwO8mBOwyynqYJ4aCbmxuYowi3vHnzhplBpkVQYhNhrmPRYNpg+zabze3tLuS5BQUZLjgEBH/BVIrhJCJVU2M3fV2RMBklVSOr6opMpjBQSMTqpKrb6mz1DMkrU0zJSInX25NhGNar9d3dzeXlVbfptquteD9DF+MYVdlsvd32fd+t15YSlq5tW2I+Dj2mvsRoztFqtTImLy6ZmnG33kzT1DgvLC9evfbe73a7s7Pzy8vLk7MziGDgvUC84RylRVwBurRUooBZuq4L8/CDmFIyZi8yDMPFxcUwDI6I5L5nGVQoXDMvi5Tt4iBh3QHpwmGrc1ET9gnQAqwjZGb6XBu+Wq0u374rDs/1+6umadq6GYZBiCvnp2F0LCRzI8EqZ4hi18HGcx+rNOcEN02z2ZwMwyhzRoUX8TFqSpYS2ryaKqEHMzu3OxxBN8M0RVUSQYNoX9deiHIUrgDH0AkhV4XAIkKkBKAfLLeiVMdxvLm5gaV6d3fX5MYHMBHBZsnHrmlVNcXU9/2q7bz3pnbY7TebjcZkSYdjv9lsmqpOYZ5Na2aV8/D1oWmnEGCLwusOKeJpv/jiCxG5urqC3H379i1nqB3YD54HGgzaEkxeRDX8SbAixAfEDXAm55z4bIwkdc4dh5GZXVWHcBNyAwVjipreX92cPbt4+fpLsGKbZ+ugawiz28gJKjNTMrSKO2tXMyS43oI063bFzK83m9df/jxqIJ2TVDYnp5AybETCcnZhTKR2cnZRUDQioqRGpScqtZstm0VVR86ET2f6RLdwq1dbZv7y51vE4tfbE8dCRFXTbTenIoIRGkWmExqME62alapGmyElY2LShlpLqmSscnJ2RkTrqmKe+w7++//b//2f/rNfusrf7XdnF+dd1fi0CLRLHsLKucVI2UjYJECf4Q0TEYR9ic7ByEF+E8xOuJIhBID4IgKMKMZ4PPbY6Zij7UD5gf/u93tYtsigh0MMbLDrum+++QZ6GL41MFLLwTrjOfX57Ozs4uLi66+/xmkzFaoW+oMXCvvKFll8cJm891dXV6fbE7wp3FFoPMp9r+BWoT4NSDfgQZjicK7AMD6nFkBjbDabruuQ2025VxzMSFBziRbAkCvxX3ZSwlkAiix30YEKwsMgigg7rdRkYQsKxArfrJRvxrkr9hzQ09yHv9hFLtdxl6AoEoxU9fJ484//yS83J1vK4TJjYmbHcylacbklF6FSTl7BP2EfphTuuQg06Z2ISO7NITk4NuN/9qBcJusPYNqLxu9MmCDAmevKpbx3xDpLB7RvVDOzMgYYh5kZTDly4DoiQpWtUSq35uwBZXSShXi13eA1S8BjVlCQ+rZISSnenS2Ki87Pz5GeMouTvJ0g6xcvXoz9cHJyUgYshLmJQDo7O4N/JTmhbrNaO+dyu+WhWJWwZFAzmnIutXPu9PQU2ClORnIz59ZuxVmH91jACVAJQIt5O20eXZJyxFZz259l6KbrOpTVTcNYpoUhoo2YGBAUMCctZmXQYmLGlBvawJaGR45BdgX7hSa/vr4GHLJarUowxuU2HhBM2CNPPk7ztCONqfZVCOG4P7Rti9G5TVV7cRpTCnEaRmYHgCSEBBHQtqvj8VhVjXNVCAkNvzEqFYMpJXdbgH+RcuO64rvG3AACHst+v1+vO+fmcCJkVj8OzjkGywD3I1oScQF1mDktkkWYxbnl2F0nItBIS0ZdsgSjpxYJzX1fUOXtuAx5NFM1IzIy0ICqivjM854kGfqmMhtpShrj3ME132M+YohEZLQQDeSI5knOmKJuZph6KyKkCTpJc+FPSuaLgV68MtBrQc/d3FyVIUcRxWJmpIa1bXt1dYU8CVwX6w4RC+1REsDhegImArwOfMVyqhTENg4oN4SAgCVSzsFp2xbx9yImi5Y2synO8rhUnekyryV32kSuNqgf6wIcEu87DMPJycnV1dW6W5VyJPAq4paQDs49QHdAoMXnxBWQy1LQ57Ozs6Luvv/+e6zG2dkZFBRMg4IASW6+X9xUqDJcE5Zhgcghv+AAQ4NN0+TcPHbn9vZ2u91WeeI0FgcK38pIxLnEbmb4lNM+ptxjC8ZLeVm0yuv7/suf/UxENCYU3QKjknuanYmUF0mMhf1KGFBzERB4IetGLldaPmrhulmlzFzq0Nadc/MoW+jAe1tx1jFgXjEz4QfBgKJvmR9MaCvileYnvB/b9vClOPesp5KZlHK+dVVVM/RJC88YKZdYeqwg8JUicVGS43LF16rtri7f43xkRQH8gG8KYgXvMXMJrMNMBS32fU9GIWcYQieAK6acNGRmJSUX4BVEA6htuYVQXCWtruQTwUJbtTV0GhQdYgDQilDjh8Nhs9kAYFjmK+BlQeiWi4NKKFJzvQnlohVQEkoEIdexgCmlm5sb2H4AQhFFoJxTAkzFLcqWYePhIoi2hxD++q//+quvvgKEDZzJ5apT7CA2G839cUJZNNiQKU+lKesz5eIarElZWDAYzG9d1GEWZ3juhB3Gqpq7RXTtuixIEXp5l3JXCNVUGviKANQuqkwtMmba2DxmSdVU1WgumTMzMhFh58TonmGMmdSUiYlNWFWV2cgSmZoWPhdTZZXpvpLDu3ksFAvPhjHYjpksz01wkpmOKXfvLCw9985SMiMjM0twwpu648W8sfsEK7wJvBHkIoABiq6DobVer6+vr6EGQSKH3X673V5dXb18+XKapu+++w5wC/jN5b6foAZYXFVOe42LVOZks5ULUY2FAMWAKGG64ILAD4rIX8owCJXtdosmIiDispdlzACCNjDzVqsVRsmWQBbuG0LQmJB+1TQNcogKugt5hHcsW07ZQgNHIeWyAFmI1aaUCpALlkaQHTfFKuGfuCbuQrnPPgCtly9fvn37toC9xUgGsAnWQmQJggkPDx2IRLxiHWCp3aIlVoGLXW71AwvTcokNZARUH97XZZC9azsz40VBAPP9fD+3mNaN/SqcL/mYDWxxRES2mNhoZmYs90ppUV473ysupqal3Gl/qRuXO1U82KKszIzo/iEf6TFbDPQq18xacdmNIRvARikZVJT33vkZS5+Tqe9fKWc/p9zxr8ptceGtYUKKr2rvfe0rsDIRvXr1ClXxL168OBwOz549g0SPMYL9inLjHBVZlr3BmlJWWCzA94uCQmxku90W6wUgBNpghRCK01C4DhEYjbGta1UlVXKu6zrSOXtoHMfz83Ok3g/D8Pr1a7CWqoIt51CE8O3uDkSPNFTQMTOX+kiXewEUPYDQxd3dHVAlBAlevnyJNUTFzXq9Bm5UOsBD1yEptKga5GT4nKAEWVBeEGIRbieqmWAzY1jC4XBQYoSD4Q6EEJABg10D3btF5wUwgC6yuiw3VC4eh8uDRPq+Z7YQRiC999LHCSp0yDmC0iAmc8zKC9uqoDIPuOfeuvOF2zQLVmZmEmE3M7OQMSeypMXsfDBcslAFBkgVy5PLiGbnXG6qi3FuRM5IZFGlDmPSyIRJ42IoNwNw8ovT8Gr4K3E21iDsqtrFGKkhX3AIyfGZIoEoFx2nnN8M2Yw+9Xd3d7DQoKlgmM07rYrOKJaTvwAhwIIFZQP/LJYq7phSOvRHmKCF5kCLr1+/htUUc2o5PZxgRA81domGQ2qs1+sJthMRYEaErSAUQgjfffcdmBn6EEQWcsun2lfF2xQRYHeIpyHaITnv1nLbycPh8Pd///dEhPSdkixS3LaCoMDqhocMTVuy5MAbbdsiAo7dKahScUHB2JqzZ1G1ABxrtdmiXxOWF3oMnioEBPI/Q27GUeJDlH0YzjNDcBH48/gTQkeQmDWy/+pKycI4eVdzbnkw4zHkWCwlde5+lOcSkCysWD4bGgQyc066KE4dZw+QFiMWaTFyCESFkz0zZTOkKFXKebxFwaZcqKWqbuHjPbCPl5VljEdV+eBkVSVhymnMnkUWAYIHKfxEBMQPlCe53MPltEnJid7watCMgDIdl/C65NQBVUXPU7CWz4OkAXm/evXq5OQkpTTFOVDW93276kBhyPFbrVbwo8zsiy++uLm5AbaJF0DSkMu18D5n30ENAmFHyj/2o65rIkXC+F/8xV9A02qum4I/Bip3zgGdwzMArGuqGgFxdDc6PT199uwZck2hHkWkrtscNLu9uroahuH6+tbMACTKnMY+dZ3r+6OI1LUvqSdj7vwDPYa9XK/Xz549kzzCwphOz8+mafrtb3+L2Cus5XfvL6vFmOuQ+xQdLy9jLtfCn4pZdXp6+sUXX8A7FRHoK8rupWXHD/X12AIQAFaGiLbb7TQNfd+3ecxySmmKaJsbnHNi98nNKUWj1FZ12bLyp2Ij8KJB0BKrfGSL2cOprpJLQ0Wkdj6hZ6FZitF7L87pzCeKIVBE87SylIzJMzM9bBfP2Z0rRjgcIDyV90KYsmTw7wwBDyLssLA4JTUjZkadpJp679frFSSyX0oFzjAmXgnVOn3fo/kccn+nYQTa8f79e0R+Uq6qys8042BA/+EMpNyYCDVRIgKmAkBSNTV4CUmxRfwU6K/EcxHuQ4wYQByweDCVLWz6qqrQ/KPM6W7mhpONmT179gxdA2DOQRs3TYOOEs+ePXv27Nnd3V3JwYd+FmK4sryoZUaXm6JqNJcIv3z5Ei7ldrv9+uuvmXm73U65KgRLWte1c3OCLKoEsIB4HjNDExdkYMHoOA5927Zt2/785z8v716cOrwRdDL46nDoYX8i4pLyZFP88/T0FL9yucwUNvD5+TlKKIs2KCnpReQR0X6/b5qqKDRj4mRKzMx+URWKhVImDGlb2n5Ll6yYMEVHUVZxkjXV8pylmaOqSGO4enepqtvtFjkezKyzBrsfbr58sPm+i47RS89t+XlGDSyZMXI8Cr3xfY2/KYIGuXvS8bivqso7PwzDZrsys7qp58ipy2W8eBQAZYhQi8jz589vbm5gW242G/ASfCozQzgbmabJNIRQNTWQkqRzzV4Jpkspwm1qY2LxxDwOoT+OqpqiJTLn3KpbHQ4HJbvdHeq6/u67rzebzfPnz7/++mvUvEzTVFVjXdeUYxIpdzGDsVfUBZgEhiLIruSIgRbBrvCdEKsANZfyHxjGzDyGqcT0wPyWUxNhSDRNU1UNbLCUc9jBxkhlBnG4XMmRUkL/T/Atqv6gcvEK4ISSjAa1VixkvBTYuJwDuQDz/nA4VFWDaDjmdaB3COc5j0XnlA8QmhCRzFzyd6FVgNDUdY20ByIapqhUUEf23jnh4pQy35tV4kyVlSgRmc2Qr7AQkfE8pwJuUTQ1jJ0htvSgIRczA8NUi2TztYzIYorjFGNEdGwaxxiCd8wsgBRFxEzJEjORkepcMiYOIevsxT2yKueYUFFJVHmPNBXLCXqWO1MUv45YxSF+QNfX18+ePZuSlmgK1hC9qefacqgX6O7z83MQNFBjBJexbeBGQGSghs1mc3d3161XSHEEkSWM6s4yqVgRCFtvNptpjDBlJZctmanmdoUistvt/uIv/uLk5OTbb799//79V199VVQKM4/jaH7G3zg3yqfc6QABw3EcEQmguQdmC4KGcoNWLG5nMZIhVpBwgw+ogieiPhzBNmFR7lkuVeRf8VehWM7PzxExg5lQaqtDHrAmedJNym0h8RgwbimP8J5iUNUmt1uGB1uKOfA8lisbz8/PxzHUeWQUuFTyoAx4cXjmlAvGoSERtikww5j7Oi+9L5T/7I/H2So2jVHZzdkbGFHKbGXli94QEeb7uuSlVimWl923ab03OLHLxFqUT0pW3F3oFiRJwkZTjV3XsVEJODtXHmCmRqUHAXfLqby8qE9HoxPvPTMx3evhomYpN00nkpQScl+cEyK62++eP39ONkMk3nsy8jGoiKtyvwZNiUwq35xszypfE9HQT7PhJNXQTzGMkgNlSNW/urleb9YhRaRiIfXz4uICucVUERGBVpg5qXrn21WnqpeXl3U1l7rgnW9vb31TIw6L89fr9c9+9jPQWekvhC1HLzrAALzw+At48+LFC2YOuZtI9vsJVitaUwMLQasSSHHEpqC7xnFEQwYzK1WFJ5tTDE+CMAKcKHkwos+tEDRHvSjjkHWei/Lll19OuVY45popItrtdptNAyilbVf4Ca5DRFU1qqpLExFBS0MVn5+fwzJMufejiDx79gzsWtdtjBHtmPAnCIIpNyaS3GyrAEigSOheyUPAl3QmuQitrusVSUrmqtr7mjk555icMonc512ILCYhW4YiyIzug5xMeSaMkRiZEashCYTMyJKpGps4h0DYHMjTaDrXZIOVy1yEOAXHwi30cBThnHXAMWIESkKok4gArtoci6flYWZoQ086D+8UcYiFiLD3whxSSuMYiMR7YWZSZiKupBIH0LGum+PxGMPZOISurT1IsJi8EGywuHa7XQgBFIY62ZSSd4xkXHjYgFVEBOmXzjlkA3OO3</t>
+  </si>
+  <si>
+    <t>b'iVBORw0KGgoAAAANSUhEUgAAASEAAADyCAIAAACNouR5AAD1W0lEQVR4nOz96bMly3Yfhq21cqiqPZ6hTw93xn3jfQAeQIIUKEo2JIYkW2aIMmWFHUGLoW/+4H/A4Q/+E/TBYZsRDIbDZIQpGRRpy7ZCBklTeBxAABQIQG+689C3b899hj1XVeZayx+yqnbtfc7pO6BhAO8xo++5e9euISsz17zWL1FV4aeq9V8Xtx+Z2RgjIkSkqojtb6KAqCJIBAjMagyKCBEAgKoqAgIKgAIhAGl7V23uL6xkesdw2wUFFQADiioAAGgZQAFUxSIgMIAACKgBJFULCBABDQCCSEQiAGlvZkWFkNJrNf0CBsTeG9PnDg9eMz7XDuGXXT7X3PPaB3zBS/4Yt88f9J+SZozpSIuZRSR9AABoj4uAMQgAiQ4BABEJEAAUFEBFBTF9BlVJa4UIAXbXjYKoIAACtjyOAEhEQAUBCBOpIgABWEAEIERQBjQgrKBAZJurFAAIAQySCGh6fEfpqtod+7yG8OUW9Jc9/6u0P+EEBrCd45+advl1EaCVY80pPTmmSVwopWWKiM2Z6T6YxAjtUhATGABRRUQFIFVG3DkCIKAEmKTWDqtTBAboupLkkCoCIgJIZDIGAFQBqJViKshKRAKKRN1rJbH8Bx+zF9macfsC58AXOPNPQvtXNLadxY7MdpemAIAIAEA62JwmSVp0QgxUEQkAQDQmna0hSwVETHS7o4UCxCjG2nQOiIIqIIAhBUBtHooGAkDSIUHBIxhoRaeCQKOLmK67IpA0RvxjuT7/FY39NDYFAOAY03JvTK/0wRCAKEBkubi4ePvtt997773Nuooxgqr3fjKZTCaTg8l0Op0WxTAfZINRYb231iJinueY1juAgiK05CWq2ggcUUAE1GSaISAAkQgQN8QTEEqCEgAAEMABgMIIwQioAhIEaBeigkVQAURNj+oet31Z/Lw1+2XtpS9LAz9Z9PNFmv2j7sAfl5YIrGvCjUo2Wyy///3v/+2//bd/67d+az6fn5/NRGQ0mtR1LSLWWgCwZLz31to8z4FUCQeDweHh4XA4BIAbN258+9vfHmT50dHRyY0bh4eHw2JQFMWoGJCzzueKQgYsGSJUoACgBERQ10AWIsHbT+Xv/9PfeHg2y5z92u2jf/9/+K/ZAiwBAgSFGcOjs/VmUxXOvDodHQ2Jkp6olGj28+mqaz8di/7/z+2nUI5J7/OOrRJjtKahNBV48ODBP/j//sP/9td//d6D+/c+uXtxcbEqN6qYZRlCozQ6l6mqAXTeNIILwVprjCEiX+RZlgGiMYYQi6Lw6f6ixpgiz621k8lELPjJcDAZO5eTG06Ob41vvnx45xVGb2xWBvzw4eN/9i9//9FiJRy/fnLwv/j3fuVXfv5YGZyBU4H/5298+vvvfnRxcfbK0ejffP3kP/wf/KljBwAxKioa04i0L0Fo+hxau17T/hJ337+qsWm/5I3+xLR/RWNNa+wlFhH5+OO7f/fv/t3f/M3f/OzB/QcPHzPoerHc1FVRFIasiAzHkxACKxbFEFE1skosy9JbSi5H5xwAEJHLsuSKsGScc6iaBpwAjTHKYoxZCvPR9ODV14aHt9gMzeBgMD2GYlAHhopFqGb67Gy2dK6K4fZo8OaN6c+cjMeZmc+Xj2brR6U8Or2QWB9R/d0x/a/+p//uKyNfOIDBkHw2tNYQEVEi+8/1gHyOufSvaOzLt59SGktejc6TkQiMWZ8+ffo3/+bf/Cf/+J+98847i8WCVXxeTA8Pcp8556y1QIaIyHoBHI/HeTGIMYa6WswuHj94OJ+dQ+SkQDrvVVUJiQgR0ZD3HkSTy8QiAQAhctSFceubtw9+9hfM7Z8p/cGmRud83CyoXNv1MgPKfeEOjpeDUe29MQZVeD2vFjMTA9Y1V+XA0NiyX16Eex/q6WPaLKwDMx1mg+wwHwyz3Hvvvc8y570/OTl5/fXXx+PxdDqdTqd5nh8cTrIsy/PcO5/GSFvplz6IgKHtwe4cSOG+1pHTxTNg1zfbb+kmfQ/QdWf+xLSfOntMRFTVGMPMxrh0EBFXq82/+Bf/4nvf+94/+m+/d//eZ+ezC1TweX54fONrb37j5ZdfPjyaeu8FSEQ2Vb1crfPBKMsyRNysFg/uf3Z6elpVlQUEYUWIsXbOKYIgGucIKMbkLRQAUSJVNWA4iM8GweZRfXDDtcvXdchZpt5PHYyHrjAW0K6MkSKPRKsQVbUKSkxTdEOSzJoh1p43JOuLsDm/OJ09fhRjzQM03hVADgkRnXPeW2OM9340GhFRoitjzGg0IgPOOe/94cFxIr/xeFwURZ7nw+HQOWeNybJsNBo554wxWZalyxERUYksEWwDHp9DYNCE1p5LjT8x7aeOxogsAIQQkjrHzIDm448//ut//W+8++67H3300cV8EapKkYwhnw9u3bzz2s+8+dZbb7322iuHh4dENFssP7n76acPHk4mB3meA8jFuV8s5omiQl0yorXWOEeExXBgrRUEa216oqpSFyEQ1Sqs42ZYbQ60FtlkgQ9Qbjj3qqcbhCNjhehpKZ8u567yyGBCSVz7+eIG4s8UxcQ6kHW5mqFl8kIjE4ZmZWNdr+NKuaSg1MkKahsipihFopA8z1WViKy1RNZ778jYtiU69N475waDQfrg22aQ8sKDUl74l+68cng0HQ7GR8cHzmbFIBuPpoNh7qxLoXpMWSwAiMACoGoM/rGL4L3o9lNHY2m12daLuKnKv/Orf/fXfu3XfvCDH53PZ6GOxpgQo4hEAONsMZyMJ9Pp5CDLihiFNUaWmmOMoojGOVRGxBQfVo4AjGi8t9Pp5Jvf/tZoNDo5ORkMh8xMzlokMISIZV2VZQmiEPnhk/PSjbPxsDJsx/kwL7K6zOfnrl6HsFnHOK80y6fjo6Nb+SCwsZKJlXGsD+LGrue8WZSL0xWv8sI5j+OD8Xo+RiObzQoIvcsYEBFFhJkTpalqXdeqmkYjRgEQgIb8EBFYkv2WJEyM0Xuf5D+11l1KhZHIAGBMQ5NJo0bE4XCYTrPWZlk2Ho8PDg6G49FoNDLGFEVx48aNN157/U//0i9mmYsxWvsTuxR/Yl/s+U0VmaWsqt/+7f/ur//1vzFbLjZlJax5Pggc0SgBMnMVOAJEUbJGEQLHuq6rqgohpDWhqipCqsKBQJyhqGS9mR5O/vyf/9e/853vvPXWW9/61rcGg4GIVKFWFp9nirher2OMWTFYrMrf+b3vf3b/aTR+DaDl2gMgx3UdFovVenm+qasa8OWDg5GrXOYioEQtC7F1IFiv5eJ0+fjB48/KejOZTBCUjaPhkEIVV3NUqZVEoBFfoqAioszsve/kGwISuUbMECGiADAoCxORc847m7gIGYOIgKiEgISIlgwRxRirEFi1jhERvfeL1arx7hB1jtb0RJ/nlujw8OA73/nOrTs333j99S2BfZEI9Z+09lNHY11G4ttvv/3/+K/+q3/yT/7J/UcPsyzbbDYCStag8O3bt1965ZXBYDQ9PHr9zW/cunVrOJ4Ip1wMCMIsslotyNrBYFDkOUwm0+Hg5PAwlussy4pB9nM/+92/+p/8lZdffnUwyL3NRKIqhhAYyBmLZFe6EgFCe+PW7VfeWCzX1f0HT4TBZcNYlvPlSjmenp2enT4OofZZbl7e2OW5jXUVKo5RF/P5craana/Ws7oumUREEAAVrLX5aBxjWJxdJGcLoiTxld69UxeTkoaIIkpk0k9BYiesOiLpRi99TgIKUpKnQIyxKAo0JlQVEGXO1TF676XJGQNItKfKqtPp4dHRsTfWZ7Ysq5SH+ZPdfupoTBWqqv5//9f/9V/7a3/twYNHMcb1akNoBBAAy7K03r/59W/+8r/+527evD0cjRlpOByOJ9NyvazquqzW8/livV7Xdb1czYdFNsgOf+47b/3b/8YvH4z/10VRgDUisl6X68V8PJpW9YZDZUDzfDAZTYmsy2wM4sgt1+vF8vGTi/ff//iTTz97OF+WQC6sq4imqqoYag61tcb7IeXZelMtN09FnwZUrmsXa8vsyBweHIvIIButLy4mo2G1WVZV7Q15n6lYAfAmBedQWFKKMzlvyHBkxVZtFlEWAFBE7zJVDSEANDowUuMtVFUNMVluxkjnjLXWxk0FhM5YANxUgaypAiuCsrAKAeaDYjqeDMcj7/LBMFcWMs3tRRQADPVdlgDwkyPN/vjQ2LWh4atbF3H4kjNRh/h//dt/+7/5+//g40/vLRaLzOeDwQARB4PBZrOZLRaHh4fG2bT4iiL3g4ExhiyWXHOsRaJy5UA0VAUND0bDGwcHr738ys2Tw8Laui4v1uvFckmI0+mhSnTGlmVti0KNKbJB4LhYruq6jlECy2K5ePboyezpqVc9GOZlLRqjIodyEcOmcG50MPHeKzkURmERrVk4BKvIohE0N95a1AFLWRY+qzZLZgYgQ5mSQda6jsYgEba0Yay1SRwpAhHZPKMYAQBEDZIwA5FzrlPtQIGZU5QvjWGi1XRDVWBmZlZVcYKIqGAaJVpEJIp4763PB5PpZDo1xiCiAhMBNFIREa+KvP2ktC9PYzv55r3DTWzE6KUwSueiTbPS/ZKqsNoEXIEmibbJd0VAvERszb0lOae6L5AKQ1r1Ri45hZtfzy+W/+e/+X/5tb//9x8+fCQKWV6IyGq1TCYEIliCztaaHhwcHB+s1ov1hmsOzy7OvUOH6pG//sqtiTV5Mb514/iN1147Opzm3q8Xq81m44vs5GSQGUuqXK2JgNxgE3i9KuOy3FTLxfxicTELIVifD0aT12/j2DmDYIyLjPcePnj7/fctVCtZHY2OB4MRqDk5uTO7WNjMztfLZS1QFLFmCVFrYVFCBQCT+Uezs/Pzcw4xs9773Bi0BliMqIoIgIJylmXleuOyHMmo0UVV5hYsGYxKgiCiRmOMzrm6rm3rgdSG7aWaAQSAqEJEgqm2LqIqAkgMRASqZagkBdnRkHWTg8Pp4dHB0bHzHtqiO1HZuux/cgkMvrocU9ojs268sC0KFAEFtrTNZO+cVGkRi0iKqzT1kRq7u+D1qT8NmaWUVxEw6XIioi72lbJukzONyCba/r3f/cH/4f/0f/zxO+9+8undGGPrVEMCDHUgQBGRyCCx2qyrqgqxypyDzHO9qqpqtVpxZlxuD6eTt772jeGfHZN12WCopGW1mp0/q1algOLaIJG3fjQoHIS8GHgFBlytFnVZ5pkxA+94qKrO56r65Nmjj374w9XsIgZZ16wIozx75c4J5jdvvvLKeHrkMXv16Pbi/CzE9bsff/jxo7OAprJmLVILx8BGBKLUkRfL9XK1VlVSQyKqKigNywIFEDLGODLOKIr1DgisWkWoqsqRNWoUGj6YBjPV0XnrjDEsAgBIpAJAyQMCiGhMGnZBRNtOsSKigCKOx+Pp4cHB4fFoNBqOxoJQhxBjREVSBcKfYHdi1778G27X/k71R5svwgCAaADAEACkwsdGfCVKSxEqUUCyooBIlKo50He3FxEVJYIUVVGFrgYZ0nphNYSACCqmqadqVJf0D4hYBJHW5QaUHj9++p//3/6Ld95599GD+4aQrBOREAIoDPK8JpIYJQQCRRauShJGZqM6yIbCBNZX67LI3SCjgbV3Xn7JmRwR0ZoqVlHVZmRNYa1VFEVkIsloUQlIDKvN8umzi0ePJdT5MA/CmfUhyuLZk7qun376/vLpZ7Cpj6aHL52cUDE0mR8cH2TT0ehwKorl6eLRj79//tldb0L56IENJrgx2zyIbqRCxRyMM2aQD5/xKaIDiTVHrKvAtXUGQFlqRYOoZKjmGhzWoZIoAKCsSEqiBFLXwRgTVJBIlFXVkQHQEGpVCwBAmAaW2qR+AhBhRLTeJr+liKg2tEfeHRwc3Lp9ezAcp4tS8EBESJVVOvXhJ7u9MC5yOWbfao8pQ0+TgasKRKBNTTGoAjMgNv8AgFkNISFtK6La+nxjUADKql5czMqyHA0LACg3K2ttVVWL5VoEFovFcrlk5sQvmTnP87t377333nvf//4PHj16xMyWKCors8QYY9QQQ6gN0aAobt26dfvOnT/9i7/wp3/xF1555ZWjo6PNZjMeDrNifOPgwHuyIBpqbPAHWDkoxMyTNY7LiAqi4pxn78jSYhVgEeaffvb4vfcff/COUc4GxXK9ytwoBL6Yz6pYffzZJ/PzixvF+PDo8PWXbg0ODkqRSOAswWa1WZbV/QeP3/twcf/TYSao0WLBbhSLo2i8iAiARTCIylqWJQBkWZZnDgwdHR0NBxkRrMuNtR6tAaX1Znnz4HC9Xp+fn4vIsBiPD6bAwBzq9cZlGSvHGNerFTNTlkNbFW6MAQYxZNQoqVITc+tXjqO0Jp8xQGZycHB043g8HgMaZg4hKKIqigggYKrfdvS8FOSfiPalaeyqpNCt1YRJgWyK3REQRBiJAJLu0Eih1aqu69rneVFYNM0VycIyhClOowJIEGqZzednZ2fL9Wq5XL734Xs//OEPP3jvHUS8ffOWc8YaNMZY60PNAshRo3BZlnVd13Xt8gwRnz17Np8tHj9+vFmtiJAAmYVjRAVvnXA0RLnzP/Paq3/hL/yFP/Vnfulr3/j6q6+9kZhCbq2qWueHmbUODSgKG0SQyMwArMoqEVkA1QA6IWSFOkiUarGq1puzDz969uMfrB58YmOg0Wh1djHfKCqoSNSKZ8/Cci7Tmi8ezT+AejwUMsv1iqwtyzJsKlltwqNHYy5xtSoyOx1IGYQH4+jyYIvAEVkhlVVbPByPbxwf3Tm5OcozqP/M8fFhVJ4t5kIWETfr6v69u1974/XNcvmD739/vli++vrXbr/8ynKzCaEWibm3oS4vzs4+ev+D8/PzJuisyb8vAIARObn+DSEiGEpVcEmyGcBUGOcQszw/OjoajUZAqNK4QMg5jtKeTsmo04bIrs4M/gkgvxesDasmaZbKcxEQkZpHIGBVhXv37n/88Sf37t1brsvhcPjd737Xe79YLJJnbzKZTMfDPM8MmsePH92/f//TTz+dz+fr9bqOYTabvf32jz788MO7n35syZwc3/CZdYQ+c6BYRyiKIZJlljqG5P9QRJa4mC9TzLeu60GeASEKRmFlybJMVQyqy93JzeM/82f/9L/z7/27Ps+I7Gq9VtXJdMAhsmBGTjQSkMsz5gAACiwh1LGKXBMggrPOGaIqhroKkaiqQpgvNrNZWC/DapYRyFJgfiGrqFFFBA3E+cIBY6ir+fk8xuVTQovMDJFnzy7issyAtFz7wgovx6Nj43EhWhM4Y71iZFWtxFhy9vZLL7368q07t2/dObk5LAaF88fHh0xysVxE1sCynC/G04M3X3lJ6uriYvb46enXv/Xtm3funM7mUYJ3ZEC1rj5z7rO7n6pqjBFbiB9OSoqCIhikZJIlfwsROWsRUSMr4WQ8zQfFYDQejkdkjYggmJQXkgiViAyoIKKoqgL+hEuyL01jzxkM1aZKKemEHVgFAxBCVfPf/wf/8Hu//o+fPHmiigCkqr//+9+31q7X6+SucM6c3Lo5Hg8zlz948NnD+/fv378fQmDmg4Pps2fP7t27W5Wl1LGUuizWBgvWSGZYlfWqrJjVukw1JQfmo/FgvlyenS2Xy2VZls65LMtqjgYMgpIzrBqFozChlnVV1jVZO54MI7OqFIOMiCyhaJSAqsqcQrqoCBJZGFhEmDUh6wAHCAEoiDJrVZVVDEGiWMJBNrx5MC28FWKVlS4uTuer1ZoGAwg6HAxBZDabobKzlGW+cFbrWutaqmCEQhTU2hga5+PgMlMTKYXAQVPGhhuORuNiOBmOvvm1Nyaj4bgYhBBilFkVg9YBIBBGAcqz0dFBFDXGTQ+PTZaf3L5lc39gpnVdrVeLulzFsqxDmQ2zl19/ufAZEcW60bqZWUKMKsDCLbqJKNYcNcR0JiLaQ394eDw9PC6KIYBRJAUkos6NZYxB4YYJNvhZ+27q56+0P1nthcmxVuKDCKxWm/P5bDVflKH23hdFcXh4uF5tfu93f//DDz8OIWw2G2v9wcHBZ5995r2PMc7nF2VZq3L+YTEYjYZFcX5+Pr84Pz8/R9UYI3M8PT1dLhaqmnsfQiBAiZwX3hmiPFuvy/Nnp2DsYDjKsixECSEsN8vZbFZVFRGlPGBrrapWMSBiFKk5kAoYwxyqUFf1hpmT59NbHyGyREMGrFZVRELrXAwCCGWomKMqqCAKBg6xZiAUQGMc12GxXAeuRtPRjW99/dZhvjq7OcmsV3z24PEHP/pgsyoDeTMcTQ+n+agYOlPk1hnIPA5zC6sNcDjwng3U5caQQQTwpEBgHbMyIgBYpEFhjw+nN2+eHB3cGA9Ht27eMKh5ltsYqzouN+sQ1RUjAqUQinyICuV86a19/RvfsN69+vrPLNer0Wg0n1989N77kYGITk5OJpPJzZs3D8aTGGNSvJfzReBYVVVd14nkklAq67harVE0zWNZ1uPxeHJwMJqMgbCObAlTeK1JLgFAJFBGQNTOVfaT3L4CjUlCvFARRMsxGme1DWypwmJV/r2/939/74P3E4xEAr2w1o5Gk8ePnzLr+flMVb3Xuq5jVVocEcAg96QQhGOMp6fnDzaf1XVNoEWWxRhF5N69ezHG5FNGMKNhcXR0NJmMDMU6xhBKa20IVYwxhFAUhbG4WM4Wi0WoKlQxZLx32kSKoKltsWSAuK6ISCRxakZUQEkRBwISQgZUApehMAVBMCZUMaoEUaMggqGuQ1VKrAEAyNp8YFRyT6uSTeaGdmLx5kbr080cNK6HBd+5PRgcnExvv/b1b4xvHA6GfmjgcJJlmZarswcfvD/75LNIF9aHslrMVnUMG5t5Ji0hVIYGN47s4Z1pNnXFgEWLQV6MhsPReHpwFAGQTFABC+WqjLEmzAo3Yom5ybz3x5Ojs7Oz8WT40tffNMaMJqOL89OByxzC+sbJBVHmzXQ8PDk5eemll8hZZrbWlmVZrTcuz1Q1z/PEhmKMg2J0MZ+rYJHlBwcHd+/e/f3f//7p6WmKgwsrkWEWSFohMzNb45XZOSeszGyROrChHdTKdFATaOXVrV+39pwymX5V2x9J+7I0JhAZzbb4p4FValyCsNpUv/qrv/qPfv17H330ESKORqPJaAwA3ntjTAiMiC+//HJZlvP5/NH9z6y1T589BoC6rkSEyNRRgDDVMsa6TNNZlpukWohqkkKCsNqsnTNkdL1erlZliOJs5ox1zsUYA8fT09P5fO69996JSIqJdT1Ha7yxIqJkOcYscwYpPc4ZS0iSAgjGIhCiSsoUVlRVURaJdbkOVRnLTShXMayN1lnuM597ZUNkTIXDUDiuzs+f3L93dnYmKIPxIA59PTLghoevvnTy9dfUSl1t5rPTR+er0RCKDMYn+dm9ar4+06cbWMW6roNGFVNxbRFCMcDpweDmnZObLx8e3TQuK+vNuqpXUSRGqoNBGA+LIs8mN04mQMIQQ4C6iqGcnc9vv3Tn8NYtAY2xni1nD589zq2JpvTWff1r3/TfpOPDcV44RAwhLNar5DnMsmwwGNQhpMKcvCgSnEmWFTe8t8YrS1mW9+7dv7i4KMtSEYwBbLP4kyGgAAYwcmmQhAVYBoNBjIK90psk8ZqrWpS7ru1Ry2Wy2TvyR05dqX15OWaMxhqtb1RDVQUEhTrq7/zO7/zDf/Tr73/4wd1P7q2WmyD87OmZd244HI5Go+l0Oh2NJ8ORKgPHp+vV40cPhsNhVZVVvamqyhhjyKlCXUdmJoK2ogmdsVHYGDQmE5GyLEO5efAozBaLYW5TNX2MtcuLYji0zm82m7OL87quvXfGUKKudDeOtaoIA4gokAgjgIrGOkDyPisZtCoQqiigLjOp9kmVUYAQRQW5thqB62q92CwuNrMLifNRptNskmNeyEpj2Fw8JZlXMZx99Gj+6DxGd/uNn7n95qtUZL/0r/2pOqihvBgOZrPZPMzILrKMEeez2WlcLC8Wny4WpzzbuJVFMJg7zi0NreTFxuX3l9XTj+7is83ByerG7TuKtCwrm/n69Hz27H7u3Cu37tw8Op46LzFUoZydnR0Pi5PDAyJD1i1X6ycXZyFU9Wa5uTj79s+8oZGLYjAoxt5Z1WqzrtJa9y5PNTx5MTTG5EMsyzKEsFxvnHPFcHB+fq4CxtTVpn769Om7775bliWRdd4hYoixIUuiVPfNKqlebLGYFZlj5lRTh4giQATGGJHGEqMe3CU0pW47CUOdntlRUS/XZ+f4H237sjRGqhGd1xDROEAAQg7wu7/7u//id37nt3/7t88u5mVdLRYLEZmdnYvIoChSydB0Os2sQ9QHD548ffb44vyMOYZQHx5NNysT8sxaG2NczEtL6IxL/C+G2hgzmgyRaLVarcoNAOR5nmVZXVWqGqKEGBGN9fnk8KgYDMuyXKyWq9XKmMadlVZMKpoCZYOEiByZlZnZWSMCBlLenTKz9TkCGKOkqiwGiVVUFUEJyKA44ipUEGuuyvVivrx4grwYTs3Y594KqYSwhPL+2G7CalY+/Gj1cFHraPL1l08OfW0pcFivLuq6olisT5/G2Xm9mh0cj8ZTmhJ98ux0MjalVzPI40Z9MdrY+GS9KCNfbD46f7q+T4OL7NAdh/E63Ki4DnGxmCsEgnD68O5oWCyWy7P58nB4PMyyql48evjpajyyDgber9bLh48fPDs/dc6dHE5uj4ev3X5pdX5OQNYQogJgWVUxxjzPydjFYnExn+V5fnTjWFU3m02SNt57S+b4+LiueLFYrNfrxWJRlqWIxFiXZVnWlXXOOZfSkWuVrupMyRxMRswhc5aZU+IOUZNjQASNryxBoBvaI5XnyLGukqB/sJf980fTvrxfkWyM0VoPCCHwRx9+8k//6T/9jd/8zQf3Hy0WizLUIoIgdbW5eXJMRIPB4Pj4eDoaawyPT5+dnp7OZ7MQquV8QQZDXVqaDIuiIgghlOtl5vIYY1VVquqcYw5EMB6PfZYNhvkksDGm8Fme548fPYoxospms8mybDo5Mtadnl3M5/PFem2cY2ZRJUMWUVWTwqIiaDBxOrLGZd6SURVhrgIv1+VssZqg894jmhgrB0Y4JDNPmA2oCpfreajKWK9Xi+XFxcXi7NTybGQc8si63FjlsODwaJIJZetZtoxmKS7L+ALj2XA0CbUEmlm/nhpT+NnSzZ4sP6sr0tUAJPDFeWaGQGajsUQC6z7l+r2LVZVBnemTs0+qyXF9SFkxDCpEEGveLOZYrXPLFx+8s3A0f/bk48ObWT49OJhYqh7e/fClyUFVzl5/6Y61djV/Wi8vJodHN3J7YzyeZHZyeKCq6GxUATZ2NKq50auHw6HPs9Fo5L0HgCLLN5sNExPgZrVGQz/64Tt37949Pz1brVZnT5/lee69N9YUma9jWMxXzKyKpoE5BudcUWSxrpnDwPvlcnl0NK1rMYYAUBREVEWcM6CAyfxOGczapNEhAiBKD3EEAESStrnNj+3aH3md9VfxK5KxgHB6Nv8vf/XvvPfBB5999tn5+fnps/OyLFflJrkTVqsVsEyPDo0xFxcXF6dnzFxV1WI5K9cbEUYCkUhgq81mMMgNFotYE+Bms7LWF0UhElWVFKy1B5PpjZvHWZFPJ4eDwUCYy7L8reXq9PRUAW7evnPj+CZZ++jhk6dnpyEE46xzTiQSoLEEnEqACRGZo7WUKuq9z9CYzWolItWmNNZvyvrZ2XkUHQ6HgMgxFpkHlhBj4CiRQZkkhhDquq6qsFxtFstyNl9ZXdwYZ8amqASu1uWn9z7jMU5ApAoIWq9nRmujdW4RgnK1np1+vIE4ymyBnMdqeb6uzs4rUTYF+YP76/tPZyuUkcTwEKGcTm+99trXf+Hnb772au3yUzXzAMzw8itvDAcTayjjWtaLt79/c1GueTjifFQGKorcIS0teBSr7AkGzn7r1Zf5pdu5s4fD4TQf5ojDw6MoYblZl5tNDFIUxSDzzFzXtTEGDaUsjSSFDFJeZCRAZL73T/7pD3/4w8ePnqpq5pyIJIGW9HlBAJYQQghBNBIgWePznAw4MlVV1VX5N/7G3/jlX/5lVV0slmdnZ/P5vK4rZ+k//o//o7e+/RbL1iTDXg4rc0ob2sL4GLMj3JqIeU+9/BPk84DIgAbuP3jyd/7u33v/3XefPjkNIXqX37lz5/z8/BAPq6py3ojIIC/yQZHYYdKhQ5WNR0UMAQBIIYTKO0NEWeY4VLHOuFA1oa6jqhpr8iybHE5Go9Hh4fTmzZsdMKgybDabyXA0OzsXMqPxwfTwEMiuNpXJ8hgjAyNi5Foji0hCw5YgZbUWEbRuPJnevHVrPJ5Yax8/fGIMDovipZfuDEbDp8/OFpvSOZcqOAaZR8QAAoYMKKFa4VjX6/V6MV8/nW2ezTZPn84pnE2LYRCTu0MydsOr8+UwF17W5eMzevK0GowHPh85P0CTsZiyMo+fzCHOXrt104tdLOGzu4sqkgwHc6clLt6p6BzteDo8uHnr5HB0pxh8/Zvf/FO/9GdPXrotSLOqWlYbqcL08MjkU+vd0DkI5S+9ejRbrNZoSrKKWWYdr+cPJgfGuKOjo+l4iKh55gyiI+OsLXwGAJsQUoJinueQkRKFEEREEX2ee+/rurZkrLUgYATvfXrvnR+/PRqN/tmv/+Ozi/NUqVAbq4qJGhtvZF1Vm7K5lTKIBGb09uDgoFpvQqgJ4Wx28dmDh6enpx999MnHH3/46aefAmpmze/997/71re+/d3vftf5QV3Xm00pwoPB8PDwYDo9yDI/HI6sNYjkvRuNxlnmrbXWQqt57siuP1rD7MvRmAIIwIN7j3791/+xCNy4efvk1p2Ey7mpq9VqpaoSonXkrUtlEWgIADJfRK5TeMRapypJdSMCixS53mw26+VqXW7O5ov1ep3AIYwxKaI1Go0Gg8FwOBwOx6iwWq/rOoCxg8mB9S4KlJFff/2Vo5u3RGRTlYgoKRmxDnUoYxVDCKGqq6pabZbWmnw4HE2nRTEyxrhiPplMbt64cXBwsK7rTx88GE0ng8FAVb33Z+fnABBRU+GTUSEJMVSgtFisTs8uHj5++vFHd8vFA4knX/v2/CU6LApXcrHm8eOL1erpxaN7y9l5OQ3V64twgIN8cBTOLzalrtdSr+sir2VV3Xu4enTK52Vdery7eJofn6zcFG8dHtx57Rd+6Zfe/PY33SC/cXjr+Pg49z4wTzUaixYAja2AXDYEiUYHr0y+uanKRYQyivWZsshq+tatk01ZVzEAIRF46wxCQtQCMgBQ1pWqpCRdY4wSaWTwtjBmOBw45589ezoqhqvVcnF2cf/BZz/+0dv/4rd+M4T48OHD4XhcFIWyLDfL5CRMobMUCIkxikQQYeZQ1XUMJvOnHFfzRZ7nALBerz/44INHjx79+MfvfPLJJ2VZAkjmqKo3H33w/q/92n8zHE6dzZzzaMiQs5kd5LlzDZhPQu+ZTqfHx8c3b948OTk5OTmejMej0SiZ96qaZVme+xdCLV8tIcW2JaeXAu2NrxXqOj54+PDJk2cxxtWmDIHv3vv0wWcPRaIjE0NYU7TWRgloINQMBgVIFA2SKioDIpYhAkAq0BJFY21bIYFE5KGwxbgYhanwZLVU1TSCbQmMAkCWZc650XBijLF+tdysv/Gd734DseZ4dna2LjdBIRsWMUZXZM65xrkkKhJFIM1xCGGxmgOAtT4tshjj8clNRAwK6zo8eHJ6sdykySMi1ljXdaobaGiM0IKigio7Y+qwJiMvv/Eaya2br9xa6tGj81CUq/kqUn643GRLgrWTMBov8sFnpR2c8qaIT09X5/OqXJtq6e7eXc0vNvcfLjfBrrAIWGycfe21n33jtZ/xvrhxePStt372pTdeCwohBDUuEhAaIgsgAoSIhoxyANFVVal3kQg0WI0UAVSJWJQtscs9GgJDxpgUcZEWgCCzGGNEQQAwapxzYgwR5XluLZVl7Qmr1erj99/7wQ9+9ODBZx999MlHH75fV9E4m+dZbQkRy6rk1hGfSjaTQCODlNJUCYyhGGrh2lkqcl+F8pO7dz/+5O6TJ0+ePj0NHJ1zqhxjPb+YxWqNiE/vP1RFX0zIOkYyjoZFjiTOoLU2c9773DqX5/lwMh4MBuPBOM/zhJ9lrcuybJiODPPJZHJwMHXOjcfD6XTqvXfOYJuGvl35u0VbIpLyAVkYyRA0aJNpdQG0kStsiHB7m+39OrS7jsy6Sm+l5Wr9t/7W3zo7nz158nS+XNZ1ZIHNZrNabVRiEyIzBg0oYnK+GSSLFkEMNOhiTY62qoqwxvQQYwyrNs4HbRGRAE5ODpMHNsH3Oees9dba3Pk8zweDUT4c+CyLKqpYFMVsdv6jt3/8/e9/33qXWkopaMTgFsLMooKAplRGa3xK+EisrvF3qVZVtdlskn9MgUUETVMT74whAoNEBgiQFLyzWeam4+HRwXQ8Ho+GxXCUh2o5u3gCMVpAAioXq/VqVVUVWTp5+c7o5s3xdFqtlqtnDxeffbScnc6WYbWuNyvZBM0Pb/iD42eL5f/oL/6lf+dX/u26qkJV5nlus3wTYoJzUomImmphmZk17bEkHJUlDPJhjHUIAVG9z0EiV0FEqhBjjGScL3IyJraxeGhS5hkAkNQiOZs1c4qoEmOMs9ns7t277739zg9+8IMf/vCHT58+nc1mdV2HEF5++eXBYJTA7UIIHLtQMyf3Y1WXIQRHxnsvInVdM7MvvHMuz3OypizL5WK9mC2MMTdu3BgWxXJxcX725PVXXzo+PCADy9lyMV+vKzVZEcGgAUTNvDGoBEpgEI0iKIBgwt9C732WZd77BFGXZ4O0lg6PpkVRTKcTY/DWrVvHx8df//rX3/r2twHgow8+PDg4OD4+7G8n0u3jE4VV1RrbER8BqDQ7KraumC9EY/tJ9THwf/Nr/5//4j//1bOLC2ZerDaD4TgqeO8N2WRkIqJzDgyQNUANgh8qgTAppdlKy5dBSUGw2XYoxsgqEpmZRQBb9D8Om8T/mv4hpozSzPssy4gIiQaD0XKzvnXrVpZlVbV5/Pjxhx9+mPR+NA0yWQNRhmS6BqiE2WCI1qSYeHqEowaxzBiT9uNLOmpaZ2VZJus/Jtu98U6yJbNer1XZOaeQ8M+aAn5LZpo5DlFAXZGPJmPvrSEYj8c2HxrrBRTCGsu5hroOJkaFGskXw8MjGgxmm9Urr706LYZSV7GuvLVkvXF2PJoOR0WWOTJqyKXVHCT5cqAoBovFPHdZnmfeeyR1NrMGY4wAEAJXVQVI3nu0hqMys0FUZRBFAoupglkjIDnrnKuqajm/uHfv3gcffPCDH/zg93/39z799NNnz56lROEsy5j5zTffBKAYOIQQY0xrMc1amkHUBmBHVUNVVlU1GI/yogAAlrBeri4uLlR1VAyOj46GxSBUm7PTx4Uz/9a/9W8KR0TNinyx3Pzz3/o9Bg/GCUAIgQySirPWGW+MAUSgxMo1c8YgpQpGFWxVJQKALPNFUeSFT6U6yV99+/btp09PP/zww1/8xV/8K3/lr/zsz/2ciEwmk2TQMSsZQEi50AgAnEoaFaBNQen2WO2Lp357nj0Whd95+73ZYh5CKIbj0eRIVMH6tGJzn6XMJmstWSOg2gpcUgAVUkICUATTkBAAJE09Ssi0SQlNuaZJu0CFwSCPsZYgUWOMUtd1ZE4GVVlVVVXVHL3Pn52dPnryOITgDFkki0TWBWFVlcgJ9A96e++pKqiyCDiDhvplnZZcwgC01jpnvPd5nicfNBGFKrapPTgsBolHGmehhWeKzHUoAWCzWZ2ez1brimN1upkvl8uIavMMPQGIZS6KwvpBYFFjrIHDwhe5P5geF36QD4vBZEpZ7gbF6y+9VFXlh3c/QY4aag4xRiGiQTGx3gCKcybLMuNdwjPMfGE8GbDkcDo6qJV9CN57AVOGRtZx1BiFOVAdvM8TYDAiOnLOkDNGVWId6lixiBvkm83m3r17T589/t3f/d0f/P5//+mnn/7oRz9KifNkjXMOiY6PDp3PQxVSGVGX0pHYUGMFOJf8zCkFNBsUznoFCKFOeY9ZluXOj0ejyWhIIIAyzNytm0fHB+Pf+ue/Yb156+d+9s2vvf6DH71bCynYyJB7j4ggYo0xQCISWYAQCBSgDI2cb9Ij0WJDaFrV6/VmXpZlUk18ZkMI775b3Lt3fzgcK4Dz/pPP7h8cHBjrbt68eXLjeDgcFt557xQUG44PACDSlAunAMM+TPkejV33CzOUm7osKyIzKEaT6dRaXwsLpiIFYAUATMmpSTFNa7FZ3KgJY8AYp8KqgijGmAbtEjPmHiCZUisfVGOFqAYtWUwaUaK9NItJi8vz/OTWTe+yxXIe6yrP89F0kjLoUs5UlzllUDuMA4ksoAlOALixGUBAoK4qrZeQCD5dLiIKIqxZVqRce2OMdS5hUCdOnxV5l7fVBFgZBj4DXwwPbxBRHYMxBgmYgyFxPs+KQc2gZGJVaqzW6+rpsw+A0SjVVSw5BI5gUTQOvLNEPuWVCFhrrcmU0GWerPXeu6xB6nUuM44suYv5OYExjoosN8bkeZ4VOYNmeT4eTxNudkIg99YM8lwkWjKDIhsVg8y73HlyNs/d2bPT/+63fvt73/veZ5999u67754+ewIA1XJVjEZobAhBok4PJ8eHN0Jdr9ebFMy01gKmImmTvFkAkAY5mXYEqoTr9boKtXBMaQmHh4eFz2IIynF+cbaanRuSwaDIcw8ooY5VXYrE4aiYZiMW4ogpzyv5EDWKqgJZNCAgzJwsngSp3yzIBPGiIFxt6jCZjH/25966detkMMgRzaPHZ4j42YOH77///my5evDk2de+8S3v/Ww2I6IbR0c3jg7v3Lr5xhuvvXTn1mg0UmONoZROmO6dao6f4wu5Vo4ZA6o6W8yJCMgS0XqzMd4ZS2AIIwuknHMEJeYmjk6EiugMJttXWTiVp1tARG2dTh2rS8u3bQYRsrwATfg50JKdEmJW5ETknEu1nhNnrXU+zziGLHPGuORI7O6fZKxETsfruo51HWNU0hiDBO7AlZJoTSAk1lrf4rokd3a5qQCSuqW60QWQpuTMBiANiqKw3qUq+jwfMKszDbyps346nTpvHaGSWrt22VoUsywHQ6RknD+5eVOYHVgQdN4zQRQWFKkr5giBkw0TI1+cn63Xa1FUSmy6wY1SVW6zKPI8FxHnXFEUw+HQOOfzzHhnjU9hdABoNpiwBlUtmaLIiiwfFtl4PB6NhiGE995773vf+96//Jf/crVcVpsNEFhrjfcd9kaWFa+99hoRPXnyRESGw+FgMACAxWpZVZUxlohCqJINk9QBDnVVVTFGm/mDwWQ4HCZtrfBZWZYX5+fleiWxZubC2tl8NVts3vrOd8kRGffxx/dmFwuTxVBrVgy898YioSKhMR4RFQkIk2s0VbYBAICKqAgnfx5zsI5U3WQ6euWVlxaLxbNnT5zLykpu3r7z+Omzs4vTYrl8enYq739ovTs9PTXGTMejzDln6GAyvn3r5M5LL731cz9/89atmyc3BMG1IbvnxwaupTFRSBw9hOBzlyIekZksGzQJDg9BAQFJQYRZGkchYiRDSAoMIImrCUPybIAxxjqLmBYlNFocKQASGQJVUQVVFQQASKaVRYoxIhnnDRBWVSWIYKgYDRExxqCAxlk/MJ260lW/A4qydBVQMdadxIOku4bIzNgKsU6OgRhVHk0akHptwMwSZIWKSJG5JBmq1TIt381ijohonEiCtranZ8+YOc89GvCZHecjEHUus84pIXlSiNZaCyazGVlvnB+OxlE0L6Yx1uzY5zIsCudcua6YGYQ7v0IIoWrXbgr7rperuq7TewFh0uqdc9b49ArOOZdn1lpvLBnIfZbn3lprCJxzmXWr1erjDz9658fvzM5nouzz3BsbQsjyLImI3OXDYmAAl/NFtd5YnxVFMR6PQwjr9ZoACVQ5gqizNm/zRWMdDFI+LIrBIDkk1uv1fLZ+VteJiahEVWTG9WJzPr+HWXH75olz7unTB4vFEikj9MZIstWNwbSHmzeeiAQTHgyiIYWI2hgmZEhJG3QZgyFW1uZ5Njw+ulVuYlXOZhcXZ+fzh4+fcNSTk1uHh0ci8sknn5yen52fnw8Gg9FodDid3LhxY11uLuaLB0+evvfRJy+99NL/5N//H9++ffM5dAWwNc6upTEicN7cunXz7Oxstlgws0C01ipHgaCKzjlCy8IiiqpoCAQ4wdWIRUtKqAiml8wiCNBKMGjD8Gm9qioqqgIrEqhgkiTKIoQYER01qHLO2iCM9dZPorGBtlUABSVrDFrXJY9CgnoPwCAoqsgcGnhqbezDpFFI25LHn1lFYs0b1YZiJTYf0iqv6zpV8iZca0smZalXoQZDCGa1KZ23BkwVKmSJgcJywyGAEhiqRdGAEgMAMhBaA0aQsrxQBO892mSsyyDPnXOokGVZSrbs8OVHbjgejhJaaHK3VKHuxhYAqDUiEk3WkWOMsaprKWOMHOtErY1ODlJvyrIso/D08AARnHOGKDlO6rq21qYM77PZxWKxKOsqAzw/P0+exrquUypp0udFOYYYQhgWg+OjA0QMVbnZbNZ1tRTZVDUzs4BISsCPdV0rkLBECZ/ef3Q2n4OgBAElRLNcL61zqoqkKcoXYlVqmbzIigBoiMBZS6BJP4ItlBMAAKIzZJwtHj16+uTJ6Sef3Hv0+OlqXfoiv/3yKwlva71YHh2fHB0d3LlzJ4omoP+U0zdbLN/98COWcHh4+Iu/8N2X7ty8vDvUlQ1V+TJ9tZ3Dsqpns8XDJ48/u3f/0aNHp6enZxfnVVVVVahjVObALAKq6lzmnKtCzSLeZ0oQhZ1z2tJCZ60lj1+rK25TXQgMIhJAKklX1QSamc53llQ1Aa1ElRgjEnnvBakrCcMWbrGzwQAAWJLiBwICogKACQwBsC/lWTphBaIKAoqKitYItPotJwoUVY11lXTRpkBYBEREBKMwKKuUkRfVJqiICHKEUBsBSGihZBQpMAKIUjQJK5eBwDBzDEImOaMlGesGEEFRVAAVGxxS1zZjDBB5a633ufcJGLTDKnWNDt/oGJqUc0PdsmhZR/I5SeRaYpOrkaS0RgaAqirPzs4Wi0We5875i4uLqqqWy6U1ZJGSAZxl2XQ6LYoisc71ep377PBo6m2zRU5drstyvVgsrLV1lBiFrOGo3vtiOKzrarVaLdYLUohcpxALgbXkhsMiSlJ81BiTIFB7022RLKJRZe+ccmxkAFFd1yKQ4t2pQmcwGDDz06dPHz9+vFytpsfHb731VlmWFxcXAOCcY5VmSwOfH904fvnlV1965WVQCsLvv/v2h++/Zw3+7/+z/+wv/IVfMbpPYDt+xc+VY+myPPd5fnxy6/i7P/+ddNV6XZVlmeCf5vP5fD5fLlZ1Xc/ny7KuPvjok/V6TSiq5IyNMVrjoM0f63qjqpjAwxqXDwBoWgYxRkQiVUGk5M1JJNCrLDItaGCyu9AYAygIpKBkTLLnWFK0oKXt5H6lhDrdCFY02kNfBQRSJQLVxgctiTsqAQqSQlPkoqqSZwMFVgbmwKzMQRlUmUQBgEWqWA1jBiLIEVmwDBJDCKFWjkS1qI0kCMbkyYhnUpPQ6p0SQVRRhKQZKghwKp5jacQyhxC64uJEDN1XIEqGpbHoyLTynoxxaIy1Hg3leU5tS1pluo8TBygdQ0xsBRHX61UZ6uVmvamrMoQy1NyCkLY3N8k3iy3AzmQyOTyYDAaDalOWZUkgzhkRn8jDGSMCyqIKzrmjg4PAsSiKUTmo6/r84jTGGCQ4Z6JwYOmgjhOj1jTfgAIqwiigpKRQa22QVKWqgjEGgETiYr7MskxYR8PxelM+e/J0sVoSmqOj4ze+9o2Do+PTp89SWD/GGGJdbjZPnzxL3uNXXnnFOTcYTUThjTe/vphdhM06hIDQ7H4I8DnJkFfSWKIHRGzCAtTG2VRhPMjGg+zkaNqdrdoAuQHAr/6X/69/9s9/o45RkdCQR6u6v1Vn4+oR3W5zoAqQfBlkyQgk66y5UFURFViwm3zaSsBQ1cZZacZa0TQYWJYMITa7jicvE6iiqCqhoiZltTkOLdVhE36wqg1SVh1BhVQAURu3DIJqInhIMlFEmSMkCZlcasJQl1kohiBjoBzRAdXKs1DOYr0UXrOUTIyG0CqlZVRDFI0sHFRZQBm0kaCxqbqJIkm2d04zkZhcQ8YYZYnSMLJYY7VBbnhpqjJAIkNEhhyaBjg5xZe6cCIiOrPdZoVMg9BmjNEoGiVWoSxLROQYU6DfGkogp9juOJWwCSTy0dFRkiTL5bwsy9z7oshEBAwxqGjjcCI0eZZ94+tvZoUXkcVidvfu3fnsVFR8lolq4KqswXvPzNY6g5bIAGCDfqwMoEqMKTFfDaCmgIUxgoiKgMb6vJhOp4PR8Onps7OLc59nb77xxsnN2wc3TmzmOWoIoao2ylxkPsvcarV68vRpPhwsl8uDg4PFagNI0+n0G9/8WrlYOudS/U2y+66mrZbuPkeO4a5PErGtJYAtHjAhkEmJPTAdFreOj84XS1Yka0IUbUlla32FGGNEQ4QIqhIDMwMLIoIhY1wDsaJImPJ7YM9eMsaAoWaGDBGqASICItOlZfRW4ZYrJyIFBYW0S2pSTlUb5THh1QmCARIAIAVHKICqqCQJjwkao7LhAGk0jLEJEFIJHapnyVBvDYZHBm76Yprng9EkEpzX68eLi9NyPQthUUMlJqJjYyJB1KjMHGquyhgjGBJt3bCRJcbAKhJDCIACSs3e1a2TNoW8u5kSEWZVCYgooCDKLMlBClptJ1Q7u6BpRGCt9Q2ZAbRbV4vIbDYr15skMFOKcPrJZc4bm7Ls67ouy7IsS1VN6W9IWpeVJIGMxnjnfA6CAcUBpQXqvb958+ZkMiIDy+WyKteffPwhxGAIhCWqYF0iNkk5CfEoYUUndiwo2HAeEBFuUmGprmsBHY1GBwdHeZ7fODm5uLiYLVYHh8evvvH6N7/5TWvtehOePj1dr1YhSlWFUG28d865k5MTZpYQ62oTQvX48cPlcj0aDcbD0cD50WhkOsjqVp+6jpTsdVSY2KGKtFaTtvSGvT9d+hURggoYIlRQFp8XZB0ZTjRmGoWCVDXauvEcsMRYxzqUZcmxVlUAynyBhtAa65vci6TOhRjAtOEyNJaIQREhd15VU4COEERiqoIgRAWN0FhRzesoxHY5YaKoJsulFWCNL7Y15xCtEUFUQCAyjY9YldrkFZFugWqDZqygkIPecPk3puND0on1wzzz0xE6N6nzQnkiulB7xnymvCLckIIBJKNK3hMWmYgoGVWMySWT/BKsIlFiBGFVBGFpEp+jdGHBLi4iggaMJjw3bRWAfdbThEcSBL2oICS1tAqxeykCSYlRIQRnjLfWkEvGXnDBGGOcTdqHIEdRIEPWAYCAVqG2lM6wiiaEIKDGeRCMGpNNycwKUNaVr501mBC1YpQQmDVglhEBGUBSBAFlDjUYRbKAoigAiqipyhMRWSpQRrKKghZz50aj4WBUFPnwbHbx+Mlj5/OXX3rp+MaNyFhW1cMnjz/++GORiKJ1KENVZjEbjUyeFQhN/UGsyrMnj8/OzgaDwWSQg3K5WjZZiwnpGp9XovY5efd96mzVNOpkW8/aY+BmQ4nNZhOjDHwuClnmGBRgS2MA4J0VkVDVdV2HkquqKjerEAKwAEBFGzTOZd4XebKeiYhVsyxLZvR6vUaioiiaDJ2ykpS2g4jYpIYRGecc2pT+alU17auAAAmRs69ApyhBuw2WdBI6/U+BVUVAUFGNUhOzIEqY0tvIe3NLa60XGJDeGORv3L45EaFQAQCXtQMcsB5ZO8iLjcsnps4qvh9jCZKgKBVQyRCARVIyDOoUrNUkBAxEVXWQChFTXnLyOrFE7iIWCYhXWuLnUPXpKrG2tF+RtlmLDf2JMigzK0ISnu0lmjyZKT6JiKDNxi5RxTib9oNORnc+aLhnkmOZc8aQwa0lzSIFEilRVWc2G4/HADAY5qJYVkE4LBaLOnCWD4TBOM9grNPMAhFYMogoEUSiMaTKiX8klp/UCoOEBlkAACaT0fGNm0Q0Xy3OLi7my4Vz2Y2j6XgyKUP9yY++f35+vlptjMGDgwMiMpVJG/Mmq1JVi6Ighc1y5QlHebZZLR5enA0GOUBDYMxsrE35jV+axjqnU7ciU8rllsAA0j4eCAJIYEiDGGPG4/FiU4cQyHhQTNtMWaTeykZDEKoauKl2lBAhGSBorLXkTOZtkflikKfQcwr+hBAWi8XDhw+ZeTKdFkWhqkit0tb7K0BJUfHeG2cRKDbKIFhC2+YwJjgkvAL5aIt2rIRRQVCx76UBEGZAaoxUVZVGJa5isIjMEiJFZLYQgyizs95EtYJHeUF5XquOFyWtq9PZwqAaBON8ZOUgKAhAIEBATSYkISATGFWNqYCBkACJyFOWxFETgQBoECBb+iFAbNMIRYRBlQOrcgisKho74owxckxOBWQO2itRIcBUMpt8yMycKhscQuKATQWAs2nTHAKw1gKIwdaxmVydjoRw5KZH0xsuy4fFKAXKrLUh1vVyE2JdVbEYHb706pvz+byuoyiSAaNch3VCt+Coqonziqok8xs0Ae8QgE3mvTF2MBxPJpPNZpOQBQ+PjrIsu/vZJz98+wesslwumeW1l1//7nf/zHQ6TSKrmf5Y379/XwBn5xfO2O9885v/u//t/2Y0HF7MZokNHUxGMUZrrLE21HXaj2bLtdMq/1wa6yit717vNNAUiYIGiJ4AQJjJGa7DcrnUZvc3JgRnDBBRq32JCKhCwsFMPFgiABhjDCU721LrmM6sy5xPo2mMCSHk+cwYNGimk9F4csCgBhUAYoybzWazrspQxSgpb5WIEndRgVTTYa0tnMucafKybWbSpt+7QCva7pIhQAIK2ABiMSIoGqC0c5eAGmwibFsljUQtRYGLujwNUbz13nlxBm1gRVZCR5kFkbAKlSpT8mskmy/RiKVGDVJQo8Ag2pC4gjOmcbQAiAowoKhoNGiTuEtw6KrKoqnUIDFDRCRnEQHVCTAVQ2k2AGmiZ23T5muomTWEKjnxG60pxe7rGg0lgqsCdwlTxqSwflTVFIMxmIgNUNUYk9TMEON8tjLGDQfj0WhERNPpVEGzvBj5sYjUdbQ+Oz09Xa/KsqxBmcOmrkvrrDFGPQKAMJCgiFFlEFBAUEKlKpRJ3jqfA9CqrMqqFsWDw8M8z09PT8+ePRGgEAKIHkwmRweTk+PDs4v5er2eHExHo9F4ODIGnz59SqDe+8xZazDPHCEcHkwAMUZxlgAg1sE657z/nHzFz6Wx9KFRGhNNNcYY9ogWyBplyTLnrBGJADIsBkCoTTRZENEaMtbEOoQYy7KsypLrYACN9yINVfgsc3k2KEb5oMiyzKJNXka0xrlMOZabxeFkai3VaWk6440RhvFoOpqQCFvr6hCSBxkbhtrYHVVVqXBVVetyEULYLFfD4RAb0G4MIahgCAEMpXQk59xgMEjvbi0px1VVGcRiOHTGqKoESaDtZNKwICnVomtUMu5fPniUMU+tuT0c3yooE4gxlhyerRezEGYhXoguyZB3ViTWIgImhSYIUUBYRAVQECFRMQAocOeLb1w7pKgoieG3UUdscz0RtuaiNtoHICW3AXY/kSU01vYTRyWq7oRPkwSTtq7cIhHR1gpsHaCJDllCp6Ayc0qmiXXgTSki6+UaAB7DY9zGTllTYZS1vm3j0eDG8WFm3WAwyAsPoJvNZrFYlmWZQkfr9RohVWxaazygrFawqdabTY3VpmKerVaDweDWrdvz+fzux3fX63WW53UVQpCTGzdu37795htfe/LocVVHX+TD4XAymZyePl3M5gcHk//kr/4vvaHvvPWtv/yX/0PvbQrlAGAiMACw3nV00vz/K9DYtbS3rYOhrvAMDQ2KwrTQygoCSsmJ101Sp5ZIT4g1CgYRWUPOkjFoDJEhQJCmhEAFgFSBMW1X11wG2jiVkiaXHBPbqFGKMquqTR5qxMGgSNlGRBSr2nufHORVVTGzMJRlWcVQ1/V6vUbEzXIFAJFrVU0p5IiYcvCGw+GgGDnnAJEIm5hvCq+rrFE3HLWuzytdBnl2sXAsACDWPq3KGYcFy1o0WgNiqdmgGRGRQUSVjHHGtPujaLdMu605OlOq03Cgl5at2ya42wARgVi2QqxhD+k/YxAAmRWdSlI7GACS+pHQSpoUulTfmWWdB0VkS3CNCzdlFMg2P0Z5m1MaktqHqKqphiilvKUJagzsIEnpsNZmg2wymYynh0c3HACEEGJVl2UZa1bVGOOmXC3X84vFvK6j85lx+eTgKB8MT8/OOATnskEuIgIig8Hg5Pjm7Zt3LNLF4kKBTm7f8t4/fvzwww8/9M785f/gP/if/8/+o5fu3Krr2vs/EJz2C95ToiiK/lftJXNAuyBScup20NPEUVOf6723bTUXNG71lFoFoM2EtQU8aiCxQBAEpO0m4l0eCbRrDhGBpVpv6roCgEGWZz4jEOaQzk89F5G88IQ2hBBVVNUSgGhVVSm7nIlT9t2mKjebjbOL9ILWWiVSVVJIiq7NnDEIEufC88hjVa0qY4wbFjOOS9ENihoiBQPauW210Rg1+br77oqkyQHoLskg0b7l3C7c9N5bzLP+RJir4EFVldoEIU2cDzFF/bo7pJsTUjL8WuqS7oTUFCDNQhd8a3Rpbzs6dNzk8SBillXJR6qqyWXakCJKFauaa0SEJZyenqbhLYqiKIrBYFSMht7YZB+W1RpIgoTZbKGARVHcuXNnMpmo6sP798kaI47rGo0bDkej0Sgr8lRd6rPCOTefX7z//vsfvPf+Sy/fPj4+bl10vh8x/gpE8QLx7hvvUzcfyTLtnyNtggLXWxprJ6zJwcuyDJ01zgFR2tFURZUQkDpdpTflJpFh/+U71thQY7vyVqvVo0ePag5FURwfHKrqcjWfz+fD4TCphSKy2WwQcTI+GAwGUUVCFA7OuWQTJy4bYzTGhFRlAaYJxVobROq6NtBUKK83dSV1CDVytBp1uSkXc+fM6OCwRqwIIhgEM8mzpCAZY4xNwC+2zWZoeAoke9UYbmuWoWVYfam1x86atd6Lfe0NVHcQWhDC7iv0P/fqpprbAgKhImLL9VpWwB1HkN0cvd45fdCoDqaWkr3NzbYdAK2JmA6qaqLSlHmMiO0+JEhE3tgGXyCzWZbdufPywbQEwjsvv/rqq6+mBMtvfO1rIYRqsw4hhMCsklyIq82ajDs6uZFlmaLcunnDGvyZ1177N/7cL984Pk4Kk3Czv9eVA/i57UXu8deNY5e/kdQcVaC06FliCFxXdV1yuykBAAAaMoYsoTHO++RzJyJow86qSAYBtOXl24cigKSdNpUUtnDprWKkiGARQbWuq/l8BgCOmi3nlvPF08dP6NYtgySRy7J8+vSp914FDw4ONpvNYrGoq814PJ5Op5CUkxiNMYPBwDkXQqhbix8AcucdGYnKKghG0SBanxWgDLFerOvzssrFOQGxBoEgKqCulpsml0w1RYS7lirW2iIxp4RKoNwPx20/bDMS29fv32rv5L3WJ1TahtC0xavon0oqAtQUGjOoEiqgSGPsNf8IEVz//pjcNA3hpWiKqEZpc7K7lpLjEBHIoInWu5STneY9K7LE5kKIgWOiyUphtpwhGmsJVdAa77J8UKQtgRKojm123w3GmBhltlgsl+uyLFmRQfM8v3nz5p//83/utddf4brOvH391dcMgURGRDLNu8g2t+9LtBe+/5h2tjgkja5VURJ3T2h7/Y0/uqw5a21i5GAIDSk28YeoktApO32pY7p9bbDfh+5vZ7p0ZJ+4JgAwc9rlWUQSOsVyuTw7Ozs6Ogp1zcyr1er8/FwlElGe53Vdn5+fV1WVonZZlq3X6xCly75NmUqMgZDIA6EzIorCEoLqaDJdLRZFkU2OD9FmrBhCWmExuUZFJNV+p3fsXKPU6VoIqmqgSz7c5kBBq5h1Q92fDuhpiV3bO94QFaaaA9mRkK2KeOWMd4pfEmB7I783HQCUPJyw67LuSbmWvFtWqcrNZtMpzilCRB0eTgNLkezVFKsPgSuBEWFFDx8+PDs7Ozk5GY/HgzwvisJ765wji0WMImCcDVXMsmI4HNZ1eXzj8M3XX0m5J6n3Hbpjm5n0VeBQXySN7bHShqG2+3OLSIx1CFXoAWMIgjFE1hprjfMpsqm7oy8q2GZUaWTpsT3o1CRDyaDBlMMObfJuK2AbwwIg89YQpH+ogAqZ80kl5RA5RO89gIByqMsYKktGWUJVr5bL89OzEIJEHg2GaWvC+Xxurc2L4Xg8Hg6JnFWLIgwpEKxCSJaMdX4DGwLMnB8VA3R58sgBQNAGywlYEiBxCiiXZSltXESbd1FEFA7ACEoqkSNuRwD3rSboLfeOkSWyxDa3cGvVAcDWPSWogiqa3EhpE77e/bubJ19inyb7C6A7ud+kDdZBa1k2uDQx7i2hdFsiTANljBGEIAIAzjlSNYjWWk57xCRDHXUxm6M0XuLFas7MFxcXiOi9Hw6Hg2E+GAwyXxCRy/LBaFgcD1LW2OnpaVVVzNAUMQIQKoARZrLGWns1j/kC7YXRmLQpW53SCLsMVXtFkMyp0Gw7/U1U2FltaRJ60wPbGWqmE9s6l2aF9XrS59nNAmqhRHr5RtuMw5SM111VZHk3x0m6pq+JNWirhdZ1vdlsNptNnudZ3ltCKEpq0ZAARFBJvhoFIFEEMooG2h3HERFFFUFFkx5irUVjIX1AJLJkDQBE5hRGd7gzmH2loP9S2gKwaa+eqBN9aWWnwe+OtHKedsUJAAAqtLmjPTLTrRDb0Sx2286NdqeJLiGNYgs/0U239mpwFKFJ7gmNpwobAY7tVLqiKMhgXgxijFmUqqrKsqyqKk00GRgOh8PB2OfZwdHx0dHRwfRoOBzOLs7Ozp9xXTsDKS8hZfyAblOdEhz/59HBFe2F0VgySTuVrBlZbByAoCqRNTJKkywgEkUY0SCmfDZvrTfkEDE565k5jXSM0RnfLe4Yo4Ed/g09F3Y3ItporWnWVVutCRJUo7EEDS8HlsYHJw0InEQGaZTe5AuJMVK7c09RZCFURVGEqk6rIdX+e++VgFUAwCiBQQ5iyCi0dTvWCGFQbtM4jCFCJENEFmOMqT5gvVxtNhtSMN557zOXi8hqvXBZwcwKmnSkRBve+7S8uAedkI40CfLMaS/2BIjSjUN608552yFzOUMd48OU1YFtiTELoDpvQDSEKnMeUS2SIAhJx067JYFNHgIiGhGBFK/HNsbNTM18NX5/AEhIwwCQ6soRUQCRGq5tQBFJFAwZVUVFBtUEW2ObjMpUL5tebTgc5nkeQsiyTDkwcxnqqqrIuMDR+ixBnSLibDYTEZXYrh7expTbD/YrERi8cF0xyzLT7vzLzISm43adJdZXbBJD7aAUk+0hra+DWmbGzCY33FPaoZNRsOWu7U8N5waA1sXFnYLUkzjbsNJz7I3+8Y7ZJ93DOZcKBxMjiDEqgbUkIsCCiqiaUCZiKqoGVUxA8ZRCwCnYxcyp0MNZW5bl2dnZo0ePMusODg6mR4eIWFXVwwcPBsPxeDwuRgMRmc/nAJAII3GBREiJKSRHdkKrH4/HadV2f5N/Ms1FmpdUwtwwLNmi7hkwRITWEFEqh0mShABDCLnPmFkjK6T8kkYqdqNkLm2VkvxY3J5MACmtmplTSopqV2vbWtEi0sW+m3ubxGr37wzADchiw46N2W6Ahmo3mw0EQETUZjTSJM5ns3K9yazzxu6A+epXsb4utxfsu0+Vf7IbM2FmCXUoN3WK80oEUANISGiMc855b50j4zr1Kak+0DOFu3Hv28fd05O0VErdAADAlB6lPV0FEducqfYmDJASKVAloULI3t7Euw9qnM7dcelteEUIiCQCRqhBxUVBtGqNBSA0iEYFmRUYUqYsAHCqB20c5hpCWK1W8/n8cDqOXCuHutbNpjw/P1fV8WgQY9ys1vfvfWatnUwmg8GAXVyv12dnZ8aYBK0BXuu6vjg7T8itKZFXuQHDyPMcFZIkR8TMecmLNghOgWvt6hg0LVwFANaGUTJzud4sFgsCqarKmTZHMWUwOZcEbCL+Nq5hG80wRepFlEAVodH61RqKVZ0wnQlUlVAFpPEToyqIgAg3mdsR+yZfU6yUSFRZJG09jW15n2lMvmZpddw/JZRk3q9RmYMzxtiU7SDbmNNXFF077UX67gGa6YSe8YptrKOzxJLxk5icSRBJra9Pt7nhqJKYu5I2/km95IASEWqVE8SG0JItLb2oaD+XrJubvp657WjvhB2lt71Vd1rfOu/ejozhBrvTAEhVR7TJ3BIgRCIlFFDDCiApxR6hvSkLa+NrNcZMJpOmVBkghGCQnLGWjESu63q5XKYkr8TRZ7PZ48ePJ5NJ0pRijKvVqgvXjkaj5CZdLpeIeHx83CG0Ysoga98xucK71ydMfEq1ZxolNTLla9R1uSwr7SnqnZ8zIQFb65Ow3Yo4Q12ZedpVZ5DleZ6jcw6ADStSMp9EBBv0623sGy6FH5JTDAAQwFLjMkup29pU4iJAE0kDAK6DmJhlWe6zZCw4Yy0RqK5WKwBQZQQCpRdCYPDCfffd4u482gYhJUy0PihGUUQw1hpjbJYKIDJjTIJA1RhYRSUJwybY32ZzNEpgEz0DgEZ6pVKehF+A/SlImqQgAmK7WpIy0UMx6KiuM+2g8aLgroNu902100kAmtJAQEx7KCurAERM7gxmiVUMQRgRjUmxvja+bACkyaRINCMSQ6iwtf6NMbGqM+ty59PrJwacgFYTwGNyfhhjEvRq0gPruvbex1inTfcuLs5ms1me5+PxMPVcU/W0ciuI0BhTJ69QZACIuPXFd5XOIiIxeGsDS7JaJaEsMMde7E5V8zw3ZJvAgzQIZUkCAUACJx4OC3fr1nQyOji4kVD35ovVvXv3QghlHRJNEhGIpqdTAgxtsSfSAlOLAGAARQB1m++StN4G/hAx7WHYuivJGAOi5Xq1XM6ZgzUmQXqQcaDaZeN2dZOpHPTaqufr24uksY4dbj1XlNJi2nztVqp0uoRrESA6aSEiKc29KeXlRjnsuAq1+keq6cduOKC5HFqTqS+yOiJJ1JOO9PliX0altvd1r3UStbNDUtOG5CKQNQbJEQuoRBEGidBAA3CKM4Dp+U57+mcXA0x/OzcasDAl3O+tv7sLgjcd0CbIpqpFUSQ1Id0kgfV2KkP3xL7cTijlTAkduZHSid81LwtqG8+WAAASNNA+u07CZGZTm8nVvlpk5pQCoqqOMM99lmUHBwcvv/zycDhExE8//fRHP5rP5/P1esNp1ghQERPMY3KHYgPL1QhkY9up3DqrAECSswaBGggyQWyKrAhAIldVdXp6ul7O67LKbaHc6D4pR7YJAW0XxKV9V75Ye8FyDLbMuEEvlBhThDeRGWKDQN8k9TV5Q6qqzNBsaa4Nt9Ge9ZXu2SujMELEzU8N7IRcIoq+FJIedqwq94FGcF+Z5D2rrPfTziWtPtymbiGqMDAgKHCUUINGBLASPYiVqLHSWAplSEqWDBpmNqkguyUwICRroBcntAZVorSew+6lkgOjo5AePTTnJBCbfpw6OaX2yAx6inEMCTRkR24ncZKkUEvLTdUmSKrF2Cb4N4MpiqKASZYgpQhGypMUBZYUHCVEZ2iQZzeODgeDAZA5PT0NdbnZrDabMkhyVqkqAogjk5hLkm7ee5cnOIPGOyoitqlWNwCQsIDAWAAg0MJnOFRWMM4hYlVVF2fnBjWESjiKZOnmIkL0IuniK91Lt/S9F5hCIjCUfLUNS241mY48CBtszZQzBVthgqoNbgdzYs9NPXxDQl2eB7ZiSoTbbBJovYuNRFKFXQHVUdf289Y9i/2ldvVLXzIDkhtgS5OqoFx4RxkRQKg5hlICI9lUwKuqKNrYMwASQ0IslxbgSdEAIQAlsaOqZC0aZ10WoiRp1nfWJaWxqqr0jml8WpEiIgIgnQGsrYcmndCRYufrhzbgoU2iU+JsTSStf36HAxtj5BDS7lOd56NlO4Z6VXnbRUJpqLgn/13yRYcQEJvVQogJbhlAoEm2po41qEYivze5TTYp1EnQNZ1wNu3/ZbMsHw6KYrCpKgE0xtR1XVUbS1TX5XQyVtW6roWZTIPk+Xlk8EXbl6exRmL2ioc7F6cqOQuIquqNbdzEoDXH2JTvGlIymTfWurww1pIxDM00U5POIKoqgKwKqQwJmkw9CXWMMcQYJQQJaFwj3xC6dYdtSohBSvgCnPCJQQ0AgqCmPTZIBBANKwAZViBIUS4bozjXbOhERAKMaERis8WfAjCQEpCxPpN1mZKP6roE4YPDw8locHx0aAAXi8Xde7LYlIoUmVmBfMFoRQ0wEZEBtSQgAsIILqKKaoI9RyUCiDFGUeNMSLUu1qZsQtwqw8wcAESVCcQZ9JYIxBI4g85gEwiB5BxXg5g5l1IugQxIApxKuTgG09byDbgNdGkEiAoKmtxxAAntK/kkjTEEnpli5AbIrOFsqsSOECBV8WEXUWnQiYxlEU/WeY+GkjcVJIrIerlIIHmdxdUqDyqJg+B20SKQsBKpMKe8neStxS5O1wIlWGuRjHHWKjCzAKSSiyiSZRm0rq+Umvji6AvgBeuKiMZ6sjYhtBhAEUmFtGmUbJvTY4wR1RaQQTtvhKqmHGckUBDh0F2VDLPOgxdCsCgApCipHAQRqS371WSs6k7COKAQEbKqairUR9Ni4OzyrU6JUlUAFdCtvdgeD20dVNKgjDHekrf0yssvvXLndmbN2cXs7Oy8jqFqc5hjjMyKYCwaFSHCwnmJtRJWQTiw2M6R01wjkER5suC1UwI/z3SU5u+eCSGKCtiNdatjQ7vBDbaZaN1tW+GvcFkiJSUZoNVmvoQ1211OZJPM4xAkcwCAyqpKDWeExg5sepN8Wk1QEXY9mdqq69A4RZuXT/2PogYIDRpjYs8AQVJBEJGaGyP2c3v+ZdsLtseSDdqpH12yT2tuNu6KLr0gDQBKO5aqzGwRWwBtptZ+g2awhCVwiI1CT6ZfAApdMBpAVBIhseykFGkbu+wUm/RQs13f+47E7nK95D7upqq752AwODo6GmTepP3IRJUVWp9Nt2QN0cnR0Wuv3vHWxBgfPHr64MnTTUO0DNgL06G08FEpfLcf2P0ia8Iggii1XqUtV9u9NCVwQgPWigLSqBbSYuwgIoAiAW1jzf2B6rTujiYRsfPMYVPV1qtDa73ECcFXVZPTJT1HRLbbW3UDnthoK6C6v6pbUBNo/MMAbdyILItI4yNpU+qol5bUT5D43PH8Uu3F++5TKjzodrfSNKnWGGtsh48JrcsbALpIsWqD7CsqzJz4EphGlO2tb+wCYlfmyDVm4xWX9LqKffLoPvfnaS85CHp0tXeJJDymyIYAlZOnR0REuFGUQJMOCgDW2oODg595/fWvvfk6M//47ffgRz9+cnFRVZsO+wBQeqX+AiC7Hdt26fLrX3qLK37t1mvH+7vjzYD0HY+XyGmPv1z5rH5rxwv3CKwxzlt7sgu1YcoNAO2PcvcUpAagBdokD+kl7mhLyt3U7N65ge5qewXQkuILJzB4wTTW4/fpHSRETWmKACkPwFqLKWFKu9ncoTFDFJkjNxWW0J9mAGjKhNsfYJ8TQ0/awHOnvPf45x2/bjXvia9W86E8c6PBkEA4VI2jOW0Dx92MNswlhFBV1XI5z/McICH+MiobJEdEW1Rkhq0cu7bbe53fe4XnL53+b8kByNr4n5J6SW0pdP9WCebnObe99nG7of/0Nca42TRjskPnTboGQJ/bdYXzrQeouyf1JkW7De56a7J/srRVnn2qe+HtRfvuUVBBNIYQEOqOeWDrSzTGQLOv33a1bHUJBWh2GGHgVpS3FU2t8YP9ucFrRBm0NNjNFlwVFIJdp+J1a7FPtP3L04e97uWFN9q8NXMQUVGA7Sa9NYqopLLfOBkPB4NBnjlQCXUZ6hK2dah9cmoAc6BX+whfjOT6J+y9SLPDqioCYIK5uurOWw1wj3pxK1uuG7Hn9KqbzXS8n0Wp21y8fQaBbSJR3xL73HHoAj9pKfYqFZqoRordXXeHP0j78jSWvIg7Pvt0fKuKJSQ2jj2VoFckoq0rGQASPmZDY2k3BmbgBgQzsSqSRo5LOwRddlVf97vckqbR/9qd/7lEtX3d3uRdOZdpqritig+hEpHcO2ttQi9kgMjc2d8igiBKgKTOuaOjo8K7PPdt5AeNMbQTbLj6FZ9zfE+IgVxBYzsnd76NLsalTCn5fF8/N58jEi/p3t1Qd1ypf3InjpiZaFssA7uE/ZwR6D8xZYHoJeyJfuuHB3vqIqawkP6JsMdAVSKHsgIga3xKyzDUbMHMzC0kBELnougti1Sh2DE5R6ZNw4rd8e3i+7zRSE/qT1U/HPT573KVMdPnwd2Rrm+JuTrvU7ahMcaA1FGYOXA0IsYY5zNCZeayXD97/GQ4LJbzBdcBEQ0SkWkZ6o4Sp6qg2+KuvV7tdb47B/WKXxGxr3hpq/Pt3fwqCY97yxefq5BfOaqdIOrv8EREzhnpAcf3aWxPkGKvRnHvnp0HmHpB/O7VcBc2D3ZZwBdfG1+qvWB7DAAwxRFZIWW49EseIGm9KRBhjDFE2OmT3QzHGEXAeZdlmTeWQ</t>
+  </si>
+  <si>
     <t>WALTHR</t>
   </si>
   <si>
-    <t>IR-CP005</t>
+    <t>WLATHR</t>
+  </si>
+  <si>
+    <t>IR-RD007</t>
+  </si>
+  <si>
+    <t>IR-RD008</t>
+  </si>
+  <si>
+    <t>IR-DS002</t>
+  </si>
+  <si>
+    <t>IR-AC001</t>
+  </si>
+  <si>
+    <t>IR-TR002</t>
+  </si>
+  <si>
+    <t>IR-LR001</t>
+  </si>
+  <si>
+    <t>IR-EK015</t>
+  </si>
+  <si>
+    <t>IR-WT002</t>
+  </si>
+  <si>
+    <t>IR-CP004</t>
+  </si>
+  <si>
+    <t>IR-CP003</t>
+  </si>
+  <si>
+    <t>IR-CP005.1</t>
+  </si>
+  <si>
+    <t>IR-IBT001</t>
+  </si>
+  <si>
+    <t>IR-BO002</t>
+  </si>
+  <si>
+    <t>IR - CM002</t>
+  </si>
+  <si>
+    <t>IR-IB002</t>
+  </si>
+  <si>
+    <t>IR-IB001</t>
+  </si>
+  <si>
+    <t>IR-IO002</t>
+  </si>
+  <si>
+    <t>IR-CB003</t>
+  </si>
+  <si>
+    <t>IR-HR001</t>
+  </si>
+  <si>
+    <t>IR-HB001-C</t>
+  </si>
+  <si>
+    <t>IR-WS008</t>
+  </si>
+  <si>
+    <t>IR-WRB04</t>
+  </si>
+  <si>
+    <t>IR-HG001.1</t>
+  </si>
+  <si>
+    <t>IR-HG001.3</t>
+  </si>
+  <si>
+    <t>IR-HG001.5</t>
+  </si>
+  <si>
+    <t>IR-HG001.7</t>
+  </si>
+  <si>
+    <t>IR-HG001.10</t>
+  </si>
+  <si>
+    <t>IR-HG001.12</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>• Round 10 litres outer bin in black powder coated finish
+• Comes in 2-piece inner recycle bin liners
+• Bin liners in light and dark grey colors
+• With printed recycle and non-recycle insignias for easy differentiation
+• Easy to remove and clean</t>
+  </si>
+  <si>
+    <t>• Rectangle 10 litres outer bin in black powder coated finish
+• Comes in 2-piece inner pp liners
+• Bin liners in black and blue colors
+• With printed recycle and non-recycle insignias for easy
+differentiation
+• Easy to remove and clean
+• Size: 300 x 240 x 280 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Compatible with ipad and mobile phones
+• Ac power adaptor
+• Charging ports : double usb
+• Driver units : 27mm
+• Power adaptor : AC 110-240v, 50/60hz, DC 5v 3a
+Feature
+• 3.2 Inch lcd screen
+• 4 Dimming levels
+• Double usb ports smart charging
+• Easy alarm clock set-up
+• Adjustable alarm volume
+• Music alarm ringtone
+• Snooze function
+• Thermometer function with OF/OC switch
+• Without bluetooth </t>
+  </si>
+  <si>
+    <t>• Stainless steel matt finish
+• Round shape
+• With night light</t>
+  </si>
+  <si>
+    <t>• Use krypton bulb for 70% brighter
+• Blinking led indicator showing
+its position and Batteries power automatic
+on when pull out from
+• Base bracket
+• Push back when not in use
+• Color options - Black/ Silver</t>
+  </si>
+  <si>
+    <t>• Foldable luggage rack
+• Solid metal construction
+• Silver chrome finish
+• 4 Durable black straps
+• Size : 610*430*540mm</t>
+  </si>
+  <si>
+    <t>• 304# Stainless steel with black pp handle
+• 360° Cordless base.
+• Removable filter.
+• External water level indicator
+• Indicator light
+• Safety locking lid
+• Automatic switch off
+• With uk strix thermo control
+• With concealed heating element
+• 220-240v~50hz,1500-1785w
+• Capacity : 1.2 Ltr
+• Finish : Matt / Mirror</t>
+  </si>
+  <si>
+    <t>• High grade melamine material
+• Big tray : 385*308* 22.5mm
+• Color : Black / White</t>
+  </si>
+  <si>
+    <t>• High grade melamine material
+• Tea tray : 155*115*50mm
+• Color : Black / White</t>
+  </si>
+  <si>
+    <t>• High grade melamine material
+• Medium tray : 335*132*11.0mm
+• Color : Black / White</t>
+  </si>
+  <si>
+    <t>• High grade 18/10 stainless steel
+• Double wall construction for superior
+insulation &amp; Heat retention
+• Steel mesh plunger mechanism
+• Capacity : 500 ml 
+• Finish : Matt / Mirror</t>
   </si>
   <si>
     <t>• High grade 18/10 stainless steel
 • Double wall construction for superior insulation
 &amp; heat retention
 • Steel mesh plunger mechanism
-• Capacity : 500 ml
+• Capacity : 500 ml 
 • Finish : Matt / Mirror</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>• High grade 18/10 stainless steel
+• Double wall construction for superior insulation
+&amp; heat retention
+• Steel mesh plunger mechanism
+• Capacity :   800 ml
+• Finish : Matt / Mirror</t>
+  </si>
+  <si>
+    <t>• STAINLESS STEEL
+• DOUBLE WALL
+• CAPACITY 1.2 LTR
+• WITH ICE TONG
+• FINISH : MATT / MIRROR</t>
+  </si>
+  <si>
+    <t>• With levers to make uncorking
+of bottles easier
+• Bottle opener in the handle.
+• Length : 16 cm</t>
+  </si>
+  <si>
+    <t>• Size: 330mm x 155mm x 255mm
+• Voltage : 220-240v/110-120v
+• Frequency : 50/60hz
+• Rated power: 1400w
+• Pressure : 19bar
+• Water tank capacity : 800ml
+• Rated power: 1400w
+• Pressure : 19bar
+• Water tank capacity : 800ml
+• Color : Black/ Red/ White</t>
+  </si>
+  <si>
+    <t>• Made of heavy-duty construction
+• Steel mesh top
+• Automatic locking mechanism when folded
+• With iron rest
+• Multi-welded t-leg construction
+• Height adjustment
+• Pre-treated pad in one-piece 10mm
+• Thickness for scorch resistance.
+• Size : 1100*340*820/1270mm,
+• Available color : Brown / Black/ Gray</t>
+  </si>
+  <si>
+    <t>• Made of heavy-duty construction
+• Steel mesh top
+• Automatic locking mechanism when folded
+• Multi-welded t-leg construction
+• Height adjustment
+• Pre-treated pad in one-piece 10mm
+• Thickness for scorch resistance.
+• Available size : 990*330*800 mm
+• 1150*330*820 Mm
+• Available color : Brown / Black/Gray</t>
+  </si>
+  <si>
+    <t>• Powder coated metal hook
+• Color : Black/ White</t>
+  </si>
+  <si>
+    <t>• Polyrattan synthetic weave basket with linen
+fabric liner
+• Size : 250 * 250 mm</t>
+  </si>
+  <si>
+    <t>• 3 Heat selectors including cold shot
+• 3 Airflow 60 and 90 m3/h including cold shot
+• Spiral cord length 40 cm extendable
+• Integrated over-heating and circuit protection
+• Size : 250*260*140 mm
+• Color : white / black
+• 220v(50hz-60hz)
+• 1200w
+• 13m/s</t>
+  </si>
+  <si>
+    <t>MATERIAL : CLOTH</t>
+  </si>
+  <si>
+    <t>• Glass material
+• Color : black
+• Large, easy to read 1.2” Lcd display
+• 150kg/330lb capacity
+• Four digit readout in 0.1 Kg or 0.2lb
+• Unit : kg / lb/ st
+• Powered by lithium battery
+• Size : 300 * 300 * 22 mm</t>
+  </si>
+  <si>
+    <t>• Noise-free
+• Fingerprint resistant
+• Soft close
+• Plastic bag fixel
+• Capacity : 5 ltr</t>
+  </si>
+  <si>
+    <t>MATERIAL: WOODEN 
+TROUSER HANGERS
+12  MM  THICKNESS</t>
+  </si>
+  <si>
+    <t>MATERIAL: WOODEN 
+SKIRT HANGERS
+12  MM THICKNESS</t>
+  </si>
+  <si>
+    <t>SATIN HANGERS
+GREY</t>
+  </si>
+  <si>
+    <t>MATERIAL: WOODEN COAT HANGERS
+45 MM THICKNESS</t>
+  </si>
+  <si>
+    <t>WOODEN COAT BRUSH 
+SIZE  : 10"</t>
+  </si>
+  <si>
+    <t>WOODEN SHOE HORN 
+SIZE  : 10"</t>
+  </si>
+  <si>
+    <t>MATERIAL : RESIN WITH MOP
+Size :  100*100*30 MM</t>
+  </si>
+  <si>
+    <t>MATERIAL : RESIN WITH MOP
+Size : 293*194*29 MM</t>
+  </si>
+  <si>
+    <t>FIBER ROOM SERVICE CART 
+COLOR : BLACK 
+WITH OPEN AND CLOSE ZIPPER BAG, 
+8 INCH PP WHEELS
+SIZE : 1560*580*1230 MM
+WITH CLOSED DOORS
+2 FULL BAGS</t>
   </si>
 </sst>
 </file>
@@ -216,9 +1196,137 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="33">
   <rv s="0">
     <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>10</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>11</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>12</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>13</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>14</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>15</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>16</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>17</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>18</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>19</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>20</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>21</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>22</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>23</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>24</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>25</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>26</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>27</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>28</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>29</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>30</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>31</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>32</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -236,6 +1344,38 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
+  <rel r:id="rId11"/>
+  <rel r:id="rId12"/>
+  <rel r:id="rId13"/>
+  <rel r:id="rId14"/>
+  <rel r:id="rId15"/>
+  <rel r:id="rId16"/>
+  <rel r:id="rId17"/>
+  <rel r:id="rId18"/>
+  <rel r:id="rId19"/>
+  <rel r:id="rId20"/>
+  <rel r:id="rId21"/>
+  <rel r:id="rId22"/>
+  <rel r:id="rId23"/>
+  <rel r:id="rId24"/>
+  <rel r:id="rId25"/>
+  <rel r:id="rId26"/>
+  <rel r:id="rId27"/>
+  <rel r:id="rId28"/>
+  <rel r:id="rId29"/>
+  <rel r:id="rId30"/>
+  <rel r:id="rId31"/>
+  <rel r:id="rId32"/>
+  <rel r:id="rId33"/>
 </richValueRels>
 </file>
 
@@ -524,26 +1664,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="51" width="9.140625"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="74" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,81 +1715,1924 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1"/>
-    <row r="3" spans="1:10" s="2" customFormat="1"/>
-    <row r="4" spans="1:10" s="2" customFormat="1"/>
-    <row r="5" spans="1:10" s="2" customFormat="1"/>
-    <row r="6" spans="1:10" s="2" customFormat="1"/>
-    <row r="7" spans="1:10" s="2" customFormat="1"/>
-    <row r="8" spans="1:10" s="2" customFormat="1"/>
-    <row r="9" spans="1:10" s="2" customFormat="1"/>
-    <row r="10" spans="1:10" s="2" customFormat="1"/>
-    <row r="11" spans="1:10" s="2" customFormat="1"/>
-    <row r="12" spans="1:10" ht="50" customHeight="1">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="50" customHeight="1">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2">
+        <v>1225</v>
+      </c>
+      <c r="H2">
+        <v>130095</v>
+      </c>
+      <c r="I2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2">
+        <v>0.18</v>
+      </c>
+      <c r="K2">
+        <v>39269099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="50" customHeight="1">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3">
+        <v>1850</v>
+      </c>
+      <c r="H3">
+        <v>196470</v>
+      </c>
+      <c r="I3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3">
+        <v>0.18</v>
+      </c>
+      <c r="K3">
+        <v>39269099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="50" customHeight="1">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4">
+        <v>3100</v>
+      </c>
+      <c r="H4">
+        <v>329220</v>
+      </c>
+      <c r="I4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4">
+        <v>0.18</v>
+      </c>
+      <c r="K4">
+        <v>85437099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="50" customHeight="1">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5">
+        <v>3100</v>
+      </c>
+      <c r="H5">
+        <v>329220</v>
+      </c>
+      <c r="I5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5">
+        <v>0.18</v>
+      </c>
+      <c r="K5">
+        <v>85437099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="50" customHeight="1">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6">
+        <v>2400</v>
+      </c>
+      <c r="H6">
+        <v>254880</v>
+      </c>
+      <c r="I6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6">
+        <v>0.18</v>
+      </c>
+      <c r="K6">
+        <v>91091010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="50" customHeight="1">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7">
+        <v>2400</v>
+      </c>
+      <c r="H7">
+        <v>254880</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7">
+        <v>0.18</v>
+      </c>
+      <c r="K7">
+        <v>91091010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="50" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
+        <v>63720</v>
+      </c>
+      <c r="I8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8">
+        <v>0.18</v>
+      </c>
+      <c r="K8">
+        <v>85131010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="50" customHeight="1">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9">
+        <v>3025</v>
+      </c>
+      <c r="H9">
+        <v>321255</v>
+      </c>
+      <c r="I9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J9">
+        <v>0.18</v>
+      </c>
+      <c r="K9">
+        <v>94038900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="50" customHeight="1">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10">
+        <v>3025</v>
+      </c>
+      <c r="H10">
+        <v>321255</v>
+      </c>
+      <c r="I10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10">
+        <v>0.18</v>
+      </c>
+      <c r="K10">
+        <v>94038900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="50" customHeight="1">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="50" customHeight="1">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="e" vm="1">
+        <v>70</v>
+      </c>
+      <c r="C12" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="G12">
-        <v>2520</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <v>0.18</v>
+        <v>2300</v>
+      </c>
+      <c r="H12">
+        <v>244260</v>
+      </c>
+      <c r="I12" t="s">
+        <v>158</v>
       </c>
       <c r="J12">
+        <v>0.18</v>
+      </c>
+      <c r="K12">
+        <v>85167100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="50" customHeight="1">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13">
+        <v>2300</v>
+      </c>
+      <c r="H13">
+        <v>244260</v>
+      </c>
+      <c r="I13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13">
+        <v>0.18</v>
+      </c>
+      <c r="K13">
+        <v>85167100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="50" customHeight="1">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14">
+        <v>840</v>
+      </c>
+      <c r="H14">
+        <v>89208</v>
+      </c>
+      <c r="I14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14">
+        <v>0.18</v>
+      </c>
+      <c r="K14">
+        <v>39241090</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="50" customHeight="1">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15">
+        <v>840</v>
+      </c>
+      <c r="H15">
+        <v>89208</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15">
+        <v>0.18</v>
+      </c>
+      <c r="K15">
+        <v>39241090</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="50" customHeight="1">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16">
+        <v>448</v>
+      </c>
+      <c r="H16">
+        <v>47577.6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16">
+        <v>0.18</v>
+      </c>
+      <c r="K16">
+        <v>39241090</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="50" customHeight="1">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17">
+        <v>448</v>
+      </c>
+      <c r="H17">
+        <v>47577.6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17">
+        <v>0.18</v>
+      </c>
+      <c r="K17">
+        <v>39241090</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="50" customHeight="1">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18">
+        <v>392</v>
+      </c>
+      <c r="H18">
+        <v>41630.39999999999</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18">
+        <v>0.18</v>
+      </c>
+      <c r="K18">
+        <v>39241090</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="50" customHeight="1">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19">
+        <v>392</v>
+      </c>
+      <c r="H19">
+        <v>41630.39999999999</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19">
+        <v>0.18</v>
+      </c>
+      <c r="K19">
+        <v>39241090</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="50" customHeight="1">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20">
+        <v>2600</v>
+      </c>
+      <c r="H20">
+        <v>30680</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20">
+        <v>0.18</v>
+      </c>
+      <c r="K20">
         <v>70133700</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1"/>
-    <row r="14" spans="1:10" s="2" customFormat="1"/>
-    <row r="15" spans="1:10" s="2" customFormat="1"/>
-    <row r="16" spans="1:10" s="2" customFormat="1"/>
-    <row r="17" s="2" customFormat="1"/>
-    <row r="18" s="2" customFormat="1"/>
-    <row r="19" s="2" customFormat="1"/>
-    <row r="20" s="2" customFormat="1"/>
-    <row r="21" s="2" customFormat="1"/>
-    <row r="22" s="2" customFormat="1"/>
-    <row r="23" s="2" customFormat="1"/>
-    <row r="24" s="2" customFormat="1"/>
-    <row r="25" s="2" customFormat="1"/>
-    <row r="26" s="2" customFormat="1"/>
-    <row r="27" s="2" customFormat="1"/>
-    <row r="28" s="2" customFormat="1"/>
-    <row r="29" s="2" customFormat="1"/>
-    <row r="30" s="2" customFormat="1"/>
-    <row r="31" s="2" customFormat="1"/>
-    <row r="32" s="2" customFormat="1"/>
-    <row r="33" s="2" customFormat="1"/>
-    <row r="34" s="2" customFormat="1"/>
-    <row r="35" s="2" customFormat="1"/>
-    <row r="36" s="2" customFormat="1"/>
-    <row r="37" s="2" customFormat="1"/>
-    <row r="38" s="2" customFormat="1"/>
-    <row r="39" s="2" customFormat="1"/>
-    <row r="40" s="2" customFormat="1"/>
-    <row r="41" s="2" customFormat="1"/>
-    <row r="42" s="2" customFormat="1"/>
-    <row r="43" s="2" customFormat="1"/>
-    <row r="44" s="2" customFormat="1"/>
+    <row r="21" spans="1:11" ht="50" customHeight="1">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21">
+        <v>2650</v>
+      </c>
+      <c r="H21">
+        <v>31270</v>
+      </c>
+      <c r="I21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21">
+        <v>0.18</v>
+      </c>
+      <c r="K21">
+        <v>70133700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="50" customHeight="1">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22">
+        <v>2950</v>
+      </c>
+      <c r="H22">
+        <v>34810</v>
+      </c>
+      <c r="I22" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22">
+        <v>0.18</v>
+      </c>
+      <c r="K22">
+        <v>70133700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="50" customHeight="1">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23">
+        <v>1160</v>
+      </c>
+      <c r="H23">
+        <v>12992</v>
+      </c>
+      <c r="I23" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23">
+        <v>0.12</v>
+      </c>
+      <c r="K23">
+        <v>73239990</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="50" customHeight="1">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24">
+        <v>600</v>
+      </c>
+      <c r="H24">
+        <v>7080</v>
+      </c>
+      <c r="I24" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24">
+        <v>0.18</v>
+      </c>
+      <c r="K24">
+        <v>82055110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="50" customHeight="1">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25">
+        <v>600</v>
+      </c>
+      <c r="H25">
+        <v>7080</v>
+      </c>
+      <c r="I25" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25">
+        <v>0.18</v>
+      </c>
+      <c r="K25">
+        <v>82055110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="50" customHeight="1">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26">
+        <v>8100</v>
+      </c>
+      <c r="H26">
+        <v>95580</v>
+      </c>
+      <c r="I26" t="s">
+        <v>158</v>
+      </c>
+      <c r="J26">
+        <v>0.18</v>
+      </c>
+      <c r="K26">
+        <v>85167100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="50" customHeight="1">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27">
+        <v>8100</v>
+      </c>
+      <c r="H27">
+        <v>95580</v>
+      </c>
+      <c r="I27" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27">
+        <v>0.18</v>
+      </c>
+      <c r="K27">
+        <v>85167100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="2" customFormat="1"/>
+    <row r="29" spans="1:11" s="2" customFormat="1"/>
+    <row r="30" spans="1:11" s="2" customFormat="1"/>
+    <row r="31" spans="1:11" s="2" customFormat="1"/>
+    <row r="32" spans="1:11" s="2" customFormat="1"/>
+    <row r="33" spans="1:11" s="2" customFormat="1"/>
+    <row r="34" spans="1:11" ht="50" customHeight="1">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34">
+        <v>2800</v>
+      </c>
+      <c r="H34">
+        <v>297360</v>
+      </c>
+      <c r="I34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J34">
+        <v>0.18</v>
+      </c>
+      <c r="K34">
+        <v>94032010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="50" customHeight="1">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35">
+        <v>2968</v>
+      </c>
+      <c r="H35">
+        <v>315201.6</v>
+      </c>
+      <c r="I35" t="s">
+        <v>158</v>
+      </c>
+      <c r="J35">
+        <v>0.18</v>
+      </c>
+      <c r="K35">
+        <v>94032010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="50" customHeight="1">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36">
+        <v>2968</v>
+      </c>
+      <c r="H36">
+        <v>315201.6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>158</v>
+      </c>
+      <c r="J36">
+        <v>0.18</v>
+      </c>
+      <c r="K36">
+        <v>94032010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="50" customHeight="1">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37">
+        <v>335</v>
+      </c>
+      <c r="H37">
+        <v>35577</v>
+      </c>
+      <c r="I37" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37">
+        <v>0.18</v>
+      </c>
+      <c r="K37">
+        <v>94032090</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="50" customHeight="1">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38">
+        <v>335</v>
+      </c>
+      <c r="H38">
+        <v>35577</v>
+      </c>
+      <c r="I38" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38">
+        <v>0.18</v>
+      </c>
+      <c r="K38">
+        <v>94032090</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="50" customHeight="1">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" t="s">
+        <v>178</v>
+      </c>
+      <c r="G39">
+        <v>5800</v>
+      </c>
+      <c r="H39">
+        <v>68440</v>
+      </c>
+      <c r="I39" t="s">
+        <v>158</v>
+      </c>
+      <c r="J39">
+        <v>0.18</v>
+      </c>
+      <c r="K39">
+        <v>39269099</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="50" customHeight="1">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40">
+        <v>5800</v>
+      </c>
+      <c r="H40">
+        <v>68440</v>
+      </c>
+      <c r="I40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J40">
+        <v>0.18</v>
+      </c>
+      <c r="K40">
+        <v>39269099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="50" customHeight="1">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="50" customHeight="1">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42">
+        <v>1650</v>
+      </c>
+      <c r="H42">
+        <v>175230</v>
+      </c>
+      <c r="I42" t="s">
+        <v>158</v>
+      </c>
+      <c r="J42">
+        <v>0.18</v>
+      </c>
+      <c r="K42">
+        <v>85163100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="50" customHeight="1">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43">
+        <v>200</v>
+      </c>
+      <c r="H43">
+        <v>21240</v>
+      </c>
+      <c r="I43" t="s">
+        <v>158</v>
+      </c>
+      <c r="J43">
+        <v>0.18</v>
+      </c>
+      <c r="K43">
+        <v>63052000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="50" customHeight="1">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44">
+        <v>200</v>
+      </c>
+      <c r="H44">
+        <v>21240</v>
+      </c>
+      <c r="I44" t="s">
+        <v>158</v>
+      </c>
+      <c r="J44">
+        <v>0.18</v>
+      </c>
+      <c r="K44">
+        <v>63052000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="50" customHeight="1">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" t="s">
+        <v>181</v>
+      </c>
+      <c r="G45">
+        <v>1450</v>
+      </c>
+      <c r="H45">
+        <v>153990</v>
+      </c>
+      <c r="I45" t="s">
+        <v>158</v>
+      </c>
+      <c r="J45">
+        <v>0.18</v>
+      </c>
+      <c r="K45">
+        <v>84231000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="50" customHeight="1">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46">
+        <v>1450</v>
+      </c>
+      <c r="H46">
+        <v>153990</v>
+      </c>
+      <c r="I46" t="s">
+        <v>158</v>
+      </c>
+      <c r="J46">
+        <v>0.18</v>
+      </c>
+      <c r="K46">
+        <v>84231000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="50" customHeight="1">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" t="s">
+        <v>182</v>
+      </c>
+      <c r="G47">
+        <v>1700</v>
+      </c>
+      <c r="H47">
+        <v>180540</v>
+      </c>
+      <c r="I47" t="s">
+        <v>158</v>
+      </c>
+      <c r="J47">
+        <v>0.18</v>
+      </c>
+      <c r="K47">
+        <v>73239390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="50" customHeight="1">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48">
+        <v>1700</v>
+      </c>
+      <c r="H48">
+        <v>180540</v>
+      </c>
+      <c r="I48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J48">
+        <v>0.18</v>
+      </c>
+      <c r="K48">
+        <v>73239390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="50" customHeight="1">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49">
+        <v>110</v>
+      </c>
+      <c r="H49">
+        <v>33264</v>
+      </c>
+      <c r="I49" t="s">
+        <v>158</v>
+      </c>
+      <c r="J49">
+        <v>0.12</v>
+      </c>
+      <c r="K49">
+        <v>44211000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="50" customHeight="1">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50">
+        <v>110</v>
+      </c>
+      <c r="H50">
+        <v>33264</v>
+      </c>
+      <c r="I50" t="s">
+        <v>158</v>
+      </c>
+      <c r="J50">
+        <v>0.12</v>
+      </c>
+      <c r="K50">
+        <v>44211000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="50" customHeight="1">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="e" vm="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" t="s">
+        <v>184</v>
+      </c>
+      <c r="G51">
+        <v>110</v>
+      </c>
+      <c r="H51">
+        <v>22176</v>
+      </c>
+      <c r="I51" t="s">
+        <v>158</v>
+      </c>
+      <c r="J51">
+        <v>0.12</v>
+      </c>
+      <c r="K51">
+        <v>44211000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="50" customHeight="1">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="e" vm="27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" t="s">
+        <v>185</v>
+      </c>
+      <c r="G52">
+        <v>64</v>
+      </c>
+      <c r="H52">
+        <v>6796.799999999999</v>
+      </c>
+      <c r="I52" t="s">
+        <v>158</v>
+      </c>
+      <c r="J52">
+        <v>0.18</v>
+      </c>
+      <c r="K52">
+        <v>39269069</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="50" customHeight="1">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" t="e" vm="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" t="s">
+        <v>88</v>
+      </c>
+      <c r="G53">
+        <v>95</v>
+      </c>
+      <c r="H53">
+        <v>10089</v>
+      </c>
+      <c r="I53" t="s">
+        <v>158</v>
+      </c>
+      <c r="J53">
+        <v>0.18</v>
+      </c>
+      <c r="K53">
+        <v>39269069</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="50" customHeight="1">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" t="e" vm="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D54" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54">
+        <v>95</v>
+      </c>
+      <c r="H54">
+        <v>10089</v>
+      </c>
+      <c r="I54" t="s">
+        <v>158</v>
+      </c>
+      <c r="J54">
+        <v>0.18</v>
+      </c>
+      <c r="K54">
+        <v>39269069</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="50" customHeight="1">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" t="e" vm="29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" t="s">
+        <v>186</v>
+      </c>
+      <c r="G55">
+        <v>195</v>
+      </c>
+      <c r="H55">
+        <v>3276</v>
+      </c>
+      <c r="I55" t="s">
+        <v>158</v>
+      </c>
+      <c r="J55">
+        <v>0.12</v>
+      </c>
+      <c r="K55">
+        <v>44211000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="50" customHeight="1">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" t="e" vm="29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56">
+        <v>195</v>
+      </c>
+      <c r="H56">
+        <v>3276</v>
+      </c>
+      <c r="I56" t="s">
+        <v>158</v>
+      </c>
+      <c r="J56">
+        <v>0.12</v>
+      </c>
+      <c r="K56">
+        <v>44211000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="50" customHeight="1">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" t="e" vm="30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" t="s">
+        <v>187</v>
+      </c>
+      <c r="G57">
+        <v>200</v>
+      </c>
+      <c r="H57">
+        <v>2240</v>
+      </c>
+      <c r="I57" t="s">
+        <v>158</v>
+      </c>
+      <c r="J57">
+        <v>0.12</v>
+      </c>
+      <c r="K57">
+        <v>44211000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="50" customHeight="1">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" t="e" vm="30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" t="s">
+        <v>187</v>
+      </c>
+      <c r="G58">
+        <v>200</v>
+      </c>
+      <c r="H58">
+        <v>2240</v>
+      </c>
+      <c r="I58" t="s">
+        <v>158</v>
+      </c>
+      <c r="J58">
+        <v>0.12</v>
+      </c>
+      <c r="K58">
+        <v>44211000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="50" customHeight="1">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" t="e" vm="31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59">
+        <v>180</v>
+      </c>
+      <c r="H59">
+        <v>2016</v>
+      </c>
+      <c r="I59" t="s">
+        <v>158</v>
+      </c>
+      <c r="J59">
+        <v>0.12</v>
+      </c>
+      <c r="K59">
+        <v>44211000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="50" customHeight="1">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" t="e" vm="32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" t="s">
+        <v>189</v>
+      </c>
+      <c r="G60">
+        <v>693</v>
+      </c>
+      <c r="H60">
+        <v>73596.59999999999</v>
+      </c>
+      <c r="I60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J60">
+        <v>0.18</v>
+      </c>
+      <c r="K60">
+        <v>96019040</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="50" customHeight="1">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" t="e" vm="32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" t="s">
+        <v>190</v>
+      </c>
+      <c r="G61">
+        <v>1386</v>
+      </c>
+      <c r="H61">
+        <v>147193.2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>158</v>
+      </c>
+      <c r="J61">
+        <v>0.18</v>
+      </c>
+      <c r="K61">
+        <v>96019040</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="2" customFormat="1"/>
+    <row r="63" spans="1:11" s="2" customFormat="1"/>
+    <row r="64" spans="1:11" ht="50" customHeight="1">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="50" customHeight="1">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="2" customFormat="1"/>
+    <row r="67" spans="1:11" s="2" customFormat="1"/>
+    <row r="68" spans="1:11" s="2" customFormat="1"/>
+    <row r="69" spans="1:11" s="2" customFormat="1"/>
+    <row r="70" spans="1:11" ht="50" customHeight="1">
+      <c r="A70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" t="e" vm="33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" t="s">
+        <v>191</v>
+      </c>
+      <c r="G70">
+        <v>30800</v>
+      </c>
+      <c r="H70">
+        <v>181720</v>
+      </c>
+      <c r="I70" t="s">
+        <v>158</v>
+      </c>
+      <c r="J70">
+        <v>0.18</v>
+      </c>
+      <c r="K70">
+        <v>94030000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="50" customHeight="1">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="50" customHeight="1">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="2" customFormat="1"/>
+    <row r="74" spans="1:11" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
